--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22731</v>
+        <v>0.228288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.176549</v>
+        <v>0.175062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196313</v>
+        <v>0.197396</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17117</v>
+        <v>0.171092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.180982</v>
+        <v>0.1808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200649</v>
+        <v>0.201098</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178191</v>
+        <v>0.17948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18969</v>
+        <v>0.188847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207516</v>
+        <v>0.210669</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185847</v>
+        <v>0.186286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19941</v>
+        <v>0.199601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217637</v>
+        <v>0.217947</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.19186</v>
+        <v>0.192031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209454</v>
+        <v>0.208249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.224395</v>
+        <v>0.228178</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.199643</v>
+        <v>0.199941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162132</v>
+        <v>0.16063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182797</v>
+        <v>0.182631</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206406</v>
+        <v>0.204377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.165799</v>
+        <v>0.16625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.191043</v>
+        <v>0.18903</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.213466</v>
+        <v>0.214972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.170909</v>
+        <v>0.171189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191729</v>
+        <v>0.192181</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221498</v>
+        <v>0.220629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17561</v>
+        <v>0.182288</v>
       </c>
       <c r="D10" t="n">
-        <v>0.198268</v>
+        <v>0.197342</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225674</v>
+        <v>0.226513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179447</v>
+        <v>0.180755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202317</v>
+        <v>0.202593</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234917</v>
+        <v>0.234066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187893</v>
+        <v>0.186819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209382</v>
+        <v>0.210518</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.239322</v>
+        <v>0.239763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19244</v>
+        <v>0.191585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212511</v>
+        <v>0.21387</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.246745</v>
+        <v>0.247632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197266</v>
+        <v>0.197448</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217918</v>
+        <v>0.222035</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.256643</v>
+        <v>0.257186</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204921</v>
+        <v>0.204525</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22546</v>
+        <v>0.228226</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261291</v>
+        <v>0.261773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209713</v>
+        <v>0.210392</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230486</v>
+        <v>0.230689</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270097</v>
+        <v>0.26996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218037</v>
+        <v>0.218048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237935</v>
+        <v>0.236836</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.208473</v>
+        <v>0.208626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.223669</v>
+        <v>0.223829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242839</v>
+        <v>0.240441</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.212279</v>
+        <v>0.214544</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23081</v>
+        <v>0.23098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246946</v>
+        <v>0.247678</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.219776</v>
+        <v>0.225558</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237362</v>
+        <v>0.237581</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253656</v>
+        <v>0.253398</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227421</v>
+        <v>0.230404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.186474</v>
+        <v>0.187886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209123</v>
+        <v>0.208549</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233551</v>
+        <v>0.239723</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194997</v>
+        <v>0.191492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214459</v>
+        <v>0.214207</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.240659</v>
+        <v>0.244868</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200526</v>
+        <v>0.198164</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216647</v>
+        <v>0.216836</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248988</v>
+        <v>0.250007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.202951</v>
+        <v>0.201526</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224541</v>
+        <v>0.221157</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.256886</v>
+        <v>0.257041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207852</v>
+        <v>0.208743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227728</v>
+        <v>0.226739</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.266979</v>
+        <v>0.265722</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215575</v>
+        <v>0.217141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.233165</v>
+        <v>0.235785</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272632</v>
+        <v>0.273049</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218416</v>
+        <v>0.219428</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239598</v>
+        <v>0.240534</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280374</v>
+        <v>0.281508</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226463</v>
+        <v>0.226133</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247938</v>
+        <v>0.245423</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.289725</v>
+        <v>0.28989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234217</v>
+        <v>0.234008</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25482</v>
+        <v>0.255626</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298471</v>
+        <v>0.296979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240268</v>
+        <v>0.240265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261381</v>
+        <v>0.260123</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.306987</v>
+        <v>0.306771</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248307</v>
+        <v>0.248587</v>
       </c>
       <c r="D31" t="n">
-        <v>0.266433</v>
+        <v>0.266639</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2582</v>
+        <v>0.259787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253935</v>
+        <v>0.256514</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274804</v>
+        <v>0.272996</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.264643</v>
+        <v>0.265156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.263716</v>
+        <v>0.265936</v>
       </c>
       <c r="D33" t="n">
-        <v>0.279304</v>
+        <v>0.280552</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269292</v>
+        <v>0.270186</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270898</v>
+        <v>0.272937</v>
       </c>
       <c r="D34" t="n">
-        <v>0.286233</v>
+        <v>0.287505</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277118</v>
+        <v>0.278196</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219563</v>
+        <v>0.220687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.237239</v>
+        <v>0.238854</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.283199</v>
+        <v>0.283555</v>
       </c>
       <c r="C36" t="n">
-        <v>0.223636</v>
+        <v>0.224083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.241606</v>
+        <v>0.244055</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.287701</v>
+        <v>0.288941</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229545</v>
+        <v>0.229666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246658</v>
+        <v>0.248154</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.295502</v>
+        <v>0.298698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233706</v>
+        <v>0.234402</v>
       </c>
       <c r="D38" t="n">
-        <v>0.253638</v>
+        <v>0.254496</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302066</v>
+        <v>0.305302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239118</v>
+        <v>0.241232</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258507</v>
+        <v>0.261629</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309916</v>
+        <v>0.311319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244914</v>
+        <v>0.246703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264713</v>
+        <v>0.26732</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317466</v>
+        <v>0.319628</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251818</v>
+        <v>0.252293</v>
       </c>
       <c r="D41" t="n">
-        <v>0.270428</v>
+        <v>0.272004</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326029</v>
+        <v>0.327827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.257265</v>
+        <v>0.258672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276585</v>
+        <v>0.278838</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.333658</v>
+        <v>0.335276</v>
       </c>
       <c r="C43" t="n">
-        <v>0.263708</v>
+        <v>0.265037</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282554</v>
+        <v>0.286501</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.342159</v>
+        <v>0.343955</v>
       </c>
       <c r="C44" t="n">
-        <v>0.271312</v>
+        <v>0.272709</v>
       </c>
       <c r="D44" t="n">
-        <v>0.29034</v>
+        <v>0.294972</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350022</v>
+        <v>0.350451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.278333</v>
+        <v>0.280094</v>
       </c>
       <c r="D45" t="n">
-        <v>0.296958</v>
+        <v>0.299618</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.357827</v>
+        <v>0.358582</v>
       </c>
       <c r="C46" t="n">
-        <v>0.285239</v>
+        <v>0.286406</v>
       </c>
       <c r="D46" t="n">
-        <v>0.302</v>
+        <v>0.304465</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291849</v>
+        <v>0.293849</v>
       </c>
       <c r="C47" t="n">
-        <v>0.292102</v>
+        <v>0.294902</v>
       </c>
       <c r="D47" t="n">
-        <v>0.310029</v>
+        <v>0.310664</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.295868</v>
+        <v>0.299243</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298487</v>
+        <v>0.300606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.315079</v>
+        <v>0.315578</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.302395</v>
+        <v>0.304579</v>
       </c>
       <c r="C49" t="n">
-        <v>0.305935</v>
+        <v>0.306168</v>
       </c>
       <c r="D49" t="n">
-        <v>0.322956</v>
+        <v>0.325297</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308133</v>
+        <v>0.3103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243414</v>
+        <v>0.245923</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256657</v>
+        <v>0.257829</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.314086</v>
+        <v>0.316098</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247665</v>
+        <v>0.24943</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259765</v>
+        <v>0.262236</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.320724</v>
+        <v>0.322989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251986</v>
+        <v>0.253923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266229</v>
+        <v>0.268361</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326801</v>
+        <v>0.329304</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257727</v>
+        <v>0.259164</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271878</v>
+        <v>0.274086</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.334195</v>
+        <v>0.33656</v>
       </c>
       <c r="C54" t="n">
-        <v>0.262201</v>
+        <v>0.264029</v>
       </c>
       <c r="D54" t="n">
-        <v>0.276868</v>
+        <v>0.279254</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34111</v>
+        <v>0.343851</v>
       </c>
       <c r="C55" t="n">
-        <v>0.267881</v>
+        <v>0.269802</v>
       </c>
       <c r="D55" t="n">
-        <v>0.282346</v>
+        <v>0.284225</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.349248</v>
+        <v>0.351284</v>
       </c>
       <c r="C56" t="n">
-        <v>0.274233</v>
+        <v>0.276104</v>
       </c>
       <c r="D56" t="n">
-        <v>0.285613</v>
+        <v>0.287643</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.356369</v>
+        <v>0.359212</v>
       </c>
       <c r="C57" t="n">
-        <v>0.280569</v>
+        <v>0.281914</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29232</v>
+        <v>0.294197</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.36312</v>
+        <v>0.365545</v>
       </c>
       <c r="C58" t="n">
-        <v>0.286467</v>
+        <v>0.28834</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298966</v>
+        <v>0.300749</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.370422</v>
+        <v>0.373308</v>
       </c>
       <c r="C59" t="n">
-        <v>0.293397</v>
+        <v>0.29552</v>
       </c>
       <c r="D59" t="n">
-        <v>0.305675</v>
+        <v>0.306886</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.378485</v>
+        <v>0.381568</v>
       </c>
       <c r="C60" t="n">
-        <v>0.300475</v>
+        <v>0.302786</v>
       </c>
       <c r="D60" t="n">
-        <v>0.311245</v>
+        <v>0.313336</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.298695</v>
+        <v>0.30007</v>
       </c>
       <c r="C61" t="n">
-        <v>0.307123</v>
+        <v>0.302443</v>
       </c>
       <c r="D61" t="n">
-        <v>0.318462</v>
+        <v>0.312461</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.318992</v>
+        <v>0.309263</v>
       </c>
       <c r="C62" t="n">
-        <v>0.315483</v>
+        <v>0.309748</v>
       </c>
       <c r="D62" t="n">
-        <v>0.330646</v>
+        <v>0.322974</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.325134</v>
+        <v>0.317737</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321823</v>
+        <v>0.316543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.335995</v>
+        <v>0.328711</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.314545</v>
+        <v>0.324937</v>
       </c>
       <c r="C64" t="n">
-        <v>0.251062</v>
+        <v>0.256017</v>
       </c>
       <c r="D64" t="n">
-        <v>0.262912</v>
+        <v>0.267275</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.341806</v>
+        <v>0.313595</v>
       </c>
       <c r="C65" t="n">
-        <v>0.256074</v>
+        <v>0.260155</v>
       </c>
       <c r="D65" t="n">
-        <v>0.26792</v>
+        <v>0.271758</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.34802</v>
+        <v>0.32065</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261683</v>
+        <v>0.263965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.272891</v>
+        <v>0.275948</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357033</v>
+        <v>0.330351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266413</v>
+        <v>0.269193</v>
       </c>
       <c r="D67" t="n">
-        <v>0.277221</v>
+        <v>0.280885</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365532</v>
+        <v>0.338086</v>
       </c>
       <c r="C68" t="n">
-        <v>0.281286</v>
+        <v>0.26484</v>
       </c>
       <c r="D68" t="n">
-        <v>0.284135</v>
+        <v>0.287491</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358135</v>
+        <v>0.365121</v>
       </c>
       <c r="C69" t="n">
-        <v>0.286834</v>
+        <v>0.282235</v>
       </c>
       <c r="D69" t="n">
-        <v>0.288128</v>
+        <v>0.292025</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.367061</v>
+        <v>0.374197</v>
       </c>
       <c r="C70" t="n">
-        <v>0.284618</v>
+        <v>0.288295</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294648</v>
+        <v>0.297435</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.378778</v>
+        <v>0.383355</v>
       </c>
       <c r="C71" t="n">
-        <v>0.294005</v>
+        <v>0.294579</v>
       </c>
       <c r="D71" t="n">
-        <v>0.301798</v>
+        <v>0.303604</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.391433</v>
+        <v>0.392522</v>
       </c>
       <c r="C72" t="n">
-        <v>0.300991</v>
+        <v>0.301621</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308235</v>
+        <v>0.31003</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.398704</v>
+        <v>0.400687</v>
       </c>
       <c r="C73" t="n">
-        <v>0.307709</v>
+        <v>0.309314</v>
       </c>
       <c r="D73" t="n">
-        <v>0.321461</v>
+        <v>0.318692</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.413903</v>
+        <v>0.41057</v>
       </c>
       <c r="C74" t="n">
-        <v>0.32556</v>
+        <v>0.316625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.332693</v>
+        <v>0.325605</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452326</v>
+        <v>0.419224</v>
       </c>
       <c r="C75" t="n">
-        <v>0.332039</v>
+        <v>0.324071</v>
       </c>
       <c r="D75" t="n">
-        <v>0.343303</v>
+        <v>0.333999</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.350239</v>
+        <v>0.33752</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34526</v>
+        <v>0.334465</v>
       </c>
       <c r="D76" t="n">
-        <v>0.353657</v>
+        <v>0.34492</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.385944</v>
+        <v>0.342435</v>
       </c>
       <c r="C77" t="n">
-        <v>0.349576</v>
+        <v>0.339778</v>
       </c>
       <c r="D77" t="n">
-        <v>0.370713</v>
+        <v>0.348029</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.369803</v>
+        <v>0.335852</v>
       </c>
       <c r="C78" t="n">
-        <v>0.290377</v>
+        <v>0.261259</v>
       </c>
       <c r="D78" t="n">
-        <v>0.310011</v>
+        <v>0.279078</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.383706</v>
+        <v>0.355441</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285565</v>
+        <v>0.265822</v>
       </c>
       <c r="D79" t="n">
-        <v>0.300873</v>
+        <v>0.284557</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.365608</v>
+        <v>0.361888</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282023</v>
+        <v>0.264244</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319645</v>
+        <v>0.288405</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.379474</v>
+        <v>0.366714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29022</v>
+        <v>0.275095</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305872</v>
+        <v>0.299964</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.411263</v>
+        <v>0.3764</v>
       </c>
       <c r="C82" t="n">
-        <v>0.29799</v>
+        <v>0.279921</v>
       </c>
       <c r="D82" t="n">
-        <v>0.347971</v>
+        <v>0.306336</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.430751</v>
+        <v>0.385147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.310446</v>
+        <v>0.286252</v>
       </c>
       <c r="D83" t="n">
-        <v>0.336679</v>
+        <v>0.314005</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.45452</v>
+        <v>0.394158</v>
       </c>
       <c r="C84" t="n">
-        <v>0.322925</v>
+        <v>0.300809</v>
       </c>
       <c r="D84" t="n">
-        <v>0.360977</v>
+        <v>0.31313</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.511531</v>
+        <v>0.400412</v>
       </c>
       <c r="C85" t="n">
-        <v>0.353625</v>
+        <v>0.30081</v>
       </c>
       <c r="D85" t="n">
-        <v>0.344442</v>
+        <v>0.313235</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.436469</v>
+        <v>0.39837</v>
       </c>
       <c r="C86" t="n">
-        <v>0.361517</v>
+        <v>0.303819</v>
       </c>
       <c r="D86" t="n">
-        <v>0.371988</v>
+        <v>0.325148</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.492049</v>
+        <v>0.420308</v>
       </c>
       <c r="C87" t="n">
-        <v>0.360871</v>
+        <v>0.314693</v>
       </c>
       <c r="D87" t="n">
-        <v>0.409134</v>
+        <v>0.325797</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.555759</v>
+        <v>0.417889</v>
       </c>
       <c r="C88" t="n">
-        <v>0.390357</v>
+        <v>0.315114</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472412</v>
+        <v>0.334505</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.605811</v>
+        <v>0.424304</v>
       </c>
       <c r="C89" t="n">
-        <v>0.397212</v>
+        <v>0.321839</v>
       </c>
       <c r="D89" t="n">
-        <v>0.435818</v>
+        <v>0.344084</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.473782</v>
+        <v>0.359955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.389478</v>
+        <v>0.339189</v>
       </c>
       <c r="D90" t="n">
-        <v>0.423512</v>
+        <v>0.351875</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.538604</v>
+        <v>0.354383</v>
       </c>
       <c r="C91" t="n">
-        <v>0.435147</v>
+        <v>0.348172</v>
       </c>
       <c r="D91" t="n">
-        <v>0.42292</v>
+        <v>0.359197</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.48764</v>
+        <v>0.373524</v>
       </c>
       <c r="C92" t="n">
-        <v>0.354323</v>
+        <v>0.272282</v>
       </c>
       <c r="D92" t="n">
-        <v>0.391607</v>
+        <v>0.281116</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.555983</v>
+        <v>0.344618</v>
       </c>
       <c r="C93" t="n">
-        <v>0.373834</v>
+        <v>0.280733</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36065</v>
+        <v>0.292905</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.531041</v>
+        <v>0.386344</v>
       </c>
       <c r="C94" t="n">
-        <v>0.340243</v>
+        <v>0.298131</v>
       </c>
       <c r="D94" t="n">
-        <v>0.385701</v>
+        <v>0.305865</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.514115</v>
+        <v>0.429509</v>
       </c>
       <c r="C95" t="n">
-        <v>0.342429</v>
+        <v>0.297749</v>
       </c>
       <c r="D95" t="n">
-        <v>0.379499</v>
+        <v>0.327774</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.550026</v>
+        <v>0.459276</v>
       </c>
       <c r="C96" t="n">
-        <v>0.368769</v>
+        <v>0.32941</v>
       </c>
       <c r="D96" t="n">
-        <v>0.418768</v>
+        <v>0.340018</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.527132</v>
+        <v>0.441594</v>
       </c>
       <c r="C97" t="n">
-        <v>0.361557</v>
+        <v>0.308858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4475</v>
+        <v>0.346397</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.596896</v>
+        <v>0.446803</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438845</v>
+        <v>0.322372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.444747</v>
+        <v>0.340066</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.609995</v>
+        <v>0.466656</v>
       </c>
       <c r="C99" t="n">
-        <v>0.440022</v>
+        <v>0.333659</v>
       </c>
       <c r="D99" t="n">
-        <v>0.489102</v>
+        <v>0.345448</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.643176</v>
+        <v>0.486717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.457361</v>
+        <v>0.362442</v>
       </c>
       <c r="D100" t="n">
-        <v>0.503177</v>
+        <v>0.411101</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.668161</v>
+        <v>0.529987</v>
       </c>
       <c r="C101" t="n">
-        <v>0.473442</v>
+        <v>0.368021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.490146</v>
+        <v>0.385246</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.654054</v>
+        <v>0.573642</v>
       </c>
       <c r="C102" t="n">
-        <v>0.477397</v>
+        <v>0.37907</v>
       </c>
       <c r="D102" t="n">
-        <v>0.546799</v>
+        <v>0.463857</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.686595</v>
+        <v>0.586608</v>
       </c>
       <c r="C103" t="n">
-        <v>0.508331</v>
+        <v>0.40659</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560416</v>
+        <v>0.438972</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.708766</v>
+        <v>0.549612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.500315</v>
+        <v>0.39515</v>
       </c>
       <c r="D104" t="n">
-        <v>0.50886</v>
+        <v>0.416447</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.606963</v>
+        <v>0.514929</v>
       </c>
       <c r="C105" t="n">
-        <v>0.519473</v>
+        <v>0.419435</v>
       </c>
       <c r="D105" t="n">
-        <v>0.552197</v>
+        <v>0.4398</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.618318</v>
+        <v>0.521998</v>
       </c>
       <c r="C106" t="n">
-        <v>0.534867</v>
+        <v>0.441102</v>
       </c>
       <c r="D106" t="n">
-        <v>0.549785</v>
+        <v>0.481942</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.63475</v>
+        <v>0.5549269999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.447671</v>
+        <v>0.400888</v>
       </c>
       <c r="D107" t="n">
-        <v>0.467385</v>
+        <v>0.42943</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.634483</v>
+        <v>0.560344</v>
       </c>
       <c r="C108" t="n">
-        <v>0.455889</v>
+        <v>0.391112</v>
       </c>
       <c r="D108" t="n">
-        <v>0.48049</v>
+        <v>0.415874</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.633424</v>
+        <v>0.576769</v>
       </c>
       <c r="C109" t="n">
-        <v>0.455574</v>
+        <v>0.39429</v>
       </c>
       <c r="D109" t="n">
-        <v>0.494602</v>
+        <v>0.427865</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.627404</v>
+        <v>0.574142</v>
       </c>
       <c r="C110" t="n">
-        <v>0.416321</v>
+        <v>0.403408</v>
       </c>
       <c r="D110" t="n">
-        <v>0.427763</v>
+        <v>0.423452</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612411</v>
+        <v>0.585519</v>
       </c>
       <c r="C111" t="n">
-        <v>0.411343</v>
+        <v>0.409512</v>
       </c>
       <c r="D111" t="n">
-        <v>0.445638</v>
+        <v>0.438451</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.593607</v>
+        <v>0.595838</v>
       </c>
       <c r="C112" t="n">
-        <v>0.448229</v>
+        <v>0.426588</v>
       </c>
       <c r="D112" t="n">
-        <v>0.451103</v>
+        <v>0.454828</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6044119999999999</v>
+        <v>0.610812</v>
       </c>
       <c r="C113" t="n">
-        <v>0.446341</v>
+        <v>0.437935</v>
       </c>
       <c r="D113" t="n">
-        <v>0.455286</v>
+        <v>0.46689</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.613919</v>
+        <v>0.620235</v>
       </c>
       <c r="C114" t="n">
-        <v>0.452575</v>
+        <v>0.442315</v>
       </c>
       <c r="D114" t="n">
-        <v>0.493494</v>
+        <v>0.481951</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.632139</v>
+        <v>0.635918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.475948</v>
+        <v>0.460363</v>
       </c>
       <c r="D115" t="n">
-        <v>0.523517</v>
+        <v>0.486754</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.655888</v>
+        <v>0.643245</v>
       </c>
       <c r="C116" t="n">
-        <v>0.473416</v>
+        <v>0.466017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529933</v>
+        <v>0.499831</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.67317</v>
+        <v>0.654432</v>
       </c>
       <c r="C117" t="n">
-        <v>0.517925</v>
+        <v>0.465742</v>
       </c>
       <c r="D117" t="n">
-        <v>0.52172</v>
+        <v>0.515903</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.682231</v>
+        <v>0.681557</v>
       </c>
       <c r="C118" t="n">
-        <v>0.494379</v>
+        <v>0.500866</v>
       </c>
       <c r="D118" t="n">
-        <v>0.542893</v>
+        <v>0.5402979999999999</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.602629</v>
+        <v>0.599118</v>
       </c>
       <c r="C119" t="n">
-        <v>0.523153</v>
+        <v>0.49632</v>
       </c>
       <c r="D119" t="n">
-        <v>0.563994</v>
+        <v>0.531148</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.289444</v>
+        <v>0.19456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195066</v>
+        <v>0.152043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187792</v>
+        <v>0.148664</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.263922</v>
+        <v>0.168186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.199899</v>
+        <v>0.158223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186917</v>
+        <v>0.147655</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26805</v>
+        <v>0.172789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203528</v>
+        <v>0.162627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191338</v>
+        <v>0.152822</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.273124</v>
+        <v>0.177583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208811</v>
+        <v>0.168043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.193704</v>
+        <v>0.155134</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274479</v>
+        <v>0.17945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.21454</v>
+        <v>0.176557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197529</v>
+        <v>0.159234</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.27834</v>
+        <v>0.181985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192187</v>
+        <v>0.151599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193036</v>
+        <v>0.155646</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.279273</v>
+        <v>0.184751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196382</v>
+        <v>0.159357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195817</v>
+        <v>0.160449</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280368</v>
+        <v>0.184648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200491</v>
+        <v>0.165119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.197251</v>
+        <v>0.162353</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.284026</v>
+        <v>0.189333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202165</v>
+        <v>0.169492</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197961</v>
+        <v>0.162278</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.282676</v>
+        <v>0.189174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.19928</v>
+        <v>0.16511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196886</v>
+        <v>0.162772</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296024</v>
+        <v>0.202373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208489</v>
+        <v>0.180801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.201457</v>
+        <v>0.167833</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.297558</v>
+        <v>0.205064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206203</v>
+        <v>0.179899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.202529</v>
+        <v>0.169419</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.296879</v>
+        <v>0.204497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20778</v>
+        <v>0.182996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.201829</v>
+        <v>0.167958</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304257</v>
+        <v>0.214594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210408</v>
+        <v>0.188293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.20406</v>
+        <v>0.170995</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.309807</v>
+        <v>0.221681</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214045</v>
+        <v>0.193625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.204503</v>
+        <v>0.173128</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.315216</v>
+        <v>0.229096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217712</v>
+        <v>0.19847</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208268</v>
+        <v>0.179327</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291071</v>
+        <v>0.203673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.224141</v>
+        <v>0.206664</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209499</v>
+        <v>0.182089</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294087</v>
+        <v>0.209031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.229069</v>
+        <v>0.207648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215907</v>
+        <v>0.189038</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.298028</v>
+        <v>0.213076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236009</v>
+        <v>0.217631</v>
       </c>
       <c r="D20" t="n">
-        <v>0.216657</v>
+        <v>0.190895</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.305103</v>
+        <v>0.220317</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211754</v>
+        <v>0.188608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209252</v>
+        <v>0.181298</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.306169</v>
+        <v>0.219765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215115</v>
+        <v>0.193868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210418</v>
+        <v>0.184558</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309151</v>
+        <v>0.222873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.216113</v>
+        <v>0.19601</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212153</v>
+        <v>0.183849</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311843</v>
+        <v>0.224819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223634</v>
+        <v>0.203677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214475</v>
+        <v>0.187206</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314071</v>
+        <v>0.227546</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233348</v>
+        <v>0.212288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216724</v>
+        <v>0.191358</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.323942</v>
+        <v>0.237129</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231171</v>
+        <v>0.2117</v>
       </c>
       <c r="D26" t="n">
-        <v>0.218674</v>
+        <v>0.192601</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.326843</v>
+        <v>0.239784</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236828</v>
+        <v>0.217832</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220706</v>
+        <v>0.195511</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331832</v>
+        <v>0.24889</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237579</v>
+        <v>0.220412</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221595</v>
+        <v>0.196383</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.338401</v>
+        <v>0.252277</v>
       </c>
       <c r="C29" t="n">
-        <v>0.241664</v>
+        <v>0.223225</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222989</v>
+        <v>0.201313</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.347744</v>
+        <v>0.255361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251376</v>
+        <v>0.235958</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227375</v>
+        <v>0.202399</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.357663</v>
+        <v>0.261018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249259</v>
+        <v>0.233082</v>
       </c>
       <c r="D31" t="n">
-        <v>0.228267</v>
+        <v>0.204011</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.34108</v>
+        <v>0.238342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.260619</v>
+        <v>0.243614</v>
       </c>
       <c r="D32" t="n">
-        <v>0.232883</v>
+        <v>0.207552</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.351511</v>
+        <v>0.242481</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268413</v>
+        <v>0.252893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236151</v>
+        <v>0.210058</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.358667</v>
+        <v>0.25029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27188</v>
+        <v>0.25398</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239018</v>
+        <v>0.218463</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.366827</v>
+        <v>0.257436</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220035</v>
+        <v>0.192843</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217708</v>
+        <v>0.184446</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.378487</v>
+        <v>0.262927</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228191</v>
+        <v>0.198818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218377</v>
+        <v>0.18476</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.389195</v>
+        <v>0.273867</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235547</v>
+        <v>0.203512</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221831</v>
+        <v>0.185605</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.397259</v>
+        <v>0.276042</v>
       </c>
       <c r="C38" t="n">
-        <v>0.240721</v>
+        <v>0.209138</v>
       </c>
       <c r="D38" t="n">
-        <v>0.226562</v>
+        <v>0.190461</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.409031</v>
+        <v>0.287254</v>
       </c>
       <c r="C39" t="n">
-        <v>0.249347</v>
+        <v>0.217011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232446</v>
+        <v>0.194722</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.424021</v>
+        <v>0.301495</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253976</v>
+        <v>0.221722</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23392</v>
+        <v>0.196537</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.434954</v>
+        <v>0.310544</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260615</v>
+        <v>0.227649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.238334</v>
+        <v>0.200452</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.44586</v>
+        <v>0.317622</v>
       </c>
       <c r="C42" t="n">
-        <v>0.26399</v>
+        <v>0.231244</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242276</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.45557</v>
+        <v>0.326606</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272051</v>
+        <v>0.239475</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2478</v>
+        <v>0.206295</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.462582</v>
+        <v>0.333298</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279764</v>
+        <v>0.246309</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251921</v>
+        <v>0.209062</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.475373</v>
+        <v>0.344275</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285713</v>
+        <v>0.252137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254504</v>
+        <v>0.215173</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.482065</v>
+        <v>0.351162</v>
       </c>
       <c r="C46" t="n">
-        <v>0.290344</v>
+        <v>0.256532</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261169</v>
+        <v>0.22042</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.426232</v>
+        <v>0.299981</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297832</v>
+        <v>0.265417</v>
       </c>
       <c r="D47" t="n">
-        <v>0.265012</v>
+        <v>0.226145</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.434907</v>
+        <v>0.307906</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306173</v>
+        <v>0.273361</v>
       </c>
       <c r="D48" t="n">
-        <v>0.268283</v>
+        <v>0.228441</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.441199</v>
+        <v>0.313244</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31332</v>
+        <v>0.28174</v>
       </c>
       <c r="D49" t="n">
-        <v>0.273884</v>
+        <v>0.234081</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.447948</v>
+        <v>0.318844</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289319</v>
+        <v>0.253434</v>
       </c>
       <c r="D50" t="n">
-        <v>0.266736</v>
+        <v>0.232348</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.454491</v>
+        <v>0.32317</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294126</v>
+        <v>0.261167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269699</v>
+        <v>0.235763</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.458462</v>
+        <v>0.327997</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298606</v>
+        <v>0.265915</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27251</v>
+        <v>0.239147</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.467773</v>
+        <v>0.336158</v>
       </c>
       <c r="C53" t="n">
-        <v>0.30629</v>
+        <v>0.273087</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276448</v>
+        <v>0.243061</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.473861</v>
+        <v>0.340576</v>
       </c>
       <c r="C54" t="n">
-        <v>0.312378</v>
+        <v>0.281179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.280564</v>
+        <v>0.247825</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482186</v>
+        <v>0.347601</v>
       </c>
       <c r="C55" t="n">
-        <v>0.320382</v>
+        <v>0.288449</v>
       </c>
       <c r="D55" t="n">
-        <v>0.285908</v>
+        <v>0.252874</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.490088</v>
+        <v>0.354806</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321338</v>
+        <v>0.291314</v>
       </c>
       <c r="D56" t="n">
-        <v>0.286774</v>
+        <v>0.254203</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.501872</v>
+        <v>0.364436</v>
       </c>
       <c r="C57" t="n">
-        <v>0.332814</v>
+        <v>0.3026</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292723</v>
+        <v>0.259925</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.508528</v>
+        <v>0.367994</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347022</v>
+        <v>0.312033</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298928</v>
+        <v>0.26534</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.527827</v>
+        <v>0.377435</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361133</v>
+        <v>0.32233</v>
       </c>
       <c r="D59" t="n">
-        <v>0.305478</v>
+        <v>0.269832</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.543134</v>
+        <v>0.385562</v>
       </c>
       <c r="C60" t="n">
-        <v>0.371569</v>
+        <v>0.329849</v>
       </c>
       <c r="D60" t="n">
-        <v>0.316577</v>
+        <v>0.279106</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5217580000000001</v>
+        <v>0.342292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.384337</v>
+        <v>0.338489</v>
       </c>
       <c r="D61" t="n">
-        <v>0.318788</v>
+        <v>0.280095</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.534033</v>
+        <v>0.352006</v>
       </c>
       <c r="C62" t="n">
-        <v>0.396486</v>
+        <v>0.347843</v>
       </c>
       <c r="D62" t="n">
-        <v>0.32336</v>
+        <v>0.284058</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.545355</v>
+        <v>0.359046</v>
       </c>
       <c r="C63" t="n">
-        <v>0.407054</v>
+        <v>0.360491</v>
       </c>
       <c r="D63" t="n">
-        <v>0.332594</v>
+        <v>0.292373</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.498674</v>
+        <v>0.365969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.369927</v>
+        <v>0.311649</v>
       </c>
       <c r="D64" t="n">
-        <v>0.298926</v>
+        <v>0.262776</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.56818</v>
+        <v>0.37393</v>
       </c>
       <c r="C65" t="n">
-        <v>0.373046</v>
+        <v>0.315916</v>
       </c>
       <c r="D65" t="n">
-        <v>0.326272</v>
+        <v>0.276744</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.58274</v>
+        <v>0.383023</v>
       </c>
       <c r="C66" t="n">
-        <v>0.348508</v>
+        <v>0.304304</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323358</v>
+        <v>0.278156</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.599033</v>
+        <v>0.390391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.358123</v>
+        <v>0.313148</v>
       </c>
       <c r="D67" t="n">
-        <v>0.329249</v>
+        <v>0.282882</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.606907</v>
+        <v>0.398435</v>
       </c>
       <c r="C68" t="n">
-        <v>0.393729</v>
+        <v>0.317434</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314252</v>
+        <v>0.276548</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576541</v>
+        <v>0.387953</v>
       </c>
       <c r="C69" t="n">
-        <v>0.402216</v>
+        <v>0.342773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.321046</v>
+        <v>0.282162</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58399</v>
+        <v>0.393481</v>
       </c>
       <c r="C70" t="n">
-        <v>0.380031</v>
+        <v>0.332539</v>
       </c>
       <c r="D70" t="n">
-        <v>0.333213</v>
+        <v>0.290921</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6041879999999999</v>
+        <v>0.406352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.389717</v>
+        <v>0.339555</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332939</v>
+        <v>0.291726</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.625758</v>
+        <v>0.415206</v>
       </c>
       <c r="C72" t="n">
-        <v>0.400245</v>
+        <v>0.350311</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338248</v>
+        <v>0.297029</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.638315</v>
+        <v>0.426851</v>
       </c>
       <c r="C73" t="n">
-        <v>0.412503</v>
+        <v>0.359203</v>
       </c>
       <c r="D73" t="n">
-        <v>0.347981</v>
+        <v>0.304148</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.667045</v>
+        <v>0.43549</v>
       </c>
       <c r="C74" t="n">
-        <v>0.425488</v>
+        <v>0.368402</v>
       </c>
       <c r="D74" t="n">
-        <v>0.351101</v>
+        <v>0.30598</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.698722</v>
+        <v>0.451402</v>
       </c>
       <c r="C75" t="n">
-        <v>0.429056</v>
+        <v>0.376223</v>
       </c>
       <c r="D75" t="n">
-        <v>0.354558</v>
+        <v>0.30931</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6417890000000001</v>
+        <v>0.37243</v>
       </c>
       <c r="C76" t="n">
-        <v>0.459599</v>
+        <v>0.393673</v>
       </c>
       <c r="D76" t="n">
-        <v>0.373058</v>
+        <v>0.322371</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662942</v>
+        <v>0.403044</v>
       </c>
       <c r="C77" t="n">
-        <v>0.457441</v>
+        <v>0.398201</v>
       </c>
       <c r="D77" t="n">
-        <v>0.365878</v>
+        <v>0.318525</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.640136</v>
+        <v>0.40961</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375527</v>
+        <v>0.314114</v>
       </c>
       <c r="D78" t="n">
-        <v>0.340665</v>
+        <v>0.291505</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.621086</v>
+        <v>0.410392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.383994</v>
+        <v>0.323223</v>
       </c>
       <c r="D79" t="n">
-        <v>0.348572</v>
+        <v>0.296622</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64268</v>
+        <v>0.409994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.387658</v>
+        <v>0.325312</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341091</v>
+        <v>0.29115</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7354619999999999</v>
+        <v>0.427591</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397258</v>
+        <v>0.332495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.342413</v>
+        <v>0.291812</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.712626</v>
+        <v>0.433468</v>
       </c>
       <c r="C82" t="n">
-        <v>0.405478</v>
+        <v>0.339732</v>
       </c>
       <c r="D82" t="n">
-        <v>0.363394</v>
+        <v>0.320328</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.772201</v>
+        <v>0.472942</v>
       </c>
       <c r="C83" t="n">
-        <v>0.432411</v>
+        <v>0.357709</v>
       </c>
       <c r="D83" t="n">
-        <v>0.376606</v>
+        <v>0.312592</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.943886</v>
+        <v>0.487733</v>
       </c>
       <c r="C84" t="n">
-        <v>0.46633</v>
+        <v>0.384512</v>
       </c>
       <c r="D84" t="n">
-        <v>0.403777</v>
+        <v>0.335672</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.978083</v>
+        <v>0.5207850000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.512829</v>
+        <v>0.388682</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417443</v>
+        <v>0.322247</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10136</v>
+        <v>0.526336</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5517840000000001</v>
+        <v>0.393778</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433321</v>
+        <v>0.326439</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.11971</v>
+        <v>0.573887</v>
       </c>
       <c r="C87" t="n">
-        <v>0.566128</v>
+        <v>0.398028</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434317</v>
+        <v>0.331889</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.23146</v>
+        <v>0.535496</v>
       </c>
       <c r="C88" t="n">
-        <v>0.568506</v>
+        <v>0.396906</v>
       </c>
       <c r="D88" t="n">
-        <v>0.435222</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03516</v>
+        <v>0.55705</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537922</v>
+        <v>0.413663</v>
       </c>
       <c r="D89" t="n">
-        <v>0.424973</v>
+        <v>0.340883</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.970468</v>
+        <v>0.433392</v>
       </c>
       <c r="C90" t="n">
-        <v>0.572155</v>
+        <v>0.416176</v>
       </c>
       <c r="D90" t="n">
-        <v>0.456553</v>
+        <v>0.345916</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.942385</v>
+        <v>0.432545</v>
       </c>
       <c r="C91" t="n">
-        <v>0.634684</v>
+        <v>0.421574</v>
       </c>
       <c r="D91" t="n">
-        <v>0.452211</v>
+        <v>0.34681</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00932</v>
+        <v>0.451581</v>
       </c>
       <c r="C92" t="n">
-        <v>0.485024</v>
+        <v>0.338251</v>
       </c>
       <c r="D92" t="n">
-        <v>0.418056</v>
+        <v>0.314294</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.01033</v>
+        <v>0.442053</v>
       </c>
       <c r="C93" t="n">
-        <v>0.480582</v>
+        <v>0.327704</v>
       </c>
       <c r="D93" t="n">
-        <v>0.400193</v>
+        <v>0.293483</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00585</v>
+        <v>0.597202</v>
       </c>
       <c r="C94" t="n">
-        <v>0.498043</v>
+        <v>0.381234</v>
       </c>
       <c r="D94" t="n">
-        <v>0.463228</v>
+        <v>0.341318</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.14138</v>
+        <v>0.634564</v>
       </c>
       <c r="C95" t="n">
-        <v>0.554419</v>
+        <v>0.464226</v>
       </c>
       <c r="D95" t="n">
-        <v>0.452516</v>
+        <v>0.355837</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2963</v>
+        <v>0.593146</v>
       </c>
       <c r="C96" t="n">
-        <v>0.642937</v>
+        <v>0.405732</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483196</v>
+        <v>0.321852</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51076</v>
+        <v>0.533157</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6763479999999999</v>
+        <v>0.388077</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515123</v>
+        <v>0.326931</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.31506</v>
+        <v>0.544214</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63402</v>
+        <v>0.396826</v>
       </c>
       <c r="D98" t="n">
-        <v>0.495038</v>
+        <v>0.315876</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.37226</v>
+        <v>0.528755</v>
       </c>
       <c r="C99" t="n">
-        <v>0.73151</v>
+        <v>0.4058</v>
       </c>
       <c r="D99" t="n">
-        <v>0.546212</v>
+        <v>0.324254</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3898</v>
+        <v>0.580067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.717897</v>
+        <v>0.402409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.552961</v>
+        <v>0.322552</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30877</v>
+        <v>0.550376</v>
       </c>
       <c r="C101" t="n">
-        <v>0.600034</v>
+        <v>0.412899</v>
       </c>
       <c r="D101" t="n">
-        <v>0.482733</v>
+        <v>0.346286</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.30959</v>
+        <v>0.58807</v>
       </c>
       <c r="C102" t="n">
-        <v>0.660233</v>
+        <v>0.423912</v>
       </c>
       <c r="D102" t="n">
-        <v>0.579325</v>
+        <v>0.364012</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.36059</v>
+        <v>0.603495</v>
       </c>
       <c r="C103" t="n">
-        <v>0.733617</v>
+        <v>0.456335</v>
       </c>
       <c r="D103" t="n">
-        <v>0.532644</v>
+        <v>0.354042</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.52946</v>
+        <v>0.629374</v>
       </c>
       <c r="C104" t="n">
-        <v>0.713274</v>
+        <v>0.442761</v>
       </c>
       <c r="D104" t="n">
-        <v>0.735378</v>
+        <v>0.359626</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.35866</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7685</v>
+        <v>0.461473</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562259</v>
+        <v>0.385475</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.31244</v>
+        <v>0.551103</v>
       </c>
       <c r="C106" t="n">
-        <v>0.807696</v>
+        <v>0.520388</v>
       </c>
       <c r="D106" t="n">
-        <v>0.663399</v>
+        <v>0.413759</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.45041</v>
+        <v>0.6228089999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7025670000000001</v>
+        <v>0.457009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.61304</v>
+        <v>0.411867</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.47487</v>
+        <v>0.698367</v>
       </c>
       <c r="C108" t="n">
-        <v>0.696968</v>
+        <v>0.508921</v>
       </c>
       <c r="D108" t="n">
-        <v>0.589558</v>
+        <v>0.382064</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44543</v>
+        <v>0.641694</v>
       </c>
       <c r="C109" t="n">
-        <v>0.719006</v>
+        <v>0.452395</v>
       </c>
       <c r="D109" t="n">
-        <v>0.608331</v>
+        <v>0.403914</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.49534</v>
+        <v>0.675584</v>
       </c>
       <c r="C110" t="n">
-        <v>0.74774</v>
+        <v>0.473833</v>
       </c>
       <c r="D110" t="n">
-        <v>0.70651</v>
+        <v>0.426614</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.53546</v>
+        <v>0.716539</v>
       </c>
       <c r="C111" t="n">
-        <v>0.770845</v>
+        <v>0.508621</v>
       </c>
       <c r="D111" t="n">
-        <v>0.711715</v>
+        <v>0.437964</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.54312</v>
+        <v>0.742768</v>
       </c>
       <c r="C112" t="n">
-        <v>0.864192</v>
+        <v>0.545471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638478</v>
+        <v>0.419931</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.56694</v>
+        <v>0.720296</v>
       </c>
       <c r="C113" t="n">
-        <v>0.804774</v>
+        <v>0.524041</v>
       </c>
       <c r="D113" t="n">
-        <v>0.645809</v>
+        <v>0.458205</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.55558</v>
+        <v>0.853127</v>
       </c>
       <c r="C114" t="n">
-        <v>0.80709</v>
+        <v>0.674468</v>
       </c>
       <c r="D114" t="n">
-        <v>0.665525</v>
+        <v>0.552555</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.56979</v>
+        <v>0.850607</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8772489999999999</v>
+        <v>0.640821</v>
       </c>
       <c r="D115" t="n">
-        <v>0.72201</v>
+        <v>0.5168970000000001</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.61547</v>
+        <v>0.812687</v>
       </c>
       <c r="C116" t="n">
-        <v>0.875096</v>
+        <v>0.719197</v>
       </c>
       <c r="D116" t="n">
-        <v>0.744391</v>
+        <v>0.593558</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.66932</v>
+        <v>0.984258</v>
       </c>
       <c r="C117" t="n">
-        <v>0.90246</v>
+        <v>0.776011</v>
       </c>
       <c r="D117" t="n">
-        <v>0.730857</v>
+        <v>0.664671</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.62857</v>
+        <v>0.942793</v>
       </c>
       <c r="C118" t="n">
-        <v>0.910199</v>
+        <v>0.71705</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7781130000000001</v>
+        <v>0.619169</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44484</v>
+        <v>0.821952</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03145</v>
+        <v>0.735797</v>
       </c>
       <c r="D119" t="n">
-        <v>0.772616</v>
+        <v>0.617336</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.446487</v>
+        <v>0.350627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.340489</v>
+        <v>0.317975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.260183</v>
+        <v>0.218299</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.463483</v>
+        <v>0.371323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.347956</v>
+        <v>0.329453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.262381</v>
+        <v>0.222728</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.476155</v>
+        <v>0.387976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.365049</v>
+        <v>0.348297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.274861</v>
+        <v>0.233046</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.481708</v>
+        <v>0.396186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372435</v>
+        <v>0.356968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2792</v>
+        <v>0.238623</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.50232</v>
+        <v>0.421273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.373727</v>
+        <v>0.361086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.283617</v>
+        <v>0.244903</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.516479</v>
+        <v>0.436536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397403</v>
+        <v>0.394125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.295243</v>
+        <v>0.258089</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.531152</v>
+        <v>0.455216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.413934</v>
+        <v>0.410849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.305006</v>
+        <v>0.26702</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554461</v>
+        <v>0.481911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432354</v>
+        <v>0.431542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317152</v>
+        <v>0.281866</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5683009999999999</v>
+        <v>0.499463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.450743</v>
+        <v>0.459014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.329388</v>
+        <v>0.300333</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.58562</v>
+        <v>0.521558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.33625</v>
+        <v>0.330752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257598</v>
+        <v>0.22572</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444232</v>
+        <v>0.362825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.339742</v>
+        <v>0.333421</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260945</v>
+        <v>0.229393</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.454066</v>
+        <v>0.37549</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3486</v>
+        <v>0.345256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.268963</v>
+        <v>0.242828</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.462119</v>
+        <v>0.387036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.36399</v>
+        <v>0.366533</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269572</v>
+        <v>0.244858</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482092</v>
+        <v>0.411691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.374853</v>
+        <v>0.382596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278374</v>
+        <v>0.256424</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.490225</v>
+        <v>0.424903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.386546</v>
+        <v>0.392638</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28586</v>
+        <v>0.268277</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.499641</v>
+        <v>0.442119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.400362</v>
+        <v>0.406985</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294926</v>
+        <v>0.27917</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.518406</v>
+        <v>0.462434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.403497</v>
+        <v>0.410957</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29355</v>
+        <v>0.277798</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.528648</v>
+        <v>0.473678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.425779</v>
+        <v>0.436406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.305023</v>
+        <v>0.291665</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.541696</v>
+        <v>0.492408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.442464</v>
+        <v>0.457453</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317753</v>
+        <v>0.306906</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.553644</v>
+        <v>0.505682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.455844</v>
+        <v>0.469763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328543</v>
+        <v>0.317565</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.572688</v>
+        <v>0.523185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.474341</v>
+        <v>0.485622</v>
       </c>
       <c r="D22" t="n">
-        <v>0.337646</v>
+        <v>0.329052</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.583991</v>
+        <v>0.5367960000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.495466</v>
+        <v>0.5097739999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.350629</v>
+        <v>0.344784</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.612483</v>
+        <v>0.565941</v>
       </c>
       <c r="C24" t="n">
-        <v>0.510927</v>
+        <v>0.53346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.360398</v>
+        <v>0.354942</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.642192</v>
+        <v>0.597425</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5313</v>
+        <v>0.5465370000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.370644</v>
+        <v>0.367449</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6665140000000001</v>
+        <v>0.618438</v>
       </c>
       <c r="C26" t="n">
-        <v>0.337659</v>
+        <v>0.334449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263057</v>
+        <v>0.243854</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.456027</v>
+        <v>0.378397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.341732</v>
+        <v>0.337028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.264161</v>
+        <v>0.244876</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.466542</v>
+        <v>0.394565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.352903</v>
+        <v>0.35088</v>
       </c>
       <c r="D28" t="n">
-        <v>0.269772</v>
+        <v>0.250776</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.484777</v>
+        <v>0.408344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.356355</v>
+        <v>0.358281</v>
       </c>
       <c r="D29" t="n">
-        <v>0.274339</v>
+        <v>0.255951</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499069</v>
+        <v>0.426447</v>
       </c>
       <c r="C30" t="n">
-        <v>0.372123</v>
+        <v>0.374857</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280221</v>
+        <v>0.262226</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.528381</v>
+        <v>0.443638</v>
       </c>
       <c r="C31" t="n">
-        <v>0.38062</v>
+        <v>0.389325</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285393</v>
+        <v>0.270032</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.543152</v>
+        <v>0.464931</v>
       </c>
       <c r="C32" t="n">
-        <v>0.398418</v>
+        <v>0.402662</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293026</v>
+        <v>0.277126</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.580614</v>
+        <v>0.490641</v>
       </c>
       <c r="C33" t="n">
-        <v>0.41935</v>
+        <v>0.419951</v>
       </c>
       <c r="D33" t="n">
-        <v>0.301948</v>
+        <v>0.286063</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.60771</v>
+        <v>0.504619</v>
       </c>
       <c r="C34" t="n">
-        <v>0.440405</v>
+        <v>0.430456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.311224</v>
+        <v>0.293848</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.640529</v>
+        <v>0.53749</v>
       </c>
       <c r="C35" t="n">
-        <v>0.463678</v>
+        <v>0.454471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.320517</v>
+        <v>0.304837</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.66954</v>
+        <v>0.559494</v>
       </c>
       <c r="C36" t="n">
-        <v>0.490682</v>
+        <v>0.483339</v>
       </c>
       <c r="D36" t="n">
-        <v>0.334287</v>
+        <v>0.319854</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.691479</v>
+        <v>0.57838</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5165960000000001</v>
+        <v>0.501327</v>
       </c>
       <c r="D37" t="n">
-        <v>0.346157</v>
+        <v>0.33245</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.731203</v>
+        <v>0.614013</v>
       </c>
       <c r="C38" t="n">
-        <v>0.546969</v>
+        <v>0.523043</v>
       </c>
       <c r="D38" t="n">
-        <v>0.356678</v>
+        <v>0.341314</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.778845</v>
+        <v>0.655286</v>
       </c>
       <c r="C39" t="n">
-        <v>0.577124</v>
+        <v>0.569106</v>
       </c>
       <c r="D39" t="n">
-        <v>0.374577</v>
+        <v>0.355608</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.811404</v>
+        <v>0.686186</v>
       </c>
       <c r="C40" t="n">
-        <v>0.399447</v>
+        <v>0.379136</v>
       </c>
       <c r="D40" t="n">
-        <v>0.294449</v>
+        <v>0.270077</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6093460000000001</v>
+        <v>0.48365</v>
       </c>
       <c r="C41" t="n">
-        <v>0.41646</v>
+        <v>0.399542</v>
       </c>
       <c r="D41" t="n">
-        <v>0.301238</v>
+        <v>0.27528</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.631454</v>
+        <v>0.502813</v>
       </c>
       <c r="C42" t="n">
-        <v>0.438374</v>
+        <v>0.417592</v>
       </c>
       <c r="D42" t="n">
-        <v>0.312673</v>
+        <v>0.286857</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653513</v>
+        <v>0.522301</v>
       </c>
       <c r="C43" t="n">
-        <v>0.455004</v>
+        <v>0.4381</v>
       </c>
       <c r="D43" t="n">
-        <v>0.320261</v>
+        <v>0.291035</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.680694</v>
+        <v>0.549836</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48525</v>
+        <v>0.466932</v>
       </c>
       <c r="D44" t="n">
-        <v>0.337757</v>
+        <v>0.306335</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.709438</v>
+        <v>0.575801</v>
       </c>
       <c r="C45" t="n">
-        <v>0.503475</v>
+        <v>0.492065</v>
       </c>
       <c r="D45" t="n">
-        <v>0.347274</v>
+        <v>0.315629</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.734556</v>
+        <v>0.600886</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.521485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354576</v>
+        <v>0.324122</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.771237</v>
+        <v>0.6344340000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.554471</v>
+        <v>0.5408230000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.372923</v>
+        <v>0.343596</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.797978</v>
+        <v>0.661206</v>
       </c>
       <c r="C48" t="n">
-        <v>0.573786</v>
+        <v>0.57193</v>
       </c>
       <c r="D48" t="n">
-        <v>0.390065</v>
+        <v>0.360115</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.820065</v>
+        <v>0.6822780000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.604569</v>
+        <v>0.605669</v>
       </c>
       <c r="D49" t="n">
-        <v>0.40482</v>
+        <v>0.375894</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.866254</v>
+        <v>0.726834</v>
       </c>
       <c r="C50" t="n">
-        <v>0.632498</v>
+        <v>0.629409</v>
       </c>
       <c r="D50" t="n">
-        <v>0.425046</v>
+        <v>0.397178</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.90367</v>
+        <v>0.761962</v>
       </c>
       <c r="C51" t="n">
-        <v>0.665459</v>
+        <v>0.661558</v>
       </c>
       <c r="D51" t="n">
-        <v>0.433639</v>
+        <v>0.408405</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.942248</v>
+        <v>0.802092</v>
       </c>
       <c r="C52" t="n">
-        <v>0.700113</v>
+        <v>0.701244</v>
       </c>
       <c r="D52" t="n">
-        <v>0.456723</v>
+        <v>0.431163</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.980957</v>
+        <v>0.83645</v>
       </c>
       <c r="C53" t="n">
-        <v>0.731149</v>
+        <v>0.7325970000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47013</v>
+        <v>0.451158</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01907</v>
+        <v>0.876031</v>
       </c>
       <c r="C54" t="n">
-        <v>0.515526</v>
+        <v>0.505012</v>
       </c>
       <c r="D54" t="n">
-        <v>0.376739</v>
+        <v>0.339807</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06325</v>
+        <v>0.918374</v>
       </c>
       <c r="C55" t="n">
-        <v>0.529335</v>
+        <v>0.521626</v>
       </c>
       <c r="D55" t="n">
-        <v>0.381411</v>
+        <v>0.346184</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.755961</v>
+        <v>0.601545</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5507300000000001</v>
+        <v>0.54259</v>
       </c>
       <c r="D56" t="n">
-        <v>0.391538</v>
+        <v>0.358855</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.774459</v>
+        <v>0.625461</v>
       </c>
       <c r="C57" t="n">
-        <v>0.570648</v>
+        <v>0.5633280000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.406887</v>
+        <v>0.376253</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.800091</v>
+        <v>0.650459</v>
       </c>
       <c r="C58" t="n">
-        <v>0.589141</v>
+        <v>0.587606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.409496</v>
+        <v>0.379218</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.825092</v>
+        <v>0.6728</v>
       </c>
       <c r="C59" t="n">
-        <v>0.61043</v>
+        <v>0.603658</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433104</v>
+        <v>0.403771</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.845575</v>
+        <v>0.687694</v>
       </c>
       <c r="C60" t="n">
-        <v>0.635525</v>
+        <v>0.626319</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444199</v>
+        <v>0.416481</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.880394</v>
+        <v>0.72071</v>
       </c>
       <c r="C61" t="n">
-        <v>0.660766</v>
+        <v>0.6620740000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.452652</v>
+        <v>0.427043</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.92201</v>
+        <v>0.750652</v>
       </c>
       <c r="C62" t="n">
-        <v>0.691165</v>
+        <v>0.691403</v>
       </c>
       <c r="D62" t="n">
-        <v>0.476124</v>
+        <v>0.448276</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.971356</v>
+        <v>0.776859</v>
       </c>
       <c r="C63" t="n">
-        <v>0.731127</v>
+        <v>0.714736</v>
       </c>
       <c r="D63" t="n">
-        <v>0.484472</v>
+        <v>0.453715</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.04357</v>
+        <v>0.810232</v>
       </c>
       <c r="C64" t="n">
-        <v>0.776237</v>
+        <v>0.746717</v>
       </c>
       <c r="D64" t="n">
-        <v>0.518657</v>
+        <v>0.481163</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10674</v>
+        <v>0.852235</v>
       </c>
       <c r="C65" t="n">
-        <v>0.825671</v>
+        <v>0.786656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.547851</v>
+        <v>0.506006</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16301</v>
+        <v>0.894728</v>
       </c>
       <c r="C66" t="n">
-        <v>0.877462</v>
+        <v>0.826426</v>
       </c>
       <c r="D66" t="n">
-        <v>0.566682</v>
+        <v>0.522845</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.21166</v>
+        <v>0.945365</v>
       </c>
       <c r="C67" t="n">
-        <v>0.910346</v>
+        <v>0.872811</v>
       </c>
       <c r="D67" t="n">
-        <v>0.597601</v>
+        <v>0.553415</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25503</v>
+        <v>0.98689</v>
       </c>
       <c r="C68" t="n">
-        <v>0.596854</v>
+        <v>0.5512629999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.429128</v>
+        <v>0.375689</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32815</v>
+        <v>1.04819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.619903</v>
+        <v>0.579196</v>
       </c>
       <c r="D69" t="n">
-        <v>0.452604</v>
+        <v>0.395486</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.939482</v>
+        <v>0.673913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.646491</v>
+        <v>0.591681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.467678</v>
+        <v>0.410777</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.95865</v>
+        <v>0.698941</v>
       </c>
       <c r="C71" t="n">
-        <v>0.67425</v>
+        <v>0.630498</v>
       </c>
       <c r="D71" t="n">
-        <v>0.471035</v>
+        <v>0.413778</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.01776</v>
+        <v>0.736832</v>
       </c>
       <c r="C72" t="n">
-        <v>0.704358</v>
+        <v>0.6504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.487399</v>
+        <v>0.427226</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.07108</v>
+        <v>0.767859</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739628</v>
+        <v>0.678766</v>
       </c>
       <c r="D73" t="n">
-        <v>0.508861</v>
+        <v>0.448718</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10086</v>
+        <v>0.797637</v>
       </c>
       <c r="C74" t="n">
-        <v>0.779691</v>
+        <v>0.712836</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5389350000000001</v>
+        <v>0.470953</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17145</v>
+        <v>0.833859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.820196</v>
+        <v>0.754324</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5396609999999999</v>
+        <v>0.478355</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.940132</v>
+        <v>0.872802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.793285</v>
       </c>
       <c r="D76" t="n">
-        <v>0.441037</v>
+        <v>0.4937</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.908955</v>
+        <v>0.912106</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6646570000000001</v>
+        <v>0.82407</v>
       </c>
       <c r="D77" t="n">
-        <v>0.452716</v>
+        <v>0.51335</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.946329</v>
+        <v>0.95373</v>
       </c>
       <c r="C78" t="n">
-        <v>0.68772</v>
+        <v>0.850153</v>
       </c>
       <c r="D78" t="n">
-        <v>0.48306</v>
+        <v>0.551098</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.973587</v>
+        <v>0.99436</v>
       </c>
       <c r="C79" t="n">
-        <v>0.708052</v>
+        <v>0.887979</v>
       </c>
       <c r="D79" t="n">
-        <v>0.499982</v>
+        <v>0.576637</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9988320000000001</v>
+        <v>1.06888</v>
       </c>
       <c r="C80" t="n">
-        <v>0.742035</v>
+        <v>0.953091</v>
       </c>
       <c r="D80" t="n">
-        <v>0.503049</v>
+        <v>0.5884</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06123</v>
+        <v>1.11253</v>
       </c>
       <c r="C81" t="n">
-        <v>0.793838</v>
+        <v>1.05352</v>
       </c>
       <c r="D81" t="n">
-        <v>0.534311</v>
+        <v>0.625919</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.13356</v>
+        <v>1.14269</v>
       </c>
       <c r="C82" t="n">
-        <v>0.833946</v>
+        <v>1.13855</v>
       </c>
       <c r="D82" t="n">
-        <v>0.526428</v>
+        <v>0.639293</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.16085</v>
+        <v>1.24737</v>
       </c>
       <c r="C83" t="n">
-        <v>0.565704</v>
+        <v>0.701659</v>
       </c>
       <c r="D83" t="n">
-        <v>0.411543</v>
+        <v>0.47513</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.19522</v>
+        <v>1.29536</v>
       </c>
       <c r="C84" t="n">
-        <v>0.589589</v>
+        <v>0.747835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.419925</v>
+        <v>0.48642</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.814576</v>
+        <v>0.809845</v>
       </c>
       <c r="C85" t="n">
-        <v>0.624641</v>
+        <v>0.797482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.434306</v>
+        <v>0.527347</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.857508</v>
+        <v>0.874454</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6346079999999999</v>
+        <v>0.805889</v>
       </c>
       <c r="D86" t="n">
-        <v>0.442913</v>
+        <v>0.522848</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.885</v>
+        <v>0.8225789999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.657934</v>
+        <v>0.809274</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453067</v>
+        <v>0.534029</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.924156</v>
+        <v>0.981033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.696946</v>
+        <v>0.998371</v>
       </c>
       <c r="D88" t="n">
-        <v>0.467234</v>
+        <v>0.590374</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.952632</v>
+        <v>1.00558</v>
       </c>
       <c r="C89" t="n">
-        <v>0.743769</v>
+        <v>0.966678</v>
       </c>
       <c r="D89" t="n">
-        <v>0.478879</v>
+        <v>0.58791</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07728</v>
+        <v>0.987335</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784029</v>
+        <v>0.9497060000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5055539999999999</v>
+        <v>0.583251</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0961</v>
+        <v>1.02559</v>
       </c>
       <c r="C91" t="n">
-        <v>0.849936</v>
+        <v>0.969935</v>
       </c>
       <c r="D91" t="n">
-        <v>0.527336</v>
+        <v>0.5917289999999999</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.28904</v>
+        <v>0.991627</v>
       </c>
       <c r="C92" t="n">
-        <v>0.839087</v>
+        <v>0.998575</v>
       </c>
       <c r="D92" t="n">
-        <v>0.53584</v>
+        <v>0.609529</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.25204</v>
+        <v>1.05672</v>
       </c>
       <c r="C93" t="n">
-        <v>1.00007</v>
+        <v>1.04955</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5454020000000001</v>
+        <v>0.628949</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.36718</v>
+        <v>1.11972</v>
       </c>
       <c r="C94" t="n">
-        <v>0.980412</v>
+        <v>0.946937</v>
       </c>
       <c r="D94" t="n">
-        <v>0.566605</v>
+        <v>0.581124</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.46052</v>
+        <v>1.05769</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08175</v>
+        <v>0.9884500000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.579836</v>
+        <v>0.558658</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.69445</v>
+        <v>0.976075</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16017</v>
+        <v>0.960957</v>
       </c>
       <c r="D96" t="n">
-        <v>0.614947</v>
+        <v>0.594539</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.80114</v>
+        <v>1.03335</v>
       </c>
       <c r="C97" t="n">
-        <v>0.73075</v>
+        <v>0.577157</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473697</v>
+        <v>0.408453</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.99434</v>
+        <v>1.07645</v>
       </c>
       <c r="C98" t="n">
-        <v>0.769502</v>
+        <v>0.62656</v>
       </c>
       <c r="D98" t="n">
-        <v>0.555233</v>
+        <v>0.429079</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36554</v>
+        <v>0.708565</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05243</v>
+        <v>0.635991</v>
       </c>
       <c r="D99" t="n">
-        <v>0.609497</v>
+        <v>0.443549</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.53341</v>
+        <v>0.7758429999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.873854</v>
+        <v>0.688598</v>
       </c>
       <c r="D100" t="n">
-        <v>0.492632</v>
+        <v>0.446877</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.53215</v>
+        <v>0.8270650000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9022559999999999</v>
+        <v>0.750617</v>
       </c>
       <c r="D101" t="n">
-        <v>0.61191</v>
+        <v>0.561156</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73701</v>
+        <v>0.889518</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10707</v>
+        <v>0.749167</v>
       </c>
       <c r="D102" t="n">
-        <v>0.643796</v>
+        <v>0.481179</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.9307</v>
+        <v>0.854054</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09808</v>
+        <v>0.782524</v>
       </c>
       <c r="D103" t="n">
-        <v>0.698753</v>
+        <v>0.487546</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.15005</v>
+        <v>0.925702</v>
       </c>
       <c r="C104" t="n">
-        <v>1.11519</v>
+        <v>0.87844</v>
       </c>
       <c r="D104" t="n">
-        <v>0.61747</v>
+        <v>0.520047</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.81772</v>
+        <v>0.955514</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15854</v>
+        <v>0.8807739999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6739849999999999</v>
+        <v>0.536206</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.93366</v>
+        <v>1.02453</v>
       </c>
       <c r="C106" t="n">
-        <v>1.2996</v>
+        <v>1.08214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.658724</v>
+        <v>0.758884</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.09062</v>
+        <v>1.4684</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33096</v>
+        <v>1.29721</v>
       </c>
       <c r="D107" t="n">
-        <v>0.714348</v>
+        <v>0.717814</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.15385</v>
+        <v>1.39068</v>
       </c>
       <c r="C108" t="n">
-        <v>1.44191</v>
+        <v>1.22337</v>
       </c>
       <c r="D108" t="n">
-        <v>0.781305</v>
+        <v>0.6788689999999999</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.33091</v>
+        <v>1.36602</v>
       </c>
       <c r="C109" t="n">
-        <v>1.59592</v>
+        <v>1.15144</v>
       </c>
       <c r="D109" t="n">
-        <v>0.867858</v>
+        <v>0.626221</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.65508</v>
+        <v>1.32884</v>
       </c>
       <c r="C110" t="n">
-        <v>1.81595</v>
+        <v>1.21229</v>
       </c>
       <c r="D110" t="n">
-        <v>1.04375</v>
+        <v>0.66947</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.52214</v>
+        <v>1.41626</v>
       </c>
       <c r="C111" t="n">
-        <v>1.04145</v>
+        <v>0.768953</v>
       </c>
       <c r="D111" t="n">
-        <v>0.663606</v>
+        <v>0.495688</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.70862</v>
+        <v>1.52878</v>
       </c>
       <c r="C112" t="n">
-        <v>1.10297</v>
+        <v>0.9061399999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.728094</v>
+        <v>0.609534</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.8044</v>
+        <v>1.72275</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16662</v>
+        <v>0.943908</v>
       </c>
       <c r="D113" t="n">
-        <v>0.733285</v>
+        <v>0.5260860000000001</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.06652</v>
+        <v>1.09674</v>
       </c>
       <c r="C114" t="n">
-        <v>1.25965</v>
+        <v>0.917999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.870173</v>
+        <v>0.548192</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.13984</v>
+        <v>1.14327</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30586</v>
+        <v>0.971946</v>
       </c>
       <c r="D115" t="n">
-        <v>0.841028</v>
+        <v>0.593931</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15785</v>
+        <v>1.20108</v>
       </c>
       <c r="C116" t="n">
-        <v>1.41045</v>
+        <v>1.02622</v>
       </c>
       <c r="D116" t="n">
-        <v>0.835192</v>
+        <v>0.610083</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.25951</v>
+        <v>1.24487</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43732</v>
+        <v>1.09787</v>
       </c>
       <c r="D117" t="n">
-        <v>0.902111</v>
+        <v>0.651197</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.36535</v>
+        <v>1.33306</v>
       </c>
       <c r="C118" t="n">
-        <v>1.53139</v>
+        <v>1.14891</v>
       </c>
       <c r="D118" t="n">
-        <v>0.939621</v>
+        <v>0.700314</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.431</v>
+        <v>1.40426</v>
       </c>
       <c r="C119" t="n">
-        <v>1.7179</v>
+        <v>1.21301</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11321</v>
+        <v>0.751228</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.228288</v>
+        <v>0.249953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175062</v>
+        <v>0.18523</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197396</v>
+        <v>0.198843</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171092</v>
+        <v>0.201453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1808</v>
+        <v>0.186422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201098</v>
+        <v>0.20112</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.17948</v>
+        <v>0.206865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188847</v>
+        <v>0.191504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210669</v>
+        <v>0.207877</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186286</v>
+        <v>0.213618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199601</v>
+        <v>0.197336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217947</v>
+        <v>0.213606</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.192031</v>
+        <v>0.218846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.208249</v>
+        <v>0.200902</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228178</v>
+        <v>0.218954</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.199941</v>
+        <v>0.224224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16063</v>
+        <v>0.167978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182631</v>
+        <v>0.186511</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.204377</v>
+        <v>0.229483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16625</v>
+        <v>0.171722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18903</v>
+        <v>0.18979</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.214972</v>
+        <v>0.23469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171189</v>
+        <v>0.174757</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192181</v>
+        <v>0.196279</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.220629</v>
+        <v>0.239889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182288</v>
+        <v>0.177753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197342</v>
+        <v>0.2001</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226513</v>
+        <v>0.244537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180755</v>
+        <v>0.180839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202593</v>
+        <v>0.202435</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234066</v>
+        <v>0.252245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186819</v>
+        <v>0.185748</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210518</v>
+        <v>0.207767</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.239763</v>
+        <v>0.25568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.191585</v>
+        <v>0.190316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21387</v>
+        <v>0.21128</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.247632</v>
+        <v>0.261107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197448</v>
+        <v>0.194219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.222035</v>
+        <v>0.214392</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.257186</v>
+        <v>0.267777</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204525</v>
+        <v>0.198917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228226</v>
+        <v>0.220506</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261773</v>
+        <v>0.270938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210392</v>
+        <v>0.202584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230689</v>
+        <v>0.223355</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26996</v>
+        <v>0.277777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218048</v>
+        <v>0.208269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.236836</v>
+        <v>0.229029</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.208626</v>
+        <v>0.230854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.223829</v>
+        <v>0.210632</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240441</v>
+        <v>0.23276</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.214544</v>
+        <v>0.235061</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23098</v>
+        <v>0.215062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247678</v>
+        <v>0.236761</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.225558</v>
+        <v>0.239297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237581</v>
+        <v>0.218652</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253398</v>
+        <v>0.242031</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230404</v>
+        <v>0.243883</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187886</v>
+        <v>0.183794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.208549</v>
+        <v>0.204984</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239723</v>
+        <v>0.248213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191492</v>
+        <v>0.187237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214207</v>
+        <v>0.209434</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244868</v>
+        <v>0.25246</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198164</v>
+        <v>0.190357</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216836</v>
+        <v>0.212795</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.250007</v>
+        <v>0.257252</v>
       </c>
       <c r="C24" t="n">
-        <v>0.201526</v>
+        <v>0.193678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221157</v>
+        <v>0.216301</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.257041</v>
+        <v>0.262761</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208743</v>
+        <v>0.196825</v>
       </c>
       <c r="D25" t="n">
-        <v>0.226739</v>
+        <v>0.219933</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.265722</v>
+        <v>0.26886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.217141</v>
+        <v>0.200736</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235785</v>
+        <v>0.224055</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273049</v>
+        <v>0.273579</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219428</v>
+        <v>0.204249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240534</v>
+        <v>0.227863</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281508</v>
+        <v>0.278699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226133</v>
+        <v>0.209349</v>
       </c>
       <c r="D28" t="n">
-        <v>0.245423</v>
+        <v>0.232864</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28989</v>
+        <v>0.28341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234008</v>
+        <v>0.213671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255626</v>
+        <v>0.237499</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296979</v>
+        <v>0.289106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240265</v>
+        <v>0.217679</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260123</v>
+        <v>0.241682</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.306771</v>
+        <v>0.2945</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248587</v>
+        <v>0.222326</v>
       </c>
       <c r="D31" t="n">
-        <v>0.266639</v>
+        <v>0.245902</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259787</v>
+        <v>0.242547</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256514</v>
+        <v>0.224744</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272996</v>
+        <v>0.249265</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.265156</v>
+        <v>0.245635</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265936</v>
+        <v>0.230813</v>
       </c>
       <c r="D33" t="n">
-        <v>0.280552</v>
+        <v>0.254958</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270186</v>
+        <v>0.249307</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272937</v>
+        <v>0.233375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.287505</v>
+        <v>0.258687</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.278196</v>
+        <v>0.253541</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220687</v>
+        <v>0.191849</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238854</v>
+        <v>0.211141</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.283555</v>
+        <v>0.257151</v>
       </c>
       <c r="C36" t="n">
-        <v>0.224083</v>
+        <v>0.194292</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244055</v>
+        <v>0.214113</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.288941</v>
+        <v>0.260672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229666</v>
+        <v>0.197029</v>
       </c>
       <c r="D37" t="n">
-        <v>0.248154</v>
+        <v>0.217138</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.298698</v>
+        <v>0.265271</v>
       </c>
       <c r="C38" t="n">
-        <v>0.234402</v>
+        <v>0.200542</v>
       </c>
       <c r="D38" t="n">
-        <v>0.254496</v>
+        <v>0.221205</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305302</v>
+        <v>0.269606</v>
       </c>
       <c r="C39" t="n">
-        <v>0.241232</v>
+        <v>0.204022</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261629</v>
+        <v>0.225673</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311319</v>
+        <v>0.274844</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246703</v>
+        <v>0.207789</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26732</v>
+        <v>0.229636</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.319628</v>
+        <v>0.279529</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252293</v>
+        <v>0.211629</v>
       </c>
       <c r="D41" t="n">
-        <v>0.272004</v>
+        <v>0.23354</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327827</v>
+        <v>0.284579</v>
       </c>
       <c r="C42" t="n">
-        <v>0.258672</v>
+        <v>0.215126</v>
       </c>
       <c r="D42" t="n">
-        <v>0.278838</v>
+        <v>0.237352</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335276</v>
+        <v>0.289632</v>
       </c>
       <c r="C43" t="n">
-        <v>0.265037</v>
+        <v>0.2196</v>
       </c>
       <c r="D43" t="n">
-        <v>0.286501</v>
+        <v>0.241589</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.343955</v>
+        <v>0.295177</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272709</v>
+        <v>0.224084</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294972</v>
+        <v>0.246295</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350451</v>
+        <v>0.300262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.280094</v>
+        <v>0.228164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299618</v>
+        <v>0.250358</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.358582</v>
+        <v>0.304933</v>
       </c>
       <c r="C46" t="n">
-        <v>0.286406</v>
+        <v>0.231843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.304465</v>
+        <v>0.254356</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.293849</v>
+        <v>0.250557</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294902</v>
+        <v>0.236146</v>
       </c>
       <c r="D47" t="n">
-        <v>0.310664</v>
+        <v>0.258729</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.299243</v>
+        <v>0.25359</v>
       </c>
       <c r="C48" t="n">
-        <v>0.300606</v>
+        <v>0.24</v>
       </c>
       <c r="D48" t="n">
-        <v>0.315578</v>
+        <v>0.262748</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.304579</v>
+        <v>0.257139</v>
       </c>
       <c r="C49" t="n">
-        <v>0.306168</v>
+        <v>0.243668</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325297</v>
+        <v>0.266656</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3103</v>
+        <v>0.260981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.245923</v>
+        <v>0.198508</v>
       </c>
       <c r="D50" t="n">
-        <v>0.257829</v>
+        <v>0.216396</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.316098</v>
+        <v>0.264784</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24943</v>
+        <v>0.201394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262236</v>
+        <v>0.219952</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322989</v>
+        <v>0.269096</v>
       </c>
       <c r="C52" t="n">
-        <v>0.253923</v>
+        <v>0.204126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268361</v>
+        <v>0.223444</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329304</v>
+        <v>0.273597</v>
       </c>
       <c r="C53" t="n">
-        <v>0.259164</v>
+        <v>0.20742</v>
       </c>
       <c r="D53" t="n">
-        <v>0.274086</v>
+        <v>0.226892</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.33656</v>
+        <v>0.278671</v>
       </c>
       <c r="C54" t="n">
-        <v>0.264029</v>
+        <v>0.210503</v>
       </c>
       <c r="D54" t="n">
-        <v>0.279254</v>
+        <v>0.230491</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343851</v>
+        <v>0.28357</v>
       </c>
       <c r="C55" t="n">
-        <v>0.269802</v>
+        <v>0.214499</v>
       </c>
       <c r="D55" t="n">
-        <v>0.284225</v>
+        <v>0.23453</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.351284</v>
+        <v>0.288702</v>
       </c>
       <c r="C56" t="n">
-        <v>0.276104</v>
+        <v>0.218634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.287643</v>
+        <v>0.238452</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.359212</v>
+        <v>0.293935</v>
       </c>
       <c r="C57" t="n">
-        <v>0.281914</v>
+        <v>0.222786</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294197</v>
+        <v>0.242635</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.365545</v>
+        <v>0.298529</v>
       </c>
       <c r="C58" t="n">
-        <v>0.28834</v>
+        <v>0.227187</v>
       </c>
       <c r="D58" t="n">
-        <v>0.300749</v>
+        <v>0.246904</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.373308</v>
+        <v>0.304367</v>
       </c>
       <c r="C59" t="n">
-        <v>0.29552</v>
+        <v>0.23141</v>
       </c>
       <c r="D59" t="n">
-        <v>0.306886</v>
+        <v>0.251497</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.381568</v>
+        <v>0.309979</v>
       </c>
       <c r="C60" t="n">
-        <v>0.302786</v>
+        <v>0.236015</v>
       </c>
       <c r="D60" t="n">
-        <v>0.313336</v>
+        <v>0.25635</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.30007</v>
+        <v>0.257033</v>
       </c>
       <c r="C61" t="n">
-        <v>0.302443</v>
+        <v>0.239741</v>
       </c>
       <c r="D61" t="n">
-        <v>0.312461</v>
+        <v>0.260537</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.309263</v>
+        <v>0.256663</v>
       </c>
       <c r="C62" t="n">
-        <v>0.309748</v>
+        <v>0.243372</v>
       </c>
       <c r="D62" t="n">
-        <v>0.322974</v>
+        <v>0.264135</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.317737</v>
+        <v>0.267319</v>
       </c>
       <c r="C63" t="n">
-        <v>0.316543</v>
+        <v>0.247462</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328711</v>
+        <v>0.268866</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324937</v>
+        <v>0.277771</v>
       </c>
       <c r="C64" t="n">
-        <v>0.256017</v>
+        <v>0.207276</v>
       </c>
       <c r="D64" t="n">
-        <v>0.267275</v>
+        <v>0.225545</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.313595</v>
+        <v>0.279897</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260155</v>
+        <v>0.209919</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271758</v>
+        <v>0.229654</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32065</v>
+        <v>0.283739</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263965</v>
+        <v>0.216319</v>
       </c>
       <c r="D66" t="n">
-        <v>0.275948</v>
+        <v>0.234671</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330351</v>
+        <v>0.294412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269193</v>
+        <v>0.211661</v>
       </c>
       <c r="D67" t="n">
-        <v>0.280885</v>
+        <v>0.238874</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.338086</v>
+        <v>0.297331</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26484</v>
+        <v>0.224789</v>
       </c>
       <c r="D68" t="n">
-        <v>0.287491</v>
+        <v>0.24533</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365121</v>
+        <v>0.309075</v>
       </c>
       <c r="C69" t="n">
-        <v>0.282235</v>
+        <v>0.227603</v>
       </c>
       <c r="D69" t="n">
-        <v>0.292025</v>
+        <v>0.250088</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.374197</v>
+        <v>0.31841</v>
       </c>
       <c r="C70" t="n">
-        <v>0.288295</v>
+        <v>0.234093</v>
       </c>
       <c r="D70" t="n">
-        <v>0.297435</v>
+        <v>0.255909</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.383355</v>
+        <v>0.327317</v>
       </c>
       <c r="C71" t="n">
-        <v>0.294579</v>
+        <v>0.239009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.303604</v>
+        <v>0.261421</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.392522</v>
+        <v>0.336218</v>
       </c>
       <c r="C72" t="n">
-        <v>0.301621</v>
+        <v>0.245432</v>
       </c>
       <c r="D72" t="n">
-        <v>0.31003</v>
+        <v>0.267125</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.400687</v>
+        <v>0.347483</v>
       </c>
       <c r="C73" t="n">
-        <v>0.309314</v>
+        <v>0.252794</v>
       </c>
       <c r="D73" t="n">
-        <v>0.318692</v>
+        <v>0.275824</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.41057</v>
+        <v>0.361879</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316625</v>
+        <v>0.260198</v>
       </c>
       <c r="D74" t="n">
-        <v>0.325605</v>
+        <v>0.283778</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.419224</v>
+        <v>0.376034</v>
       </c>
       <c r="C75" t="n">
-        <v>0.324071</v>
+        <v>0.267397</v>
       </c>
       <c r="D75" t="n">
-        <v>0.333999</v>
+        <v>0.290685</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.33752</v>
+        <v>0.40018</v>
       </c>
       <c r="C76" t="n">
-        <v>0.334465</v>
+        <v>0.276621</v>
       </c>
       <c r="D76" t="n">
-        <v>0.34492</v>
+        <v>0.299954</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342435</v>
+        <v>0.416983</v>
       </c>
       <c r="C77" t="n">
-        <v>0.339778</v>
+        <v>0.2851</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348029</v>
+        <v>0.308694</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.335852</v>
+        <v>0.429272</v>
       </c>
       <c r="C78" t="n">
-        <v>0.261259</v>
+        <v>0.262308</v>
       </c>
       <c r="D78" t="n">
-        <v>0.279078</v>
+        <v>0.29341</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.355441</v>
+        <v>0.442945</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265822</v>
+        <v>0.276151</v>
       </c>
       <c r="D79" t="n">
-        <v>0.284557</v>
+        <v>0.303062</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361888</v>
+        <v>0.462748</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264244</v>
+        <v>0.296826</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288405</v>
+        <v>0.325863</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.366714</v>
+        <v>0.47494</v>
       </c>
       <c r="C81" t="n">
-        <v>0.275095</v>
+        <v>0.306774</v>
       </c>
       <c r="D81" t="n">
-        <v>0.299964</v>
+        <v>0.335549</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3764</v>
+        <v>0.491899</v>
       </c>
       <c r="C82" t="n">
-        <v>0.279921</v>
+        <v>0.315181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.306336</v>
+        <v>0.348367</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.385147</v>
+        <v>0.51358</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286252</v>
+        <v>0.329543</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314005</v>
+        <v>0.363609</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.394158</v>
+        <v>0.533041</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300809</v>
+        <v>0.340071</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31313</v>
+        <v>0.379766</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.400412</v>
+        <v>0.55571</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30081</v>
+        <v>0.358068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313235</v>
+        <v>0.400366</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.39837</v>
+        <v>0.57834</v>
       </c>
       <c r="C86" t="n">
-        <v>0.303819</v>
+        <v>0.373314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325148</v>
+        <v>0.414683</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.420308</v>
+        <v>0.600615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.314693</v>
+        <v>0.383052</v>
       </c>
       <c r="D87" t="n">
-        <v>0.325797</v>
+        <v>0.426468</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.417889</v>
+        <v>0.6212800000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.315114</v>
+        <v>0.395345</v>
       </c>
       <c r="D88" t="n">
-        <v>0.334505</v>
+        <v>0.445332</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.424304</v>
+        <v>0.644183</v>
       </c>
       <c r="C89" t="n">
-        <v>0.321839</v>
+        <v>0.40929</v>
       </c>
       <c r="D89" t="n">
-        <v>0.344084</v>
+        <v>0.461897</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.359955</v>
+        <v>0.669587</v>
       </c>
       <c r="C90" t="n">
-        <v>0.339189</v>
+        <v>0.425458</v>
       </c>
       <c r="D90" t="n">
-        <v>0.351875</v>
+        <v>0.479893</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.354383</v>
+        <v>0.674944</v>
       </c>
       <c r="C91" t="n">
-        <v>0.348172</v>
+        <v>0.441384</v>
       </c>
       <c r="D91" t="n">
-        <v>0.359197</v>
+        <v>0.495019</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.373524</v>
+        <v>0.686162</v>
       </c>
       <c r="C92" t="n">
-        <v>0.272282</v>
+        <v>0.431575</v>
       </c>
       <c r="D92" t="n">
-        <v>0.281116</v>
+        <v>0.502997</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.344618</v>
+        <v>0.693589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280733</v>
+        <v>0.440251</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292905</v>
+        <v>0.501887</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386344</v>
+        <v>0.703997</v>
       </c>
       <c r="C94" t="n">
-        <v>0.298131</v>
+        <v>0.462203</v>
       </c>
       <c r="D94" t="n">
-        <v>0.305865</v>
+        <v>0.527483</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.429509</v>
+        <v>0.716058</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297749</v>
+        <v>0.470728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.327774</v>
+        <v>0.540093</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.459276</v>
+        <v>0.729427</v>
       </c>
       <c r="C96" t="n">
-        <v>0.32941</v>
+        <v>0.481036</v>
       </c>
       <c r="D96" t="n">
-        <v>0.340018</v>
+        <v>0.554226</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.441594</v>
+        <v>0.744281</v>
       </c>
       <c r="C97" t="n">
-        <v>0.308858</v>
+        <v>0.492515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.346397</v>
+        <v>0.567681</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.446803</v>
+        <v>0.75874</v>
       </c>
       <c r="C98" t="n">
-        <v>0.322372</v>
+        <v>0.503319</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340066</v>
+        <v>0.581223</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.466656</v>
+        <v>0.774903</v>
       </c>
       <c r="C99" t="n">
-        <v>0.333659</v>
+        <v>0.51455</v>
       </c>
       <c r="D99" t="n">
-        <v>0.345448</v>
+        <v>0.593831</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.486717</v>
+        <v>0.792604</v>
       </c>
       <c r="C100" t="n">
-        <v>0.362442</v>
+        <v>0.526563</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411101</v>
+        <v>0.608029</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.529987</v>
+        <v>0.810535</v>
       </c>
       <c r="C101" t="n">
-        <v>0.368021</v>
+        <v>0.538766</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385246</v>
+        <v>0.621202</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.573642</v>
+        <v>0.828752</v>
       </c>
       <c r="C102" t="n">
-        <v>0.37907</v>
+        <v>0.551955</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463857</v>
+        <v>0.637429</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.586608</v>
+        <v>0.849299</v>
       </c>
       <c r="C103" t="n">
-        <v>0.40659</v>
+        <v>0.564481</v>
       </c>
       <c r="D103" t="n">
-        <v>0.438972</v>
+        <v>0.652585</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.549612</v>
+        <v>0.870131</v>
       </c>
       <c r="C104" t="n">
-        <v>0.39515</v>
+        <v>0.578232</v>
       </c>
       <c r="D104" t="n">
-        <v>0.416447</v>
+        <v>0.668357</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514929</v>
+        <v>0.795134</v>
       </c>
       <c r="C105" t="n">
-        <v>0.419435</v>
+        <v>0.591488</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4398</v>
+        <v>0.687415</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.521998</v>
+        <v>0.7971549999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.441102</v>
+        <v>0.603243</v>
       </c>
       <c r="D106" t="n">
-        <v>0.481942</v>
+        <v>0.703917</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5549269999999999</v>
+        <v>0.799851</v>
       </c>
       <c r="C107" t="n">
-        <v>0.400888</v>
+        <v>0.540263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.42943</v>
+        <v>0.649833</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560344</v>
+        <v>0.819652</v>
       </c>
       <c r="C108" t="n">
-        <v>0.391112</v>
+        <v>0.5616139999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.415874</v>
+        <v>0.660765</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.576769</v>
+        <v>0.827807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.39429</v>
+        <v>0.569794</v>
       </c>
       <c r="D109" t="n">
-        <v>0.427865</v>
+        <v>0.672152</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.574142</v>
+        <v>0.839523</v>
       </c>
       <c r="C110" t="n">
-        <v>0.403408</v>
+        <v>0.5793</v>
       </c>
       <c r="D110" t="n">
-        <v>0.423452</v>
+        <v>0.6820929999999999</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585519</v>
+        <v>0.85201</v>
       </c>
       <c r="C111" t="n">
-        <v>0.409512</v>
+        <v>0.589741</v>
       </c>
       <c r="D111" t="n">
-        <v>0.438451</v>
+        <v>0.696655</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.595838</v>
+        <v>0.855582</v>
       </c>
       <c r="C112" t="n">
-        <v>0.426588</v>
+        <v>0.590904</v>
       </c>
       <c r="D112" t="n">
-        <v>0.454828</v>
+        <v>0.69625</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.610812</v>
+        <v>0.869615</v>
       </c>
       <c r="C113" t="n">
-        <v>0.437935</v>
+        <v>0.601925</v>
       </c>
       <c r="D113" t="n">
-        <v>0.46689</v>
+        <v>0.709094</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.620235</v>
+        <v>0.88491</v>
       </c>
       <c r="C114" t="n">
-        <v>0.442315</v>
+        <v>0.613654</v>
       </c>
       <c r="D114" t="n">
-        <v>0.481951</v>
+        <v>0.723736</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.635918</v>
+        <v>0.902529</v>
       </c>
       <c r="C115" t="n">
-        <v>0.460363</v>
+        <v>0.625149</v>
       </c>
       <c r="D115" t="n">
-        <v>0.486754</v>
+        <v>0.748802</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.643245</v>
+        <v>0.9293709999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.466017</v>
+        <v>0.645804</v>
       </c>
       <c r="D116" t="n">
-        <v>0.499831</v>
+        <v>0.758592</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.654432</v>
+        <v>0.949164</v>
       </c>
       <c r="C117" t="n">
-        <v>0.465742</v>
+        <v>0.65862</v>
       </c>
       <c r="D117" t="n">
-        <v>0.515903</v>
+        <v>0.772647</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.681557</v>
+        <v>0.9698830000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.500866</v>
+        <v>0.671795</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5402979999999999</v>
+        <v>0.792915</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599118</v>
+        <v>0.854645</v>
       </c>
       <c r="C119" t="n">
-        <v>0.49632</v>
+        <v>0.6862239999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.531148</v>
+        <v>0.806551</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19456</v>
+        <v>0.248018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.152043</v>
+        <v>0.162421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.148664</v>
+        <v>0.154905</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168186</v>
+        <v>0.219096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158223</v>
+        <v>0.167786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147655</v>
+        <v>0.153631</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172789</v>
+        <v>0.224049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162627</v>
+        <v>0.171998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.152822</v>
+        <v>0.159408</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177583</v>
+        <v>0.229816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168043</v>
+        <v>0.176669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155134</v>
+        <v>0.162974</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17945</v>
+        <v>0.229875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176557</v>
+        <v>0.183376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159234</v>
+        <v>0.16715</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181985</v>
+        <v>0.233557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.151599</v>
+        <v>0.167961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155646</v>
+        <v>0.163427</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.184751</v>
+        <v>0.236092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159357</v>
+        <v>0.173654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160449</v>
+        <v>0.168085</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.184648</v>
+        <v>0.237647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165119</v>
+        <v>0.176383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.162353</v>
+        <v>0.166988</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.189333</v>
+        <v>0.241167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169492</v>
+        <v>0.181431</v>
       </c>
       <c r="D10" t="n">
-        <v>0.162278</v>
+        <v>0.169332</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.189174</v>
+        <v>0.240459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16511</v>
+        <v>0.176903</v>
       </c>
       <c r="D11" t="n">
-        <v>0.162772</v>
+        <v>0.169118</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.202373</v>
+        <v>0.2539</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180801</v>
+        <v>0.187432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167833</v>
+        <v>0.174066</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.205064</v>
+        <v>0.255904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179899</v>
+        <v>0.188121</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169419</v>
+        <v>0.178872</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.204497</v>
+        <v>0.256834</v>
       </c>
       <c r="C14" t="n">
-        <v>0.182996</v>
+        <v>0.190464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167958</v>
+        <v>0.174702</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214594</v>
+        <v>0.265181</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188293</v>
+        <v>0.193461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.170995</v>
+        <v>0.179791</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.221681</v>
+        <v>0.270982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193625</v>
+        <v>0.197494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173128</v>
+        <v>0.180972</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.229096</v>
+        <v>0.276558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19847</v>
+        <v>0.201247</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179327</v>
+        <v>0.185254</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.203673</v>
+        <v>0.254689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206664</v>
+        <v>0.208755</v>
       </c>
       <c r="D18" t="n">
-        <v>0.182089</v>
+        <v>0.185453</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.209031</v>
+        <v>0.259891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207648</v>
+        <v>0.211355</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189038</v>
+        <v>0.189064</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.213076</v>
+        <v>0.264119</v>
       </c>
       <c r="C20" t="n">
-        <v>0.217631</v>
+        <v>0.221146</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190895</v>
+        <v>0.192537</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220317</v>
+        <v>0.271723</v>
       </c>
       <c r="C21" t="n">
-        <v>0.188608</v>
+        <v>0.196333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.181298</v>
+        <v>0.192114</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.219765</v>
+        <v>0.273031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193868</v>
+        <v>0.208983</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184558</v>
+        <v>0.194586</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222873</v>
+        <v>0.277373</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19601</v>
+        <v>0.211034</v>
       </c>
       <c r="D23" t="n">
-        <v>0.183849</v>
+        <v>0.196212</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.224819</v>
+        <v>0.281239</v>
       </c>
       <c r="C24" t="n">
-        <v>0.203677</v>
+        <v>0.216028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.187206</v>
+        <v>0.200505</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.227546</v>
+        <v>0.284118</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212288</v>
+        <v>0.224366</v>
       </c>
       <c r="D25" t="n">
-        <v>0.191358</v>
+        <v>0.203712</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.237129</v>
+        <v>0.293222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2117</v>
+        <v>0.22535</v>
       </c>
       <c r="D26" t="n">
-        <v>0.192601</v>
+        <v>0.207283</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239784</v>
+        <v>0.294568</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217832</v>
+        <v>0.236965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.195511</v>
+        <v>0.210209</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.24889</v>
+        <v>0.297757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.220412</v>
+        <v>0.23895</v>
       </c>
       <c r="D28" t="n">
-        <v>0.196383</v>
+        <v>0.211153</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.252277</v>
+        <v>0.306641</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223225</v>
+        <v>0.244206</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201313</v>
+        <v>0.214461</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.255361</v>
+        <v>0.31122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235958</v>
+        <v>0.255332</v>
       </c>
       <c r="D30" t="n">
-        <v>0.202399</v>
+        <v>0.22003</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261018</v>
+        <v>0.314836</v>
       </c>
       <c r="C31" t="n">
-        <v>0.233082</v>
+        <v>0.252036</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204011</v>
+        <v>0.221413</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.238342</v>
+        <v>0.280852</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243614</v>
+        <v>0.262773</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207552</v>
+        <v>0.225236</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242481</v>
+        <v>0.286694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252893</v>
+        <v>0.270891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210058</v>
+        <v>0.229895</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25029</v>
+        <v>0.291665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25398</v>
+        <v>0.273446</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218463</v>
+        <v>0.232938</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257436</v>
+        <v>0.292944</v>
       </c>
       <c r="C35" t="n">
-        <v>0.192843</v>
+        <v>0.216671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.184446</v>
+        <v>0.211233</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.262927</v>
+        <v>0.297801</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198818</v>
+        <v>0.22193</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18476</v>
+        <v>0.211421</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.273867</v>
+        <v>0.304079</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203512</v>
+        <v>0.225019</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185605</v>
+        <v>0.213959</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.276042</v>
+        <v>0.306733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.209138</v>
+        <v>0.228433</v>
       </c>
       <c r="D38" t="n">
-        <v>0.190461</v>
+        <v>0.216133</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.287254</v>
+        <v>0.313528</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217011</v>
+        <v>0.234845</v>
       </c>
       <c r="D39" t="n">
-        <v>0.194722</v>
+        <v>0.220051</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.301495</v>
+        <v>0.321781</v>
       </c>
       <c r="C40" t="n">
-        <v>0.221722</v>
+        <v>0.237721</v>
       </c>
       <c r="D40" t="n">
-        <v>0.196537</v>
+        <v>0.221349</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.310544</v>
+        <v>0.327678</v>
       </c>
       <c r="C41" t="n">
-        <v>0.227649</v>
+        <v>0.241491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200452</v>
+        <v>0.222761</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.317622</v>
+        <v>0.331358</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231244</v>
+        <v>0.241131</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2013</v>
+        <v>0.22433</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326606</v>
+        <v>0.337637</v>
       </c>
       <c r="C43" t="n">
-        <v>0.239475</v>
+        <v>0.245712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206295</v>
+        <v>0.227288</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.333298</v>
+        <v>0.340482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246309</v>
+        <v>0.251906</v>
       </c>
       <c r="D44" t="n">
-        <v>0.209062</v>
+        <v>0.228547</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.344275</v>
+        <v>0.34857</v>
       </c>
       <c r="C45" t="n">
-        <v>0.252137</v>
+        <v>0.254345</v>
       </c>
       <c r="D45" t="n">
-        <v>0.215173</v>
+        <v>0.230473</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.351162</v>
+        <v>0.349525</v>
       </c>
       <c r="C46" t="n">
-        <v>0.256532</v>
+        <v>0.254254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22042</v>
+        <v>0.232316</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.299981</v>
+        <v>0.289335</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265417</v>
+        <v>0.260392</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226145</v>
+        <v>0.234668</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.307906</v>
+        <v>0.294049</v>
       </c>
       <c r="C48" t="n">
-        <v>0.273361</v>
+        <v>0.265075</v>
       </c>
       <c r="D48" t="n">
-        <v>0.228441</v>
+        <v>0.236144</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.313244</v>
+        <v>0.297863</v>
       </c>
       <c r="C49" t="n">
-        <v>0.28174</v>
+        <v>0.269063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234081</v>
+        <v>0.239114</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.318844</v>
+        <v>0.301648</v>
       </c>
       <c r="C50" t="n">
-        <v>0.253434</v>
+        <v>0.23935</v>
       </c>
       <c r="D50" t="n">
-        <v>0.232348</v>
+        <v>0.22488</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.32317</v>
+        <v>0.304755</v>
       </c>
       <c r="C51" t="n">
-        <v>0.261167</v>
+        <v>0.241169</v>
       </c>
       <c r="D51" t="n">
-        <v>0.235763</v>
+        <v>0.226103</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.327997</v>
+        <v>0.307103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.265915</v>
+        <v>0.245395</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239147</v>
+        <v>0.227783</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.336158</v>
+        <v>0.312826</v>
       </c>
       <c r="C53" t="n">
-        <v>0.273087</v>
+        <v>0.249117</v>
       </c>
       <c r="D53" t="n">
-        <v>0.243061</v>
+        <v>0.229958</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340576</v>
+        <v>0.320666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.281179</v>
+        <v>0.253542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.247825</v>
+        <v>0.232223</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347601</v>
+        <v>0.320416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.288449</v>
+        <v>0.259638</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252874</v>
+        <v>0.234726</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.354806</v>
+        <v>0.325759</v>
       </c>
       <c r="C56" t="n">
-        <v>0.291314</v>
+        <v>0.259047</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254203</v>
+        <v>0.234911</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.364436</v>
+        <v>0.333127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3026</v>
+        <v>0.266272</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259925</v>
+        <v>0.237594</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.367994</v>
+        <v>0.334708</v>
       </c>
       <c r="C58" t="n">
-        <v>0.312033</v>
+        <v>0.273938</v>
       </c>
       <c r="D58" t="n">
-        <v>0.26534</v>
+        <v>0.240762</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.377435</v>
+        <v>0.342363</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32233</v>
+        <v>0.279748</v>
       </c>
       <c r="D59" t="n">
-        <v>0.269832</v>
+        <v>0.244371</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.385562</v>
+        <v>0.347691</v>
       </c>
       <c r="C60" t="n">
-        <v>0.329849</v>
+        <v>0.283453</v>
       </c>
       <c r="D60" t="n">
-        <v>0.279106</v>
+        <v>0.24787</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.342292</v>
+        <v>0.305007</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338489</v>
+        <v>0.289296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.280095</v>
+        <v>0.248974</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.352006</v>
+        <v>0.313207</v>
       </c>
       <c r="C62" t="n">
-        <v>0.347843</v>
+        <v>0.293547</v>
       </c>
       <c r="D62" t="n">
-        <v>0.284058</v>
+        <v>0.25067</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.359046</v>
+        <v>0.318747</v>
       </c>
       <c r="C63" t="n">
-        <v>0.360491</v>
+        <v>0.297895</v>
       </c>
       <c r="D63" t="n">
-        <v>0.292373</v>
+        <v>0.254181</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.365969</v>
+        <v>0.325893</v>
       </c>
       <c r="C64" t="n">
-        <v>0.311649</v>
+        <v>0.263988</v>
       </c>
       <c r="D64" t="n">
-        <v>0.262776</v>
+        <v>0.242318</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.37393</v>
+        <v>0.333728</v>
       </c>
       <c r="C65" t="n">
-        <v>0.315916</v>
+        <v>0.268585</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276744</v>
+        <v>0.24165</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.383023</v>
+        <v>0.341461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.304304</v>
+        <v>0.270813</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278156</v>
+        <v>0.243199</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.390391</v>
+        <v>0.347969</v>
       </c>
       <c r="C67" t="n">
-        <v>0.313148</v>
+        <v>0.275658</v>
       </c>
       <c r="D67" t="n">
-        <v>0.282882</v>
+        <v>0.246654</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.398435</v>
+        <v>0.355193</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317434</v>
+        <v>0.280668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.276548</v>
+        <v>0.247958</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.387953</v>
+        <v>0.360866</v>
       </c>
       <c r="C69" t="n">
-        <v>0.342773</v>
+        <v>0.285929</v>
       </c>
       <c r="D69" t="n">
-        <v>0.282162</v>
+        <v>0.25058</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.393481</v>
+        <v>0.368224</v>
       </c>
       <c r="C70" t="n">
-        <v>0.332539</v>
+        <v>0.293047</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290921</v>
+        <v>0.254948</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.406352</v>
+        <v>0.38078</v>
       </c>
       <c r="C71" t="n">
-        <v>0.339555</v>
+        <v>0.300717</v>
       </c>
       <c r="D71" t="n">
-        <v>0.291726</v>
+        <v>0.258158</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.415206</v>
+        <v>0.391092</v>
       </c>
       <c r="C72" t="n">
-        <v>0.350311</v>
+        <v>0.308601</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297029</v>
+        <v>0.262908</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.426851</v>
+        <v>0.406947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.359203</v>
+        <v>0.318099</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304148</v>
+        <v>0.267319</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.43549</v>
+        <v>0.421595</v>
       </c>
       <c r="C74" t="n">
-        <v>0.368402</v>
+        <v>0.325479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30598</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.451402</v>
+        <v>0.439848</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376223</v>
+        <v>0.334607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.30931</v>
+        <v>0.272664</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37243</v>
+        <v>0.434099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.393673</v>
+        <v>0.345029</v>
       </c>
       <c r="D76" t="n">
-        <v>0.322371</v>
+        <v>0.280624</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.403044</v>
+        <v>0.445803</v>
       </c>
       <c r="C77" t="n">
-        <v>0.398201</v>
+        <v>0.362773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.318525</v>
+        <v>0.286003</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.40961</v>
+        <v>0.46708</v>
       </c>
       <c r="C78" t="n">
-        <v>0.314114</v>
+        <v>0.310211</v>
       </c>
       <c r="D78" t="n">
-        <v>0.291505</v>
+        <v>0.255804</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.410392</v>
+        <v>0.504812</v>
       </c>
       <c r="C79" t="n">
-        <v>0.323223</v>
+        <v>0.322908</v>
       </c>
       <c r="D79" t="n">
-        <v>0.296622</v>
+        <v>0.278608</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.409994</v>
+        <v>0.541618</v>
       </c>
       <c r="C80" t="n">
-        <v>0.325312</v>
+        <v>0.333389</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29115</v>
+        <v>0.288341</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.427591</v>
+        <v>0.565716</v>
       </c>
       <c r="C81" t="n">
-        <v>0.332495</v>
+        <v>0.347722</v>
       </c>
       <c r="D81" t="n">
-        <v>0.291812</v>
+        <v>0.293066</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.433468</v>
+        <v>0.578928</v>
       </c>
       <c r="C82" t="n">
-        <v>0.339732</v>
+        <v>0.374293</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320328</v>
+        <v>0.301857</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.472942</v>
+        <v>0.601389</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357709</v>
+        <v>0.39136</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312592</v>
+        <v>0.305832</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.487733</v>
+        <v>0.654161</v>
       </c>
       <c r="C84" t="n">
-        <v>0.384512</v>
+        <v>0.410226</v>
       </c>
       <c r="D84" t="n">
-        <v>0.335672</v>
+        <v>0.319844</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5207850000000001</v>
+        <v>0.689053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388682</v>
+        <v>0.438232</v>
       </c>
       <c r="D85" t="n">
-        <v>0.322247</v>
+        <v>0.330477</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.526336</v>
+        <v>0.7314619999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.393778</v>
+        <v>0.457309</v>
       </c>
       <c r="D86" t="n">
-        <v>0.326439</v>
+        <v>0.337445</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.573887</v>
+        <v>0.7674879999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398028</v>
+        <v>0.483455</v>
       </c>
       <c r="D87" t="n">
-        <v>0.331889</v>
+        <v>0.359789</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.535496</v>
+        <v>0.809257</v>
       </c>
       <c r="C88" t="n">
-        <v>0.396906</v>
+        <v>0.508887</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3376</v>
+        <v>0.373823</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.55705</v>
+        <v>0.863976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.413663</v>
+        <v>0.537901</v>
       </c>
       <c r="D89" t="n">
-        <v>0.340883</v>
+        <v>0.382625</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.433392</v>
+        <v>0.859245</v>
       </c>
       <c r="C90" t="n">
-        <v>0.416176</v>
+        <v>0.563653</v>
       </c>
       <c r="D90" t="n">
-        <v>0.345916</v>
+        <v>0.39651</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432545</v>
+        <v>0.896818</v>
       </c>
       <c r="C91" t="n">
-        <v>0.421574</v>
+        <v>0.5956</v>
       </c>
       <c r="D91" t="n">
-        <v>0.34681</v>
+        <v>0.415548</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.451581</v>
+        <v>0.931511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.338251</v>
+        <v>0.612767</v>
       </c>
       <c r="D92" t="n">
-        <v>0.314294</v>
+        <v>0.491171</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.442053</v>
+        <v>0.960485</v>
       </c>
       <c r="C93" t="n">
-        <v>0.327704</v>
+        <v>0.635818</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293483</v>
+        <v>0.524221</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.597202</v>
+        <v>0.992487</v>
       </c>
       <c r="C94" t="n">
-        <v>0.381234</v>
+        <v>0.656758</v>
       </c>
       <c r="D94" t="n">
-        <v>0.341318</v>
+        <v>0.530818</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.634564</v>
+        <v>1.03024</v>
       </c>
       <c r="C95" t="n">
-        <v>0.464226</v>
+        <v>0.687069</v>
       </c>
       <c r="D95" t="n">
-        <v>0.355837</v>
+        <v>0.552376</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.593146</v>
+        <v>1.06479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.405732</v>
+        <v>0.712652</v>
       </c>
       <c r="D96" t="n">
-        <v>0.321852</v>
+        <v>0.565403</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533157</v>
+        <v>1.09662</v>
       </c>
       <c r="C97" t="n">
-        <v>0.388077</v>
+        <v>0.742743</v>
       </c>
       <c r="D97" t="n">
-        <v>0.326931</v>
+        <v>0.5756869999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.544214</v>
+        <v>1.12341</v>
       </c>
       <c r="C98" t="n">
-        <v>0.396826</v>
+        <v>0.754507</v>
       </c>
       <c r="D98" t="n">
-        <v>0.315876</v>
+        <v>0.612455</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528755</v>
+        <v>1.17103</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4058</v>
+        <v>0.802463</v>
       </c>
       <c r="D99" t="n">
-        <v>0.324254</v>
+        <v>0.610015</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.580067</v>
+        <v>1.188</v>
       </c>
       <c r="C100" t="n">
-        <v>0.402409</v>
+        <v>0.816456</v>
       </c>
       <c r="D100" t="n">
-        <v>0.322552</v>
+        <v>0.629578</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.550376</v>
+        <v>1.22454</v>
       </c>
       <c r="C101" t="n">
-        <v>0.412899</v>
+        <v>0.8416439999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.346286</v>
+        <v>0.656641</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.58807</v>
+        <v>1.26881</v>
       </c>
       <c r="C102" t="n">
-        <v>0.423912</v>
+        <v>0.880179</v>
       </c>
       <c r="D102" t="n">
-        <v>0.364012</v>
+        <v>0.688757</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.603495</v>
+        <v>1.30665</v>
       </c>
       <c r="C103" t="n">
-        <v>0.456335</v>
+        <v>0.905376</v>
       </c>
       <c r="D103" t="n">
-        <v>0.354042</v>
+        <v>0.69773</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.629374</v>
+        <v>1.34479</v>
       </c>
       <c r="C104" t="n">
-        <v>0.442761</v>
+        <v>0.93509</v>
       </c>
       <c r="D104" t="n">
-        <v>0.359626</v>
+        <v>0.721774</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5439000000000001</v>
+        <v>1.23861</v>
       </c>
       <c r="C105" t="n">
-        <v>0.461473</v>
+        <v>0.977423</v>
       </c>
       <c r="D105" t="n">
-        <v>0.385475</v>
+        <v>0.743013</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551103</v>
+        <v>1.25069</v>
       </c>
       <c r="C106" t="n">
-        <v>0.520388</v>
+        <v>1.01314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.413759</v>
+        <v>0.766008</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6228089999999999</v>
+        <v>1.28465</v>
       </c>
       <c r="C107" t="n">
-        <v>0.457009</v>
+        <v>0.897953</v>
       </c>
       <c r="D107" t="n">
-        <v>0.411867</v>
+        <v>0.781379</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.698367</v>
+        <v>1.29782</v>
       </c>
       <c r="C108" t="n">
-        <v>0.508921</v>
+        <v>0.92095</v>
       </c>
       <c r="D108" t="n">
-        <v>0.382064</v>
+        <v>0.782342</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.641694</v>
+        <v>1.33696</v>
       </c>
       <c r="C109" t="n">
-        <v>0.452395</v>
+        <v>0.9532929999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.403914</v>
+        <v>0.81225</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.675584</v>
+        <v>1.35096</v>
       </c>
       <c r="C110" t="n">
-        <v>0.473833</v>
+        <v>0.9741</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426614</v>
+        <v>0.818958</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.716539</v>
+        <v>1.37954</v>
       </c>
       <c r="C111" t="n">
-        <v>0.508621</v>
+        <v>0.990827</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437964</v>
+        <v>0.8425859999999999</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.742768</v>
+        <v>1.40818</v>
       </c>
       <c r="C112" t="n">
-        <v>0.545471</v>
+        <v>1.01726</v>
       </c>
       <c r="D112" t="n">
-        <v>0.419931</v>
+        <v>0.8600410000000001</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.720296</v>
+        <v>1.44364</v>
       </c>
       <c r="C113" t="n">
-        <v>0.524041</v>
+        <v>1.04349</v>
       </c>
       <c r="D113" t="n">
-        <v>0.458205</v>
+        <v>0.874423</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.853127</v>
+        <v>1.47107</v>
       </c>
       <c r="C114" t="n">
-        <v>0.674468</v>
+        <v>1.06683</v>
       </c>
       <c r="D114" t="n">
-        <v>0.552555</v>
+        <v>0.886831</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.850607</v>
+        <v>1.4978</v>
       </c>
       <c r="C115" t="n">
-        <v>0.640821</v>
+        <v>1.09517</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5168970000000001</v>
+        <v>0.899392</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.812687</v>
+        <v>1.52864</v>
       </c>
       <c r="C116" t="n">
-        <v>0.719197</v>
+        <v>1.12091</v>
       </c>
       <c r="D116" t="n">
-        <v>0.593558</v>
+        <v>0.917873</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.984258</v>
+        <v>1.56149</v>
       </c>
       <c r="C117" t="n">
-        <v>0.776011</v>
+        <v>1.14628</v>
       </c>
       <c r="D117" t="n">
-        <v>0.664671</v>
+        <v>0.93258</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.942793</v>
+        <v>1.59374</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71705</v>
+        <v>1.18036</v>
       </c>
       <c r="D118" t="n">
-        <v>0.619169</v>
+        <v>0.946489</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.821952</v>
+        <v>1.42157</v>
       </c>
       <c r="C119" t="n">
-        <v>0.735797</v>
+        <v>1.20999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.617336</v>
+        <v>0.961808</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.350627</v>
+        <v>0.392617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317975</v>
+        <v>0.288136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218299</v>
+        <v>0.219553</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.371323</v>
+        <v>0.402565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.329453</v>
+        <v>0.292309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.222728</v>
+        <v>0.221555</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.387976</v>
+        <v>0.41397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.348297</v>
+        <v>0.304566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.233046</v>
+        <v>0.231164</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.396186</v>
+        <v>0.419118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.356968</v>
+        <v>0.317517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238623</v>
+        <v>0.236449</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.421273</v>
+        <v>0.438239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.361086</v>
+        <v>0.318603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244903</v>
+        <v>0.239922</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436536</v>
+        <v>0.449914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.394125</v>
+        <v>0.33679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.258089</v>
+        <v>0.24899</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.455216</v>
+        <v>0.463429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.410849</v>
+        <v>0.353838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26702</v>
+        <v>0.258148</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.481911</v>
+        <v>0.482712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.431542</v>
+        <v>0.367635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.281866</v>
+        <v>0.267523</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.499463</v>
+        <v>0.500995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.459014</v>
+        <v>0.39063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.300333</v>
+        <v>0.276594</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.521558</v>
+        <v>0.516101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.330752</v>
+        <v>0.295447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22572</v>
+        <v>0.220861</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.362825</v>
+        <v>0.387791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.333421</v>
+        <v>0.301897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229393</v>
+        <v>0.223855</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.37549</v>
+        <v>0.398352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345256</v>
+        <v>0.311053</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242828</v>
+        <v>0.231412</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.387036</v>
+        <v>0.406831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.366533</v>
+        <v>0.324512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244858</v>
+        <v>0.232854</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.411691</v>
+        <v>0.428188</v>
       </c>
       <c r="C15" t="n">
-        <v>0.382596</v>
+        <v>0.341562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.256424</v>
+        <v>0.239955</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.424903</v>
+        <v>0.439253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.392638</v>
+        <v>0.35163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.268277</v>
+        <v>0.246857</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442119</v>
+        <v>0.448859</v>
       </c>
       <c r="C17" t="n">
-        <v>0.406985</v>
+        <v>0.368823</v>
       </c>
       <c r="D17" t="n">
-        <v>0.27917</v>
+        <v>0.254014</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462434</v>
+        <v>0.472671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.410957</v>
+        <v>0.37344</v>
       </c>
       <c r="D18" t="n">
-        <v>0.277798</v>
+        <v>0.25399</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.473678</v>
+        <v>0.484237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436406</v>
+        <v>0.394935</v>
       </c>
       <c r="D19" t="n">
-        <v>0.291665</v>
+        <v>0.263354</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.492408</v>
+        <v>0.502566</v>
       </c>
       <c r="C20" t="n">
-        <v>0.457453</v>
+        <v>0.417065</v>
       </c>
       <c r="D20" t="n">
-        <v>0.306906</v>
+        <v>0.27516</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.505682</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469763</v>
+        <v>0.435918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.317565</v>
+        <v>0.286185</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.523185</v>
+        <v>0.54121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.485622</v>
+        <v>0.459084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.329052</v>
+        <v>0.296436</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5367960000000001</v>
+        <v>0.557281</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5097739999999999</v>
+        <v>0.482694</v>
       </c>
       <c r="D23" t="n">
-        <v>0.344784</v>
+        <v>0.31029</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.565941</v>
+        <v>0.5920339999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.53346</v>
+        <v>0.497221</v>
       </c>
       <c r="D24" t="n">
-        <v>0.354942</v>
+        <v>0.318839</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.597425</v>
+        <v>0.626069</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5465370000000001</v>
+        <v>0.524579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.367449</v>
+        <v>0.325606</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.618438</v>
+        <v>0.650546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.334449</v>
+        <v>0.331217</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243854</v>
+        <v>0.232466</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.378397</v>
+        <v>0.427563</v>
       </c>
       <c r="C27" t="n">
-        <v>0.337028</v>
+        <v>0.334713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244876</v>
+        <v>0.235675</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.394565</v>
+        <v>0.443732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.35088</v>
+        <v>0.350193</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250776</v>
+        <v>0.241828</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.408344</v>
+        <v>0.457871</v>
       </c>
       <c r="C29" t="n">
-        <v>0.358281</v>
+        <v>0.35517</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255951</v>
+        <v>0.247361</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.426447</v>
+        <v>0.477554</v>
       </c>
       <c r="C30" t="n">
-        <v>0.374857</v>
+        <v>0.376281</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262226</v>
+        <v>0.260176</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.443638</v>
+        <v>0.491214</v>
       </c>
       <c r="C31" t="n">
-        <v>0.389325</v>
+        <v>0.392099</v>
       </c>
       <c r="D31" t="n">
-        <v>0.270032</v>
+        <v>0.261643</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.464931</v>
+        <v>0.508002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.402662</v>
+        <v>0.406585</v>
       </c>
       <c r="D32" t="n">
-        <v>0.277126</v>
+        <v>0.271047</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.490641</v>
+        <v>0.538289</v>
       </c>
       <c r="C33" t="n">
-        <v>0.419951</v>
+        <v>0.424787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.286063</v>
+        <v>0.283933</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.504619</v>
+        <v>0.5545330000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.430456</v>
+        <v>0.441396</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293848</v>
+        <v>0.29344</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.53749</v>
+        <v>0.575841</v>
       </c>
       <c r="C35" t="n">
-        <v>0.454471</v>
+        <v>0.462174</v>
       </c>
       <c r="D35" t="n">
-        <v>0.304837</v>
+        <v>0.302176</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.559494</v>
+        <v>0.594508</v>
       </c>
       <c r="C36" t="n">
-        <v>0.483339</v>
+        <v>0.486229</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319854</v>
+        <v>0.312679</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.57838</v>
+        <v>0.610792</v>
       </c>
       <c r="C37" t="n">
-        <v>0.501327</v>
+        <v>0.508433</v>
       </c>
       <c r="D37" t="n">
-        <v>0.33245</v>
+        <v>0.323101</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.614013</v>
+        <v>0.633571</v>
       </c>
       <c r="C38" t="n">
-        <v>0.523043</v>
+        <v>0.529369</v>
       </c>
       <c r="D38" t="n">
-        <v>0.341314</v>
+        <v>0.331524</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.655286</v>
+        <v>0.669757</v>
       </c>
       <c r="C39" t="n">
-        <v>0.569106</v>
+        <v>0.558449</v>
       </c>
       <c r="D39" t="n">
-        <v>0.355608</v>
+        <v>0.344946</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.686186</v>
+        <v>0.69224</v>
       </c>
       <c r="C40" t="n">
-        <v>0.379136</v>
+        <v>0.393403</v>
       </c>
       <c r="D40" t="n">
-        <v>0.270077</v>
+        <v>0.281086</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.48365</v>
+        <v>0.502381</v>
       </c>
       <c r="C41" t="n">
-        <v>0.399542</v>
+        <v>0.403521</v>
       </c>
       <c r="D41" t="n">
-        <v>0.27528</v>
+        <v>0.28812</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.502813</v>
+        <v>0.514496</v>
       </c>
       <c r="C42" t="n">
-        <v>0.417592</v>
+        <v>0.419624</v>
       </c>
       <c r="D42" t="n">
-        <v>0.286857</v>
+        <v>0.293545</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.522301</v>
+        <v>0.528163</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4381</v>
+        <v>0.431852</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291035</v>
+        <v>0.301159</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.549836</v>
+        <v>0.543838</v>
       </c>
       <c r="C44" t="n">
-        <v>0.466932</v>
+        <v>0.453683</v>
       </c>
       <c r="D44" t="n">
-        <v>0.306335</v>
+        <v>0.310036</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.575801</v>
+        <v>0.5613089999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.492065</v>
+        <v>0.466474</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315629</v>
+        <v>0.313233</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.600886</v>
+        <v>0.573283</v>
       </c>
       <c r="C46" t="n">
-        <v>0.521485</v>
+        <v>0.482798</v>
       </c>
       <c r="D46" t="n">
-        <v>0.324122</v>
+        <v>0.323051</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6344340000000001</v>
+        <v>0.594743</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5408230000000001</v>
+        <v>0.500849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.343596</v>
+        <v>0.332044</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.661206</v>
+        <v>0.612368</v>
       </c>
       <c r="C48" t="n">
-        <v>0.57193</v>
+        <v>0.514426</v>
       </c>
       <c r="D48" t="n">
-        <v>0.360115</v>
+        <v>0.342651</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6822780000000001</v>
+        <v>0.623384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.605669</v>
+        <v>0.536426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.375894</v>
+        <v>0.348608</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.726834</v>
+        <v>0.6527500000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.629409</v>
+        <v>0.554684</v>
       </c>
       <c r="D50" t="n">
-        <v>0.397178</v>
+        <v>0.359401</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.761962</v>
+        <v>0.6778</v>
       </c>
       <c r="C51" t="n">
-        <v>0.661558</v>
+        <v>0.578129</v>
       </c>
       <c r="D51" t="n">
-        <v>0.408405</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.802092</v>
+        <v>0.702911</v>
       </c>
       <c r="C52" t="n">
-        <v>0.701244</v>
+        <v>0.602587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.431163</v>
+        <v>0.381214</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.83645</v>
+        <v>0.728007</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7325970000000001</v>
+        <v>0.62741</v>
       </c>
       <c r="D53" t="n">
-        <v>0.451158</v>
+        <v>0.39374</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.876031</v>
+        <v>0.753591</v>
       </c>
       <c r="C54" t="n">
-        <v>0.505012</v>
+        <v>0.442342</v>
       </c>
       <c r="D54" t="n">
-        <v>0.339807</v>
+        <v>0.313603</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.918374</v>
+        <v>0.783583</v>
       </c>
       <c r="C55" t="n">
-        <v>0.521626</v>
+        <v>0.451111</v>
       </c>
       <c r="D55" t="n">
-        <v>0.346184</v>
+        <v>0.319001</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.601545</v>
+        <v>0.536489</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54259</v>
+        <v>0.46734</v>
       </c>
       <c r="D56" t="n">
-        <v>0.358855</v>
+        <v>0.325168</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.625461</v>
+        <v>0.5500389999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5633280000000001</v>
+        <v>0.480289</v>
       </c>
       <c r="D57" t="n">
-        <v>0.376253</v>
+        <v>0.332311</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.650459</v>
+        <v>0.565968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.587606</v>
+        <v>0.492961</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379218</v>
+        <v>0.336455</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6728</v>
+        <v>0.579589</v>
       </c>
       <c r="C59" t="n">
-        <v>0.603658</v>
+        <v>0.5079900000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.403771</v>
+        <v>0.346203</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.687694</v>
+        <v>0.588485</v>
       </c>
       <c r="C60" t="n">
-        <v>0.626319</v>
+        <v>0.523889</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416481</v>
+        <v>0.351925</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.72071</v>
+        <v>0.608424</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6620740000000001</v>
+        <v>0.540921</v>
       </c>
       <c r="D61" t="n">
-        <v>0.427043</v>
+        <v>0.358933</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.750652</v>
+        <v>0.628551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.691403</v>
+        <v>0.556947</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448276</v>
+        <v>0.366771</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.776859</v>
+        <v>0.645733</v>
       </c>
       <c r="C63" t="n">
-        <v>0.714736</v>
+        <v>0.577814</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453715</v>
+        <v>0.375766</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.810232</v>
+        <v>0.668044</v>
       </c>
       <c r="C64" t="n">
-        <v>0.746717</v>
+        <v>0.593401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.481163</v>
+        <v>0.386074</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.852235</v>
+        <v>0.697376</v>
       </c>
       <c r="C65" t="n">
-        <v>0.786656</v>
+        <v>0.620774</v>
       </c>
       <c r="D65" t="n">
-        <v>0.506006</v>
+        <v>0.3966</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.894728</v>
+        <v>0.719967</v>
       </c>
       <c r="C66" t="n">
-        <v>0.826426</v>
+        <v>0.638</v>
       </c>
       <c r="D66" t="n">
-        <v>0.522845</v>
+        <v>0.405613</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.945365</v>
+        <v>0.749875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.872811</v>
+        <v>0.664632</v>
       </c>
       <c r="D67" t="n">
-        <v>0.553415</v>
+        <v>0.41892</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.98689</v>
+        <v>0.773991</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5512629999999999</v>
+        <v>0.43459</v>
       </c>
       <c r="D68" t="n">
-        <v>0.375689</v>
+        <v>0.314393</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.04819</v>
+        <v>0.817962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.579196</v>
+        <v>0.449966</v>
       </c>
       <c r="D69" t="n">
-        <v>0.395486</v>
+        <v>0.32056</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.673913</v>
+        <v>0.554824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.591681</v>
+        <v>0.47005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.410777</v>
+        <v>0.32918</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.698941</v>
+        <v>0.574499</v>
       </c>
       <c r="C71" t="n">
-        <v>0.630498</v>
+        <v>0.489925</v>
       </c>
       <c r="D71" t="n">
-        <v>0.413778</v>
+        <v>0.336482</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.736832</v>
+        <v>0.602234</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6504</v>
+        <v>0.511423</v>
       </c>
       <c r="D72" t="n">
-        <v>0.427226</v>
+        <v>0.345091</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.767859</v>
+        <v>0.626786</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678766</v>
+        <v>0.535658</v>
       </c>
       <c r="D73" t="n">
-        <v>0.448718</v>
+        <v>0.355652</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.797637</v>
+        <v>0.649002</v>
       </c>
       <c r="C74" t="n">
-        <v>0.712836</v>
+        <v>0.555127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.470953</v>
+        <v>0.365436</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.833859</v>
+        <v>0.679776</v>
       </c>
       <c r="C75" t="n">
-        <v>0.754324</v>
+        <v>0.585687</v>
       </c>
       <c r="D75" t="n">
-        <v>0.478355</v>
+        <v>0.374355</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.872802</v>
+        <v>0.713116</v>
       </c>
       <c r="C76" t="n">
-        <v>0.793285</v>
+        <v>0.615446</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4937</v>
+        <v>0.38484</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.912106</v>
+        <v>0.754342</v>
       </c>
       <c r="C77" t="n">
-        <v>0.82407</v>
+        <v>0.651289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.51335</v>
+        <v>0.398871</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.95373</v>
+        <v>0.7966800000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.850153</v>
+        <v>0.6872740000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.551098</v>
+        <v>0.409168</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.99436</v>
+        <v>0.84772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.887979</v>
+        <v>0.730087</v>
       </c>
       <c r="D79" t="n">
-        <v>0.576637</v>
+        <v>0.423932</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06888</v>
+        <v>0.912072</v>
       </c>
       <c r="C80" t="n">
-        <v>0.953091</v>
+        <v>0.786208</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5884</v>
+        <v>0.439589</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.11253</v>
+        <v>0.985114</v>
       </c>
       <c r="C81" t="n">
-        <v>1.05352</v>
+        <v>0.846881</v>
       </c>
       <c r="D81" t="n">
-        <v>0.625919</v>
+        <v>0.46052</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.14269</v>
+        <v>1.05932</v>
       </c>
       <c r="C82" t="n">
-        <v>1.13855</v>
+        <v>0.91427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.639293</v>
+        <v>0.472142</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.24737</v>
+        <v>1.14588</v>
       </c>
       <c r="C83" t="n">
-        <v>0.701659</v>
+        <v>0.662707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.47513</v>
+        <v>0.386917</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.29536</v>
+        <v>1.25606</v>
       </c>
       <c r="C84" t="n">
-        <v>0.747835</v>
+        <v>0.703735</v>
       </c>
       <c r="D84" t="n">
-        <v>0.48642</v>
+        <v>0.400972</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.809845</v>
+        <v>0.876383</v>
       </c>
       <c r="C85" t="n">
-        <v>0.797482</v>
+        <v>0.7604610000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.527347</v>
+        <v>0.414539</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.874454</v>
+        <v>0.941292</v>
       </c>
       <c r="C86" t="n">
-        <v>0.805889</v>
+        <v>0.8280690000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.522848</v>
+        <v>0.432832</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8225789999999999</v>
+        <v>1.00811</v>
       </c>
       <c r="C87" t="n">
-        <v>0.809274</v>
+        <v>0.89131</v>
       </c>
       <c r="D87" t="n">
-        <v>0.534029</v>
+        <v>0.453206</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.981033</v>
+        <v>1.10259</v>
       </c>
       <c r="C88" t="n">
-        <v>0.998371</v>
+        <v>0.9942220000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.590374</v>
+        <v>0.4845</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00558</v>
+        <v>1.19372</v>
       </c>
       <c r="C89" t="n">
-        <v>0.966678</v>
+        <v>1.08125</v>
       </c>
       <c r="D89" t="n">
-        <v>0.58791</v>
+        <v>0.513093</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987335</v>
+        <v>1.29419</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9497060000000001</v>
+        <v>1.18121</v>
       </c>
       <c r="D90" t="n">
-        <v>0.583251</v>
+        <v>0.547207</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.02559</v>
+        <v>1.41407</v>
       </c>
       <c r="C91" t="n">
-        <v>0.969935</v>
+        <v>1.29204</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5917289999999999</v>
+        <v>0.58209</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.991627</v>
+        <v>1.52037</v>
       </c>
       <c r="C92" t="n">
-        <v>0.998575</v>
+        <v>1.40523</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609529</v>
+        <v>0.63489</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05672</v>
+        <v>1.64519</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04955</v>
+        <v>1.53317</v>
       </c>
       <c r="D93" t="n">
-        <v>0.628949</v>
+        <v>0.673814</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.11972</v>
+        <v>1.78536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.946937</v>
+        <v>1.66805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.581124</v>
+        <v>0.721547</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05769</v>
+        <v>1.92683</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9884500000000001</v>
+        <v>1.80786</v>
       </c>
       <c r="D95" t="n">
-        <v>0.558658</v>
+        <v>0.768566</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.976075</v>
+        <v>2.08516</v>
       </c>
       <c r="C96" t="n">
-        <v>0.960957</v>
+        <v>1.97317</v>
       </c>
       <c r="D96" t="n">
-        <v>0.594539</v>
+        <v>0.834459</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03335</v>
+        <v>2.25035</v>
       </c>
       <c r="C97" t="n">
-        <v>0.577157</v>
+        <v>1.20937</v>
       </c>
       <c r="D97" t="n">
-        <v>0.408453</v>
+        <v>0.6310519999999999</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07645</v>
+        <v>2.41116</v>
       </c>
       <c r="C98" t="n">
-        <v>0.62656</v>
+        <v>1.29006</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429079</v>
+        <v>0.669441</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.708565</v>
+        <v>1.6732</v>
       </c>
       <c r="C99" t="n">
-        <v>0.635991</v>
+        <v>1.37435</v>
       </c>
       <c r="D99" t="n">
-        <v>0.443549</v>
+        <v>0.70909</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7758429999999999</v>
+        <v>1.76396</v>
       </c>
       <c r="C100" t="n">
-        <v>0.688598</v>
+        <v>1.46829</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446877</v>
+        <v>0.744764</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8270650000000001</v>
+        <v>1.8569</v>
       </c>
       <c r="C101" t="n">
-        <v>0.750617</v>
+        <v>1.56602</v>
       </c>
       <c r="D101" t="n">
-        <v>0.561156</v>
+        <v>0.791655</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.889518</v>
+        <v>1.9617</v>
       </c>
       <c r="C102" t="n">
-        <v>0.749167</v>
+        <v>1.66325</v>
       </c>
       <c r="D102" t="n">
-        <v>0.481179</v>
+        <v>0.834013</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.854054</v>
+        <v>2.05637</v>
       </c>
       <c r="C103" t="n">
-        <v>0.782524</v>
+        <v>1.77265</v>
       </c>
       <c r="D103" t="n">
-        <v>0.487546</v>
+        <v>0.874749</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.925702</v>
+        <v>2.17142</v>
       </c>
       <c r="C104" t="n">
-        <v>0.87844</v>
+        <v>1.8857</v>
       </c>
       <c r="D104" t="n">
-        <v>0.520047</v>
+        <v>0.9277840000000001</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.955514</v>
+        <v>2.27277</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8807739999999999</v>
+        <v>2.00786</v>
       </c>
       <c r="D105" t="n">
-        <v>0.536206</v>
+        <v>0.984304</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.02453</v>
+        <v>2.40071</v>
       </c>
       <c r="C106" t="n">
-        <v>1.08214</v>
+        <v>2.12744</v>
       </c>
       <c r="D106" t="n">
-        <v>0.758884</v>
+        <v>1.02476</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4684</v>
+        <v>2.51814</v>
       </c>
       <c r="C107" t="n">
-        <v>1.29721</v>
+        <v>2.25309</v>
       </c>
       <c r="D107" t="n">
-        <v>0.717814</v>
+        <v>1.08476</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39068</v>
+        <v>2.65459</v>
       </c>
       <c r="C108" t="n">
-        <v>1.22337</v>
+        <v>2.4014</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6788689999999999</v>
+        <v>1.13761</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.36602</v>
+        <v>2.79241</v>
       </c>
       <c r="C109" t="n">
-        <v>1.15144</v>
+        <v>2.56024</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626221</v>
+        <v>1.20087</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32884</v>
+        <v>2.93382</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21229</v>
+        <v>2.70097</v>
       </c>
       <c r="D110" t="n">
-        <v>0.66947</v>
+        <v>1.26336</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41626</v>
+        <v>3.1066</v>
       </c>
       <c r="C111" t="n">
-        <v>0.768953</v>
+        <v>1.70844</v>
       </c>
       <c r="D111" t="n">
-        <v>0.495688</v>
+        <v>1.00657</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.52878</v>
+        <v>3.28319</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9061399999999999</v>
+        <v>1.7983</v>
       </c>
       <c r="D112" t="n">
-        <v>0.609534</v>
+        <v>1.05068</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.72275</v>
+        <v>3.42882</v>
       </c>
       <c r="C113" t="n">
-        <v>0.943908</v>
+        <v>1.89153</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5260860000000001</v>
+        <v>1.07466</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.09674</v>
+        <v>2.29997</v>
       </c>
       <c r="C114" t="n">
-        <v>0.917999</v>
+        <v>1.97265</v>
       </c>
       <c r="D114" t="n">
-        <v>0.548192</v>
+        <v>1.10817</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14327</v>
+        <v>2.39111</v>
       </c>
       <c r="C115" t="n">
-        <v>0.971946</v>
+        <v>2.06643</v>
       </c>
       <c r="D115" t="n">
-        <v>0.593931</v>
+        <v>1.16437</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.20108</v>
+        <v>2.49428</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02622</v>
+        <v>2.16674</v>
       </c>
       <c r="D116" t="n">
-        <v>0.610083</v>
+        <v>1.19176</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.24487</v>
+        <v>2.60229</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09787</v>
+        <v>2.27325</v>
       </c>
       <c r="D117" t="n">
-        <v>0.651197</v>
+        <v>1.24645</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.33306</v>
+        <v>2.7002</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14891</v>
+        <v>2.40331</v>
       </c>
       <c r="D118" t="n">
-        <v>0.700314</v>
+        <v>1.28918</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.40426</v>
+        <v>2.80071</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21301</v>
+        <v>2.50483</v>
       </c>
       <c r="D119" t="n">
-        <v>0.751228</v>
+        <v>1.34098</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249953</v>
+        <v>0.244516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18523</v>
+        <v>0.18098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198843</v>
+        <v>0.19528</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201453</v>
+        <v>0.193234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186422</v>
+        <v>0.18186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20112</v>
+        <v>0.196944</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206865</v>
+        <v>0.201805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191504</v>
+        <v>0.187434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207877</v>
+        <v>0.202354</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.213618</v>
+        <v>0.204711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197336</v>
+        <v>0.192853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213606</v>
+        <v>0.208694</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218846</v>
+        <v>0.212241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200902</v>
+        <v>0.196198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218954</v>
+        <v>0.213751</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224224</v>
+        <v>0.218388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167978</v>
+        <v>0.163454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186511</v>
+        <v>0.184254</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229483</v>
+        <v>0.221038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.171722</v>
+        <v>0.16835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18979</v>
+        <v>0.186972</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23469</v>
+        <v>0.22706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174757</v>
+        <v>0.170998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196279</v>
+        <v>0.191284</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239889</v>
+        <v>0.233042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177753</v>
+        <v>0.176108</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2001</v>
+        <v>0.194376</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244537</v>
+        <v>0.238182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180839</v>
+        <v>0.179585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202435</v>
+        <v>0.198089</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252245</v>
+        <v>0.245915</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185748</v>
+        <v>0.185833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207767</v>
+        <v>0.20464</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25568</v>
+        <v>0.25084</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190316</v>
+        <v>0.18901</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21128</v>
+        <v>0.208438</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261107</v>
+        <v>0.25719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194219</v>
+        <v>0.192652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214392</v>
+        <v>0.212404</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267777</v>
+        <v>0.264832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198917</v>
+        <v>0.198383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220506</v>
+        <v>0.219277</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270938</v>
+        <v>0.26857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202584</v>
+        <v>0.201395</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223355</v>
+        <v>0.222068</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277777</v>
+        <v>0.275874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208269</v>
+        <v>0.206298</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229029</v>
+        <v>0.227405</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230854</v>
+        <v>0.230433</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210632</v>
+        <v>0.209072</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23276</v>
+        <v>0.230491</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235061</v>
+        <v>0.234607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215062</v>
+        <v>0.213762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236761</v>
+        <v>0.236067</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239297</v>
+        <v>0.239479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218652</v>
+        <v>0.217216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242031</v>
+        <v>0.24069</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243883</v>
+        <v>0.243797</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183794</v>
+        <v>0.183945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204984</v>
+        <v>0.205293</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248213</v>
+        <v>0.24856</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187237</v>
+        <v>0.187506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209434</v>
+        <v>0.209274</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25246</v>
+        <v>0.252348</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190357</v>
+        <v>0.190596</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212795</v>
+        <v>0.213094</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257252</v>
+        <v>0.257485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193678</v>
+        <v>0.193572</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216301</v>
+        <v>0.216204</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262761</v>
+        <v>0.26247</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196825</v>
+        <v>0.19673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219933</v>
+        <v>0.219684</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26886</v>
+        <v>0.269018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.200736</v>
+        <v>0.201012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224055</v>
+        <v>0.224901</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273579</v>
+        <v>0.273884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204249</v>
+        <v>0.204877</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227863</v>
+        <v>0.227467</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278699</v>
+        <v>0.278807</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209349</v>
+        <v>0.209581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232864</v>
+        <v>0.23284</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28341</v>
+        <v>0.283829</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213671</v>
+        <v>0.214068</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237499</v>
+        <v>0.237769</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289106</v>
+        <v>0.28941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.217679</v>
+        <v>0.218261</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241682</v>
+        <v>0.241927</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2945</v>
+        <v>0.294776</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222326</v>
+        <v>0.222623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245902</v>
+        <v>0.246395</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242547</v>
+        <v>0.241867</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224744</v>
+        <v>0.224508</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249265</v>
+        <v>0.250357</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245635</v>
+        <v>0.245429</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230813</v>
+        <v>0.230771</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254958</v>
+        <v>0.25552</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249307</v>
+        <v>0.248862</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233375</v>
+        <v>0.233862</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258687</v>
+        <v>0.259387</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253541</v>
+        <v>0.253016</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191849</v>
+        <v>0.191601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211141</v>
+        <v>0.210983</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257151</v>
+        <v>0.257149</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194292</v>
+        <v>0.194197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214113</v>
+        <v>0.214228</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260672</v>
+        <v>0.260466</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197029</v>
+        <v>0.196715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217138</v>
+        <v>0.217271</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265271</v>
+        <v>0.265202</v>
       </c>
       <c r="C38" t="n">
-        <v>0.200542</v>
+        <v>0.20028</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221205</v>
+        <v>0.221134</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269606</v>
+        <v>0.26959</v>
       </c>
       <c r="C39" t="n">
-        <v>0.204022</v>
+        <v>0.203908</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225673</v>
+        <v>0.225459</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274844</v>
+        <v>0.274862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207789</v>
+        <v>0.207652</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229636</v>
+        <v>0.229697</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279529</v>
+        <v>0.279743</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211629</v>
+        <v>0.211654</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23354</v>
+        <v>0.233577</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284579</v>
+        <v>0.284879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215126</v>
+        <v>0.215239</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237352</v>
+        <v>0.237348</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289632</v>
+        <v>0.289766</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2196</v>
+        <v>0.219712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241589</v>
+        <v>0.241666</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295177</v>
+        <v>0.294931</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224084</v>
+        <v>0.223977</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246295</v>
+        <v>0.246225</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300262</v>
+        <v>0.300185</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228164</v>
+        <v>0.228218</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250358</v>
+        <v>0.250305</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304933</v>
+        <v>0.304789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231843</v>
+        <v>0.232021</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254356</v>
+        <v>0.25478</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250557</v>
+        <v>0.250705</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236146</v>
+        <v>0.236272</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258729</v>
+        <v>0.258448</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25359</v>
+        <v>0.253583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24</v>
+        <v>0.239911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262748</v>
+        <v>0.262035</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257139</v>
+        <v>0.256961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243668</v>
+        <v>0.243544</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266656</v>
+        <v>0.266371</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260981</v>
+        <v>0.260796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198508</v>
+        <v>0.198445</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216396</v>
+        <v>0.216213</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264784</v>
+        <v>0.264654</v>
       </c>
       <c r="C51" t="n">
-        <v>0.201394</v>
+        <v>0.20098</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219952</v>
+        <v>0.219496</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269096</v>
+        <v>0.269043</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204126</v>
+        <v>0.203959</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223444</v>
+        <v>0.223077</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273597</v>
+        <v>0.273566</v>
       </c>
       <c r="C53" t="n">
-        <v>0.20742</v>
+        <v>0.207256</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226892</v>
+        <v>0.226697</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278671</v>
+        <v>0.278498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210503</v>
+        <v>0.210678</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230491</v>
+        <v>0.230537</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.28357</v>
+        <v>0.283498</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214499</v>
+        <v>0.214314</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23453</v>
+        <v>0.234246</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288702</v>
+        <v>0.288944</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218634</v>
+        <v>0.2185</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238452</v>
+        <v>0.238624</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293935</v>
+        <v>0.293864</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222786</v>
+        <v>0.222579</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242635</v>
+        <v>0.242751</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298529</v>
+        <v>0.29847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227187</v>
+        <v>0.226499</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246904</v>
+        <v>0.246727</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304367</v>
+        <v>0.303657</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23141</v>
+        <v>0.230838</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251497</v>
+        <v>0.251292</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309979</v>
+        <v>0.309326</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236015</v>
+        <v>0.235347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25635</v>
+        <v>0.256064</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257033</v>
+        <v>0.262503</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239741</v>
+        <v>0.239463</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260537</v>
+        <v>0.26018</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256663</v>
+        <v>0.263457</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243372</v>
+        <v>0.242943</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264135</v>
+        <v>0.26395</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267319</v>
+        <v>0.27104</v>
       </c>
       <c r="C63" t="n">
-        <v>0.247462</v>
+        <v>0.248298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268866</v>
+        <v>0.269663</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.277771</v>
+        <v>0.277527</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207276</v>
+        <v>0.206423</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225545</v>
+        <v>0.224701</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279897</v>
+        <v>0.279677</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209919</v>
+        <v>0.20977</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229654</v>
+        <v>0.229337</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283739</v>
+        <v>0.288203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216319</v>
+        <v>0.214846</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234671</v>
+        <v>0.234419</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294412</v>
+        <v>0.293389</v>
       </c>
       <c r="C67" t="n">
-        <v>0.211661</v>
+        <v>0.217357</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238874</v>
+        <v>0.239994</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297331</v>
+        <v>0.299552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224789</v>
+        <v>0.222808</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24533</v>
+        <v>0.245409</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309075</v>
+        <v>0.309346</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227603</v>
+        <v>0.229007</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250088</v>
+        <v>0.249858</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31841</v>
+        <v>0.3181</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234093</v>
+        <v>0.234919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255909</v>
+        <v>0.256568</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327317</v>
+        <v>0.329581</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239009</v>
+        <v>0.242683</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261421</v>
+        <v>0.264247</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.336218</v>
+        <v>0.343192</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245432</v>
+        <v>0.249527</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267125</v>
+        <v>0.272675</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347483</v>
+        <v>0.356074</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252794</v>
+        <v>0.254589</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275824</v>
+        <v>0.279701</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361879</v>
+        <v>0.366745</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260198</v>
+        <v>0.261974</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283778</v>
+        <v>0.28503</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376034</v>
+        <v>0.378156</v>
       </c>
       <c r="C75" t="n">
-        <v>0.267397</v>
+        <v>0.269923</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290685</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40018</v>
+        <v>0.386076</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276621</v>
+        <v>0.273745</v>
       </c>
       <c r="D76" t="n">
-        <v>0.299954</v>
+        <v>0.301679</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416983</v>
+        <v>0.403034</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2851</v>
+        <v>0.289248</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308694</v>
+        <v>0.313465</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429272</v>
+        <v>0.424933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262308</v>
+        <v>0.272878</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29341</v>
+        <v>0.305443</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442945</v>
+        <v>0.43681</v>
       </c>
       <c r="C79" t="n">
-        <v>0.276151</v>
+        <v>0.272882</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303062</v>
+        <v>0.302985</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.462748</v>
+        <v>0.455505</v>
       </c>
       <c r="C80" t="n">
-        <v>0.296826</v>
+        <v>0.295563</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325863</v>
+        <v>0.327536</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.47494</v>
+        <v>0.464525</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306774</v>
+        <v>0.296686</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335549</v>
+        <v>0.332939</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.491899</v>
+        <v>0.48256</v>
       </c>
       <c r="C82" t="n">
-        <v>0.315181</v>
+        <v>0.310142</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348367</v>
+        <v>0.344839</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51358</v>
+        <v>0.509105</v>
       </c>
       <c r="C83" t="n">
-        <v>0.329543</v>
+        <v>0.323755</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363609</v>
+        <v>0.364049</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.533041</v>
+        <v>0.5292249999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.340071</v>
+        <v>0.339306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379766</v>
+        <v>0.385906</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55571</v>
+        <v>0.552539</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358068</v>
+        <v>0.357131</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400366</v>
+        <v>0.400124</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.57834</v>
+        <v>0.572064</v>
       </c>
       <c r="C86" t="n">
-        <v>0.373314</v>
+        <v>0.366946</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414683</v>
+        <v>0.422082</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.600615</v>
+        <v>0.595517</v>
       </c>
       <c r="C87" t="n">
-        <v>0.383052</v>
+        <v>0.382835</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426468</v>
+        <v>0.436861</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6212800000000001</v>
+        <v>0.6187589999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.395345</v>
+        <v>0.397868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.445332</v>
+        <v>0.451966</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644183</v>
+        <v>0.642146</v>
       </c>
       <c r="C89" t="n">
-        <v>0.40929</v>
+        <v>0.412289</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461897</v>
+        <v>0.469351</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.669587</v>
+        <v>0.653015</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425458</v>
+        <v>0.425671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.479893</v>
+        <v>0.488323</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.674944</v>
+        <v>0.672779</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441384</v>
+        <v>0.438287</v>
       </c>
       <c r="D91" t="n">
-        <v>0.495019</v>
+        <v>0.493044</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686162</v>
+        <v>0.680137</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431575</v>
+        <v>0.443496</v>
       </c>
       <c r="D92" t="n">
-        <v>0.502997</v>
+        <v>0.488258</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693589</v>
+        <v>0.690918</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440251</v>
+        <v>0.439956</v>
       </c>
       <c r="D93" t="n">
-        <v>0.501887</v>
+        <v>0.498846</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.703997</v>
+        <v>0.701009</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462203</v>
+        <v>0.458681</v>
       </c>
       <c r="D94" t="n">
-        <v>0.527483</v>
+        <v>0.524601</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716058</v>
+        <v>0.703909</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470728</v>
+        <v>0.46213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540093</v>
+        <v>0.532589</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729427</v>
+        <v>0.714848</v>
       </c>
       <c r="C96" t="n">
-        <v>0.481036</v>
+        <v>0.468647</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554226</v>
+        <v>0.555383</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.744281</v>
+        <v>0.738089</v>
       </c>
       <c r="C97" t="n">
-        <v>0.492515</v>
+        <v>0.491959</v>
       </c>
       <c r="D97" t="n">
-        <v>0.567681</v>
+        <v>0.563068</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.75874</v>
+        <v>0.753103</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503319</v>
+        <v>0.501018</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581223</v>
+        <v>0.58166</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774903</v>
+        <v>0.769294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.51455</v>
+        <v>0.512466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593831</v>
+        <v>0.595627</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.792604</v>
+        <v>0.7867</v>
       </c>
       <c r="C100" t="n">
-        <v>0.526563</v>
+        <v>0.524912</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608029</v>
+        <v>0.609538</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.810535</v>
+        <v>0.804737</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538766</v>
+        <v>0.536701</v>
       </c>
       <c r="D101" t="n">
-        <v>0.621202</v>
+        <v>0.62459</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828752</v>
+        <v>0.823234</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551955</v>
+        <v>0.550105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637429</v>
+        <v>0.637686</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.849299</v>
+        <v>0.843629</v>
       </c>
       <c r="C103" t="n">
-        <v>0.564481</v>
+        <v>0.56354</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652585</v>
+        <v>0.652765</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.870131</v>
+        <v>0.863966</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578232</v>
+        <v>0.577184</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668357</v>
+        <v>0.668648</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.795134</v>
+        <v>0.790049</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591488</v>
+        <v>0.585267</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687415</v>
+        <v>0.685033</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7971549999999999</v>
+        <v>0.789375</v>
       </c>
       <c r="C106" t="n">
-        <v>0.603243</v>
+        <v>0.60568</v>
       </c>
       <c r="D106" t="n">
-        <v>0.703917</v>
+        <v>0.697251</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.799851</v>
+        <v>0.795782</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540263</v>
+        <v>0.5491</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649833</v>
+        <v>0.634823</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819652</v>
+        <v>0.803806</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5616139999999999</v>
+        <v>0.549428</v>
       </c>
       <c r="D108" t="n">
-        <v>0.660765</v>
+        <v>0.649567</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.827807</v>
+        <v>0.822465</v>
       </c>
       <c r="C109" t="n">
-        <v>0.569794</v>
+        <v>0.566398</v>
       </c>
       <c r="D109" t="n">
-        <v>0.672152</v>
+        <v>0.67122</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839523</v>
+        <v>0.832425</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5793</v>
+        <v>0.575942</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6820929999999999</v>
+        <v>0.681929</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85201</v>
+        <v>0.84395</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589741</v>
+        <v>0.585421</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696655</v>
+        <v>0.692211</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.855582</v>
+        <v>0.857009</v>
       </c>
       <c r="C112" t="n">
-        <v>0.590904</v>
+        <v>0.594122</v>
       </c>
       <c r="D112" t="n">
-        <v>0.69625</v>
+        <v>0.703765</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.869615</v>
+        <v>0.871978</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601925</v>
+        <v>0.6052</v>
       </c>
       <c r="D113" t="n">
-        <v>0.709094</v>
+        <v>0.71661</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.88491</v>
+        <v>0.887876</v>
       </c>
       <c r="C114" t="n">
-        <v>0.613654</v>
+        <v>0.616858</v>
       </c>
       <c r="D114" t="n">
-        <v>0.723736</v>
+        <v>0.730389</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.902529</v>
+        <v>0.905238</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625149</v>
+        <v>0.628657</v>
       </c>
       <c r="D115" t="n">
-        <v>0.748802</v>
+        <v>0.746066</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9293709999999999</v>
+        <v>0.923724</v>
       </c>
       <c r="C116" t="n">
-        <v>0.645804</v>
+        <v>0.643218</v>
       </c>
       <c r="D116" t="n">
-        <v>0.758592</v>
+        <v>0.756879</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.949164</v>
+        <v>0.942032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65862</v>
+        <v>0.656016</v>
       </c>
       <c r="D117" t="n">
-        <v>0.772647</v>
+        <v>0.7709510000000001</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9698830000000001</v>
+        <v>0.961348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.671795</v>
+        <v>0.66894</v>
       </c>
       <c r="D118" t="n">
-        <v>0.792915</v>
+        <v>0.784586</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.854645</v>
+        <v>0.853362</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.682899</v>
       </c>
       <c r="D119" t="n">
-        <v>0.806551</v>
+        <v>0.8046990000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248018</v>
+        <v>0.248651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162421</v>
+        <v>0.161874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154905</v>
+        <v>0.154334</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219096</v>
+        <v>0.218667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167786</v>
+        <v>0.166825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153631</v>
+        <v>0.15341</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224049</v>
+        <v>0.223163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171998</v>
+        <v>0.171415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159408</v>
+        <v>0.158817</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229816</v>
+        <v>0.228895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176669</v>
+        <v>0.175781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162974</v>
+        <v>0.161926</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229875</v>
+        <v>0.229788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183376</v>
+        <v>0.182552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16715</v>
+        <v>0.166382</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233557</v>
+        <v>0.234437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167961</v>
+        <v>0.164846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163427</v>
+        <v>0.160777</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236092</v>
+        <v>0.236869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173654</v>
+        <v>0.172897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168085</v>
+        <v>0.165927</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237647</v>
+        <v>0.237775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176383</v>
+        <v>0.176827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166988</v>
+        <v>0.168923</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241167</v>
+        <v>0.24225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181431</v>
+        <v>0.178242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169332</v>
+        <v>0.170018</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240459</v>
+        <v>0.242269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176903</v>
+        <v>0.178038</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169118</v>
+        <v>0.168399</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2539</v>
+        <v>0.255751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187432</v>
+        <v>0.188234</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174066</v>
+        <v>0.177761</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255904</v>
+        <v>0.256763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188121</v>
+        <v>0.186103</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178872</v>
+        <v>0.174086</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256834</v>
+        <v>0.258167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.190464</v>
+        <v>0.192519</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174702</v>
+        <v>0.175577</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265181</v>
+        <v>0.265706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.193461</v>
+        <v>0.19369</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179791</v>
+        <v>0.179784</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270982</v>
+        <v>0.271104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.197494</v>
+        <v>0.197926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180972</v>
+        <v>0.182574</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276558</v>
+        <v>0.276553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201247</v>
+        <v>0.201937</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185254</v>
+        <v>0.183261</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254689</v>
+        <v>0.256079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208755</v>
+        <v>0.210765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185453</v>
+        <v>0.184664</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259891</v>
+        <v>0.259427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211355</v>
+        <v>0.212905</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189064</v>
+        <v>0.191985</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264119</v>
+        <v>0.26081</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221146</v>
+        <v>0.221559</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192537</v>
+        <v>0.192268</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.271723</v>
+        <v>0.270638</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196333</v>
+        <v>0.203669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192114</v>
+        <v>0.191196</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273031</v>
+        <v>0.272178</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208983</v>
+        <v>0.208582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194586</v>
+        <v>0.193598</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277373</v>
+        <v>0.277432</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211034</v>
+        <v>0.212245</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196212</v>
+        <v>0.196184</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281239</v>
+        <v>0.280923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216028</v>
+        <v>0.218008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200505</v>
+        <v>0.201304</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284118</v>
+        <v>0.284138</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224366</v>
+        <v>0.22912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203712</v>
+        <v>0.204561</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293222</v>
+        <v>0.293703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22535</v>
+        <v>0.224546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207283</v>
+        <v>0.207477</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294568</v>
+        <v>0.294852</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236965</v>
+        <v>0.237956</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210209</v>
+        <v>0.210575</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297757</v>
+        <v>0.298004</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23895</v>
+        <v>0.240184</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211153</v>
+        <v>0.212513</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306641</v>
+        <v>0.306354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244206</v>
+        <v>0.244635</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214461</v>
+        <v>0.215928</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31122</v>
+        <v>0.311213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255332</v>
+        <v>0.255159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22003</v>
+        <v>0.220164</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314836</v>
+        <v>0.314834</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252036</v>
+        <v>0.253062</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221413</v>
+        <v>0.222418</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280852</v>
+        <v>0.281448</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262773</v>
+        <v>0.262817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225236</v>
+        <v>0.226012</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286694</v>
+        <v>0.286612</v>
       </c>
       <c r="C33" t="n">
-        <v>0.270891</v>
+        <v>0.271387</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229895</v>
+        <v>0.22874</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291665</v>
+        <v>0.29173</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273446</v>
+        <v>0.274239</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232938</v>
+        <v>0.232925</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292944</v>
+        <v>0.292559</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216671</v>
+        <v>0.215642</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211233</v>
+        <v>0.210927</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297801</v>
+        <v>0.298101</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22193</v>
+        <v>0.222604</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211421</v>
+        <v>0.212043</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304079</v>
+        <v>0.304294</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225019</v>
+        <v>0.22567</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213959</v>
+        <v>0.21511</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306733</v>
+        <v>0.307012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228433</v>
+        <v>0.230241</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216133</v>
+        <v>0.216806</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313528</v>
+        <v>0.314034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234845</v>
+        <v>0.23462</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220051</v>
+        <v>0.220567</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321781</v>
+        <v>0.322549</v>
       </c>
       <c r="C40" t="n">
-        <v>0.237721</v>
+        <v>0.238349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221349</v>
+        <v>0.222462</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327678</v>
+        <v>0.327926</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241491</v>
+        <v>0.241987</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222761</v>
+        <v>0.223645</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331358</v>
+        <v>0.332419</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241131</v>
+        <v>0.243144</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22433</v>
+        <v>0.22531</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337637</v>
+        <v>0.338382</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245712</v>
+        <v>0.247711</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227288</v>
+        <v>0.227939</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340482</v>
+        <v>0.341052</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251906</v>
+        <v>0.252208</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228547</v>
+        <v>0.230011</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34857</v>
+        <v>0.349161</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254345</v>
+        <v>0.254828</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230473</v>
+        <v>0.23196</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349525</v>
+        <v>0.35003</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254254</v>
+        <v>0.254812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232316</v>
+        <v>0.233344</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289335</v>
+        <v>0.289687</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260392</v>
+        <v>0.260972</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234668</v>
+        <v>0.234513</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294049</v>
+        <v>0.294587</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265075</v>
+        <v>0.266315</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236144</v>
+        <v>0.237249</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297863</v>
+        <v>0.298217</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269063</v>
+        <v>0.269883</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239114</v>
+        <v>0.239771</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301648</v>
+        <v>0.301844</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23935</v>
+        <v>0.240273</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22488</v>
+        <v>0.224448</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304755</v>
+        <v>0.305087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241169</v>
+        <v>0.242635</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226103</v>
+        <v>0.226668</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307103</v>
+        <v>0.307146</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245395</v>
+        <v>0.245253</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227783</v>
+        <v>0.227256</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312826</v>
+        <v>0.312838</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249117</v>
+        <v>0.25008</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229958</v>
+        <v>0.229663</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320666</v>
+        <v>0.320683</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253542</v>
+        <v>0.252755</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232223</v>
+        <v>0.232527</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320416</v>
+        <v>0.320662</v>
       </c>
       <c r="C55" t="n">
-        <v>0.259638</v>
+        <v>0.260203</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234726</v>
+        <v>0.233812</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325759</v>
+        <v>0.325709</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259047</v>
+        <v>0.259034</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234911</v>
+        <v>0.235314</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333127</v>
+        <v>0.334186</v>
       </c>
       <c r="C57" t="n">
-        <v>0.266272</v>
+        <v>0.26672</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237594</v>
+        <v>0.237634</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334708</v>
+        <v>0.335091</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273938</v>
+        <v>0.273838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240762</v>
+        <v>0.241074</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342363</v>
+        <v>0.342529</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279748</v>
+        <v>0.280384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244371</v>
+        <v>0.244894</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347691</v>
+        <v>0.348066</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283453</v>
+        <v>0.284668</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24787</v>
+        <v>0.247267</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305007</v>
+        <v>0.304225</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289296</v>
+        <v>0.289143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248974</v>
+        <v>0.248656</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313207</v>
+        <v>0.311471</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293547</v>
+        <v>0.2956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25067</v>
+        <v>0.251902</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318747</v>
+        <v>0.310517</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297895</v>
+        <v>0.298317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254181</v>
+        <v>0.253526</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325893</v>
+        <v>0.324616</v>
       </c>
       <c r="C64" t="n">
-        <v>0.263988</v>
+        <v>0.264757</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242318</v>
+        <v>0.243464</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.333728</v>
+        <v>0.328721</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268585</v>
+        <v>0.266686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24165</v>
+        <v>0.241107</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341461</v>
+        <v>0.336119</v>
       </c>
       <c r="C66" t="n">
-        <v>0.270813</v>
+        <v>0.266638</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243199</v>
+        <v>0.243721</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347969</v>
+        <v>0.344479</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275658</v>
+        <v>0.278607</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246654</v>
+        <v>0.246856</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.355193</v>
+        <v>0.350069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.280668</v>
+        <v>0.282549</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247958</v>
+        <v>0.248297</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360866</v>
+        <v>0.358016</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285929</v>
+        <v>0.284895</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25058</v>
+        <v>0.250721</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368224</v>
+        <v>0.362324</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293047</v>
+        <v>0.292296</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254948</v>
+        <v>0.254656</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38078</v>
+        <v>0.371934</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300717</v>
+        <v>0.298649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258158</v>
+        <v>0.257909</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.391092</v>
+        <v>0.378856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308601</v>
+        <v>0.306025</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262908</v>
+        <v>0.261346</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406947</v>
+        <v>0.392798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318099</v>
+        <v>0.314479</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267319</v>
+        <v>0.265992</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.421595</v>
+        <v>0.402818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.325479</v>
+        <v>0.319838</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26786</v>
+        <v>0.266925</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.439848</v>
+        <v>0.418145</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334607</v>
+        <v>0.326632</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272664</v>
+        <v>0.273255</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.434099</v>
+        <v>0.420506</v>
       </c>
       <c r="C76" t="n">
-        <v>0.345029</v>
+        <v>0.334038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.280624</v>
+        <v>0.276902</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445803</v>
+        <v>0.437493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.362773</v>
+        <v>0.350049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.286003</v>
+        <v>0.281953</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.46708</v>
+        <v>0.464098</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310211</v>
+        <v>0.310738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255804</v>
+        <v>0.277118</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.504812</v>
+        <v>0.481646</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322908</v>
+        <v>0.328354</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278608</v>
+        <v>0.277824</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.541618</v>
+        <v>0.506128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333389</v>
+        <v>0.34051</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288341</v>
+        <v>0.288434</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565716</v>
+        <v>0.5373289999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347722</v>
+        <v>0.349543</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293066</v>
+        <v>0.29482</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.578928</v>
+        <v>0.564645</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374293</v>
+        <v>0.366657</v>
       </c>
       <c r="D82" t="n">
-        <v>0.301857</v>
+        <v>0.306309</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.601389</v>
+        <v>0.605742</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39136</v>
+        <v>0.391316</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305832</v>
+        <v>0.297036</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.654161</v>
+        <v>0.631205</v>
       </c>
       <c r="C84" t="n">
-        <v>0.410226</v>
+        <v>0.401406</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319844</v>
+        <v>0.303372</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.689053</v>
+        <v>0.674723</v>
       </c>
       <c r="C85" t="n">
-        <v>0.438232</v>
+        <v>0.435231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330477</v>
+        <v>0.324935</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.710049</v>
       </c>
       <c r="C86" t="n">
-        <v>0.457309</v>
+        <v>0.452586</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337445</v>
+        <v>0.325277</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7674879999999999</v>
+        <v>0.750866</v>
       </c>
       <c r="C87" t="n">
-        <v>0.483455</v>
+        <v>0.479328</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359789</v>
+        <v>0.348741</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.809257</v>
+        <v>0.798702</v>
       </c>
       <c r="C88" t="n">
-        <v>0.508887</v>
+        <v>0.503001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.373823</v>
+        <v>0.361645</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.863976</v>
+        <v>0.853625</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537901</v>
+        <v>0.535721</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382625</v>
+        <v>0.380749</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859245</v>
+        <v>0.850352</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563653</v>
+        <v>0.544499</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39651</v>
+        <v>0.3916</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.896818</v>
+        <v>0.877534</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5956</v>
+        <v>0.598417</v>
       </c>
       <c r="D91" t="n">
-        <v>0.415548</v>
+        <v>0.423962</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931511</v>
+        <v>0.930401</v>
       </c>
       <c r="C92" t="n">
-        <v>0.612767</v>
+        <v>0.605684</v>
       </c>
       <c r="D92" t="n">
-        <v>0.491171</v>
+        <v>0.484794</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.960485</v>
+        <v>0.9599490000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.635818</v>
+        <v>0.632205</v>
       </c>
       <c r="D93" t="n">
-        <v>0.524221</v>
+        <v>0.514991</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992487</v>
+        <v>0.9953149999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.656758</v>
+        <v>0.6578040000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.530818</v>
+        <v>0.531164</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03024</v>
+        <v>1.02965</v>
       </c>
       <c r="C95" t="n">
-        <v>0.687069</v>
+        <v>0.68693</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552376</v>
+        <v>0.55269</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06479</v>
+        <v>1.0511</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712652</v>
+        <v>0.712734</v>
       </c>
       <c r="D96" t="n">
-        <v>0.565403</v>
+        <v>0.55371</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.09662</v>
+        <v>1.10044</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742743</v>
+        <v>0.744345</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.595124</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12341</v>
+        <v>1.13288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.754507</v>
+        <v>0.771096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.612455</v>
+        <v>0.614219</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17103</v>
+        <v>1.16971</v>
       </c>
       <c r="C99" t="n">
-        <v>0.802463</v>
+        <v>0.804069</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610015</v>
+        <v>0.633354</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.188</v>
+        <v>1.20626</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816456</v>
+        <v>0.8328140000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629578</v>
+        <v>0.652351</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22454</v>
+        <v>1.24142</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8416439999999999</v>
+        <v>0.8595660000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656641</v>
+        <v>0.670755</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26881</v>
+        <v>1.27916</v>
       </c>
       <c r="C102" t="n">
-        <v>0.880179</v>
+        <v>0.893902</v>
       </c>
       <c r="D102" t="n">
-        <v>0.688757</v>
+        <v>0.695231</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30665</v>
+        <v>1.31498</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905376</v>
+        <v>0.920566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.69773</v>
+        <v>0.713653</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34479</v>
+        <v>1.35303</v>
       </c>
       <c r="C104" t="n">
-        <v>0.93509</v>
+        <v>0.950263</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721774</v>
+        <v>0.732483</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23861</v>
+        <v>1.23696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.977423</v>
+        <v>0.98319</v>
       </c>
       <c r="D105" t="n">
-        <v>0.743013</v>
+        <v>0.748053</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.25069</v>
+        <v>1.26829</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01314</v>
+        <v>1.01295</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766008</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28465</v>
+        <v>1.28859</v>
       </c>
       <c r="C107" t="n">
-        <v>0.897953</v>
+        <v>0.907542</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781379</v>
+        <v>0.783452</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29782</v>
+        <v>1.29589</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92095</v>
+        <v>0.9201510000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.782342</v>
+        <v>0.786653</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33696</v>
+        <v>1.32064</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9532929999999999</v>
+        <v>0.951442</v>
       </c>
       <c r="D109" t="n">
-        <v>0.81225</v>
+        <v>0.803828</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35096</v>
+        <v>1.35607</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9741</v>
+        <v>0.9728869999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.818958</v>
+        <v>0.827184</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37954</v>
+        <v>1.38084</v>
       </c>
       <c r="C111" t="n">
-        <v>0.990827</v>
+        <v>0.991101</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8425859999999999</v>
+        <v>0.845074</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40818</v>
+        <v>1.4087</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01726</v>
+        <v>1.01948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8600410000000001</v>
+        <v>0.848736</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44364</v>
+        <v>1.43243</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04349</v>
+        <v>1.03284</v>
       </c>
       <c r="D113" t="n">
-        <v>0.874423</v>
+        <v>0.87645</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47107</v>
+        <v>1.46656</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06683</v>
+        <v>1.0671</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886831</v>
+        <v>0.882141</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4978</v>
+        <v>1.49474</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09517</v>
+        <v>1.09274</v>
       </c>
       <c r="D115" t="n">
-        <v>0.899392</v>
+        <v>0.9021130000000001</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52864</v>
+        <v>1.5238</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12091</v>
+        <v>1.11909</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917873</v>
+        <v>0.91671</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56149</v>
+        <v>1.55882</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14628</v>
+        <v>1.14425</v>
       </c>
       <c r="D117" t="n">
-        <v>0.93258</v>
+        <v>0.927745</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59374</v>
+        <v>1.58897</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18036</v>
+        <v>1.17854</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946489</v>
+        <v>0.944032</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42157</v>
+        <v>1.42016</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20999</v>
+        <v>1.20668</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961808</v>
+        <v>0.961974</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392617</v>
+        <v>0.389734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288136</v>
+        <v>0.286016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219553</v>
+        <v>0.218405</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402565</v>
+        <v>0.400781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292309</v>
+        <v>0.289976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221555</v>
+        <v>0.219363</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41397</v>
+        <v>0.412327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304566</v>
+        <v>0.304141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231164</v>
+        <v>0.227863</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419118</v>
+        <v>0.418214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317517</v>
+        <v>0.311315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236449</v>
+        <v>0.234893</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.438239</v>
+        <v>0.434682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318603</v>
+        <v>0.314394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239922</v>
+        <v>0.238298</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449914</v>
+        <v>0.448954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33679</v>
+        <v>0.335185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24899</v>
+        <v>0.246133</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463429</v>
+        <v>0.462697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353838</v>
+        <v>0.350045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258148</v>
+        <v>0.255626</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482712</v>
+        <v>0.480857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.367635</v>
+        <v>0.366975</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267523</v>
+        <v>0.264154</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500995</v>
+        <v>0.494982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39063</v>
+        <v>0.383625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276594</v>
+        <v>0.274172</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516101</v>
+        <v>0.516007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295447</v>
+        <v>0.293048</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220861</v>
+        <v>0.219652</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.387791</v>
+        <v>0.384733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301897</v>
+        <v>0.297107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223855</v>
+        <v>0.222932</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398352</v>
+        <v>0.398831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311053</v>
+        <v>0.306866</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231412</v>
+        <v>0.23209</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406831</v>
+        <v>0.402619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324512</v>
+        <v>0.31243</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232854</v>
+        <v>0.231717</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428188</v>
+        <v>0.420383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341562</v>
+        <v>0.334213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239955</v>
+        <v>0.23821</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439253</v>
+        <v>0.436491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35163</v>
+        <v>0.347923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246857</v>
+        <v>0.24524</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448859</v>
+        <v>0.44441</v>
       </c>
       <c r="C17" t="n">
-        <v>0.368823</v>
+        <v>0.362106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254014</v>
+        <v>0.251992</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472671</v>
+        <v>0.469711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37344</v>
+        <v>0.368539</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25399</v>
+        <v>0.252289</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484237</v>
+        <v>0.478985</v>
       </c>
       <c r="C19" t="n">
-        <v>0.394935</v>
+        <v>0.391888</v>
       </c>
       <c r="D19" t="n">
-        <v>0.263354</v>
+        <v>0.262359</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502566</v>
+        <v>0.499647</v>
       </c>
       <c r="C20" t="n">
-        <v>0.417065</v>
+        <v>0.411249</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27516</v>
+        <v>0.273282</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.515724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.435918</v>
+        <v>0.431168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286185</v>
+        <v>0.284943</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54121</v>
+        <v>0.538666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.459084</v>
+        <v>0.458876</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296436</v>
+        <v>0.292936</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.557281</v>
+        <v>0.5546410000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.482694</v>
+        <v>0.476861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31029</v>
+        <v>0.304251</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5920339999999999</v>
+        <v>0.587959</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497221</v>
+        <v>0.488833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318839</v>
+        <v>0.316648</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626069</v>
+        <v>0.625565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.524579</v>
+        <v>0.5204220000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325606</v>
+        <v>0.323511</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.650546</v>
+        <v>0.653592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331217</v>
+        <v>0.334132</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232466</v>
+        <v>0.236215</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.427563</v>
+        <v>0.432726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.334713</v>
+        <v>0.33784</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235675</v>
+        <v>0.239164</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.443732</v>
+        <v>0.448441</v>
       </c>
       <c r="C28" t="n">
-        <v>0.350193</v>
+        <v>0.352516</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241828</v>
+        <v>0.247308</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.457871</v>
+        <v>0.464052</v>
       </c>
       <c r="C29" t="n">
-        <v>0.35517</v>
+        <v>0.359098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247361</v>
+        <v>0.2518</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.477554</v>
+        <v>0.480796</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376281</v>
+        <v>0.379611</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260176</v>
+        <v>0.25952</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491214</v>
+        <v>0.497484</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392099</v>
+        <v>0.393493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261643</v>
+        <v>0.26714</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508002</v>
+        <v>0.512832</v>
       </c>
       <c r="C32" t="n">
-        <v>0.406585</v>
+        <v>0.409304</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271047</v>
+        <v>0.272812</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538289</v>
+        <v>0.54084</v>
       </c>
       <c r="C33" t="n">
-        <v>0.424787</v>
+        <v>0.427303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283933</v>
+        <v>0.284284</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.5545600000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.441396</v>
+        <v>0.445088</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29344</v>
+        <v>0.29088</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575841</v>
+        <v>0.579282</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462174</v>
+        <v>0.464343</v>
       </c>
       <c r="D35" t="n">
-        <v>0.302176</v>
+        <v>0.300742</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.594508</v>
+        <v>0.598541</v>
       </c>
       <c r="C36" t="n">
-        <v>0.486229</v>
+        <v>0.483557</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312679</v>
+        <v>0.313169</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.610792</v>
+        <v>0.61355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.508433</v>
+        <v>0.512062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323101</v>
+        <v>0.322239</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.633571</v>
+        <v>0.636953</v>
       </c>
       <c r="C38" t="n">
-        <v>0.529369</v>
+        <v>0.527842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.331524</v>
+        <v>0.333414</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669757</v>
+        <v>0.669624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.558449</v>
+        <v>0.557542</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344946</v>
+        <v>0.345819</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69224</v>
+        <v>0.693097</v>
       </c>
       <c r="C40" t="n">
-        <v>0.393403</v>
+        <v>0.388744</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281086</v>
+        <v>0.278809</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502381</v>
+        <v>0.50299</v>
       </c>
       <c r="C41" t="n">
-        <v>0.403521</v>
+        <v>0.403771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28812</v>
+        <v>0.286398</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.514496</v>
+        <v>0.5147699999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.419624</v>
+        <v>0.419628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293545</v>
+        <v>0.293587</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528163</v>
+        <v>0.52835</v>
       </c>
       <c r="C43" t="n">
-        <v>0.431852</v>
+        <v>0.431692</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301159</v>
+        <v>0.299493</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543838</v>
+        <v>0.542831</v>
       </c>
       <c r="C44" t="n">
-        <v>0.453683</v>
+        <v>0.453342</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310036</v>
+        <v>0.308732</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5613089999999999</v>
+        <v>0.56148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.466474</v>
+        <v>0.465033</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313233</v>
+        <v>0.315595</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573283</v>
+        <v>0.5737640000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.482798</v>
+        <v>0.481041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.323051</v>
+        <v>0.322241</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594743</v>
+        <v>0.5958560000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500849</v>
+        <v>0.500889</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332044</v>
+        <v>0.331179</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612368</v>
+        <v>0.612264</v>
       </c>
       <c r="C48" t="n">
-        <v>0.514426</v>
+        <v>0.5134570000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342651</v>
+        <v>0.340177</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623384</v>
+        <v>0.624312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.536426</v>
+        <v>0.534098</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348608</v>
+        <v>0.347936</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6527500000000001</v>
+        <v>0.653101</v>
       </c>
       <c r="C50" t="n">
-        <v>0.554684</v>
+        <v>0.551058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359401</v>
+        <v>0.357058</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6778</v>
+        <v>0.677854</v>
       </c>
       <c r="C51" t="n">
-        <v>0.578129</v>
+        <v>0.576246</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371</v>
+        <v>0.370074</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.702911</v>
+        <v>0.702292</v>
       </c>
       <c r="C52" t="n">
-        <v>0.602587</v>
+        <v>0.5980799999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381214</v>
+        <v>0.379646</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.728007</v>
+        <v>0.72673</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62741</v>
+        <v>0.620688</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39374</v>
+        <v>0.39246</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753591</v>
+        <v>0.753113</v>
       </c>
       <c r="C54" t="n">
-        <v>0.442342</v>
+        <v>0.441093</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313603</v>
+        <v>0.311441</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.783583</v>
+        <v>0.78143</v>
       </c>
       <c r="C55" t="n">
-        <v>0.451111</v>
+        <v>0.450879</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319001</v>
+        <v>0.317748</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536489</v>
+        <v>0.537154</v>
       </c>
       <c r="C56" t="n">
-        <v>0.46734</v>
+        <v>0.4659</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325168</v>
+        <v>0.324331</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.551104</v>
       </c>
       <c r="C57" t="n">
-        <v>0.480289</v>
+        <v>0.479343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332311</v>
+        <v>0.331105</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565968</v>
+        <v>0.566051</v>
       </c>
       <c r="C58" t="n">
-        <v>0.492961</v>
+        <v>0.491902</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336455</v>
+        <v>0.33608</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579589</v>
+        <v>0.5806519999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.505543</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346203</v>
+        <v>0.345677</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588485</v>
+        <v>0.589068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.523889</v>
+        <v>0.521693</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351925</v>
+        <v>0.350217</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608424</v>
+        <v>0.608672</v>
       </c>
       <c r="C61" t="n">
-        <v>0.540921</v>
+        <v>0.537877</v>
       </c>
       <c r="D61" t="n">
-        <v>0.358933</v>
+        <v>0.357617</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628551</v>
+        <v>0.629826</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556947</v>
+        <v>0.5531</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366771</v>
+        <v>0.365349</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645733</v>
+        <v>0.647475</v>
       </c>
       <c r="C63" t="n">
-        <v>0.577814</v>
+        <v>0.57304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375766</v>
+        <v>0.375139</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668044</v>
+        <v>0.667903</v>
       </c>
       <c r="C64" t="n">
-        <v>0.593401</v>
+        <v>0.589539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386074</v>
+        <v>0.384847</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697376</v>
+        <v>0.6965789999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.620774</v>
+        <v>0.615193</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3966</v>
+        <v>0.394215</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719967</v>
+        <v>0.719794</v>
       </c>
       <c r="C66" t="n">
-        <v>0.638</v>
+        <v>0.629423</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405613</v>
+        <v>0.403931</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.749875</v>
+        <v>0.7507779999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.664632</v>
+        <v>0.656265</v>
       </c>
       <c r="D67" t="n">
-        <v>0.41892</v>
+        <v>0.416252</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.773991</v>
+        <v>0.772904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43459</v>
+        <v>0.435538</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314393</v>
+        <v>0.313514</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.817962</v>
+        <v>0.819008</v>
       </c>
       <c r="C69" t="n">
-        <v>0.449966</v>
+        <v>0.452954</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32056</v>
+        <v>0.319815</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554824</v>
+        <v>0.559817</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47005</v>
+        <v>0.472957</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32918</v>
+        <v>0.328982</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574499</v>
+        <v>0.58048</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489925</v>
+        <v>0.493499</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336482</v>
+        <v>0.336921</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.602234</v>
+        <v>0.609004</v>
       </c>
       <c r="C72" t="n">
-        <v>0.511423</v>
+        <v>0.513464</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345091</v>
+        <v>0.345261</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.626786</v>
+        <v>0.636056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.535658</v>
+        <v>0.54114</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355652</v>
+        <v>0.355514</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.649002</v>
+        <v>0.65949</v>
       </c>
       <c r="C74" t="n">
-        <v>0.555127</v>
+        <v>0.5596</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365436</v>
+        <v>0.364316</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679776</v>
+        <v>0.6891929999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.585687</v>
+        <v>0.588778</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374355</v>
+        <v>0.374618</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.713116</v>
+        <v>0.726179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.615446</v>
+        <v>0.620671</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38484</v>
+        <v>0.385325</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.754342</v>
+        <v>0.769667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.651289</v>
+        <v>0.659844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398871</v>
+        <v>0.400177</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7966800000000001</v>
+        <v>0.810015</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6872740000000001</v>
+        <v>0.694545</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409168</v>
+        <v>0.412733</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.84772</v>
+        <v>0.854594</v>
       </c>
       <c r="C79" t="n">
-        <v>0.730087</v>
+        <v>0.733507</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423932</v>
+        <v>0.424733</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.912072</v>
+        <v>0.9149890000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786208</v>
+        <v>0.782915</v>
       </c>
       <c r="D80" t="n">
-        <v>0.439589</v>
+        <v>0.440363</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.985114</v>
+        <v>0.990513</v>
       </c>
       <c r="C81" t="n">
-        <v>0.846881</v>
+        <v>0.8477710000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46052</v>
+        <v>0.457718</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05932</v>
+        <v>1.07158</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91427</v>
+        <v>0.913208</v>
       </c>
       <c r="D82" t="n">
-        <v>0.472142</v>
+        <v>0.478497</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14588</v>
+        <v>1.1623</v>
       </c>
       <c r="C83" t="n">
-        <v>0.662707</v>
+        <v>0.658077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386917</v>
+        <v>0.3847</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25606</v>
+        <v>1.2615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.703735</v>
+        <v>0.712724</v>
       </c>
       <c r="D84" t="n">
-        <v>0.400972</v>
+        <v>0.39385</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.876383</v>
+        <v>0.879408</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7604610000000001</v>
+        <v>0.759817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.414539</v>
+        <v>0.410017</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.941292</v>
+        <v>0.944424</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8280690000000001</v>
+        <v>0.821229</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432832</v>
+        <v>0.431107</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00811</v>
+        <v>1.01255</v>
       </c>
       <c r="C87" t="n">
-        <v>0.89131</v>
+        <v>0.891821</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453206</v>
+        <v>0.448744</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10259</v>
+        <v>1.10497</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9942220000000001</v>
+        <v>0.985256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4845</v>
+        <v>0.47711</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19372</v>
+        <v>1.18788</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08125</v>
+        <v>1.07266</v>
       </c>
       <c r="D89" t="n">
-        <v>0.513093</v>
+        <v>0.506285</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29419</v>
+        <v>1.28571</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18121</v>
+        <v>1.16647</v>
       </c>
       <c r="D90" t="n">
-        <v>0.547207</v>
+        <v>0.534334</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41407</v>
+        <v>1.39822</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29204</v>
+        <v>1.27778</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58209</v>
+        <v>0.567497</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52037</v>
+        <v>1.52002</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40523</v>
+        <v>1.38504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63489</v>
+        <v>0.602909</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64519</v>
+        <v>1.64735</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53317</v>
+        <v>1.51428</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673814</v>
+        <v>0.644887</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78536</v>
+        <v>1.77996</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66805</v>
+        <v>1.63866</v>
       </c>
       <c r="D94" t="n">
-        <v>0.721547</v>
+        <v>0.693349</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92683</v>
+        <v>1.92176</v>
       </c>
       <c r="C95" t="n">
-        <v>1.80786</v>
+        <v>1.77283</v>
       </c>
       <c r="D95" t="n">
-        <v>0.768566</v>
+        <v>0.754493</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08516</v>
+        <v>2.07342</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97317</v>
+        <v>1.94368</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834459</v>
+        <v>0.80522</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25035</v>
+        <v>2.25075</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20937</v>
+        <v>1.20447</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6310519999999999</v>
+        <v>0.615341</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41116</v>
+        <v>2.40469</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29006</v>
+        <v>1.29324</v>
       </c>
       <c r="D98" t="n">
-        <v>0.669441</v>
+        <v>0.648061</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6732</v>
+        <v>1.66681</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37435</v>
+        <v>1.36057</v>
       </c>
       <c r="D99" t="n">
-        <v>0.70909</v>
+        <v>0.700307</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76396</v>
+        <v>1.75084</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46829</v>
+        <v>1.45144</v>
       </c>
       <c r="D100" t="n">
-        <v>0.744764</v>
+        <v>0.733069</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8569</v>
+        <v>1.84654</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56602</v>
+        <v>1.55385</v>
       </c>
       <c r="D101" t="n">
-        <v>0.791655</v>
+        <v>0.770475</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.9617</v>
+        <v>1.95199</v>
       </c>
       <c r="C102" t="n">
-        <v>1.66325</v>
+        <v>1.64781</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834013</v>
+        <v>0.815362</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05637</v>
+        <v>2.05059</v>
       </c>
       <c r="C103" t="n">
-        <v>1.77265</v>
+        <v>1.75057</v>
       </c>
       <c r="D103" t="n">
-        <v>0.874749</v>
+        <v>0.854218</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17142</v>
+        <v>2.16351</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8857</v>
+        <v>1.86189</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9277840000000001</v>
+        <v>0.907535</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27277</v>
+        <v>2.26547</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00786</v>
+        <v>1.97985</v>
       </c>
       <c r="D105" t="n">
-        <v>0.984304</v>
+        <v>0.960359</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40071</v>
+        <v>2.39711</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12744</v>
+        <v>2.09496</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02476</v>
+        <v>1.00553</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.51814</v>
+        <v>2.5145</v>
       </c>
       <c r="C107" t="n">
-        <v>2.25309</v>
+        <v>2.21744</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08476</v>
+        <v>1.05675</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65459</v>
+        <v>2.65213</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4014</v>
+        <v>2.36031</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13761</v>
+        <v>1.12121</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79241</v>
+        <v>2.79554</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56024</v>
+        <v>2.51076</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20087</v>
+        <v>1.1805</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.93382</v>
+        <v>2.94608</v>
       </c>
       <c r="C110" t="n">
-        <v>2.70097</v>
+        <v>2.64716</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26336</v>
+        <v>1.23665</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1066</v>
+        <v>3.10236</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70844</v>
+        <v>1.70077</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00657</v>
+        <v>0.988316</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28319</v>
+        <v>3.27631</v>
       </c>
       <c r="C112" t="n">
-        <v>1.7983</v>
+        <v>1.78951</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05068</v>
+        <v>1.02683</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.42882</v>
+        <v>3.43577</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89153</v>
+        <v>1.87634</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07466</v>
+        <v>1.07041</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.29997</v>
+        <v>2.30686</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97265</v>
+        <v>1.96249</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10817</v>
+        <v>1.09538</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39111</v>
+        <v>2.39907</v>
       </c>
       <c r="C115" t="n">
-        <v>2.06643</v>
+        <v>2.05992</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16437</v>
+        <v>1.16174</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49428</v>
+        <v>2.48982</v>
       </c>
       <c r="C116" t="n">
-        <v>2.16674</v>
+        <v>2.15305</v>
       </c>
       <c r="D116" t="n">
-        <v>1.19176</v>
+        <v>1.18879</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60229</v>
+        <v>2.59895</v>
       </c>
       <c r="C117" t="n">
-        <v>2.27325</v>
+        <v>2.265</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24645</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.7002</v>
+        <v>2.70176</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40331</v>
+        <v>2.37839</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28918</v>
+        <v>1.27949</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80071</v>
+        <v>2.80987</v>
       </c>
       <c r="C119" t="n">
-        <v>2.50483</v>
+        <v>2.48621</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34098</v>
+        <v>1.32663</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244516</v>
+        <v>0.247318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18098</v>
+        <v>0.204417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19528</v>
+        <v>0.197072</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193234</v>
+        <v>0.195958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18186</v>
+        <v>0.206616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196944</v>
+        <v>0.199792</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201805</v>
+        <v>0.207621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187434</v>
+        <v>0.213042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202354</v>
+        <v>0.206741</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204711</v>
+        <v>0.21439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192853</v>
+        <v>0.21961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.208694</v>
+        <v>0.21289</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212241</v>
+        <v>0.221526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196198</v>
+        <v>0.223307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213751</v>
+        <v>0.218536</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218388</v>
+        <v>0.224784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163454</v>
+        <v>0.183338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.184254</v>
+        <v>0.183829</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221038</v>
+        <v>0.225419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16835</v>
+        <v>0.190547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.186972</v>
+        <v>0.187212</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22706</v>
+        <v>0.231151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.170998</v>
+        <v>0.194392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191284</v>
+        <v>0.189123</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233042</v>
+        <v>0.237218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176108</v>
+        <v>0.198136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194376</v>
+        <v>0.19502</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238182</v>
+        <v>0.242572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179585</v>
+        <v>0.203959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198089</v>
+        <v>0.202663</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245915</v>
+        <v>0.25131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185833</v>
+        <v>0.208789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20464</v>
+        <v>0.206942</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25084</v>
+        <v>0.255503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18901</v>
+        <v>0.21304</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208438</v>
+        <v>0.209864</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25719</v>
+        <v>0.260207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192652</v>
+        <v>0.217405</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212404</v>
+        <v>0.213833</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264832</v>
+        <v>0.267277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198383</v>
+        <v>0.223449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219277</v>
+        <v>0.219637</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26857</v>
+        <v>0.27187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201395</v>
+        <v>0.22825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222068</v>
+        <v>0.222706</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275874</v>
+        <v>0.279318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.206298</v>
+        <v>0.233294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227405</v>
+        <v>0.229683</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230433</v>
+        <v>0.230494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.209072</v>
+        <v>0.233005</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230491</v>
+        <v>0.231939</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234607</v>
+        <v>0.234357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213762</v>
+        <v>0.241022</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236067</v>
+        <v>0.235573</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239479</v>
+        <v>0.239155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.217216</v>
+        <v>0.243403</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24069</v>
+        <v>0.240464</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243797</v>
+        <v>0.243727</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183945</v>
+        <v>0.205309</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205293</v>
+        <v>0.205736</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24856</v>
+        <v>0.248228</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187506</v>
+        <v>0.209888</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209274</v>
+        <v>0.209518</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252348</v>
+        <v>0.252072</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190596</v>
+        <v>0.213317</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213094</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257485</v>
+        <v>0.257438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193572</v>
+        <v>0.21675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216204</v>
+        <v>0.216509</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26247</v>
+        <v>0.262313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.19673</v>
+        <v>0.220104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219684</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.269018</v>
+        <v>0.268687</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201012</v>
+        <v>0.22485</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224901</v>
+        <v>0.223985</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273884</v>
+        <v>0.273155</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204877</v>
+        <v>0.228983</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227467</v>
+        <v>0.227139</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278807</v>
+        <v>0.277897</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209581</v>
+        <v>0.234051</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23284</v>
+        <v>0.232261</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283829</v>
+        <v>0.283167</v>
       </c>
       <c r="C29" t="n">
-        <v>0.214068</v>
+        <v>0.23962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237769</v>
+        <v>0.237372</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.28941</v>
+        <v>0.288789</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218261</v>
+        <v>0.243927</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241927</v>
+        <v>0.241762</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294776</v>
+        <v>0.294301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222623</v>
+        <v>0.248446</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246395</v>
+        <v>0.245719</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.241867</v>
+        <v>0.242031</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224508</v>
+        <v>0.253071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250357</v>
+        <v>0.250185</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245429</v>
+        <v>0.245676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230771</v>
+        <v>0.257679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25552</v>
+        <v>0.25455</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248862</v>
+        <v>0.248461</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233862</v>
+        <v>0.261461</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259387</v>
+        <v>0.258727</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253016</v>
+        <v>0.252673</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191601</v>
+        <v>0.214031</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210983</v>
+        <v>0.210222</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257149</v>
+        <v>0.25642</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194197</v>
+        <v>0.21725</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214228</v>
+        <v>0.213396</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260466</v>
+        <v>0.260449</v>
       </c>
       <c r="C37" t="n">
-        <v>0.196715</v>
+        <v>0.22047</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217271</v>
+        <v>0.216474</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265202</v>
+        <v>0.264598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20028</v>
+        <v>0.224524</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221134</v>
+        <v>0.220063</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.26959</v>
+        <v>0.269167</v>
       </c>
       <c r="C39" t="n">
-        <v>0.203908</v>
+        <v>0.228831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225459</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274862</v>
+        <v>0.273802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207652</v>
+        <v>0.233435</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229697</v>
+        <v>0.228487</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279743</v>
+        <v>0.278832</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211654</v>
+        <v>0.23786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233577</v>
+        <v>0.232261</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284879</v>
+        <v>0.283758</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215239</v>
+        <v>0.241784</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237348</v>
+        <v>0.236208</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289766</v>
+        <v>0.288915</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219712</v>
+        <v>0.246329</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241666</v>
+        <v>0.240529</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.294931</v>
+        <v>0.293952</v>
       </c>
       <c r="C44" t="n">
-        <v>0.223977</v>
+        <v>0.251541</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246225</v>
+        <v>0.244993</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300185</v>
+        <v>0.299123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228218</v>
+        <v>0.256409</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250305</v>
+        <v>0.249125</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304789</v>
+        <v>0.303604</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232021</v>
+        <v>0.260567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25478</v>
+        <v>0.253502</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250705</v>
+        <v>0.250288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236272</v>
+        <v>0.265294</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258448</v>
+        <v>0.257846</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253583</v>
+        <v>0.253257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239911</v>
+        <v>0.269487</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262035</v>
+        <v>0.261596</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256961</v>
+        <v>0.256686</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243544</v>
+        <v>0.270569</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266371</v>
+        <v>0.263759</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260796</v>
+        <v>0.260164</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198445</v>
+        <v>0.222512</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216213</v>
+        <v>0.214208</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264654</v>
+        <v>0.263678</v>
       </c>
       <c r="C51" t="n">
-        <v>0.20098</v>
+        <v>0.225589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219496</v>
+        <v>0.218227</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269043</v>
+        <v>0.268358</v>
       </c>
       <c r="C52" t="n">
-        <v>0.203959</v>
+        <v>0.228836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223077</v>
+        <v>0.221235</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273566</v>
+        <v>0.27282</v>
       </c>
       <c r="C53" t="n">
-        <v>0.207256</v>
+        <v>0.232896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226697</v>
+        <v>0.22497</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278498</v>
+        <v>0.27768</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210678</v>
+        <v>0.237018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230537</v>
+        <v>0.228556</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283498</v>
+        <v>0.282738</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214314</v>
+        <v>0.241024</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234246</v>
+        <v>0.232327</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288944</v>
+        <v>0.287686</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2185</v>
+        <v>0.245739</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238624</v>
+        <v>0.236633</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293864</v>
+        <v>0.292858</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222579</v>
+        <v>0.25062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242751</v>
+        <v>0.240713</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29847</v>
+        <v>0.297475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226499</v>
+        <v>0.255325</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246727</v>
+        <v>0.244902</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303657</v>
+        <v>0.302456</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230838</v>
+        <v>0.260247</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251292</v>
+        <v>0.249425</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309326</v>
+        <v>0.308246</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235347</v>
+        <v>0.265371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256064</v>
+        <v>0.253861</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262503</v>
+        <v>0.261806</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239463</v>
+        <v>0.270299</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26018</v>
+        <v>0.257681</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263457</v>
+        <v>0.270919</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242943</v>
+        <v>0.273848</v>
       </c>
       <c r="D62" t="n">
-        <v>0.26395</v>
+        <v>0.262468</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.27104</v>
+        <v>0.268765</v>
       </c>
       <c r="C63" t="n">
-        <v>0.248298</v>
+        <v>0.278432</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269663</v>
+        <v>0.266987</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.277527</v>
+        <v>0.275838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206423</v>
+        <v>0.232064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224701</v>
+        <v>0.22209</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279677</v>
+        <v>0.288262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.20977</v>
+        <v>0.232243</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229337</v>
+        <v>0.224641</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.288203</v>
+        <v>0.289615</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214846</v>
+        <v>0.243094</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234419</v>
+        <v>0.235934</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.293389</v>
+        <v>0.296418</v>
       </c>
       <c r="C67" t="n">
-        <v>0.217357</v>
+        <v>0.248451</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239994</v>
+        <v>0.240492</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.299552</v>
+        <v>0.308218</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222808</v>
+        <v>0.255619</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245409</v>
+        <v>0.243993</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309346</v>
+        <v>0.308946</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229007</v>
+        <v>0.262981</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249858</v>
+        <v>0.25206</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3181</v>
+        <v>0.327859</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234919</v>
+        <v>0.269306</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256568</v>
+        <v>0.258048</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329581</v>
+        <v>0.338189</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242683</v>
+        <v>0.277609</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264247</v>
+        <v>0.265985</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343192</v>
+        <v>0.351162</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249527</v>
+        <v>0.284051</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272675</v>
+        <v>0.272552</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.356074</v>
+        <v>0.361056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254589</v>
+        <v>0.290121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.279701</v>
+        <v>0.280417</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.366745</v>
+        <v>0.37022</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261974</v>
+        <v>0.297867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.28503</v>
+        <v>0.286775</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.378156</v>
+        <v>0.381909</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269923</v>
+        <v>0.304879</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2938</v>
+        <v>0.293144</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.386076</v>
+        <v>0.411236</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273745</v>
+        <v>0.314805</v>
       </c>
       <c r="D76" t="n">
-        <v>0.301679</v>
+        <v>0.301316</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.403034</v>
+        <v>0.421202</v>
       </c>
       <c r="C77" t="n">
-        <v>0.289248</v>
+        <v>0.314953</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313465</v>
+        <v>0.303561</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.424933</v>
+        <v>0.436086</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272878</v>
+        <v>0.309849</v>
       </c>
       <c r="D78" t="n">
-        <v>0.305443</v>
+        <v>0.307418</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.43681</v>
+        <v>0.439257</v>
       </c>
       <c r="C79" t="n">
-        <v>0.272882</v>
+        <v>0.33298</v>
       </c>
       <c r="D79" t="n">
-        <v>0.302985</v>
+        <v>0.317733</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.455505</v>
+        <v>0.449638</v>
       </c>
       <c r="C80" t="n">
-        <v>0.295563</v>
+        <v>0.342888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.327536</v>
+        <v>0.323367</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.464525</v>
+        <v>0.476872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.296686</v>
+        <v>0.349265</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332939</v>
+        <v>0.339571</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.48256</v>
+        <v>0.492226</v>
       </c>
       <c r="C82" t="n">
-        <v>0.310142</v>
+        <v>0.36687</v>
       </c>
       <c r="D82" t="n">
-        <v>0.344839</v>
+        <v>0.351958</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.509105</v>
+        <v>0.511324</v>
       </c>
       <c r="C83" t="n">
-        <v>0.323755</v>
+        <v>0.379184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364049</v>
+        <v>0.366159</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5292249999999999</v>
+        <v>0.532143</v>
       </c>
       <c r="C84" t="n">
-        <v>0.339306</v>
+        <v>0.393256</v>
       </c>
       <c r="D84" t="n">
-        <v>0.385906</v>
+        <v>0.377991</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.552539</v>
+        <v>0.548825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.357131</v>
+        <v>0.40897</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400124</v>
+        <v>0.397912</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.572064</v>
+        <v>0.570852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.366946</v>
+        <v>0.424198</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422082</v>
+        <v>0.41685</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.595517</v>
+        <v>0.593699</v>
       </c>
       <c r="C87" t="n">
-        <v>0.382835</v>
+        <v>0.438428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.436861</v>
+        <v>0.427515</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6187589999999999</v>
+        <v>0.6155969999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.397868</v>
+        <v>0.453749</v>
       </c>
       <c r="D88" t="n">
-        <v>0.451966</v>
+        <v>0.44245</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.642146</v>
+        <v>0.6393799999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.412289</v>
+        <v>0.470009</v>
       </c>
       <c r="D89" t="n">
-        <v>0.469351</v>
+        <v>0.460266</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.653015</v>
+        <v>0.66287</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425671</v>
+        <v>0.481004</v>
       </c>
       <c r="D90" t="n">
-        <v>0.488323</v>
+        <v>0.477115</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.672779</v>
+        <v>0.670733</v>
       </c>
       <c r="C91" t="n">
-        <v>0.438287</v>
+        <v>0.50336</v>
       </c>
       <c r="D91" t="n">
-        <v>0.493044</v>
+        <v>0.489699</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.680137</v>
+        <v>0.681823</v>
       </c>
       <c r="C92" t="n">
-        <v>0.443496</v>
+        <v>0.522996</v>
       </c>
       <c r="D92" t="n">
-        <v>0.488258</v>
+        <v>0.502464</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.690918</v>
+        <v>0.689079</v>
       </c>
       <c r="C93" t="n">
-        <v>0.439956</v>
+        <v>0.5183759999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.498846</v>
+        <v>0.495907</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.701009</v>
+        <v>0.688755</v>
       </c>
       <c r="C94" t="n">
-        <v>0.458681</v>
+        <v>0.5445489999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.524601</v>
+        <v>0.523837</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.703909</v>
+        <v>0.709717</v>
       </c>
       <c r="C95" t="n">
-        <v>0.46213</v>
+        <v>0.555554</v>
       </c>
       <c r="D95" t="n">
-        <v>0.532589</v>
+        <v>0.539299</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.714848</v>
+        <v>0.726118</v>
       </c>
       <c r="C96" t="n">
-        <v>0.468647</v>
+        <v>0.554512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.555383</v>
+        <v>0.537616</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.738089</v>
+        <v>0.73031</v>
       </c>
       <c r="C97" t="n">
-        <v>0.491959</v>
+        <v>0.580763</v>
       </c>
       <c r="D97" t="n">
-        <v>0.563068</v>
+        <v>0.557557</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.753103</v>
+        <v>0.75022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.501018</v>
+        <v>0.585414</v>
       </c>
       <c r="D98" t="n">
-        <v>0.58166</v>
+        <v>0.570601</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.769294</v>
+        <v>0.761673</v>
       </c>
       <c r="C99" t="n">
-        <v>0.512466</v>
+        <v>0.599156</v>
       </c>
       <c r="D99" t="n">
-        <v>0.595627</v>
+        <v>0.583665</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7867</v>
+        <v>0.77928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.524912</v>
+        <v>0.613073</v>
       </c>
       <c r="D100" t="n">
-        <v>0.609538</v>
+        <v>0.597537</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.804737</v>
+        <v>0.796956</v>
       </c>
       <c r="C101" t="n">
-        <v>0.536701</v>
+        <v>0.627484</v>
       </c>
       <c r="D101" t="n">
-        <v>0.62459</v>
+        <v>0.612446</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.823234</v>
+        <v>0.815477</v>
       </c>
       <c r="C102" t="n">
-        <v>0.550105</v>
+        <v>0.642745</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637686</v>
+        <v>0.631569</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.843629</v>
+        <v>0.836156</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56354</v>
+        <v>0.657833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652765</v>
+        <v>0.648134</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.863966</v>
+        <v>0.856502</v>
       </c>
       <c r="C104" t="n">
-        <v>0.577184</v>
+        <v>0.672982</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668648</v>
+        <v>0.66429</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.790049</v>
+        <v>0.7908770000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.585267</v>
+        <v>0.689277</v>
       </c>
       <c r="D105" t="n">
-        <v>0.685033</v>
+        <v>0.683781</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.789375</v>
+        <v>0.794368</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60568</v>
+        <v>0.708897</v>
       </c>
       <c r="D106" t="n">
-        <v>0.697251</v>
+        <v>0.6994899999999999</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.795782</v>
+        <v>0.801146</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5491</v>
+        <v>0.660801</v>
       </c>
       <c r="D107" t="n">
-        <v>0.634823</v>
+        <v>0.645517</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.803806</v>
+        <v>0.803218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.549428</v>
+        <v>0.661052</v>
       </c>
       <c r="D108" t="n">
-        <v>0.649567</v>
+        <v>0.6458159999999999</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.822465</v>
+        <v>0.822776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.566398</v>
+        <v>0.682855</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67122</v>
+        <v>0.668891</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.832425</v>
+        <v>0.824245</v>
       </c>
       <c r="C110" t="n">
-        <v>0.575942</v>
+        <v>0.678529</v>
       </c>
       <c r="D110" t="n">
-        <v>0.681929</v>
+        <v>0.667588</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.84395</v>
+        <v>0.836001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.585421</v>
+        <v>0.6905520000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.692211</v>
+        <v>0.681374</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.857009</v>
+        <v>0.849245</v>
       </c>
       <c r="C112" t="n">
-        <v>0.594122</v>
+        <v>0.70745</v>
       </c>
       <c r="D112" t="n">
-        <v>0.703765</v>
+        <v>0.705602</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.871978</v>
+        <v>0.872417</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6052</v>
+        <v>0.732804</v>
       </c>
       <c r="D113" t="n">
-        <v>0.71661</v>
+        <v>0.717992</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.887876</v>
+        <v>0.887532</v>
       </c>
       <c r="C114" t="n">
-        <v>0.616858</v>
+        <v>0.746492</v>
       </c>
       <c r="D114" t="n">
-        <v>0.730389</v>
+        <v>0.73099</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.905238</v>
+        <v>0.905007</v>
       </c>
       <c r="C115" t="n">
-        <v>0.628657</v>
+        <v>0.760346</v>
       </c>
       <c r="D115" t="n">
-        <v>0.746066</v>
+        <v>0.729274</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.923724</v>
+        <v>0.915785</v>
       </c>
       <c r="C116" t="n">
-        <v>0.643218</v>
+        <v>0.7614610000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.756879</v>
+        <v>0.758558</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.942032</v>
+        <v>0.938252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.656016</v>
+        <v>0.776146</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7709510000000001</v>
+        <v>0.773837</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.961348</v>
+        <v>0.959968</v>
       </c>
       <c r="C118" t="n">
-        <v>0.66894</v>
+        <v>0.790983</v>
       </c>
       <c r="D118" t="n">
-        <v>0.784586</v>
+        <v>0.787706</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.853362</v>
+        <v>0.854145</v>
       </c>
       <c r="C119" t="n">
-        <v>0.682899</v>
+        <v>0.808076</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8046990000000001</v>
+        <v>0.791895</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248651</v>
+        <v>0.249468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161874</v>
+        <v>0.175458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154334</v>
+        <v>0.154267</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218667</v>
+        <v>0.219486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.166825</v>
+        <v>0.181175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15341</v>
+        <v>0.153016</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223163</v>
+        <v>0.224248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171415</v>
+        <v>0.185094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158817</v>
+        <v>0.158134</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228895</v>
+        <v>0.229477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.175781</v>
+        <v>0.189866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161926</v>
+        <v>0.161253</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229788</v>
+        <v>0.230238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182552</v>
+        <v>0.19593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166382</v>
+        <v>0.165266</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234437</v>
+        <v>0.234461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164846</v>
+        <v>0.179417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160777</v>
+        <v>0.161539</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236869</v>
+        <v>0.238776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172897</v>
+        <v>0.189366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.165927</v>
+        <v>0.165536</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237775</v>
+        <v>0.238126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176827</v>
+        <v>0.186868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168923</v>
+        <v>0.166328</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24225</v>
+        <v>0.240575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178242</v>
+        <v>0.19054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.170018</v>
+        <v>0.167091</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242269</v>
+        <v>0.240232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.178038</v>
+        <v>0.191332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168399</v>
+        <v>0.168268</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.255751</v>
+        <v>0.256031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188234</v>
+        <v>0.20533</v>
       </c>
       <c r="D12" t="n">
-        <v>0.177761</v>
+        <v>0.173662</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256763</v>
+        <v>0.257179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.186103</v>
+        <v>0.201676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174086</v>
+        <v>0.176425</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258167</v>
+        <v>0.258788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192519</v>
+        <v>0.205456</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175577</v>
+        <v>0.175326</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265706</v>
+        <v>0.2688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19369</v>
+        <v>0.210447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179784</v>
+        <v>0.178796</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271104</v>
+        <v>0.273645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.197926</v>
+        <v>0.21442</v>
       </c>
       <c r="D16" t="n">
-        <v>0.182574</v>
+        <v>0.180822</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276553</v>
+        <v>0.279249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201937</v>
+        <v>0.220473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183261</v>
+        <v>0.184918</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256079</v>
+        <v>0.260032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210765</v>
+        <v>0.226681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184664</v>
+        <v>0.1847</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259427</v>
+        <v>0.26314</v>
       </c>
       <c r="C19" t="n">
-        <v>0.212905</v>
+        <v>0.229961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191985</v>
+        <v>0.189854</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26081</v>
+        <v>0.266185</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221559</v>
+        <v>0.238029</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192268</v>
+        <v>0.193749</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.270638</v>
+        <v>0.274785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203669</v>
+        <v>0.217121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.191196</v>
+        <v>0.193785</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.272178</v>
+        <v>0.276087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208582</v>
+        <v>0.227212</v>
       </c>
       <c r="D22" t="n">
-        <v>0.193598</v>
+        <v>0.194819</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277432</v>
+        <v>0.278609</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212245</v>
+        <v>0.229866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196184</v>
+        <v>0.197486</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280923</v>
+        <v>0.283225</v>
       </c>
       <c r="C24" t="n">
-        <v>0.218008</v>
+        <v>0.239575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201304</v>
+        <v>0.201622</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284138</v>
+        <v>0.286097</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22912</v>
+        <v>0.240775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204561</v>
+        <v>0.206272</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293703</v>
+        <v>0.295934</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224546</v>
+        <v>0.242393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207477</v>
+        <v>0.209014</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294852</v>
+        <v>0.297055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.237956</v>
+        <v>0.255083</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210575</v>
+        <v>0.210385</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.298004</v>
+        <v>0.300824</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240184</v>
+        <v>0.257899</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212513</v>
+        <v>0.213337</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306354</v>
+        <v>0.309563</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244635</v>
+        <v>0.263073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215928</v>
+        <v>0.215688</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.311213</v>
+        <v>0.313515</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255159</v>
+        <v>0.273979</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220164</v>
+        <v>0.220148</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314834</v>
+        <v>0.317015</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253062</v>
+        <v>0.271005</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222418</v>
+        <v>0.221951</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281448</v>
+        <v>0.284558</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262817</v>
+        <v>0.280526</v>
       </c>
       <c r="D32" t="n">
-        <v>0.226012</v>
+        <v>0.226719</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286612</v>
+        <v>0.289853</v>
       </c>
       <c r="C33" t="n">
-        <v>0.271387</v>
+        <v>0.290279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22874</v>
+        <v>0.229305</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.29173</v>
+        <v>0.294148</v>
       </c>
       <c r="C34" t="n">
-        <v>0.274239</v>
+        <v>0.293302</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232925</v>
+        <v>0.233465</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292559</v>
+        <v>0.295069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215642</v>
+        <v>0.23414</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210927</v>
+        <v>0.210769</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.298101</v>
+        <v>0.299665</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222604</v>
+        <v>0.241063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212043</v>
+        <v>0.212387</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304294</v>
+        <v>0.306765</v>
       </c>
       <c r="C37" t="n">
-        <v>0.22567</v>
+        <v>0.244632</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21511</v>
+        <v>0.214951</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.307012</v>
+        <v>0.309219</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230241</v>
+        <v>0.248625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216806</v>
+        <v>0.217044</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.314034</v>
+        <v>0.31582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.23462</v>
+        <v>0.253118</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220567</v>
+        <v>0.220653</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.322549</v>
+        <v>0.323997</v>
       </c>
       <c r="C40" t="n">
-        <v>0.238349</v>
+        <v>0.256786</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222462</v>
+        <v>0.222166</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327926</v>
+        <v>0.329955</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241987</v>
+        <v>0.259784</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223645</v>
+        <v>0.223633</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332419</v>
+        <v>0.333753</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243144</v>
+        <v>0.261994</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22531</v>
+        <v>0.224833</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.338382</v>
+        <v>0.339532</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247711</v>
+        <v>0.266961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227939</v>
+        <v>0.227875</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.341052</v>
+        <v>0.34262</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252208</v>
+        <v>0.271376</v>
       </c>
       <c r="D44" t="n">
-        <v>0.230011</v>
+        <v>0.229238</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.349161</v>
+        <v>0.350905</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254828</v>
+        <v>0.274149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23196</v>
+        <v>0.232195</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.35003</v>
+        <v>0.351796</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254812</v>
+        <v>0.274793</v>
       </c>
       <c r="D46" t="n">
-        <v>0.233344</v>
+        <v>0.232811</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289687</v>
+        <v>0.290961</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260972</v>
+        <v>0.280413</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234513</v>
+        <v>0.234813</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294587</v>
+        <v>0.296072</v>
       </c>
       <c r="C48" t="n">
-        <v>0.266315</v>
+        <v>0.28567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237249</v>
+        <v>0.236841</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.298217</v>
+        <v>0.300024</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269883</v>
+        <v>0.289228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239771</v>
+        <v>0.239977</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301844</v>
+        <v>0.302981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240273</v>
+        <v>0.25965</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224448</v>
+        <v>0.224776</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.305087</v>
+        <v>0.306608</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242635</v>
+        <v>0.262533</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226668</v>
+        <v>0.227423</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307146</v>
+        <v>0.308767</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245253</v>
+        <v>0.26548</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227256</v>
+        <v>0.228614</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312838</v>
+        <v>0.314509</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25008</v>
+        <v>0.26922</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229663</v>
+        <v>0.230375</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320683</v>
+        <v>0.320637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.252755</v>
+        <v>0.272502</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232527</v>
+        <v>0.233127</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320662</v>
+        <v>0.321943</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260203</v>
+        <v>0.279812</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233812</v>
+        <v>0.234115</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325709</v>
+        <v>0.327318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259034</v>
+        <v>0.279527</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235314</v>
+        <v>0.236355</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.334186</v>
+        <v>0.335046</v>
       </c>
       <c r="C57" t="n">
-        <v>0.26672</v>
+        <v>0.286683</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237634</v>
+        <v>0.238155</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.335091</v>
+        <v>0.336563</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273838</v>
+        <v>0.294221</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241074</v>
+        <v>0.241838</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342529</v>
+        <v>0.344091</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280384</v>
+        <v>0.300679</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244894</v>
+        <v>0.245459</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.348066</v>
+        <v>0.348985</v>
       </c>
       <c r="C60" t="n">
-        <v>0.284668</v>
+        <v>0.304804</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247267</v>
+        <v>0.247859</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.304225</v>
+        <v>0.304242</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289143</v>
+        <v>0.311218</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248656</v>
+        <v>0.249905</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.311471</v>
+        <v>0.313163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2956</v>
+        <v>0.316099</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251902</v>
+        <v>0.25184</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.310517</v>
+        <v>0.310493</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298317</v>
+        <v>0.319437</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253526</v>
+        <v>0.254007</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324616</v>
+        <v>0.327929</v>
       </c>
       <c r="C64" t="n">
-        <v>0.264757</v>
+        <v>0.285809</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243464</v>
+        <v>0.238335</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.328721</v>
+        <v>0.329499</v>
       </c>
       <c r="C65" t="n">
-        <v>0.266686</v>
+        <v>0.289739</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241107</v>
+        <v>0.243069</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.336119</v>
+        <v>0.337516</v>
       </c>
       <c r="C66" t="n">
-        <v>0.266638</v>
+        <v>0.292448</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243721</v>
+        <v>0.243921</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.344479</v>
+        <v>0.340852</v>
       </c>
       <c r="C67" t="n">
-        <v>0.278607</v>
+        <v>0.29501</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246856</v>
+        <v>0.244658</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350069</v>
+        <v>0.350583</v>
       </c>
       <c r="C68" t="n">
-        <v>0.282549</v>
+        <v>0.292029</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248297</v>
+        <v>0.248071</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358016</v>
+        <v>0.357709</v>
       </c>
       <c r="C69" t="n">
-        <v>0.284895</v>
+        <v>0.304306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250721</v>
+        <v>0.251047</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362324</v>
+        <v>0.365606</v>
       </c>
       <c r="C70" t="n">
-        <v>0.292296</v>
+        <v>0.31333</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254656</v>
+        <v>0.254688</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.371934</v>
+        <v>0.374383</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298649</v>
+        <v>0.321009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257909</v>
+        <v>0.258394</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.378856</v>
+        <v>0.384137</v>
       </c>
       <c r="C72" t="n">
-        <v>0.306025</v>
+        <v>0.328296</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261346</v>
+        <v>0.262553</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.392798</v>
+        <v>0.40061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314479</v>
+        <v>0.336934</v>
       </c>
       <c r="D73" t="n">
-        <v>0.265992</v>
+        <v>0.267321</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.402818</v>
+        <v>0.407834</v>
       </c>
       <c r="C74" t="n">
-        <v>0.319838</v>
+        <v>0.343392</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266925</v>
+        <v>0.268107</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.418145</v>
+        <v>0.427991</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326632</v>
+        <v>0.350508</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273255</v>
+        <v>0.272736</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.420506</v>
+        <v>0.43966</v>
       </c>
       <c r="C76" t="n">
-        <v>0.334038</v>
+        <v>0.367693</v>
       </c>
       <c r="D76" t="n">
-        <v>0.276902</v>
+        <v>0.272552</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.437493</v>
+        <v>0.449981</v>
       </c>
       <c r="C77" t="n">
-        <v>0.350049</v>
+        <v>0.379341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281953</v>
+        <v>0.28654</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.464098</v>
+        <v>0.472649</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310738</v>
+        <v>0.338917</v>
       </c>
       <c r="D78" t="n">
-        <v>0.277118</v>
+        <v>0.253485</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.481646</v>
+        <v>0.473532</v>
       </c>
       <c r="C79" t="n">
-        <v>0.328354</v>
+        <v>0.353591</v>
       </c>
       <c r="D79" t="n">
-        <v>0.277824</v>
+        <v>0.280258</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.506128</v>
+        <v>0.522454</v>
       </c>
       <c r="C80" t="n">
-        <v>0.34051</v>
+        <v>0.36541</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288434</v>
+        <v>0.285228</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5373289999999999</v>
+        <v>0.539179</v>
       </c>
       <c r="C81" t="n">
-        <v>0.349543</v>
+        <v>0.380076</v>
       </c>
       <c r="D81" t="n">
-        <v>0.29482</v>
+        <v>0.296047</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.564645</v>
+        <v>0.5677990000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.366657</v>
+        <v>0.402775</v>
       </c>
       <c r="D82" t="n">
-        <v>0.306309</v>
+        <v>0.303541</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.605742</v>
+        <v>0.618025</v>
       </c>
       <c r="C83" t="n">
-        <v>0.391316</v>
+        <v>0.405605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.297036</v>
+        <v>0.314288</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.631205</v>
+        <v>0.654545</v>
       </c>
       <c r="C84" t="n">
-        <v>0.401406</v>
+        <v>0.446997</v>
       </c>
       <c r="D84" t="n">
-        <v>0.303372</v>
+        <v>0.322508</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.674723</v>
+        <v>0.679335</v>
       </c>
       <c r="C85" t="n">
-        <v>0.435231</v>
+        <v>0.45914</v>
       </c>
       <c r="D85" t="n">
-        <v>0.324935</v>
+        <v>0.324976</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.710049</v>
+        <v>0.7363229999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.452586</v>
+        <v>0.48782</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325277</v>
+        <v>0.34387</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.750866</v>
+        <v>0.77239</v>
       </c>
       <c r="C87" t="n">
-        <v>0.479328</v>
+        <v>0.515159</v>
       </c>
       <c r="D87" t="n">
-        <v>0.348741</v>
+        <v>0.357288</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.798702</v>
+        <v>0.816651</v>
       </c>
       <c r="C88" t="n">
-        <v>0.503001</v>
+        <v>0.541029</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361645</v>
+        <v>0.373277</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.853625</v>
+        <v>0.86796</v>
       </c>
       <c r="C89" t="n">
-        <v>0.535721</v>
+        <v>0.572775</v>
       </c>
       <c r="D89" t="n">
-        <v>0.380749</v>
+        <v>0.388272</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.850352</v>
+        <v>0.851061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.544499</v>
+        <v>0.599176</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3916</v>
+        <v>0.404258</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.877534</v>
+        <v>0.900659</v>
       </c>
       <c r="C91" t="n">
-        <v>0.598417</v>
+        <v>0.631126</v>
       </c>
       <c r="D91" t="n">
-        <v>0.423962</v>
+        <v>0.418506</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.930401</v>
+        <v>0.933558</v>
       </c>
       <c r="C92" t="n">
-        <v>0.605684</v>
+        <v>0.633837</v>
       </c>
       <c r="D92" t="n">
-        <v>0.484794</v>
+        <v>0.49982</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9599490000000001</v>
+        <v>0.958336</v>
       </c>
       <c r="C93" t="n">
-        <v>0.632205</v>
+        <v>0.661628</v>
       </c>
       <c r="D93" t="n">
-        <v>0.514991</v>
+        <v>0.514636</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9953149999999999</v>
+        <v>0.996606</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6578040000000001</v>
+        <v>0.685765</v>
       </c>
       <c r="D94" t="n">
-        <v>0.531164</v>
+        <v>0.534561</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02965</v>
+        <v>1.03068</v>
       </c>
       <c r="C95" t="n">
-        <v>0.68693</v>
+        <v>0.714696</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55269</v>
+        <v>0.551324</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0511</v>
+        <v>1.07008</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712734</v>
+        <v>0.743601</v>
       </c>
       <c r="D96" t="n">
-        <v>0.55371</v>
+        <v>0.576308</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10044</v>
+        <v>1.10035</v>
       </c>
       <c r="C97" t="n">
-        <v>0.744345</v>
+        <v>0.758232</v>
       </c>
       <c r="D97" t="n">
-        <v>0.595124</v>
+        <v>0.58075</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.13288</v>
+        <v>1.12866</v>
       </c>
       <c r="C98" t="n">
-        <v>0.771096</v>
+        <v>0.787391</v>
       </c>
       <c r="D98" t="n">
-        <v>0.614219</v>
+        <v>0.616739</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16971</v>
+        <v>1.17616</v>
       </c>
       <c r="C99" t="n">
-        <v>0.804069</v>
+        <v>0.83547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633354</v>
+        <v>0.636404</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20626</v>
+        <v>1.21354</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8328140000000001</v>
+        <v>0.863996</v>
       </c>
       <c r="D100" t="n">
-        <v>0.652351</v>
+        <v>0.654585</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24142</v>
+        <v>1.24879</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8595660000000001</v>
+        <v>0.889927</v>
       </c>
       <c r="D101" t="n">
-        <v>0.670755</v>
+        <v>0.659733</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.27916</v>
+        <v>1.27475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.893902</v>
+        <v>0.913046</v>
       </c>
       <c r="D102" t="n">
-        <v>0.695231</v>
+        <v>0.691844</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31498</v>
+        <v>1.31119</v>
       </c>
       <c r="C103" t="n">
-        <v>0.920566</v>
+        <v>0.941396</v>
       </c>
       <c r="D103" t="n">
-        <v>0.713653</v>
+        <v>0.69734</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.35303</v>
+        <v>1.34681</v>
       </c>
       <c r="C104" t="n">
-        <v>0.950263</v>
+        <v>0.970994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732483</v>
+        <v>0.719215</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23696</v>
+        <v>1.23611</v>
       </c>
       <c r="C105" t="n">
-        <v>0.98319</v>
+        <v>1.0127</v>
       </c>
       <c r="D105" t="n">
-        <v>0.748053</v>
+        <v>0.748009</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26829</v>
+        <v>1.26472</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01295</v>
+        <v>1.05176</v>
       </c>
       <c r="D106" t="n">
-        <v>0.768</v>
+        <v>0.7783870000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28859</v>
+        <v>1.29866</v>
       </c>
       <c r="C107" t="n">
-        <v>0.907542</v>
+        <v>0.939421</v>
       </c>
       <c r="D107" t="n">
-        <v>0.783452</v>
+        <v>0.786502</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29589</v>
+        <v>1.31756</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9201510000000001</v>
+        <v>0.958891</v>
       </c>
       <c r="D108" t="n">
-        <v>0.786653</v>
+        <v>0.798439</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.32064</v>
+        <v>1.34544</v>
       </c>
       <c r="C109" t="n">
-        <v>0.951442</v>
+        <v>0.98392</v>
       </c>
       <c r="D109" t="n">
-        <v>0.803828</v>
+        <v>0.816822</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35607</v>
+        <v>1.35944</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9728869999999999</v>
+        <v>1.00371</v>
       </c>
       <c r="D110" t="n">
-        <v>0.827184</v>
+        <v>0.829782</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38084</v>
+        <v>1.39566</v>
       </c>
       <c r="C111" t="n">
-        <v>0.991101</v>
+        <v>1.02339</v>
       </c>
       <c r="D111" t="n">
-        <v>0.845074</v>
+        <v>0.846174</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.4087</v>
+        <v>1.41993</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01948</v>
+        <v>1.05253</v>
       </c>
       <c r="D112" t="n">
-        <v>0.848736</v>
+        <v>0.8620949999999999</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43243</v>
+        <v>1.44634</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03284</v>
+        <v>1.07619</v>
       </c>
       <c r="D113" t="n">
-        <v>0.87645</v>
+        <v>0.877713</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46656</v>
+        <v>1.47747</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0671</v>
+        <v>1.10069</v>
       </c>
       <c r="D114" t="n">
-        <v>0.882141</v>
+        <v>0.891672</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49474</v>
+        <v>1.50518</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09274</v>
+        <v>1.12935</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9021130000000001</v>
+        <v>0.905532</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.5238</v>
+        <v>1.53901</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11909</v>
+        <v>1.15709</v>
       </c>
       <c r="D116" t="n">
-        <v>0.91671</v>
+        <v>0.922302</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.55882</v>
+        <v>1.57199</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14425</v>
+        <v>1.18272</v>
       </c>
       <c r="D117" t="n">
-        <v>0.927745</v>
+        <v>0.937037</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.58897</v>
+        <v>1.60302</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17854</v>
+        <v>1.21861</v>
       </c>
       <c r="D118" t="n">
-        <v>0.944032</v>
+        <v>0.953879</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42016</v>
+        <v>1.42702</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20668</v>
+        <v>1.24742</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961974</v>
+        <v>0.964915</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.389734</v>
+        <v>0.392903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286016</v>
+        <v>0.30287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218405</v>
+        <v>0.21728</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.400781</v>
+        <v>0.403206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289976</v>
+        <v>0.30307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219363</v>
+        <v>0.21893</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412327</v>
+        <v>0.414385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304141</v>
+        <v>0.320666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227863</v>
+        <v>0.231039</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.418214</v>
+        <v>0.420736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311315</v>
+        <v>0.32872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234893</v>
+        <v>0.236223</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.434682</v>
+        <v>0.437324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.314394</v>
+        <v>0.331307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238298</v>
+        <v>0.238273</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.448954</v>
+        <v>0.447999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.335185</v>
+        <v>0.34983</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246133</v>
+        <v>0.24639</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.462697</v>
+        <v>0.461318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.350045</v>
+        <v>0.364654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.255626</v>
+        <v>0.257501</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.480857</v>
+        <v>0.480052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.366975</v>
+        <v>0.38068</v>
       </c>
       <c r="D9" t="n">
-        <v>0.264154</v>
+        <v>0.266593</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.494982</v>
+        <v>0.498187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.383625</v>
+        <v>0.397838</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274172</v>
+        <v>0.275365</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516007</v>
+        <v>0.5166809999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.293048</v>
+        <v>0.31152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219652</v>
+        <v>0.220096</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.384733</v>
+        <v>0.390906</v>
       </c>
       <c r="C12" t="n">
-        <v>0.297107</v>
+        <v>0.317033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222932</v>
+        <v>0.222624</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398831</v>
+        <v>0.399105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.306866</v>
+        <v>0.329009</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23209</v>
+        <v>0.232494</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.402619</v>
+        <v>0.405671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.31243</v>
+        <v>0.342226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231717</v>
+        <v>0.232163</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.420383</v>
+        <v>0.432652</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334213</v>
+        <v>0.360191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23821</v>
+        <v>0.242056</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436491</v>
+        <v>0.445087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.347923</v>
+        <v>0.379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24524</v>
+        <v>0.249949</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.44441</v>
+        <v>0.457561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.362106</v>
+        <v>0.390453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251992</v>
+        <v>0.256354</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.469711</v>
+        <v>0.479741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.368539</v>
+        <v>0.400459</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252289</v>
+        <v>0.256001</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.478985</v>
+        <v>0.490239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.391888</v>
+        <v>0.420664</v>
       </c>
       <c r="D19" t="n">
-        <v>0.262359</v>
+        <v>0.265611</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.499647</v>
+        <v>0.506905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.411249</v>
+        <v>0.440356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.273282</v>
+        <v>0.277923</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.515724</v>
+        <v>0.522447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.431168</v>
+        <v>0.458967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.284943</v>
+        <v>0.287322</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.538666</v>
+        <v>0.545064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.458876</v>
+        <v>0.485011</v>
       </c>
       <c r="D22" t="n">
-        <v>0.292936</v>
+        <v>0.294868</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5546410000000001</v>
+        <v>0.561881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.476861</v>
+        <v>0.506042</v>
       </c>
       <c r="D23" t="n">
-        <v>0.304251</v>
+        <v>0.309477</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.587959</v>
+        <v>0.599143</v>
       </c>
       <c r="C24" t="n">
-        <v>0.488833</v>
+        <v>0.520187</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316648</v>
+        <v>0.319608</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.625565</v>
+        <v>0.633578</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5204220000000001</v>
+        <v>0.55015</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323511</v>
+        <v>0.330259</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.653592</v>
+        <v>0.661267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.334132</v>
+        <v>0.35529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.236215</v>
+        <v>0.241261</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.432726</v>
+        <v>0.437923</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33784</v>
+        <v>0.359962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239164</v>
+        <v>0.246713</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.448441</v>
+        <v>0.453069</v>
       </c>
       <c r="C28" t="n">
-        <v>0.352516</v>
+        <v>0.374584</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247308</v>
+        <v>0.251214</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.464052</v>
+        <v>0.468106</v>
       </c>
       <c r="C29" t="n">
-        <v>0.359098</v>
+        <v>0.380348</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2518</v>
+        <v>0.256331</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.480796</v>
+        <v>0.484643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.379611</v>
+        <v>0.401327</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25952</v>
+        <v>0.260386</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497484</v>
+        <v>0.501902</v>
       </c>
       <c r="C31" t="n">
-        <v>0.393493</v>
+        <v>0.415496</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26714</v>
+        <v>0.269628</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.512832</v>
+        <v>0.518101</v>
       </c>
       <c r="C32" t="n">
-        <v>0.409304</v>
+        <v>0.431851</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272812</v>
+        <v>0.275883</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.54084</v>
+        <v>0.546973</v>
       </c>
       <c r="C33" t="n">
-        <v>0.427303</v>
+        <v>0.451466</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284284</v>
+        <v>0.287234</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5545600000000001</v>
+        <v>0.561489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.445088</v>
+        <v>0.468907</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29088</v>
+        <v>0.295307</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.579282</v>
+        <v>0.585024</v>
       </c>
       <c r="C35" t="n">
-        <v>0.464343</v>
+        <v>0.489934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.300742</v>
+        <v>0.304706</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.598541</v>
+        <v>0.603689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.483557</v>
+        <v>0.513818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313169</v>
+        <v>0.316647</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.61355</v>
+        <v>0.618104</v>
       </c>
       <c r="C37" t="n">
-        <v>0.512062</v>
+        <v>0.53814</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322239</v>
+        <v>0.325213</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.636953</v>
+        <v>0.643558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527842</v>
+        <v>0.556837</v>
       </c>
       <c r="D38" t="n">
-        <v>0.333414</v>
+        <v>0.336021</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669624</v>
+        <v>0.678003</v>
       </c>
       <c r="C39" t="n">
-        <v>0.557542</v>
+        <v>0.588356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.345819</v>
+        <v>0.347293</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.693097</v>
+        <v>0.699</v>
       </c>
       <c r="C40" t="n">
-        <v>0.388744</v>
+        <v>0.414503</v>
       </c>
       <c r="D40" t="n">
-        <v>0.278809</v>
+        <v>0.28182</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.50299</v>
+        <v>0.506466</v>
       </c>
       <c r="C41" t="n">
-        <v>0.403771</v>
+        <v>0.424787</v>
       </c>
       <c r="D41" t="n">
-        <v>0.286398</v>
+        <v>0.287062</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5147699999999999</v>
+        <v>0.518593</v>
       </c>
       <c r="C42" t="n">
-        <v>0.419628</v>
+        <v>0.442159</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293587</v>
+        <v>0.294268</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.52835</v>
+        <v>0.531648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.431692</v>
+        <v>0.455116</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299493</v>
+        <v>0.301612</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542831</v>
+        <v>0.547706</v>
       </c>
       <c r="C44" t="n">
-        <v>0.453342</v>
+        <v>0.476758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.308732</v>
+        <v>0.310632</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.56148</v>
+        <v>0.565667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.465033</v>
+        <v>0.489076</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315595</v>
+        <v>0.318631</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5737640000000001</v>
+        <v>0.576928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.481041</v>
+        <v>0.503018</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322241</v>
+        <v>0.324783</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5958560000000001</v>
+        <v>0.599656</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500889</v>
+        <v>0.525506</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331179</v>
+        <v>0.333433</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612264</v>
+        <v>0.616455</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5134570000000001</v>
+        <v>0.539558</v>
       </c>
       <c r="D48" t="n">
-        <v>0.340177</v>
+        <v>0.342523</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.624312</v>
+        <v>0.628681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.534098</v>
+        <v>0.560765</v>
       </c>
       <c r="D49" t="n">
-        <v>0.347936</v>
+        <v>0.349194</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.653101</v>
+        <v>0.6581320000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.551058</v>
+        <v>0.5767370000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357058</v>
+        <v>0.359014</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.677854</v>
+        <v>0.681029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.576246</v>
+        <v>0.604093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370074</v>
+        <v>0.37099</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.702292</v>
+        <v>0.707816</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5980799999999999</v>
+        <v>0.621765</v>
       </c>
       <c r="D52" t="n">
-        <v>0.379646</v>
+        <v>0.381948</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.72673</v>
+        <v>0.732108</v>
       </c>
       <c r="C53" t="n">
-        <v>0.620688</v>
+        <v>0.650234</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39246</v>
+        <v>0.394011</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753113</v>
+        <v>0.756758</v>
       </c>
       <c r="C54" t="n">
-        <v>0.441093</v>
+        <v>0.459221</v>
       </c>
       <c r="D54" t="n">
-        <v>0.311441</v>
+        <v>0.310498</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.78143</v>
+        <v>0.787985</v>
       </c>
       <c r="C55" t="n">
-        <v>0.450879</v>
+        <v>0.471498</v>
       </c>
       <c r="D55" t="n">
-        <v>0.317748</v>
+        <v>0.316546</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.537154</v>
+        <v>0.537264</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4659</v>
+        <v>0.485302</v>
       </c>
       <c r="D56" t="n">
-        <v>0.324331</v>
+        <v>0.321808</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.551104</v>
+        <v>0.551826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.479343</v>
+        <v>0.498814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331105</v>
+        <v>0.331405</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.566051</v>
+        <v>0.566127</v>
       </c>
       <c r="C58" t="n">
-        <v>0.491902</v>
+        <v>0.514008</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33608</v>
+        <v>0.335089</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5806519999999999</v>
+        <v>0.583014</v>
       </c>
       <c r="C59" t="n">
-        <v>0.505543</v>
+        <v>0.528185</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345677</v>
+        <v>0.345236</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.589068</v>
+        <v>0.589567</v>
       </c>
       <c r="C60" t="n">
-        <v>0.521693</v>
+        <v>0.54611</v>
       </c>
       <c r="D60" t="n">
-        <v>0.350217</v>
+        <v>0.349274</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608672</v>
+        <v>0.610195</v>
       </c>
       <c r="C61" t="n">
-        <v>0.537877</v>
+        <v>0.557931</v>
       </c>
       <c r="D61" t="n">
-        <v>0.357617</v>
+        <v>0.360171</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.629826</v>
+        <v>0.632668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5531</v>
+        <v>0.578251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.365349</v>
+        <v>0.366387</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.647475</v>
+        <v>0.649546</v>
       </c>
       <c r="C63" t="n">
-        <v>0.57304</v>
+        <v>0.598985</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375139</v>
+        <v>0.376962</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.667903</v>
+        <v>0.6795639999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.589539</v>
+        <v>0.619502</v>
       </c>
       <c r="D64" t="n">
-        <v>0.384847</v>
+        <v>0.389343</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6965789999999999</v>
+        <v>0.709021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.615193</v>
+        <v>0.649944</v>
       </c>
       <c r="D65" t="n">
-        <v>0.394215</v>
+        <v>0.399804</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719794</v>
+        <v>0.730457</v>
       </c>
       <c r="C66" t="n">
-        <v>0.629423</v>
+        <v>0.665527</v>
       </c>
       <c r="D66" t="n">
-        <v>0.403931</v>
+        <v>0.407535</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7507779999999999</v>
+        <v>0.762082</v>
       </c>
       <c r="C67" t="n">
-        <v>0.656265</v>
+        <v>0.693437</v>
       </c>
       <c r="D67" t="n">
-        <v>0.416252</v>
+        <v>0.421066</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.772904</v>
+        <v>0.7814219999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.435538</v>
+        <v>0.45671</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313514</v>
+        <v>0.312621</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.819008</v>
+        <v>0.816114</v>
       </c>
       <c r="C69" t="n">
-        <v>0.452954</v>
+        <v>0.47625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.319815</v>
+        <v>0.317997</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.559817</v>
+        <v>0.555661</v>
       </c>
       <c r="C70" t="n">
-        <v>0.472957</v>
+        <v>0.490928</v>
       </c>
       <c r="D70" t="n">
-        <v>0.328982</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.58048</v>
+        <v>0.572589</v>
       </c>
       <c r="C71" t="n">
-        <v>0.493499</v>
+        <v>0.513592</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336921</v>
+        <v>0.335492</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.609004</v>
+        <v>0.60403</v>
       </c>
       <c r="C72" t="n">
-        <v>0.513464</v>
+        <v>0.534678</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345261</v>
+        <v>0.344517</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.636056</v>
+        <v>0.631644</v>
       </c>
       <c r="C73" t="n">
-        <v>0.54114</v>
+        <v>0.56021</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355514</v>
+        <v>0.354869</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.65949</v>
+        <v>0.6561090000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5596</v>
+        <v>0.582179</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364316</v>
+        <v>0.364536</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6891929999999999</v>
+        <v>0.692798</v>
       </c>
       <c r="C75" t="n">
-        <v>0.588778</v>
+        <v>0.615184</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374618</v>
+        <v>0.372311</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.726179</v>
+        <v>0.725005</v>
       </c>
       <c r="C76" t="n">
-        <v>0.620671</v>
+        <v>0.644255</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385325</v>
+        <v>0.385842</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.769667</v>
+        <v>0.761402</v>
       </c>
       <c r="C77" t="n">
-        <v>0.659844</v>
+        <v>0.680787</v>
       </c>
       <c r="D77" t="n">
-        <v>0.400177</v>
+        <v>0.399507</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.810015</v>
+        <v>0.80764</v>
       </c>
       <c r="C78" t="n">
-        <v>0.694545</v>
+        <v>0.7110880000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412733</v>
+        <v>0.408981</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.854594</v>
+        <v>0.8571800000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.733507</v>
+        <v>0.762327</v>
       </c>
       <c r="D79" t="n">
-        <v>0.424733</v>
+        <v>0.422974</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9149890000000001</v>
+        <v>0.910925</v>
       </c>
       <c r="C80" t="n">
-        <v>0.782915</v>
+        <v>0.808997</v>
       </c>
       <c r="D80" t="n">
-        <v>0.440363</v>
+        <v>0.440791</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.990513</v>
+        <v>0.973377</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8477710000000001</v>
+        <v>0.867872</v>
       </c>
       <c r="D81" t="n">
-        <v>0.457718</v>
+        <v>0.456932</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07158</v>
+        <v>1.05229</v>
       </c>
       <c r="C82" t="n">
-        <v>0.913208</v>
+        <v>0.934284</v>
       </c>
       <c r="D82" t="n">
-        <v>0.478497</v>
+        <v>0.476363</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1623</v>
+        <v>1.13263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.658077</v>
+        <v>0.6704329999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3847</v>
+        <v>0.382173</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.2615</v>
+        <v>1.23587</v>
       </c>
       <c r="C84" t="n">
-        <v>0.712724</v>
+        <v>0.720486</v>
       </c>
       <c r="D84" t="n">
-        <v>0.39385</v>
+        <v>0.392752</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.879408</v>
+        <v>0.864166</v>
       </c>
       <c r="C85" t="n">
-        <v>0.759817</v>
+        <v>0.770241</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410017</v>
+        <v>0.406462</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.944424</v>
+        <v>0.9311970000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.821229</v>
+        <v>0.836264</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431107</v>
+        <v>0.428273</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01255</v>
+        <v>1.00155</v>
       </c>
       <c r="C87" t="n">
-        <v>0.891821</v>
+        <v>0.916952</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448744</v>
+        <v>0.450513</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10497</v>
+        <v>1.08633</v>
       </c>
       <c r="C88" t="n">
-        <v>0.985256</v>
+        <v>1.00188</v>
       </c>
       <c r="D88" t="n">
-        <v>0.47711</v>
+        <v>0.472159</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18788</v>
+        <v>1.17896</v>
       </c>
       <c r="C89" t="n">
-        <v>1.07266</v>
+        <v>1.10246</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506285</v>
+        <v>0.504256</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.28571</v>
+        <v>1.27837</v>
       </c>
       <c r="C90" t="n">
-        <v>1.16647</v>
+        <v>1.19685</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534334</v>
+        <v>0.529389</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39822</v>
+        <v>1.39063</v>
       </c>
       <c r="C91" t="n">
-        <v>1.27778</v>
+        <v>1.30784</v>
       </c>
       <c r="D91" t="n">
-        <v>0.567497</v>
+        <v>0.573373</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52002</v>
+        <v>1.51445</v>
       </c>
       <c r="C92" t="n">
-        <v>1.38504</v>
+        <v>1.41532</v>
       </c>
       <c r="D92" t="n">
-        <v>0.602909</v>
+        <v>0.610981</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64735</v>
+        <v>1.64152</v>
       </c>
       <c r="C93" t="n">
-        <v>1.51428</v>
+        <v>1.55936</v>
       </c>
       <c r="D93" t="n">
-        <v>0.644887</v>
+        <v>0.658484</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.77996</v>
+        <v>1.79229</v>
       </c>
       <c r="C94" t="n">
-        <v>1.63866</v>
+        <v>1.68135</v>
       </c>
       <c r="D94" t="n">
-        <v>0.693349</v>
+        <v>0.716338</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92176</v>
+        <v>1.92603</v>
       </c>
       <c r="C95" t="n">
-        <v>1.77283</v>
+        <v>1.82854</v>
       </c>
       <c r="D95" t="n">
-        <v>0.754493</v>
+        <v>0.76773</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.07342</v>
+        <v>2.09855</v>
       </c>
       <c r="C96" t="n">
-        <v>1.94368</v>
+        <v>2.01428</v>
       </c>
       <c r="D96" t="n">
-        <v>0.80522</v>
+        <v>0.843751</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25075</v>
+        <v>2.2576</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20447</v>
+        <v>1.25819</v>
       </c>
       <c r="D97" t="n">
-        <v>0.615341</v>
+        <v>0.632136</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.40469</v>
+        <v>2.42335</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29324</v>
+        <v>1.33917</v>
       </c>
       <c r="D98" t="n">
-        <v>0.648061</v>
+        <v>0.670605</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.66681</v>
+        <v>1.68515</v>
       </c>
       <c r="C99" t="n">
-        <v>1.36057</v>
+        <v>1.41865</v>
       </c>
       <c r="D99" t="n">
-        <v>0.700307</v>
+        <v>0.69962</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.75084</v>
+        <v>1.7776</v>
       </c>
       <c r="C100" t="n">
-        <v>1.45144</v>
+        <v>1.52301</v>
       </c>
       <c r="D100" t="n">
-        <v>0.733069</v>
+        <v>0.7494189999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.84654</v>
+        <v>1.87247</v>
       </c>
       <c r="C101" t="n">
-        <v>1.55385</v>
+        <v>1.62054</v>
       </c>
       <c r="D101" t="n">
-        <v>0.770475</v>
+        <v>0.798963</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.95199</v>
+        <v>1.97481</v>
       </c>
       <c r="C102" t="n">
-        <v>1.64781</v>
+        <v>1.71943</v>
       </c>
       <c r="D102" t="n">
-        <v>0.815362</v>
+        <v>0.8385899999999999</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05059</v>
+        <v>2.07112</v>
       </c>
       <c r="C103" t="n">
-        <v>1.75057</v>
+        <v>1.8278</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854218</v>
+        <v>0.892097</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.16351</v>
+        <v>2.18681</v>
       </c>
       <c r="C104" t="n">
-        <v>1.86189</v>
+        <v>1.94451</v>
       </c>
       <c r="D104" t="n">
-        <v>0.907535</v>
+        <v>0.944669</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.26547</v>
+        <v>2.28594</v>
       </c>
       <c r="C105" t="n">
-        <v>1.97985</v>
+        <v>2.06949</v>
       </c>
       <c r="D105" t="n">
-        <v>0.960359</v>
+        <v>0.987167</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.39711</v>
+        <v>2.41609</v>
       </c>
       <c r="C106" t="n">
-        <v>2.09496</v>
+        <v>2.185</v>
       </c>
       <c r="D106" t="n">
-        <v>1.00553</v>
+        <v>1.04455</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.5145</v>
+        <v>2.53534</v>
       </c>
       <c r="C107" t="n">
-        <v>2.21744</v>
+        <v>2.31296</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05675</v>
+        <v>1.10188</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65213</v>
+        <v>2.67266</v>
       </c>
       <c r="C108" t="n">
-        <v>2.36031</v>
+        <v>2.46536</v>
       </c>
       <c r="D108" t="n">
-        <v>1.12121</v>
+        <v>1.15873</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79554</v>
+        <v>2.80867</v>
       </c>
       <c r="C109" t="n">
-        <v>2.51076</v>
+        <v>2.56487</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1805</v>
+        <v>1.19833</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.94608</v>
+        <v>2.94273</v>
       </c>
       <c r="C110" t="n">
-        <v>2.64716</v>
+        <v>2.76328</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23665</v>
+        <v>1.28529</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.10236</v>
+        <v>3.12854</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70077</v>
+        <v>1.74663</v>
       </c>
       <c r="D111" t="n">
-        <v>0.988316</v>
+        <v>1.00964</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.27631</v>
+        <v>3.30846</v>
       </c>
       <c r="C112" t="n">
-        <v>1.78951</v>
+        <v>1.83802</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02683</v>
+        <v>1.03737</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.43577</v>
+        <v>3.45509</v>
       </c>
       <c r="C113" t="n">
-        <v>1.87634</v>
+        <v>1.93232</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07041</v>
+        <v>1.07437</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.30686</v>
+        <v>2.31425</v>
       </c>
       <c r="C114" t="n">
-        <v>1.96249</v>
+        <v>2.03482</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09538</v>
+        <v>1.13444</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39907</v>
+        <v>2.38209</v>
       </c>
       <c r="C115" t="n">
-        <v>2.05992</v>
+        <v>2.12882</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16174</v>
+        <v>1.17611</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.48982</v>
+        <v>2.48069</v>
       </c>
       <c r="C116" t="n">
-        <v>2.15305</v>
+        <v>2.22697</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18879</v>
+        <v>1.21603</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59895</v>
+        <v>2.59488</v>
       </c>
       <c r="C117" t="n">
-        <v>2.265</v>
+        <v>2.34164</v>
       </c>
       <c r="D117" t="n">
-        <v>1.236</v>
+        <v>1.25532</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.70176</v>
+        <v>2.70533</v>
       </c>
       <c r="C118" t="n">
-        <v>2.37839</v>
+        <v>2.44706</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27949</v>
+        <v>1.30291</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80987</v>
+        <v>2.81723</v>
       </c>
       <c r="C119" t="n">
-        <v>2.48621</v>
+        <v>2.5716</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32663</v>
+        <v>1.34055</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249953</v>
+        <v>0.24317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18523</v>
+        <v>0.183876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198843</v>
+        <v>0.1924</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201453</v>
+        <v>0.196011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186422</v>
+        <v>0.18685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20112</v>
+        <v>0.19503</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206865</v>
+        <v>0.199736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191504</v>
+        <v>0.191993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207877</v>
+        <v>0.201481</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.213618</v>
+        <v>0.206302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197336</v>
+        <v>0.197912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213606</v>
+        <v>0.207085</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218846</v>
+        <v>0.214669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200902</v>
+        <v>0.203186</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218954</v>
+        <v>0.213426</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224224</v>
+        <v>0.216762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167978</v>
+        <v>0.167353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186511</v>
+        <v>0.180127</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229483</v>
+        <v>0.22111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.171722</v>
+        <v>0.170015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18979</v>
+        <v>0.183288</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23469</v>
+        <v>0.227911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174757</v>
+        <v>0.175291</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196279</v>
+        <v>0.187617</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239889</v>
+        <v>0.2341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177753</v>
+        <v>0.178591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2001</v>
+        <v>0.19244</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244537</v>
+        <v>0.238527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180839</v>
+        <v>0.182348</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202435</v>
+        <v>0.196818</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252245</v>
+        <v>0.247005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185748</v>
+        <v>0.186715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207767</v>
+        <v>0.20112</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25568</v>
+        <v>0.251016</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190316</v>
+        <v>0.191299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21128</v>
+        <v>0.205133</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261107</v>
+        <v>0.256199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194219</v>
+        <v>0.19524</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214392</v>
+        <v>0.209923</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267777</v>
+        <v>0.262958</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198917</v>
+        <v>0.201168</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220506</v>
+        <v>0.214389</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270938</v>
+        <v>0.267554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202584</v>
+        <v>0.205149</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223355</v>
+        <v>0.218194</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277777</v>
+        <v>0.274564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208269</v>
+        <v>0.210745</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229029</v>
+        <v>0.223913</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230854</v>
+        <v>0.229776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210632</v>
+        <v>0.213496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23276</v>
+        <v>0.227045</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235061</v>
+        <v>0.234158</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215062</v>
+        <v>0.21854</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236761</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239297</v>
+        <v>0.238261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218652</v>
+        <v>0.222768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242031</v>
+        <v>0.237006</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243883</v>
+        <v>0.242858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183794</v>
+        <v>0.186987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204984</v>
+        <v>0.202516</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248213</v>
+        <v>0.247449</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187237</v>
+        <v>0.190981</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209434</v>
+        <v>0.206884</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25246</v>
+        <v>0.251577</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190357</v>
+        <v>0.194112</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212795</v>
+        <v>0.210298</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257252</v>
+        <v>0.256122</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193678</v>
+        <v>0.197251</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216301</v>
+        <v>0.213483</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262761</v>
+        <v>0.261405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196825</v>
+        <v>0.200316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219933</v>
+        <v>0.216923</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26886</v>
+        <v>0.267883</v>
       </c>
       <c r="C26" t="n">
-        <v>0.200736</v>
+        <v>0.204709</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224055</v>
+        <v>0.221586</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273579</v>
+        <v>0.272013</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204249</v>
+        <v>0.207924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227863</v>
+        <v>0.225757</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278699</v>
+        <v>0.277362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209349</v>
+        <v>0.213809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232864</v>
+        <v>0.230735</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28341</v>
+        <v>0.282067</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213671</v>
+        <v>0.218502</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237499</v>
+        <v>0.23541</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289106</v>
+        <v>0.288489</v>
       </c>
       <c r="C30" t="n">
-        <v>0.217679</v>
+        <v>0.222686</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241682</v>
+        <v>0.239214</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2945</v>
+        <v>0.293689</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222326</v>
+        <v>0.22721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245902</v>
+        <v>0.243912</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242547</v>
+        <v>0.241883</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224744</v>
+        <v>0.230978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249265</v>
+        <v>0.247441</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245635</v>
+        <v>0.245139</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230813</v>
+        <v>0.236438</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254958</v>
+        <v>0.253134</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249307</v>
+        <v>0.248332</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233375</v>
+        <v>0.239681</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258687</v>
+        <v>0.256404</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253541</v>
+        <v>0.252112</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191849</v>
+        <v>0.195557</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211141</v>
+        <v>0.208269</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257151</v>
+        <v>0.256069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194292</v>
+        <v>0.198245</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214113</v>
+        <v>0.211329</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260672</v>
+        <v>0.259961</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197029</v>
+        <v>0.201014</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217138</v>
+        <v>0.214703</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265271</v>
+        <v>0.264235</v>
       </c>
       <c r="C38" t="n">
-        <v>0.200542</v>
+        <v>0.204297</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221205</v>
+        <v>0.218544</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269606</v>
+        <v>0.268386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.204022</v>
+        <v>0.208194</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225673</v>
+        <v>0.22265</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274844</v>
+        <v>0.273166</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207789</v>
+        <v>0.211963</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229636</v>
+        <v>0.226677</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279529</v>
+        <v>0.27861</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211629</v>
+        <v>0.215719</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23354</v>
+        <v>0.230582</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284579</v>
+        <v>0.283217</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215126</v>
+        <v>0.219479</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237352</v>
+        <v>0.234267</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289632</v>
+        <v>0.288317</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2196</v>
+        <v>0.224042</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241589</v>
+        <v>0.238476</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295177</v>
+        <v>0.293434</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224084</v>
+        <v>0.228891</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246295</v>
+        <v>0.243307</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300262</v>
+        <v>0.29869</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228164</v>
+        <v>0.233192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250358</v>
+        <v>0.247326</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304933</v>
+        <v>0.303223</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231843</v>
+        <v>0.2373</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254356</v>
+        <v>0.251363</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250557</v>
+        <v>0.250024</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236146</v>
+        <v>0.242263</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258729</v>
+        <v>0.25594</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25359</v>
+        <v>0.253117</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24</v>
+        <v>0.246208</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262748</v>
+        <v>0.259596</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257139</v>
+        <v>0.256507</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243668</v>
+        <v>0.250285</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266656</v>
+        <v>0.263749</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260981</v>
+        <v>0.260335</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198508</v>
+        <v>0.202587</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216396</v>
+        <v>0.214723</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264784</v>
+        <v>0.264011</v>
       </c>
       <c r="C51" t="n">
-        <v>0.201394</v>
+        <v>0.205336</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219952</v>
+        <v>0.218062</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269096</v>
+        <v>0.268615</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204126</v>
+        <v>0.208288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223444</v>
+        <v>0.221585</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273597</v>
+        <v>0.272833</v>
       </c>
       <c r="C53" t="n">
-        <v>0.20742</v>
+        <v>0.211811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226892</v>
+        <v>0.225538</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278671</v>
+        <v>0.277611</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210503</v>
+        <v>0.215094</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230491</v>
+        <v>0.228963</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.28357</v>
+        <v>0.282492</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214499</v>
+        <v>0.218878</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23453</v>
+        <v>0.232556</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288702</v>
+        <v>0.287812</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218634</v>
+        <v>0.223146</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238452</v>
+        <v>0.236976</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293935</v>
+        <v>0.293104</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222786</v>
+        <v>0.227459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242635</v>
+        <v>0.241137</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298529</v>
+        <v>0.297674</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227187</v>
+        <v>0.231755</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246904</v>
+        <v>0.24517</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304367</v>
+        <v>0.302322</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23141</v>
+        <v>0.236698</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251497</v>
+        <v>0.249561</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309979</v>
+        <v>0.308396</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236015</v>
+        <v>0.241378</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25635</v>
+        <v>0.254002</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257033</v>
+        <v>0.259919</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239741</v>
+        <v>0.246904</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260537</v>
+        <v>0.258266</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256663</v>
+        <v>0.260149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243372</v>
+        <v>0.250487</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264135</v>
+        <v>0.262363</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267319</v>
+        <v>0.266512</v>
       </c>
       <c r="C63" t="n">
-        <v>0.247462</v>
+        <v>0.254779</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268866</v>
+        <v>0.266801</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.277771</v>
+        <v>0.272469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207276</v>
+        <v>0.209472</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225545</v>
+        <v>0.222454</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279897</v>
+        <v>0.276215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209919</v>
+        <v>0.212941</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229654</v>
+        <v>0.226054</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283739</v>
+        <v>0.282958</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216319</v>
+        <v>0.219234</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234671</v>
+        <v>0.231302</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294412</v>
+        <v>0.288603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.211661</v>
+        <v>0.221658</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238874</v>
+        <v>0.237521</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297331</v>
+        <v>0.297198</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224789</v>
+        <v>0.228407</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24533</v>
+        <v>0.242878</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309075</v>
+        <v>0.305948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227603</v>
+        <v>0.229006</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250088</v>
+        <v>0.245478</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31841</v>
+        <v>0.309344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234093</v>
+        <v>0.236151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255909</v>
+        <v>0.250452</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327317</v>
+        <v>0.317689</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239009</v>
+        <v>0.241894</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261421</v>
+        <v>0.255872</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.336218</v>
+        <v>0.328948</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245432</v>
+        <v>0.24921</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267125</v>
+        <v>0.262508</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347483</v>
+        <v>0.34052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252794</v>
+        <v>0.256896</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275824</v>
+        <v>0.269661</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361879</v>
+        <v>0.353818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260198</v>
+        <v>0.264927</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283778</v>
+        <v>0.277921</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376034</v>
+        <v>0.368921</v>
       </c>
       <c r="C75" t="n">
-        <v>0.267397</v>
+        <v>0.273944</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290685</v>
+        <v>0.285821</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40018</v>
+        <v>0.409298</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276621</v>
+        <v>0.28391</v>
       </c>
       <c r="D76" t="n">
-        <v>0.299954</v>
+        <v>0.295158</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416983</v>
+        <v>0.404718</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2851</v>
+        <v>0.293908</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308694</v>
+        <v>0.305504</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429272</v>
+        <v>0.436403</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262308</v>
+        <v>0.28122</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29341</v>
+        <v>0.293187</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442945</v>
+        <v>0.440541</v>
       </c>
       <c r="C79" t="n">
-        <v>0.276151</v>
+        <v>0.28861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303062</v>
+        <v>0.311906</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.462748</v>
+        <v>0.458927</v>
       </c>
       <c r="C80" t="n">
-        <v>0.296826</v>
+        <v>0.301042</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325863</v>
+        <v>0.321656</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.47494</v>
+        <v>0.475706</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306774</v>
+        <v>0.313132</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335549</v>
+        <v>0.335444</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.491899</v>
+        <v>0.494327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.315181</v>
+        <v>0.32462</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348367</v>
+        <v>0.34752</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51358</v>
+        <v>0.510054</v>
       </c>
       <c r="C83" t="n">
-        <v>0.329543</v>
+        <v>0.339102</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363609</v>
+        <v>0.361103</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.533041</v>
+        <v>0.529315</v>
       </c>
       <c r="C84" t="n">
-        <v>0.340071</v>
+        <v>0.351826</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379766</v>
+        <v>0.375805</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55571</v>
+        <v>0.54958</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358068</v>
+        <v>0.368548</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400366</v>
+        <v>0.391153</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.57834</v>
+        <v>0.571914</v>
       </c>
       <c r="C86" t="n">
-        <v>0.373314</v>
+        <v>0.384319</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414683</v>
+        <v>0.406853</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.600615</v>
+        <v>0.5951610000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.383052</v>
+        <v>0.398009</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426468</v>
+        <v>0.423187</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6212800000000001</v>
+        <v>0.61664</v>
       </c>
       <c r="C88" t="n">
-        <v>0.395345</v>
+        <v>0.413947</v>
       </c>
       <c r="D88" t="n">
-        <v>0.445332</v>
+        <v>0.443759</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644183</v>
+        <v>0.640073</v>
       </c>
       <c r="C89" t="n">
-        <v>0.40929</v>
+        <v>0.430151</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461897</v>
+        <v>0.460119</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.669587</v>
+        <v>0.6636570000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425458</v>
+        <v>0.441981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.479893</v>
+        <v>0.479747</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.674944</v>
+        <v>0.661567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441384</v>
+        <v>0.465042</v>
       </c>
       <c r="D91" t="n">
-        <v>0.495019</v>
+        <v>0.489921</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686162</v>
+        <v>0.682245</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431575</v>
+        <v>0.466828</v>
       </c>
       <c r="D92" t="n">
-        <v>0.502997</v>
+        <v>0.501785</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693589</v>
+        <v>0.692008</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440251</v>
+        <v>0.477711</v>
       </c>
       <c r="D93" t="n">
-        <v>0.501887</v>
+        <v>0.515019</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.703997</v>
+        <v>0.700215</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462203</v>
+        <v>0.486479</v>
       </c>
       <c r="D94" t="n">
-        <v>0.527483</v>
+        <v>0.523912</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716058</v>
+        <v>0.712573</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470728</v>
+        <v>0.48503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540093</v>
+        <v>0.526327</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729427</v>
+        <v>0.724603</v>
       </c>
       <c r="C96" t="n">
-        <v>0.481036</v>
+        <v>0.493456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554226</v>
+        <v>0.537324</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.744281</v>
+        <v>0.739159</v>
       </c>
       <c r="C97" t="n">
-        <v>0.492515</v>
+        <v>0.5190399999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.567681</v>
+        <v>0.563075</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.75874</v>
+        <v>0.755321</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503319</v>
+        <v>0.529953</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581223</v>
+        <v>0.576827</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774903</v>
+        <v>0.770726</v>
       </c>
       <c r="C99" t="n">
-        <v>0.51455</v>
+        <v>0.54278</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593831</v>
+        <v>0.58953</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.792604</v>
+        <v>0.788239</v>
       </c>
       <c r="C100" t="n">
-        <v>0.526563</v>
+        <v>0.5568149999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608029</v>
+        <v>0.606369</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.810535</v>
+        <v>0.806168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538766</v>
+        <v>0.571421</v>
       </c>
       <c r="D101" t="n">
-        <v>0.621202</v>
+        <v>0.619712</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828752</v>
+        <v>0.825394</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551955</v>
+        <v>0.58819</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637429</v>
+        <v>0.635229</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.849299</v>
+        <v>0.845617</v>
       </c>
       <c r="C103" t="n">
-        <v>0.564481</v>
+        <v>0.603565</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652585</v>
+        <v>0.650004</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.870131</v>
+        <v>0.8665310000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578232</v>
+        <v>0.620402</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668357</v>
+        <v>0.665533</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.795134</v>
+        <v>0.794696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591488</v>
+        <v>0.639611</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687415</v>
+        <v>0.684398</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7971549999999999</v>
+        <v>0.794974</v>
       </c>
       <c r="C106" t="n">
-        <v>0.603243</v>
+        <v>0.65161</v>
       </c>
       <c r="D106" t="n">
-        <v>0.703917</v>
+        <v>0.700906</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.799851</v>
+        <v>0.803415</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540263</v>
+        <v>0.592571</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649833</v>
+        <v>0.64699</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819652</v>
+        <v>0.8111660000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5616139999999999</v>
+        <v>0.6007169999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.660765</v>
+        <v>0.65551</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.827807</v>
+        <v>0.8214089999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.569794</v>
+        <v>0.609777</v>
       </c>
       <c r="D109" t="n">
-        <v>0.672152</v>
+        <v>0.6670199999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839523</v>
+        <v>0.832492</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5793</v>
+        <v>0.605842</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6820929999999999</v>
+        <v>0.677818</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85201</v>
+        <v>0.834555</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589741</v>
+        <v>0.629843</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696655</v>
+        <v>0.681148</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.855582</v>
+        <v>0.858838</v>
       </c>
       <c r="C112" t="n">
-        <v>0.590904</v>
+        <v>0.642232</v>
       </c>
       <c r="D112" t="n">
-        <v>0.69625</v>
+        <v>0.704255</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.869615</v>
+        <v>0.872703</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601925</v>
+        <v>0.654787</v>
       </c>
       <c r="D113" t="n">
-        <v>0.709094</v>
+        <v>0.71688</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.88491</v>
+        <v>0.888365</v>
       </c>
       <c r="C114" t="n">
-        <v>0.613654</v>
+        <v>0.668683</v>
       </c>
       <c r="D114" t="n">
-        <v>0.723736</v>
+        <v>0.7312419999999999</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.902529</v>
+        <v>0.905661</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625149</v>
+        <v>0.6827</v>
       </c>
       <c r="D115" t="n">
-        <v>0.748802</v>
+        <v>0.745553</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9293709999999999</v>
+        <v>0.923673</v>
       </c>
       <c r="C116" t="n">
-        <v>0.645804</v>
+        <v>0.698161</v>
       </c>
       <c r="D116" t="n">
-        <v>0.758592</v>
+        <v>0.757833</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.949164</v>
+        <v>0.943573</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65862</v>
+        <v>0.713816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.772647</v>
+        <v>0.772312</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9698830000000001</v>
+        <v>0.964107</v>
       </c>
       <c r="C118" t="n">
-        <v>0.671795</v>
+        <v>0.7304</v>
       </c>
       <c r="D118" t="n">
-        <v>0.792915</v>
+        <v>0.788802</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.854645</v>
+        <v>0.854198</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.747742</v>
       </c>
       <c r="D119" t="n">
-        <v>0.806551</v>
+        <v>0.8029849999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248018</v>
+        <v>0.248671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162421</v>
+        <v>0.164097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154905</v>
+        <v>0.15446</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219096</v>
+        <v>0.219224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167786</v>
+        <v>0.167061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153631</v>
+        <v>0.153589</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224049</v>
+        <v>0.223782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171998</v>
+        <v>0.173318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159408</v>
+        <v>0.161132</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229816</v>
+        <v>0.231081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176669</v>
+        <v>0.179467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162974</v>
+        <v>0.162379</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229875</v>
+        <v>0.231356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183376</v>
+        <v>0.185789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16715</v>
+        <v>0.167187</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233557</v>
+        <v>0.235977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167961</v>
+        <v>0.164758</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163427</v>
+        <v>0.160533</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236092</v>
+        <v>0.234915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173654</v>
+        <v>0.170659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168085</v>
+        <v>0.163667</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237647</v>
+        <v>0.239131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176383</v>
+        <v>0.179891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166988</v>
+        <v>0.170268</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241167</v>
+        <v>0.2436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181431</v>
+        <v>0.180905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169332</v>
+        <v>0.170738</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240459</v>
+        <v>0.242657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176903</v>
+        <v>0.180386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169118</v>
+        <v>0.171427</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2539</v>
+        <v>0.255987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187432</v>
+        <v>0.190622</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174066</v>
+        <v>0.176786</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255904</v>
+        <v>0.25807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188121</v>
+        <v>0.189147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178872</v>
+        <v>0.179702</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256834</v>
+        <v>0.260297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.190464</v>
+        <v>0.19256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174702</v>
+        <v>0.178534</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265181</v>
+        <v>0.268073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.193461</v>
+        <v>0.195433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179791</v>
+        <v>0.182804</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270982</v>
+        <v>0.273774</v>
       </c>
       <c r="C16" t="n">
-        <v>0.197494</v>
+        <v>0.200455</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180972</v>
+        <v>0.184122</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276558</v>
+        <v>0.279879</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201247</v>
+        <v>0.204252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185254</v>
+        <v>0.189056</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254689</v>
+        <v>0.254545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208755</v>
+        <v>0.202752</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185453</v>
+        <v>0.187617</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259891</v>
+        <v>0.260745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211355</v>
+        <v>0.214911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189064</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264119</v>
+        <v>0.265568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221146</v>
+        <v>0.2209</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192537</v>
+        <v>0.19613</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.271723</v>
+        <v>0.272634</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196333</v>
+        <v>0.195744</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192114</v>
+        <v>0.19186</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273031</v>
+        <v>0.274618</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208983</v>
+        <v>0.208943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194586</v>
+        <v>0.196815</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277373</v>
+        <v>0.27858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211034</v>
+        <v>0.209784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196212</v>
+        <v>0.198051</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281239</v>
+        <v>0.281617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216028</v>
+        <v>0.21764</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200505</v>
+        <v>0.202673</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284118</v>
+        <v>0.284948</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224366</v>
+        <v>0.22792</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203712</v>
+        <v>0.202944</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293222</v>
+        <v>0.293801</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22535</v>
+        <v>0.228502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207283</v>
+        <v>0.20629</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294568</v>
+        <v>0.295061</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236965</v>
+        <v>0.233819</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210209</v>
+        <v>0.212225</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297757</v>
+        <v>0.29791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23895</v>
+        <v>0.236723</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211153</v>
+        <v>0.213638</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306641</v>
+        <v>0.308136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244206</v>
+        <v>0.240327</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214461</v>
+        <v>0.215916</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31122</v>
+        <v>0.31153</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255332</v>
+        <v>0.252065</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22003</v>
+        <v>0.219825</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314836</v>
+        <v>0.314841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252036</v>
+        <v>0.251514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221413</v>
+        <v>0.221884</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280852</v>
+        <v>0.281122</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262773</v>
+        <v>0.258679</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225236</v>
+        <v>0.225879</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286694</v>
+        <v>0.286628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.270891</v>
+        <v>0.267479</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229895</v>
+        <v>0.229738</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291665</v>
+        <v>0.291862</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273446</v>
+        <v>0.270737</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232938</v>
+        <v>0.232827</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292944</v>
+        <v>0.292737</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216671</v>
+        <v>0.215277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211233</v>
+        <v>0.211257</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297801</v>
+        <v>0.297874</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22193</v>
+        <v>0.22166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211421</v>
+        <v>0.212425</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304079</v>
+        <v>0.304472</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225019</v>
+        <v>0.223578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213959</v>
+        <v>0.214638</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306733</v>
+        <v>0.306971</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228433</v>
+        <v>0.227979</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216133</v>
+        <v>0.217356</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313528</v>
+        <v>0.313564</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234845</v>
+        <v>0.234001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220051</v>
+        <v>0.219541</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321781</v>
+        <v>0.321973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.237721</v>
+        <v>0.2362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221349</v>
+        <v>0.221144</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327678</v>
+        <v>0.327504</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241491</v>
+        <v>0.240385</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222761</v>
+        <v>0.22388</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331358</v>
+        <v>0.332463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241131</v>
+        <v>0.241718</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22433</v>
+        <v>0.224984</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337637</v>
+        <v>0.337768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245712</v>
+        <v>0.246491</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227288</v>
+        <v>0.227418</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340482</v>
+        <v>0.340777</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251906</v>
+        <v>0.250692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228547</v>
+        <v>0.228794</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34857</v>
+        <v>0.348754</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254345</v>
+        <v>0.254493</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230473</v>
+        <v>0.230963</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349525</v>
+        <v>0.349882</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254254</v>
+        <v>0.254618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232316</v>
+        <v>0.232887</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289335</v>
+        <v>0.289488</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260392</v>
+        <v>0.259131</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234668</v>
+        <v>0.235602</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294049</v>
+        <v>0.294534</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265075</v>
+        <v>0.26414</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236144</v>
+        <v>0.23643</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297863</v>
+        <v>0.298015</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269063</v>
+        <v>0.269801</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239114</v>
+        <v>0.239563</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301648</v>
+        <v>0.301939</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23935</v>
+        <v>0.241103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22488</v>
+        <v>0.224876</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304755</v>
+        <v>0.304524</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241169</v>
+        <v>0.243889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226103</v>
+        <v>0.226716</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307103</v>
+        <v>0.307297</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245395</v>
+        <v>0.246806</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227783</v>
+        <v>0.227924</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312826</v>
+        <v>0.312706</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249117</v>
+        <v>0.250868</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229958</v>
+        <v>0.229362</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320666</v>
+        <v>0.32068</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253542</v>
+        <v>0.255366</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232223</v>
+        <v>0.232156</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320416</v>
+        <v>0.320509</v>
       </c>
       <c r="C55" t="n">
-        <v>0.259638</v>
+        <v>0.260181</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234726</v>
+        <v>0.234608</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325759</v>
+        <v>0.325784</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259047</v>
+        <v>0.259994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234911</v>
+        <v>0.235141</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333127</v>
+        <v>0.333312</v>
       </c>
       <c r="C57" t="n">
-        <v>0.266272</v>
+        <v>0.267954</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237594</v>
+        <v>0.237622</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334708</v>
+        <v>0.335055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273938</v>
+        <v>0.273931</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240762</v>
+        <v>0.241101</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342363</v>
+        <v>0.342737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279748</v>
+        <v>0.280418</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244371</v>
+        <v>0.244415</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347691</v>
+        <v>0.347818</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283453</v>
+        <v>0.284451</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24787</v>
+        <v>0.247796</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305007</v>
+        <v>0.305587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289296</v>
+        <v>0.288942</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248974</v>
+        <v>0.249092</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313207</v>
+        <v>0.304265</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293547</v>
+        <v>0.293203</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25067</v>
+        <v>0.250924</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318747</v>
+        <v>0.319185</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297895</v>
+        <v>0.298693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254181</v>
+        <v>0.254542</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325893</v>
+        <v>0.325724</v>
       </c>
       <c r="C64" t="n">
-        <v>0.263988</v>
+        <v>0.265018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242318</v>
+        <v>0.241017</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.333728</v>
+        <v>0.3272</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268585</v>
+        <v>0.266689</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24165</v>
+        <v>0.24053</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341461</v>
+        <v>0.336107</v>
       </c>
       <c r="C66" t="n">
-        <v>0.270813</v>
+        <v>0.271478</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243199</v>
+        <v>0.243666</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347969</v>
+        <v>0.3453</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275658</v>
+        <v>0.265575</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246654</v>
+        <v>0.239674</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.355193</v>
+        <v>0.350662</v>
       </c>
       <c r="C68" t="n">
-        <v>0.280668</v>
+        <v>0.281413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247958</v>
+        <v>0.24826</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360866</v>
+        <v>0.354304</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285929</v>
+        <v>0.279865</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25058</v>
+        <v>0.252742</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368224</v>
+        <v>0.368033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293047</v>
+        <v>0.291798</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254948</v>
+        <v>0.255877</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38078</v>
+        <v>0.37789</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300717</v>
+        <v>0.298246</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258158</v>
+        <v>0.258798</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.391092</v>
+        <v>0.387742</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308601</v>
+        <v>0.304731</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262908</v>
+        <v>0.262917</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406947</v>
+        <v>0.399987</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318099</v>
+        <v>0.312332</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267319</v>
+        <v>0.268616</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.421595</v>
+        <v>0.40923</v>
       </c>
       <c r="C74" t="n">
-        <v>0.325479</v>
+        <v>0.317834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26786</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.439848</v>
+        <v>0.425988</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334607</v>
+        <v>0.324595</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272664</v>
+        <v>0.271035</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.434099</v>
+        <v>0.422428</v>
       </c>
       <c r="C76" t="n">
-        <v>0.345029</v>
+        <v>0.333566</v>
       </c>
       <c r="D76" t="n">
-        <v>0.280624</v>
+        <v>0.279875</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445803</v>
+        <v>0.448907</v>
       </c>
       <c r="C77" t="n">
-        <v>0.362773</v>
+        <v>0.334625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.286003</v>
+        <v>0.270379</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.46708</v>
+        <v>0.466107</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310211</v>
+        <v>0.304651</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255804</v>
+        <v>0.278835</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.504812</v>
+        <v>0.494497</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322908</v>
+        <v>0.305918</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278608</v>
+        <v>0.272248</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.541618</v>
+        <v>0.506679</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333389</v>
+        <v>0.322747</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288341</v>
+        <v>0.276002</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565716</v>
+        <v>0.545409</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347722</v>
+        <v>0.333249</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293066</v>
+        <v>0.294654</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.578928</v>
+        <v>0.571398</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374293</v>
+        <v>0.352051</v>
       </c>
       <c r="D82" t="n">
-        <v>0.301857</v>
+        <v>0.288209</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.601389</v>
+        <v>0.613147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39136</v>
+        <v>0.360999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305832</v>
+        <v>0.311472</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.654161</v>
+        <v>0.649734</v>
       </c>
       <c r="C84" t="n">
-        <v>0.410226</v>
+        <v>0.374258</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319844</v>
+        <v>0.324385</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.689053</v>
+        <v>0.67841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.438232</v>
+        <v>0.389128</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330477</v>
+        <v>0.318904</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.7260799999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.457309</v>
+        <v>0.414513</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337445</v>
+        <v>0.343313</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7674879999999999</v>
+        <v>0.764213</v>
       </c>
       <c r="C87" t="n">
-        <v>0.483455</v>
+        <v>0.439248</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359789</v>
+        <v>0.357196</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.809257</v>
+        <v>0.8056449999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.508887</v>
+        <v>0.465483</v>
       </c>
       <c r="D88" t="n">
-        <v>0.373823</v>
+        <v>0.371486</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.863976</v>
+        <v>0.860492</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537901</v>
+        <v>0.495504</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382625</v>
+        <v>0.390631</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859245</v>
+        <v>0.844951</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563653</v>
+        <v>0.514688</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39651</v>
+        <v>0.408852</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.896818</v>
+        <v>0.895124</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5956</v>
+        <v>0.5591390000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.415548</v>
+        <v>0.427782</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931511</v>
+        <v>0.927557</v>
       </c>
       <c r="C92" t="n">
-        <v>0.612767</v>
+        <v>0.559867</v>
       </c>
       <c r="D92" t="n">
-        <v>0.491171</v>
+        <v>0.503645</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.960485</v>
+        <v>0.953409</v>
       </c>
       <c r="C93" t="n">
-        <v>0.635818</v>
+        <v>0.583472</v>
       </c>
       <c r="D93" t="n">
-        <v>0.524221</v>
+        <v>0.521853</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992487</v>
+        <v>0.992805</v>
       </c>
       <c r="C94" t="n">
-        <v>0.656758</v>
+        <v>0.606224</v>
       </c>
       <c r="D94" t="n">
-        <v>0.530818</v>
+        <v>0.535791</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03024</v>
+        <v>1.03091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.687069</v>
+        <v>0.632254</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552376</v>
+        <v>0.550448</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06479</v>
+        <v>1.06371</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712652</v>
+        <v>0.661335</v>
       </c>
       <c r="D96" t="n">
-        <v>0.565403</v>
+        <v>0.566401</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.09662</v>
+        <v>1.10019</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742743</v>
+        <v>0.688453</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.589966</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12341</v>
+        <v>1.13257</v>
       </c>
       <c r="C98" t="n">
-        <v>0.754507</v>
+        <v>0.718662</v>
       </c>
       <c r="D98" t="n">
-        <v>0.612455</v>
+        <v>0.61256</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17103</v>
+        <v>1.16813</v>
       </c>
       <c r="C99" t="n">
-        <v>0.802463</v>
+        <v>0.750421</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610015</v>
+        <v>0.631195</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.188</v>
+        <v>1.20788</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816456</v>
+        <v>0.779902</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629578</v>
+        <v>0.651399</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22454</v>
+        <v>1.24218</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8416439999999999</v>
+        <v>0.80688</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656641</v>
+        <v>0.666706</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26881</v>
+        <v>1.27524</v>
       </c>
       <c r="C102" t="n">
-        <v>0.880179</v>
+        <v>0.842809</v>
       </c>
       <c r="D102" t="n">
-        <v>0.688757</v>
+        <v>0.689771</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30665</v>
+        <v>1.31001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905376</v>
+        <v>0.873475</v>
       </c>
       <c r="D103" t="n">
-        <v>0.69773</v>
+        <v>0.7065630000000001</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34479</v>
+        <v>1.34941</v>
       </c>
       <c r="C104" t="n">
-        <v>0.93509</v>
+        <v>0.903163</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721774</v>
+        <v>0.728554</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23861</v>
+        <v>1.23957</v>
       </c>
       <c r="C105" t="n">
-        <v>0.977423</v>
+        <v>0.935439</v>
       </c>
       <c r="D105" t="n">
-        <v>0.743013</v>
+        <v>0.744269</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.25069</v>
+        <v>1.26406</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01314</v>
+        <v>0.971743</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766008</v>
+        <v>0.77567</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28465</v>
+        <v>1.29087</v>
       </c>
       <c r="C107" t="n">
-        <v>0.897953</v>
+        <v>0.863794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781379</v>
+        <v>0.783224</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29782</v>
+        <v>1.31592</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92095</v>
+        <v>0.891317</v>
       </c>
       <c r="D108" t="n">
-        <v>0.782342</v>
+        <v>0.795757</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33696</v>
+        <v>1.33985</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9532929999999999</v>
+        <v>0.918533</v>
       </c>
       <c r="D109" t="n">
-        <v>0.81225</v>
+        <v>0.816846</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35096</v>
+        <v>1.36263</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9741</v>
+        <v>0.938728</v>
       </c>
       <c r="D110" t="n">
-        <v>0.818958</v>
+        <v>0.829924</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37954</v>
+        <v>1.38089</v>
       </c>
       <c r="C111" t="n">
-        <v>0.990827</v>
+        <v>0.959901</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8425859999999999</v>
+        <v>0.838163</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40818</v>
+        <v>1.40832</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01726</v>
+        <v>0.9843499999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8600410000000001</v>
+        <v>0.847795</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44364</v>
+        <v>1.4259</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04349</v>
+        <v>1.0003</v>
       </c>
       <c r="D113" t="n">
-        <v>0.874423</v>
+        <v>0.870317</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47107</v>
+        <v>1.46635</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06683</v>
+        <v>1.03306</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886831</v>
+        <v>0.884123</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4978</v>
+        <v>1.49435</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09517</v>
+        <v>1.06159</v>
       </c>
       <c r="D115" t="n">
-        <v>0.899392</v>
+        <v>0.900532</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52864</v>
+        <v>1.52662</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12091</v>
+        <v>1.08893</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917873</v>
+        <v>0.9138540000000001</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56149</v>
+        <v>1.5596</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14628</v>
+        <v>1.11301</v>
       </c>
       <c r="D117" t="n">
-        <v>0.93258</v>
+        <v>0.929412</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59374</v>
+        <v>1.59131</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18036</v>
+        <v>1.14493</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946489</v>
+        <v>0.946661</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42157</v>
+        <v>1.4203</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20999</v>
+        <v>1.1683</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961808</v>
+        <v>0.958499</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392617</v>
+        <v>0.390876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288136</v>
+        <v>0.287154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219553</v>
+        <v>0.220642</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402565</v>
+        <v>0.403833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292309</v>
+        <v>0.294807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221555</v>
+        <v>0.221179</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41397</v>
+        <v>0.416146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304566</v>
+        <v>0.309757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231164</v>
+        <v>0.231388</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419118</v>
+        <v>0.420734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317517</v>
+        <v>0.321595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236449</v>
+        <v>0.237557</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.438239</v>
+        <v>0.437464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318603</v>
+        <v>0.332549</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239922</v>
+        <v>0.239473</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449914</v>
+        <v>0.452551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33679</v>
+        <v>0.34013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24899</v>
+        <v>0.24842</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463429</v>
+        <v>0.466865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353838</v>
+        <v>0.358754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258148</v>
+        <v>0.257535</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482712</v>
+        <v>0.487676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.367635</v>
+        <v>0.374152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267523</v>
+        <v>0.268742</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500995</v>
+        <v>0.500133</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39063</v>
+        <v>0.394083</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276594</v>
+        <v>0.277382</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516101</v>
+        <v>0.5216420000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295447</v>
+        <v>0.299178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220861</v>
+        <v>0.223213</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.387791</v>
+        <v>0.39087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301897</v>
+        <v>0.302442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223855</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398352</v>
+        <v>0.401277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311053</v>
+        <v>0.314164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231412</v>
+        <v>0.232244</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406831</v>
+        <v>0.414087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324512</v>
+        <v>0.325582</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232854</v>
+        <v>0.236857</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428188</v>
+        <v>0.431888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341562</v>
+        <v>0.338821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239955</v>
+        <v>0.240433</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439253</v>
+        <v>0.443404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35163</v>
+        <v>0.352578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246857</v>
+        <v>0.24937</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448859</v>
+        <v>0.451459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.368823</v>
+        <v>0.364797</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254014</v>
+        <v>0.25584</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472671</v>
+        <v>0.47413</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37344</v>
+        <v>0.374587</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25399</v>
+        <v>0.254224</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484237</v>
+        <v>0.487196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.394935</v>
+        <v>0.397675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.263354</v>
+        <v>0.265093</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502566</v>
+        <v>0.5048</v>
       </c>
       <c r="C20" t="n">
-        <v>0.417065</v>
+        <v>0.41458</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27516</v>
+        <v>0.276569</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.523097</v>
       </c>
       <c r="C21" t="n">
-        <v>0.435918</v>
+        <v>0.432939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286185</v>
+        <v>0.290655</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54121</v>
+        <v>0.545168</v>
       </c>
       <c r="C22" t="n">
-        <v>0.459084</v>
+        <v>0.454742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296436</v>
+        <v>0.297218</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.557281</v>
+        <v>0.560984</v>
       </c>
       <c r="C23" t="n">
-        <v>0.482694</v>
+        <v>0.47801</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31029</v>
+        <v>0.308398</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5920339999999999</v>
+        <v>0.598312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497221</v>
+        <v>0.491251</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318839</v>
+        <v>0.317014</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626069</v>
+        <v>0.628131</v>
       </c>
       <c r="C25" t="n">
-        <v>0.524579</v>
+        <v>0.521861</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325606</v>
+        <v>0.332494</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.650546</v>
+        <v>0.6518119999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331217</v>
+        <v>0.326895</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232466</v>
+        <v>0.235275</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.427563</v>
+        <v>0.428622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.334713</v>
+        <v>0.331319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235675</v>
+        <v>0.237587</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.443732</v>
+        <v>0.443486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.350193</v>
+        <v>0.34091</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241828</v>
+        <v>0.244835</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.457871</v>
+        <v>0.457705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.35517</v>
+        <v>0.348272</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247361</v>
+        <v>0.253142</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.477554</v>
+        <v>0.475181</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376281</v>
+        <v>0.36631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260176</v>
+        <v>0.260755</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491214</v>
+        <v>0.496124</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392099</v>
+        <v>0.378312</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261643</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508002</v>
+        <v>0.508255</v>
       </c>
       <c r="C32" t="n">
-        <v>0.406585</v>
+        <v>0.39406</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271047</v>
+        <v>0.273681</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538289</v>
+        <v>0.536899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.424787</v>
+        <v>0.408712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283933</v>
+        <v>0.287082</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.551141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.441396</v>
+        <v>0.425342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29344</v>
+        <v>0.293897</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575841</v>
+        <v>0.576478</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462174</v>
+        <v>0.445781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.302176</v>
+        <v>0.300231</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.594508</v>
+        <v>0.5931110000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.486229</v>
+        <v>0.463061</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312679</v>
+        <v>0.312441</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.610792</v>
+        <v>0.6114270000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.508433</v>
+        <v>0.485755</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323101</v>
+        <v>0.323408</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.633571</v>
+        <v>0.632785</v>
       </c>
       <c r="C38" t="n">
-        <v>0.529369</v>
+        <v>0.506583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.331524</v>
+        <v>0.333155</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669757</v>
+        <v>0.669138</v>
       </c>
       <c r="C39" t="n">
-        <v>0.558449</v>
+        <v>0.526537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344946</v>
+        <v>0.342235</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69224</v>
+        <v>0.688886</v>
       </c>
       <c r="C40" t="n">
-        <v>0.393403</v>
+        <v>0.379656</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281086</v>
+        <v>0.280882</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502381</v>
+        <v>0.501607</v>
       </c>
       <c r="C41" t="n">
-        <v>0.403521</v>
+        <v>0.391005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28812</v>
+        <v>0.286259</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.514496</v>
+        <v>0.513985</v>
       </c>
       <c r="C42" t="n">
-        <v>0.419624</v>
+        <v>0.403275</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293545</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528163</v>
+        <v>0.526383</v>
       </c>
       <c r="C43" t="n">
-        <v>0.431852</v>
+        <v>0.415148</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301159</v>
+        <v>0.299485</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543838</v>
+        <v>0.542756</v>
       </c>
       <c r="C44" t="n">
-        <v>0.453683</v>
+        <v>0.432666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310036</v>
+        <v>0.309991</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5613089999999999</v>
+        <v>0.560356</v>
       </c>
       <c r="C45" t="n">
-        <v>0.466474</v>
+        <v>0.444766</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313233</v>
+        <v>0.313728</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573283</v>
+        <v>0.571507</v>
       </c>
       <c r="C46" t="n">
-        <v>0.482798</v>
+        <v>0.460851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.323051</v>
+        <v>0.322555</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594743</v>
+        <v>0.59385</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500849</v>
+        <v>0.476283</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332044</v>
+        <v>0.332291</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612368</v>
+        <v>0.610868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.514426</v>
+        <v>0.491484</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342651</v>
+        <v>0.342477</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623384</v>
+        <v>0.622906</v>
       </c>
       <c r="C49" t="n">
-        <v>0.536426</v>
+        <v>0.508836</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348608</v>
+        <v>0.349871</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6527500000000001</v>
+        <v>0.651273</v>
       </c>
       <c r="C50" t="n">
-        <v>0.554684</v>
+        <v>0.524992</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359401</v>
+        <v>0.359086</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6778</v>
+        <v>0.6755139999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.578129</v>
+        <v>0.545559</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371</v>
+        <v>0.370801</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.702911</v>
+        <v>0.7009339999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.602587</v>
+        <v>0.568448</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381214</v>
+        <v>0.38117</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.728007</v>
+        <v>0.726135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62741</v>
+        <v>0.590286</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39374</v>
+        <v>0.39336</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753591</v>
+        <v>0.75034</v>
       </c>
       <c r="C54" t="n">
-        <v>0.442342</v>
+        <v>0.425504</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313603</v>
+        <v>0.314084</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.783583</v>
+        <v>0.782967</v>
       </c>
       <c r="C55" t="n">
-        <v>0.451111</v>
+        <v>0.433379</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319001</v>
+        <v>0.319026</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536489</v>
+        <v>0.536736</v>
       </c>
       <c r="C56" t="n">
-        <v>0.46734</v>
+        <v>0.447637</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325168</v>
+        <v>0.326144</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.549461</v>
       </c>
       <c r="C57" t="n">
-        <v>0.480289</v>
+        <v>0.458127</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332311</v>
+        <v>0.33305</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565968</v>
+        <v>0.565811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.492961</v>
+        <v>0.470457</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336455</v>
+        <v>0.337069</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579589</v>
+        <v>0.580091</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.486267</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346203</v>
+        <v>0.345765</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588485</v>
+        <v>0.588869</v>
       </c>
       <c r="C60" t="n">
-        <v>0.523889</v>
+        <v>0.49936</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351925</v>
+        <v>0.351494</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608424</v>
+        <v>0.608611</v>
       </c>
       <c r="C61" t="n">
-        <v>0.540921</v>
+        <v>0.513753</v>
       </c>
       <c r="D61" t="n">
-        <v>0.358933</v>
+        <v>0.359285</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628551</v>
+        <v>0.628997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556947</v>
+        <v>0.527222</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366771</v>
+        <v>0.368226</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645733</v>
+        <v>0.6477039999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.577814</v>
+        <v>0.547113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375766</v>
+        <v>0.375339</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668044</v>
+        <v>0.6705410000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.593401</v>
+        <v>0.561187</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386074</v>
+        <v>0.386104</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697376</v>
+        <v>0.695843</v>
       </c>
       <c r="C65" t="n">
-        <v>0.620774</v>
+        <v>0.583914</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3966</v>
+        <v>0.396866</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719967</v>
+        <v>0.721799</v>
       </c>
       <c r="C66" t="n">
-        <v>0.638</v>
+        <v>0.603356</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405613</v>
+        <v>0.406705</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.749875</v>
+        <v>0.756499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.664632</v>
+        <v>0.624206</v>
       </c>
       <c r="D67" t="n">
-        <v>0.41892</v>
+        <v>0.420629</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.773991</v>
+        <v>0.7790899999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43459</v>
+        <v>0.417391</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314393</v>
+        <v>0.310159</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.817962</v>
+        <v>0.819425</v>
       </c>
       <c r="C69" t="n">
-        <v>0.449966</v>
+        <v>0.424734</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32056</v>
+        <v>0.314299</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554824</v>
+        <v>0.541601</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47005</v>
+        <v>0.43893</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32918</v>
+        <v>0.321277</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574499</v>
+        <v>0.551919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489925</v>
+        <v>0.452915</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336482</v>
+        <v>0.326516</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.602234</v>
+        <v>0.581692</v>
       </c>
       <c r="C72" t="n">
-        <v>0.511423</v>
+        <v>0.467108</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345091</v>
+        <v>0.334486</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.626786</v>
+        <v>0.596063</v>
       </c>
       <c r="C73" t="n">
-        <v>0.535658</v>
+        <v>0.484487</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355652</v>
+        <v>0.341284</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.649002</v>
+        <v>0.616382</v>
       </c>
       <c r="C74" t="n">
-        <v>0.555127</v>
+        <v>0.499827</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365436</v>
+        <v>0.352174</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679776</v>
+        <v>0.647023</v>
       </c>
       <c r="C75" t="n">
-        <v>0.585687</v>
+        <v>0.524419</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374355</v>
+        <v>0.363342</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.713116</v>
+        <v>0.6795060000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.615446</v>
+        <v>0.549249</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38484</v>
+        <v>0.370785</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.754342</v>
+        <v>0.724013</v>
       </c>
       <c r="C77" t="n">
-        <v>0.651289</v>
+        <v>0.579363</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398871</v>
+        <v>0.384239</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7966800000000001</v>
+        <v>0.767748</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6872740000000001</v>
+        <v>0.61206</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409168</v>
+        <v>0.400579</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.84772</v>
+        <v>0.8217410000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.730087</v>
+        <v>0.648735</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423932</v>
+        <v>0.414696</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.912072</v>
+        <v>0.884398</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786208</v>
+        <v>0.691064</v>
       </c>
       <c r="D80" t="n">
-        <v>0.439589</v>
+        <v>0.427959</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.985114</v>
+        <v>0.967069</v>
       </c>
       <c r="C81" t="n">
-        <v>0.846881</v>
+        <v>0.748373</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46052</v>
+        <v>0.451674</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05932</v>
+        <v>1.03711</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91427</v>
+        <v>0.79365</v>
       </c>
       <c r="D82" t="n">
-        <v>0.472142</v>
+        <v>0.464352</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14588</v>
+        <v>1.12681</v>
       </c>
       <c r="C83" t="n">
-        <v>0.662707</v>
+        <v>0.593778</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386917</v>
+        <v>0.378453</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25606</v>
+        <v>1.2407</v>
       </c>
       <c r="C84" t="n">
-        <v>0.703735</v>
+        <v>0.63114</v>
       </c>
       <c r="D84" t="n">
-        <v>0.400972</v>
+        <v>0.391605</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.876383</v>
+        <v>0.87276</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7604610000000001</v>
+        <v>0.676719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.414539</v>
+        <v>0.404707</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.941292</v>
+        <v>0.9477179999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8280690000000001</v>
+        <v>0.737978</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432832</v>
+        <v>0.432012</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00811</v>
+        <v>1.02303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.89131</v>
+        <v>0.799548</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453206</v>
+        <v>0.452074</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10259</v>
+        <v>1.09845</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9942220000000001</v>
+        <v>0.876012</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4845</v>
+        <v>0.484185</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19372</v>
+        <v>1.18749</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08125</v>
+        <v>0.945703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.513093</v>
+        <v>0.514561</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29419</v>
+        <v>1.29727</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18121</v>
+        <v>1.02714</v>
       </c>
       <c r="D90" t="n">
-        <v>0.547207</v>
+        <v>0.546874</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41407</v>
+        <v>1.40741</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29204</v>
+        <v>1.11782</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58209</v>
+        <v>0.592071</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52037</v>
+        <v>1.52213</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40523</v>
+        <v>1.20863</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63489</v>
+        <v>0.629953</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64519</v>
+        <v>1.64532</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53317</v>
+        <v>1.30904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673814</v>
+        <v>0.667828</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78536</v>
+        <v>1.79433</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66805</v>
+        <v>1.41366</v>
       </c>
       <c r="D94" t="n">
-        <v>0.721547</v>
+        <v>0.727209</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92683</v>
+        <v>1.92926</v>
       </c>
       <c r="C95" t="n">
-        <v>1.80786</v>
+        <v>1.52251</v>
       </c>
       <c r="D95" t="n">
-        <v>0.768566</v>
+        <v>0.773913</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08516</v>
+        <v>2.08932</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97317</v>
+        <v>1.65243</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834459</v>
+        <v>0.830206</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25035</v>
+        <v>2.26257</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20937</v>
+        <v>1.08269</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6310519999999999</v>
+        <v>0.631149</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41116</v>
+        <v>2.42105</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29006</v>
+        <v>1.15065</v>
       </c>
       <c r="D98" t="n">
-        <v>0.669441</v>
+        <v>0.665538</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6732</v>
+        <v>1.67499</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37435</v>
+        <v>1.22344</v>
       </c>
       <c r="D99" t="n">
-        <v>0.70909</v>
+        <v>0.713823</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76396</v>
+        <v>1.76695</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46829</v>
+        <v>1.29979</v>
       </c>
       <c r="D100" t="n">
-        <v>0.744764</v>
+        <v>0.746688</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8569</v>
+        <v>1.8604</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56602</v>
+        <v>1.37816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.791655</v>
+        <v>0.7899350000000001</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.9617</v>
+        <v>1.96372</v>
       </c>
       <c r="C102" t="n">
-        <v>1.66325</v>
+        <v>1.46045</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834013</v>
+        <v>0.8326750000000001</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05637</v>
+        <v>2.06271</v>
       </c>
       <c r="C103" t="n">
-        <v>1.77265</v>
+        <v>1.54415</v>
       </c>
       <c r="D103" t="n">
-        <v>0.874749</v>
+        <v>0.8776080000000001</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17142</v>
+        <v>2.17586</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8857</v>
+        <v>1.63432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9277840000000001</v>
+        <v>0.916087</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27277</v>
+        <v>2.28307</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00786</v>
+        <v>1.72711</v>
       </c>
       <c r="D105" t="n">
-        <v>0.984304</v>
+        <v>0.99365</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40071</v>
+        <v>2.40637</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12744</v>
+        <v>1.81893</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02476</v>
+        <v>1.03382</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.51814</v>
+        <v>2.52862</v>
       </c>
       <c r="C107" t="n">
-        <v>2.25309</v>
+        <v>1.91255</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08476</v>
+        <v>1.07947</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65459</v>
+        <v>2.66705</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4014</v>
+        <v>2.02673</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13761</v>
+        <v>1.13548</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79241</v>
+        <v>2.80882</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56024</v>
+        <v>2.12738</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20087</v>
+        <v>1.19806</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.93382</v>
+        <v>2.94707</v>
       </c>
       <c r="C110" t="n">
-        <v>2.70097</v>
+        <v>2.24852</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26336</v>
+        <v>1.2804</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1066</v>
+        <v>3.11628</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70844</v>
+        <v>1.54235</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00657</v>
+        <v>0.999709</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28319</v>
+        <v>3.30174</v>
       </c>
       <c r="C112" t="n">
-        <v>1.7983</v>
+        <v>1.6127</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05068</v>
+        <v>1.04082</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.42882</v>
+        <v>3.46017</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89153</v>
+        <v>1.6866</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07466</v>
+        <v>1.08839</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.29997</v>
+        <v>2.30902</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97265</v>
+        <v>1.75494</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10817</v>
+        <v>1.1235</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39111</v>
+        <v>2.38982</v>
       </c>
       <c r="C115" t="n">
-        <v>2.06643</v>
+        <v>1.82716</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16437</v>
+        <v>1.16747</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49428</v>
+        <v>2.49399</v>
       </c>
       <c r="C116" t="n">
-        <v>2.16674</v>
+        <v>1.9046</v>
       </c>
       <c r="D116" t="n">
-        <v>1.19176</v>
+        <v>1.21339</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60229</v>
+        <v>2.6023</v>
       </c>
       <c r="C117" t="n">
-        <v>2.27325</v>
+        <v>1.97901</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24645</v>
+        <v>1.24486</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.7002</v>
+        <v>2.70401</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40331</v>
+        <v>2.07545</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28918</v>
+        <v>1.30084</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80071</v>
+        <v>2.81098</v>
       </c>
       <c r="C119" t="n">
-        <v>2.50483</v>
+        <v>2.16258</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34098</v>
+        <v>1.3342</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24317</v>
+        <v>0.246045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.183876</v>
+        <v>0.185692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1924</v>
+        <v>0.193961</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196011</v>
+        <v>0.191928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18685</v>
+        <v>0.191851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19503</v>
+        <v>0.196874</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199736</v>
+        <v>0.203102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191993</v>
+        <v>0.194149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201481</v>
+        <v>0.203833</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.206302</v>
+        <v>0.208746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197912</v>
+        <v>0.200199</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207085</v>
+        <v>0.210202</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.214669</v>
+        <v>0.213698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.203186</v>
+        <v>0.205797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213426</v>
+        <v>0.215713</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216762</v>
+        <v>0.219772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167353</v>
+        <v>0.165487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.180127</v>
+        <v>0.180984</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22111</v>
+        <v>0.223555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170015</v>
+        <v>0.170167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.183288</v>
+        <v>0.184054</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227911</v>
+        <v>0.229193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.175291</v>
+        <v>0.176155</v>
       </c>
       <c r="D9" t="n">
-        <v>0.187617</v>
+        <v>0.189108</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2341</v>
+        <v>0.233452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178591</v>
+        <v>0.178802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19244</v>
+        <v>0.192364</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238527</v>
+        <v>0.238716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182348</v>
+        <v>0.182333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196818</v>
+        <v>0.196349</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.247005</v>
+        <v>0.246683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186715</v>
+        <v>0.186559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20112</v>
+        <v>0.202047</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251016</v>
+        <v>0.25139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.191299</v>
+        <v>0.190956</v>
       </c>
       <c r="D13" t="n">
-        <v>0.205133</v>
+        <v>0.206414</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256199</v>
+        <v>0.256082</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19524</v>
+        <v>0.195242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.209923</v>
+        <v>0.209259</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262958</v>
+        <v>0.262339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201168</v>
+        <v>0.201503</v>
       </c>
       <c r="D15" t="n">
-        <v>0.214389</v>
+        <v>0.215471</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267554</v>
+        <v>0.267479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205149</v>
+        <v>0.204778</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218194</v>
+        <v>0.217651</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.274564</v>
+        <v>0.274334</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210745</v>
+        <v>0.209675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223913</v>
+        <v>0.223317</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.229776</v>
+        <v>0.229669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213496</v>
+        <v>0.213863</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227045</v>
+        <v>0.226692</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234158</v>
+        <v>0.233764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21854</v>
+        <v>0.218544</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2318</v>
+        <v>0.231066</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.238261</v>
+        <v>0.237864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222768</v>
+        <v>0.222082</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237006</v>
+        <v>0.237692</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242858</v>
+        <v>0.24237</v>
       </c>
       <c r="C21" t="n">
-        <v>0.186987</v>
+        <v>0.187608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202516</v>
+        <v>0.202909</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247449</v>
+        <v>0.246968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.190981</v>
+        <v>0.191393</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206884</v>
+        <v>0.206522</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251577</v>
+        <v>0.251206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194112</v>
+        <v>0.19385</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210298</v>
+        <v>0.210765</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.256122</v>
+        <v>0.25585</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197251</v>
+        <v>0.197037</v>
       </c>
       <c r="D24" t="n">
-        <v>0.213483</v>
+        <v>0.214151</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261405</v>
+        <v>0.261087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200316</v>
+        <v>0.200069</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216923</v>
+        <v>0.217483</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.267883</v>
+        <v>0.267392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204709</v>
+        <v>0.205054</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221586</v>
+        <v>0.221632</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272013</v>
+        <v>0.271458</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207924</v>
+        <v>0.207764</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225757</v>
+        <v>0.225357</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277362</v>
+        <v>0.277103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213809</v>
+        <v>0.213147</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230735</v>
+        <v>0.230085</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282067</v>
+        <v>0.281581</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218502</v>
+        <v>0.217933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23541</v>
+        <v>0.235016</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288489</v>
+        <v>0.287985</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222686</v>
+        <v>0.222337</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239214</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293689</v>
+        <v>0.293261</v>
       </c>
       <c r="C31" t="n">
-        <v>0.22721</v>
+        <v>0.226836</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243912</v>
+        <v>0.243408</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.241883</v>
+        <v>0.241693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.230978</v>
+        <v>0.231081</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247441</v>
+        <v>0.246914</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245139</v>
+        <v>0.245088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236438</v>
+        <v>0.235788</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253134</v>
+        <v>0.252421</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248332</v>
+        <v>0.248464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.239681</v>
+        <v>0.239717</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256404</v>
+        <v>0.256224</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252112</v>
+        <v>0.252231</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195557</v>
+        <v>0.195559</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208269</v>
+        <v>0.208387</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256069</v>
+        <v>0.256072</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198245</v>
+        <v>0.19823</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211329</v>
+        <v>0.211473</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.259961</v>
+        <v>0.259864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201014</v>
+        <v>0.201286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214703</v>
+        <v>0.214795</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.264235</v>
+        <v>0.264191</v>
       </c>
       <c r="C38" t="n">
-        <v>0.204297</v>
+        <v>0.204613</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218544</v>
+        <v>0.218647</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268386</v>
+        <v>0.268451</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208194</v>
+        <v>0.208344</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22265</v>
+        <v>0.222727</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273166</v>
+        <v>0.273177</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211963</v>
+        <v>0.212097</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226677</v>
+        <v>0.226688</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27861</v>
+        <v>0.278613</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215719</v>
+        <v>0.215931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230582</v>
+        <v>0.230606</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283217</v>
+        <v>0.283199</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219479</v>
+        <v>0.219672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.234267</v>
+        <v>0.234389</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288317</v>
+        <v>0.288274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.224042</v>
+        <v>0.224129</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238476</v>
+        <v>0.238532</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293434</v>
+        <v>0.29336</v>
       </c>
       <c r="C44" t="n">
-        <v>0.228891</v>
+        <v>0.228835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243307</v>
+        <v>0.243437</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.29869</v>
+        <v>0.298512</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233192</v>
+        <v>0.233293</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247326</v>
+        <v>0.247415</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303223</v>
+        <v>0.302964</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2373</v>
+        <v>0.237433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.251363</v>
+        <v>0.25158</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250024</v>
+        <v>0.250081</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242263</v>
+        <v>0.242216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25594</v>
+        <v>0.255854</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253117</v>
+        <v>0.253129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.246208</v>
+        <v>0.24656</v>
       </c>
       <c r="D48" t="n">
-        <v>0.259596</v>
+        <v>0.259615</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256507</v>
+        <v>0.256512</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250285</v>
+        <v>0.250404</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263749</v>
+        <v>0.263839</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260335</v>
+        <v>0.260109</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202587</v>
+        <v>0.202628</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214723</v>
+        <v>0.214982</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264011</v>
+        <v>0.263846</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205336</v>
+        <v>0.205345</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218062</v>
+        <v>0.218203</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268615</v>
+        <v>0.26833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208288</v>
+        <v>0.208251</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221585</v>
+        <v>0.221485</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272833</v>
+        <v>0.272642</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211811</v>
+        <v>0.21176</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225538</v>
+        <v>0.225167</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277611</v>
+        <v>0.277499</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215094</v>
+        <v>0.215195</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228963</v>
+        <v>0.228688</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282492</v>
+        <v>0.282391</v>
       </c>
       <c r="C55" t="n">
-        <v>0.218878</v>
+        <v>0.218843</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232556</v>
+        <v>0.232671</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287812</v>
+        <v>0.287496</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223146</v>
+        <v>0.223257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236976</v>
+        <v>0.236885</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293104</v>
+        <v>0.292783</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227459</v>
+        <v>0.227655</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241137</v>
+        <v>0.241073</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297674</v>
+        <v>0.297361</v>
       </c>
       <c r="C58" t="n">
-        <v>0.231755</v>
+        <v>0.231904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24517</v>
+        <v>0.245162</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302322</v>
+        <v>0.302213</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236698</v>
+        <v>0.236696</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249561</v>
+        <v>0.249658</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308396</v>
+        <v>0.308037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241378</v>
+        <v>0.241556</v>
       </c>
       <c r="D60" t="n">
-        <v>0.254002</v>
+        <v>0.254096</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259919</v>
+        <v>0.256126</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246904</v>
+        <v>0.24681</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258266</v>
+        <v>0.258059</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260149</v>
+        <v>0.25979</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250487</v>
+        <v>0.250617</v>
       </c>
       <c r="D62" t="n">
-        <v>0.262363</v>
+        <v>0.262533</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266512</v>
+        <v>0.26726</v>
       </c>
       <c r="C63" t="n">
-        <v>0.254779</v>
+        <v>0.255056</v>
       </c>
       <c r="D63" t="n">
-        <v>0.266801</v>
+        <v>0.267202</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.272469</v>
+        <v>0.274004</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209472</v>
+        <v>0.210263</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222454</v>
+        <v>0.224184</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.276215</v>
+        <v>0.277139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212941</v>
+        <v>0.213297</v>
       </c>
       <c r="D65" t="n">
-        <v>0.226054</v>
+        <v>0.226477</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.282958</v>
+        <v>0.283697</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219234</v>
+        <v>0.219463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.231302</v>
+        <v>0.231176</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.288603</v>
+        <v>0.286895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.221658</v>
+        <v>0.220907</v>
       </c>
       <c r="D67" t="n">
-        <v>0.237521</v>
+        <v>0.236838</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297198</v>
+        <v>0.293507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.228407</v>
+        <v>0.22875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242878</v>
+        <v>0.243205</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.305948</v>
+        <v>0.306304</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229006</v>
+        <v>0.23099</v>
       </c>
       <c r="D69" t="n">
-        <v>0.245478</v>
+        <v>0.246649</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.309344</v>
+        <v>0.31145</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236151</v>
+        <v>0.23707</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250452</v>
+        <v>0.25125</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.317689</v>
+        <v>0.320677</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241894</v>
+        <v>0.244063</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255872</v>
+        <v>0.258035</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.328948</v>
+        <v>0.333675</v>
       </c>
       <c r="C72" t="n">
-        <v>0.24921</v>
+        <v>0.250548</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262508</v>
+        <v>0.265593</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.34052</v>
+        <v>0.344898</v>
       </c>
       <c r="C73" t="n">
-        <v>0.256896</v>
+        <v>0.257468</v>
       </c>
       <c r="D73" t="n">
-        <v>0.269661</v>
+        <v>0.272829</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.353818</v>
+        <v>0.356879</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264927</v>
+        <v>0.266838</v>
       </c>
       <c r="D74" t="n">
-        <v>0.277921</v>
+        <v>0.279265</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368921</v>
+        <v>0.373011</v>
       </c>
       <c r="C75" t="n">
-        <v>0.273944</v>
+        <v>0.275528</v>
       </c>
       <c r="D75" t="n">
-        <v>0.285821</v>
+        <v>0.287711</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.409298</v>
+        <v>0.402372</v>
       </c>
       <c r="C76" t="n">
-        <v>0.28391</v>
+        <v>0.283372</v>
       </c>
       <c r="D76" t="n">
-        <v>0.295158</v>
+        <v>0.298553</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.404718</v>
+        <v>0.411427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.293908</v>
+        <v>0.294917</v>
       </c>
       <c r="D77" t="n">
-        <v>0.305504</v>
+        <v>0.306892</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.436403</v>
+        <v>0.430743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.28122</v>
+        <v>0.281345</v>
       </c>
       <c r="D78" t="n">
-        <v>0.293187</v>
+        <v>0.298477</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.440541</v>
+        <v>0.439153</v>
       </c>
       <c r="C79" t="n">
-        <v>0.28861</v>
+        <v>0.294096</v>
       </c>
       <c r="D79" t="n">
-        <v>0.311906</v>
+        <v>0.312776</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.458927</v>
+        <v>0.457866</v>
       </c>
       <c r="C80" t="n">
-        <v>0.301042</v>
+        <v>0.302913</v>
       </c>
       <c r="D80" t="n">
-        <v>0.321656</v>
+        <v>0.321346</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.475706</v>
+        <v>0.475886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.313132</v>
+        <v>0.313447</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335444</v>
+        <v>0.336812</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.494327</v>
+        <v>0.490922</v>
       </c>
       <c r="C82" t="n">
-        <v>0.32462</v>
+        <v>0.329278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.34752</v>
+        <v>0.348378</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.510054</v>
+        <v>0.511953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.339102</v>
+        <v>0.340846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361103</v>
+        <v>0.36353</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.529315</v>
+        <v>0.531728</v>
       </c>
       <c r="C84" t="n">
-        <v>0.351826</v>
+        <v>0.354032</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375805</v>
+        <v>0.379454</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.54958</v>
+        <v>0.55265</v>
       </c>
       <c r="C85" t="n">
-        <v>0.368548</v>
+        <v>0.373645</v>
       </c>
       <c r="D85" t="n">
-        <v>0.391153</v>
+        <v>0.398336</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.571914</v>
+        <v>0.576247</v>
       </c>
       <c r="C86" t="n">
-        <v>0.384319</v>
+        <v>0.390902</v>
       </c>
       <c r="D86" t="n">
-        <v>0.406853</v>
+        <v>0.412194</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5951610000000001</v>
+        <v>0.59873</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398009</v>
+        <v>0.402168</v>
       </c>
       <c r="D87" t="n">
-        <v>0.423187</v>
+        <v>0.428562</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.61664</v>
+        <v>0.6215039999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.413947</v>
+        <v>0.417524</v>
       </c>
       <c r="D88" t="n">
-        <v>0.443759</v>
+        <v>0.44804</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.640073</v>
+        <v>0.644921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.430151</v>
+        <v>0.434447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.460119</v>
+        <v>0.465528</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6636570000000001</v>
+        <v>0.668714</v>
       </c>
       <c r="C90" t="n">
-        <v>0.441981</v>
+        <v>0.44483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.479747</v>
+        <v>0.484191</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.661567</v>
+        <v>0.672086</v>
       </c>
       <c r="C91" t="n">
-        <v>0.465042</v>
+        <v>0.469897</v>
       </c>
       <c r="D91" t="n">
-        <v>0.489921</v>
+        <v>0.49491</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682245</v>
+        <v>0.683339</v>
       </c>
       <c r="C92" t="n">
-        <v>0.466828</v>
+        <v>0.469626</v>
       </c>
       <c r="D92" t="n">
-        <v>0.501785</v>
+        <v>0.491871</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.692008</v>
+        <v>0.69479</v>
       </c>
       <c r="C93" t="n">
-        <v>0.477711</v>
+        <v>0.467423</v>
       </c>
       <c r="D93" t="n">
-        <v>0.515019</v>
+        <v>0.5037430000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.700215</v>
+        <v>0.704194</v>
       </c>
       <c r="C94" t="n">
-        <v>0.486479</v>
+        <v>0.481556</v>
       </c>
       <c r="D94" t="n">
-        <v>0.523912</v>
+        <v>0.518497</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.712573</v>
+        <v>0.715859</v>
       </c>
       <c r="C95" t="n">
-        <v>0.48503</v>
+        <v>0.492858</v>
       </c>
       <c r="D95" t="n">
-        <v>0.526327</v>
+        <v>0.534339</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.724603</v>
+        <v>0.725863</v>
       </c>
       <c r="C96" t="n">
-        <v>0.493456</v>
+        <v>0.496069</v>
       </c>
       <c r="D96" t="n">
-        <v>0.537324</v>
+        <v>0.548401</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.739159</v>
+        <v>0.741211</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5190399999999999</v>
+        <v>0.520954</v>
       </c>
       <c r="D97" t="n">
-        <v>0.563075</v>
+        <v>0.5637720000000001</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.755321</v>
+        <v>0.756906</v>
       </c>
       <c r="C98" t="n">
-        <v>0.529953</v>
+        <v>0.534007</v>
       </c>
       <c r="D98" t="n">
-        <v>0.576827</v>
+        <v>0.579966</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.770726</v>
+        <v>0.772757</v>
       </c>
       <c r="C99" t="n">
-        <v>0.54278</v>
+        <v>0.546271</v>
       </c>
       <c r="D99" t="n">
-        <v>0.58953</v>
+        <v>0.592836</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.788239</v>
+        <v>0.78968</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5568149999999999</v>
+        <v>0.560409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.606369</v>
+        <v>0.608193</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.806168</v>
+        <v>0.807828</v>
       </c>
       <c r="C101" t="n">
-        <v>0.571421</v>
+        <v>0.5751810000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.619712</v>
+        <v>0.621891</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.825394</v>
+        <v>0.826465</v>
       </c>
       <c r="C102" t="n">
-        <v>0.58819</v>
+        <v>0.591145</v>
       </c>
       <c r="D102" t="n">
-        <v>0.635229</v>
+        <v>0.637703</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.845617</v>
+        <v>0.846129</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603565</v>
+        <v>0.606618</v>
       </c>
       <c r="D103" t="n">
-        <v>0.650004</v>
+        <v>0.651932</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8665310000000001</v>
+        <v>0.866944</v>
       </c>
       <c r="C104" t="n">
-        <v>0.620402</v>
+        <v>0.622827</v>
       </c>
       <c r="D104" t="n">
-        <v>0.665533</v>
+        <v>0.666946</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.794696</v>
+        <v>0.79152</v>
       </c>
       <c r="C105" t="n">
-        <v>0.639611</v>
+        <v>0.634998</v>
       </c>
       <c r="D105" t="n">
-        <v>0.684398</v>
+        <v>0.686406</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.794974</v>
+        <v>0.791428</v>
       </c>
       <c r="C106" t="n">
-        <v>0.65161</v>
+        <v>0.6582209999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.700906</v>
+        <v>0.705562</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.803415</v>
+        <v>0.7980930000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592571</v>
+        <v>0.592097</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64699</v>
+        <v>0.64579</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8111660000000001</v>
+        <v>0.814032</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6007169999999999</v>
+        <v>0.598838</v>
       </c>
       <c r="D108" t="n">
-        <v>0.65551</v>
+        <v>0.653933</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8214089999999999</v>
+        <v>0.823302</v>
       </c>
       <c r="C109" t="n">
-        <v>0.609777</v>
+        <v>0.610695</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6670199999999999</v>
+        <v>0.667643</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.832492</v>
+        <v>0.834792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.605842</v>
+        <v>0.620466</v>
       </c>
       <c r="D110" t="n">
-        <v>0.677818</v>
+        <v>0.68024</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.834555</v>
+        <v>0.846175</v>
       </c>
       <c r="C111" t="n">
-        <v>0.629843</v>
+        <v>0.617293</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681148</v>
+        <v>0.691031</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.858838</v>
+        <v>0.8595159999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.642232</v>
+        <v>0.643557</v>
       </c>
       <c r="D112" t="n">
-        <v>0.704255</v>
+        <v>0.70548</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.872703</v>
+        <v>0.8742</v>
       </c>
       <c r="C113" t="n">
-        <v>0.654787</v>
+        <v>0.656259</v>
       </c>
       <c r="D113" t="n">
-        <v>0.71688</v>
+        <v>0.718059</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.888365</v>
+        <v>0.889711</v>
       </c>
       <c r="C114" t="n">
-        <v>0.668683</v>
+        <v>0.669702</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7312419999999999</v>
+        <v>0.732517</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.905661</v>
+        <v>0.906822</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6827</v>
+        <v>0.684235</v>
       </c>
       <c r="D115" t="n">
-        <v>0.745553</v>
+        <v>0.746192</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.923673</v>
+        <v>0.9243980000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.698161</v>
+        <v>0.698881</v>
       </c>
       <c r="D116" t="n">
-        <v>0.757833</v>
+        <v>0.759399</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.943573</v>
+        <v>0.944156</v>
       </c>
       <c r="C117" t="n">
-        <v>0.713816</v>
+        <v>0.714583</v>
       </c>
       <c r="D117" t="n">
-        <v>0.772312</v>
+        <v>0.773609</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.964107</v>
+        <v>0.9648330000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7304</v>
+        <v>0.731083</v>
       </c>
       <c r="D118" t="n">
-        <v>0.788802</v>
+        <v>0.7906300000000001</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.854198</v>
+        <v>0.8550179999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.747742</v>
+        <v>0.749004</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8029849999999999</v>
+        <v>0.804251</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248671</v>
+        <v>0.248416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164097</v>
+        <v>0.163676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15446</v>
+        <v>0.154113</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219224</v>
+        <v>0.221189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167061</v>
+        <v>0.167634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153589</v>
+        <v>0.153354</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223782</v>
+        <v>0.226567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.173318</v>
+        <v>0.170339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.161132</v>
+        <v>0.159185</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231081</v>
+        <v>0.232726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.179467</v>
+        <v>0.176739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162379</v>
+        <v>0.161498</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231356</v>
+        <v>0.232264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185789</v>
+        <v>0.182083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.167187</v>
+        <v>0.166188</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.235977</v>
+        <v>0.238789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164758</v>
+        <v>0.16939</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160533</v>
+        <v>0.166576</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234915</v>
+        <v>0.236167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170659</v>
+        <v>0.168913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163667</v>
+        <v>0.168908</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.239131</v>
+        <v>0.237805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179891</v>
+        <v>0.173831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170268</v>
+        <v>0.166835</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2436</v>
+        <v>0.243789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180905</v>
+        <v>0.178968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.170738</v>
+        <v>0.169484</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242657</v>
+        <v>0.242747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180386</v>
+        <v>0.17482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171427</v>
+        <v>0.170292</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.255987</v>
+        <v>0.25431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190622</v>
+        <v>0.187432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176786</v>
+        <v>0.176103</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25807</v>
+        <v>0.257082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189147</v>
+        <v>0.188484</v>
       </c>
       <c r="D13" t="n">
-        <v>0.179702</v>
+        <v>0.18219</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.260297</v>
+        <v>0.259719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19256</v>
+        <v>0.187603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.178534</v>
+        <v>0.180193</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268073</v>
+        <v>0.267048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.195433</v>
+        <v>0.194177</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182804</v>
+        <v>0.183921</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273774</v>
+        <v>0.272366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200455</v>
+        <v>0.198538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.184122</v>
+        <v>0.186115</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.279879</v>
+        <v>0.278003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.204252</v>
+        <v>0.202453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.189056</v>
+        <v>0.193331</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254545</v>
+        <v>0.258468</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202752</v>
+        <v>0.208365</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187617</v>
+        <v>0.190765</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260745</v>
+        <v>0.26144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214911</v>
+        <v>0.212526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1937</v>
+        <v>0.193562</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265568</v>
+        <v>0.264185</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2209</v>
+        <v>0.218336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19613</v>
+        <v>0.197309</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272634</v>
+        <v>0.272626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195744</v>
+        <v>0.192845</v>
       </c>
       <c r="D21" t="n">
-        <v>0.19186</v>
+        <v>0.192733</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.274618</v>
+        <v>0.274533</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208943</v>
+        <v>0.205389</v>
       </c>
       <c r="D22" t="n">
-        <v>0.196815</v>
+        <v>0.195252</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27858</v>
+        <v>0.277918</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209784</v>
+        <v>0.208782</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198051</v>
+        <v>0.197429</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281617</v>
+        <v>0.279965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21764</v>
+        <v>0.210612</v>
       </c>
       <c r="D24" t="n">
-        <v>0.202673</v>
+        <v>0.202034</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284948</v>
+        <v>0.283837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22792</v>
+        <v>0.226217</v>
       </c>
       <c r="D25" t="n">
-        <v>0.202944</v>
+        <v>0.205256</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293801</v>
+        <v>0.29345</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228502</v>
+        <v>0.226113</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20629</v>
+        <v>0.208469</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295061</v>
+        <v>0.294233</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233819</v>
+        <v>0.232312</v>
       </c>
       <c r="D27" t="n">
-        <v>0.212225</v>
+        <v>0.210472</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29791</v>
+        <v>0.297207</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236723</v>
+        <v>0.235096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213638</v>
+        <v>0.213119</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.308136</v>
+        <v>0.306846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240327</v>
+        <v>0.238869</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215916</v>
+        <v>0.214897</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31153</v>
+        <v>0.31064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.252065</v>
+        <v>0.25069</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219825</v>
+        <v>0.219737</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314841</v>
+        <v>0.313953</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251514</v>
+        <v>0.25019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221884</v>
+        <v>0.221754</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281122</v>
+        <v>0.280537</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258679</v>
+        <v>0.258656</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225879</v>
+        <v>0.225872</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286628</v>
+        <v>0.286265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267479</v>
+        <v>0.266274</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229738</v>
+        <v>0.229237</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291862</v>
+        <v>0.291295</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270737</v>
+        <v>0.270071</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232827</v>
+        <v>0.232373</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292737</v>
+        <v>0.292557</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215277</v>
+        <v>0.213925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211257</v>
+        <v>0.210102</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297874</v>
+        <v>0.297456</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22166</v>
+        <v>0.220585</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212425</v>
+        <v>0.212163</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304472</v>
+        <v>0.304328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.223578</v>
+        <v>0.223338</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214638</v>
+        <v>0.215102</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306971</v>
+        <v>0.306696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227979</v>
+        <v>0.2276</v>
       </c>
       <c r="D38" t="n">
-        <v>0.217356</v>
+        <v>0.216816</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313564</v>
+        <v>0.313556</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234001</v>
+        <v>0.232571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219541</v>
+        <v>0.219529</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321973</v>
+        <v>0.321506</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2362</v>
+        <v>0.236101</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221144</v>
+        <v>0.221307</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327504</v>
+        <v>0.327427</v>
       </c>
       <c r="C41" t="n">
-        <v>0.240385</v>
+        <v>0.240762</v>
       </c>
       <c r="D41" t="n">
-        <v>0.22388</v>
+        <v>0.223068</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332463</v>
+        <v>0.332042</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241718</v>
+        <v>0.241122</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224984</v>
+        <v>0.224858</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337768</v>
+        <v>0.337928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246491</v>
+        <v>0.246008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227418</v>
+        <v>0.227349</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340777</v>
+        <v>0.341007</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250692</v>
+        <v>0.250435</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228794</v>
+        <v>0.229006</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348754</v>
+        <v>0.349329</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254493</v>
+        <v>0.254079</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230963</v>
+        <v>0.231259</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349882</v>
+        <v>0.350163</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254618</v>
+        <v>0.254603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232887</v>
+        <v>0.232711</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289488</v>
+        <v>0.289675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259131</v>
+        <v>0.259823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.235602</v>
+        <v>0.234961</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294534</v>
+        <v>0.294131</v>
       </c>
       <c r="C48" t="n">
-        <v>0.26414</v>
+        <v>0.26359</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23643</v>
+        <v>0.235649</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.298015</v>
+        <v>0.298484</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269801</v>
+        <v>0.269255</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239563</v>
+        <v>0.239227</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301939</v>
+        <v>0.302304</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241103</v>
+        <v>0.240809</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224876</v>
+        <v>0.224328</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304524</v>
+        <v>0.304856</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243889</v>
+        <v>0.243416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226716</v>
+        <v>0.226143</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307297</v>
+        <v>0.307485</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246806</v>
+        <v>0.245977</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227924</v>
+        <v>0.227748</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312706</v>
+        <v>0.312652</v>
       </c>
       <c r="C53" t="n">
-        <v>0.250868</v>
+        <v>0.251831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229362</v>
+        <v>0.229243</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.32068</v>
+        <v>0.320638</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255366</v>
+        <v>0.254842</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232156</v>
+        <v>0.231722</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320509</v>
+        <v>0.32054</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260181</v>
+        <v>0.260084</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234608</v>
+        <v>0.234008</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325784</v>
+        <v>0.326232</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259994</v>
+        <v>0.259713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235141</v>
+        <v>0.23503</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333312</v>
+        <v>0.333797</v>
       </c>
       <c r="C57" t="n">
-        <v>0.267954</v>
+        <v>0.267525</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237622</v>
+        <v>0.237293</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.335055</v>
+        <v>0.334928</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273931</v>
+        <v>0.273728</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241101</v>
+        <v>0.240965</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342737</v>
+        <v>0.342658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280418</v>
+        <v>0.280375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244415</v>
+        <v>0.244284</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347818</v>
+        <v>0.347827</v>
       </c>
       <c r="C60" t="n">
-        <v>0.284451</v>
+        <v>0.284725</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247796</v>
+        <v>0.247847</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305587</v>
+        <v>0.305403</v>
       </c>
       <c r="C61" t="n">
-        <v>0.288942</v>
+        <v>0.289173</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249092</v>
+        <v>0.249127</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.304265</v>
+        <v>0.313923</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293203</v>
+        <v>0.293546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250924</v>
+        <v>0.250791</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.319185</v>
+        <v>0.320238</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298693</v>
+        <v>0.298903</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254542</v>
+        <v>0.254319</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325724</v>
+        <v>0.325838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265018</v>
+        <v>0.260681</v>
       </c>
       <c r="D64" t="n">
-        <v>0.241017</v>
+        <v>0.243328</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3272</v>
+        <v>0.32315</v>
       </c>
       <c r="C65" t="n">
-        <v>0.266689</v>
+        <v>0.266907</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24053</v>
+        <v>0.242216</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.336107</v>
+        <v>0.331442</v>
       </c>
       <c r="C66" t="n">
-        <v>0.271478</v>
+        <v>0.266176</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243666</v>
+        <v>0.242256</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3453</v>
+        <v>0.340914</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265575</v>
+        <v>0.277909</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239674</v>
+        <v>0.246194</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350662</v>
+        <v>0.350078</v>
       </c>
       <c r="C68" t="n">
-        <v>0.281413</v>
+        <v>0.280846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24826</v>
+        <v>0.247884</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.354304</v>
+        <v>0.355594</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279865</v>
+        <v>0.282056</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252742</v>
+        <v>0.252621</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368033</v>
+        <v>0.365626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291798</v>
+        <v>0.290952</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255877</v>
+        <v>0.255539</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.37789</v>
+        <v>0.375936</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298246</v>
+        <v>0.29737</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258798</v>
+        <v>0.257446</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.387742</v>
+        <v>0.385407</v>
       </c>
       <c r="C72" t="n">
-        <v>0.304731</v>
+        <v>0.304185</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262917</v>
+        <v>0.262428</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.399987</v>
+        <v>0.396175</v>
       </c>
       <c r="C73" t="n">
-        <v>0.312332</v>
+        <v>0.311953</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268616</v>
+        <v>0.26798</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.40923</v>
+        <v>0.404029</v>
       </c>
       <c r="C74" t="n">
-        <v>0.317834</v>
+        <v>0.316648</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26797</v>
+        <v>0.26753</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.425988</v>
+        <v>0.420916</v>
       </c>
       <c r="C75" t="n">
-        <v>0.324595</v>
+        <v>0.322521</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271035</v>
+        <v>0.271138</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.422428</v>
+        <v>0.416935</v>
       </c>
       <c r="C76" t="n">
-        <v>0.333566</v>
+        <v>0.329917</v>
       </c>
       <c r="D76" t="n">
-        <v>0.279875</v>
+        <v>0.278088</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.448907</v>
+        <v>0.441525</v>
       </c>
       <c r="C77" t="n">
-        <v>0.334625</v>
+        <v>0.342233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270379</v>
+        <v>0.280867</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.466107</v>
+        <v>0.457943</v>
       </c>
       <c r="C78" t="n">
-        <v>0.304651</v>
+        <v>0.298092</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278835</v>
+        <v>0.276481</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.494497</v>
+        <v>0.490459</v>
       </c>
       <c r="C79" t="n">
-        <v>0.305918</v>
+        <v>0.30428</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272248</v>
+        <v>0.275991</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.506679</v>
+        <v>0.513558</v>
       </c>
       <c r="C80" t="n">
-        <v>0.322747</v>
+        <v>0.29654</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276002</v>
+        <v>0.285151</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.545409</v>
+        <v>0.539956</v>
       </c>
       <c r="C81" t="n">
-        <v>0.333249</v>
+        <v>0.334044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.294654</v>
+        <v>0.294299</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.571398</v>
+        <v>0.572645</v>
       </c>
       <c r="C82" t="n">
-        <v>0.352051</v>
+        <v>0.317234</v>
       </c>
       <c r="D82" t="n">
-        <v>0.288209</v>
+        <v>0.294176</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.613147</v>
+        <v>0.60279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360999</v>
+        <v>0.340805</v>
       </c>
       <c r="D83" t="n">
-        <v>0.311472</v>
+        <v>0.298513</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.649734</v>
+        <v>0.648779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.374258</v>
+        <v>0.370866</v>
       </c>
       <c r="D84" t="n">
-        <v>0.324385</v>
+        <v>0.308874</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.67841</v>
+        <v>0.6892740000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.389128</v>
+        <v>0.399673</v>
       </c>
       <c r="D85" t="n">
-        <v>0.318904</v>
+        <v>0.329786</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7260799999999999</v>
+        <v>0.720039</v>
       </c>
       <c r="C86" t="n">
-        <v>0.414513</v>
+        <v>0.414537</v>
       </c>
       <c r="D86" t="n">
-        <v>0.343313</v>
+        <v>0.335242</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.764213</v>
+        <v>0.760581</v>
       </c>
       <c r="C87" t="n">
-        <v>0.439248</v>
+        <v>0.438556</v>
       </c>
       <c r="D87" t="n">
-        <v>0.357196</v>
+        <v>0.359224</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8056449999999999</v>
+        <v>0.803634</v>
       </c>
       <c r="C88" t="n">
-        <v>0.465483</v>
+        <v>0.461882</v>
       </c>
       <c r="D88" t="n">
-        <v>0.371486</v>
+        <v>0.365311</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.860492</v>
+        <v>0.858023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.495504</v>
+        <v>0.49281</v>
       </c>
       <c r="D89" t="n">
-        <v>0.390631</v>
+        <v>0.386546</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.844951</v>
+        <v>0.857325</v>
       </c>
       <c r="C90" t="n">
-        <v>0.514688</v>
+        <v>0.501208</v>
       </c>
       <c r="D90" t="n">
-        <v>0.408852</v>
+        <v>0.395367</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.895124</v>
+        <v>0.886453</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5591390000000001</v>
+        <v>0.547644</v>
       </c>
       <c r="D91" t="n">
-        <v>0.427782</v>
+        <v>0.402469</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.927557</v>
+        <v>0.911476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.559867</v>
+        <v>0.558962</v>
       </c>
       <c r="D92" t="n">
-        <v>0.503645</v>
+        <v>0.489936</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.953409</v>
+        <v>0.955512</v>
       </c>
       <c r="C93" t="n">
-        <v>0.583472</v>
+        <v>0.584221</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521853</v>
+        <v>0.519805</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992805</v>
+        <v>0.996417</v>
       </c>
       <c r="C94" t="n">
-        <v>0.606224</v>
+        <v>0.610022</v>
       </c>
       <c r="D94" t="n">
-        <v>0.535791</v>
+        <v>0.537257</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03091</v>
+        <v>1.03142</v>
       </c>
       <c r="C95" t="n">
-        <v>0.632254</v>
+        <v>0.634597</v>
       </c>
       <c r="D95" t="n">
-        <v>0.550448</v>
+        <v>0.550773</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06371</v>
+        <v>1.06561</v>
       </c>
       <c r="C96" t="n">
-        <v>0.661335</v>
+        <v>0.6633019999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.566401</v>
+        <v>0.569375</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10019</v>
+        <v>1.10298</v>
       </c>
       <c r="C97" t="n">
-        <v>0.688453</v>
+        <v>0.690741</v>
       </c>
       <c r="D97" t="n">
-        <v>0.589966</v>
+        <v>0.576929</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.13257</v>
+        <v>1.12543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.718662</v>
+        <v>0.705261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.61256</v>
+        <v>0.615009</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16813</v>
+        <v>1.17334</v>
       </c>
       <c r="C99" t="n">
-        <v>0.750421</v>
+        <v>0.751684</v>
       </c>
       <c r="D99" t="n">
-        <v>0.631195</v>
+        <v>0.631391</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20788</v>
+        <v>1.21113</v>
       </c>
       <c r="C100" t="n">
-        <v>0.779902</v>
+        <v>0.781478</v>
       </c>
       <c r="D100" t="n">
-        <v>0.651399</v>
+        <v>0.650591</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24218</v>
+        <v>1.24558</v>
       </c>
       <c r="C101" t="n">
-        <v>0.80688</v>
+        <v>0.808691</v>
       </c>
       <c r="D101" t="n">
-        <v>0.666706</v>
+        <v>0.667638</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.27524</v>
+        <v>1.27879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.842809</v>
+        <v>0.843763</v>
       </c>
       <c r="D102" t="n">
-        <v>0.689771</v>
+        <v>0.692604</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31001</v>
+        <v>1.31489</v>
       </c>
       <c r="C103" t="n">
-        <v>0.873475</v>
+        <v>0.874254</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7065630000000001</v>
+        <v>0.7101730000000001</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34941</v>
+        <v>1.35497</v>
       </c>
       <c r="C104" t="n">
-        <v>0.903163</v>
+        <v>0.9051630000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.728554</v>
+        <v>0.731738</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23957</v>
+        <v>1.24598</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935439</v>
+        <v>0.937048</v>
       </c>
       <c r="D105" t="n">
-        <v>0.744269</v>
+        <v>0.745827</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26406</v>
+        <v>1.26599</v>
       </c>
       <c r="C106" t="n">
-        <v>0.971743</v>
+        <v>0.973392</v>
       </c>
       <c r="D106" t="n">
-        <v>0.77567</v>
+        <v>0.776691</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.29087</v>
+        <v>1.29397</v>
       </c>
       <c r="C107" t="n">
-        <v>0.863794</v>
+        <v>0.877543</v>
       </c>
       <c r="D107" t="n">
-        <v>0.783224</v>
+        <v>0.762391</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.31592</v>
+        <v>1.32019</v>
       </c>
       <c r="C108" t="n">
-        <v>0.891317</v>
+        <v>0.892293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.795757</v>
+        <v>0.79628</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33985</v>
+        <v>1.34124</v>
       </c>
       <c r="C109" t="n">
-        <v>0.918533</v>
+        <v>0.919624</v>
       </c>
       <c r="D109" t="n">
-        <v>0.816846</v>
+        <v>0.815619</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36263</v>
+        <v>1.36279</v>
       </c>
       <c r="C110" t="n">
-        <v>0.938728</v>
+        <v>0.939587</v>
       </c>
       <c r="D110" t="n">
-        <v>0.829924</v>
+        <v>0.82863</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38089</v>
+        <v>1.38765</v>
       </c>
       <c r="C111" t="n">
-        <v>0.959901</v>
+        <v>0.960342</v>
       </c>
       <c r="D111" t="n">
-        <v>0.838163</v>
+        <v>0.843231</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40832</v>
+        <v>1.41399</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9843499999999999</v>
+        <v>0.9868749999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.847795</v>
+        <v>0.859977</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4259</v>
+        <v>1.43935</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0003</v>
+        <v>1.01159</v>
       </c>
       <c r="D113" t="n">
-        <v>0.870317</v>
+        <v>0.873055</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46635</v>
+        <v>1.46968</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03306</v>
+        <v>1.03218</v>
       </c>
       <c r="D114" t="n">
-        <v>0.884123</v>
+        <v>0.886034</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49435</v>
+        <v>1.49688</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06159</v>
+        <v>1.06039</v>
       </c>
       <c r="D115" t="n">
-        <v>0.900532</v>
+        <v>0.898828</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52662</v>
+        <v>1.52828</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08893</v>
+        <v>1.08773</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9138540000000001</v>
+        <v>0.914958</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.5596</v>
+        <v>1.56184</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11301</v>
+        <v>1.11241</v>
       </c>
       <c r="D117" t="n">
-        <v>0.929412</v>
+        <v>0.931969</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59131</v>
+        <v>1.59558</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14493</v>
+        <v>1.14461</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946661</v>
+        <v>0.946014</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.4203</v>
+        <v>1.42226</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1683</v>
+        <v>1.1724</v>
       </c>
       <c r="D119" t="n">
-        <v>0.958499</v>
+        <v>0.959731</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390876</v>
+        <v>0.389429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287154</v>
+        <v>0.283159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220642</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.403833</v>
+        <v>0.398075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.294807</v>
+        <v>0.286054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221179</v>
+        <v>0.219549</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.416146</v>
+        <v>0.411368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.309757</v>
+        <v>0.300698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231388</v>
+        <v>0.230755</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420734</v>
+        <v>0.41606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.321595</v>
+        <v>0.309043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237557</v>
+        <v>0.236399</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.437464</v>
+        <v>0.433198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332549</v>
+        <v>0.320804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239473</v>
+        <v>0.237549</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.452551</v>
+        <v>0.444272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.34013</v>
+        <v>0.328718</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24842</v>
+        <v>0.245687</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.466865</v>
+        <v>0.462289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.358754</v>
+        <v>0.352435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257535</v>
+        <v>0.255732</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.487676</v>
+        <v>0.483408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.374152</v>
+        <v>0.368253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.268742</v>
+        <v>0.266852</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500133</v>
+        <v>0.499407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.394083</v>
+        <v>0.385384</v>
       </c>
       <c r="D10" t="n">
-        <v>0.277382</v>
+        <v>0.275694</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5216420000000001</v>
+        <v>0.515313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299178</v>
+        <v>0.290846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223213</v>
+        <v>0.221307</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39087</v>
+        <v>0.385913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.302442</v>
+        <v>0.299373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2252</v>
+        <v>0.223061</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.401277</v>
+        <v>0.397138</v>
       </c>
       <c r="C13" t="n">
-        <v>0.314164</v>
+        <v>0.30948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232244</v>
+        <v>0.229278</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.414087</v>
+        <v>0.406577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.325582</v>
+        <v>0.318301</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236857</v>
+        <v>0.236072</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.431888</v>
+        <v>0.424004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.338821</v>
+        <v>0.330129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.240433</v>
+        <v>0.239174</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.443404</v>
+        <v>0.434394</v>
       </c>
       <c r="C16" t="n">
-        <v>0.352578</v>
+        <v>0.351727</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24937</v>
+        <v>0.247922</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451459</v>
+        <v>0.448271</v>
       </c>
       <c r="C17" t="n">
-        <v>0.364797</v>
+        <v>0.359895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25584</v>
+        <v>0.253495</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.47413</v>
+        <v>0.468482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.374587</v>
+        <v>0.365509</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254224</v>
+        <v>0.252873</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.487196</v>
+        <v>0.47769</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397675</v>
+        <v>0.388085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.265093</v>
+        <v>0.26374</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5048</v>
+        <v>0.5005270000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.41458</v>
+        <v>0.406098</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276569</v>
+        <v>0.273733</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523097</v>
+        <v>0.513894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.432939</v>
+        <v>0.423214</v>
       </c>
       <c r="D21" t="n">
-        <v>0.290655</v>
+        <v>0.287771</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.545168</v>
+        <v>0.537802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.454742</v>
+        <v>0.448235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.297218</v>
+        <v>0.291548</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560984</v>
+        <v>0.555149</v>
       </c>
       <c r="C23" t="n">
-        <v>0.47801</v>
+        <v>0.467799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308398</v>
+        <v>0.305035</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.598312</v>
+        <v>0.588403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.491251</v>
+        <v>0.486424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.317014</v>
+        <v>0.314903</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.628131</v>
+        <v>0.623848</v>
       </c>
       <c r="C25" t="n">
-        <v>0.521861</v>
+        <v>0.511467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.332494</v>
+        <v>0.325875</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6518119999999999</v>
+        <v>0.647226</v>
       </c>
       <c r="C26" t="n">
-        <v>0.326895</v>
+        <v>0.322403</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235275</v>
+        <v>0.234839</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.428622</v>
+        <v>0.426847</v>
       </c>
       <c r="C27" t="n">
-        <v>0.331319</v>
+        <v>0.329167</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237587</v>
+        <v>0.237653</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.443486</v>
+        <v>0.441738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.34091</v>
+        <v>0.339855</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244835</v>
+        <v>0.244228</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.457705</v>
+        <v>0.456749</v>
       </c>
       <c r="C29" t="n">
-        <v>0.348272</v>
+        <v>0.345346</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253142</v>
+        <v>0.251943</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.475181</v>
+        <v>0.473936</v>
       </c>
       <c r="C30" t="n">
-        <v>0.36631</v>
+        <v>0.362517</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260755</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496124</v>
+        <v>0.493884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.378312</v>
+        <v>0.373894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2627</v>
+        <v>0.263286</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508255</v>
+        <v>0.5078</v>
       </c>
       <c r="C32" t="n">
-        <v>0.39406</v>
+        <v>0.390809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.273681</v>
+        <v>0.274181</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.536899</v>
+        <v>0.534453</v>
       </c>
       <c r="C33" t="n">
-        <v>0.408712</v>
+        <v>0.406211</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287082</v>
+        <v>0.287586</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.551141</v>
+        <v>0.54921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.425342</v>
+        <v>0.42323</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293897</v>
+        <v>0.292389</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.576478</v>
+        <v>0.575011</v>
       </c>
       <c r="C35" t="n">
-        <v>0.445781</v>
+        <v>0.444393</v>
       </c>
       <c r="D35" t="n">
-        <v>0.300231</v>
+        <v>0.301731</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5931110000000001</v>
+        <v>0.591744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.463061</v>
+        <v>0.459882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312441</v>
+        <v>0.311857</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6114270000000001</v>
+        <v>0.607227</v>
       </c>
       <c r="C37" t="n">
-        <v>0.485755</v>
+        <v>0.484469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323408</v>
+        <v>0.322691</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.632785</v>
+        <v>0.632677</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506583</v>
+        <v>0.504225</v>
       </c>
       <c r="D38" t="n">
-        <v>0.333155</v>
+        <v>0.332573</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669138</v>
+        <v>0.667421</v>
       </c>
       <c r="C39" t="n">
-        <v>0.526537</v>
+        <v>0.52442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.342235</v>
+        <v>0.342211</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.688886</v>
+        <v>0.689855</v>
       </c>
       <c r="C40" t="n">
-        <v>0.379656</v>
+        <v>0.379132</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280882</v>
+        <v>0.280541</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.501607</v>
+        <v>0.5011679999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.391005</v>
+        <v>0.391343</v>
       </c>
       <c r="D41" t="n">
-        <v>0.286259</v>
+        <v>0.286818</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513985</v>
+        <v>0.513313</v>
       </c>
       <c r="C42" t="n">
-        <v>0.403275</v>
+        <v>0.402506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2928</v>
+        <v>0.293303</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.526383</v>
+        <v>0.526417</v>
       </c>
       <c r="C43" t="n">
-        <v>0.415148</v>
+        <v>0.415132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299485</v>
+        <v>0.299987</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542756</v>
+        <v>0.542107</v>
       </c>
       <c r="C44" t="n">
-        <v>0.432666</v>
+        <v>0.432325</v>
       </c>
       <c r="D44" t="n">
-        <v>0.309991</v>
+        <v>0.310222</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.560356</v>
+        <v>0.559436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.444766</v>
+        <v>0.444435</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313728</v>
+        <v>0.314046</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.571507</v>
+        <v>0.571453</v>
       </c>
       <c r="C46" t="n">
-        <v>0.460851</v>
+        <v>0.461079</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322555</v>
+        <v>0.323136</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.59385</v>
+        <v>0.594386</v>
       </c>
       <c r="C47" t="n">
-        <v>0.476283</v>
+        <v>0.475532</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332291</v>
+        <v>0.331752</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.610868</v>
+        <v>0.611473</v>
       </c>
       <c r="C48" t="n">
-        <v>0.491484</v>
+        <v>0.490146</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342477</v>
+        <v>0.342892</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.622906</v>
+        <v>0.623687</v>
       </c>
       <c r="C49" t="n">
-        <v>0.508836</v>
+        <v>0.5080750000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349871</v>
+        <v>0.349884</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.651273</v>
+        <v>0.651587</v>
       </c>
       <c r="C50" t="n">
-        <v>0.524992</v>
+        <v>0.525076</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359086</v>
+        <v>0.359261</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6755139999999999</v>
+        <v>0.677509</v>
       </c>
       <c r="C51" t="n">
-        <v>0.545559</v>
+        <v>0.545394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370801</v>
+        <v>0.371254</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7009339999999999</v>
+        <v>0.701254</v>
       </c>
       <c r="C52" t="n">
-        <v>0.568448</v>
+        <v>0.567866</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38117</v>
+        <v>0.381693</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.726135</v>
+        <v>0.7262110000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.590286</v>
+        <v>0.588867</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39336</v>
+        <v>0.393371</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75034</v>
+        <v>0.751842</v>
       </c>
       <c r="C54" t="n">
-        <v>0.425504</v>
+        <v>0.425235</v>
       </c>
       <c r="D54" t="n">
-        <v>0.314084</v>
+        <v>0.314161</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.782967</v>
+        <v>0.782721</v>
       </c>
       <c r="C55" t="n">
-        <v>0.433379</v>
+        <v>0.433404</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319026</v>
+        <v>0.319284</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536736</v>
+        <v>0.536656</v>
       </c>
       <c r="C56" t="n">
-        <v>0.447637</v>
+        <v>0.4474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.326144</v>
+        <v>0.326174</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.549461</v>
+        <v>0.549364</v>
       </c>
       <c r="C57" t="n">
-        <v>0.458127</v>
+        <v>0.457971</v>
       </c>
       <c r="D57" t="n">
-        <v>0.33305</v>
+        <v>0.333259</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565811</v>
+        <v>0.565795</v>
       </c>
       <c r="C58" t="n">
-        <v>0.470457</v>
+        <v>0.470046</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337069</v>
+        <v>0.337782</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.580091</v>
+        <v>0.5803199999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.486267</v>
+        <v>0.484916</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345765</v>
+        <v>0.346284</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588869</v>
+        <v>0.588768</v>
       </c>
       <c r="C60" t="n">
-        <v>0.49936</v>
+        <v>0.498674</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351494</v>
+        <v>0.351583</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608611</v>
+        <v>0.608603</v>
       </c>
       <c r="C61" t="n">
-        <v>0.513753</v>
+        <v>0.511703</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359285</v>
+        <v>0.35928</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628997</v>
+        <v>0.628558</v>
       </c>
       <c r="C62" t="n">
-        <v>0.527222</v>
+        <v>0.525348</v>
       </c>
       <c r="D62" t="n">
-        <v>0.368226</v>
+        <v>0.367948</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6477039999999999</v>
+        <v>0.647599</v>
       </c>
       <c r="C63" t="n">
-        <v>0.547113</v>
+        <v>0.546576</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375339</v>
+        <v>0.375595</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6705410000000001</v>
+        <v>0.671411</v>
       </c>
       <c r="C64" t="n">
-        <v>0.561187</v>
+        <v>0.560683</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386104</v>
+        <v>0.386431</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.695843</v>
+        <v>0.697962</v>
       </c>
       <c r="C65" t="n">
-        <v>0.583914</v>
+        <v>0.58386</v>
       </c>
       <c r="D65" t="n">
-        <v>0.396866</v>
+        <v>0.397671</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.721799</v>
+        <v>0.721312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.603356</v>
+        <v>0.599924</v>
       </c>
       <c r="D66" t="n">
-        <v>0.406705</v>
+        <v>0.407004</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.756499</v>
+        <v>0.75364</v>
       </c>
       <c r="C67" t="n">
-        <v>0.624206</v>
+        <v>0.62116</v>
       </c>
       <c r="D67" t="n">
-        <v>0.420629</v>
+        <v>0.42005</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7790899999999999</v>
+        <v>0.775153</v>
       </c>
       <c r="C68" t="n">
-        <v>0.417391</v>
+        <v>0.418665</v>
       </c>
       <c r="D68" t="n">
-        <v>0.310159</v>
+        <v>0.312869</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.819425</v>
+        <v>0.818807</v>
       </c>
       <c r="C69" t="n">
-        <v>0.424734</v>
+        <v>0.431225</v>
       </c>
       <c r="D69" t="n">
-        <v>0.314299</v>
+        <v>0.319795</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.541601</v>
+        <v>0.552984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.43893</v>
+        <v>0.448399</v>
       </c>
       <c r="D70" t="n">
-        <v>0.321277</v>
+        <v>0.32981</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.551919</v>
+        <v>0.572837</v>
       </c>
       <c r="C71" t="n">
-        <v>0.452915</v>
+        <v>0.466183</v>
       </c>
       <c r="D71" t="n">
-        <v>0.326516</v>
+        <v>0.336484</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.581692</v>
+        <v>0.60353</v>
       </c>
       <c r="C72" t="n">
-        <v>0.467108</v>
+        <v>0.483489</v>
       </c>
       <c r="D72" t="n">
-        <v>0.334486</v>
+        <v>0.345768</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.596063</v>
+        <v>0.628039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.484487</v>
+        <v>0.504094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.341284</v>
+        <v>0.354776</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.616382</v>
+        <v>0.650396</v>
       </c>
       <c r="C74" t="n">
-        <v>0.499827</v>
+        <v>0.521447</v>
       </c>
       <c r="D74" t="n">
-        <v>0.352174</v>
+        <v>0.36505</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.647023</v>
+        <v>0.686011</v>
       </c>
       <c r="C75" t="n">
-        <v>0.524419</v>
+        <v>0.548201</v>
       </c>
       <c r="D75" t="n">
-        <v>0.363342</v>
+        <v>0.37573</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6795060000000001</v>
+        <v>0.7249</v>
       </c>
       <c r="C76" t="n">
-        <v>0.549249</v>
+        <v>0.575183</v>
       </c>
       <c r="D76" t="n">
-        <v>0.370785</v>
+        <v>0.385807</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.724013</v>
+        <v>0.760535</v>
       </c>
       <c r="C77" t="n">
-        <v>0.579363</v>
+        <v>0.606593</v>
       </c>
       <c r="D77" t="n">
-        <v>0.384239</v>
+        <v>0.399619</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.767748</v>
+        <v>0.808974</v>
       </c>
       <c r="C78" t="n">
-        <v>0.61206</v>
+        <v>0.636431</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400579</v>
+        <v>0.41185</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8217410000000001</v>
+        <v>0.856062</v>
       </c>
       <c r="C79" t="n">
-        <v>0.648735</v>
+        <v>0.6724560000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.414696</v>
+        <v>0.428259</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.884398</v>
+        <v>0.92397</v>
       </c>
       <c r="C80" t="n">
-        <v>0.691064</v>
+        <v>0.718726</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427959</v>
+        <v>0.444554</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.967069</v>
+        <v>1.00254</v>
       </c>
       <c r="C81" t="n">
-        <v>0.748373</v>
+        <v>0.772714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.451674</v>
+        <v>0.46502</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.03711</v>
+        <v>1.07082</v>
       </c>
       <c r="C82" t="n">
-        <v>0.79365</v>
+        <v>0.817427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.464352</v>
+        <v>0.480319</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12681</v>
+        <v>1.1564</v>
       </c>
       <c r="C83" t="n">
-        <v>0.593778</v>
+        <v>0.601616</v>
       </c>
       <c r="D83" t="n">
-        <v>0.378453</v>
+        <v>0.385616</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.2407</v>
+        <v>1.25745</v>
       </c>
       <c r="C84" t="n">
-        <v>0.63114</v>
+        <v>0.640964</v>
       </c>
       <c r="D84" t="n">
-        <v>0.391605</v>
+        <v>0.398929</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.87276</v>
+        <v>0.880242</v>
       </c>
       <c r="C85" t="n">
-        <v>0.676719</v>
+        <v>0.681053</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404707</v>
+        <v>0.413297</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9477179999999999</v>
+        <v>0.950774</v>
       </c>
       <c r="C86" t="n">
-        <v>0.737978</v>
+        <v>0.740055</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432012</v>
+        <v>0.433159</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02303</v>
+        <v>1.02433</v>
       </c>
       <c r="C87" t="n">
-        <v>0.799548</v>
+        <v>0.795268</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452074</v>
+        <v>0.456222</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09845</v>
+        <v>1.09824</v>
       </c>
       <c r="C88" t="n">
-        <v>0.876012</v>
+        <v>0.870128</v>
       </c>
       <c r="D88" t="n">
-        <v>0.484185</v>
+        <v>0.482512</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18749</v>
+        <v>1.19015</v>
       </c>
       <c r="C89" t="n">
-        <v>0.945703</v>
+        <v>0.942715</v>
       </c>
       <c r="D89" t="n">
-        <v>0.514561</v>
+        <v>0.505643</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29727</v>
+        <v>1.28347</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02714</v>
+        <v>1.0173</v>
       </c>
       <c r="D90" t="n">
-        <v>0.546874</v>
+        <v>0.532628</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.40741</v>
+        <v>1.39518</v>
       </c>
       <c r="C91" t="n">
-        <v>1.11782</v>
+        <v>1.10779</v>
       </c>
       <c r="D91" t="n">
-        <v>0.592071</v>
+        <v>0.574906</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52213</v>
+        <v>1.50962</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20863</v>
+        <v>1.19607</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629953</v>
+        <v>0.613527</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64532</v>
+        <v>1.64498</v>
       </c>
       <c r="C93" t="n">
-        <v>1.30904</v>
+        <v>1.30054</v>
       </c>
       <c r="D93" t="n">
-        <v>0.667828</v>
+        <v>0.659368</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.79433</v>
+        <v>1.78098</v>
       </c>
       <c r="C94" t="n">
-        <v>1.41366</v>
+        <v>1.40408</v>
       </c>
       <c r="D94" t="n">
-        <v>0.727209</v>
+        <v>0.710184</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92926</v>
+        <v>1.92268</v>
       </c>
       <c r="C95" t="n">
-        <v>1.52251</v>
+        <v>1.51641</v>
       </c>
       <c r="D95" t="n">
-        <v>0.773913</v>
+        <v>0.772566</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08932</v>
+        <v>2.08222</v>
       </c>
       <c r="C96" t="n">
-        <v>1.65243</v>
+        <v>1.64485</v>
       </c>
       <c r="D96" t="n">
-        <v>0.830206</v>
+        <v>0.828812</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.26257</v>
+        <v>2.24925</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08269</v>
+        <v>1.07468</v>
       </c>
       <c r="D97" t="n">
-        <v>0.631149</v>
+        <v>0.62785</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.42105</v>
+        <v>2.41594</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15065</v>
+        <v>1.14536</v>
       </c>
       <c r="D98" t="n">
-        <v>0.665538</v>
+        <v>0.66013</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.67499</v>
+        <v>1.66949</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22344</v>
+        <v>1.21588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.713823</v>
+        <v>0.708663</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76695</v>
+        <v>1.76083</v>
       </c>
       <c r="C100" t="n">
-        <v>1.29979</v>
+        <v>1.29651</v>
       </c>
       <c r="D100" t="n">
-        <v>0.746688</v>
+        <v>0.7375969999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8604</v>
+        <v>1.85326</v>
       </c>
       <c r="C101" t="n">
-        <v>1.37816</v>
+        <v>1.3722</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7899350000000001</v>
+        <v>0.789933</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.96372</v>
+        <v>1.95807</v>
       </c>
       <c r="C102" t="n">
-        <v>1.46045</v>
+        <v>1.45291</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8326750000000001</v>
+        <v>0.831828</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.06271</v>
+        <v>2.05424</v>
       </c>
       <c r="C103" t="n">
-        <v>1.54415</v>
+        <v>1.53487</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8776080000000001</v>
+        <v>0.871475</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17586</v>
+        <v>2.16691</v>
       </c>
       <c r="C104" t="n">
-        <v>1.63432</v>
+        <v>1.62589</v>
       </c>
       <c r="D104" t="n">
-        <v>0.916087</v>
+        <v>0.9190390000000001</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.28307</v>
+        <v>2.27385</v>
       </c>
       <c r="C105" t="n">
-        <v>1.72711</v>
+        <v>1.71762</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99365</v>
+        <v>0.9869520000000001</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40637</v>
+        <v>2.39922</v>
       </c>
       <c r="C106" t="n">
-        <v>1.81893</v>
+        <v>1.81061</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03382</v>
+        <v>1.03024</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.52862</v>
+        <v>2.52037</v>
       </c>
       <c r="C107" t="n">
-        <v>1.91255</v>
+        <v>1.90604</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07947</v>
+        <v>1.0763</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.66705</v>
+        <v>2.65916</v>
       </c>
       <c r="C108" t="n">
-        <v>2.02673</v>
+        <v>2.01871</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13548</v>
+        <v>1.12893</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.80882</v>
+        <v>2.79914</v>
       </c>
       <c r="C109" t="n">
-        <v>2.12738</v>
+        <v>2.11489</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19806</v>
+        <v>1.18376</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.94707</v>
+        <v>2.95705</v>
       </c>
       <c r="C110" t="n">
-        <v>2.24852</v>
+        <v>2.24043</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2804</v>
+        <v>1.27875</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.11628</v>
+        <v>3.11981</v>
       </c>
       <c r="C111" t="n">
-        <v>1.54235</v>
+        <v>1.52922</v>
       </c>
       <c r="D111" t="n">
-        <v>0.999709</v>
+        <v>0.984486</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30174</v>
+        <v>3.28684</v>
       </c>
       <c r="C112" t="n">
-        <v>1.6127</v>
+        <v>1.60304</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04082</v>
+        <v>1.03714</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.46017</v>
+        <v>3.43051</v>
       </c>
       <c r="C113" t="n">
-        <v>1.6866</v>
+        <v>1.67211</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08839</v>
+        <v>1.08339</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.30902</v>
+        <v>2.28786</v>
       </c>
       <c r="C114" t="n">
-        <v>1.75494</v>
+        <v>1.74054</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1235</v>
+        <v>1.09869</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.38982</v>
+        <v>2.39144</v>
       </c>
       <c r="C115" t="n">
-        <v>1.82716</v>
+        <v>1.81008</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16747</v>
+        <v>1.14155</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49399</v>
+        <v>2.49132</v>
       </c>
       <c r="C116" t="n">
-        <v>1.9046</v>
+        <v>1.88646</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21339</v>
+        <v>1.18505</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.6023</v>
+        <v>2.60154</v>
       </c>
       <c r="C117" t="n">
-        <v>1.97901</v>
+        <v>1.97426</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24486</v>
+        <v>1.23783</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.70401</v>
+        <v>2.68859</v>
       </c>
       <c r="C118" t="n">
-        <v>2.07545</v>
+        <v>2.07025</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30084</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.81098</v>
+        <v>2.80732</v>
       </c>
       <c r="C119" t="n">
-        <v>2.16258</v>
+        <v>2.1502</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3342</v>
+        <v>1.32434</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249953</v>
+        <v>0.245574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18523</v>
+        <v>0.181979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198843</v>
+        <v>0.196535</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201453</v>
+        <v>0.197234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186422</v>
+        <v>0.185337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20112</v>
+        <v>0.197645</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206865</v>
+        <v>0.204948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191504</v>
+        <v>0.189258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207877</v>
+        <v>0.20487</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.213618</v>
+        <v>0.211006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197336</v>
+        <v>0.194809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213606</v>
+        <v>0.210452</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218846</v>
+        <v>0.216343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200902</v>
+        <v>0.198599</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218954</v>
+        <v>0.216339</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224224</v>
+        <v>0.221433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167978</v>
+        <v>0.166421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186511</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229483</v>
+        <v>0.226027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.171722</v>
+        <v>0.168127</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18979</v>
+        <v>0.187474</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23469</v>
+        <v>0.231763</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174757</v>
+        <v>0.172152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196279</v>
+        <v>0.191564</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239889</v>
+        <v>0.236314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177753</v>
+        <v>0.175119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2001</v>
+        <v>0.195151</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244537</v>
+        <v>0.240491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180839</v>
+        <v>0.179437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202435</v>
+        <v>0.197928</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252245</v>
+        <v>0.248098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185748</v>
+        <v>0.184915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207767</v>
+        <v>0.204122</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25568</v>
+        <v>0.253262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190316</v>
+        <v>0.187446</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21128</v>
+        <v>0.208047</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261107</v>
+        <v>0.259337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194219</v>
+        <v>0.191537</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214392</v>
+        <v>0.21262</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267777</v>
+        <v>0.266393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198917</v>
+        <v>0.197162</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220506</v>
+        <v>0.217903</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270938</v>
+        <v>0.270545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202584</v>
+        <v>0.200743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223355</v>
+        <v>0.222019</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277777</v>
+        <v>0.276438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208269</v>
+        <v>0.206399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229029</v>
+        <v>0.227251</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230854</v>
+        <v>0.230744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210632</v>
+        <v>0.210553</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23276</v>
+        <v>0.230782</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235061</v>
+        <v>0.235239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215062</v>
+        <v>0.213364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236761</v>
+        <v>0.235385</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239297</v>
+        <v>0.239354</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218652</v>
+        <v>0.21738</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242031</v>
+        <v>0.241069</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243883</v>
+        <v>0.24378</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183794</v>
+        <v>0.183866</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204984</v>
+        <v>0.205049</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248213</v>
+        <v>0.248441</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187237</v>
+        <v>0.187837</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209434</v>
+        <v>0.209134</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25246</v>
+        <v>0.252416</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190357</v>
+        <v>0.190848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212795</v>
+        <v>0.212843</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257252</v>
+        <v>0.25764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193678</v>
+        <v>0.194018</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216301</v>
+        <v>0.216611</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262761</v>
+        <v>0.262779</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196825</v>
+        <v>0.196281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219933</v>
+        <v>0.220429</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26886</v>
+        <v>0.268874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.200736</v>
+        <v>0.201106</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224055</v>
+        <v>0.224965</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273579</v>
+        <v>0.27364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204249</v>
+        <v>0.204786</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227863</v>
+        <v>0.228175</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278699</v>
+        <v>0.278983</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209349</v>
+        <v>0.209799</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232864</v>
+        <v>0.232691</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28341</v>
+        <v>0.283664</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213671</v>
+        <v>0.213913</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237499</v>
+        <v>0.237973</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289106</v>
+        <v>0.289547</v>
       </c>
       <c r="C30" t="n">
-        <v>0.217679</v>
+        <v>0.217824</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241682</v>
+        <v>0.242362</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2945</v>
+        <v>0.294889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222326</v>
+        <v>0.222353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245902</v>
+        <v>0.246149</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242547</v>
+        <v>0.242503</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224744</v>
+        <v>0.226414</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249265</v>
+        <v>0.250231</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245635</v>
+        <v>0.2462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230813</v>
+        <v>0.230361</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254958</v>
+        <v>0.255013</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249307</v>
+        <v>0.249077</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233375</v>
+        <v>0.233725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258687</v>
+        <v>0.259452</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253541</v>
+        <v>0.253233</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191849</v>
+        <v>0.191682</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211141</v>
+        <v>0.210994</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257151</v>
+        <v>0.256991</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194292</v>
+        <v>0.19425</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214113</v>
+        <v>0.21409</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260672</v>
+        <v>0.261087</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197029</v>
+        <v>0.197064</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217138</v>
+        <v>0.217427</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265271</v>
+        <v>0.265291</v>
       </c>
       <c r="C38" t="n">
-        <v>0.200542</v>
+        <v>0.200431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221205</v>
+        <v>0.221415</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269606</v>
+        <v>0.269816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.204022</v>
+        <v>0.204109</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225673</v>
+        <v>0.225693</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274844</v>
+        <v>0.274804</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207789</v>
+        <v>0.207851</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229636</v>
+        <v>0.229857</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279529</v>
+        <v>0.279441</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211629</v>
+        <v>0.211489</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23354</v>
+        <v>0.234004</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284579</v>
+        <v>0.284414</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215126</v>
+        <v>0.215176</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237352</v>
+        <v>0.237495</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289632</v>
+        <v>0.289602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2196</v>
+        <v>0.219338</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241589</v>
+        <v>0.241817</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295177</v>
+        <v>0.294758</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224084</v>
+        <v>0.223682</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246295</v>
+        <v>0.246552</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300262</v>
+        <v>0.299831</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228164</v>
+        <v>0.22788</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250358</v>
+        <v>0.250566</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304933</v>
+        <v>0.304481</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231843</v>
+        <v>0.231654</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254356</v>
+        <v>0.254695</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250557</v>
+        <v>0.249851</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236146</v>
+        <v>0.236194</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258729</v>
+        <v>0.259427</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25359</v>
+        <v>0.253502</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24</v>
+        <v>0.240051</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262748</v>
+        <v>0.263064</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257139</v>
+        <v>0.256913</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243668</v>
+        <v>0.243491</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266656</v>
+        <v>0.267346</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260981</v>
+        <v>0.26048</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198508</v>
+        <v>0.198607</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216396</v>
+        <v>0.216372</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264784</v>
+        <v>0.264564</v>
       </c>
       <c r="C51" t="n">
-        <v>0.201394</v>
+        <v>0.201337</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219952</v>
+        <v>0.219711</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269096</v>
+        <v>0.268773</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204126</v>
+        <v>0.204264</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223444</v>
+        <v>0.223321</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273597</v>
+        <v>0.273398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.20742</v>
+        <v>0.207404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226892</v>
+        <v>0.227269</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278671</v>
+        <v>0.278495</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210503</v>
+        <v>0.210754</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230491</v>
+        <v>0.230891</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.28357</v>
+        <v>0.283436</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214499</v>
+        <v>0.214376</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23453</v>
+        <v>0.234832</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288702</v>
+        <v>0.288669</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218634</v>
+        <v>0.21847</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238452</v>
+        <v>0.238981</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293935</v>
+        <v>0.293706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222786</v>
+        <v>0.222708</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242635</v>
+        <v>0.243465</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298529</v>
+        <v>0.298383</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227187</v>
+        <v>0.226705</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246904</v>
+        <v>0.247287</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304367</v>
+        <v>0.303382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23141</v>
+        <v>0.231084</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251497</v>
+        <v>0.251749</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309979</v>
+        <v>0.309002</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236015</v>
+        <v>0.235578</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25635</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257033</v>
+        <v>0.25879</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239741</v>
+        <v>0.239539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260537</v>
+        <v>0.26034</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256663</v>
+        <v>0.258445</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243372</v>
+        <v>0.243345</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264135</v>
+        <v>0.264646</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267319</v>
+        <v>0.2689</v>
       </c>
       <c r="C63" t="n">
-        <v>0.247462</v>
+        <v>0.247598</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268866</v>
+        <v>0.26956</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.277771</v>
+        <v>0.273194</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207276</v>
+        <v>0.205384</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225545</v>
+        <v>0.224723</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279897</v>
+        <v>0.27726</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209919</v>
+        <v>0.208473</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229654</v>
+        <v>0.227963</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283739</v>
+        <v>0.281298</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216319</v>
+        <v>0.212124</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234671</v>
+        <v>0.232787</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294412</v>
+        <v>0.286977</v>
       </c>
       <c r="C67" t="n">
-        <v>0.211661</v>
+        <v>0.217844</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238874</v>
+        <v>0.236985</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297331</v>
+        <v>0.295139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224789</v>
+        <v>0.220425</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24533</v>
+        <v>0.242885</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309075</v>
+        <v>0.304266</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227603</v>
+        <v>0.226646</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250088</v>
+        <v>0.247946</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31841</v>
+        <v>0.311521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234093</v>
+        <v>0.23139</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255909</v>
+        <v>0.2535</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327317</v>
+        <v>0.320815</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239009</v>
+        <v>0.236635</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261421</v>
+        <v>0.259007</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.336218</v>
+        <v>0.330236</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245432</v>
+        <v>0.243281</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267125</v>
+        <v>0.265698</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347483</v>
+        <v>0.341569</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252794</v>
+        <v>0.250196</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275824</v>
+        <v>0.273571</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361879</v>
+        <v>0.357174</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260198</v>
+        <v>0.257253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283778</v>
+        <v>0.281156</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376034</v>
+        <v>0.370809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.267397</v>
+        <v>0.264503</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290685</v>
+        <v>0.288143</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40018</v>
+        <v>0.402898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276621</v>
+        <v>0.272817</v>
       </c>
       <c r="D76" t="n">
-        <v>0.299954</v>
+        <v>0.297041</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416983</v>
+        <v>0.411827</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2851</v>
+        <v>0.282872</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308694</v>
+        <v>0.307537</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429272</v>
+        <v>0.429421</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262308</v>
+        <v>0.273278</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29341</v>
+        <v>0.298679</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442945</v>
+        <v>0.449547</v>
       </c>
       <c r="C79" t="n">
-        <v>0.276151</v>
+        <v>0.285997</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303062</v>
+        <v>0.316822</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.462748</v>
+        <v>0.458916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.296826</v>
+        <v>0.297911</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325863</v>
+        <v>0.326591</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.47494</v>
+        <v>0.481539</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306774</v>
+        <v>0.307624</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335549</v>
+        <v>0.343117</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.491899</v>
+        <v>0.49519</v>
       </c>
       <c r="C82" t="n">
-        <v>0.315181</v>
+        <v>0.318205</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348367</v>
+        <v>0.352551</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51358</v>
+        <v>0.515582</v>
       </c>
       <c r="C83" t="n">
-        <v>0.329543</v>
+        <v>0.329562</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363609</v>
+        <v>0.368698</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.533041</v>
+        <v>0.535451</v>
       </c>
       <c r="C84" t="n">
-        <v>0.340071</v>
+        <v>0.342143</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379766</v>
+        <v>0.382036</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55571</v>
+        <v>0.554277</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358068</v>
+        <v>0.355329</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400366</v>
+        <v>0.396212</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.57834</v>
+        <v>0.5757679999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.373314</v>
+        <v>0.369639</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414683</v>
+        <v>0.410823</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.600615</v>
+        <v>0.598467</v>
       </c>
       <c r="C87" t="n">
-        <v>0.383052</v>
+        <v>0.382046</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426468</v>
+        <v>0.427427</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6212800000000001</v>
+        <v>0.621314</v>
       </c>
       <c r="C88" t="n">
-        <v>0.395345</v>
+        <v>0.397522</v>
       </c>
       <c r="D88" t="n">
-        <v>0.445332</v>
+        <v>0.448238</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644183</v>
+        <v>0.644153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.40929</v>
+        <v>0.411643</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461897</v>
+        <v>0.465562</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.669587</v>
+        <v>0.666841</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425458</v>
+        <v>0.427897</v>
       </c>
       <c r="D90" t="n">
-        <v>0.479893</v>
+        <v>0.48455</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.674944</v>
+        <v>0.67696</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441384</v>
+        <v>0.442361</v>
       </c>
       <c r="D91" t="n">
-        <v>0.495019</v>
+        <v>0.495062</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686162</v>
+        <v>0.684075</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431575</v>
+        <v>0.443683</v>
       </c>
       <c r="D92" t="n">
-        <v>0.502997</v>
+        <v>0.504099</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693589</v>
+        <v>0.690594</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440251</v>
+        <v>0.452167</v>
       </c>
       <c r="D93" t="n">
-        <v>0.501887</v>
+        <v>0.516514</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.703997</v>
+        <v>0.702021</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462203</v>
+        <v>0.460968</v>
       </c>
       <c r="D94" t="n">
-        <v>0.527483</v>
+        <v>0.52593</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716058</v>
+        <v>0.714151</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470728</v>
+        <v>0.470724</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540093</v>
+        <v>0.54054</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729427</v>
+        <v>0.72597</v>
       </c>
       <c r="C96" t="n">
-        <v>0.481036</v>
+        <v>0.481146</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554226</v>
+        <v>0.553217</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.744281</v>
+        <v>0.7405890000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.492515</v>
+        <v>0.491583</v>
       </c>
       <c r="D97" t="n">
-        <v>0.567681</v>
+        <v>0.567008</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.75874</v>
+        <v>0.755642</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503319</v>
+        <v>0.502637</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581223</v>
+        <v>0.580687</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774903</v>
+        <v>0.771384</v>
       </c>
       <c r="C99" t="n">
-        <v>0.51455</v>
+        <v>0.513833</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593831</v>
+        <v>0.593396</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.792604</v>
+        <v>0.789075</v>
       </c>
       <c r="C100" t="n">
-        <v>0.526563</v>
+        <v>0.525778</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608029</v>
+        <v>0.607945</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.810535</v>
+        <v>0.806868</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538766</v>
+        <v>0.537945</v>
       </c>
       <c r="D101" t="n">
-        <v>0.621202</v>
+        <v>0.621371</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828752</v>
+        <v>0.825628</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551955</v>
+        <v>0.550988</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637429</v>
+        <v>0.637392</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.849299</v>
+        <v>0.845761</v>
       </c>
       <c r="C103" t="n">
-        <v>0.564481</v>
+        <v>0.56428</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652585</v>
+        <v>0.652121</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.870131</v>
+        <v>0.86669</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578232</v>
+        <v>0.577481</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668357</v>
+        <v>0.667232</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.795134</v>
+        <v>0.79065</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591488</v>
+        <v>0.591697</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687415</v>
+        <v>0.686899</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7971549999999999</v>
+        <v>0.7988459999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.603243</v>
+        <v>0.607166</v>
       </c>
       <c r="D106" t="n">
-        <v>0.703917</v>
+        <v>0.705362</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.799851</v>
+        <v>0.806532</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540263</v>
+        <v>0.550448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649833</v>
+        <v>0.647049</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819652</v>
+        <v>0.815262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5616139999999999</v>
+        <v>0.558465</v>
       </c>
       <c r="D108" t="n">
-        <v>0.660765</v>
+        <v>0.657258</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.827807</v>
+        <v>0.82457</v>
       </c>
       <c r="C109" t="n">
-        <v>0.569794</v>
+        <v>0.566841</v>
       </c>
       <c r="D109" t="n">
-        <v>0.672152</v>
+        <v>0.669037</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839523</v>
+        <v>0.8344009999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5793</v>
+        <v>0.576237</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6820929999999999</v>
+        <v>0.68016</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85201</v>
+        <v>0.847574</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589741</v>
+        <v>0.586659</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696655</v>
+        <v>0.692987</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.855582</v>
+        <v>0.859702</v>
       </c>
       <c r="C112" t="n">
-        <v>0.590904</v>
+        <v>0.597183</v>
       </c>
       <c r="D112" t="n">
-        <v>0.69625</v>
+        <v>0.7057290000000001</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.869615</v>
+        <v>0.8741719999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601925</v>
+        <v>0.608237</v>
       </c>
       <c r="D113" t="n">
-        <v>0.709094</v>
+        <v>0.718348</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.88491</v>
+        <v>0.8897969999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.613654</v>
+        <v>0.619905</v>
       </c>
       <c r="D114" t="n">
-        <v>0.723736</v>
+        <v>0.733005</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.902529</v>
+        <v>0.907124</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625149</v>
+        <v>0.632101</v>
       </c>
       <c r="D115" t="n">
-        <v>0.748802</v>
+        <v>0.748086</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9293709999999999</v>
+        <v>0.925605</v>
       </c>
       <c r="C116" t="n">
-        <v>0.645804</v>
+        <v>0.6445610000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.758592</v>
+        <v>0.759503</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.949164</v>
+        <v>0.944883</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65862</v>
+        <v>0.657535</v>
       </c>
       <c r="D117" t="n">
-        <v>0.772647</v>
+        <v>0.774054</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9698830000000001</v>
+        <v>0.9656169999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.671795</v>
+        <v>0.6707610000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.792915</v>
+        <v>0.7906300000000001</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.854645</v>
+        <v>0.855963</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.684467</v>
       </c>
       <c r="D119" t="n">
-        <v>0.806551</v>
+        <v>0.80464</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248018</v>
+        <v>0.248786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162421</v>
+        <v>0.162735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154905</v>
+        <v>0.154364</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219096</v>
+        <v>0.218107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167786</v>
+        <v>0.166065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153631</v>
+        <v>0.152838</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224049</v>
+        <v>0.22242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171998</v>
+        <v>0.169862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159408</v>
+        <v>0.158779</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229816</v>
+        <v>0.228349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176669</v>
+        <v>0.175692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162974</v>
+        <v>0.161662</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229875</v>
+        <v>0.228374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183376</v>
+        <v>0.181272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16715</v>
+        <v>0.165911</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233557</v>
+        <v>0.232424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167961</v>
+        <v>0.16658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163427</v>
+        <v>0.164435</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236092</v>
+        <v>0.23612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173654</v>
+        <v>0.16982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168085</v>
+        <v>0.165358</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237647</v>
+        <v>0.236567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176383</v>
+        <v>0.17491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166988</v>
+        <v>0.167572</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241167</v>
+        <v>0.239801</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181431</v>
+        <v>0.177861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169332</v>
+        <v>0.169483</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240459</v>
+        <v>0.238672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176903</v>
+        <v>0.173628</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169118</v>
+        <v>0.16909</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2539</v>
+        <v>0.252874</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187432</v>
+        <v>0.187411</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174066</v>
+        <v>0.175764</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255904</v>
+        <v>0.257609</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188121</v>
+        <v>0.190889</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178872</v>
+        <v>0.17748</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256834</v>
+        <v>0.253933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.190464</v>
+        <v>0.185319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174702</v>
+        <v>0.174871</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265181</v>
+        <v>0.265322</v>
       </c>
       <c r="C15" t="n">
-        <v>0.193461</v>
+        <v>0.195338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179791</v>
+        <v>0.18413</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270982</v>
+        <v>0.27243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.197494</v>
+        <v>0.199559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180972</v>
+        <v>0.18432</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276558</v>
+        <v>0.279414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201247</v>
+        <v>0.204777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185254</v>
+        <v>0.185881</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254689</v>
+        <v>0.258319</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208755</v>
+        <v>0.205174</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185453</v>
+        <v>0.186363</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259891</v>
+        <v>0.261518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211355</v>
+        <v>0.213854</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189064</v>
+        <v>0.191753</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264119</v>
+        <v>0.265196</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221146</v>
+        <v>0.222411</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192537</v>
+        <v>0.195764</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.271723</v>
+        <v>0.272817</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196333</v>
+        <v>0.198726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192114</v>
+        <v>0.189238</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273031</v>
+        <v>0.270807</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208983</v>
+        <v>0.203382</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194586</v>
+        <v>0.197067</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277373</v>
+        <v>0.278108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211034</v>
+        <v>0.211832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196212</v>
+        <v>0.196787</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281239</v>
+        <v>0.280368</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216028</v>
+        <v>0.221247</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200505</v>
+        <v>0.201907</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284118</v>
+        <v>0.284206</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224366</v>
+        <v>0.226383</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203712</v>
+        <v>0.201717</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293222</v>
+        <v>0.293406</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22535</v>
+        <v>0.224924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207283</v>
+        <v>0.204421</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294568</v>
+        <v>0.294698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236965</v>
+        <v>0.237774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210209</v>
+        <v>0.210096</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297757</v>
+        <v>0.297305</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23895</v>
+        <v>0.239358</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211153</v>
+        <v>0.212772</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306641</v>
+        <v>0.306823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244206</v>
+        <v>0.245001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214461</v>
+        <v>0.215065</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31122</v>
+        <v>0.311362</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255332</v>
+        <v>0.256058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22003</v>
+        <v>0.220283</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314836</v>
+        <v>0.31464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252036</v>
+        <v>0.252615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221413</v>
+        <v>0.221309</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280852</v>
+        <v>0.280602</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262773</v>
+        <v>0.262334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225236</v>
+        <v>0.22506</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286694</v>
+        <v>0.286221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.270891</v>
+        <v>0.271065</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229895</v>
+        <v>0.228457</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291665</v>
+        <v>0.290975</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273446</v>
+        <v>0.27406</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232938</v>
+        <v>0.23195</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292944</v>
+        <v>0.292374</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216671</v>
+        <v>0.21587</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211233</v>
+        <v>0.210178</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297801</v>
+        <v>0.297568</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22193</v>
+        <v>0.221525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211421</v>
+        <v>0.21083</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304079</v>
+        <v>0.303762</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225019</v>
+        <v>0.225196</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213959</v>
+        <v>0.213874</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306733</v>
+        <v>0.306775</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228433</v>
+        <v>0.228894</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216133</v>
+        <v>0.215451</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313528</v>
+        <v>0.313273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234845</v>
+        <v>0.233347</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220051</v>
+        <v>0.219004</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321781</v>
+        <v>0.321106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.237721</v>
+        <v>0.236736</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221349</v>
+        <v>0.221111</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327678</v>
+        <v>0.326989</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241491</v>
+        <v>0.241387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222761</v>
+        <v>0.223141</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331358</v>
+        <v>0.331719</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241131</v>
+        <v>0.242609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22433</v>
+        <v>0.224957</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337637</v>
+        <v>0.338048</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245712</v>
+        <v>0.247263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227288</v>
+        <v>0.227644</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340482</v>
+        <v>0.340741</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251906</v>
+        <v>0.251826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228547</v>
+        <v>0.229167</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34857</v>
+        <v>0.348825</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254345</v>
+        <v>0.254322</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230473</v>
+        <v>0.230992</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349525</v>
+        <v>0.349519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254254</v>
+        <v>0.254613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232316</v>
+        <v>0.232578</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289335</v>
+        <v>0.289342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260392</v>
+        <v>0.25939</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234668</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294049</v>
+        <v>0.294253</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265075</v>
+        <v>0.265234</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236144</v>
+        <v>0.236243</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297863</v>
+        <v>0.297321</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269063</v>
+        <v>0.269371</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239114</v>
+        <v>0.239324</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301648</v>
+        <v>0.301528</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23935</v>
+        <v>0.237152</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22488</v>
+        <v>0.224756</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304755</v>
+        <v>0.304918</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241169</v>
+        <v>0.241869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226103</v>
+        <v>0.226139</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307103</v>
+        <v>0.306869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245395</v>
+        <v>0.245184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227783</v>
+        <v>0.227317</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312826</v>
+        <v>0.31252</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249117</v>
+        <v>0.249688</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229958</v>
+        <v>0.229912</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320666</v>
+        <v>0.320665</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253542</v>
+        <v>0.251359</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232223</v>
+        <v>0.232135</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320416</v>
+        <v>0.320276</v>
       </c>
       <c r="C55" t="n">
-        <v>0.259638</v>
+        <v>0.259848</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234726</v>
+        <v>0.234816</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325759</v>
+        <v>0.325756</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259047</v>
+        <v>0.258748</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234911</v>
+        <v>0.234872</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333127</v>
+        <v>0.333921</v>
       </c>
       <c r="C57" t="n">
-        <v>0.266272</v>
+        <v>0.266392</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237594</v>
+        <v>0.237596</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334708</v>
+        <v>0.334749</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273938</v>
+        <v>0.273949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240762</v>
+        <v>0.241348</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342363</v>
+        <v>0.342592</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279748</v>
+        <v>0.280522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244371</v>
+        <v>0.244843</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347691</v>
+        <v>0.347761</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283453</v>
+        <v>0.283952</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24787</v>
+        <v>0.248003</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305007</v>
+        <v>0.304049</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289296</v>
+        <v>0.288847</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248974</v>
+        <v>0.249161</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313207</v>
+        <v>0.31278</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293547</v>
+        <v>0.293345</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25067</v>
+        <v>0.250798</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318747</v>
+        <v>0.320888</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297895</v>
+        <v>0.298229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254181</v>
+        <v>0.254266</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325893</v>
+        <v>0.325424</v>
       </c>
       <c r="C64" t="n">
-        <v>0.263988</v>
+        <v>0.264069</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242318</v>
+        <v>0.243424</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.333728</v>
+        <v>0.329749</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268585</v>
+        <v>0.268346</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24165</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341461</v>
+        <v>0.337541</v>
       </c>
       <c r="C66" t="n">
-        <v>0.270813</v>
+        <v>0.271756</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243199</v>
+        <v>0.243382</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347969</v>
+        <v>0.343411</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275658</v>
+        <v>0.277799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246654</v>
+        <v>0.246395</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.355193</v>
+        <v>0.351236</v>
       </c>
       <c r="C68" t="n">
-        <v>0.280668</v>
+        <v>0.281722</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247958</v>
+        <v>0.248652</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360866</v>
+        <v>0.358122</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285929</v>
+        <v>0.286437</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25058</v>
+        <v>0.251924</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368224</v>
+        <v>0.368159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293047</v>
+        <v>0.29475</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254948</v>
+        <v>0.256324</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38078</v>
+        <v>0.377509</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300717</v>
+        <v>0.301929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258158</v>
+        <v>0.258593</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.391092</v>
+        <v>0.385224</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308601</v>
+        <v>0.308993</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262908</v>
+        <v>0.262857</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406947</v>
+        <v>0.399686</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318099</v>
+        <v>0.317094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267319</v>
+        <v>0.268166</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.421595</v>
+        <v>0.409163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.325479</v>
+        <v>0.323469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26786</v>
+        <v>0.268539</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.439848</v>
+        <v>0.428265</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334607</v>
+        <v>0.330978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272664</v>
+        <v>0.271947</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.434099</v>
+        <v>0.449816</v>
       </c>
       <c r="C76" t="n">
-        <v>0.345029</v>
+        <v>0.343352</v>
       </c>
       <c r="D76" t="n">
-        <v>0.280624</v>
+        <v>0.279373</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445803</v>
+        <v>0.452965</v>
       </c>
       <c r="C77" t="n">
-        <v>0.362773</v>
+        <v>0.349787</v>
       </c>
       <c r="D77" t="n">
-        <v>0.286003</v>
+        <v>0.282042</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.46708</v>
+        <v>0.475643</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310211</v>
+        <v>0.31861</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255804</v>
+        <v>0.277833</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.504812</v>
+        <v>0.499402</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322908</v>
+        <v>0.33176</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278608</v>
+        <v>0.27723</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.541618</v>
+        <v>0.525701</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333389</v>
+        <v>0.344601</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288341</v>
+        <v>0.290467</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565716</v>
+        <v>0.546952</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347722</v>
+        <v>0.363767</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293066</v>
+        <v>0.295451</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.578928</v>
+        <v>0.583457</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374293</v>
+        <v>0.376183</v>
       </c>
       <c r="D82" t="n">
-        <v>0.301857</v>
+        <v>0.299398</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.601389</v>
+        <v>0.610552</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39136</v>
+        <v>0.395387</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305832</v>
+        <v>0.31705</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.654161</v>
+        <v>0.65582</v>
       </c>
       <c r="C84" t="n">
-        <v>0.410226</v>
+        <v>0.416613</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319844</v>
+        <v>0.32401</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.689053</v>
+        <v>0.694192</v>
       </c>
       <c r="C85" t="n">
-        <v>0.438232</v>
+        <v>0.444472</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330477</v>
+        <v>0.33798</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.7367590000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.457309</v>
+        <v>0.460222</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337445</v>
+        <v>0.355402</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7674879999999999</v>
+        <v>0.774066</v>
       </c>
       <c r="C87" t="n">
-        <v>0.483455</v>
+        <v>0.48458</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359789</v>
+        <v>0.360598</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.809257</v>
+        <v>0.817459</v>
       </c>
       <c r="C88" t="n">
-        <v>0.508887</v>
+        <v>0.5088009999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.373823</v>
+        <v>0.37214</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.863976</v>
+        <v>0.867135</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537901</v>
+        <v>0.539393</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382625</v>
+        <v>0.385289</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859245</v>
+        <v>0.8633729999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563653</v>
+        <v>0.569845</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39651</v>
+        <v>0.407443</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.896818</v>
+        <v>0.896138</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5956</v>
+        <v>0.599004</v>
       </c>
       <c r="D91" t="n">
-        <v>0.415548</v>
+        <v>0.419425</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931511</v>
+        <v>0.930247</v>
       </c>
       <c r="C92" t="n">
-        <v>0.612767</v>
+        <v>0.610381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.491171</v>
+        <v>0.498767</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.960485</v>
+        <v>0.962663</v>
       </c>
       <c r="C93" t="n">
-        <v>0.635818</v>
+        <v>0.635494</v>
       </c>
       <c r="D93" t="n">
-        <v>0.524221</v>
+        <v>0.5203</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992487</v>
+        <v>0.997209</v>
       </c>
       <c r="C94" t="n">
-        <v>0.656758</v>
+        <v>0.661816</v>
       </c>
       <c r="D94" t="n">
-        <v>0.530818</v>
+        <v>0.537635</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03024</v>
+        <v>1.03524</v>
       </c>
       <c r="C95" t="n">
-        <v>0.687069</v>
+        <v>0.688434</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552376</v>
+        <v>0.555198</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06479</v>
+        <v>1.0672</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712652</v>
+        <v>0.713601</v>
       </c>
       <c r="D96" t="n">
-        <v>0.565403</v>
+        <v>0.5718569999999999</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.09662</v>
+        <v>1.10352</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742743</v>
+        <v>0.744167</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.597056</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12341</v>
+        <v>1.13685</v>
       </c>
       <c r="C98" t="n">
-        <v>0.754507</v>
+        <v>0.771244</v>
       </c>
       <c r="D98" t="n">
-        <v>0.612455</v>
+        <v>0.615164</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17103</v>
+        <v>1.1697</v>
       </c>
       <c r="C99" t="n">
-        <v>0.802463</v>
+        <v>0.802736</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610015</v>
+        <v>0.633459</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.188</v>
+        <v>1.2106</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816456</v>
+        <v>0.832472</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629578</v>
+        <v>0.6529</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22454</v>
+        <v>1.24303</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8416439999999999</v>
+        <v>0.8582109999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656641</v>
+        <v>0.674065</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26881</v>
+        <v>1.2825</v>
       </c>
       <c r="C102" t="n">
-        <v>0.880179</v>
+        <v>0.893634</v>
       </c>
       <c r="D102" t="n">
-        <v>0.688757</v>
+        <v>0.695307</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30665</v>
+        <v>1.31749</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905376</v>
+        <v>0.920527</v>
       </c>
       <c r="D103" t="n">
-        <v>0.69773</v>
+        <v>0.7133699999999999</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34479</v>
+        <v>1.35724</v>
       </c>
       <c r="C104" t="n">
-        <v>0.93509</v>
+        <v>0.949282</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721774</v>
+        <v>0.735027</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23861</v>
+        <v>1.24724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.977423</v>
+        <v>0.985264</v>
       </c>
       <c r="D105" t="n">
-        <v>0.743013</v>
+        <v>0.75105</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.25069</v>
+        <v>1.27023</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01314</v>
+        <v>1.01698</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766008</v>
+        <v>0.7761400000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28465</v>
+        <v>1.29023</v>
       </c>
       <c r="C107" t="n">
-        <v>0.897953</v>
+        <v>0.912134</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781379</v>
+        <v>0.784161</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29782</v>
+        <v>1.31373</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92095</v>
+        <v>0.931369</v>
       </c>
       <c r="D108" t="n">
-        <v>0.782342</v>
+        <v>0.7979039999999999</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33696</v>
+        <v>1.33572</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9532929999999999</v>
+        <v>0.956683</v>
       </c>
       <c r="D109" t="n">
-        <v>0.81225</v>
+        <v>0.814898</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35096</v>
+        <v>1.36048</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9741</v>
+        <v>0.976667</v>
       </c>
       <c r="D110" t="n">
-        <v>0.818958</v>
+        <v>0.830209</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37954</v>
+        <v>1.38468</v>
       </c>
       <c r="C111" t="n">
-        <v>0.990827</v>
+        <v>0.996327</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8425859999999999</v>
+        <v>0.844575</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40818</v>
+        <v>1.41234</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01726</v>
+        <v>1.01971</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8600410000000001</v>
+        <v>0.859345</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44364</v>
+        <v>1.44025</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04349</v>
+        <v>1.04316</v>
       </c>
       <c r="D113" t="n">
-        <v>0.874423</v>
+        <v>0.8748359999999999</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47107</v>
+        <v>1.47032</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06683</v>
+        <v>1.06787</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886831</v>
+        <v>0.890378</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4978</v>
+        <v>1.50124</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09517</v>
+        <v>1.09634</v>
       </c>
       <c r="D115" t="n">
-        <v>0.899392</v>
+        <v>0.9027849999999999</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52864</v>
+        <v>1.53171</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12091</v>
+        <v>1.12279</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917873</v>
+        <v>0.916905</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56149</v>
+        <v>1.56273</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14628</v>
+        <v>1.1479</v>
       </c>
       <c r="D117" t="n">
-        <v>0.93258</v>
+        <v>0.933078</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59374</v>
+        <v>1.59575</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18036</v>
+        <v>1.18387</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946489</v>
+        <v>0.949252</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42157</v>
+        <v>1.42231</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20999</v>
+        <v>1.21258</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961808</v>
+        <v>0.961977</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392617</v>
+        <v>0.392369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288136</v>
+        <v>0.285538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219553</v>
+        <v>0.219215</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402565</v>
+        <v>0.401069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292309</v>
+        <v>0.292037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221555</v>
+        <v>0.221589</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41397</v>
+        <v>0.414047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304566</v>
+        <v>0.307485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231164</v>
+        <v>0.231414</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419118</v>
+        <v>0.4205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317517</v>
+        <v>0.316193</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236449</v>
+        <v>0.236372</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.438239</v>
+        <v>0.437508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318603</v>
+        <v>0.315644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239922</v>
+        <v>0.240222</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449914</v>
+        <v>0.448674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33679</v>
+        <v>0.338223</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24899</v>
+        <v>0.248001</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463429</v>
+        <v>0.461481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353838</v>
+        <v>0.352823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258148</v>
+        <v>0.257189</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482712</v>
+        <v>0.483392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.367635</v>
+        <v>0.366795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267523</v>
+        <v>0.266107</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500995</v>
+        <v>0.49564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39063</v>
+        <v>0.388067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276594</v>
+        <v>0.276126</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516101</v>
+        <v>0.514228</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295447</v>
+        <v>0.289678</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220861</v>
+        <v>0.21928</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.387791</v>
+        <v>0.385712</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301897</v>
+        <v>0.297686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223855</v>
+        <v>0.222863</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398352</v>
+        <v>0.398369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311053</v>
+        <v>0.30718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231412</v>
+        <v>0.232072</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406831</v>
+        <v>0.406378</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324512</v>
+        <v>0.324182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232854</v>
+        <v>0.231881</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428188</v>
+        <v>0.429266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341562</v>
+        <v>0.337977</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239955</v>
+        <v>0.239206</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439253</v>
+        <v>0.438452</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35163</v>
+        <v>0.352354</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246857</v>
+        <v>0.248391</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448859</v>
+        <v>0.449023</v>
       </c>
       <c r="C17" t="n">
-        <v>0.368823</v>
+        <v>0.366589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254014</v>
+        <v>0.252775</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472671</v>
+        <v>0.470551</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37344</v>
+        <v>0.37376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25399</v>
+        <v>0.253874</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484237</v>
+        <v>0.482526</v>
       </c>
       <c r="C19" t="n">
-        <v>0.394935</v>
+        <v>0.395711</v>
       </c>
       <c r="D19" t="n">
-        <v>0.263354</v>
+        <v>0.265943</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502566</v>
+        <v>0.501326</v>
       </c>
       <c r="C20" t="n">
-        <v>0.417065</v>
+        <v>0.419929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27516</v>
+        <v>0.275749</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.518915</v>
       </c>
       <c r="C21" t="n">
-        <v>0.435918</v>
+        <v>0.435201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286185</v>
+        <v>0.288863</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54121</v>
+        <v>0.54137</v>
       </c>
       <c r="C22" t="n">
-        <v>0.459084</v>
+        <v>0.463226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296436</v>
+        <v>0.298608</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.557281</v>
+        <v>0.557015</v>
       </c>
       <c r="C23" t="n">
-        <v>0.482694</v>
+        <v>0.484399</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31029</v>
+        <v>0.308951</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5920339999999999</v>
+        <v>0.592321</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497221</v>
+        <v>0.500797</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318839</v>
+        <v>0.319995</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626069</v>
+        <v>0.6265770000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.524579</v>
+        <v>0.525683</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325606</v>
+        <v>0.326301</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.650546</v>
+        <v>0.651991</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331217</v>
+        <v>0.33178</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232466</v>
+        <v>0.238019</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.427563</v>
+        <v>0.42766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.334713</v>
+        <v>0.335205</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235675</v>
+        <v>0.239023</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.443732</v>
+        <v>0.443588</v>
       </c>
       <c r="C28" t="n">
-        <v>0.350193</v>
+        <v>0.349289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241828</v>
+        <v>0.244027</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.457871</v>
+        <v>0.458313</v>
       </c>
       <c r="C29" t="n">
-        <v>0.35517</v>
+        <v>0.356437</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247361</v>
+        <v>0.250278</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.477554</v>
+        <v>0.47734</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376281</v>
+        <v>0.376079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260176</v>
+        <v>0.260801</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491214</v>
+        <v>0.490995</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392099</v>
+        <v>0.39306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261643</v>
+        <v>0.26258</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508002</v>
+        <v>0.50719</v>
       </c>
       <c r="C32" t="n">
-        <v>0.406585</v>
+        <v>0.406694</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271047</v>
+        <v>0.273727</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538289</v>
+        <v>0.537189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.424787</v>
+        <v>0.425161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283933</v>
+        <v>0.284139</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.552909</v>
       </c>
       <c r="C34" t="n">
-        <v>0.441396</v>
+        <v>0.441252</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29344</v>
+        <v>0.292777</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575841</v>
+        <v>0.5759570000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462174</v>
+        <v>0.461944</v>
       </c>
       <c r="D35" t="n">
-        <v>0.302176</v>
+        <v>0.302409</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.594508</v>
+        <v>0.593989</v>
       </c>
       <c r="C36" t="n">
-        <v>0.486229</v>
+        <v>0.484671</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312679</v>
+        <v>0.314587</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.610792</v>
+        <v>0.610964</v>
       </c>
       <c r="C37" t="n">
-        <v>0.508433</v>
+        <v>0.505612</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323101</v>
+        <v>0.323611</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.633571</v>
+        <v>0.633693</v>
       </c>
       <c r="C38" t="n">
-        <v>0.529369</v>
+        <v>0.528067</v>
       </c>
       <c r="D38" t="n">
-        <v>0.331524</v>
+        <v>0.332615</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669757</v>
+        <v>0.6697340000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.558449</v>
+        <v>0.558523</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344946</v>
+        <v>0.3458</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69224</v>
+        <v>0.689879</v>
       </c>
       <c r="C40" t="n">
-        <v>0.393403</v>
+        <v>0.391915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281086</v>
+        <v>0.280786</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502381</v>
+        <v>0.502319</v>
       </c>
       <c r="C41" t="n">
-        <v>0.403521</v>
+        <v>0.403111</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28812</v>
+        <v>0.287763</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.514496</v>
+        <v>0.515021</v>
       </c>
       <c r="C42" t="n">
-        <v>0.419624</v>
+        <v>0.41874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293545</v>
+        <v>0.293829</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528163</v>
+        <v>0.527848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.431852</v>
+        <v>0.43182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301159</v>
+        <v>0.301212</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543838</v>
+        <v>0.5428269999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.453683</v>
+        <v>0.452672</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310036</v>
+        <v>0.310716</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5613089999999999</v>
+        <v>0.56074</v>
       </c>
       <c r="C45" t="n">
-        <v>0.466474</v>
+        <v>0.465813</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313233</v>
+        <v>0.315551</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573283</v>
+        <v>0.572814</v>
       </c>
       <c r="C46" t="n">
-        <v>0.482798</v>
+        <v>0.481433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.323051</v>
+        <v>0.323547</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594743</v>
+        <v>0.595315</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500849</v>
+        <v>0.499581</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332044</v>
+        <v>0.332736</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612368</v>
+        <v>0.611565</v>
       </c>
       <c r="C48" t="n">
-        <v>0.514426</v>
+        <v>0.513989</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342651</v>
+        <v>0.342866</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623384</v>
+        <v>0.622593</v>
       </c>
       <c r="C49" t="n">
-        <v>0.536426</v>
+        <v>0.534727</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348608</v>
+        <v>0.348675</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6527500000000001</v>
+        <v>0.652414</v>
       </c>
       <c r="C50" t="n">
-        <v>0.554684</v>
+        <v>0.55502</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359401</v>
+        <v>0.360318</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6778</v>
+        <v>0.677145</v>
       </c>
       <c r="C51" t="n">
-        <v>0.578129</v>
+        <v>0.58096</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371</v>
+        <v>0.370984</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.702911</v>
+        <v>0.701619</v>
       </c>
       <c r="C52" t="n">
-        <v>0.602587</v>
+        <v>0.604636</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381214</v>
+        <v>0.381657</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.728007</v>
+        <v>0.7261300000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62741</v>
+        <v>0.628899</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39374</v>
+        <v>0.393985</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753591</v>
+        <v>0.751632</v>
       </c>
       <c r="C54" t="n">
-        <v>0.442342</v>
+        <v>0.44271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313603</v>
+        <v>0.313984</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.783583</v>
+        <v>0.78146</v>
       </c>
       <c r="C55" t="n">
-        <v>0.451111</v>
+        <v>0.45172</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319001</v>
+        <v>0.319079</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536489</v>
+        <v>0.536555</v>
       </c>
       <c r="C56" t="n">
-        <v>0.46734</v>
+        <v>0.467671</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325168</v>
+        <v>0.325315</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.549643</v>
       </c>
       <c r="C57" t="n">
-        <v>0.480289</v>
+        <v>0.481977</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332311</v>
+        <v>0.332723</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565968</v>
+        <v>0.565506</v>
       </c>
       <c r="C58" t="n">
-        <v>0.492961</v>
+        <v>0.494066</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336455</v>
+        <v>0.336655</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579589</v>
+        <v>0.579542</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.508274</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346203</v>
+        <v>0.346397</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588485</v>
+        <v>0.588075</v>
       </c>
       <c r="C60" t="n">
-        <v>0.523889</v>
+        <v>0.524891</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351925</v>
+        <v>0.352106</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608424</v>
+        <v>0.6075700000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.540921</v>
+        <v>0.541869</v>
       </c>
       <c r="D61" t="n">
-        <v>0.358933</v>
+        <v>0.359353</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628551</v>
+        <v>0.628039</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556947</v>
+        <v>0.558368</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366771</v>
+        <v>0.366845</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645733</v>
+        <v>0.644891</v>
       </c>
       <c r="C63" t="n">
-        <v>0.577814</v>
+        <v>0.579079</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375766</v>
+        <v>0.375857</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668044</v>
+        <v>0.666573</v>
       </c>
       <c r="C64" t="n">
-        <v>0.593401</v>
+        <v>0.595442</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386074</v>
+        <v>0.38632</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697376</v>
+        <v>0.695163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.620774</v>
+        <v>0.622969</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3966</v>
+        <v>0.396906</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719967</v>
+        <v>0.719293</v>
       </c>
       <c r="C66" t="n">
-        <v>0.638</v>
+        <v>0.6396770000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405613</v>
+        <v>0.405871</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.749875</v>
+        <v>0.749219</v>
       </c>
       <c r="C67" t="n">
-        <v>0.664632</v>
+        <v>0.668272</v>
       </c>
       <c r="D67" t="n">
-        <v>0.41892</v>
+        <v>0.418779</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.773991</v>
+        <v>0.772135</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43459</v>
+        <v>0.435123</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314393</v>
+        <v>0.314931</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.817962</v>
+        <v>0.815404</v>
       </c>
       <c r="C69" t="n">
-        <v>0.449966</v>
+        <v>0.450651</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32056</v>
+        <v>0.321274</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554824</v>
+        <v>0.553395</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47005</v>
+        <v>0.471368</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32918</v>
+        <v>0.329572</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574499</v>
+        <v>0.5741309999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489925</v>
+        <v>0.490198</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336482</v>
+        <v>0.336993</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.602234</v>
+        <v>0.601498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.511423</v>
+        <v>0.511099</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345091</v>
+        <v>0.345665</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.626786</v>
+        <v>0.627365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.535658</v>
+        <v>0.5352749999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355652</v>
+        <v>0.356036</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.649002</v>
+        <v>0.651575</v>
       </c>
       <c r="C74" t="n">
-        <v>0.555127</v>
+        <v>0.557642</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365436</v>
+        <v>0.365474</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679776</v>
+        <v>0.6802510000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.585687</v>
+        <v>0.586561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374355</v>
+        <v>0.374807</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.713116</v>
+        <v>0.718547</v>
       </c>
       <c r="C76" t="n">
-        <v>0.615446</v>
+        <v>0.6191</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38484</v>
+        <v>0.385732</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.754342</v>
+        <v>0.762063</v>
       </c>
       <c r="C77" t="n">
-        <v>0.651289</v>
+        <v>0.657534</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398871</v>
+        <v>0.399953</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7966800000000001</v>
+        <v>0.817196</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6872740000000001</v>
+        <v>0.70063</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409168</v>
+        <v>0.411584</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.84772</v>
+        <v>0.864173</v>
       </c>
       <c r="C79" t="n">
-        <v>0.730087</v>
+        <v>0.742175</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423932</v>
+        <v>0.428004</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.912072</v>
+        <v>0.928363</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786208</v>
+        <v>0.8018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.439589</v>
+        <v>0.442516</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.985114</v>
+        <v>1.00044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.846881</v>
+        <v>0.86358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46052</v>
+        <v>0.462733</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05932</v>
+        <v>1.07332</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91427</v>
+        <v>0.934818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.472142</v>
+        <v>0.476959</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14588</v>
+        <v>1.16231</v>
       </c>
       <c r="C83" t="n">
-        <v>0.662707</v>
+        <v>0.663791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386917</v>
+        <v>0.388826</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25606</v>
+        <v>1.26981</v>
       </c>
       <c r="C84" t="n">
-        <v>0.703735</v>
+        <v>0.714994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.400972</v>
+        <v>0.399156</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.876383</v>
+        <v>0.886142</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7604610000000001</v>
+        <v>0.765365</v>
       </c>
       <c r="D85" t="n">
-        <v>0.414539</v>
+        <v>0.420881</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.941292</v>
+        <v>0.9516250000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8280690000000001</v>
+        <v>0.8337290000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432832</v>
+        <v>0.43541</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00811</v>
+        <v>1.0221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.89131</v>
+        <v>0.906977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453206</v>
+        <v>0.459789</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10259</v>
+        <v>1.11049</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9942220000000001</v>
+        <v>1.00618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4845</v>
+        <v>0.486226</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19372</v>
+        <v>1.20103</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08125</v>
+        <v>1.09325</v>
       </c>
       <c r="D89" t="n">
-        <v>0.513093</v>
+        <v>0.517904</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29419</v>
+        <v>1.30151</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18121</v>
+        <v>1.18764</v>
       </c>
       <c r="D90" t="n">
-        <v>0.547207</v>
+        <v>0.54394</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41407</v>
+        <v>1.41182</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29204</v>
+        <v>1.30231</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58209</v>
+        <v>0.58087</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52037</v>
+        <v>1.52905</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40523</v>
+        <v>1.41888</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63489</v>
+        <v>0.620855</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64519</v>
+        <v>1.65501</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53317</v>
+        <v>1.5468</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673814</v>
+        <v>0.667259</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78536</v>
+        <v>1.79598</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66805</v>
+        <v>1.684</v>
       </c>
       <c r="D94" t="n">
-        <v>0.721547</v>
+        <v>0.718568</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92683</v>
+        <v>1.9374</v>
       </c>
       <c r="C95" t="n">
-        <v>1.80786</v>
+        <v>1.82728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.768566</v>
+        <v>0.772674</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08516</v>
+        <v>2.09933</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97317</v>
+        <v>1.99787</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834459</v>
+        <v>0.83313</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25035</v>
+        <v>2.26588</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20937</v>
+        <v>1.21687</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6310519999999999</v>
+        <v>0.632145</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41116</v>
+        <v>2.43009</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29006</v>
+        <v>1.29811</v>
       </c>
       <c r="D98" t="n">
-        <v>0.669441</v>
+        <v>0.6724290000000001</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6732</v>
+        <v>1.68083</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37435</v>
+        <v>1.38223</v>
       </c>
       <c r="D99" t="n">
-        <v>0.70909</v>
+        <v>0.71452</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76396</v>
+        <v>1.77489</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46829</v>
+        <v>1.47767</v>
       </c>
       <c r="D100" t="n">
-        <v>0.744764</v>
+        <v>0.745789</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8569</v>
+        <v>1.86708</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56602</v>
+        <v>1.57407</v>
       </c>
       <c r="D101" t="n">
-        <v>0.791655</v>
+        <v>0.798585</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.9617</v>
+        <v>1.97271</v>
       </c>
       <c r="C102" t="n">
-        <v>1.66325</v>
+        <v>1.67147</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834013</v>
+        <v>0.836809</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05637</v>
+        <v>2.07004</v>
       </c>
       <c r="C103" t="n">
-        <v>1.77265</v>
+        <v>1.7825</v>
       </c>
       <c r="D103" t="n">
-        <v>0.874749</v>
+        <v>0.880703</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17142</v>
+        <v>2.18284</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8857</v>
+        <v>1.89835</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9277840000000001</v>
+        <v>0.930397</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27277</v>
+        <v>2.2896</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00786</v>
+        <v>2.01866</v>
       </c>
       <c r="D105" t="n">
-        <v>0.984304</v>
+        <v>0.992866</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40071</v>
+        <v>2.41339</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12744</v>
+        <v>2.14063</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02476</v>
+        <v>1.03004</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.51814</v>
+        <v>2.53604</v>
       </c>
       <c r="C107" t="n">
-        <v>2.25309</v>
+        <v>2.27105</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08476</v>
+        <v>1.08669</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65459</v>
+        <v>2.6731</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4014</v>
+        <v>2.42819</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13761</v>
+        <v>1.14874</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79241</v>
+        <v>2.8059</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56024</v>
+        <v>2.58507</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20087</v>
+        <v>1.20624</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.93382</v>
+        <v>2.96077</v>
       </c>
       <c r="C110" t="n">
-        <v>2.70097</v>
+        <v>2.73145</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26336</v>
+        <v>1.27089</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1066</v>
+        <v>3.12029</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70844</v>
+        <v>1.71325</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00657</v>
+        <v>1.01132</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28319</v>
+        <v>3.2918</v>
       </c>
       <c r="C112" t="n">
-        <v>1.7983</v>
+        <v>1.80144</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05068</v>
+        <v>1.05065</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.42882</v>
+        <v>3.44169</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89153</v>
+        <v>1.89658</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07466</v>
+        <v>1.07771</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.29997</v>
+        <v>2.31713</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97265</v>
+        <v>1.98708</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10817</v>
+        <v>1.11769</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39111</v>
+        <v>2.40328</v>
       </c>
       <c r="C115" t="n">
-        <v>2.06643</v>
+        <v>2.07901</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16437</v>
+        <v>1.17366</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49428</v>
+        <v>2.50073</v>
       </c>
       <c r="C116" t="n">
-        <v>2.16674</v>
+        <v>2.17703</v>
       </c>
       <c r="D116" t="n">
-        <v>1.19176</v>
+        <v>1.19815</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60229</v>
+        <v>2.6069</v>
       </c>
       <c r="C117" t="n">
-        <v>2.27325</v>
+        <v>2.28819</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24645</v>
+        <v>1.25465</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.7002</v>
+        <v>2.70808</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40331</v>
+        <v>2.40251</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28918</v>
+        <v>1.29141</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80071</v>
+        <v>2.81906</v>
       </c>
       <c r="C119" t="n">
-        <v>2.50483</v>
+        <v>2.50758</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34098</v>
+        <v>1.34692</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246045</v>
+        <v>0.245423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185692</v>
+        <v>0.18598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.193961</v>
+        <v>0.194287</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191928</v>
+        <v>0.196818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191851</v>
+        <v>0.188368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196874</v>
+        <v>0.195724</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203102</v>
+        <v>0.20282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194149</v>
+        <v>0.193463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203833</v>
+        <v>0.202549</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208746</v>
+        <v>0.20789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200199</v>
+        <v>0.19863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210202</v>
+        <v>0.208009</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.213698</v>
+        <v>0.2135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205797</v>
+        <v>0.204951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215713</v>
+        <v>0.213505</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219772</v>
+        <v>0.218829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.165487</v>
+        <v>0.168038</v>
       </c>
       <c r="D7" t="n">
-        <v>0.180984</v>
+        <v>0.183043</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223555</v>
+        <v>0.223239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170167</v>
+        <v>0.172713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184054</v>
+        <v>0.184481</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.229193</v>
+        <v>0.228813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176155</v>
+        <v>0.176333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189108</v>
+        <v>0.189174</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233452</v>
+        <v>0.234305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178802</v>
+        <v>0.17928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.192364</v>
+        <v>0.194515</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238716</v>
+        <v>0.24002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182333</v>
+        <v>0.182997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196349</v>
+        <v>0.197834</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246683</v>
+        <v>0.246899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186559</v>
+        <v>0.188058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.202047</v>
+        <v>0.204135</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25139</v>
+        <v>0.252751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190956</v>
+        <v>0.193125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206414</v>
+        <v>0.207573</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256082</v>
+        <v>0.258096</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195242</v>
+        <v>0.197329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.209259</v>
+        <v>0.20959</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262339</v>
+        <v>0.265912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201503</v>
+        <v>0.203228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215471</v>
+        <v>0.216972</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267479</v>
+        <v>0.269791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204778</v>
+        <v>0.207132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217651</v>
+        <v>0.221116</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.274334</v>
+        <v>0.27774</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209675</v>
+        <v>0.212337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223317</v>
+        <v>0.227052</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.229669</v>
+        <v>0.231493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213863</v>
+        <v>0.21487</v>
       </c>
       <c r="D18" t="n">
-        <v>0.226692</v>
+        <v>0.229125</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.233764</v>
+        <v>0.23477</v>
       </c>
       <c r="C19" t="n">
-        <v>0.218544</v>
+        <v>0.219307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.231066</v>
+        <v>0.234691</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.237864</v>
+        <v>0.239437</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222082</v>
+        <v>0.22316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237692</v>
+        <v>0.238451</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24237</v>
+        <v>0.243814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187608</v>
+        <v>0.187694</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202909</v>
+        <v>0.203254</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.246968</v>
+        <v>0.248002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191393</v>
+        <v>0.191052</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206522</v>
+        <v>0.207185</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251206</v>
+        <v>0.252139</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19385</v>
+        <v>0.194506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210765</v>
+        <v>0.210152</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.25585</v>
+        <v>0.256504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197037</v>
+        <v>0.197838</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214151</v>
+        <v>0.214241</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261087</v>
+        <v>0.26148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200069</v>
+        <v>0.200834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217483</v>
+        <v>0.21762</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.267392</v>
+        <v>0.268155</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205054</v>
+        <v>0.205115</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221632</v>
+        <v>0.222153</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.271458</v>
+        <v>0.272075</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207764</v>
+        <v>0.208277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225357</v>
+        <v>0.226019</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277103</v>
+        <v>0.277929</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213147</v>
+        <v>0.213481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230085</v>
+        <v>0.230449</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281581</v>
+        <v>0.282061</v>
       </c>
       <c r="C29" t="n">
-        <v>0.217933</v>
+        <v>0.218283</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235016</v>
+        <v>0.235381</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287985</v>
+        <v>0.28855</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222337</v>
+        <v>0.222492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2389</v>
+        <v>0.239434</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293261</v>
+        <v>0.293641</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226836</v>
+        <v>0.227044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243408</v>
+        <v>0.244611</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.241693</v>
+        <v>0.242072</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231081</v>
+        <v>0.231042</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246914</v>
+        <v>0.247721</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245088</v>
+        <v>0.245364</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235788</v>
+        <v>0.236413</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252421</v>
+        <v>0.253165</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248464</v>
+        <v>0.248668</v>
       </c>
       <c r="C34" t="n">
-        <v>0.239717</v>
+        <v>0.239957</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256224</v>
+        <v>0.256368</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252231</v>
+        <v>0.252517</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195559</v>
+        <v>0.19551</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208387</v>
+        <v>0.208556</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256072</v>
+        <v>0.256297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19823</v>
+        <v>0.198364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211473</v>
+        <v>0.211564</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.259864</v>
+        <v>0.260123</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201286</v>
+        <v>0.201133</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214795</v>
+        <v>0.214904</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.264191</v>
+        <v>0.264544</v>
       </c>
       <c r="C38" t="n">
-        <v>0.204613</v>
+        <v>0.204566</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218647</v>
+        <v>0.218886</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268451</v>
+        <v>0.268685</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208344</v>
+        <v>0.208272</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222727</v>
+        <v>0.222987</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273177</v>
+        <v>0.273484</v>
       </c>
       <c r="C40" t="n">
-        <v>0.212097</v>
+        <v>0.212155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226688</v>
+        <v>0.226943</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.278613</v>
+        <v>0.278746</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215931</v>
+        <v>0.215941</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230606</v>
+        <v>0.230897</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283199</v>
+        <v>0.283507</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219672</v>
+        <v>0.219667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.234389</v>
+        <v>0.23446</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288274</v>
+        <v>0.288424</v>
       </c>
       <c r="C43" t="n">
-        <v>0.224129</v>
+        <v>0.224139</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238532</v>
+        <v>0.238706</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.29336</v>
+        <v>0.293822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.228835</v>
+        <v>0.228915</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243437</v>
+        <v>0.243608</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.298512</v>
+        <v>0.298925</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233293</v>
+        <v>0.233337</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247415</v>
+        <v>0.247631</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.302964</v>
+        <v>0.303562</v>
       </c>
       <c r="C46" t="n">
-        <v>0.237433</v>
+        <v>0.237324</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25158</v>
+        <v>0.251823</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250081</v>
+        <v>0.25031</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242216</v>
+        <v>0.242357</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255854</v>
+        <v>0.255873</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253129</v>
+        <v>0.253301</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24656</v>
+        <v>0.246921</v>
       </c>
       <c r="D48" t="n">
-        <v>0.259615</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256512</v>
+        <v>0.256674</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250404</v>
+        <v>0.250438</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263839</v>
+        <v>0.263911</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260109</v>
+        <v>0.260323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202628</v>
+        <v>0.202685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214982</v>
+        <v>0.214963</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.263846</v>
+        <v>0.264157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205345</v>
+        <v>0.205437</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218203</v>
+        <v>0.218201</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.26833</v>
+        <v>0.268543</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208251</v>
+        <v>0.208396</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221485</v>
+        <v>0.221606</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272642</v>
+        <v>0.272998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21176</v>
+        <v>0.21158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225167</v>
+        <v>0.225145</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277499</v>
+        <v>0.277583</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215195</v>
+        <v>0.215299</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228688</v>
+        <v>0.228968</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282391</v>
+        <v>0.282611</v>
       </c>
       <c r="C55" t="n">
-        <v>0.218843</v>
+        <v>0.218916</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232671</v>
+        <v>0.232394</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287496</v>
+        <v>0.28765</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223257</v>
+        <v>0.223121</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236885</v>
+        <v>0.236924</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292783</v>
+        <v>0.293039</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227655</v>
+        <v>0.227618</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241073</v>
+        <v>0.241042</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297361</v>
+        <v>0.297473</v>
       </c>
       <c r="C58" t="n">
-        <v>0.231904</v>
+        <v>0.231756</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245162</v>
+        <v>0.24526</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302213</v>
+        <v>0.302492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236696</v>
+        <v>0.236589</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249658</v>
+        <v>0.249615</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308037</v>
+        <v>0.308377</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241556</v>
+        <v>0.241241</v>
       </c>
       <c r="D60" t="n">
-        <v>0.254096</v>
+        <v>0.253797</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256126</v>
+        <v>0.258129</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24681</v>
+        <v>0.24644</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258059</v>
+        <v>0.258458</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25979</v>
+        <v>0.260136</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250617</v>
+        <v>0.250394</v>
       </c>
       <c r="D62" t="n">
-        <v>0.262533</v>
+        <v>0.262045</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26726</v>
+        <v>0.26796</v>
       </c>
       <c r="C63" t="n">
-        <v>0.255056</v>
+        <v>0.25488</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267202</v>
+        <v>0.266663</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274004</v>
+        <v>0.272786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.210263</v>
+        <v>0.210811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224184</v>
+        <v>0.222445</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.277139</v>
+        <v>0.276837</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213297</v>
+        <v>0.213873</v>
       </c>
       <c r="D65" t="n">
-        <v>0.226477</v>
+        <v>0.226581</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283697</v>
+        <v>0.281853</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219463</v>
+        <v>0.218959</v>
       </c>
       <c r="D66" t="n">
-        <v>0.231176</v>
+        <v>0.232768</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286895</v>
+        <v>0.28954</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220907</v>
+        <v>0.224012</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236838</v>
+        <v>0.237471</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.293507</v>
+        <v>0.298431</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22875</v>
+        <v>0.227846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243205</v>
+        <v>0.242054</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306304</v>
+        <v>0.304109</v>
       </c>
       <c r="C69" t="n">
-        <v>0.23099</v>
+        <v>0.232</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246649</v>
+        <v>0.246582</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31145</v>
+        <v>0.31153</v>
       </c>
       <c r="C70" t="n">
-        <v>0.23707</v>
+        <v>0.237447</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25125</v>
+        <v>0.251868</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.320677</v>
+        <v>0.321955</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244063</v>
+        <v>0.244176</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258035</v>
+        <v>0.257892</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.333675</v>
+        <v>0.334661</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250548</v>
+        <v>0.252403</v>
       </c>
       <c r="D72" t="n">
-        <v>0.265593</v>
+        <v>0.265279</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344898</v>
+        <v>0.348155</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257468</v>
+        <v>0.260083</v>
       </c>
       <c r="D73" t="n">
-        <v>0.272829</v>
+        <v>0.274737</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.356879</v>
+        <v>0.361266</v>
       </c>
       <c r="C74" t="n">
-        <v>0.266838</v>
+        <v>0.266333</v>
       </c>
       <c r="D74" t="n">
-        <v>0.279265</v>
+        <v>0.280692</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.373011</v>
+        <v>0.37285</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275528</v>
+        <v>0.274276</v>
       </c>
       <c r="D75" t="n">
-        <v>0.287711</v>
+        <v>0.286384</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.402372</v>
+        <v>0.407354</v>
       </c>
       <c r="C76" t="n">
-        <v>0.283372</v>
+        <v>0.29021</v>
       </c>
       <c r="D76" t="n">
-        <v>0.298553</v>
+        <v>0.297855</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411427</v>
+        <v>0.421217</v>
       </c>
       <c r="C77" t="n">
-        <v>0.294917</v>
+        <v>0.293247</v>
       </c>
       <c r="D77" t="n">
-        <v>0.306892</v>
+        <v>0.304257</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.430743</v>
+        <v>0.429565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.281345</v>
+        <v>0.285709</v>
       </c>
       <c r="D78" t="n">
-        <v>0.298477</v>
+        <v>0.303681</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.439153</v>
+        <v>0.442897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.294096</v>
+        <v>0.294472</v>
       </c>
       <c r="D79" t="n">
-        <v>0.312776</v>
+        <v>0.315286</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.457866</v>
+        <v>0.460551</v>
       </c>
       <c r="C80" t="n">
-        <v>0.302913</v>
+        <v>0.30799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.321346</v>
+        <v>0.326547</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.475886</v>
+        <v>0.476068</v>
       </c>
       <c r="C81" t="n">
-        <v>0.313447</v>
+        <v>0.316819</v>
       </c>
       <c r="D81" t="n">
-        <v>0.336812</v>
+        <v>0.340683</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.490922</v>
+        <v>0.495509</v>
       </c>
       <c r="C82" t="n">
-        <v>0.329278</v>
+        <v>0.328731</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348378</v>
+        <v>0.351283</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.511953</v>
+        <v>0.513379</v>
       </c>
       <c r="C83" t="n">
-        <v>0.340846</v>
+        <v>0.34249</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36353</v>
+        <v>0.365371</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.531728</v>
+        <v>0.532547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.354032</v>
+        <v>0.354535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379454</v>
+        <v>0.37776</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55265</v>
+        <v>0.554664</v>
       </c>
       <c r="C85" t="n">
-        <v>0.373645</v>
+        <v>0.37257</v>
       </c>
       <c r="D85" t="n">
-        <v>0.398336</v>
+        <v>0.39714</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.576247</v>
+        <v>0.577492</v>
       </c>
       <c r="C86" t="n">
-        <v>0.390902</v>
+        <v>0.389104</v>
       </c>
       <c r="D86" t="n">
-        <v>0.412194</v>
+        <v>0.412342</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.59873</v>
+        <v>0.59849</v>
       </c>
       <c r="C87" t="n">
-        <v>0.402168</v>
+        <v>0.402769</v>
       </c>
       <c r="D87" t="n">
-        <v>0.428562</v>
+        <v>0.430039</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6215039999999999</v>
+        <v>0.620413</v>
       </c>
       <c r="C88" t="n">
-        <v>0.417524</v>
+        <v>0.419277</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44804</v>
+        <v>0.450952</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644921</v>
+        <v>0.645163</v>
       </c>
       <c r="C89" t="n">
-        <v>0.434447</v>
+        <v>0.435463</v>
       </c>
       <c r="D89" t="n">
-        <v>0.465528</v>
+        <v>0.466305</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.668714</v>
+        <v>0.666941</v>
       </c>
       <c r="C90" t="n">
-        <v>0.44483</v>
+        <v>0.451299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.484191</v>
+        <v>0.485494</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.672086</v>
+        <v>0.67771</v>
       </c>
       <c r="C91" t="n">
-        <v>0.469897</v>
+        <v>0.46672</v>
       </c>
       <c r="D91" t="n">
-        <v>0.49491</v>
+        <v>0.491671</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683339</v>
+        <v>0.684263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.469626</v>
+        <v>0.470543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.491871</v>
+        <v>0.505113</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.69479</v>
+        <v>0.692817</v>
       </c>
       <c r="C93" t="n">
-        <v>0.467423</v>
+        <v>0.480197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5037430000000001</v>
+        <v>0.517871</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.704194</v>
+        <v>0.70429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.481556</v>
+        <v>0.489991</v>
       </c>
       <c r="D94" t="n">
-        <v>0.518497</v>
+        <v>0.527887</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.715859</v>
+        <v>0.716847</v>
       </c>
       <c r="C95" t="n">
-        <v>0.492858</v>
+        <v>0.500395</v>
       </c>
       <c r="D95" t="n">
-        <v>0.534339</v>
+        <v>0.54251</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.725863</v>
+        <v>0.728479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.496069</v>
+        <v>0.509607</v>
       </c>
       <c r="D96" t="n">
-        <v>0.548401</v>
+        <v>0.554457</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.741211</v>
+        <v>0.742129</v>
       </c>
       <c r="C97" t="n">
-        <v>0.520954</v>
+        <v>0.522262</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5637720000000001</v>
+        <v>0.568292</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.756906</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.534007</v>
+        <v>0.5342980000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.579966</v>
+        <v>0.581176</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.772757</v>
+        <v>0.773344</v>
       </c>
       <c r="C99" t="n">
-        <v>0.546271</v>
+        <v>0.547023</v>
       </c>
       <c r="D99" t="n">
-        <v>0.592836</v>
+        <v>0.593921</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.78968</v>
+        <v>0.790601</v>
       </c>
       <c r="C100" t="n">
-        <v>0.560409</v>
+        <v>0.56098</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608193</v>
+        <v>0.608607</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.807828</v>
+        <v>0.808764</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5751810000000001</v>
+        <v>0.575482</v>
       </c>
       <c r="D101" t="n">
-        <v>0.621891</v>
+        <v>0.622617</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.826465</v>
+        <v>0.827261</v>
       </c>
       <c r="C102" t="n">
-        <v>0.591145</v>
+        <v>0.591831</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637703</v>
+        <v>0.6396849999999999</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.846129</v>
+        <v>0.848139</v>
       </c>
       <c r="C103" t="n">
-        <v>0.606618</v>
+        <v>0.6084619999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.651932</v>
+        <v>0.653621</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.866944</v>
+        <v>0.868835</v>
       </c>
       <c r="C104" t="n">
-        <v>0.622827</v>
+        <v>0.622937</v>
       </c>
       <c r="D104" t="n">
-        <v>0.666946</v>
+        <v>0.667734</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.79152</v>
+        <v>0.797798</v>
       </c>
       <c r="C105" t="n">
-        <v>0.634998</v>
+        <v>0.642149</v>
       </c>
       <c r="D105" t="n">
-        <v>0.686406</v>
+        <v>0.687571</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.791428</v>
+        <v>0.806758</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6582209999999999</v>
+        <v>0.658774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.705562</v>
+        <v>0.708029</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7980930000000001</v>
+        <v>0.820668</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592097</v>
+        <v>0.607745</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64579</v>
+        <v>0.6637459999999999</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.814032</v>
+        <v>0.828319</v>
       </c>
       <c r="C108" t="n">
-        <v>0.598838</v>
+        <v>0.614062</v>
       </c>
       <c r="D108" t="n">
-        <v>0.653933</v>
+        <v>0.670302</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.823302</v>
+        <v>0.833059</v>
       </c>
       <c r="C109" t="n">
-        <v>0.610695</v>
+        <v>0.624004</v>
       </c>
       <c r="D109" t="n">
-        <v>0.667643</v>
+        <v>0.674243</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.834792</v>
+        <v>0.853012</v>
       </c>
       <c r="C110" t="n">
-        <v>0.620466</v>
+        <v>0.639823</v>
       </c>
       <c r="D110" t="n">
-        <v>0.68024</v>
+        <v>0.695506</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.846175</v>
+        <v>0.862296</v>
       </c>
       <c r="C111" t="n">
-        <v>0.617293</v>
+        <v>0.64623</v>
       </c>
       <c r="D111" t="n">
-        <v>0.691031</v>
+        <v>0.708654</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8595159999999999</v>
+        <v>0.8753649999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.643557</v>
+        <v>0.657411</v>
       </c>
       <c r="D112" t="n">
-        <v>0.70548</v>
+        <v>0.726778</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8742</v>
+        <v>0.897043</v>
       </c>
       <c r="C113" t="n">
-        <v>0.656259</v>
+        <v>0.675525</v>
       </c>
       <c r="D113" t="n">
-        <v>0.718059</v>
+        <v>0.736544</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.889711</v>
+        <v>0.9142709999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.669702</v>
+        <v>0.689588</v>
       </c>
       <c r="D114" t="n">
-        <v>0.732517</v>
+        <v>0.755713</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.906822</v>
+        <v>0.928278</v>
       </c>
       <c r="C115" t="n">
-        <v>0.684235</v>
+        <v>0.705201</v>
       </c>
       <c r="D115" t="n">
-        <v>0.746192</v>
+        <v>0.7687929999999999</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9243980000000001</v>
+        <v>0.947289</v>
       </c>
       <c r="C116" t="n">
-        <v>0.698881</v>
+        <v>0.717436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.759399</v>
+        <v>0.774277</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.944156</v>
+        <v>0.96543</v>
       </c>
       <c r="C117" t="n">
-        <v>0.714583</v>
+        <v>0.735213</v>
       </c>
       <c r="D117" t="n">
-        <v>0.773609</v>
+        <v>0.787981</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9648330000000001</v>
+        <v>0.992594</v>
       </c>
       <c r="C118" t="n">
-        <v>0.731083</v>
+        <v>0.755376</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7906300000000001</v>
+        <v>0.803383</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8550179999999999</v>
+        <v>0.888482</v>
       </c>
       <c r="C119" t="n">
-        <v>0.749004</v>
+        <v>0.7733370000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.804251</v>
+        <v>0.822354</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248416</v>
+        <v>0.249522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163676</v>
+        <v>0.164912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154113</v>
+        <v>0.154933</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221189</v>
+        <v>0.218969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167634</v>
+        <v>0.168178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153354</v>
+        <v>0.153866</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.226567</v>
+        <v>0.223751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.170339</v>
+        <v>0.172327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159185</v>
+        <v>0.159207</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232726</v>
+        <v>0.228663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176739</v>
+        <v>0.179138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161498</v>
+        <v>0.162093</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232264</v>
+        <v>0.229286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182083</v>
+        <v>0.185395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166188</v>
+        <v>0.167154</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.238789</v>
+        <v>0.2337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16939</v>
+        <v>0.166448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.166576</v>
+        <v>0.162522</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236167</v>
+        <v>0.235069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.168913</v>
+        <v>0.172209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168908</v>
+        <v>0.165664</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237805</v>
+        <v>0.236688</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173831</v>
+        <v>0.176405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166835</v>
+        <v>0.167708</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.243789</v>
+        <v>0.240069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178968</v>
+        <v>0.177874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169484</v>
+        <v>0.169319</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242747</v>
+        <v>0.239897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17482</v>
+        <v>0.175552</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170292</v>
+        <v>0.171271</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25431</v>
+        <v>0.252374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187432</v>
+        <v>0.184714</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176103</v>
+        <v>0.173281</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257082</v>
+        <v>0.25482</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188484</v>
+        <v>0.185106</v>
       </c>
       <c r="D13" t="n">
-        <v>0.18219</v>
+        <v>0.175752</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.259719</v>
+        <v>0.255305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187603</v>
+        <v>0.185466</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180193</v>
+        <v>0.174608</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267048</v>
+        <v>0.264374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194177</v>
+        <v>0.192015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.183921</v>
+        <v>0.179371</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272366</v>
+        <v>0.270701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198538</v>
+        <v>0.194973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.186115</v>
+        <v>0.180382</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278003</v>
+        <v>0.275596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202453</v>
+        <v>0.19868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.193331</v>
+        <v>0.184087</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258468</v>
+        <v>0.256733</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208365</v>
+        <v>0.206315</v>
       </c>
       <c r="D18" t="n">
-        <v>0.190765</v>
+        <v>0.186168</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26144</v>
+        <v>0.260626</v>
       </c>
       <c r="C19" t="n">
-        <v>0.212526</v>
+        <v>0.209859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193562</v>
+        <v>0.190694</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264185</v>
+        <v>0.264604</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218336</v>
+        <v>0.217306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197309</v>
+        <v>0.193281</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272626</v>
+        <v>0.272819</v>
       </c>
       <c r="C21" t="n">
-        <v>0.192845</v>
+        <v>0.193687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192733</v>
+        <v>0.192457</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.274533</v>
+        <v>0.273259</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205389</v>
+        <v>0.206327</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195252</v>
+        <v>0.195546</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277918</v>
+        <v>0.277959</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208782</v>
+        <v>0.208637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197429</v>
+        <v>0.19734</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279965</v>
+        <v>0.278958</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210612</v>
+        <v>0.215776</v>
       </c>
       <c r="D24" t="n">
-        <v>0.202034</v>
+        <v>0.201658</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283837</v>
+        <v>0.283579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226217</v>
+        <v>0.22606</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205256</v>
+        <v>0.204085</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29345</v>
+        <v>0.292792</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226113</v>
+        <v>0.226512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208469</v>
+        <v>0.20683</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294233</v>
+        <v>0.294483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.232312</v>
+        <v>0.233149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210472</v>
+        <v>0.210241</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297207</v>
+        <v>0.297171</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235096</v>
+        <v>0.235382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213119</v>
+        <v>0.212547</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306846</v>
+        <v>0.306812</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238869</v>
+        <v>0.239251</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214897</v>
+        <v>0.214589</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31064</v>
+        <v>0.310484</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25069</v>
+        <v>0.251016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219737</v>
+        <v>0.219212</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.313953</v>
+        <v>0.314159</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25019</v>
+        <v>0.25026</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221754</v>
+        <v>0.222027</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280537</v>
+        <v>0.280377</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258656</v>
+        <v>0.259082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225872</v>
+        <v>0.225416</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286265</v>
+        <v>0.285622</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266274</v>
+        <v>0.266711</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229237</v>
+        <v>0.229275</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291295</v>
+        <v>0.29148</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270071</v>
+        <v>0.270336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232373</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292557</v>
+        <v>0.292366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.213925</v>
+        <v>0.214221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210102</v>
+        <v>0.211038</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297456</v>
+        <v>0.297261</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220585</v>
+        <v>0.220026</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212163</v>
+        <v>0.212123</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304328</v>
+        <v>0.303892</v>
       </c>
       <c r="C37" t="n">
-        <v>0.223338</v>
+        <v>0.22289</v>
       </c>
       <c r="D37" t="n">
-        <v>0.215102</v>
+        <v>0.214578</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306696</v>
+        <v>0.305582</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2276</v>
+        <v>0.227932</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216816</v>
+        <v>0.216558</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313556</v>
+        <v>0.313062</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232571</v>
+        <v>0.233137</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219529</v>
+        <v>0.219487</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321506</v>
+        <v>0.321429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236101</v>
+        <v>0.236483</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221307</v>
+        <v>0.221569</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327427</v>
+        <v>0.326885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.240762</v>
+        <v>0.240195</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223068</v>
+        <v>0.22291</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332042</v>
+        <v>0.331643</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241122</v>
+        <v>0.241337</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224858</v>
+        <v>0.224867</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337928</v>
+        <v>0.33744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246008</v>
+        <v>0.24617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227349</v>
+        <v>0.227612</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.341007</v>
+        <v>0.340555</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250435</v>
+        <v>0.250302</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229006</v>
+        <v>0.228971</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.349329</v>
+        <v>0.348489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254079</v>
+        <v>0.254133</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231259</v>
+        <v>0.231109</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.350163</v>
+        <v>0.349487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254603</v>
+        <v>0.254821</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232711</v>
+        <v>0.232798</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289675</v>
+        <v>0.288098</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259823</v>
+        <v>0.260331</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234961</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294131</v>
+        <v>0.294406</v>
       </c>
       <c r="C48" t="n">
-        <v>0.26359</v>
+        <v>0.263872</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235649</v>
+        <v>0.236184</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.298484</v>
+        <v>0.298081</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269255</v>
+        <v>0.26944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239227</v>
+        <v>0.239325</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.302304</v>
+        <v>0.302066</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240809</v>
+        <v>0.23811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224328</v>
+        <v>0.224481</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304856</v>
+        <v>0.304822</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243416</v>
+        <v>0.243408</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226143</v>
+        <v>0.226254</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307485</v>
+        <v>0.307616</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245977</v>
+        <v>0.24652</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227748</v>
+        <v>0.227566</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312652</v>
+        <v>0.313</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251831</v>
+        <v>0.251658</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229243</v>
+        <v>0.229541</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320638</v>
+        <v>0.320713</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254842</v>
+        <v>0.254689</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231722</v>
+        <v>0.231641</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.32054</v>
+        <v>0.320615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260084</v>
+        <v>0.259787</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234008</v>
+        <v>0.234253</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326232</v>
+        <v>0.325954</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259713</v>
+        <v>0.259264</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23503</v>
+        <v>0.23504</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333797</v>
+        <v>0.334094</v>
       </c>
       <c r="C57" t="n">
-        <v>0.267525</v>
+        <v>0.267548</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237293</v>
+        <v>0.237564</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334928</v>
+        <v>0.335028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273728</v>
+        <v>0.273752</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240965</v>
+        <v>0.240974</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342658</v>
+        <v>0.342869</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280375</v>
+        <v>0.279981</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244284</v>
+        <v>0.244425</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347827</v>
+        <v>0.347901</v>
       </c>
       <c r="C60" t="n">
-        <v>0.284725</v>
+        <v>0.284319</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247847</v>
+        <v>0.248011</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305403</v>
+        <v>0.305131</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289173</v>
+        <v>0.289052</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249127</v>
+        <v>0.249206</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313923</v>
+        <v>0.313886</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293546</v>
+        <v>0.292714</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250791</v>
+        <v>0.25092</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.320238</v>
+        <v>0.318872</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298903</v>
+        <v>0.298478</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254319</v>
+        <v>0.254287</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325838</v>
+        <v>0.328578</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260681</v>
+        <v>0.264201</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243328</v>
+        <v>0.243576</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.32315</v>
+        <v>0.330682</v>
       </c>
       <c r="C65" t="n">
-        <v>0.266907</v>
+        <v>0.26798</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242216</v>
+        <v>0.24181</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.331442</v>
+        <v>0.337136</v>
       </c>
       <c r="C66" t="n">
-        <v>0.266176</v>
+        <v>0.270774</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242256</v>
+        <v>0.243449</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340914</v>
+        <v>0.343732</v>
       </c>
       <c r="C67" t="n">
-        <v>0.277909</v>
+        <v>0.27841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246194</v>
+        <v>0.246392</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350078</v>
+        <v>0.351691</v>
       </c>
       <c r="C68" t="n">
-        <v>0.280846</v>
+        <v>0.28129</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247884</v>
+        <v>0.248773</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.355594</v>
+        <v>0.357319</v>
       </c>
       <c r="C69" t="n">
-        <v>0.282056</v>
+        <v>0.286119</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252621</v>
+        <v>0.252703</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365626</v>
+        <v>0.366918</v>
       </c>
       <c r="C70" t="n">
-        <v>0.290952</v>
+        <v>0.291152</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255539</v>
+        <v>0.255496</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.375936</v>
+        <v>0.377596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29737</v>
+        <v>0.297489</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257446</v>
+        <v>0.257837</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.385407</v>
+        <v>0.385816</v>
       </c>
       <c r="C72" t="n">
-        <v>0.304185</v>
+        <v>0.304048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262428</v>
+        <v>0.262645</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.396175</v>
+        <v>0.40002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.311953</v>
+        <v>0.311985</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26798</v>
+        <v>0.26878</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.404029</v>
+        <v>0.411016</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316648</v>
+        <v>0.317327</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26753</v>
+        <v>0.267908</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.420916</v>
+        <v>0.42991</v>
       </c>
       <c r="C75" t="n">
-        <v>0.322521</v>
+        <v>0.323745</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271138</v>
+        <v>0.272507</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.416935</v>
+        <v>0.429948</v>
       </c>
       <c r="C76" t="n">
-        <v>0.329917</v>
+        <v>0.336433</v>
       </c>
       <c r="D76" t="n">
-        <v>0.278088</v>
+        <v>0.279002</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441525</v>
+        <v>0.451103</v>
       </c>
       <c r="C77" t="n">
-        <v>0.342233</v>
+        <v>0.343499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.280867</v>
+        <v>0.281774</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.457943</v>
+        <v>0.465911</v>
       </c>
       <c r="C78" t="n">
-        <v>0.298092</v>
+        <v>0.300217</v>
       </c>
       <c r="D78" t="n">
-        <v>0.276481</v>
+        <v>0.276769</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.490459</v>
+        <v>0.489771</v>
       </c>
       <c r="C79" t="n">
-        <v>0.30428</v>
+        <v>0.31223</v>
       </c>
       <c r="D79" t="n">
-        <v>0.275991</v>
+        <v>0.283398</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.513558</v>
+        <v>0.51672</v>
       </c>
       <c r="C80" t="n">
-        <v>0.29654</v>
+        <v>0.333188</v>
       </c>
       <c r="D80" t="n">
-        <v>0.285151</v>
+        <v>0.29318</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.539956</v>
+        <v>0.548397</v>
       </c>
       <c r="C81" t="n">
-        <v>0.334044</v>
+        <v>0.335528</v>
       </c>
       <c r="D81" t="n">
-        <v>0.294299</v>
+        <v>0.301387</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.572645</v>
+        <v>0.576603</v>
       </c>
       <c r="C82" t="n">
-        <v>0.317234</v>
+        <v>0.35621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.294176</v>
+        <v>0.307607</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.60279</v>
+        <v>0.610816</v>
       </c>
       <c r="C83" t="n">
-        <v>0.340805</v>
+        <v>0.366042</v>
       </c>
       <c r="D83" t="n">
-        <v>0.298513</v>
+        <v>0.31559</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.648779</v>
+        <v>0.657229</v>
       </c>
       <c r="C84" t="n">
-        <v>0.370866</v>
+        <v>0.381242</v>
       </c>
       <c r="D84" t="n">
-        <v>0.308874</v>
+        <v>0.326105</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6892740000000001</v>
+        <v>0.686554</v>
       </c>
       <c r="C85" t="n">
-        <v>0.399673</v>
+        <v>0.399508</v>
       </c>
       <c r="D85" t="n">
-        <v>0.329786</v>
+        <v>0.330063</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.720039</v>
+        <v>0.72673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.414537</v>
+        <v>0.419093</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335242</v>
+        <v>0.345979</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.760581</v>
+        <v>0.764252</v>
       </c>
       <c r="C87" t="n">
-        <v>0.438556</v>
+        <v>0.441126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359224</v>
+        <v>0.35982</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.803634</v>
+        <v>0.807457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.461882</v>
+        <v>0.465033</v>
       </c>
       <c r="D88" t="n">
-        <v>0.365311</v>
+        <v>0.372294</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858023</v>
+        <v>0.8607590000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.49281</v>
+        <v>0.494832</v>
       </c>
       <c r="D89" t="n">
-        <v>0.386546</v>
+        <v>0.3912</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.857325</v>
+        <v>0.864065</v>
       </c>
       <c r="C90" t="n">
-        <v>0.501208</v>
+        <v>0.522203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.395367</v>
+        <v>0.401136</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.886453</v>
+        <v>0.899317</v>
       </c>
       <c r="C91" t="n">
-        <v>0.547644</v>
+        <v>0.556986</v>
       </c>
       <c r="D91" t="n">
-        <v>0.402469</v>
+        <v>0.418203</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.911476</v>
+        <v>0.9297029999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.558962</v>
+        <v>0.560374</v>
       </c>
       <c r="D92" t="n">
-        <v>0.489936</v>
+        <v>0.497423</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.955512</v>
+        <v>0.96101</v>
       </c>
       <c r="C93" t="n">
-        <v>0.584221</v>
+        <v>0.584032</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519805</v>
+        <v>0.5207540000000001</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.996417</v>
+        <v>0.998814</v>
       </c>
       <c r="C94" t="n">
-        <v>0.610022</v>
+        <v>0.610803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.537257</v>
+        <v>0.537169</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03142</v>
+        <v>1.03262</v>
       </c>
       <c r="C95" t="n">
-        <v>0.634597</v>
+        <v>0.635894</v>
       </c>
       <c r="D95" t="n">
-        <v>0.550773</v>
+        <v>0.553561</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06561</v>
+        <v>1.06442</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6633019999999999</v>
+        <v>0.663152</v>
       </c>
       <c r="D96" t="n">
-        <v>0.569375</v>
+        <v>0.572305</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10298</v>
+        <v>1.10672</v>
       </c>
       <c r="C97" t="n">
-        <v>0.690741</v>
+        <v>0.690897</v>
       </c>
       <c r="D97" t="n">
-        <v>0.576929</v>
+        <v>0.597761</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12543</v>
+        <v>1.13757</v>
       </c>
       <c r="C98" t="n">
-        <v>0.705261</v>
+        <v>0.721795</v>
       </c>
       <c r="D98" t="n">
-        <v>0.615009</v>
+        <v>0.614609</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17334</v>
+        <v>1.17314</v>
       </c>
       <c r="C99" t="n">
-        <v>0.751684</v>
+        <v>0.752807</v>
       </c>
       <c r="D99" t="n">
-        <v>0.631391</v>
+        <v>0.633195</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21113</v>
+        <v>1.21123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.781478</v>
+        <v>0.782165</v>
       </c>
       <c r="D100" t="n">
-        <v>0.650591</v>
+        <v>0.653235</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24558</v>
+        <v>1.24459</v>
       </c>
       <c r="C101" t="n">
-        <v>0.808691</v>
+        <v>0.80908</v>
       </c>
       <c r="D101" t="n">
-        <v>0.667638</v>
+        <v>0.673073</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.27879</v>
+        <v>1.28148</v>
       </c>
       <c r="C102" t="n">
-        <v>0.843763</v>
+        <v>0.844696</v>
       </c>
       <c r="D102" t="n">
-        <v>0.692604</v>
+        <v>0.690836</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31489</v>
+        <v>1.31839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.874254</v>
+        <v>0.8751100000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7101730000000001</v>
+        <v>0.710623</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.35497</v>
+        <v>1.3562</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9051630000000001</v>
+        <v>0.905819</v>
       </c>
       <c r="D104" t="n">
-        <v>0.731738</v>
+        <v>0.733075</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.24598</v>
+        <v>1.24666</v>
       </c>
       <c r="C105" t="n">
-        <v>0.937048</v>
+        <v>0.940661</v>
       </c>
       <c r="D105" t="n">
-        <v>0.745827</v>
+        <v>0.748521</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26599</v>
+        <v>1.26829</v>
       </c>
       <c r="C106" t="n">
-        <v>0.973392</v>
+        <v>0.971291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776691</v>
+        <v>0.774242</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.29397</v>
+        <v>1.29103</v>
       </c>
       <c r="C107" t="n">
-        <v>0.877543</v>
+        <v>0.875958</v>
       </c>
       <c r="D107" t="n">
-        <v>0.762391</v>
+        <v>0.783848</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32019</v>
+        <v>1.31433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.892293</v>
+        <v>0.89338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.79628</v>
+        <v>0.797457</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.34124</v>
+        <v>1.33856</v>
       </c>
       <c r="C109" t="n">
-        <v>0.919624</v>
+        <v>0.9210660000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.815619</v>
+        <v>0.815339</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36279</v>
+        <v>1.36109</v>
       </c>
       <c r="C110" t="n">
-        <v>0.939587</v>
+        <v>0.94082</v>
       </c>
       <c r="D110" t="n">
-        <v>0.82863</v>
+        <v>0.828931</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38765</v>
+        <v>1.38852</v>
       </c>
       <c r="C111" t="n">
-        <v>0.960342</v>
+        <v>0.960422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.843231</v>
+        <v>0.844073</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.41399</v>
+        <v>1.41401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9868749999999999</v>
+        <v>0.9880100000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.859977</v>
+        <v>0.862887</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43935</v>
+        <v>1.44378</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01159</v>
+        <v>1.0132</v>
       </c>
       <c r="D113" t="n">
-        <v>0.873055</v>
+        <v>0.875718</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46968</v>
+        <v>1.4739</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03218</v>
+        <v>1.0349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886034</v>
+        <v>0.8900400000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49688</v>
+        <v>1.5016</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06039</v>
+        <v>1.06334</v>
       </c>
       <c r="D115" t="n">
-        <v>0.898828</v>
+        <v>0.902093</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52828</v>
+        <v>1.53438</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08773</v>
+        <v>1.09089</v>
       </c>
       <c r="D116" t="n">
-        <v>0.914958</v>
+        <v>0.917886</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56184</v>
+        <v>1.56841</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11241</v>
+        <v>1.11526</v>
       </c>
       <c r="D117" t="n">
-        <v>0.931969</v>
+        <v>0.935264</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59558</v>
+        <v>1.59968</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14461</v>
+        <v>1.14712</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946014</v>
+        <v>0.950341</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42226</v>
+        <v>1.42724</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1724</v>
+        <v>1.17504</v>
       </c>
       <c r="D119" t="n">
-        <v>0.959731</v>
+        <v>0.963524</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.389429</v>
+        <v>0.392223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283159</v>
+        <v>0.287644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21875</v>
+        <v>0.220129</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.398075</v>
+        <v>0.402655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286054</v>
+        <v>0.296049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219549</v>
+        <v>0.221211</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411368</v>
+        <v>0.414727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300698</v>
+        <v>0.307856</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230755</v>
+        <v>0.231855</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41606</v>
+        <v>0.419429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309043</v>
+        <v>0.321851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236399</v>
+        <v>0.237266</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.433198</v>
+        <v>0.43943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.320804</v>
+        <v>0.330129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237549</v>
+        <v>0.239211</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.444272</v>
+        <v>0.451911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328718</v>
+        <v>0.338922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245687</v>
+        <v>0.247761</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.462289</v>
+        <v>0.463187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.352435</v>
+        <v>0.35364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.255732</v>
+        <v>0.256581</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.483408</v>
+        <v>0.483381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.368253</v>
+        <v>0.369508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.266852</v>
+        <v>0.267236</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.499407</v>
+        <v>0.4982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385384</v>
+        <v>0.388801</v>
       </c>
       <c r="D10" t="n">
-        <v>0.275694</v>
+        <v>0.276586</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.515313</v>
+        <v>0.513938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.290846</v>
+        <v>0.294798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221307</v>
+        <v>0.219867</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.385913</v>
+        <v>0.387063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.299373</v>
+        <v>0.298187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223061</v>
+        <v>0.222782</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397138</v>
+        <v>0.396793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.30948</v>
+        <v>0.308905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229278</v>
+        <v>0.231813</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406577</v>
+        <v>0.405374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.318301</v>
+        <v>0.320461</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236072</v>
+        <v>0.232279</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.424004</v>
+        <v>0.426328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.330129</v>
+        <v>0.332472</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239174</v>
+        <v>0.241108</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.434394</v>
+        <v>0.43758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.351727</v>
+        <v>0.351451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247922</v>
+        <v>0.247595</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448271</v>
+        <v>0.449647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.359895</v>
+        <v>0.361261</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253495</v>
+        <v>0.254465</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.468482</v>
+        <v>0.472592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.365509</v>
+        <v>0.374041</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252873</v>
+        <v>0.254807</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.47769</v>
+        <v>0.484968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.388085</v>
+        <v>0.393696</v>
       </c>
       <c r="D19" t="n">
-        <v>0.26374</v>
+        <v>0.264579</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5005270000000001</v>
+        <v>0.504485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.406098</v>
+        <v>0.411452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.273733</v>
+        <v>0.277435</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.513894</v>
+        <v>0.518144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.423214</v>
+        <v>0.428654</v>
       </c>
       <c r="D21" t="n">
-        <v>0.287771</v>
+        <v>0.288909</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.537802</v>
+        <v>0.543019</v>
       </c>
       <c r="C22" t="n">
-        <v>0.448235</v>
+        <v>0.452414</v>
       </c>
       <c r="D22" t="n">
-        <v>0.291548</v>
+        <v>0.296159</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.555149</v>
+        <v>0.557499</v>
       </c>
       <c r="C23" t="n">
-        <v>0.467799</v>
+        <v>0.473347</v>
       </c>
       <c r="D23" t="n">
-        <v>0.305035</v>
+        <v>0.306053</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.588403</v>
+        <v>0.593464</v>
       </c>
       <c r="C24" t="n">
-        <v>0.486424</v>
+        <v>0.490495</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314903</v>
+        <v>0.31668</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.623848</v>
+        <v>0.628683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.511467</v>
+        <v>0.518464</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325875</v>
+        <v>0.333398</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647226</v>
+        <v>0.657135</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322403</v>
+        <v>0.33165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234839</v>
+        <v>0.243477</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.426847</v>
+        <v>0.435245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.329167</v>
+        <v>0.336785</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237653</v>
+        <v>0.244795</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.441738</v>
+        <v>0.449675</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339855</v>
+        <v>0.347757</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244228</v>
+        <v>0.254326</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.456749</v>
+        <v>0.465114</v>
       </c>
       <c r="C29" t="n">
-        <v>0.345346</v>
+        <v>0.353246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251943</v>
+        <v>0.25528</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.473936</v>
+        <v>0.480985</v>
       </c>
       <c r="C30" t="n">
-        <v>0.362517</v>
+        <v>0.369363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25884</v>
+        <v>0.26197</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.493884</v>
+        <v>0.496529</v>
       </c>
       <c r="C31" t="n">
-        <v>0.373894</v>
+        <v>0.379081</v>
       </c>
       <c r="D31" t="n">
-        <v>0.263286</v>
+        <v>0.26889</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5078</v>
+        <v>0.512906</v>
       </c>
       <c r="C32" t="n">
-        <v>0.390809</v>
+        <v>0.397697</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274181</v>
+        <v>0.274894</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.534453</v>
+        <v>0.5389429999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.406211</v>
+        <v>0.412028</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287586</v>
+        <v>0.287318</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.54921</v>
+        <v>0.553585</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42323</v>
+        <v>0.42824</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292389</v>
+        <v>0.29164</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575011</v>
+        <v>0.57518</v>
       </c>
       <c r="C35" t="n">
-        <v>0.444393</v>
+        <v>0.449501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301731</v>
+        <v>0.301013</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.591744</v>
+        <v>0.595375</v>
       </c>
       <c r="C36" t="n">
-        <v>0.459882</v>
+        <v>0.465532</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311857</v>
+        <v>0.316206</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.607227</v>
+        <v>0.611915</v>
       </c>
       <c r="C37" t="n">
-        <v>0.484469</v>
+        <v>0.490516</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322691</v>
+        <v>0.323652</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.632677</v>
+        <v>0.638055</v>
       </c>
       <c r="C38" t="n">
-        <v>0.504225</v>
+        <v>0.510884</v>
       </c>
       <c r="D38" t="n">
-        <v>0.332573</v>
+        <v>0.33527</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.667421</v>
+        <v>0.67065</v>
       </c>
       <c r="C39" t="n">
-        <v>0.52442</v>
+        <v>0.529243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.342211</v>
+        <v>0.346082</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.689855</v>
+        <v>0.688594</v>
       </c>
       <c r="C40" t="n">
-        <v>0.379132</v>
+        <v>0.379697</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280541</v>
+        <v>0.279293</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5011679999999999</v>
+        <v>0.502349</v>
       </c>
       <c r="C41" t="n">
-        <v>0.391343</v>
+        <v>0.392009</v>
       </c>
       <c r="D41" t="n">
-        <v>0.286818</v>
+        <v>0.287113</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513313</v>
+        <v>0.5148740000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.402506</v>
+        <v>0.403952</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293303</v>
+        <v>0.294852</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.526417</v>
+        <v>0.5275</v>
       </c>
       <c r="C43" t="n">
-        <v>0.415132</v>
+        <v>0.415712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299987</v>
+        <v>0.300059</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542107</v>
+        <v>0.543232</v>
       </c>
       <c r="C44" t="n">
-        <v>0.432325</v>
+        <v>0.43277</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310222</v>
+        <v>0.310634</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.559436</v>
+        <v>0.560079</v>
       </c>
       <c r="C45" t="n">
-        <v>0.444435</v>
+        <v>0.444924</v>
       </c>
       <c r="D45" t="n">
-        <v>0.314046</v>
+        <v>0.318511</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.571453</v>
+        <v>0.5726250000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.461079</v>
+        <v>0.461075</v>
       </c>
       <c r="D46" t="n">
-        <v>0.323136</v>
+        <v>0.322749</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594386</v>
+        <v>0.5947480000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.475532</v>
+        <v>0.476563</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331752</v>
+        <v>0.332022</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611473</v>
+        <v>0.611044</v>
       </c>
       <c r="C48" t="n">
-        <v>0.490146</v>
+        <v>0.489898</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342892</v>
+        <v>0.342567</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623687</v>
+        <v>0.623375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5080750000000001</v>
+        <v>0.508321</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349884</v>
+        <v>0.349502</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.651587</v>
+        <v>0.651641</v>
       </c>
       <c r="C50" t="n">
-        <v>0.525076</v>
+        <v>0.525185</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359261</v>
+        <v>0.35899</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.677509</v>
+        <v>0.67594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.545394</v>
+        <v>0.54567</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371254</v>
+        <v>0.371016</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.701254</v>
+        <v>0.699365</v>
       </c>
       <c r="C52" t="n">
-        <v>0.567866</v>
+        <v>0.568431</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381693</v>
+        <v>0.378731</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7262110000000001</v>
+        <v>0.726925</v>
       </c>
       <c r="C53" t="n">
-        <v>0.588867</v>
+        <v>0.5891380000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.393371</v>
+        <v>0.393654</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.751842</v>
+        <v>0.751958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.425235</v>
+        <v>0.42524</v>
       </c>
       <c r="D54" t="n">
-        <v>0.314161</v>
+        <v>0.314163</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.782721</v>
+        <v>0.781953</v>
       </c>
       <c r="C55" t="n">
-        <v>0.433404</v>
+        <v>0.432659</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319284</v>
+        <v>0.319376</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536656</v>
+        <v>0.53606</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4474</v>
+        <v>0.447341</v>
       </c>
       <c r="D56" t="n">
-        <v>0.326174</v>
+        <v>0.325227</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.549364</v>
+        <v>0.5498</v>
       </c>
       <c r="C57" t="n">
-        <v>0.457971</v>
+        <v>0.457727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.333259</v>
+        <v>0.332606</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565795</v>
+        <v>0.565593</v>
       </c>
       <c r="C58" t="n">
-        <v>0.470046</v>
+        <v>0.469899</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337782</v>
+        <v>0.336962</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5803199999999999</v>
+        <v>0.579533</v>
       </c>
       <c r="C59" t="n">
-        <v>0.484916</v>
+        <v>0.485284</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346284</v>
+        <v>0.346081</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588768</v>
+        <v>0.588292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.498674</v>
+        <v>0.498928</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351583</v>
+        <v>0.351111</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608603</v>
+        <v>0.608052</v>
       </c>
       <c r="C61" t="n">
-        <v>0.511703</v>
+        <v>0.51163</v>
       </c>
       <c r="D61" t="n">
-        <v>0.35928</v>
+        <v>0.359501</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628558</v>
+        <v>0.628837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.525348</v>
+        <v>0.524998</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367948</v>
+        <v>0.367921</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.647599</v>
+        <v>0.646826</v>
       </c>
       <c r="C63" t="n">
-        <v>0.546576</v>
+        <v>0.54593</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375595</v>
+        <v>0.375912</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.671411</v>
+        <v>0.669059</v>
       </c>
       <c r="C64" t="n">
-        <v>0.560683</v>
+        <v>0.55962</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386431</v>
+        <v>0.385957</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697962</v>
+        <v>0.695821</v>
       </c>
       <c r="C65" t="n">
-        <v>0.58386</v>
+        <v>0.583172</v>
       </c>
       <c r="D65" t="n">
-        <v>0.397671</v>
+        <v>0.396872</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.721312</v>
+        <v>0.719587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.599924</v>
+        <v>0.600745</v>
       </c>
       <c r="D66" t="n">
-        <v>0.407004</v>
+        <v>0.406412</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.75364</v>
+        <v>0.7490059999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.62116</v>
+        <v>0.620144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.42005</v>
+        <v>0.419968</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.775153</v>
+        <v>0.77194</v>
       </c>
       <c r="C68" t="n">
-        <v>0.418665</v>
+        <v>0.420184</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312869</v>
+        <v>0.313502</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.818807</v>
+        <v>0.816805</v>
       </c>
       <c r="C69" t="n">
-        <v>0.431225</v>
+        <v>0.431797</v>
       </c>
       <c r="D69" t="n">
-        <v>0.319795</v>
+        <v>0.320953</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.552984</v>
+        <v>0.554163</v>
       </c>
       <c r="C70" t="n">
-        <v>0.448399</v>
+        <v>0.45018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32981</v>
+        <v>0.33078</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.572837</v>
+        <v>0.574547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.466183</v>
+        <v>0.468206</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336484</v>
+        <v>0.337562</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.60353</v>
+        <v>0.602869</v>
       </c>
       <c r="C72" t="n">
-        <v>0.483489</v>
+        <v>0.484566</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345768</v>
+        <v>0.346809</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.628039</v>
+        <v>0.6305190000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.504094</v>
+        <v>0.505572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.354776</v>
+        <v>0.35537</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.650396</v>
+        <v>0.655853</v>
       </c>
       <c r="C74" t="n">
-        <v>0.521447</v>
+        <v>0.523965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.36505</v>
+        <v>0.365289</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.686011</v>
+        <v>0.68745</v>
       </c>
       <c r="C75" t="n">
-        <v>0.548201</v>
+        <v>0.54959</v>
       </c>
       <c r="D75" t="n">
-        <v>0.37573</v>
+        <v>0.375287</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7249</v>
+        <v>0.723873</v>
       </c>
       <c r="C76" t="n">
-        <v>0.575183</v>
+        <v>0.575997</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385807</v>
+        <v>0.38566</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.760535</v>
+        <v>0.758845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.606593</v>
+        <v>0.604417</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399619</v>
+        <v>0.399921</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808974</v>
+        <v>0.80122</v>
       </c>
       <c r="C78" t="n">
-        <v>0.636431</v>
+        <v>0.633423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.41185</v>
+        <v>0.411335</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.856062</v>
+        <v>0.853816</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6724560000000001</v>
+        <v>0.667682</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428259</v>
+        <v>0.424623</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.92397</v>
+        <v>0.916905</v>
       </c>
       <c r="C80" t="n">
-        <v>0.718726</v>
+        <v>0.709636</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444554</v>
+        <v>0.441469</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00254</v>
+        <v>0.991807</v>
       </c>
       <c r="C81" t="n">
-        <v>0.772714</v>
+        <v>0.769031</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46502</v>
+        <v>0.462388</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07082</v>
+        <v>1.06464</v>
       </c>
       <c r="C82" t="n">
-        <v>0.817427</v>
+        <v>0.815821</v>
       </c>
       <c r="D82" t="n">
-        <v>0.480319</v>
+        <v>0.477366</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1564</v>
+        <v>1.15564</v>
       </c>
       <c r="C83" t="n">
-        <v>0.601616</v>
+        <v>0.6028019999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.385616</v>
+        <v>0.383675</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25745</v>
+        <v>1.2625</v>
       </c>
       <c r="C84" t="n">
-        <v>0.640964</v>
+        <v>0.636629</v>
       </c>
       <c r="D84" t="n">
-        <v>0.398929</v>
+        <v>0.397172</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.880242</v>
+        <v>0.870363</v>
       </c>
       <c r="C85" t="n">
-        <v>0.681053</v>
+        <v>0.68088</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413297</v>
+        <v>0.410372</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950774</v>
+        <v>0.94267</v>
       </c>
       <c r="C86" t="n">
-        <v>0.740055</v>
+        <v>0.737739</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433159</v>
+        <v>0.42515</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02433</v>
+        <v>1.01907</v>
       </c>
       <c r="C87" t="n">
-        <v>0.795268</v>
+        <v>0.797851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.456222</v>
+        <v>0.451361</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09824</v>
+        <v>1.10266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.870128</v>
+        <v>0.876626</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482512</v>
+        <v>0.482141</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19015</v>
+        <v>1.19409</v>
       </c>
       <c r="C89" t="n">
-        <v>0.942715</v>
+        <v>0.948007</v>
       </c>
       <c r="D89" t="n">
-        <v>0.505643</v>
+        <v>0.507217</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.28347</v>
+        <v>1.30312</v>
       </c>
       <c r="C90" t="n">
-        <v>1.0173</v>
+        <v>1.03018</v>
       </c>
       <c r="D90" t="n">
-        <v>0.532628</v>
+        <v>0.5417650000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39518</v>
+        <v>1.41544</v>
       </c>
       <c r="C91" t="n">
-        <v>1.10779</v>
+        <v>1.12758</v>
       </c>
       <c r="D91" t="n">
-        <v>0.574906</v>
+        <v>0.589245</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.50962</v>
+        <v>1.52955</v>
       </c>
       <c r="C92" t="n">
-        <v>1.19607</v>
+        <v>1.21064</v>
       </c>
       <c r="D92" t="n">
-        <v>0.613527</v>
+        <v>0.626787</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64498</v>
+        <v>1.65449</v>
       </c>
       <c r="C93" t="n">
-        <v>1.30054</v>
+        <v>1.31789</v>
       </c>
       <c r="D93" t="n">
-        <v>0.659368</v>
+        <v>0.669014</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78098</v>
+        <v>1.79713</v>
       </c>
       <c r="C94" t="n">
-        <v>1.40408</v>
+        <v>1.41699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.710184</v>
+        <v>0.723382</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92268</v>
+        <v>1.93503</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51641</v>
+        <v>1.52914</v>
       </c>
       <c r="D95" t="n">
-        <v>0.772566</v>
+        <v>0.771879</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08222</v>
+        <v>2.10118</v>
       </c>
       <c r="C96" t="n">
-        <v>1.64485</v>
+        <v>1.66017</v>
       </c>
       <c r="D96" t="n">
-        <v>0.828812</v>
+        <v>0.827251</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.24925</v>
+        <v>2.27048</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07468</v>
+        <v>1.08541</v>
       </c>
       <c r="D97" t="n">
-        <v>0.62785</v>
+        <v>0.628894</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41594</v>
+        <v>2.43218</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14536</v>
+        <v>1.15508</v>
       </c>
       <c r="D98" t="n">
-        <v>0.66013</v>
+        <v>0.664381</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.66949</v>
+        <v>1.68013</v>
       </c>
       <c r="C99" t="n">
-        <v>1.21588</v>
+        <v>1.22613</v>
       </c>
       <c r="D99" t="n">
-        <v>0.708663</v>
+        <v>0.71071</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76083</v>
+        <v>1.77361</v>
       </c>
       <c r="C100" t="n">
-        <v>1.29651</v>
+        <v>1.30287</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7375969999999999</v>
+        <v>0.746942</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.85326</v>
+        <v>1.86531</v>
       </c>
       <c r="C101" t="n">
-        <v>1.3722</v>
+        <v>1.3813</v>
       </c>
       <c r="D101" t="n">
-        <v>0.789933</v>
+        <v>0.793752</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.95807</v>
+        <v>1.96932</v>
       </c>
       <c r="C102" t="n">
-        <v>1.45291</v>
+        <v>1.4632</v>
       </c>
       <c r="D102" t="n">
-        <v>0.831828</v>
+        <v>0.835914</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05424</v>
+        <v>2.06749</v>
       </c>
       <c r="C103" t="n">
-        <v>1.53487</v>
+        <v>1.54701</v>
       </c>
       <c r="D103" t="n">
-        <v>0.871475</v>
+        <v>0.8779709999999999</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.16691</v>
+        <v>2.18119</v>
       </c>
       <c r="C104" t="n">
-        <v>1.62589</v>
+        <v>1.63729</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9190390000000001</v>
+        <v>0.922006</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27385</v>
+        <v>2.2877</v>
       </c>
       <c r="C105" t="n">
-        <v>1.71762</v>
+        <v>1.73524</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9869520000000001</v>
+        <v>0.993326</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.39922</v>
+        <v>2.41635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.81061</v>
+        <v>1.82203</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03024</v>
+        <v>1.03243</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.52037</v>
+        <v>2.53692</v>
       </c>
       <c r="C107" t="n">
-        <v>1.90604</v>
+        <v>1.92151</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0763</v>
+        <v>1.07941</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65916</v>
+        <v>2.67901</v>
       </c>
       <c r="C108" t="n">
-        <v>2.01871</v>
+        <v>2.03152</v>
       </c>
       <c r="D108" t="n">
-        <v>1.12893</v>
+        <v>1.13522</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79914</v>
+        <v>2.81734</v>
       </c>
       <c r="C109" t="n">
-        <v>2.11489</v>
+        <v>2.15337</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18376</v>
+        <v>1.21033</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.95705</v>
+        <v>2.98139</v>
       </c>
       <c r="C110" t="n">
-        <v>2.24043</v>
+        <v>2.25323</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27875</v>
+        <v>1.28083</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.11981</v>
+        <v>3.15324</v>
       </c>
       <c r="C111" t="n">
-        <v>1.52922</v>
+        <v>1.5463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.984486</v>
+        <v>1.00006</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28684</v>
+        <v>3.30664</v>
       </c>
       <c r="C112" t="n">
-        <v>1.60304</v>
+        <v>1.62591</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03714</v>
+        <v>1.04606</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.43051</v>
+        <v>3.45852</v>
       </c>
       <c r="C113" t="n">
-        <v>1.67211</v>
+        <v>1.69942</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08339</v>
+        <v>1.09251</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.28786</v>
+        <v>2.31618</v>
       </c>
       <c r="C114" t="n">
-        <v>1.74054</v>
+        <v>1.76045</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09869</v>
+        <v>1.12434</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39144</v>
+        <v>2.41414</v>
       </c>
       <c r="C115" t="n">
-        <v>1.81008</v>
+        <v>1.8305</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14155</v>
+        <v>1.16919</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49132</v>
+        <v>2.51108</v>
       </c>
       <c r="C116" t="n">
-        <v>1.88646</v>
+        <v>1.90967</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18505</v>
+        <v>1.21701</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60154</v>
+        <v>2.61986</v>
       </c>
       <c r="C117" t="n">
-        <v>1.97426</v>
+        <v>1.9949</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23783</v>
+        <v>1.25009</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.68859</v>
+        <v>2.71853</v>
       </c>
       <c r="C118" t="n">
-        <v>2.07025</v>
+        <v>2.08501</v>
       </c>
       <c r="D118" t="n">
-        <v>1.284</v>
+        <v>1.3063</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80732</v>
+        <v>2.82867</v>
       </c>
       <c r="C119" t="n">
-        <v>2.1502</v>
+        <v>2.17254</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32434</v>
+        <v>1.34074</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245423</v>
+        <v>0.249286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18598</v>
+        <v>0.186917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194287</v>
+        <v>0.19868</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196818</v>
+        <v>0.196655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188368</v>
+        <v>0.187666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195724</v>
+        <v>0.200597</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20282</v>
+        <v>0.202714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193463</v>
+        <v>0.19464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202549</v>
+        <v>0.20723</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20789</v>
+        <v>0.209036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19863</v>
+        <v>0.19984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.208009</v>
+        <v>0.213429</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2135</v>
+        <v>0.215743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204951</v>
+        <v>0.203237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213505</v>
+        <v>0.218917</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218829</v>
+        <v>0.218769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168038</v>
+        <v>0.166638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.183043</v>
+        <v>0.182329</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223239</v>
+        <v>0.226207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172713</v>
+        <v>0.170359</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184481</v>
+        <v>0.187408</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228813</v>
+        <v>0.230861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176333</v>
+        <v>0.174579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189174</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234305</v>
+        <v>0.236346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17928</v>
+        <v>0.177621</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194515</v>
+        <v>0.194574</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.24002</v>
+        <v>0.240985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182997</v>
+        <v>0.182059</v>
       </c>
       <c r="D11" t="n">
-        <v>0.197834</v>
+        <v>0.197803</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246899</v>
+        <v>0.24861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188058</v>
+        <v>0.188207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204135</v>
+        <v>0.204129</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252751</v>
+        <v>0.253099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193125</v>
+        <v>0.190909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.207573</v>
+        <v>0.207617</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258096</v>
+        <v>0.258877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197329</v>
+        <v>0.194899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.20959</v>
+        <v>0.211463</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265912</v>
+        <v>0.265734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203228</v>
+        <v>0.200144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.216972</v>
+        <v>0.216938</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269791</v>
+        <v>0.269812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.207132</v>
+        <v>0.204182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221116</v>
+        <v>0.221143</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.27774</v>
+        <v>0.276763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212337</v>
+        <v>0.209527</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227052</v>
+        <v>0.227324</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.231493</v>
+        <v>0.230942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21487</v>
+        <v>0.212584</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229125</v>
+        <v>0.229639</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23477</v>
+        <v>0.234834</v>
       </c>
       <c r="C19" t="n">
-        <v>0.219307</v>
+        <v>0.217246</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234691</v>
+        <v>0.235765</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239437</v>
+        <v>0.239538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22316</v>
+        <v>0.220275</v>
       </c>
       <c r="D20" t="n">
-        <v>0.238451</v>
+        <v>0.23908</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243814</v>
+        <v>0.243793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187694</v>
+        <v>0.185132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203254</v>
+        <v>0.202883</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248002</v>
+        <v>0.248305</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191052</v>
+        <v>0.189116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207185</v>
+        <v>0.207366</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252139</v>
+        <v>0.252482</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194506</v>
+        <v>0.192327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210152</v>
+        <v>0.210801</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.256504</v>
+        <v>0.257449</v>
       </c>
       <c r="C24" t="n">
-        <v>0.197838</v>
+        <v>0.195477</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214241</v>
+        <v>0.214184</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26148</v>
+        <v>0.262589</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200834</v>
+        <v>0.198589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21762</v>
+        <v>0.218354</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268155</v>
+        <v>0.268487</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205115</v>
+        <v>0.203364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222153</v>
+        <v>0.222662</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272075</v>
+        <v>0.273427</v>
       </c>
       <c r="C27" t="n">
-        <v>0.208277</v>
+        <v>0.206963</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226019</v>
+        <v>0.225766</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277929</v>
+        <v>0.278847</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213481</v>
+        <v>0.212045</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230449</v>
+        <v>0.231087</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282061</v>
+        <v>0.283753</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218283</v>
+        <v>0.216962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235381</v>
+        <v>0.236148</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.28855</v>
+        <v>0.289513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222492</v>
+        <v>0.220878</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239434</v>
+        <v>0.24044</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293641</v>
+        <v>0.294818</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227044</v>
+        <v>0.225357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244611</v>
+        <v>0.244552</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242072</v>
+        <v>0.242193</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231042</v>
+        <v>0.228915</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247721</v>
+        <v>0.247672</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245364</v>
+        <v>0.245997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236413</v>
+        <v>0.233543</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253165</v>
+        <v>0.253706</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248668</v>
+        <v>0.2488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.239957</v>
+        <v>0.237112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256368</v>
+        <v>0.259489</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252517</v>
+        <v>0.252889</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19551</v>
+        <v>0.193088</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208556</v>
+        <v>0.210798</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256297</v>
+        <v>0.256994</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198364</v>
+        <v>0.195664</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211564</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260123</v>
+        <v>0.260897</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201133</v>
+        <v>0.198549</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214904</v>
+        <v>0.217257</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.264544</v>
+        <v>0.265256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.204566</v>
+        <v>0.20211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218886</v>
+        <v>0.221325</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268685</v>
+        <v>0.269666</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208272</v>
+        <v>0.205954</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222987</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273484</v>
+        <v>0.274656</v>
       </c>
       <c r="C40" t="n">
-        <v>0.212155</v>
+        <v>0.209854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226943</v>
+        <v>0.22944</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.278746</v>
+        <v>0.279386</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215941</v>
+        <v>0.213982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230897</v>
+        <v>0.23341</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283507</v>
+        <v>0.284443</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219667</v>
+        <v>0.217673</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23446</v>
+        <v>0.237371</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288424</v>
+        <v>0.289593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.224139</v>
+        <v>0.221829</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238706</v>
+        <v>0.241753</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293822</v>
+        <v>0.294845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.228915</v>
+        <v>0.226404</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243608</v>
+        <v>0.246259</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.298925</v>
+        <v>0.300141</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233337</v>
+        <v>0.230757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247631</v>
+        <v>0.250455</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303562</v>
+        <v>0.304612</v>
       </c>
       <c r="C46" t="n">
-        <v>0.237324</v>
+        <v>0.234754</v>
       </c>
       <c r="D46" t="n">
-        <v>0.251823</v>
+        <v>0.25429</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.25031</v>
+        <v>0.250869</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242357</v>
+        <v>0.239011</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255873</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253301</v>
+        <v>0.253577</v>
       </c>
       <c r="C48" t="n">
-        <v>0.246921</v>
+        <v>0.242835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2598</v>
+        <v>0.262539</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256674</v>
+        <v>0.257066</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250438</v>
+        <v>0.246487</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263911</v>
+        <v>0.266807</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260323</v>
+        <v>0.26082</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202685</v>
+        <v>0.200201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214963</v>
+        <v>0.216366</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264157</v>
+        <v>0.264579</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205437</v>
+        <v>0.202869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218201</v>
+        <v>0.219605</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268543</v>
+        <v>0.26874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208396</v>
+        <v>0.205811</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221606</v>
+        <v>0.223213</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272998</v>
+        <v>0.273548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21158</v>
+        <v>0.209098</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225145</v>
+        <v>0.226872</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277583</v>
+        <v>0.278307</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215299</v>
+        <v>0.212841</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228968</v>
+        <v>0.230329</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282611</v>
+        <v>0.283401</v>
       </c>
       <c r="C55" t="n">
-        <v>0.218916</v>
+        <v>0.21649</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232394</v>
+        <v>0.234331</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.28765</v>
+        <v>0.288637</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223121</v>
+        <v>0.220757</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236924</v>
+        <v>0.238415</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293039</v>
+        <v>0.293768</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227618</v>
+        <v>0.225135</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241042</v>
+        <v>0.242781</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297473</v>
+        <v>0.298437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.231756</v>
+        <v>0.229314</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24526</v>
+        <v>0.246735</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302492</v>
+        <v>0.303461</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236589</v>
+        <v>0.233815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249615</v>
+        <v>0.251272</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308377</v>
+        <v>0.309038</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241241</v>
+        <v>0.238456</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253797</v>
+        <v>0.255523</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258129</v>
+        <v>0.256423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24644</v>
+        <v>0.24236</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258458</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260136</v>
+        <v>0.257587</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250394</v>
+        <v>0.246163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.262045</v>
+        <v>0.264254</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26796</v>
+        <v>0.267931</v>
       </c>
       <c r="C63" t="n">
-        <v>0.25488</v>
+        <v>0.250317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.266663</v>
+        <v>0.268753</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.272786</v>
+        <v>0.274041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.210811</v>
+        <v>0.207521</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222445</v>
+        <v>0.225212</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.276837</v>
+        <v>0.276648</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213873</v>
+        <v>0.211371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.226581</v>
+        <v>0.229077</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.281853</v>
+        <v>0.280735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218959</v>
+        <v>0.215537</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232768</v>
+        <v>0.23341</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.28954</v>
+        <v>0.292063</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224012</v>
+        <v>0.220106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.237471</v>
+        <v>0.238509</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.298431</v>
+        <v>0.298956</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227846</v>
+        <v>0.224611</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242054</v>
+        <v>0.24411</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.304109</v>
+        <v>0.30697</v>
       </c>
       <c r="C69" t="n">
-        <v>0.232</v>
+        <v>0.228082</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246582</v>
+        <v>0.249138</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31153</v>
+        <v>0.315515</v>
       </c>
       <c r="C70" t="n">
-        <v>0.237447</v>
+        <v>0.235848</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251868</v>
+        <v>0.254407</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321955</v>
+        <v>0.32557</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244176</v>
+        <v>0.241635</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257892</v>
+        <v>0.260335</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.334661</v>
+        <v>0.335774</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252403</v>
+        <v>0.24848</v>
       </c>
       <c r="D72" t="n">
-        <v>0.265279</v>
+        <v>0.26699</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.348155</v>
+        <v>0.349135</v>
       </c>
       <c r="C73" t="n">
-        <v>0.260083</v>
+        <v>0.255526</v>
       </c>
       <c r="D73" t="n">
-        <v>0.274737</v>
+        <v>0.275517</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361266</v>
+        <v>0.362925</v>
       </c>
       <c r="C74" t="n">
-        <v>0.266333</v>
+        <v>0.263919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.280692</v>
+        <v>0.284073</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.37285</v>
+        <v>0.377857</v>
       </c>
       <c r="C75" t="n">
-        <v>0.274276</v>
+        <v>0.271763</v>
       </c>
       <c r="D75" t="n">
-        <v>0.286384</v>
+        <v>0.290937</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.407354</v>
+        <v>0.410529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.29021</v>
+        <v>0.279649</v>
       </c>
       <c r="D76" t="n">
-        <v>0.297855</v>
+        <v>0.301629</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.421217</v>
+        <v>0.421813</v>
       </c>
       <c r="C77" t="n">
-        <v>0.293247</v>
+        <v>0.291701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304257</v>
+        <v>0.311183</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429565</v>
+        <v>0.431367</v>
       </c>
       <c r="C78" t="n">
-        <v>0.285709</v>
+        <v>0.276402</v>
       </c>
       <c r="D78" t="n">
-        <v>0.303681</v>
+        <v>0.301534</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442897</v>
+        <v>0.449857</v>
       </c>
       <c r="C79" t="n">
-        <v>0.294472</v>
+        <v>0.289515</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315286</v>
+        <v>0.317574</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.460551</v>
+        <v>0.457914</v>
       </c>
       <c r="C80" t="n">
-        <v>0.30799</v>
+        <v>0.299778</v>
       </c>
       <c r="D80" t="n">
-        <v>0.326547</v>
+        <v>0.325921</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.476068</v>
+        <v>0.481464</v>
       </c>
       <c r="C81" t="n">
-        <v>0.316819</v>
+        <v>0.306894</v>
       </c>
       <c r="D81" t="n">
-        <v>0.340683</v>
+        <v>0.340283</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.495509</v>
+        <v>0.494784</v>
       </c>
       <c r="C82" t="n">
-        <v>0.328731</v>
+        <v>0.321993</v>
       </c>
       <c r="D82" t="n">
-        <v>0.351283</v>
+        <v>0.35307</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.513379</v>
+        <v>0.518686</v>
       </c>
       <c r="C83" t="n">
-        <v>0.34249</v>
+        <v>0.330963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.365371</v>
+        <v>0.369335</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.532547</v>
+        <v>0.5363059999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.354535</v>
+        <v>0.346929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37776</v>
+        <v>0.38272</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.554664</v>
+        <v>0.556822</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37257</v>
+        <v>0.362777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.39714</v>
+        <v>0.402188</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.577492</v>
+        <v>0.580534</v>
       </c>
       <c r="C86" t="n">
-        <v>0.389104</v>
+        <v>0.377069</v>
       </c>
       <c r="D86" t="n">
-        <v>0.412342</v>
+        <v>0.415291</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.59849</v>
+        <v>0.599554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.402769</v>
+        <v>0.386236</v>
       </c>
       <c r="D87" t="n">
-        <v>0.430039</v>
+        <v>0.431641</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.620413</v>
+        <v>0.622929</v>
       </c>
       <c r="C88" t="n">
-        <v>0.419277</v>
+        <v>0.402561</v>
       </c>
       <c r="D88" t="n">
-        <v>0.450952</v>
+        <v>0.449065</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.645163</v>
+        <v>0.645811</v>
       </c>
       <c r="C89" t="n">
-        <v>0.435463</v>
+        <v>0.4176</v>
       </c>
       <c r="D89" t="n">
-        <v>0.466305</v>
+        <v>0.466902</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.666941</v>
+        <v>0.667046</v>
       </c>
       <c r="C90" t="n">
-        <v>0.451299</v>
+        <v>0.434789</v>
       </c>
       <c r="D90" t="n">
-        <v>0.485494</v>
+        <v>0.485364</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.67771</v>
+        <v>0.676172</v>
       </c>
       <c r="C91" t="n">
-        <v>0.46672</v>
+        <v>0.447564</v>
       </c>
       <c r="D91" t="n">
-        <v>0.491671</v>
+        <v>0.496415</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.684263</v>
+        <v>0.6835599999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.470543</v>
+        <v>0.446769</v>
       </c>
       <c r="D92" t="n">
-        <v>0.505113</v>
+        <v>0.506279</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.692817</v>
+        <v>0.6937410000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.480197</v>
+        <v>0.455395</v>
       </c>
       <c r="D93" t="n">
-        <v>0.517871</v>
+        <v>0.518139</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.70429</v>
+        <v>0.704916</v>
       </c>
       <c r="C94" t="n">
-        <v>0.489991</v>
+        <v>0.462699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.527887</v>
+        <v>0.526334</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716847</v>
+        <v>0.71617</v>
       </c>
       <c r="C95" t="n">
-        <v>0.500395</v>
+        <v>0.474202</v>
       </c>
       <c r="D95" t="n">
-        <v>0.54251</v>
+        <v>0.542118</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.728479</v>
+        <v>0.728406</v>
       </c>
       <c r="C96" t="n">
-        <v>0.509607</v>
+        <v>0.485064</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554457</v>
+        <v>0.554611</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.742129</v>
+        <v>0.743221</v>
       </c>
       <c r="C97" t="n">
-        <v>0.522262</v>
+        <v>0.495164</v>
       </c>
       <c r="D97" t="n">
-        <v>0.568292</v>
+        <v>0.566628</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.758809</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5342980000000001</v>
+        <v>0.5067469999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581176</v>
+        <v>0.581344</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.773344</v>
+        <v>0.774656</v>
       </c>
       <c r="C99" t="n">
-        <v>0.547023</v>
+        <v>0.5186539999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593921</v>
+        <v>0.594135</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.790601</v>
+        <v>0.79242</v>
       </c>
       <c r="C100" t="n">
-        <v>0.56098</v>
+        <v>0.531006</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608607</v>
+        <v>0.608926</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.808764</v>
+        <v>0.8101739999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.575482</v>
+        <v>0.543462</v>
       </c>
       <c r="D101" t="n">
-        <v>0.622617</v>
+        <v>0.622323</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.827261</v>
+        <v>0.8287369999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.591831</v>
+        <v>0.557039</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6396849999999999</v>
+        <v>0.638879</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848139</v>
+        <v>0.848864</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6084619999999999</v>
+        <v>0.570427</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653621</v>
+        <v>0.653582</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.868835</v>
+        <v>0.869797</v>
       </c>
       <c r="C104" t="n">
-        <v>0.622937</v>
+        <v>0.584959</v>
       </c>
       <c r="D104" t="n">
-        <v>0.667734</v>
+        <v>0.669697</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.797798</v>
+        <v>0.794727</v>
       </c>
       <c r="C105" t="n">
-        <v>0.642149</v>
+        <v>0.598815</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687571</v>
+        <v>0.688692</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.806758</v>
+        <v>0.800921</v>
       </c>
       <c r="C106" t="n">
-        <v>0.658774</v>
+        <v>0.615291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.708029</v>
+        <v>0.70789</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.820668</v>
+        <v>0.810286</v>
       </c>
       <c r="C107" t="n">
-        <v>0.607745</v>
+        <v>0.554137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6637459999999999</v>
+        <v>0.649929</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.828319</v>
+        <v>0.818322</v>
       </c>
       <c r="C108" t="n">
-        <v>0.614062</v>
+        <v>0.562833</v>
       </c>
       <c r="D108" t="n">
-        <v>0.670302</v>
+        <v>0.66021</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.833059</v>
+        <v>0.82812</v>
       </c>
       <c r="C109" t="n">
-        <v>0.624004</v>
+        <v>0.572321</v>
       </c>
       <c r="D109" t="n">
-        <v>0.674243</v>
+        <v>0.67166</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.853012</v>
+        <v>0.839429</v>
       </c>
       <c r="C110" t="n">
-        <v>0.639823</v>
+        <v>0.583237</v>
       </c>
       <c r="D110" t="n">
-        <v>0.695506</v>
+        <v>0.683526</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.862296</v>
+        <v>0.850696</v>
       </c>
       <c r="C111" t="n">
-        <v>0.64623</v>
+        <v>0.592027</v>
       </c>
       <c r="D111" t="n">
-        <v>0.708654</v>
+        <v>0.694886</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8753649999999999</v>
+        <v>0.864652</v>
       </c>
       <c r="C112" t="n">
-        <v>0.657411</v>
+        <v>0.6030759999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.726778</v>
+        <v>0.708243</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.897043</v>
+        <v>0.879316</v>
       </c>
       <c r="C113" t="n">
-        <v>0.675525</v>
+        <v>0.614686</v>
       </c>
       <c r="D113" t="n">
-        <v>0.736544</v>
+        <v>0.721434</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9142709999999999</v>
+        <v>0.8950630000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.689588</v>
+        <v>0.62676</v>
       </c>
       <c r="D114" t="n">
-        <v>0.755713</v>
+        <v>0.736084</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.928278</v>
+        <v>0.912435</v>
       </c>
       <c r="C115" t="n">
-        <v>0.705201</v>
+        <v>0.638974</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7687929999999999</v>
+        <v>0.750077</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.947289</v>
+        <v>0.930145</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717436</v>
+        <v>0.651721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.774277</v>
+        <v>0.76213</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.96543</v>
+        <v>0.950317</v>
       </c>
       <c r="C117" t="n">
-        <v>0.735213</v>
+        <v>0.664942</v>
       </c>
       <c r="D117" t="n">
-        <v>0.787981</v>
+        <v>0.7763640000000001</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.992594</v>
+        <v>0.970755</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755376</v>
+        <v>0.678461</v>
       </c>
       <c r="D118" t="n">
-        <v>0.803383</v>
+        <v>0.793927</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.888482</v>
+        <v>0.859423</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7733370000000001</v>
+        <v>0.693004</v>
       </c>
       <c r="D119" t="n">
-        <v>0.822354</v>
+        <v>0.808298</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249522</v>
+        <v>0.248406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164912</v>
+        <v>0.164858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154933</v>
+        <v>0.154454</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218969</v>
+        <v>0.218035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168178</v>
+        <v>0.16885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153866</v>
+        <v>0.152984</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223751</v>
+        <v>0.222243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.172327</v>
+        <v>0.172809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159207</v>
+        <v>0.158419</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228663</v>
+        <v>0.227475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.179138</v>
+        <v>0.177773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162093</v>
+        <v>0.161852</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229286</v>
+        <v>0.228292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185395</v>
+        <v>0.183405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.167154</v>
+        <v>0.165986</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2337</v>
+        <v>0.231996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.166448</v>
+        <v>0.166191</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162522</v>
+        <v>0.159322</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235069</v>
+        <v>0.233241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172209</v>
+        <v>0.17027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.165664</v>
+        <v>0.162878</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236688</v>
+        <v>0.234613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176405</v>
+        <v>0.173655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167708</v>
+        <v>0.166198</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240069</v>
+        <v>0.240917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177874</v>
+        <v>0.180866</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169319</v>
+        <v>0.170247</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.239897</v>
+        <v>0.238225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175552</v>
+        <v>0.176007</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171271</v>
+        <v>0.166535</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252374</v>
+        <v>0.250717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.184714</v>
+        <v>0.188834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173281</v>
+        <v>0.176364</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25482</v>
+        <v>0.255744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.185106</v>
+        <v>0.188026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175752</v>
+        <v>0.175866</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.255305</v>
+        <v>0.255928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185466</v>
+        <v>0.191713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174608</v>
+        <v>0.176638</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264374</v>
+        <v>0.265047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.192015</v>
+        <v>0.195386</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179371</v>
+        <v>0.179316</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270701</v>
+        <v>0.269723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.194973</v>
+        <v>0.199812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180382</v>
+        <v>0.180482</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275596</v>
+        <v>0.274532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19868</v>
+        <v>0.203104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.184087</v>
+        <v>0.18105</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256733</v>
+        <v>0.252672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206315</v>
+        <v>0.207269</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186168</v>
+        <v>0.185989</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260626</v>
+        <v>0.259788</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209859</v>
+        <v>0.213848</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190694</v>
+        <v>0.188763</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264604</v>
+        <v>0.261612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.217306</v>
+        <v>0.215251</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193281</v>
+        <v>0.189599</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272819</v>
+        <v>0.268753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193687</v>
+        <v>0.205043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192457</v>
+        <v>0.188814</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273259</v>
+        <v>0.27088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206327</v>
+        <v>0.209819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195546</v>
+        <v>0.192452</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277959</v>
+        <v>0.275412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208637</v>
+        <v>0.212008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19734</v>
+        <v>0.195708</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.278958</v>
+        <v>0.279911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215776</v>
+        <v>0.222513</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201658</v>
+        <v>0.199437</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283579</v>
+        <v>0.2832</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22606</v>
+        <v>0.230709</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204085</v>
+        <v>0.201183</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292792</v>
+        <v>0.291244</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226512</v>
+        <v>0.226065</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20683</v>
+        <v>0.204887</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294483</v>
+        <v>0.294555</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233149</v>
+        <v>0.238579</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210241</v>
+        <v>0.209725</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297171</v>
+        <v>0.297045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235382</v>
+        <v>0.240824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212547</v>
+        <v>0.211938</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306812</v>
+        <v>0.306279</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239251</v>
+        <v>0.246525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214589</v>
+        <v>0.214793</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310484</v>
+        <v>0.310184</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251016</v>
+        <v>0.256874</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219212</v>
+        <v>0.219359</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314159</v>
+        <v>0.313767</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25026</v>
+        <v>0.254027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222027</v>
+        <v>0.22106</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280377</v>
+        <v>0.280352</v>
       </c>
       <c r="C32" t="n">
-        <v>0.259082</v>
+        <v>0.260211</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225416</v>
+        <v>0.22356</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285622</v>
+        <v>0.286102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266711</v>
+        <v>0.269357</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229275</v>
+        <v>0.228621</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.29148</v>
+        <v>0.290656</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270336</v>
+        <v>0.275932</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2322</v>
+        <v>0.231982</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292366</v>
+        <v>0.292137</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214221</v>
+        <v>0.2167</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211038</v>
+        <v>0.210387</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297261</v>
+        <v>0.296901</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220026</v>
+        <v>0.222447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212123</v>
+        <v>0.212237</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.303892</v>
+        <v>0.30353</v>
       </c>
       <c r="C37" t="n">
-        <v>0.22289</v>
+        <v>0.227686</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214578</v>
+        <v>0.213532</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305582</v>
+        <v>0.306124</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227932</v>
+        <v>0.229875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216558</v>
+        <v>0.21609</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313062</v>
+        <v>0.312577</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233137</v>
+        <v>0.235896</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219487</v>
+        <v>0.219786</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321429</v>
+        <v>0.320475</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236483</v>
+        <v>0.232884</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221569</v>
+        <v>0.221069</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326885</v>
+        <v>0.32656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.240195</v>
+        <v>0.243037</v>
       </c>
       <c r="D41" t="n">
-        <v>0.22291</v>
+        <v>0.223718</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331643</v>
+        <v>0.331093</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241337</v>
+        <v>0.244117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224867</v>
+        <v>0.225171</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.33744</v>
+        <v>0.337112</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24617</v>
+        <v>0.248899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227612</v>
+        <v>0.227568</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340555</v>
+        <v>0.339927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250302</v>
+        <v>0.253314</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228971</v>
+        <v>0.229042</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348489</v>
+        <v>0.348245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254133</v>
+        <v>0.256032</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231109</v>
+        <v>0.231137</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349487</v>
+        <v>0.349142</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254821</v>
+        <v>0.256668</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232798</v>
+        <v>0.232653</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.288098</v>
+        <v>0.288926</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260331</v>
+        <v>0.260962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234375</v>
+        <v>0.234417</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294406</v>
+        <v>0.293693</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263872</v>
+        <v>0.267314</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236184</v>
+        <v>0.235897</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.298081</v>
+        <v>0.297336</v>
       </c>
       <c r="C49" t="n">
-        <v>0.26944</v>
+        <v>0.27021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239325</v>
+        <v>0.239101</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.302066</v>
+        <v>0.300992</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23811</v>
+        <v>0.240768</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224481</v>
+        <v>0.224268</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304822</v>
+        <v>0.303802</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243408</v>
+        <v>0.24331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226254</v>
+        <v>0.225625</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307616</v>
+        <v>0.306477</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24652</v>
+        <v>0.246826</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227566</v>
+        <v>0.226795</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.313</v>
+        <v>0.312586</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251658</v>
+        <v>0.251202</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229541</v>
+        <v>0.229768</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320713</v>
+        <v>0.320657</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254689</v>
+        <v>0.255494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231641</v>
+        <v>0.231557</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320615</v>
+        <v>0.320274</v>
       </c>
       <c r="C55" t="n">
-        <v>0.259787</v>
+        <v>0.26182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234253</v>
+        <v>0.234077</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325954</v>
+        <v>0.32584</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259264</v>
+        <v>0.260642</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23504</v>
+        <v>0.234319</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.334094</v>
+        <v>0.332636</v>
       </c>
       <c r="C57" t="n">
-        <v>0.267548</v>
+        <v>0.267915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237564</v>
+        <v>0.236842</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.335028</v>
+        <v>0.334141</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273752</v>
+        <v>0.27591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240974</v>
+        <v>0.240379</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342869</v>
+        <v>0.34202</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279981</v>
+        <v>0.282263</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244425</v>
+        <v>0.244013</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347901</v>
+        <v>0.347158</v>
       </c>
       <c r="C60" t="n">
-        <v>0.284319</v>
+        <v>0.285759</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248011</v>
+        <v>0.247146</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305131</v>
+        <v>0.304365</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289052</v>
+        <v>0.29194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249206</v>
+        <v>0.248481</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313886</v>
+        <v>0.313964</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292714</v>
+        <v>0.293303</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25092</v>
+        <v>0.250291</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318872</v>
+        <v>0.318988</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298478</v>
+        <v>0.301032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254287</v>
+        <v>0.253992</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.328578</v>
+        <v>0.32463</v>
       </c>
       <c r="C64" t="n">
-        <v>0.264201</v>
+        <v>0.266079</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243576</v>
+        <v>0.243411</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.330682</v>
+        <v>0.328775</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26798</v>
+        <v>0.269929</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24181</v>
+        <v>0.24146</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.337136</v>
+        <v>0.336108</v>
       </c>
       <c r="C66" t="n">
-        <v>0.270774</v>
+        <v>0.273106</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243449</v>
+        <v>0.243031</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.343732</v>
+        <v>0.34123</v>
       </c>
       <c r="C67" t="n">
-        <v>0.27841</v>
+        <v>0.280658</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246392</v>
+        <v>0.246394</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351691</v>
+        <v>0.350804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.28129</v>
+        <v>0.284096</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248773</v>
+        <v>0.24842</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.357319</v>
+        <v>0.358152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.286119</v>
+        <v>0.288768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252703</v>
+        <v>0.251532</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366918</v>
+        <v>0.364878</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291152</v>
+        <v>0.294721</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255496</v>
+        <v>0.25564</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.377596</v>
+        <v>0.374371</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297489</v>
+        <v>0.303246</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257837</v>
+        <v>0.258408</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.385816</v>
+        <v>0.382382</v>
       </c>
       <c r="C72" t="n">
-        <v>0.304048</v>
+        <v>0.311487</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262645</v>
+        <v>0.262622</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.40002</v>
+        <v>0.398365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.311985</v>
+        <v>0.319552</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26878</v>
+        <v>0.268031</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411016</v>
+        <v>0.4108</v>
       </c>
       <c r="C74" t="n">
-        <v>0.317327</v>
+        <v>0.326009</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267908</v>
+        <v>0.268333</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.42991</v>
+        <v>0.424546</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323745</v>
+        <v>0.332221</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272507</v>
+        <v>0.271992</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.429948</v>
+        <v>0.430889</v>
       </c>
       <c r="C76" t="n">
-        <v>0.336433</v>
+        <v>0.342648</v>
       </c>
       <c r="D76" t="n">
-        <v>0.279002</v>
+        <v>0.278317</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.451103</v>
+        <v>0.451849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.343499</v>
+        <v>0.356959</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281774</v>
+        <v>0.282021</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.465911</v>
+        <v>0.480818</v>
       </c>
       <c r="C78" t="n">
-        <v>0.300217</v>
+        <v>0.318967</v>
       </c>
       <c r="D78" t="n">
-        <v>0.276769</v>
+        <v>0.274671</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.489771</v>
+        <v>0.506252</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31223</v>
+        <v>0.335818</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283398</v>
+        <v>0.276608</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.51672</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333188</v>
+        <v>0.346135</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29318</v>
+        <v>0.294379</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.548397</v>
+        <v>0.547123</v>
       </c>
       <c r="C81" t="n">
-        <v>0.335528</v>
+        <v>0.361702</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301387</v>
+        <v>0.29566</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.576603</v>
+        <v>0.58187</v>
       </c>
       <c r="C82" t="n">
-        <v>0.35621</v>
+        <v>0.373485</v>
       </c>
       <c r="D82" t="n">
-        <v>0.307607</v>
+        <v>0.302246</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.610816</v>
+        <v>0.610858</v>
       </c>
       <c r="C83" t="n">
-        <v>0.366042</v>
+        <v>0.409536</v>
       </c>
       <c r="D83" t="n">
-        <v>0.31559</v>
+        <v>0.322913</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.657229</v>
+        <v>0.665339</v>
       </c>
       <c r="C84" t="n">
-        <v>0.381242</v>
+        <v>0.430071</v>
       </c>
       <c r="D84" t="n">
-        <v>0.326105</v>
+        <v>0.33203</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.686554</v>
+        <v>0.695513</v>
       </c>
       <c r="C85" t="n">
-        <v>0.399508</v>
+        <v>0.443908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330063</v>
+        <v>0.336256</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.72673</v>
+        <v>0.734692</v>
       </c>
       <c r="C86" t="n">
-        <v>0.419093</v>
+        <v>0.459474</v>
       </c>
       <c r="D86" t="n">
-        <v>0.345979</v>
+        <v>0.347189</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.764252</v>
+        <v>0.771605</v>
       </c>
       <c r="C87" t="n">
-        <v>0.441126</v>
+        <v>0.484292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35982</v>
+        <v>0.354891</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.807457</v>
+        <v>0.814304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.465033</v>
+        <v>0.508054</v>
       </c>
       <c r="D88" t="n">
-        <v>0.372294</v>
+        <v>0.368598</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8607590000000001</v>
+        <v>0.863895</v>
       </c>
       <c r="C89" t="n">
-        <v>0.494832</v>
+        <v>0.540156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3912</v>
+        <v>0.383252</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.864065</v>
+        <v>0.863365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.522203</v>
+        <v>0.574915</v>
       </c>
       <c r="D90" t="n">
-        <v>0.401136</v>
+        <v>0.397171</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.899317</v>
+        <v>0.894736</v>
       </c>
       <c r="C91" t="n">
-        <v>0.556986</v>
+        <v>0.605158</v>
       </c>
       <c r="D91" t="n">
-        <v>0.418203</v>
+        <v>0.424994</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9297029999999999</v>
+        <v>0.931878</v>
       </c>
       <c r="C92" t="n">
-        <v>0.560374</v>
+        <v>0.613599</v>
       </c>
       <c r="D92" t="n">
-        <v>0.497423</v>
+        <v>0.5010599999999999</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.96101</v>
+        <v>0.9607869999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.584032</v>
+        <v>0.638055</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5207540000000001</v>
+        <v>0.520195</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.998814</v>
+        <v>0.994955</v>
       </c>
       <c r="C94" t="n">
-        <v>0.610803</v>
+        <v>0.663852</v>
       </c>
       <c r="D94" t="n">
-        <v>0.537169</v>
+        <v>0.536467</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03262</v>
+        <v>1.03218</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635894</v>
+        <v>0.69067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.553561</v>
+        <v>0.553219</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06442</v>
+        <v>1.06641</v>
       </c>
       <c r="C96" t="n">
-        <v>0.663152</v>
+        <v>0.715465</v>
       </c>
       <c r="D96" t="n">
-        <v>0.572305</v>
+        <v>0.5712</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10672</v>
+        <v>1.10171</v>
       </c>
       <c r="C97" t="n">
-        <v>0.690897</v>
+        <v>0.745185</v>
       </c>
       <c r="D97" t="n">
-        <v>0.597761</v>
+        <v>0.5943040000000001</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.13757</v>
+        <v>1.13547</v>
       </c>
       <c r="C98" t="n">
-        <v>0.721795</v>
+        <v>0.772402</v>
       </c>
       <c r="D98" t="n">
-        <v>0.614609</v>
+        <v>0.615276</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17314</v>
+        <v>1.17086</v>
       </c>
       <c r="C99" t="n">
-        <v>0.752807</v>
+        <v>0.804887</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633195</v>
+        <v>0.63174</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21123</v>
+        <v>1.20845</v>
       </c>
       <c r="C100" t="n">
-        <v>0.782165</v>
+        <v>0.833579</v>
       </c>
       <c r="D100" t="n">
-        <v>0.653235</v>
+        <v>0.651707</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24459</v>
+        <v>1.24235</v>
       </c>
       <c r="C101" t="n">
-        <v>0.80908</v>
+        <v>0.858979</v>
       </c>
       <c r="D101" t="n">
-        <v>0.673073</v>
+        <v>0.670677</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28148</v>
+        <v>1.27836</v>
       </c>
       <c r="C102" t="n">
-        <v>0.844696</v>
+        <v>0.894467</v>
       </c>
       <c r="D102" t="n">
-        <v>0.690836</v>
+        <v>0.694571</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31839</v>
+        <v>1.31546</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8751100000000001</v>
+        <v>0.920772</v>
       </c>
       <c r="D103" t="n">
-        <v>0.710623</v>
+        <v>0.710224</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3562</v>
+        <v>1.35373</v>
       </c>
       <c r="C104" t="n">
-        <v>0.905819</v>
+        <v>0.948654</v>
       </c>
       <c r="D104" t="n">
-        <v>0.733075</v>
+        <v>0.731331</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.24666</v>
+        <v>1.24451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.940661</v>
+        <v>0.984594</v>
       </c>
       <c r="D105" t="n">
-        <v>0.748521</v>
+        <v>0.7479170000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26829</v>
+        <v>1.26628</v>
       </c>
       <c r="C106" t="n">
-        <v>0.971291</v>
+        <v>1.016</v>
       </c>
       <c r="D106" t="n">
-        <v>0.774242</v>
+        <v>0.774154</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.29103</v>
+        <v>1.28938</v>
       </c>
       <c r="C107" t="n">
-        <v>0.875958</v>
+        <v>0.912098</v>
       </c>
       <c r="D107" t="n">
-        <v>0.783848</v>
+        <v>0.781342</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.31433</v>
+        <v>1.31201</v>
       </c>
       <c r="C108" t="n">
-        <v>0.89338</v>
+        <v>0.930747</v>
       </c>
       <c r="D108" t="n">
-        <v>0.797457</v>
+        <v>0.796157</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33856</v>
+        <v>1.33517</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9210660000000001</v>
+        <v>0.954227</v>
       </c>
       <c r="D109" t="n">
-        <v>0.815339</v>
+        <v>0.813972</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36109</v>
+        <v>1.35852</v>
       </c>
       <c r="C110" t="n">
-        <v>0.94082</v>
+        <v>0.974444</v>
       </c>
       <c r="D110" t="n">
-        <v>0.828931</v>
+        <v>0.828369</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38852</v>
+        <v>1.38388</v>
       </c>
       <c r="C111" t="n">
-        <v>0.960422</v>
+        <v>0.992815</v>
       </c>
       <c r="D111" t="n">
-        <v>0.844073</v>
+        <v>0.842861</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.41401</v>
+        <v>1.40859</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9880100000000001</v>
+        <v>1.01994</v>
       </c>
       <c r="D112" t="n">
-        <v>0.862887</v>
+        <v>0.859372</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44378</v>
+        <v>1.4403</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0132</v>
+        <v>1.04526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.875718</v>
+        <v>0.873685</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4739</v>
+        <v>1.46726</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0349</v>
+        <v>1.06807</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8900400000000001</v>
+        <v>0.886099</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.5016</v>
+        <v>1.49642</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06334</v>
+        <v>1.09629</v>
       </c>
       <c r="D115" t="n">
-        <v>0.902093</v>
+        <v>0.898943</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53438</v>
+        <v>1.52717</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09089</v>
+        <v>1.12217</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917886</v>
+        <v>0.9167729999999999</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56841</v>
+        <v>1.56031</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11526</v>
+        <v>1.14744</v>
       </c>
       <c r="D117" t="n">
-        <v>0.935264</v>
+        <v>0.93188</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59968</v>
+        <v>1.59232</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14712</v>
+        <v>1.18185</v>
       </c>
       <c r="D118" t="n">
-        <v>0.950341</v>
+        <v>0.946082</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42724</v>
+        <v>1.42024</v>
       </c>
       <c r="C119" t="n">
-        <v>1.17504</v>
+        <v>1.21143</v>
       </c>
       <c r="D119" t="n">
-        <v>0.963524</v>
+        <v>0.961439</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392223</v>
+        <v>0.390475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287644</v>
+        <v>0.295091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220129</v>
+        <v>0.219692</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402655</v>
+        <v>0.401024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.296049</v>
+        <v>0.299303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221211</v>
+        <v>0.220561</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414727</v>
+        <v>0.41383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.307856</v>
+        <v>0.314887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231855</v>
+        <v>0.230683</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419429</v>
+        <v>0.420133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.321851</v>
+        <v>0.324776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237266</v>
+        <v>0.235344</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.43943</v>
+        <v>0.436586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.330129</v>
+        <v>0.326446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239211</v>
+        <v>0.238834</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.451911</v>
+        <v>0.447984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.338922</v>
+        <v>0.346627</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247761</v>
+        <v>0.246927</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463187</v>
+        <v>0.462817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.35364</v>
+        <v>0.360815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256581</v>
+        <v>0.255941</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.483381</v>
+        <v>0.481675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.369508</v>
+        <v>0.376307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267236</v>
+        <v>0.265087</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4982</v>
+        <v>0.496153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.388801</v>
+        <v>0.397852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276586</v>
+        <v>0.275712</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.513938</v>
+        <v>0.513239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.294798</v>
+        <v>0.295728</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219867</v>
+        <v>0.217409</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.387063</v>
+        <v>0.384907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.298187</v>
+        <v>0.303688</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222782</v>
+        <v>0.220327</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.396793</v>
+        <v>0.395945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.308905</v>
+        <v>0.312495</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231813</v>
+        <v>0.230045</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.405374</v>
+        <v>0.404315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.320461</v>
+        <v>0.329908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232279</v>
+        <v>0.230689</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.426328</v>
+        <v>0.426015</v>
       </c>
       <c r="C15" t="n">
-        <v>0.332472</v>
+        <v>0.342948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241108</v>
+        <v>0.238099</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.43758</v>
+        <v>0.437022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.351451</v>
+        <v>0.362544</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247595</v>
+        <v>0.245347</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.449647</v>
+        <v>0.449292</v>
       </c>
       <c r="C17" t="n">
-        <v>0.361261</v>
+        <v>0.372593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254465</v>
+        <v>0.254091</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472592</v>
+        <v>0.471419</v>
       </c>
       <c r="C18" t="n">
-        <v>0.374041</v>
+        <v>0.382545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254807</v>
+        <v>0.254104</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484968</v>
+        <v>0.483605</v>
       </c>
       <c r="C19" t="n">
-        <v>0.393696</v>
+        <v>0.405571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.264579</v>
+        <v>0.262923</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.504485</v>
+        <v>0.501866</v>
       </c>
       <c r="C20" t="n">
-        <v>0.411452</v>
+        <v>0.42543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.277435</v>
+        <v>0.275724</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.518144</v>
+        <v>0.517798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428654</v>
+        <v>0.443709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.288909</v>
+        <v>0.28953</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543019</v>
+        <v>0.540535</v>
       </c>
       <c r="C22" t="n">
-        <v>0.452414</v>
+        <v>0.470294</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296159</v>
+        <v>0.294513</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.557499</v>
+        <v>0.5571159999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.473347</v>
+        <v>0.49402</v>
       </c>
       <c r="D23" t="n">
-        <v>0.306053</v>
+        <v>0.307786</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.593464</v>
+        <v>0.592821</v>
       </c>
       <c r="C24" t="n">
-        <v>0.490495</v>
+        <v>0.510899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31668</v>
+        <v>0.319914</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.628683</v>
+        <v>0.62676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518464</v>
+        <v>0.5370200000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.333398</v>
+        <v>0.327212</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.657135</v>
+        <v>0.654204</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33165</v>
+        <v>0.340399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243477</v>
+        <v>0.238282</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.435245</v>
+        <v>0.432656</v>
       </c>
       <c r="C27" t="n">
-        <v>0.336785</v>
+        <v>0.34284</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244795</v>
+        <v>0.241026</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.449675</v>
+        <v>0.448589</v>
       </c>
       <c r="C28" t="n">
-        <v>0.347757</v>
+        <v>0.357503</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254326</v>
+        <v>0.246757</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.465114</v>
+        <v>0.464721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.353246</v>
+        <v>0.363781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25528</v>
+        <v>0.253393</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.480985</v>
+        <v>0.480711</v>
       </c>
       <c r="C30" t="n">
-        <v>0.369363</v>
+        <v>0.383925</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26197</v>
+        <v>0.260181</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496529</v>
+        <v>0.497153</v>
       </c>
       <c r="C31" t="n">
-        <v>0.379081</v>
+        <v>0.399178</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26889</v>
+        <v>0.267089</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.512906</v>
+        <v>0.512984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.397697</v>
+        <v>0.415793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274894</v>
+        <v>0.274872</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5389429999999999</v>
+        <v>0.541428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.412028</v>
+        <v>0.433875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287318</v>
+        <v>0.286078</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.553585</v>
+        <v>0.554572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42824</v>
+        <v>0.452175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29164</v>
+        <v>0.292024</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.57518</v>
+        <v>0.578852</v>
       </c>
       <c r="C35" t="n">
-        <v>0.449501</v>
+        <v>0.474169</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301013</v>
+        <v>0.302308</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.595375</v>
+        <v>0.597919</v>
       </c>
       <c r="C36" t="n">
-        <v>0.465532</v>
+        <v>0.49561</v>
       </c>
       <c r="D36" t="n">
-        <v>0.316206</v>
+        <v>0.314289</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.611915</v>
+        <v>0.613699</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490516</v>
+        <v>0.521555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323652</v>
+        <v>0.324771</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.638055</v>
+        <v>0.637862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.510884</v>
+        <v>0.541265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.33527</v>
+        <v>0.335121</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.67065</v>
+        <v>0.672303</v>
       </c>
       <c r="C39" t="n">
-        <v>0.529243</v>
+        <v>0.5693</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346082</v>
+        <v>0.346153</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.688594</v>
+        <v>0.692795</v>
       </c>
       <c r="C40" t="n">
-        <v>0.379697</v>
+        <v>0.396791</v>
       </c>
       <c r="D40" t="n">
-        <v>0.279293</v>
+        <v>0.280097</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502349</v>
+        <v>0.502359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.392009</v>
+        <v>0.408583</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287113</v>
+        <v>0.286734</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5148740000000001</v>
+        <v>0.515323</v>
       </c>
       <c r="C42" t="n">
-        <v>0.403952</v>
+        <v>0.426182</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294852</v>
+        <v>0.294027</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5275</v>
+        <v>0.527944</v>
       </c>
       <c r="C43" t="n">
-        <v>0.415712</v>
+        <v>0.437261</v>
       </c>
       <c r="D43" t="n">
-        <v>0.300059</v>
+        <v>0.300024</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543232</v>
+        <v>0.543453</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43277</v>
+        <v>0.458159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310634</v>
+        <v>0.310174</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.560079</v>
+        <v>0.560555</v>
       </c>
       <c r="C45" t="n">
-        <v>0.444924</v>
+        <v>0.471607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.318511</v>
+        <v>0.315931</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5726250000000001</v>
+        <v>0.572648</v>
       </c>
       <c r="C46" t="n">
-        <v>0.461075</v>
+        <v>0.490022</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322749</v>
+        <v>0.321688</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5947480000000001</v>
+        <v>0.594793</v>
       </c>
       <c r="C47" t="n">
-        <v>0.476563</v>
+        <v>0.5078</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332022</v>
+        <v>0.330776</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611044</v>
+        <v>0.611693</v>
       </c>
       <c r="C48" t="n">
-        <v>0.489898</v>
+        <v>0.521652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342567</v>
+        <v>0.34081</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623375</v>
+        <v>0.62277</v>
       </c>
       <c r="C49" t="n">
-        <v>0.508321</v>
+        <v>0.546381</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349502</v>
+        <v>0.348237</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.651641</v>
+        <v>0.6523139999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.525185</v>
+        <v>0.5643629999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.35899</v>
+        <v>0.359661</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.67594</v>
+        <v>0.67693</v>
       </c>
       <c r="C51" t="n">
-        <v>0.54567</v>
+        <v>0.588095</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371016</v>
+        <v>0.369067</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.699365</v>
+        <v>0.7019069999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.568431</v>
+        <v>0.613332</v>
       </c>
       <c r="D52" t="n">
-        <v>0.378731</v>
+        <v>0.381039</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.726925</v>
+        <v>0.725449</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5891380000000001</v>
+        <v>0.637966</v>
       </c>
       <c r="D53" t="n">
-        <v>0.393654</v>
+        <v>0.391908</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.751958</v>
+        <v>0.752219</v>
       </c>
       <c r="C54" t="n">
-        <v>0.42524</v>
+        <v>0.44821</v>
       </c>
       <c r="D54" t="n">
-        <v>0.314163</v>
+        <v>0.313049</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.781953</v>
+        <v>0.782025</v>
       </c>
       <c r="C55" t="n">
-        <v>0.432659</v>
+        <v>0.456473</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319376</v>
+        <v>0.318617</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.53606</v>
+        <v>0.53661</v>
       </c>
       <c r="C56" t="n">
-        <v>0.447341</v>
+        <v>0.472651</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325227</v>
+        <v>0.324441</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5498</v>
+        <v>0.549631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.457727</v>
+        <v>0.486757</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332606</v>
+        <v>0.331459</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565593</v>
+        <v>0.565723</v>
       </c>
       <c r="C58" t="n">
-        <v>0.469899</v>
+        <v>0.499544</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336962</v>
+        <v>0.33597</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579533</v>
+        <v>0.579298</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485284</v>
+        <v>0.514012</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346081</v>
+        <v>0.345996</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588292</v>
+        <v>0.588646</v>
       </c>
       <c r="C60" t="n">
-        <v>0.498928</v>
+        <v>0.529408</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351111</v>
+        <v>0.351606</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608052</v>
+        <v>0.607986</v>
       </c>
       <c r="C61" t="n">
-        <v>0.51163</v>
+        <v>0.547412</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359501</v>
+        <v>0.358102</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628837</v>
+        <v>0.628064</v>
       </c>
       <c r="C62" t="n">
-        <v>0.524998</v>
+        <v>0.564602</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367921</v>
+        <v>0.367162</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.646826</v>
+        <v>0.648298</v>
       </c>
       <c r="C63" t="n">
-        <v>0.54593</v>
+        <v>0.586931</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375912</v>
+        <v>0.375676</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.669059</v>
+        <v>0.66826</v>
       </c>
       <c r="C64" t="n">
-        <v>0.55962</v>
+        <v>0.602969</v>
       </c>
       <c r="D64" t="n">
-        <v>0.385957</v>
+        <v>0.385516</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.695821</v>
+        <v>0.696738</v>
       </c>
       <c r="C65" t="n">
-        <v>0.583172</v>
+        <v>0.630742</v>
       </c>
       <c r="D65" t="n">
-        <v>0.396872</v>
+        <v>0.395758</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719587</v>
+        <v>0.720175</v>
       </c>
       <c r="C66" t="n">
-        <v>0.600745</v>
+        <v>0.6488159999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.406412</v>
+        <v>0.404883</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7490059999999999</v>
+        <v>0.7489</v>
       </c>
       <c r="C67" t="n">
-        <v>0.620144</v>
+        <v>0.675416</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419968</v>
+        <v>0.419627</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.77194</v>
+        <v>0.769587</v>
       </c>
       <c r="C68" t="n">
-        <v>0.420184</v>
+        <v>0.43968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313502</v>
+        <v>0.31381</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.816805</v>
+        <v>0.814899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.431797</v>
+        <v>0.458194</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320953</v>
+        <v>0.320533</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554163</v>
+        <v>0.558114</v>
       </c>
       <c r="C70" t="n">
-        <v>0.45018</v>
+        <v>0.47806</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33078</v>
+        <v>0.329683</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574547</v>
+        <v>0.577155</v>
       </c>
       <c r="C71" t="n">
-        <v>0.468206</v>
+        <v>0.498154</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337562</v>
+        <v>0.337042</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.602869</v>
+        <v>0.607268</v>
       </c>
       <c r="C72" t="n">
-        <v>0.484566</v>
+        <v>0.520192</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346809</v>
+        <v>0.345416</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6305190000000001</v>
+        <v>0.635203</v>
       </c>
       <c r="C73" t="n">
-        <v>0.505572</v>
+        <v>0.546098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35537</v>
+        <v>0.356378</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.655853</v>
+        <v>0.660284</v>
       </c>
       <c r="C74" t="n">
-        <v>0.523965</v>
+        <v>0.568446</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365289</v>
+        <v>0.365926</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.68745</v>
+        <v>0.692376</v>
       </c>
       <c r="C75" t="n">
-        <v>0.54959</v>
+        <v>0.602152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375287</v>
+        <v>0.374986</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.723873</v>
+        <v>0.729334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.575997</v>
+        <v>0.632248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38566</v>
+        <v>0.386376</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.758845</v>
+        <v>0.76497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.604417</v>
+        <v>0.665616</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399921</v>
+        <v>0.399801</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.80122</v>
+        <v>0.806055</v>
       </c>
       <c r="C78" t="n">
-        <v>0.633423</v>
+        <v>0.703355</v>
       </c>
       <c r="D78" t="n">
-        <v>0.411335</v>
+        <v>0.412711</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.853816</v>
+        <v>0.8572650000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.667682</v>
+        <v>0.743465</v>
       </c>
       <c r="D79" t="n">
-        <v>0.424623</v>
+        <v>0.427915</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.916905</v>
+        <v>0.9163480000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.709636</v>
+        <v>0.8016</v>
       </c>
       <c r="D80" t="n">
-        <v>0.441469</v>
+        <v>0.442895</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.991807</v>
+        <v>0.986606</v>
       </c>
       <c r="C81" t="n">
-        <v>0.769031</v>
+        <v>0.860433</v>
       </c>
       <c r="D81" t="n">
-        <v>0.462388</v>
+        <v>0.461701</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06464</v>
+        <v>1.05869</v>
       </c>
       <c r="C82" t="n">
-        <v>0.815821</v>
+        <v>0.926397</v>
       </c>
       <c r="D82" t="n">
-        <v>0.477366</v>
+        <v>0.476382</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.15564</v>
+        <v>1.15292</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6028019999999999</v>
+        <v>0.659716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383675</v>
+        <v>0.389476</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.2625</v>
+        <v>1.2609</v>
       </c>
       <c r="C84" t="n">
-        <v>0.636629</v>
+        <v>0.706864</v>
       </c>
       <c r="D84" t="n">
-        <v>0.397172</v>
+        <v>0.401881</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.870363</v>
+        <v>0.871881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.68088</v>
+        <v>0.759517</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410372</v>
+        <v>0.413745</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.94267</v>
+        <v>0.938354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.737739</v>
+        <v>0.83039</v>
       </c>
       <c r="D86" t="n">
-        <v>0.42515</v>
+        <v>0.432128</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01907</v>
+        <v>1.01401</v>
       </c>
       <c r="C87" t="n">
-        <v>0.797851</v>
+        <v>0.903701</v>
       </c>
       <c r="D87" t="n">
-        <v>0.451361</v>
+        <v>0.452143</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10266</v>
+        <v>1.10191</v>
       </c>
       <c r="C88" t="n">
-        <v>0.876626</v>
+        <v>0.996079</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482141</v>
+        <v>0.478828</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19409</v>
+        <v>1.18667</v>
       </c>
       <c r="C89" t="n">
-        <v>0.948007</v>
+        <v>1.08311</v>
       </c>
       <c r="D89" t="n">
-        <v>0.507217</v>
+        <v>0.5108200000000001</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.30312</v>
+        <v>1.28636</v>
       </c>
       <c r="C90" t="n">
-        <v>1.03018</v>
+        <v>1.18006</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5417650000000001</v>
+        <v>0.535238</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41544</v>
+        <v>1.40278</v>
       </c>
       <c r="C91" t="n">
-        <v>1.12758</v>
+        <v>1.29242</v>
       </c>
       <c r="D91" t="n">
-        <v>0.589245</v>
+        <v>0.570653</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52955</v>
+        <v>1.52166</v>
       </c>
       <c r="C92" t="n">
-        <v>1.21064</v>
+        <v>1.40857</v>
       </c>
       <c r="D92" t="n">
-        <v>0.626787</v>
+        <v>0.615679</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.65449</v>
+        <v>1.64655</v>
       </c>
       <c r="C93" t="n">
-        <v>1.31789</v>
+        <v>1.5373</v>
       </c>
       <c r="D93" t="n">
-        <v>0.669014</v>
+        <v>0.662009</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.79713</v>
+        <v>1.78392</v>
       </c>
       <c r="C94" t="n">
-        <v>1.41699</v>
+        <v>1.67148</v>
       </c>
       <c r="D94" t="n">
-        <v>0.723382</v>
+        <v>0.715462</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.93503</v>
+        <v>1.92284</v>
       </c>
       <c r="C95" t="n">
-        <v>1.52914</v>
+        <v>1.81473</v>
       </c>
       <c r="D95" t="n">
-        <v>0.771879</v>
+        <v>0.766014</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.10118</v>
+        <v>2.08593</v>
       </c>
       <c r="C96" t="n">
-        <v>1.66017</v>
+        <v>1.98144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.827251</v>
+        <v>0.8278450000000001</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.27048</v>
+        <v>2.25448</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08541</v>
+        <v>1.21388</v>
       </c>
       <c r="D97" t="n">
-        <v>0.628894</v>
+        <v>0.629099</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.43218</v>
+        <v>2.41193</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15508</v>
+        <v>1.29294</v>
       </c>
       <c r="D98" t="n">
-        <v>0.664381</v>
+        <v>0.668441</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.68013</v>
+        <v>1.6764</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22613</v>
+        <v>1.37757</v>
       </c>
       <c r="D99" t="n">
-        <v>0.71071</v>
+        <v>0.709346</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.77361</v>
+        <v>1.7668</v>
       </c>
       <c r="C100" t="n">
-        <v>1.30287</v>
+        <v>1.4723</v>
       </c>
       <c r="D100" t="n">
-        <v>0.746942</v>
+        <v>0.744018</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.86531</v>
+        <v>1.86151</v>
       </c>
       <c r="C101" t="n">
-        <v>1.3813</v>
+        <v>1.56399</v>
       </c>
       <c r="D101" t="n">
-        <v>0.793752</v>
+        <v>0.796208</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.96932</v>
+        <v>1.96198</v>
       </c>
       <c r="C102" t="n">
-        <v>1.4632</v>
+        <v>1.66054</v>
       </c>
       <c r="D102" t="n">
-        <v>0.835914</v>
+        <v>0.834879</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.06749</v>
+        <v>2.0584</v>
       </c>
       <c r="C103" t="n">
-        <v>1.54701</v>
+        <v>1.76919</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8779709999999999</v>
+        <v>0.875895</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.18119</v>
+        <v>2.17534</v>
       </c>
       <c r="C104" t="n">
-        <v>1.63729</v>
+        <v>1.88305</v>
       </c>
       <c r="D104" t="n">
-        <v>0.922006</v>
+        <v>0.9255989999999999</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.2877</v>
+        <v>2.27919</v>
       </c>
       <c r="C105" t="n">
-        <v>1.73524</v>
+        <v>2.00567</v>
       </c>
       <c r="D105" t="n">
-        <v>0.993326</v>
+        <v>0.99212</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.41635</v>
+        <v>2.40244</v>
       </c>
       <c r="C106" t="n">
-        <v>1.82203</v>
+        <v>2.12511</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03243</v>
+        <v>1.02709</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.53692</v>
+        <v>2.52401</v>
       </c>
       <c r="C107" t="n">
-        <v>1.92151</v>
+        <v>2.24999</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07941</v>
+        <v>1.08678</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.67901</v>
+        <v>2.65775</v>
       </c>
       <c r="C108" t="n">
-        <v>2.03152</v>
+        <v>2.40403</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13522</v>
+        <v>1.15059</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.81734</v>
+        <v>2.79591</v>
       </c>
       <c r="C109" t="n">
-        <v>2.15337</v>
+        <v>2.56671</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21033</v>
+        <v>1.20468</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.98139</v>
+        <v>2.95556</v>
       </c>
       <c r="C110" t="n">
-        <v>2.25323</v>
+        <v>2.7047</v>
       </c>
       <c r="D110" t="n">
-        <v>1.28083</v>
+        <v>1.26735</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.15324</v>
+        <v>3.1112</v>
       </c>
       <c r="C111" t="n">
-        <v>1.5463</v>
+        <v>1.70778</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00006</v>
+        <v>1.00621</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30664</v>
+        <v>3.28591</v>
       </c>
       <c r="C112" t="n">
-        <v>1.62591</v>
+        <v>1.7938</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04606</v>
+        <v>1.04804</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.45852</v>
+        <v>3.43186</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69942</v>
+        <v>1.88539</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09251</v>
+        <v>1.07284</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.31618</v>
+        <v>2.30804</v>
       </c>
       <c r="C114" t="n">
-        <v>1.76045</v>
+        <v>1.98019</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12434</v>
+        <v>1.11649</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.41414</v>
+        <v>2.39105</v>
       </c>
       <c r="C115" t="n">
-        <v>1.8305</v>
+        <v>2.07039</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16919</v>
+        <v>1.16947</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.51108</v>
+        <v>2.48782</v>
       </c>
       <c r="C116" t="n">
-        <v>1.90967</v>
+        <v>2.16869</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21701</v>
+        <v>1.19583</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.61986</v>
+        <v>2.59657</v>
       </c>
       <c r="C117" t="n">
-        <v>1.9949</v>
+        <v>2.27749</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25009</v>
+        <v>1.25234</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.71853</v>
+        <v>2.6985</v>
       </c>
       <c r="C118" t="n">
-        <v>2.08501</v>
+        <v>2.38821</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3063</v>
+        <v>1.2869</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.82867</v>
+        <v>2.81305</v>
       </c>
       <c r="C119" t="n">
-        <v>2.17254</v>
+        <v>2.49591</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34074</v>
+        <v>1.34092</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249286</v>
+        <v>0.244829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.186917</v>
+        <v>0.184596</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19868</v>
+        <v>0.19598</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196655</v>
+        <v>0.202693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187666</v>
+        <v>0.186762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200597</v>
+        <v>0.197193</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202714</v>
+        <v>0.205164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19464</v>
+        <v>0.191256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20723</v>
+        <v>0.203831</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.209036</v>
+        <v>0.212923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19984</v>
+        <v>0.196502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213429</v>
+        <v>0.209774</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.215743</v>
+        <v>0.215286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.203237</v>
+        <v>0.200382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218917</v>
+        <v>0.21497</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218769</v>
+        <v>0.22327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.166638</v>
+        <v>0.167174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182329</v>
+        <v>0.184497</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226207</v>
+        <v>0.225739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170359</v>
+        <v>0.169164</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187408</v>
+        <v>0.189101</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.230861</v>
+        <v>0.229262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174579</v>
+        <v>0.173405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1918</v>
+        <v>0.191637</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236346</v>
+        <v>0.233722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177621</v>
+        <v>0.177302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194574</v>
+        <v>0.194818</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240985</v>
+        <v>0.239094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182059</v>
+        <v>0.180901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.197803</v>
+        <v>0.199458</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.24861</v>
+        <v>0.247066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188207</v>
+        <v>0.187051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204129</v>
+        <v>0.204192</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253099</v>
+        <v>0.25144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190909</v>
+        <v>0.19074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.207617</v>
+        <v>0.208243</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258877</v>
+        <v>0.257085</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194899</v>
+        <v>0.194773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211463</v>
+        <v>0.211472</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265734</v>
+        <v>0.264439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200144</v>
+        <v>0.200408</v>
       </c>
       <c r="D15" t="n">
-        <v>0.216938</v>
+        <v>0.218437</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269812</v>
+        <v>0.268689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204182</v>
+        <v>0.204204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221143</v>
+        <v>0.221761</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276763</v>
+        <v>0.275917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209527</v>
+        <v>0.209419</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227324</v>
+        <v>0.228335</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230942</v>
+        <v>0.23102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212584</v>
+        <v>0.212227</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229639</v>
+        <v>0.229789</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234834</v>
+        <v>0.234658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.217246</v>
+        <v>0.216024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235765</v>
+        <v>0.235906</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239538</v>
+        <v>0.23954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220275</v>
+        <v>0.219356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23908</v>
+        <v>0.240617</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243793</v>
+        <v>0.243772</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185132</v>
+        <v>0.185425</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202883</v>
+        <v>0.204914</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248305</v>
+        <v>0.248204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.189116</v>
+        <v>0.189319</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207366</v>
+        <v>0.20932</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252482</v>
+        <v>0.252327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192327</v>
+        <v>0.192931</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210801</v>
+        <v>0.212764</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257449</v>
+        <v>0.257224</v>
       </c>
       <c r="C24" t="n">
-        <v>0.195477</v>
+        <v>0.195688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214184</v>
+        <v>0.216498</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262589</v>
+        <v>0.262049</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198589</v>
+        <v>0.199079</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218354</v>
+        <v>0.220487</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268487</v>
+        <v>0.268561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.203364</v>
+        <v>0.203687</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222662</v>
+        <v>0.224506</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273427</v>
+        <v>0.273217</v>
       </c>
       <c r="C27" t="n">
-        <v>0.206963</v>
+        <v>0.206483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225766</v>
+        <v>0.228653</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278847</v>
+        <v>0.278575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212045</v>
+        <v>0.21152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231087</v>
+        <v>0.232446</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283753</v>
+        <v>0.283471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216962</v>
+        <v>0.216517</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236148</v>
+        <v>0.237802</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289513</v>
+        <v>0.289225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.220878</v>
+        <v>0.220618</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24044</v>
+        <v>0.241932</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294818</v>
+        <v>0.294543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.225357</v>
+        <v>0.225058</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244552</v>
+        <v>0.246286</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242193</v>
+        <v>0.242498</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228915</v>
+        <v>0.228615</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247672</v>
+        <v>0.250164</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245997</v>
+        <v>0.246074</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233543</v>
+        <v>0.233566</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253706</v>
+        <v>0.254949</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2488</v>
+        <v>0.248942</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237112</v>
+        <v>0.236768</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259489</v>
+        <v>0.258706</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252889</v>
+        <v>0.253046</v>
       </c>
       <c r="C35" t="n">
-        <v>0.193088</v>
+        <v>0.193194</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210798</v>
+        <v>0.211039</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256994</v>
+        <v>0.256924</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195664</v>
+        <v>0.195665</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214</v>
+        <v>0.214108</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260897</v>
+        <v>0.260867</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198549</v>
+        <v>0.198487</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217257</v>
+        <v>0.21724</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265256</v>
+        <v>0.265147</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20211</v>
+        <v>0.201971</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221325</v>
+        <v>0.221381</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269666</v>
+        <v>0.269499</v>
       </c>
       <c r="C39" t="n">
-        <v>0.205954</v>
+        <v>0.205841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2255</v>
+        <v>0.225444</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274656</v>
+        <v>0.274554</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209854</v>
+        <v>0.209667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22944</v>
+        <v>0.229617</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279386</v>
+        <v>0.279482</v>
       </c>
       <c r="C41" t="n">
-        <v>0.213982</v>
+        <v>0.213764</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23341</v>
+        <v>0.233474</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284443</v>
+        <v>0.284513</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217673</v>
+        <v>0.217644</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237371</v>
+        <v>0.237215</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289593</v>
+        <v>0.289651</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221829</v>
+        <v>0.221845</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241753</v>
+        <v>0.241579</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.294845</v>
+        <v>0.294758</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226404</v>
+        <v>0.226523</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246259</v>
+        <v>0.246379</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300141</v>
+        <v>0.300001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.230757</v>
+        <v>0.230888</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250455</v>
+        <v>0.250458</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304612</v>
+        <v>0.304494</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234754</v>
+        <v>0.234717</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25429</v>
+        <v>0.25476</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250869</v>
+        <v>0.250496</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239011</v>
+        <v>0.239189</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25902</v>
+        <v>0.259007</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253577</v>
+        <v>0.253682</v>
       </c>
       <c r="C48" t="n">
-        <v>0.242835</v>
+        <v>0.242899</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262539</v>
+        <v>0.262878</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257066</v>
+        <v>0.256938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.246487</v>
+        <v>0.2466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266807</v>
+        <v>0.267038</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.26082</v>
+        <v>0.2608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200201</v>
+        <v>0.20014</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216366</v>
+        <v>0.216408</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264579</v>
+        <v>0.26452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.202869</v>
+        <v>0.202803</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219605</v>
+        <v>0.219569</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.26874</v>
+        <v>0.268889</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205811</v>
+        <v>0.205737</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223213</v>
+        <v>0.223336</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273548</v>
+        <v>0.273516</v>
       </c>
       <c r="C53" t="n">
-        <v>0.209098</v>
+        <v>0.209496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226872</v>
+        <v>0.227011</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278307</v>
+        <v>0.278344</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212841</v>
+        <v>0.213095</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230329</v>
+        <v>0.230594</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283401</v>
+        <v>0.28357</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21649</v>
+        <v>0.216754</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234331</v>
+        <v>0.234294</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288637</v>
+        <v>0.28864</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220757</v>
+        <v>0.220868</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238415</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293768</v>
+        <v>0.293834</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225135</v>
+        <v>0.225139</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242781</v>
+        <v>0.242999</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298437</v>
+        <v>0.29842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229314</v>
+        <v>0.229368</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246735</v>
+        <v>0.246962</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303461</v>
+        <v>0.30348</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233815</v>
+        <v>0.233923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251272</v>
+        <v>0.251669</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309038</v>
+        <v>0.3091</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238456</v>
+        <v>0.238459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255523</v>
+        <v>0.255622</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256423</v>
+        <v>0.257761</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24236</v>
+        <v>0.242479</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2595</v>
+        <v>0.25979</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257587</v>
+        <v>0.257344</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246163</v>
+        <v>0.246401</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264254</v>
+        <v>0.264542</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267931</v>
+        <v>0.268001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250317</v>
+        <v>0.250658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268753</v>
+        <v>0.269132</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274041</v>
+        <v>0.273391</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207521</v>
+        <v>0.207464</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225212</v>
+        <v>0.225527</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.276648</v>
+        <v>0.276318</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211371</v>
+        <v>0.211305</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229077</v>
+        <v>0.228695</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.280735</v>
+        <v>0.28302</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215537</v>
+        <v>0.215771</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23341</v>
+        <v>0.233114</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.292063</v>
+        <v>0.289231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220106</v>
+        <v>0.219348</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238509</v>
+        <v>0.237946</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.298956</v>
+        <v>0.298104</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224611</v>
+        <v>0.224657</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24411</v>
+        <v>0.243561</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30697</v>
+        <v>0.303677</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228082</v>
+        <v>0.230177</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249138</v>
+        <v>0.249118</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.315515</v>
+        <v>0.313307</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235848</v>
+        <v>0.234561</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254407</v>
+        <v>0.253833</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32557</v>
+        <v>0.323302</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241635</v>
+        <v>0.241241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260335</v>
+        <v>0.259832</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.335774</v>
+        <v>0.33492</v>
       </c>
       <c r="C72" t="n">
-        <v>0.24848</v>
+        <v>0.248364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26699</v>
+        <v>0.267408</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349135</v>
+        <v>0.346945</v>
       </c>
       <c r="C73" t="n">
-        <v>0.255526</v>
+        <v>0.254057</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275517</v>
+        <v>0.276249</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.362925</v>
+        <v>0.35921</v>
       </c>
       <c r="C74" t="n">
-        <v>0.263919</v>
+        <v>0.261214</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284073</v>
+        <v>0.281737</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.377857</v>
+        <v>0.371652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.271763</v>
+        <v>0.269444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290937</v>
+        <v>0.289068</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.410529</v>
+        <v>0.406228</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279649</v>
+        <v>0.279507</v>
       </c>
       <c r="D76" t="n">
-        <v>0.301629</v>
+        <v>0.30052</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.421813</v>
+        <v>0.41731</v>
       </c>
       <c r="C77" t="n">
-        <v>0.291701</v>
+        <v>0.288723</v>
       </c>
       <c r="D77" t="n">
-        <v>0.311183</v>
+        <v>0.307131</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.431367</v>
+        <v>0.432234</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276402</v>
+        <v>0.27974</v>
       </c>
       <c r="D78" t="n">
-        <v>0.301534</v>
+        <v>0.306211</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.449857</v>
+        <v>0.445005</v>
       </c>
       <c r="C79" t="n">
-        <v>0.289515</v>
+        <v>0.285084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.317574</v>
+        <v>0.312619</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.457914</v>
+        <v>0.45998</v>
       </c>
       <c r="C80" t="n">
-        <v>0.299778</v>
+        <v>0.298222</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325921</v>
+        <v>0.32724</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.481464</v>
+        <v>0.479092</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306894</v>
+        <v>0.307421</v>
       </c>
       <c r="D81" t="n">
-        <v>0.340283</v>
+        <v>0.340188</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.494784</v>
+        <v>0.496936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.321993</v>
+        <v>0.32003</v>
       </c>
       <c r="D82" t="n">
-        <v>0.35307</v>
+        <v>0.354321</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.518686</v>
+        <v>0.515849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.330963</v>
+        <v>0.332368</v>
       </c>
       <c r="D83" t="n">
-        <v>0.369335</v>
+        <v>0.367753</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5363059999999999</v>
+        <v>0.536166</v>
       </c>
       <c r="C84" t="n">
-        <v>0.346929</v>
+        <v>0.345522</v>
       </c>
       <c r="D84" t="n">
-        <v>0.38272</v>
+        <v>0.38336</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.556822</v>
+        <v>0.556621</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362777</v>
+        <v>0.361847</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402188</v>
+        <v>0.400631</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.580534</v>
+        <v>0.579492</v>
       </c>
       <c r="C86" t="n">
-        <v>0.377069</v>
+        <v>0.376324</v>
       </c>
       <c r="D86" t="n">
-        <v>0.415291</v>
+        <v>0.417168</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.599554</v>
+        <v>0.6019370000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.386236</v>
+        <v>0.388066</v>
       </c>
       <c r="D87" t="n">
-        <v>0.431641</v>
+        <v>0.431476</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.622929</v>
+        <v>0.626416</v>
       </c>
       <c r="C88" t="n">
-        <v>0.402561</v>
+        <v>0.403057</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449065</v>
+        <v>0.450198</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.645811</v>
+        <v>0.649872</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4176</v>
+        <v>0.418407</v>
       </c>
       <c r="D89" t="n">
-        <v>0.466902</v>
+        <v>0.468341</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.667046</v>
+        <v>0.6755949999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.434789</v>
+        <v>0.434301</v>
       </c>
       <c r="D90" t="n">
-        <v>0.485364</v>
+        <v>0.487829</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.676172</v>
+        <v>0.682941</v>
       </c>
       <c r="C91" t="n">
-        <v>0.447564</v>
+        <v>0.449852</v>
       </c>
       <c r="D91" t="n">
-        <v>0.496415</v>
+        <v>0.498154</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6835599999999999</v>
+        <v>0.691375</v>
       </c>
       <c r="C92" t="n">
-        <v>0.446769</v>
+        <v>0.450093</v>
       </c>
       <c r="D92" t="n">
-        <v>0.506279</v>
+        <v>0.510406</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6937410000000001</v>
+        <v>0.701898</v>
       </c>
       <c r="C93" t="n">
-        <v>0.455395</v>
+        <v>0.459886</v>
       </c>
       <c r="D93" t="n">
-        <v>0.518139</v>
+        <v>0.522585</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.704916</v>
+        <v>0.713898</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462699</v>
+        <v>0.469251</v>
       </c>
       <c r="D94" t="n">
-        <v>0.526334</v>
+        <v>0.53317</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.71617</v>
+        <v>0.724351</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474202</v>
+        <v>0.477564</v>
       </c>
       <c r="D95" t="n">
-        <v>0.542118</v>
+        <v>0.546671</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.728406</v>
+        <v>0.7372030000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.485064</v>
+        <v>0.4877</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554611</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.743221</v>
+        <v>0.751664</v>
       </c>
       <c r="C97" t="n">
-        <v>0.495164</v>
+        <v>0.5000329999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.566628</v>
+        <v>0.57277</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.758809</v>
+        <v>0.767407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5067469999999999</v>
+        <v>0.512384</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581344</v>
+        <v>0.588831</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774656</v>
+        <v>0.783366</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5186539999999999</v>
+        <v>0.523995</v>
       </c>
       <c r="D99" t="n">
-        <v>0.594135</v>
+        <v>0.601325</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.79242</v>
+        <v>0.80094</v>
       </c>
       <c r="C100" t="n">
-        <v>0.531006</v>
+        <v>0.5368889999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608926</v>
+        <v>0.616154</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8101739999999999</v>
+        <v>0.819617</v>
       </c>
       <c r="C101" t="n">
-        <v>0.543462</v>
+        <v>0.549341</v>
       </c>
       <c r="D101" t="n">
-        <v>0.622323</v>
+        <v>0.630906</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8287369999999999</v>
+        <v>0.838463</v>
       </c>
       <c r="C102" t="n">
-        <v>0.557039</v>
+        <v>0.562979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.638879</v>
+        <v>0.64667</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848864</v>
+        <v>0.857984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.570427</v>
+        <v>0.576336</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653582</v>
+        <v>0.661784</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.869797</v>
+        <v>0.879198</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584959</v>
+        <v>0.590685</v>
       </c>
       <c r="D104" t="n">
-        <v>0.669697</v>
+        <v>0.677897</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.794727</v>
+        <v>0.805774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.598815</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.688692</v>
+        <v>0.696873</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.800921</v>
+        <v>0.812717</v>
       </c>
       <c r="C106" t="n">
-        <v>0.615291</v>
+        <v>0.619568</v>
       </c>
       <c r="D106" t="n">
-        <v>0.70789</v>
+        <v>0.714728</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.810286</v>
+        <v>0.821295</v>
       </c>
       <c r="C107" t="n">
-        <v>0.554137</v>
+        <v>0.562145</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649929</v>
+        <v>0.6598309999999999</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818322</v>
+        <v>0.82821</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562833</v>
+        <v>0.5708029999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.66021</v>
+        <v>0.669821</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.82812</v>
+        <v>0.839008</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572321</v>
+        <v>0.576664</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67166</v>
+        <v>0.681523</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839429</v>
+        <v>0.850216</v>
       </c>
       <c r="C110" t="n">
-        <v>0.583237</v>
+        <v>0.591437</v>
       </c>
       <c r="D110" t="n">
-        <v>0.683526</v>
+        <v>0.693117</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.850696</v>
+        <v>0.862592</v>
       </c>
       <c r="C111" t="n">
-        <v>0.592027</v>
+        <v>0.602026</v>
       </c>
       <c r="D111" t="n">
-        <v>0.694886</v>
+        <v>0.706219</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.864652</v>
+        <v>0.876006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6030759999999999</v>
+        <v>0.611748</v>
       </c>
       <c r="D112" t="n">
-        <v>0.708243</v>
+        <v>0.719095</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.879316</v>
+        <v>0.890838</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614686</v>
+        <v>0.623314</v>
       </c>
       <c r="D113" t="n">
-        <v>0.721434</v>
+        <v>0.732304</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8950630000000001</v>
+        <v>0.906794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.62676</v>
+        <v>0.635514</v>
       </c>
       <c r="D114" t="n">
-        <v>0.736084</v>
+        <v>0.747127</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.912435</v>
+        <v>0.924179</v>
       </c>
       <c r="C115" t="n">
-        <v>0.638974</v>
+        <v>0.648212</v>
       </c>
       <c r="D115" t="n">
-        <v>0.750077</v>
+        <v>0.761476</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.930145</v>
+        <v>0.942898</v>
       </c>
       <c r="C116" t="n">
-        <v>0.651721</v>
+        <v>0.6610780000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.76213</v>
+        <v>0.773711</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.950317</v>
+        <v>0.96318</v>
       </c>
       <c r="C117" t="n">
-        <v>0.664942</v>
+        <v>0.674481</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7763640000000001</v>
+        <v>0.788305</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.970755</v>
+        <v>0.984334</v>
       </c>
       <c r="C118" t="n">
-        <v>0.678461</v>
+        <v>0.688303</v>
       </c>
       <c r="D118" t="n">
-        <v>0.793927</v>
+        <v>0.805183</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.859423</v>
+        <v>0.875024</v>
       </c>
       <c r="C119" t="n">
-        <v>0.693004</v>
+        <v>0.703237</v>
       </c>
       <c r="D119" t="n">
-        <v>0.808298</v>
+        <v>0.819478</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248406</v>
+        <v>0.249664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164858</v>
+        <v>0.165122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154454</v>
+        <v>0.153909</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218035</v>
+        <v>0.220212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16885</v>
+        <v>0.168237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.152984</v>
+        <v>0.152951</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222243</v>
+        <v>0.223142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.172809</v>
+        <v>0.173013</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158419</v>
+        <v>0.158382</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227475</v>
+        <v>0.229062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.177773</v>
+        <v>0.18063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161852</v>
+        <v>0.161876</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228292</v>
+        <v>0.229372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183405</v>
+        <v>0.184928</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165986</v>
+        <v>0.16623</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231996</v>
+        <v>0.234337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.166191</v>
+        <v>0.165661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159322</v>
+        <v>0.15996</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233241</v>
+        <v>0.235576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17027</v>
+        <v>0.176856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162878</v>
+        <v>0.164031</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.234613</v>
+        <v>0.238116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173655</v>
+        <v>0.174947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166198</v>
+        <v>0.167026</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240917</v>
+        <v>0.242869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180866</v>
+        <v>0.180798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.170247</v>
+        <v>0.167895</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238225</v>
+        <v>0.241855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176007</v>
+        <v>0.177965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166535</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250717</v>
+        <v>0.254761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188834</v>
+        <v>0.184602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176364</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255744</v>
+        <v>0.258122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188026</v>
+        <v>0.18734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175866</v>
+        <v>0.174605</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.255928</v>
+        <v>0.2569</v>
       </c>
       <c r="C14" t="n">
-        <v>0.191713</v>
+        <v>0.189956</v>
       </c>
       <c r="D14" t="n">
-        <v>0.176638</v>
+        <v>0.176346</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265047</v>
+        <v>0.267831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.195386</v>
+        <v>0.193485</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179316</v>
+        <v>0.179951</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269723</v>
+        <v>0.273292</v>
       </c>
       <c r="C16" t="n">
-        <v>0.199812</v>
+        <v>0.197597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180482</v>
+        <v>0.180183</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.274532</v>
+        <v>0.277267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203104</v>
+        <v>0.200636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18105</v>
+        <v>0.185581</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252672</v>
+        <v>0.256935</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207269</v>
+        <v>0.208488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185989</v>
+        <v>0.187624</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259788</v>
+        <v>0.262263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213848</v>
+        <v>0.2128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.188763</v>
+        <v>0.191375</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.261612</v>
+        <v>0.265701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215251</v>
+        <v>0.219788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189599</v>
+        <v>0.193602</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.268753</v>
+        <v>0.271434</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205043</v>
+        <v>0.199059</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188814</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.27088</v>
+        <v>0.27444</v>
       </c>
       <c r="C22" t="n">
-        <v>0.209819</v>
+        <v>0.199784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.192452</v>
+        <v>0.195483</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.275412</v>
+        <v>0.278172</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212008</v>
+        <v>0.204854</v>
       </c>
       <c r="D23" t="n">
-        <v>0.195708</v>
+        <v>0.197183</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279911</v>
+        <v>0.281297</v>
       </c>
       <c r="C24" t="n">
-        <v>0.222513</v>
+        <v>0.217248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199437</v>
+        <v>0.20155</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2832</v>
+        <v>0.284173</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230709</v>
+        <v>0.221272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201183</v>
+        <v>0.204642</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291244</v>
+        <v>0.293503</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226065</v>
+        <v>0.222099</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204887</v>
+        <v>0.20747</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294555</v>
+        <v>0.295348</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238579</v>
+        <v>0.234203</v>
       </c>
       <c r="D27" t="n">
-        <v>0.209725</v>
+        <v>0.20685</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297045</v>
+        <v>0.298609</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240824</v>
+        <v>0.23682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211938</v>
+        <v>0.212482</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306279</v>
+        <v>0.307176</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246525</v>
+        <v>0.24296</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214793</v>
+        <v>0.212922</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310184</v>
+        <v>0.311449</v>
       </c>
       <c r="C30" t="n">
-        <v>0.256874</v>
+        <v>0.253213</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219359</v>
+        <v>0.218687</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.313767</v>
+        <v>0.314807</v>
       </c>
       <c r="C31" t="n">
-        <v>0.254027</v>
+        <v>0.251457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22106</v>
+        <v>0.219683</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280352</v>
+        <v>0.281555</v>
       </c>
       <c r="C32" t="n">
-        <v>0.260211</v>
+        <v>0.260913</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22356</v>
+        <v>0.224663</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286102</v>
+        <v>0.285954</v>
       </c>
       <c r="C33" t="n">
-        <v>0.269357</v>
+        <v>0.269434</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228621</v>
+        <v>0.227908</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.290656</v>
+        <v>0.291938</v>
       </c>
       <c r="C34" t="n">
-        <v>0.275932</v>
+        <v>0.273543</v>
       </c>
       <c r="D34" t="n">
-        <v>0.231982</v>
+        <v>0.231445</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292137</v>
+        <v>0.292579</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2167</v>
+        <v>0.213622</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210387</v>
+        <v>0.210954</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.296901</v>
+        <v>0.297382</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222447</v>
+        <v>0.218988</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212237</v>
+        <v>0.212527</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.30353</v>
+        <v>0.304028</v>
       </c>
       <c r="C37" t="n">
-        <v>0.227686</v>
+        <v>0.223055</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213532</v>
+        <v>0.214277</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306124</v>
+        <v>0.307204</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229875</v>
+        <v>0.226511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21609</v>
+        <v>0.217079</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312577</v>
+        <v>0.313809</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235896</v>
+        <v>0.231761</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219786</v>
+        <v>0.219216</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320475</v>
+        <v>0.321981</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232884</v>
+        <v>0.235799</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221069</v>
+        <v>0.221449</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.32656</v>
+        <v>0.328075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243037</v>
+        <v>0.238904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223718</v>
+        <v>0.223266</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331093</v>
+        <v>0.332488</v>
       </c>
       <c r="C42" t="n">
-        <v>0.244117</v>
+        <v>0.241787</v>
       </c>
       <c r="D42" t="n">
-        <v>0.225171</v>
+        <v>0.223965</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337112</v>
+        <v>0.338159</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248899</v>
+        <v>0.245893</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227568</v>
+        <v>0.227632</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339927</v>
+        <v>0.340873</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253314</v>
+        <v>0.25097</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229042</v>
+        <v>0.228968</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348245</v>
+        <v>0.348811</v>
       </c>
       <c r="C45" t="n">
-        <v>0.256032</v>
+        <v>0.254095</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231137</v>
+        <v>0.231802</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349142</v>
+        <v>0.349831</v>
       </c>
       <c r="C46" t="n">
-        <v>0.256668</v>
+        <v>0.254325</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232653</v>
+        <v>0.232505</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.288926</v>
+        <v>0.288771</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260962</v>
+        <v>0.259179</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234417</v>
+        <v>0.233774</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.293693</v>
+        <v>0.294476</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267314</v>
+        <v>0.266049</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235897</v>
+        <v>0.236624</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297336</v>
+        <v>0.297877</v>
       </c>
       <c r="C49" t="n">
-        <v>0.27021</v>
+        <v>0.269625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239101</v>
+        <v>0.238963</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.300992</v>
+        <v>0.301942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240768</v>
+        <v>0.238577</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224268</v>
+        <v>0.223915</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.303802</v>
+        <v>0.304685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24331</v>
+        <v>0.242104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225625</v>
+        <v>0.226781</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306477</v>
+        <v>0.306862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246826</v>
+        <v>0.244539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.226795</v>
+        <v>0.227908</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312586</v>
+        <v>0.312935</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251202</v>
+        <v>0.249549</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229768</v>
+        <v>0.229357</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320657</v>
+        <v>0.320698</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255494</v>
+        <v>0.253291</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231557</v>
+        <v>0.232216</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320274</v>
+        <v>0.320302</v>
       </c>
       <c r="C55" t="n">
-        <v>0.26182</v>
+        <v>0.259653</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234077</v>
+        <v>0.233572</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32584</v>
+        <v>0.32594</v>
       </c>
       <c r="C56" t="n">
-        <v>0.260642</v>
+        <v>0.258545</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234319</v>
+        <v>0.234754</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332636</v>
+        <v>0.333219</v>
       </c>
       <c r="C57" t="n">
-        <v>0.267915</v>
+        <v>0.266617</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236842</v>
+        <v>0.237302</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334141</v>
+        <v>0.334677</v>
       </c>
       <c r="C58" t="n">
-        <v>0.27591</v>
+        <v>0.274037</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240379</v>
+        <v>0.240438</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.34202</v>
+        <v>0.342307</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282263</v>
+        <v>0.280459</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244013</v>
+        <v>0.244597</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347158</v>
+        <v>0.347561</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285759</v>
+        <v>0.284652</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247146</v>
+        <v>0.247528</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.304365</v>
+        <v>0.305575</v>
       </c>
       <c r="C61" t="n">
-        <v>0.29194</v>
+        <v>0.29041</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248481</v>
+        <v>0.248951</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313964</v>
+        <v>0.308974</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293303</v>
+        <v>0.291839</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250291</v>
+        <v>0.250885</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318988</v>
+        <v>0.317499</v>
       </c>
       <c r="C63" t="n">
-        <v>0.301032</v>
+        <v>0.300211</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253992</v>
+        <v>0.254179</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.32463</v>
+        <v>0.323959</v>
       </c>
       <c r="C64" t="n">
-        <v>0.266079</v>
+        <v>0.262951</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243411</v>
+        <v>0.241786</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.328775</v>
+        <v>0.329259</v>
       </c>
       <c r="C65" t="n">
-        <v>0.269929</v>
+        <v>0.266688</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24146</v>
+        <v>0.242796</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.336108</v>
+        <v>0.337623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.273106</v>
+        <v>0.270172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243031</v>
+        <v>0.243279</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34123</v>
+        <v>0.344289</v>
       </c>
       <c r="C67" t="n">
-        <v>0.280658</v>
+        <v>0.276961</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246394</v>
+        <v>0.246607</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350804</v>
+        <v>0.353833</v>
       </c>
       <c r="C68" t="n">
-        <v>0.284096</v>
+        <v>0.281343</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24842</v>
+        <v>0.248716</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358152</v>
+        <v>0.36082</v>
       </c>
       <c r="C69" t="n">
-        <v>0.288768</v>
+        <v>0.28498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251532</v>
+        <v>0.251469</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364878</v>
+        <v>0.371024</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294721</v>
+        <v>0.290872</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25564</v>
+        <v>0.255327</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.374371</v>
+        <v>0.377697</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303246</v>
+        <v>0.29732</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258408</v>
+        <v>0.258744</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.382382</v>
+        <v>0.391744</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311487</v>
+        <v>0.3068</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262622</v>
+        <v>0.26154</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.398365</v>
+        <v>0.405416</v>
       </c>
       <c r="C73" t="n">
-        <v>0.319552</v>
+        <v>0.315305</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268031</v>
+        <v>0.266122</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4108</v>
+        <v>0.414988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.326009</v>
+        <v>0.321986</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268333</v>
+        <v>0.268305</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.424546</v>
+        <v>0.432973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.332221</v>
+        <v>0.328949</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271992</v>
+        <v>0.272736</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.430889</v>
+        <v>0.422425</v>
       </c>
       <c r="C76" t="n">
-        <v>0.342648</v>
+        <v>0.336076</v>
       </c>
       <c r="D76" t="n">
-        <v>0.278317</v>
+        <v>0.276985</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.451849</v>
+        <v>0.450174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.356959</v>
+        <v>0.348861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.282021</v>
+        <v>0.282146</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.480818</v>
+        <v>0.482704</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318967</v>
+        <v>0.302353</v>
       </c>
       <c r="D78" t="n">
-        <v>0.274671</v>
+        <v>0.277653</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.506252</v>
+        <v>0.502153</v>
       </c>
       <c r="C79" t="n">
-        <v>0.335818</v>
+        <v>0.312947</v>
       </c>
       <c r="D79" t="n">
-        <v>0.276608</v>
+        <v>0.279976</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.519875</v>
       </c>
       <c r="C80" t="n">
-        <v>0.346135</v>
+        <v>0.321208</v>
       </c>
       <c r="D80" t="n">
-        <v>0.294379</v>
+        <v>0.283803</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.547123</v>
+        <v>0.544322</v>
       </c>
       <c r="C81" t="n">
-        <v>0.361702</v>
+        <v>0.33366</v>
       </c>
       <c r="D81" t="n">
-        <v>0.29566</v>
+        <v>0.291427</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.58187</v>
+        <v>0.585936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.373485</v>
+        <v>0.348473</v>
       </c>
       <c r="D82" t="n">
-        <v>0.302246</v>
+        <v>0.298255</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.610858</v>
+        <v>0.611635</v>
       </c>
       <c r="C83" t="n">
-        <v>0.409536</v>
+        <v>0.362994</v>
       </c>
       <c r="D83" t="n">
-        <v>0.322913</v>
+        <v>0.305842</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.665339</v>
+        <v>0.6597769999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.430071</v>
+        <v>0.3829</v>
       </c>
       <c r="D84" t="n">
-        <v>0.33203</v>
+        <v>0.320694</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.695513</v>
+        <v>0.691893</v>
       </c>
       <c r="C85" t="n">
-        <v>0.443908</v>
+        <v>0.401675</v>
       </c>
       <c r="D85" t="n">
-        <v>0.336256</v>
+        <v>0.334818</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.734692</v>
+        <v>0.7385620000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.459474</v>
+        <v>0.421268</v>
       </c>
       <c r="D86" t="n">
-        <v>0.347189</v>
+        <v>0.346406</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.771605</v>
+        <v>0.778216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.484292</v>
+        <v>0.445589</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354891</v>
+        <v>0.357249</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.814304</v>
+        <v>0.8202</v>
       </c>
       <c r="C88" t="n">
-        <v>0.508054</v>
+        <v>0.469818</v>
       </c>
       <c r="D88" t="n">
-        <v>0.368598</v>
+        <v>0.367498</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.863895</v>
+        <v>0.8735000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.540156</v>
+        <v>0.501839</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383252</v>
+        <v>0.387652</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.863365</v>
+        <v>0.8790790000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.574915</v>
+        <v>0.527385</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397171</v>
+        <v>0.402576</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.894736</v>
+        <v>0.918007</v>
       </c>
       <c r="C91" t="n">
-        <v>0.605158</v>
+        <v>0.570985</v>
       </c>
       <c r="D91" t="n">
-        <v>0.424994</v>
+        <v>0.425515</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931878</v>
+        <v>0.947728</v>
       </c>
       <c r="C92" t="n">
-        <v>0.613599</v>
+        <v>0.5676870000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5010599999999999</v>
+        <v>0.505745</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9607869999999999</v>
+        <v>0.979235</v>
       </c>
       <c r="C93" t="n">
-        <v>0.638055</v>
+        <v>0.593858</v>
       </c>
       <c r="D93" t="n">
-        <v>0.520195</v>
+        <v>0.523784</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.994955</v>
+        <v>1.01599</v>
       </c>
       <c r="C94" t="n">
-        <v>0.663852</v>
+        <v>0.619379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536467</v>
+        <v>0.539467</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03218</v>
+        <v>1.0528</v>
       </c>
       <c r="C95" t="n">
-        <v>0.69067</v>
+        <v>0.645665</v>
       </c>
       <c r="D95" t="n">
-        <v>0.553219</v>
+        <v>0.561402</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06641</v>
+        <v>1.08676</v>
       </c>
       <c r="C96" t="n">
-        <v>0.715465</v>
+        <v>0.671535</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5712</v>
+        <v>0.580866</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10171</v>
+        <v>1.12637</v>
       </c>
       <c r="C97" t="n">
-        <v>0.745185</v>
+        <v>0.705575</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5943040000000001</v>
+        <v>0.600104</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.13547</v>
+        <v>1.16223</v>
       </c>
       <c r="C98" t="n">
-        <v>0.772402</v>
+        <v>0.733304</v>
       </c>
       <c r="D98" t="n">
-        <v>0.615276</v>
+        <v>0.623455</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17086</v>
+        <v>1.19639</v>
       </c>
       <c r="C99" t="n">
-        <v>0.804887</v>
+        <v>0.767329</v>
       </c>
       <c r="D99" t="n">
-        <v>0.63174</v>
+        <v>0.646092</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20845</v>
+        <v>1.23462</v>
       </c>
       <c r="C100" t="n">
-        <v>0.833579</v>
+        <v>0.8004869999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.651707</v>
+        <v>0.662725</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24235</v>
+        <v>1.2726</v>
       </c>
       <c r="C101" t="n">
-        <v>0.858979</v>
+        <v>0.8292929999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.670677</v>
+        <v>0.684585</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.27836</v>
+        <v>1.30815</v>
       </c>
       <c r="C102" t="n">
-        <v>0.894467</v>
+        <v>0.86757</v>
       </c>
       <c r="D102" t="n">
-        <v>0.694571</v>
+        <v>0.706842</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31546</v>
+        <v>1.34557</v>
       </c>
       <c r="C103" t="n">
-        <v>0.920772</v>
+        <v>0.897629</v>
       </c>
       <c r="D103" t="n">
-        <v>0.710224</v>
+        <v>0.725275</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.35373</v>
+        <v>1.38564</v>
       </c>
       <c r="C104" t="n">
-        <v>0.948654</v>
+        <v>0.930302</v>
       </c>
       <c r="D104" t="n">
-        <v>0.731331</v>
+        <v>0.745976</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.24451</v>
+        <v>1.27502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.984594</v>
+        <v>0.970957</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7479170000000001</v>
+        <v>0.768176</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26628</v>
+        <v>1.29707</v>
       </c>
       <c r="C106" t="n">
-        <v>1.016</v>
+        <v>1.00239</v>
       </c>
       <c r="D106" t="n">
-        <v>0.774154</v>
+        <v>0.788928</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28938</v>
+        <v>1.32431</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912098</v>
+        <v>0.89272</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781342</v>
+        <v>0.801183</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.31201</v>
+        <v>1.34427</v>
       </c>
       <c r="C108" t="n">
-        <v>0.930747</v>
+        <v>0.912517</v>
       </c>
       <c r="D108" t="n">
-        <v>0.796157</v>
+        <v>0.818026</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33517</v>
+        <v>1.36955</v>
       </c>
       <c r="C109" t="n">
-        <v>0.954227</v>
+        <v>0.939619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.813972</v>
+        <v>0.829743</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35852</v>
+        <v>1.39487</v>
       </c>
       <c r="C110" t="n">
-        <v>0.974444</v>
+        <v>0.962006</v>
       </c>
       <c r="D110" t="n">
-        <v>0.828369</v>
+        <v>0.848066</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38388</v>
+        <v>1.4222</v>
       </c>
       <c r="C111" t="n">
-        <v>0.992815</v>
+        <v>0.985062</v>
       </c>
       <c r="D111" t="n">
-        <v>0.842861</v>
+        <v>0.859619</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40859</v>
+        <v>1.44885</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01994</v>
+        <v>1.01275</v>
       </c>
       <c r="D112" t="n">
-        <v>0.859372</v>
+        <v>0.877538</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4403</v>
+        <v>1.47827</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04526</v>
+        <v>1.03935</v>
       </c>
       <c r="D113" t="n">
-        <v>0.873685</v>
+        <v>0.895057</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46726</v>
+        <v>1.51103</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06807</v>
+        <v>1.06422</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886099</v>
+        <v>0.90513</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49642</v>
+        <v>1.53799</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09629</v>
+        <v>1.09416</v>
       </c>
       <c r="D115" t="n">
-        <v>0.898943</v>
+        <v>0.9213440000000001</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52717</v>
+        <v>1.56975</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12217</v>
+        <v>1.12185</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9167729999999999</v>
+        <v>0.936072</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56031</v>
+        <v>1.6015</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14744</v>
+        <v>1.14939</v>
       </c>
       <c r="D117" t="n">
-        <v>0.93188</v>
+        <v>0.951674</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59232</v>
+        <v>1.63503</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18185</v>
+        <v>1.18731</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946082</v>
+        <v>0.970525</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42024</v>
+        <v>1.46222</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21143</v>
+        <v>1.21933</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961439</v>
+        <v>0.986339</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390475</v>
+        <v>0.394087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295091</v>
+        <v>0.293731</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219692</v>
+        <v>0.218961</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401024</v>
+        <v>0.404439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.299303</v>
+        <v>0.301569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220561</v>
+        <v>0.220586</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41383</v>
+        <v>0.415642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314887</v>
+        <v>0.319893</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230683</v>
+        <v>0.231378</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420133</v>
+        <v>0.424864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.324776</v>
+        <v>0.328224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235344</v>
+        <v>0.236042</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.436586</v>
+        <v>0.439627</v>
       </c>
       <c r="C6" t="n">
-        <v>0.326446</v>
+        <v>0.32771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238834</v>
+        <v>0.239276</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.447984</v>
+        <v>0.454525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.346627</v>
+        <v>0.347971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246927</v>
+        <v>0.246989</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.462817</v>
+        <v>0.468204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.360815</v>
+        <v>0.362866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.255941</v>
+        <v>0.258343</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.481675</v>
+        <v>0.488402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.376307</v>
+        <v>0.380816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265087</v>
+        <v>0.266355</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.496153</v>
+        <v>0.502289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.397852</v>
+        <v>0.401194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.275712</v>
+        <v>0.276243</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.513239</v>
+        <v>0.520765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295728</v>
+        <v>0.302456</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217409</v>
+        <v>0.219097</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.384907</v>
+        <v>0.392027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.303688</v>
+        <v>0.306854</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220327</v>
+        <v>0.221243</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.395945</v>
+        <v>0.401726</v>
       </c>
       <c r="C13" t="n">
-        <v>0.312495</v>
+        <v>0.318475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.230045</v>
+        <v>0.233068</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.404315</v>
+        <v>0.411624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.329908</v>
+        <v>0.331863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230689</v>
+        <v>0.234663</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.426015</v>
+        <v>0.434307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.342948</v>
+        <v>0.347622</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238099</v>
+        <v>0.245101</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.437022</v>
+        <v>0.449446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.362544</v>
+        <v>0.364676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245347</v>
+        <v>0.250425</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.449292</v>
+        <v>0.456577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.372593</v>
+        <v>0.379685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254091</v>
+        <v>0.254871</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471419</v>
+        <v>0.479233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.382545</v>
+        <v>0.384511</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254104</v>
+        <v>0.257579</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483605</v>
+        <v>0.489979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.405571</v>
+        <v>0.404345</v>
       </c>
       <c r="D19" t="n">
-        <v>0.262923</v>
+        <v>0.267454</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.501866</v>
+        <v>0.509256</v>
       </c>
       <c r="C20" t="n">
-        <v>0.42543</v>
+        <v>0.428124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.275724</v>
+        <v>0.280069</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.517798</v>
+        <v>0.527639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.443709</v>
+        <v>0.445297</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28953</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.540535</v>
+        <v>0.548053</v>
       </c>
       <c r="C22" t="n">
-        <v>0.470294</v>
+        <v>0.470585</v>
       </c>
       <c r="D22" t="n">
-        <v>0.294513</v>
+        <v>0.299042</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5571159999999999</v>
+        <v>0.563086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.49402</v>
+        <v>0.494489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307786</v>
+        <v>0.311946</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.592821</v>
+        <v>0.600401</v>
       </c>
       <c r="C24" t="n">
-        <v>0.510899</v>
+        <v>0.5130670000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.319914</v>
+        <v>0.319889</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.62676</v>
+        <v>0.634762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5370200000000001</v>
+        <v>0.5380549999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.327212</v>
+        <v>0.330577</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.654204</v>
+        <v>0.660447</v>
       </c>
       <c r="C26" t="n">
-        <v>0.340399</v>
+        <v>0.341391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.238282</v>
+        <v>0.238358</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.432656</v>
+        <v>0.43558</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34284</v>
+        <v>0.341691</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241026</v>
+        <v>0.240913</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.448589</v>
+        <v>0.451933</v>
       </c>
       <c r="C28" t="n">
-        <v>0.357503</v>
+        <v>0.356261</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246757</v>
+        <v>0.248773</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.464721</v>
+        <v>0.466623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.363781</v>
+        <v>0.365038</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253393</v>
+        <v>0.253267</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.480711</v>
+        <v>0.482901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.383925</v>
+        <v>0.381412</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260181</v>
+        <v>0.260176</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497153</v>
+        <v>0.497623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399178</v>
+        <v>0.393231</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267089</v>
+        <v>0.268144</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.512984</v>
+        <v>0.5160130000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.415793</v>
+        <v>0.411673</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274872</v>
+        <v>0.27208</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.541428</v>
+        <v>0.541851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.433875</v>
+        <v>0.428776</v>
       </c>
       <c r="D33" t="n">
-        <v>0.286078</v>
+        <v>0.280389</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.554572</v>
+        <v>0.5554750000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.452175</v>
+        <v>0.447498</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292024</v>
+        <v>0.290297</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.578852</v>
+        <v>0.580638</v>
       </c>
       <c r="C35" t="n">
-        <v>0.474169</v>
+        <v>0.469057</v>
       </c>
       <c r="D35" t="n">
-        <v>0.302308</v>
+        <v>0.301512</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.597919</v>
+        <v>0.600051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.49561</v>
+        <v>0.491442</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314289</v>
+        <v>0.31063</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.613699</v>
+        <v>0.615403</v>
       </c>
       <c r="C37" t="n">
-        <v>0.521555</v>
+        <v>0.517397</v>
       </c>
       <c r="D37" t="n">
-        <v>0.324771</v>
+        <v>0.322663</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.637862</v>
+        <v>0.643256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.541265</v>
+        <v>0.538819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.335121</v>
+        <v>0.332446</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.672303</v>
+        <v>0.67708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5693</v>
+        <v>0.570753</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346153</v>
+        <v>0.345249</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692795</v>
+        <v>0.697869</v>
       </c>
       <c r="C40" t="n">
-        <v>0.396791</v>
+        <v>0.394734</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280097</v>
+        <v>0.279384</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502359</v>
+        <v>0.504522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.408583</v>
+        <v>0.404879</v>
       </c>
       <c r="D41" t="n">
-        <v>0.286734</v>
+        <v>0.286837</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.515323</v>
+        <v>0.516643</v>
       </c>
       <c r="C42" t="n">
-        <v>0.426182</v>
+        <v>0.424409</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294027</v>
+        <v>0.294356</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.527944</v>
+        <v>0.529416</v>
       </c>
       <c r="C43" t="n">
-        <v>0.437261</v>
+        <v>0.434642</v>
       </c>
       <c r="D43" t="n">
-        <v>0.300024</v>
+        <v>0.301114</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543453</v>
+        <v>0.545923</v>
       </c>
       <c r="C44" t="n">
-        <v>0.458159</v>
+        <v>0.457502</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310174</v>
+        <v>0.31012</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.560555</v>
+        <v>0.561487</v>
       </c>
       <c r="C45" t="n">
-        <v>0.471607</v>
+        <v>0.469056</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315931</v>
+        <v>0.314402</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.572648</v>
+        <v>0.575556</v>
       </c>
       <c r="C46" t="n">
-        <v>0.490022</v>
+        <v>0.488457</v>
       </c>
       <c r="D46" t="n">
-        <v>0.321688</v>
+        <v>0.322121</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594793</v>
+        <v>0.597752</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5078</v>
+        <v>0.50461</v>
       </c>
       <c r="D47" t="n">
-        <v>0.330776</v>
+        <v>0.331813</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611693</v>
+        <v>0.615015</v>
       </c>
       <c r="C48" t="n">
-        <v>0.521652</v>
+        <v>0.519514</v>
       </c>
       <c r="D48" t="n">
-        <v>0.34081</v>
+        <v>0.34139</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.62277</v>
+        <v>0.627031</v>
       </c>
       <c r="C49" t="n">
-        <v>0.546381</v>
+        <v>0.539872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348237</v>
+        <v>0.348133</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6523139999999999</v>
+        <v>0.656536</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5643629999999999</v>
+        <v>0.5581390000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359661</v>
+        <v>0.35698</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.67693</v>
+        <v>0.682307</v>
       </c>
       <c r="C51" t="n">
-        <v>0.588095</v>
+        <v>0.585058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.369067</v>
+        <v>0.36802</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7019069999999999</v>
+        <v>0.706844</v>
       </c>
       <c r="C52" t="n">
-        <v>0.613332</v>
+        <v>0.6100139999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381039</v>
+        <v>0.377103</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.725449</v>
+        <v>0.731642</v>
       </c>
       <c r="C53" t="n">
-        <v>0.637966</v>
+        <v>0.632845</v>
       </c>
       <c r="D53" t="n">
-        <v>0.391908</v>
+        <v>0.393827</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.752219</v>
+        <v>0.757251</v>
       </c>
       <c r="C54" t="n">
-        <v>0.44821</v>
+        <v>0.445828</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313049</v>
+        <v>0.313035</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.782025</v>
+        <v>0.789829</v>
       </c>
       <c r="C55" t="n">
-        <v>0.456473</v>
+        <v>0.455315</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318617</v>
+        <v>0.319176</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.53661</v>
+        <v>0.538281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.472651</v>
+        <v>0.469444</v>
       </c>
       <c r="D56" t="n">
-        <v>0.324441</v>
+        <v>0.325272</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.549631</v>
+        <v>0.552455</v>
       </c>
       <c r="C57" t="n">
-        <v>0.486757</v>
+        <v>0.483594</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331459</v>
+        <v>0.330045</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565723</v>
+        <v>0.568075</v>
       </c>
       <c r="C58" t="n">
-        <v>0.499544</v>
+        <v>0.497768</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33597</v>
+        <v>0.336997</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579298</v>
+        <v>0.582248</v>
       </c>
       <c r="C59" t="n">
-        <v>0.514012</v>
+        <v>0.512364</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345996</v>
+        <v>0.346065</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588646</v>
+        <v>0.590874</v>
       </c>
       <c r="C60" t="n">
-        <v>0.529408</v>
+        <v>0.528871</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351606</v>
+        <v>0.351049</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.607986</v>
+        <v>0.61163</v>
       </c>
       <c r="C61" t="n">
-        <v>0.547412</v>
+        <v>0.545763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.358102</v>
+        <v>0.359158</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628064</v>
+        <v>0.6307160000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.564602</v>
+        <v>0.56064</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367162</v>
+        <v>0.364996</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.648298</v>
+        <v>0.649129</v>
       </c>
       <c r="C63" t="n">
-        <v>0.586931</v>
+        <v>0.581406</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375676</v>
+        <v>0.375272</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.66826</v>
+        <v>0.670624</v>
       </c>
       <c r="C64" t="n">
-        <v>0.602969</v>
+        <v>0.594557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.385516</v>
+        <v>0.385114</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.696738</v>
+        <v>0.699973</v>
       </c>
       <c r="C65" t="n">
-        <v>0.630742</v>
+        <v>0.623818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.395758</v>
+        <v>0.395074</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.720175</v>
+        <v>0.7252690000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6488159999999999</v>
+        <v>0.641497</v>
       </c>
       <c r="D66" t="n">
-        <v>0.404883</v>
+        <v>0.403249</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7489</v>
+        <v>0.755997</v>
       </c>
       <c r="C67" t="n">
-        <v>0.675416</v>
+        <v>0.669682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419627</v>
+        <v>0.416757</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.769587</v>
+        <v>0.77985</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43968</v>
+        <v>0.438878</v>
       </c>
       <c r="D68" t="n">
-        <v>0.31381</v>
+        <v>0.314627</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.814899</v>
+        <v>0.82276</v>
       </c>
       <c r="C69" t="n">
-        <v>0.458194</v>
+        <v>0.453547</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320533</v>
+        <v>0.319598</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.558114</v>
+        <v>0.559853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47806</v>
+        <v>0.473782</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329683</v>
+        <v>0.329175</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.577155</v>
+        <v>0.580179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.498154</v>
+        <v>0.496999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337042</v>
+        <v>0.336265</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.607268</v>
+        <v>0.611757</v>
       </c>
       <c r="C72" t="n">
-        <v>0.520192</v>
+        <v>0.517054</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345416</v>
+        <v>0.344897</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.635203</v>
+        <v>0.638601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.546098</v>
+        <v>0.5415140000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.356378</v>
+        <v>0.35539</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.660284</v>
+        <v>0.66584</v>
       </c>
       <c r="C74" t="n">
-        <v>0.568446</v>
+        <v>0.564833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365926</v>
+        <v>0.364607</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692376</v>
+        <v>0.7024589999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.602152</v>
+        <v>0.5982150000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374986</v>
+        <v>0.3757</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.729334</v>
+        <v>0.736586</v>
       </c>
       <c r="C76" t="n">
-        <v>0.632248</v>
+        <v>0.628335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.386376</v>
+        <v>0.387913</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.76497</v>
+        <v>0.7792790000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.665616</v>
+        <v>0.665613</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399801</v>
+        <v>0.399904</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.806055</v>
+        <v>0.82487</v>
       </c>
       <c r="C78" t="n">
-        <v>0.703355</v>
+        <v>0.7020459999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412711</v>
+        <v>0.413132</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8572650000000001</v>
+        <v>0.870791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.743465</v>
+        <v>0.7403650000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427915</v>
+        <v>0.424948</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9163480000000001</v>
+        <v>0.929431</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8016</v>
+        <v>0.792346</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442895</v>
+        <v>0.439577</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.986606</v>
+        <v>0.998795</v>
       </c>
       <c r="C81" t="n">
-        <v>0.860433</v>
+        <v>0.8505</v>
       </c>
       <c r="D81" t="n">
-        <v>0.461701</v>
+        <v>0.457863</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05869</v>
+        <v>1.07771</v>
       </c>
       <c r="C82" t="n">
-        <v>0.926397</v>
+        <v>0.915073</v>
       </c>
       <c r="D82" t="n">
-        <v>0.476382</v>
+        <v>0.474443</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.15292</v>
+        <v>1.16962</v>
       </c>
       <c r="C83" t="n">
-        <v>0.659716</v>
+        <v>0.656211</v>
       </c>
       <c r="D83" t="n">
-        <v>0.389476</v>
+        <v>0.384426</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.2609</v>
+        <v>1.28395</v>
       </c>
       <c r="C84" t="n">
-        <v>0.706864</v>
+        <v>0.693255</v>
       </c>
       <c r="D84" t="n">
-        <v>0.401881</v>
+        <v>0.400006</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871881</v>
+        <v>0.892602</v>
       </c>
       <c r="C85" t="n">
-        <v>0.759517</v>
+        <v>0.7462490000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413745</v>
+        <v>0.409398</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.938354</v>
+        <v>0.9611420000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.83039</v>
+        <v>0.817377</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432128</v>
+        <v>0.438883</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01401</v>
+        <v>1.03611</v>
       </c>
       <c r="C87" t="n">
-        <v>0.903701</v>
+        <v>0.884058</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452143</v>
+        <v>0.460699</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10191</v>
+        <v>1.1245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.996079</v>
+        <v>0.983813</v>
       </c>
       <c r="D88" t="n">
-        <v>0.478828</v>
+        <v>0.492433</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18667</v>
+        <v>1.21365</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08311</v>
+        <v>1.06455</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5108200000000001</v>
+        <v>0.517448</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.28636</v>
+        <v>1.31616</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18006</v>
+        <v>1.15338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.535238</v>
+        <v>0.53939</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.40278</v>
+        <v>1.43205</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29242</v>
+        <v>1.25889</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570653</v>
+        <v>0.589019</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52166</v>
+        <v>1.54971</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40857</v>
+        <v>1.38491</v>
       </c>
       <c r="D92" t="n">
-        <v>0.615679</v>
+        <v>0.623764</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64655</v>
+        <v>1.68351</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5373</v>
+        <v>1.49862</v>
       </c>
       <c r="D93" t="n">
-        <v>0.662009</v>
+        <v>0.670184</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78392</v>
+        <v>1.82136</v>
       </c>
       <c r="C94" t="n">
-        <v>1.67148</v>
+        <v>1.63614</v>
       </c>
       <c r="D94" t="n">
-        <v>0.715462</v>
+        <v>0.729465</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92284</v>
+        <v>1.96447</v>
       </c>
       <c r="C95" t="n">
-        <v>1.81473</v>
+        <v>1.77868</v>
       </c>
       <c r="D95" t="n">
-        <v>0.766014</v>
+        <v>0.781984</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08593</v>
+        <v>2.13301</v>
       </c>
       <c r="C96" t="n">
-        <v>1.98144</v>
+        <v>1.94701</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8278450000000001</v>
+        <v>0.848634</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25448</v>
+        <v>2.30097</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21388</v>
+        <v>1.18703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.629099</v>
+        <v>0.635229</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41193</v>
+        <v>2.46807</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29294</v>
+        <v>1.27949</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668441</v>
+        <v>0.6723479999999999</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6764</v>
+        <v>1.71563</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37757</v>
+        <v>1.35847</v>
       </c>
       <c r="D99" t="n">
-        <v>0.709346</v>
+        <v>0.717767</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7668</v>
+        <v>1.80593</v>
       </c>
       <c r="C100" t="n">
-        <v>1.4723</v>
+        <v>1.45117</v>
       </c>
       <c r="D100" t="n">
-        <v>0.744018</v>
+        <v>0.760607</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.86151</v>
+        <v>1.90288</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56399</v>
+        <v>1.55368</v>
       </c>
       <c r="D101" t="n">
-        <v>0.796208</v>
+        <v>0.79975</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.96198</v>
+        <v>2.0058</v>
       </c>
       <c r="C102" t="n">
-        <v>1.66054</v>
+        <v>1.65931</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834879</v>
+        <v>0.846954</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.0584</v>
+        <v>2.10679</v>
       </c>
       <c r="C103" t="n">
-        <v>1.76919</v>
+        <v>1.7573</v>
       </c>
       <c r="D103" t="n">
-        <v>0.875895</v>
+        <v>0.886583</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17534</v>
+        <v>2.22313</v>
       </c>
       <c r="C104" t="n">
-        <v>1.88305</v>
+        <v>1.88218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9255989999999999</v>
+        <v>0.933949</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27919</v>
+        <v>2.33079</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00567</v>
+        <v>2.00491</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99212</v>
+        <v>1.00847</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40244</v>
+        <v>2.46367</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12511</v>
+        <v>2.13009</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02709</v>
+        <v>1.05468</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.52401</v>
+        <v>2.587</v>
       </c>
       <c r="C107" t="n">
-        <v>2.24999</v>
+        <v>2.25201</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08678</v>
+        <v>1.10949</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65775</v>
+        <v>2.72528</v>
       </c>
       <c r="C108" t="n">
-        <v>2.40403</v>
+        <v>2.4058</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15059</v>
+        <v>1.16945</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79591</v>
+        <v>2.86612</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56671</v>
+        <v>2.54594</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20468</v>
+        <v>1.2386</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.95556</v>
+        <v>3.01227</v>
       </c>
       <c r="C110" t="n">
-        <v>2.7047</v>
+        <v>2.69237</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26735</v>
+        <v>1.28183</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1112</v>
+        <v>3.18789</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70778</v>
+        <v>1.71118</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00621</v>
+        <v>1.02881</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28591</v>
+        <v>3.34585</v>
       </c>
       <c r="C112" t="n">
-        <v>1.7938</v>
+        <v>1.80454</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04804</v>
+        <v>1.05508</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.43186</v>
+        <v>3.51899</v>
       </c>
       <c r="C113" t="n">
-        <v>1.88539</v>
+        <v>1.90394</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07284</v>
+        <v>1.10508</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.30804</v>
+        <v>2.36068</v>
       </c>
       <c r="C114" t="n">
-        <v>1.98019</v>
+        <v>1.98634</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11649</v>
+        <v>1.14025</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39105</v>
+        <v>2.45053</v>
       </c>
       <c r="C115" t="n">
-        <v>2.07039</v>
+        <v>2.08878</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16947</v>
+        <v>1.19875</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.48782</v>
+        <v>2.55487</v>
       </c>
       <c r="C116" t="n">
-        <v>2.16869</v>
+        <v>2.17482</v>
       </c>
       <c r="D116" t="n">
-        <v>1.19583</v>
+        <v>1.23474</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59657</v>
+        <v>2.66265</v>
       </c>
       <c r="C117" t="n">
-        <v>2.27749</v>
+        <v>2.28426</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25234</v>
+        <v>1.26866</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.6985</v>
+        <v>2.76324</v>
       </c>
       <c r="C118" t="n">
-        <v>2.38821</v>
+        <v>2.39867</v>
       </c>
       <c r="D118" t="n">
-        <v>1.2869</v>
+        <v>1.32143</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.81305</v>
+        <v>2.87982</v>
       </c>
       <c r="C119" t="n">
-        <v>2.49591</v>
+        <v>2.51338</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34092</v>
+        <v>1.37654</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249953</v>
+        <v>0.2454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18523</v>
+        <v>0.184775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198843</v>
+        <v>0.195857</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201453</v>
+        <v>0.198865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186422</v>
+        <v>0.186461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20112</v>
+        <v>0.197311</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206865</v>
+        <v>0.202595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191504</v>
+        <v>0.190862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207877</v>
+        <v>0.203612</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.213618</v>
+        <v>0.208718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197336</v>
+        <v>0.196658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213606</v>
+        <v>0.209752</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218846</v>
+        <v>0.212847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200902</v>
+        <v>0.200258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218954</v>
+        <v>0.215615</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224224</v>
+        <v>0.220518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167978</v>
+        <v>0.16787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186511</v>
+        <v>0.18406</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229483</v>
+        <v>0.224123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.171722</v>
+        <v>0.170318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18979</v>
+        <v>0.187614</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23469</v>
+        <v>0.230477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174757</v>
+        <v>0.17439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196279</v>
+        <v>0.192102</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239889</v>
+        <v>0.234826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177753</v>
+        <v>0.17781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2001</v>
+        <v>0.194831</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244537</v>
+        <v>0.238196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180839</v>
+        <v>0.181535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202435</v>
+        <v>0.197947</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252245</v>
+        <v>0.246635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185748</v>
+        <v>0.187926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207767</v>
+        <v>0.203716</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25568</v>
+        <v>0.251954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190316</v>
+        <v>0.190768</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21128</v>
+        <v>0.208157</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261107</v>
+        <v>0.257934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194219</v>
+        <v>0.194873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214392</v>
+        <v>0.212358</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267777</v>
+        <v>0.26528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198917</v>
+        <v>0.199958</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220506</v>
+        <v>0.218848</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270938</v>
+        <v>0.268988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202584</v>
+        <v>0.203587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223355</v>
+        <v>0.221505</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277777</v>
+        <v>0.276076</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208269</v>
+        <v>0.209332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229029</v>
+        <v>0.227423</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230854</v>
+        <v>0.230691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210632</v>
+        <v>0.211719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23276</v>
+        <v>0.23088</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235061</v>
+        <v>0.235009</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215062</v>
+        <v>0.216758</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236761</v>
+        <v>0.235955</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239297</v>
+        <v>0.239569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218652</v>
+        <v>0.219587</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242031</v>
+        <v>0.24087</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243883</v>
+        <v>0.243934</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183794</v>
+        <v>0.18492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204984</v>
+        <v>0.204898</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248213</v>
+        <v>0.248652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187237</v>
+        <v>0.18865</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209434</v>
+        <v>0.208931</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25246</v>
+        <v>0.252957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190357</v>
+        <v>0.192142</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212795</v>
+        <v>0.212916</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257252</v>
+        <v>0.257603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193678</v>
+        <v>0.195166</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216301</v>
+        <v>0.216445</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262761</v>
+        <v>0.262529</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196825</v>
+        <v>0.198534</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219933</v>
+        <v>0.219974</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26886</v>
+        <v>0.268806</v>
       </c>
       <c r="C26" t="n">
-        <v>0.200736</v>
+        <v>0.202468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224055</v>
+        <v>0.224486</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273579</v>
+        <v>0.273496</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204249</v>
+        <v>0.206552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227863</v>
+        <v>0.227886</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278699</v>
+        <v>0.279069</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209349</v>
+        <v>0.211784</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232864</v>
+        <v>0.232811</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28341</v>
+        <v>0.283883</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213671</v>
+        <v>0.216571</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237499</v>
+        <v>0.238032</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289106</v>
+        <v>0.289618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.217679</v>
+        <v>0.220854</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241682</v>
+        <v>0.241994</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2945</v>
+        <v>0.294973</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222326</v>
+        <v>0.22513</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245902</v>
+        <v>0.24619</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242547</v>
+        <v>0.242825</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224744</v>
+        <v>0.228584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249265</v>
+        <v>0.250135</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245635</v>
+        <v>0.246302</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230813</v>
+        <v>0.233552</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254958</v>
+        <v>0.255267</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249307</v>
+        <v>0.249078</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233375</v>
+        <v>0.237065</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258687</v>
+        <v>0.258935</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253541</v>
+        <v>0.253108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191849</v>
+        <v>0.193147</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211141</v>
+        <v>0.211334</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257151</v>
+        <v>0.257089</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194292</v>
+        <v>0.195717</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214113</v>
+        <v>0.214379</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260672</v>
+        <v>0.261064</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197029</v>
+        <v>0.198581</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217138</v>
+        <v>0.217685</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265271</v>
+        <v>0.265407</v>
       </c>
       <c r="C38" t="n">
-        <v>0.200542</v>
+        <v>0.202023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221205</v>
+        <v>0.221949</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269606</v>
+        <v>0.269799</v>
       </c>
       <c r="C39" t="n">
-        <v>0.204022</v>
+        <v>0.205774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225673</v>
+        <v>0.226121</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274844</v>
+        <v>0.275092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207789</v>
+        <v>0.209765</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229636</v>
+        <v>0.230108</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279529</v>
+        <v>0.27973</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211629</v>
+        <v>0.21381</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23354</v>
+        <v>0.233896</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284579</v>
+        <v>0.284716</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215126</v>
+        <v>0.217636</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237352</v>
+        <v>0.237806</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289632</v>
+        <v>0.289899</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2196</v>
+        <v>0.221945</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241589</v>
+        <v>0.242043</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295177</v>
+        <v>0.295081</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224084</v>
+        <v>0.226339</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246295</v>
+        <v>0.246721</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300262</v>
+        <v>0.300288</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228164</v>
+        <v>0.230844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250358</v>
+        <v>0.250801</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304933</v>
+        <v>0.304862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.231843</v>
+        <v>0.234701</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254356</v>
+        <v>0.254805</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250557</v>
+        <v>0.250573</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236146</v>
+        <v>0.238925</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258729</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25359</v>
+        <v>0.253504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24</v>
+        <v>0.242736</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262748</v>
+        <v>0.263072</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257139</v>
+        <v>0.25715</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243668</v>
+        <v>0.2466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266656</v>
+        <v>0.267425</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260981</v>
+        <v>0.260806</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198508</v>
+        <v>0.199995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216396</v>
+        <v>0.216428</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264784</v>
+        <v>0.264783</v>
       </c>
       <c r="C51" t="n">
-        <v>0.201394</v>
+        <v>0.202809</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219952</v>
+        <v>0.219549</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269096</v>
+        <v>0.268991</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204126</v>
+        <v>0.205583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223444</v>
+        <v>0.223193</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273597</v>
+        <v>0.273504</v>
       </c>
       <c r="C53" t="n">
-        <v>0.20742</v>
+        <v>0.209215</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226892</v>
+        <v>0.227005</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278671</v>
+        <v>0.278447</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210503</v>
+        <v>0.212761</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230491</v>
+        <v>0.230544</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.28357</v>
+        <v>0.283441</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214499</v>
+        <v>0.216443</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23453</v>
+        <v>0.234512</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288702</v>
+        <v>0.288661</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218634</v>
+        <v>0.220589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238452</v>
+        <v>0.23869</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293935</v>
+        <v>0.29442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222786</v>
+        <v>0.224829</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242635</v>
+        <v>0.243075</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298529</v>
+        <v>0.299079</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227187</v>
+        <v>0.22901</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246904</v>
+        <v>0.247287</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304367</v>
+        <v>0.304032</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23141</v>
+        <v>0.23353</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251497</v>
+        <v>0.251502</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309979</v>
+        <v>0.309574</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236015</v>
+        <v>0.238142</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25635</v>
+        <v>0.256185</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257033</v>
+        <v>0.257766</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239741</v>
+        <v>0.242183</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260537</v>
+        <v>0.260008</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256663</v>
+        <v>0.26269</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243372</v>
+        <v>0.245966</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264135</v>
+        <v>0.264467</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267319</v>
+        <v>0.268626</v>
       </c>
       <c r="C63" t="n">
-        <v>0.247462</v>
+        <v>0.250298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268866</v>
+        <v>0.268902</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.277771</v>
+        <v>0.275754</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207276</v>
+        <v>0.206844</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225545</v>
+        <v>0.225584</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279897</v>
+        <v>0.279514</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209919</v>
+        <v>0.21146</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229654</v>
+        <v>0.229092</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283739</v>
+        <v>0.282773</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216319</v>
+        <v>0.215226</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234671</v>
+        <v>0.234088</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294412</v>
+        <v>0.292879</v>
       </c>
       <c r="C67" t="n">
-        <v>0.211661</v>
+        <v>0.219472</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238874</v>
+        <v>0.23926</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297331</v>
+        <v>0.297984</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224789</v>
+        <v>0.22546</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24533</v>
+        <v>0.244543</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309075</v>
+        <v>0.307482</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227603</v>
+        <v>0.229924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250088</v>
+        <v>0.249975</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31841</v>
+        <v>0.320345</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234093</v>
+        <v>0.236886</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255909</v>
+        <v>0.255695</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327317</v>
+        <v>0.329638</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239009</v>
+        <v>0.243568</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261421</v>
+        <v>0.261691</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.336218</v>
+        <v>0.343245</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245432</v>
+        <v>0.250085</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267125</v>
+        <v>0.269645</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347483</v>
+        <v>0.353522</v>
       </c>
       <c r="C73" t="n">
-        <v>0.252794</v>
+        <v>0.256656</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275824</v>
+        <v>0.276754</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361879</v>
+        <v>0.365732</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260198</v>
+        <v>0.265068</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283778</v>
+        <v>0.284743</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376034</v>
+        <v>0.379853</v>
       </c>
       <c r="C75" t="n">
-        <v>0.267397</v>
+        <v>0.271728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290685</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40018</v>
+        <v>0.399492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276621</v>
+        <v>0.278944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.299954</v>
+        <v>0.300008</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416983</v>
+        <v>0.413355</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2851</v>
+        <v>0.288027</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308694</v>
+        <v>0.308244</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429272</v>
+        <v>0.430578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262308</v>
+        <v>0.281413</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29341</v>
+        <v>0.306916</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442945</v>
+        <v>0.446875</v>
       </c>
       <c r="C79" t="n">
-        <v>0.276151</v>
+        <v>0.285445</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303062</v>
+        <v>0.313982</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.462748</v>
+        <v>0.457574</v>
       </c>
       <c r="C80" t="n">
-        <v>0.296826</v>
+        <v>0.297334</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325863</v>
+        <v>0.325344</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.47494</v>
+        <v>0.478017</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306774</v>
+        <v>0.30619</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335549</v>
+        <v>0.339839</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.491899</v>
+        <v>0.494694</v>
       </c>
       <c r="C82" t="n">
-        <v>0.315181</v>
+        <v>0.323555</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348367</v>
+        <v>0.352074</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51358</v>
+        <v>0.515918</v>
       </c>
       <c r="C83" t="n">
-        <v>0.329543</v>
+        <v>0.334057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363609</v>
+        <v>0.36583</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.533041</v>
+        <v>0.535359</v>
       </c>
       <c r="C84" t="n">
-        <v>0.340071</v>
+        <v>0.346107</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379766</v>
+        <v>0.382621</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55571</v>
+        <v>0.5563399999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358068</v>
+        <v>0.362013</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400366</v>
+        <v>0.398147</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.57834</v>
+        <v>0.578286</v>
       </c>
       <c r="C86" t="n">
-        <v>0.373314</v>
+        <v>0.374301</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414683</v>
+        <v>0.414829</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.600615</v>
+        <v>0.60139</v>
       </c>
       <c r="C87" t="n">
-        <v>0.383052</v>
+        <v>0.38834</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426468</v>
+        <v>0.430585</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6212800000000001</v>
+        <v>0.622379</v>
       </c>
       <c r="C88" t="n">
-        <v>0.395345</v>
+        <v>0.402892</v>
       </c>
       <c r="D88" t="n">
-        <v>0.445332</v>
+        <v>0.44944</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644183</v>
+        <v>0.646207</v>
       </c>
       <c r="C89" t="n">
-        <v>0.40929</v>
+        <v>0.417646</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461897</v>
+        <v>0.467233</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.669587</v>
+        <v>0.671229</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425458</v>
+        <v>0.433199</v>
       </c>
       <c r="D90" t="n">
-        <v>0.479893</v>
+        <v>0.485825</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.674944</v>
+        <v>0.677561</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441384</v>
+        <v>0.451936</v>
       </c>
       <c r="D91" t="n">
-        <v>0.495019</v>
+        <v>0.50039</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686162</v>
+        <v>0.687707</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431575</v>
+        <v>0.448414</v>
       </c>
       <c r="D92" t="n">
-        <v>0.502997</v>
+        <v>0.508412</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693589</v>
+        <v>0.699227</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440251</v>
+        <v>0.456847</v>
       </c>
       <c r="D93" t="n">
-        <v>0.501887</v>
+        <v>0.520379</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.703997</v>
+        <v>0.708103</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462203</v>
+        <v>0.468023</v>
       </c>
       <c r="D94" t="n">
-        <v>0.527483</v>
+        <v>0.531701</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716058</v>
+        <v>0.720639</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470728</v>
+        <v>0.477982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540093</v>
+        <v>0.547961</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729427</v>
+        <v>0.733358</v>
       </c>
       <c r="C96" t="n">
-        <v>0.481036</v>
+        <v>0.487339</v>
       </c>
       <c r="D96" t="n">
-        <v>0.554226</v>
+        <v>0.558719</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.744281</v>
+        <v>0.74849</v>
       </c>
       <c r="C97" t="n">
-        <v>0.492515</v>
+        <v>0.497618</v>
       </c>
       <c r="D97" t="n">
-        <v>0.567681</v>
+        <v>0.572195</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.75874</v>
+        <v>0.763362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503319</v>
+        <v>0.509393</v>
       </c>
       <c r="D98" t="n">
-        <v>0.581223</v>
+        <v>0.584466</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774903</v>
+        <v>0.779603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.51455</v>
+        <v>0.521087</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593831</v>
+        <v>0.597285</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.792604</v>
+        <v>0.797198</v>
       </c>
       <c r="C100" t="n">
-        <v>0.526563</v>
+        <v>0.533673</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608029</v>
+        <v>0.612442</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.810535</v>
+        <v>0.8154709999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538766</v>
+        <v>0.546658</v>
       </c>
       <c r="D101" t="n">
-        <v>0.621202</v>
+        <v>0.62646</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828752</v>
+        <v>0.834931</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551955</v>
+        <v>0.560217</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637429</v>
+        <v>0.644072</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.849299</v>
+        <v>0.855399</v>
       </c>
       <c r="C103" t="n">
-        <v>0.564481</v>
+        <v>0.573499</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652585</v>
+        <v>0.6590200000000001</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.870131</v>
+        <v>0.876244</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578232</v>
+        <v>0.587854</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668357</v>
+        <v>0.674355</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.795134</v>
+        <v>0.79926</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591488</v>
+        <v>0.602653</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687415</v>
+        <v>0.69328</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7971549999999999</v>
+        <v>0.807603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.603243</v>
+        <v>0.617289</v>
       </c>
       <c r="D106" t="n">
-        <v>0.703917</v>
+        <v>0.712229</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.799851</v>
+        <v>0.813681</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540263</v>
+        <v>0.556453</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649833</v>
+        <v>0.652798</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819652</v>
+        <v>0.823036</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5616139999999999</v>
+        <v>0.565517</v>
       </c>
       <c r="D108" t="n">
-        <v>0.660765</v>
+        <v>0.663898</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.827807</v>
+        <v>0.833097</v>
       </c>
       <c r="C109" t="n">
-        <v>0.569794</v>
+        <v>0.574699</v>
       </c>
       <c r="D109" t="n">
-        <v>0.672152</v>
+        <v>0.674717</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839523</v>
+        <v>0.84326</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5793</v>
+        <v>0.584883</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6820929999999999</v>
+        <v>0.686304</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85201</v>
+        <v>0.85511</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589741</v>
+        <v>0.594923</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696655</v>
+        <v>0.698719</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.855582</v>
+        <v>0.8699170000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.590904</v>
+        <v>0.60551</v>
       </c>
       <c r="D112" t="n">
-        <v>0.69625</v>
+        <v>0.712001</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.869615</v>
+        <v>0.884423</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601925</v>
+        <v>0.617212</v>
       </c>
       <c r="D113" t="n">
-        <v>0.709094</v>
+        <v>0.724983</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.88491</v>
+        <v>0.899716</v>
       </c>
       <c r="C114" t="n">
-        <v>0.613654</v>
+        <v>0.629279</v>
       </c>
       <c r="D114" t="n">
-        <v>0.723736</v>
+        <v>0.739818</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.902529</v>
+        <v>0.917349</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625149</v>
+        <v>0.641648</v>
       </c>
       <c r="D115" t="n">
-        <v>0.748802</v>
+        <v>0.753583</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9293709999999999</v>
+        <v>0.935634</v>
       </c>
       <c r="C116" t="n">
-        <v>0.645804</v>
+        <v>0.654323</v>
       </c>
       <c r="D116" t="n">
-        <v>0.758592</v>
+        <v>0.767516</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.949164</v>
+        <v>0.9556750000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65862</v>
+        <v>0.667746</v>
       </c>
       <c r="D117" t="n">
-        <v>0.772647</v>
+        <v>0.781898</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9698830000000001</v>
+        <v>0.97693</v>
       </c>
       <c r="C118" t="n">
-        <v>0.671795</v>
+        <v>0.681158</v>
       </c>
       <c r="D118" t="n">
-        <v>0.792915</v>
+        <v>0.79863</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.854645</v>
+        <v>0.863519</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.6963279999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.806551</v>
+        <v>0.812688</v>
       </c>
     </row>
   </sheetData>
@@ -9372,10 +9372,10 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248018</v>
+        <v>0.248359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162421</v>
+        <v>0.164652</v>
       </c>
       <c r="D2" t="n">
         <v>0.154905</v>
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219096</v>
+        <v>0.218795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167786</v>
+        <v>0.168556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153631</v>
+        <v>0.153106</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224049</v>
+        <v>0.222681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171998</v>
+        <v>0.172766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159408</v>
+        <v>0.15855</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229816</v>
+        <v>0.228032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176669</v>
+        <v>0.177841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162974</v>
+        <v>0.161407</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229875</v>
+        <v>0.228637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183376</v>
+        <v>0.183869</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16715</v>
+        <v>0.165587</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233557</v>
+        <v>0.232586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167961</v>
+        <v>0.167319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163427</v>
+        <v>0.160288</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236092</v>
+        <v>0.234062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173654</v>
+        <v>0.172095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168085</v>
+        <v>0.163385</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237647</v>
+        <v>0.236402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176383</v>
+        <v>0.175094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166988</v>
+        <v>0.168436</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241167</v>
+        <v>0.2405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181431</v>
+        <v>0.179783</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169332</v>
+        <v>0.16761</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240459</v>
+        <v>0.241458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176903</v>
+        <v>0.178662</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169118</v>
+        <v>0.168338</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2539</v>
+        <v>0.252118</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187432</v>
+        <v>0.187008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174066</v>
+        <v>0.17399</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255904</v>
+        <v>0.255044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188121</v>
+        <v>0.184984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178872</v>
+        <v>0.174526</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256834</v>
+        <v>0.255741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.190464</v>
+        <v>0.187974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174702</v>
+        <v>0.176216</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265181</v>
+        <v>0.264229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.193461</v>
+        <v>0.191439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179791</v>
+        <v>0.18187</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270982</v>
+        <v>0.269976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.197494</v>
+        <v>0.195903</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180972</v>
+        <v>0.178779</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276558</v>
+        <v>0.275946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201247</v>
+        <v>0.201266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185254</v>
+        <v>0.182349</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254689</v>
+        <v>0.255774</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208755</v>
+        <v>0.208127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185453</v>
+        <v>0.189071</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259891</v>
+        <v>0.260096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211355</v>
+        <v>0.211095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189064</v>
+        <v>0.189502</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264119</v>
+        <v>0.264227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221146</v>
+        <v>0.219764</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192537</v>
+        <v>0.19407</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.271723</v>
+        <v>0.270967</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196333</v>
+        <v>0.199545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192114</v>
+        <v>0.189387</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273031</v>
+        <v>0.271751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208983</v>
+        <v>0.205786</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194586</v>
+        <v>0.190944</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277373</v>
+        <v>0.276422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211034</v>
+        <v>0.208414</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196212</v>
+        <v>0.192444</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281239</v>
+        <v>0.278923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216028</v>
+        <v>0.217347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200505</v>
+        <v>0.19749</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284118</v>
+        <v>0.283197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224366</v>
+        <v>0.225652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203712</v>
+        <v>0.201874</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293222</v>
+        <v>0.29208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22535</v>
+        <v>0.22629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207283</v>
+        <v>0.206689</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294568</v>
+        <v>0.293686</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236965</v>
+        <v>0.235609</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210209</v>
+        <v>0.208656</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297757</v>
+        <v>0.296506</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23895</v>
+        <v>0.237325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211153</v>
+        <v>0.209756</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306641</v>
+        <v>0.305347</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244206</v>
+        <v>0.242964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214461</v>
+        <v>0.212099</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31122</v>
+        <v>0.309854</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255332</v>
+        <v>0.253597</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22003</v>
+        <v>0.217211</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314836</v>
+        <v>0.313248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252036</v>
+        <v>0.251177</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221413</v>
+        <v>0.219273</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280852</v>
+        <v>0.281051</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262773</v>
+        <v>0.26102</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225236</v>
+        <v>0.222967</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286694</v>
+        <v>0.285876</v>
       </c>
       <c r="C33" t="n">
-        <v>0.270891</v>
+        <v>0.269827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229895</v>
+        <v>0.227738</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291665</v>
+        <v>0.291263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273446</v>
+        <v>0.273241</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232938</v>
+        <v>0.231749</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292944</v>
+        <v>0.292682</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216671</v>
+        <v>0.213773</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211233</v>
+        <v>0.210771</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297801</v>
+        <v>0.297225</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22193</v>
+        <v>0.221594</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211421</v>
+        <v>0.211917</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304079</v>
+        <v>0.303585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225019</v>
+        <v>0.226798</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213959</v>
+        <v>0.214095</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306733</v>
+        <v>0.306116</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228433</v>
+        <v>0.229568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216133</v>
+        <v>0.216115</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313528</v>
+        <v>0.312678</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234845</v>
+        <v>0.235403</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220051</v>
+        <v>0.219662</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321781</v>
+        <v>0.321319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.237721</v>
+        <v>0.238431</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221349</v>
+        <v>0.221247</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327678</v>
+        <v>0.327182</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241491</v>
+        <v>0.24138</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222761</v>
+        <v>0.223258</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331358</v>
+        <v>0.331195</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241131</v>
+        <v>0.24332</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22433</v>
+        <v>0.224889</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337637</v>
+        <v>0.337348</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245712</v>
+        <v>0.248268</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227288</v>
+        <v>0.227687</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340482</v>
+        <v>0.340083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251906</v>
+        <v>0.252386</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228547</v>
+        <v>0.229014</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34857</v>
+        <v>0.348691</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254345</v>
+        <v>0.255007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230473</v>
+        <v>0.23128</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349525</v>
+        <v>0.349227</v>
       </c>
       <c r="C46" t="n">
-        <v>0.254254</v>
+        <v>0.255691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232316</v>
+        <v>0.232979</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289335</v>
+        <v>0.289176</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260392</v>
+        <v>0.26119</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234668</v>
+        <v>0.234709</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294049</v>
+        <v>0.293006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265075</v>
+        <v>0.266934</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236144</v>
+        <v>0.235656</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297863</v>
+        <v>0.296694</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269063</v>
+        <v>0.270423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239114</v>
+        <v>0.238708</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301648</v>
+        <v>0.301434</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23935</v>
+        <v>0.241404</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22488</v>
+        <v>0.223495</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304755</v>
+        <v>0.304039</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241169</v>
+        <v>0.243962</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226103</v>
+        <v>0.225916</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307103</v>
+        <v>0.305948</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245395</v>
+        <v>0.246843</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227783</v>
+        <v>0.227414</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312826</v>
+        <v>0.31292</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249117</v>
+        <v>0.251007</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229958</v>
+        <v>0.228689</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320666</v>
+        <v>0.320655</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253542</v>
+        <v>0.255666</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232223</v>
+        <v>0.231186</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320416</v>
+        <v>0.320274</v>
       </c>
       <c r="C55" t="n">
-        <v>0.259638</v>
+        <v>0.261251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234726</v>
+        <v>0.234729</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325759</v>
+        <v>0.325201</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259047</v>
+        <v>0.260295</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234911</v>
+        <v>0.234733</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333127</v>
+        <v>0.333405</v>
       </c>
       <c r="C57" t="n">
-        <v>0.266272</v>
+        <v>0.26826</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237594</v>
+        <v>0.23724</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334708</v>
+        <v>0.334929</v>
       </c>
       <c r="C58" t="n">
-        <v>0.273938</v>
+        <v>0.275707</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240762</v>
+        <v>0.240276</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342363</v>
+        <v>0.342061</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279748</v>
+        <v>0.282099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244371</v>
+        <v>0.243654</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347691</v>
+        <v>0.347555</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283453</v>
+        <v>0.286054</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24787</v>
+        <v>0.248046</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305007</v>
+        <v>0.305026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.289296</v>
+        <v>0.291262</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248974</v>
+        <v>0.248242</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313207</v>
+        <v>0.312973</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293547</v>
+        <v>0.296059</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25067</v>
+        <v>0.250239</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318747</v>
+        <v>0.319481</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297895</v>
+        <v>0.300364</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254181</v>
+        <v>0.25414</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325893</v>
+        <v>0.324797</v>
       </c>
       <c r="C64" t="n">
-        <v>0.263988</v>
+        <v>0.265408</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242318</v>
+        <v>0.243132</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.333728</v>
+        <v>0.328834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268585</v>
+        <v>0.269495</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24165</v>
+        <v>0.241366</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341461</v>
+        <v>0.335313</v>
       </c>
       <c r="C66" t="n">
-        <v>0.270813</v>
+        <v>0.272454</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243199</v>
+        <v>0.242855</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347969</v>
+        <v>0.34487</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275658</v>
+        <v>0.279375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246654</v>
+        <v>0.246296</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.355193</v>
+        <v>0.349495</v>
       </c>
       <c r="C68" t="n">
-        <v>0.280668</v>
+        <v>0.283413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247958</v>
+        <v>0.248781</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360866</v>
+        <v>0.358462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285929</v>
+        <v>0.287445</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25058</v>
+        <v>0.252093</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368224</v>
+        <v>0.369493</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293047</v>
+        <v>0.295451</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254948</v>
+        <v>0.256353</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38078</v>
+        <v>0.380595</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300717</v>
+        <v>0.302825</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258158</v>
+        <v>0.258892</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.391092</v>
+        <v>0.388639</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308601</v>
+        <v>0.310501</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262908</v>
+        <v>0.262973</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406947</v>
+        <v>0.403018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318099</v>
+        <v>0.31849</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267319</v>
+        <v>0.268529</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.421595</v>
+        <v>0.411624</v>
       </c>
       <c r="C74" t="n">
-        <v>0.325479</v>
+        <v>0.324735</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26786</v>
+        <v>0.268841</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.439848</v>
+        <v>0.427085</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334607</v>
+        <v>0.331646</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272664</v>
+        <v>0.272079</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.434099</v>
+        <v>0.439929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.345029</v>
+        <v>0.344998</v>
       </c>
       <c r="D76" t="n">
-        <v>0.280624</v>
+        <v>0.281627</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445803</v>
+        <v>0.46279</v>
       </c>
       <c r="C77" t="n">
-        <v>0.362773</v>
+        <v>0.356879</v>
       </c>
       <c r="D77" t="n">
-        <v>0.286003</v>
+        <v>0.281563</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.46708</v>
+        <v>0.474125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310211</v>
+        <v>0.311063</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255804</v>
+        <v>0.275522</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.504812</v>
+        <v>0.514391</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322908</v>
+        <v>0.326167</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278608</v>
+        <v>0.279352</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.541618</v>
+        <v>0.538507</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333389</v>
+        <v>0.337792</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288341</v>
+        <v>0.28838</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565716</v>
+        <v>0.565866</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347722</v>
+        <v>0.357427</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293066</v>
+        <v>0.297828</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.578928</v>
+        <v>0.605139</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374293</v>
+        <v>0.370171</v>
       </c>
       <c r="D82" t="n">
-        <v>0.301857</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.601389</v>
+        <v>0.648993</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39136</v>
+        <v>0.397276</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305832</v>
+        <v>0.312227</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.654161</v>
+        <v>0.690044</v>
       </c>
       <c r="C84" t="n">
-        <v>0.410226</v>
+        <v>0.41835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319844</v>
+        <v>0.323049</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.689053</v>
+        <v>0.736873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.438232</v>
+        <v>0.453562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330477</v>
+        <v>0.340592</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.786152</v>
       </c>
       <c r="C86" t="n">
-        <v>0.457309</v>
+        <v>0.466617</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337445</v>
+        <v>0.357154</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7674879999999999</v>
+        <v>0.825657</v>
       </c>
       <c r="C87" t="n">
-        <v>0.483455</v>
+        <v>0.496769</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359789</v>
+        <v>0.36296</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.809257</v>
+        <v>0.874718</v>
       </c>
       <c r="C88" t="n">
-        <v>0.508887</v>
+        <v>0.526435</v>
       </c>
       <c r="D88" t="n">
-        <v>0.373823</v>
+        <v>0.383925</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.863976</v>
+        <v>0.931679</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537901</v>
+        <v>0.563254</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382625</v>
+        <v>0.395485</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859245</v>
+        <v>0.947695</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563653</v>
+        <v>0.597142</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39651</v>
+        <v>0.416229</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.896818</v>
+        <v>0.983693</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5956</v>
+        <v>0.635694</v>
       </c>
       <c r="D91" t="n">
-        <v>0.415548</v>
+        <v>0.43736</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931511</v>
+        <v>1.02238</v>
       </c>
       <c r="C92" t="n">
-        <v>0.612767</v>
+        <v>0.664623</v>
       </c>
       <c r="D92" t="n">
-        <v>0.491171</v>
+        <v>0.538475</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.960485</v>
+        <v>1.05985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.635818</v>
+        <v>0.691457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.524221</v>
+        <v>0.560573</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992487</v>
+        <v>1.09895</v>
       </c>
       <c r="C94" t="n">
-        <v>0.656758</v>
+        <v>0.723565</v>
       </c>
       <c r="D94" t="n">
-        <v>0.530818</v>
+        <v>0.579072</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03024</v>
+        <v>1.14092</v>
       </c>
       <c r="C95" t="n">
-        <v>0.687069</v>
+        <v>0.7525309999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552376</v>
+        <v>0.600808</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06479</v>
+        <v>1.17932</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712652</v>
+        <v>0.781128</v>
       </c>
       <c r="D96" t="n">
-        <v>0.565403</v>
+        <v>0.621382</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.09662</v>
+        <v>1.22182</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742743</v>
+        <v>0.8158879999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.645058</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12341</v>
+        <v>1.25729</v>
       </c>
       <c r="C98" t="n">
-        <v>0.754507</v>
+        <v>0.846994</v>
       </c>
       <c r="D98" t="n">
-        <v>0.612455</v>
+        <v>0.665404</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17103</v>
+        <v>1.29764</v>
       </c>
       <c r="C99" t="n">
-        <v>0.802463</v>
+        <v>0.884812</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610015</v>
+        <v>0.687513</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.188</v>
+        <v>1.34068</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816456</v>
+        <v>0.917547</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629578</v>
+        <v>0.712893</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22454</v>
+        <v>1.38062</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8416439999999999</v>
+        <v>0.946496</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656641</v>
+        <v>0.7368</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26881</v>
+        <v>1.42282</v>
       </c>
       <c r="C102" t="n">
-        <v>0.880179</v>
+        <v>0.987652</v>
       </c>
       <c r="D102" t="n">
-        <v>0.688757</v>
+        <v>0.76028</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.30665</v>
+        <v>1.46498</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905376</v>
+        <v>1.01758</v>
       </c>
       <c r="D103" t="n">
-        <v>0.69773</v>
+        <v>0.780128</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34479</v>
+        <v>1.50745</v>
       </c>
       <c r="C104" t="n">
-        <v>0.93509</v>
+        <v>1.05011</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721774</v>
+        <v>0.805789</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23861</v>
+        <v>1.38122</v>
       </c>
       <c r="C105" t="n">
-        <v>0.977423</v>
+        <v>1.08825</v>
       </c>
       <c r="D105" t="n">
-        <v>0.743013</v>
+        <v>0.824511</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.25069</v>
+        <v>1.4082</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01314</v>
+        <v>1.12504</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766008</v>
+        <v>0.853503</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28465</v>
+        <v>1.43276</v>
       </c>
       <c r="C107" t="n">
-        <v>0.897953</v>
+        <v>1.00832</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781379</v>
+        <v>0.863252</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29782</v>
+        <v>1.46276</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92095</v>
+        <v>1.03123</v>
       </c>
       <c r="D108" t="n">
-        <v>0.782342</v>
+        <v>0.87882</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33696</v>
+        <v>1.49149</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9532929999999999</v>
+        <v>1.06107</v>
       </c>
       <c r="D109" t="n">
-        <v>0.81225</v>
+        <v>0.900281</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35096</v>
+        <v>1.518</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9741</v>
+        <v>1.08418</v>
       </c>
       <c r="D110" t="n">
-        <v>0.818958</v>
+        <v>0.916534</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37954</v>
+        <v>1.5474</v>
       </c>
       <c r="C111" t="n">
-        <v>0.990827</v>
+        <v>1.10618</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8425859999999999</v>
+        <v>0.93523</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40818</v>
+        <v>1.58018</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01726</v>
+        <v>1.13825</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8600410000000001</v>
+        <v>0.952974</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44364</v>
+        <v>1.61544</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04349</v>
+        <v>1.16645</v>
       </c>
       <c r="D113" t="n">
-        <v>0.874423</v>
+        <v>0.968258</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47107</v>
+        <v>1.64485</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06683</v>
+        <v>1.19432</v>
       </c>
       <c r="D114" t="n">
-        <v>0.886831</v>
+        <v>0.9852300000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4978</v>
+        <v>1.6819</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09517</v>
+        <v>1.2253</v>
       </c>
       <c r="D115" t="n">
-        <v>0.899392</v>
+        <v>0.9987239999999999</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.52864</v>
+        <v>1.71628</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12091</v>
+        <v>1.25602</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917873</v>
+        <v>1.01794</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56149</v>
+        <v>1.75328</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14628</v>
+        <v>1.28491</v>
       </c>
       <c r="D117" t="n">
-        <v>0.93258</v>
+        <v>1.03778</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59374</v>
+        <v>1.79097</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18036</v>
+        <v>1.32426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.946489</v>
+        <v>1.05509</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42157</v>
+        <v>1.59348</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20999</v>
+        <v>1.35962</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961808</v>
+        <v>1.071</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392617</v>
+        <v>0.391224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288136</v>
+        <v>0.292122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219553</v>
+        <v>0.217774</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402565</v>
+        <v>0.400601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292309</v>
+        <v>0.295406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221555</v>
+        <v>0.219158</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41397</v>
+        <v>0.412308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.304566</v>
+        <v>0.310307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231164</v>
+        <v>0.228859</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419118</v>
+        <v>0.418777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317517</v>
+        <v>0.320093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236449</v>
+        <v>0.233736</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.438239</v>
+        <v>0.435373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318603</v>
+        <v>0.322223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239922</v>
+        <v>0.239697</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449914</v>
+        <v>0.449891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33679</v>
+        <v>0.341035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24899</v>
+        <v>0.24789</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463429</v>
+        <v>0.463716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353838</v>
+        <v>0.364602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258148</v>
+        <v>0.256794</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482712</v>
+        <v>0.479787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.367635</v>
+        <v>0.370749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267523</v>
+        <v>0.265571</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500995</v>
+        <v>0.492786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39063</v>
+        <v>0.389446</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276594</v>
+        <v>0.275329</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516101</v>
+        <v>0.511728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295447</v>
+        <v>0.294017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220861</v>
+        <v>0.220552</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.387791</v>
+        <v>0.382744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301897</v>
+        <v>0.30429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223855</v>
+        <v>0.223776</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398352</v>
+        <v>0.393997</v>
       </c>
       <c r="C13" t="n">
-        <v>0.311053</v>
+        <v>0.307345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231412</v>
+        <v>0.230976</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406831</v>
+        <v>0.40249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324512</v>
+        <v>0.322919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232854</v>
+        <v>0.231765</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428188</v>
+        <v>0.428639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341562</v>
+        <v>0.338055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239955</v>
+        <v>0.239349</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439253</v>
+        <v>0.435566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35163</v>
+        <v>0.353793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246857</v>
+        <v>0.247285</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448859</v>
+        <v>0.447542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.368823</v>
+        <v>0.365862</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254014</v>
+        <v>0.254367</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472671</v>
+        <v>0.470819</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37344</v>
+        <v>0.376786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25399</v>
+        <v>0.255878</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484237</v>
+        <v>0.484306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.394935</v>
+        <v>0.396993</v>
       </c>
       <c r="D19" t="n">
-        <v>0.263354</v>
+        <v>0.265989</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502566</v>
+        <v>0.504104</v>
       </c>
       <c r="C20" t="n">
-        <v>0.417065</v>
+        <v>0.418974</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27516</v>
+        <v>0.275171</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.520435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.435918</v>
+        <v>0.451437</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286185</v>
+        <v>0.288043</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54121</v>
+        <v>0.544134</v>
       </c>
       <c r="C22" t="n">
-        <v>0.459084</v>
+        <v>0.46931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296436</v>
+        <v>0.297281</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.557281</v>
+        <v>0.5572780000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.482694</v>
+        <v>0.489129</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31029</v>
+        <v>0.310461</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5920339999999999</v>
+        <v>0.593527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497221</v>
+        <v>0.505063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318839</v>
+        <v>0.320845</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626069</v>
+        <v>0.627667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.524579</v>
+        <v>0.532484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325606</v>
+        <v>0.328767</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.650546</v>
+        <v>0.65345</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331217</v>
+        <v>0.331601</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232466</v>
+        <v>0.23717</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.427563</v>
+        <v>0.43192</v>
       </c>
       <c r="C27" t="n">
-        <v>0.334713</v>
+        <v>0.337664</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235675</v>
+        <v>0.240069</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.443732</v>
+        <v>0.447271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.350193</v>
+        <v>0.358274</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241828</v>
+        <v>0.245725</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.457871</v>
+        <v>0.462515</v>
       </c>
       <c r="C29" t="n">
-        <v>0.35517</v>
+        <v>0.358713</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247361</v>
+        <v>0.253035</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.477554</v>
+        <v>0.481701</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376281</v>
+        <v>0.378749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260176</v>
+        <v>0.259984</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491214</v>
+        <v>0.498016</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392099</v>
+        <v>0.392953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261643</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508002</v>
+        <v>0.513812</v>
       </c>
       <c r="C32" t="n">
-        <v>0.406585</v>
+        <v>0.411539</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271047</v>
+        <v>0.275576</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538289</v>
+        <v>0.540771</v>
       </c>
       <c r="C33" t="n">
-        <v>0.424787</v>
+        <v>0.428074</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283933</v>
+        <v>0.28521</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.55353</v>
       </c>
       <c r="C34" t="n">
-        <v>0.441396</v>
+        <v>0.446</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29344</v>
+        <v>0.293003</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575841</v>
+        <v>0.577366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462174</v>
+        <v>0.469705</v>
       </c>
       <c r="D35" t="n">
-        <v>0.302176</v>
+        <v>0.301665</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.594508</v>
+        <v>0.597274</v>
       </c>
       <c r="C36" t="n">
-        <v>0.486229</v>
+        <v>0.491344</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312679</v>
+        <v>0.31614</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.610792</v>
+        <v>0.612753</v>
       </c>
       <c r="C37" t="n">
-        <v>0.508433</v>
+        <v>0.517926</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323101</v>
+        <v>0.32646</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.633571</v>
+        <v>0.637933</v>
       </c>
       <c r="C38" t="n">
-        <v>0.529369</v>
+        <v>0.538357</v>
       </c>
       <c r="D38" t="n">
-        <v>0.331524</v>
+        <v>0.335339</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669757</v>
+        <v>0.6715719999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.558449</v>
+        <v>0.567559</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344946</v>
+        <v>0.347173</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69224</v>
+        <v>0.692255</v>
       </c>
       <c r="C40" t="n">
-        <v>0.393403</v>
+        <v>0.39442</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281086</v>
+        <v>0.281861</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.502381</v>
+        <v>0.50234</v>
       </c>
       <c r="C41" t="n">
-        <v>0.403521</v>
+        <v>0.405011</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28812</v>
+        <v>0.288045</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.514496</v>
+        <v>0.514633</v>
       </c>
       <c r="C42" t="n">
-        <v>0.419624</v>
+        <v>0.423602</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293545</v>
+        <v>0.295842</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528163</v>
+        <v>0.527735</v>
       </c>
       <c r="C43" t="n">
-        <v>0.431852</v>
+        <v>0.434371</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301159</v>
+        <v>0.300662</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543838</v>
+        <v>0.5442630000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.453683</v>
+        <v>0.455951</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310036</v>
+        <v>0.312488</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5613089999999999</v>
+        <v>0.56066</v>
       </c>
       <c r="C45" t="n">
-        <v>0.466474</v>
+        <v>0.46907</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313233</v>
+        <v>0.318794</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573283</v>
+        <v>0.572917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.482798</v>
+        <v>0.487937</v>
       </c>
       <c r="D46" t="n">
-        <v>0.323051</v>
+        <v>0.322381</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.594743</v>
+        <v>0.595655</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500849</v>
+        <v>0.505599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332044</v>
+        <v>0.332559</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612368</v>
+        <v>0.6111490000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.514426</v>
+        <v>0.522002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342651</v>
+        <v>0.344126</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623384</v>
+        <v>0.62308</v>
       </c>
       <c r="C49" t="n">
-        <v>0.536426</v>
+        <v>0.5465410000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348608</v>
+        <v>0.351278</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6527500000000001</v>
+        <v>0.652756</v>
       </c>
       <c r="C50" t="n">
-        <v>0.554684</v>
+        <v>0.562765</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359401</v>
+        <v>0.362002</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6778</v>
+        <v>0.676513</v>
       </c>
       <c r="C51" t="n">
-        <v>0.578129</v>
+        <v>0.585889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371</v>
+        <v>0.372276</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.702911</v>
+        <v>0.700314</v>
       </c>
       <c r="C52" t="n">
-        <v>0.602587</v>
+        <v>0.609681</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381214</v>
+        <v>0.381892</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.728007</v>
+        <v>0.726471</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62741</v>
+        <v>0.637661</v>
       </c>
       <c r="D53" t="n">
-        <v>0.39374</v>
+        <v>0.392759</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753591</v>
+        <v>0.753067</v>
       </c>
       <c r="C54" t="n">
-        <v>0.442342</v>
+        <v>0.447119</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313603</v>
+        <v>0.31611</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.783583</v>
+        <v>0.781786</v>
       </c>
       <c r="C55" t="n">
-        <v>0.451111</v>
+        <v>0.455568</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319001</v>
+        <v>0.320489</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536489</v>
+        <v>0.536388</v>
       </c>
       <c r="C56" t="n">
-        <v>0.46734</v>
+        <v>0.472709</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325168</v>
+        <v>0.325385</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.550389</v>
       </c>
       <c r="C57" t="n">
-        <v>0.480289</v>
+        <v>0.485852</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332311</v>
+        <v>0.334155</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565968</v>
+        <v>0.565627</v>
       </c>
       <c r="C58" t="n">
-        <v>0.492961</v>
+        <v>0.497668</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336455</v>
+        <v>0.337085</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579589</v>
+        <v>0.580045</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.514456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346203</v>
+        <v>0.34822</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.588485</v>
+        <v>0.58801</v>
       </c>
       <c r="C60" t="n">
-        <v>0.523889</v>
+        <v>0.5293330000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351925</v>
+        <v>0.353717</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608424</v>
+        <v>0.608743</v>
       </c>
       <c r="C61" t="n">
-        <v>0.540921</v>
+        <v>0.547692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.358933</v>
+        <v>0.359839</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628551</v>
+        <v>0.628899</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556947</v>
+        <v>0.563597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366771</v>
+        <v>0.369051</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.645733</v>
+        <v>0.648435</v>
       </c>
       <c r="C63" t="n">
-        <v>0.577814</v>
+        <v>0.5846789999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375766</v>
+        <v>0.375065</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668044</v>
+        <v>0.668803</v>
       </c>
       <c r="C64" t="n">
-        <v>0.593401</v>
+        <v>0.6018829999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386074</v>
+        <v>0.387742</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697376</v>
+        <v>0.697256</v>
       </c>
       <c r="C65" t="n">
-        <v>0.620774</v>
+        <v>0.630587</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3966</v>
+        <v>0.399089</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.719967</v>
+        <v>0.7207480000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.638</v>
+        <v>0.647575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405613</v>
+        <v>0.407594</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.749875</v>
+        <v>0.75057</v>
       </c>
       <c r="C67" t="n">
-        <v>0.664632</v>
+        <v>0.675199</v>
       </c>
       <c r="D67" t="n">
-        <v>0.41892</v>
+        <v>0.421506</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.773991</v>
+        <v>0.770054</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43459</v>
+        <v>0.43794</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314393</v>
+        <v>0.314607</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.817962</v>
+        <v>0.814289</v>
       </c>
       <c r="C69" t="n">
-        <v>0.449966</v>
+        <v>0.45697</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32056</v>
+        <v>0.323547</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554824</v>
+        <v>0.555917</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47005</v>
+        <v>0.476252</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32918</v>
+        <v>0.331662</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574499</v>
+        <v>0.577908</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489925</v>
+        <v>0.496706</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336482</v>
+        <v>0.338031</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.602234</v>
+        <v>0.606816</v>
       </c>
       <c r="C72" t="n">
-        <v>0.511423</v>
+        <v>0.518001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345091</v>
+        <v>0.346006</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.626786</v>
+        <v>0.6343490000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.535658</v>
+        <v>0.5438229999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355652</v>
+        <v>0.357627</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.649002</v>
+        <v>0.658444</v>
       </c>
       <c r="C74" t="n">
-        <v>0.555127</v>
+        <v>0.5649650000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365436</v>
+        <v>0.368907</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679776</v>
+        <v>0.689052</v>
       </c>
       <c r="C75" t="n">
-        <v>0.585687</v>
+        <v>0.595641</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374355</v>
+        <v>0.375481</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.713116</v>
+        <v>0.724548</v>
       </c>
       <c r="C76" t="n">
-        <v>0.615446</v>
+        <v>0.626887</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38484</v>
+        <v>0.38657</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.754342</v>
+        <v>0.763471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.651289</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398871</v>
+        <v>0.400505</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7966800000000001</v>
+        <v>0.808188</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6872740000000001</v>
+        <v>0.697674</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409168</v>
+        <v>0.414599</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.84772</v>
+        <v>0.856096</v>
       </c>
       <c r="C79" t="n">
-        <v>0.730087</v>
+        <v>0.736402</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423932</v>
+        <v>0.430282</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.912072</v>
+        <v>0.914326</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786208</v>
+        <v>0.790175</v>
       </c>
       <c r="D80" t="n">
-        <v>0.439589</v>
+        <v>0.444864</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.985114</v>
+        <v>0.996386</v>
       </c>
       <c r="C81" t="n">
-        <v>0.846881</v>
+        <v>0.854351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46052</v>
+        <v>0.466788</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05932</v>
+        <v>1.08133</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91427</v>
+        <v>0.9260969999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.472142</v>
+        <v>0.476748</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14588</v>
+        <v>1.16728</v>
       </c>
       <c r="C83" t="n">
-        <v>0.662707</v>
+        <v>0.654379</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386917</v>
+        <v>0.391022</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25606</v>
+        <v>1.29206</v>
       </c>
       <c r="C84" t="n">
-        <v>0.703735</v>
+        <v>0.707253</v>
       </c>
       <c r="D84" t="n">
-        <v>0.400972</v>
+        <v>0.402376</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.876383</v>
+        <v>0.9171899999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7604610000000001</v>
+        <v>0.764159</v>
       </c>
       <c r="D85" t="n">
-        <v>0.414539</v>
+        <v>0.423097</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.941292</v>
+        <v>0.996797</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8280690000000001</v>
+        <v>0.8489910000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432832</v>
+        <v>0.444416</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00811</v>
+        <v>1.07047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.89131</v>
+        <v>0.930296</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453206</v>
+        <v>0.471131</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10259</v>
+        <v>1.17857</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9942220000000001</v>
+        <v>1.03769</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4845</v>
+        <v>0.494535</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19372</v>
+        <v>1.27271</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08125</v>
+        <v>1.14117</v>
       </c>
       <c r="D89" t="n">
-        <v>0.513093</v>
+        <v>0.525989</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29419</v>
+        <v>1.38695</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18121</v>
+        <v>1.25304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.547207</v>
+        <v>0.56302</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41407</v>
+        <v>1.51942</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29204</v>
+        <v>1.3794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58209</v>
+        <v>0.599448</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52037</v>
+        <v>1.65478</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40523</v>
+        <v>1.51432</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63489</v>
+        <v>0.652922</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.64519</v>
+        <v>1.78995</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53317</v>
+        <v>1.65434</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673814</v>
+        <v>0.700182</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78536</v>
+        <v>1.94657</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66805</v>
+        <v>1.80456</v>
       </c>
       <c r="D94" t="n">
-        <v>0.721547</v>
+        <v>0.75487</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.92683</v>
+        <v>2.104</v>
       </c>
       <c r="C95" t="n">
-        <v>1.80786</v>
+        <v>1.96614</v>
       </c>
       <c r="D95" t="n">
-        <v>0.768566</v>
+        <v>0.816173</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08516</v>
+        <v>2.29023</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97317</v>
+        <v>2.16401</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834459</v>
+        <v>0.883415</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25035</v>
+        <v>2.48062</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20937</v>
+        <v>1.32319</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6310519999999999</v>
+        <v>0.670633</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41116</v>
+        <v>2.66246</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29006</v>
+        <v>1.41382</v>
       </c>
       <c r="D98" t="n">
-        <v>0.669441</v>
+        <v>0.718543</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6732</v>
+        <v>1.8494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37435</v>
+        <v>1.50886</v>
       </c>
       <c r="D99" t="n">
-        <v>0.70909</v>
+        <v>0.76524</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76396</v>
+        <v>1.95238</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46829</v>
+        <v>1.61378</v>
       </c>
       <c r="D100" t="n">
-        <v>0.744764</v>
+        <v>0.801234</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8569</v>
+        <v>2.06181</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56602</v>
+        <v>1.72153</v>
       </c>
       <c r="D101" t="n">
-        <v>0.791655</v>
+        <v>0.85882</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.9617</v>
+        <v>2.17709</v>
       </c>
       <c r="C102" t="n">
-        <v>1.66325</v>
+        <v>1.83153</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834013</v>
+        <v>0.90167</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.05637</v>
+        <v>2.28771</v>
       </c>
       <c r="C103" t="n">
-        <v>1.77265</v>
+        <v>1.95526</v>
       </c>
       <c r="D103" t="n">
-        <v>0.874749</v>
+        <v>0.951999</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.17142</v>
+        <v>2.41852</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8857</v>
+        <v>2.08304</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9277840000000001</v>
+        <v>1.01044</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27277</v>
+        <v>2.53764</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00786</v>
+        <v>2.21914</v>
       </c>
       <c r="D105" t="n">
-        <v>0.984304</v>
+        <v>1.08359</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40071</v>
+        <v>2.6751</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12744</v>
+        <v>2.35545</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02476</v>
+        <v>1.12368</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.51814</v>
+        <v>2.81199</v>
       </c>
       <c r="C107" t="n">
-        <v>2.25309</v>
+        <v>2.48836</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08476</v>
+        <v>1.1907</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.65459</v>
+        <v>2.95068</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4014</v>
+        <v>2.64745</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13761</v>
+        <v>1.26051</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.79241</v>
+        <v>3.09085</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56024</v>
+        <v>2.78503</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20087</v>
+        <v>1.32099</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.93382</v>
+        <v>3.23939</v>
       </c>
       <c r="C110" t="n">
-        <v>2.70097</v>
+        <v>2.9644</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26336</v>
+        <v>1.39455</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1066</v>
+        <v>3.41061</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70844</v>
+        <v>1.89377</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00657</v>
+        <v>1.11162</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28319</v>
+        <v>3.60139</v>
       </c>
       <c r="C112" t="n">
-        <v>1.7983</v>
+        <v>1.9846</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05068</v>
+        <v>1.15782</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.42882</v>
+        <v>3.78866</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89153</v>
+        <v>2.08295</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07466</v>
+        <v>1.18582</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.29997</v>
+        <v>2.56899</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97265</v>
+        <v>2.17595</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10817</v>
+        <v>1.23044</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.39111</v>
+        <v>2.65122</v>
       </c>
       <c r="C115" t="n">
-        <v>2.06643</v>
+        <v>2.26876</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16437</v>
+        <v>1.29471</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.49428</v>
+        <v>2.74719</v>
       </c>
       <c r="C116" t="n">
-        <v>2.16674</v>
+        <v>2.37288</v>
       </c>
       <c r="D116" t="n">
-        <v>1.19176</v>
+        <v>1.32374</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60229</v>
+        <v>2.85532</v>
       </c>
       <c r="C117" t="n">
-        <v>2.27325</v>
+        <v>2.48737</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24645</v>
+        <v>1.38521</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.7002</v>
+        <v>2.9612</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40331</v>
+        <v>2.61544</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28918</v>
+        <v>1.42813</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.80071</v>
+        <v>3.07751</v>
       </c>
       <c r="C119" t="n">
-        <v>2.50483</v>
+        <v>2.74248</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34098</v>
+        <v>1.48873</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2454</v>
+        <v>0.242483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184775</v>
+        <v>0.239792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195857</v>
+        <v>0.19461</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198865</v>
+        <v>0.191268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186461</v>
+        <v>0.243913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197311</v>
+        <v>0.196864</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202595</v>
+        <v>0.197711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190862</v>
+        <v>0.249355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203612</v>
+        <v>0.202937</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208718</v>
+        <v>0.204483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196658</v>
+        <v>0.258514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.209752</v>
+        <v>0.209298</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212847</v>
+        <v>0.21002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200258</v>
+        <v>0.262638</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215615</v>
+        <v>0.214516</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220518</v>
+        <v>0.214327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16787</v>
+        <v>0.218431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18406</v>
+        <v>0.180856</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.224123</v>
+        <v>0.220417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170318</v>
+        <v>0.224719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187614</v>
+        <v>0.18674</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.230477</v>
+        <v>0.22819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17439</v>
+        <v>0.229258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192102</v>
+        <v>0.189955</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234826</v>
+        <v>0.233244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17781</v>
+        <v>0.233612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194831</v>
+        <v>0.193843</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238196</v>
+        <v>0.237987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181535</v>
+        <v>0.239214</v>
       </c>
       <c r="D11" t="n">
-        <v>0.197947</v>
+        <v>0.198981</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246635</v>
+        <v>0.246156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187926</v>
+        <v>0.245749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203716</v>
+        <v>0.203889</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251954</v>
+        <v>0.251029</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190768</v>
+        <v>0.250195</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208157</v>
+        <v>0.207984</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257934</v>
+        <v>0.256439</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194873</v>
+        <v>0.255592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212358</v>
+        <v>0.21221</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26528</v>
+        <v>0.26422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199958</v>
+        <v>0.262442</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218848</v>
+        <v>0.21814</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.268988</v>
+        <v>0.268808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.203587</v>
+        <v>0.267862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221505</v>
+        <v>0.221749</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276076</v>
+        <v>0.275684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209332</v>
+        <v>0.274656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227423</v>
+        <v>0.22709</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230691</v>
+        <v>0.22991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211719</v>
+        <v>0.279972</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23088</v>
+        <v>0.230416</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235009</v>
+        <v>0.234266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216758</v>
+        <v>0.283694</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235955</v>
+        <v>0.234843</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239569</v>
+        <v>0.238582</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219587</v>
+        <v>0.289248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24087</v>
+        <v>0.240206</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243934</v>
+        <v>0.243026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18492</v>
+        <v>0.245456</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204898</v>
+        <v>0.204464</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248652</v>
+        <v>0.247549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18865</v>
+        <v>0.250392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208931</v>
+        <v>0.208684</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252957</v>
+        <v>0.251822</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192142</v>
+        <v>0.25433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212916</v>
+        <v>0.21081</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257603</v>
+        <v>0.256708</v>
       </c>
       <c r="C24" t="n">
-        <v>0.195166</v>
+        <v>0.258055</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216445</v>
+        <v>0.216068</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262529</v>
+        <v>0.261658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198534</v>
+        <v>0.262981</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219974</v>
+        <v>0.219893</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268806</v>
+        <v>0.268074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.202468</v>
+        <v>0.268297</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224486</v>
+        <v>0.224553</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273496</v>
+        <v>0.272207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.206552</v>
+        <v>0.272855</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227886</v>
+        <v>0.227874</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279069</v>
+        <v>0.2776</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211784</v>
+        <v>0.278731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232811</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283883</v>
+        <v>0.282486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216571</v>
+        <v>0.284493</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238032</v>
+        <v>0.237983</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289618</v>
+        <v>0.288741</v>
       </c>
       <c r="C30" t="n">
-        <v>0.220854</v>
+        <v>0.290054</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241994</v>
+        <v>0.241977</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294973</v>
+        <v>0.293673</v>
       </c>
       <c r="C31" t="n">
-        <v>0.22513</v>
+        <v>0.295383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.24619</v>
+        <v>0.246219</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242825</v>
+        <v>0.242041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228584</v>
+        <v>0.300169</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250135</v>
+        <v>0.249902</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246302</v>
+        <v>0.245602</v>
       </c>
       <c r="C33" t="n">
-        <v>0.233552</v>
+        <v>0.306581</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255267</v>
+        <v>0.255747</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249078</v>
+        <v>0.248722</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237065</v>
+        <v>0.311781</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258935</v>
+        <v>0.259168</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253108</v>
+        <v>0.252326</v>
       </c>
       <c r="C35" t="n">
-        <v>0.193147</v>
+        <v>0.256327</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211334</v>
+        <v>0.210761</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257089</v>
+        <v>0.25638</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195717</v>
+        <v>0.259688</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214379</v>
+        <v>0.213834</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.261064</v>
+        <v>0.260382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198581</v>
+        <v>0.263976</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217685</v>
+        <v>0.217216</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265407</v>
+        <v>0.2645</v>
       </c>
       <c r="C38" t="n">
-        <v>0.202023</v>
+        <v>0.268788</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221949</v>
+        <v>0.221331</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.269799</v>
+        <v>0.268885</v>
       </c>
       <c r="C39" t="n">
-        <v>0.205774</v>
+        <v>0.272975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226121</v>
+        <v>0.225254</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.275092</v>
+        <v>0.273577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209765</v>
+        <v>0.27813</v>
       </c>
       <c r="D40" t="n">
-        <v>0.230108</v>
+        <v>0.229546</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27973</v>
+        <v>0.278708</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21381</v>
+        <v>0.282893</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233896</v>
+        <v>0.233671</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284716</v>
+        <v>0.283435</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217636</v>
+        <v>0.287657</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237806</v>
+        <v>0.237386</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289899</v>
+        <v>0.288413</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221945</v>
+        <v>0.292817</v>
       </c>
       <c r="D43" t="n">
-        <v>0.242043</v>
+        <v>0.241678</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295081</v>
+        <v>0.293546</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226339</v>
+        <v>0.298269</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246721</v>
+        <v>0.246535</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300288</v>
+        <v>0.29854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.230844</v>
+        <v>0.303641</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250801</v>
+        <v>0.250327</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304862</v>
+        <v>0.303239</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234701</v>
+        <v>0.308731</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254805</v>
+        <v>0.254825</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250573</v>
+        <v>0.249948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238925</v>
+        <v>0.315027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.259</v>
+        <v>0.259271</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253504</v>
+        <v>0.25316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.242736</v>
+        <v>0.320235</v>
       </c>
       <c r="D48" t="n">
-        <v>0.263072</v>
+        <v>0.262995</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25715</v>
+        <v>0.256706</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2466</v>
+        <v>0.325021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.267425</v>
+        <v>0.267151</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260806</v>
+        <v>0.26026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199995</v>
+        <v>0.265818</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216428</v>
+        <v>0.216358</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264783</v>
+        <v>0.263952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.202809</v>
+        <v>0.269244</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219549</v>
+        <v>0.218774</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268991</v>
+        <v>0.26833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205583</v>
+        <v>0.273325</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223193</v>
+        <v>0.223525</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273504</v>
+        <v>0.272807</v>
       </c>
       <c r="C53" t="n">
-        <v>0.209215</v>
+        <v>0.277787</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227005</v>
+        <v>0.227008</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278447</v>
+        <v>0.277725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212761</v>
+        <v>0.282294</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230544</v>
+        <v>0.230774</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283441</v>
+        <v>0.282402</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216443</v>
+        <v>0.286735</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234512</v>
+        <v>0.233732</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288661</v>
+        <v>0.28758</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220589</v>
+        <v>0.291766</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23869</v>
+        <v>0.238769</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29442</v>
+        <v>0.292823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224829</v>
+        <v>0.296914</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243075</v>
+        <v>0.242995</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299079</v>
+        <v>0.297435</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22901</v>
+        <v>0.302212</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247287</v>
+        <v>0.247277</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304032</v>
+        <v>0.302111</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23353</v>
+        <v>0.308123</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251502</v>
+        <v>0.251501</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309574</v>
+        <v>0.307982</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238142</v>
+        <v>0.314277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256185</v>
+        <v>0.255989</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257766</v>
+        <v>0.257732</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242183</v>
+        <v>0.319993</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260008</v>
+        <v>0.260253</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26269</v>
+        <v>0.256903</v>
       </c>
       <c r="C62" t="n">
-        <v>0.245966</v>
+        <v>0.325433</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264467</v>
+        <v>0.26492</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268626</v>
+        <v>0.267292</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250298</v>
+        <v>0.33053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268902</v>
+        <v>0.268892</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.275754</v>
+        <v>0.274425</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206844</v>
+        <v>0.273795</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225584</v>
+        <v>0.224193</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279514</v>
+        <v>0.274455</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21146</v>
+        <v>0.27797</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229092</v>
+        <v>0.227721</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.282773</v>
+        <v>0.283317</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215226</v>
+        <v>0.284914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234088</v>
+        <v>0.232917</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.292879</v>
+        <v>0.289688</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219472</v>
+        <v>0.289452</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23926</v>
+        <v>0.238425</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297984</v>
+        <v>0.296994</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22546</v>
+        <v>0.296121</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244543</v>
+        <v>0.243976</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307482</v>
+        <v>0.30221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229924</v>
+        <v>0.301941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249975</v>
+        <v>0.251102</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.320345</v>
+        <v>0.320681</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236886</v>
+        <v>0.312697</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255695</v>
+        <v>0.257264</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329638</v>
+        <v>0.331926</v>
       </c>
       <c r="C71" t="n">
-        <v>0.243568</v>
+        <v>0.321301</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261691</v>
+        <v>0.264154</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343245</v>
+        <v>0.346352</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250085</v>
+        <v>0.329046</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269645</v>
+        <v>0.273107</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353522</v>
+        <v>0.358389</v>
       </c>
       <c r="C73" t="n">
-        <v>0.256656</v>
+        <v>0.335882</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276754</v>
+        <v>0.278039</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365732</v>
+        <v>0.366679</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265068</v>
+        <v>0.346311</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284743</v>
+        <v>0.284067</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.379853</v>
+        <v>0.37982</v>
       </c>
       <c r="C75" t="n">
-        <v>0.271728</v>
+        <v>0.356442</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2918</v>
+        <v>0.293258</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.399492</v>
+        <v>0.413234</v>
       </c>
       <c r="C76" t="n">
-        <v>0.278944</v>
+        <v>0.368707</v>
       </c>
       <c r="D76" t="n">
-        <v>0.300008</v>
+        <v>0.30169</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.413355</v>
+        <v>0.420061</v>
       </c>
       <c r="C77" t="n">
-        <v>0.288027</v>
+        <v>0.382531</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308244</v>
+        <v>0.312124</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.430578</v>
+        <v>0.42639</v>
       </c>
       <c r="C78" t="n">
-        <v>0.281413</v>
+        <v>0.360256</v>
       </c>
       <c r="D78" t="n">
-        <v>0.306916</v>
+        <v>0.30591</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.446875</v>
+        <v>0.44222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285445</v>
+        <v>0.369816</v>
       </c>
       <c r="D79" t="n">
-        <v>0.313982</v>
+        <v>0.312418</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.457574</v>
+        <v>0.459196</v>
       </c>
       <c r="C80" t="n">
-        <v>0.297334</v>
+        <v>0.382906</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325344</v>
+        <v>0.326636</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.478017</v>
+        <v>0.476282</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30619</v>
+        <v>0.398571</v>
       </c>
       <c r="D81" t="n">
-        <v>0.339839</v>
+        <v>0.339535</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.494694</v>
+        <v>0.49552</v>
       </c>
       <c r="C82" t="n">
-        <v>0.323555</v>
+        <v>0.417075</v>
       </c>
       <c r="D82" t="n">
-        <v>0.352074</v>
+        <v>0.355054</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.515918</v>
+        <v>0.514361</v>
       </c>
       <c r="C83" t="n">
-        <v>0.334057</v>
+        <v>0.431302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36583</v>
+        <v>0.369074</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.535359</v>
+        <v>0.5339699999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.346107</v>
+        <v>0.452547</v>
       </c>
       <c r="D84" t="n">
-        <v>0.382621</v>
+        <v>0.384602</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5563399999999999</v>
+        <v>0.556437</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362013</v>
+        <v>0.472704</v>
       </c>
       <c r="D85" t="n">
-        <v>0.398147</v>
+        <v>0.402888</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.578286</v>
+        <v>0.576597</v>
       </c>
       <c r="C86" t="n">
-        <v>0.374301</v>
+        <v>0.49327</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414829</v>
+        <v>0.418884</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.60139</v>
+        <v>0.600955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.38834</v>
+        <v>0.510203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.430585</v>
+        <v>0.433187</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.622379</v>
+        <v>0.6222490000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.402892</v>
+        <v>0.532844</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44944</v>
+        <v>0.452493</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.646207</v>
+        <v>0.645414</v>
       </c>
       <c r="C89" t="n">
-        <v>0.417646</v>
+        <v>0.555245</v>
       </c>
       <c r="D89" t="n">
-        <v>0.467233</v>
+        <v>0.469917</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.671229</v>
+        <v>0.671277</v>
       </c>
       <c r="C90" t="n">
-        <v>0.433199</v>
+        <v>0.573056</v>
       </c>
       <c r="D90" t="n">
-        <v>0.485825</v>
+        <v>0.489495</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.677561</v>
+        <v>0.674745</v>
       </c>
       <c r="C91" t="n">
-        <v>0.451936</v>
+        <v>0.599287</v>
       </c>
       <c r="D91" t="n">
-        <v>0.50039</v>
+        <v>0.499166</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.687707</v>
+        <v>0.684867</v>
       </c>
       <c r="C92" t="n">
-        <v>0.448414</v>
+        <v>0.599038</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508412</v>
+        <v>0.506736</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.699227</v>
+        <v>0.693883</v>
       </c>
       <c r="C93" t="n">
-        <v>0.456847</v>
+        <v>0.612969</v>
       </c>
       <c r="D93" t="n">
-        <v>0.520379</v>
+        <v>0.519599</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.708103</v>
+        <v>0.704836</v>
       </c>
       <c r="C94" t="n">
-        <v>0.468023</v>
+        <v>0.6267740000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.531701</v>
+        <v>0.528613</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.720639</v>
+        <v>0.716572</v>
       </c>
       <c r="C95" t="n">
-        <v>0.477982</v>
+        <v>0.640391</v>
       </c>
       <c r="D95" t="n">
-        <v>0.547961</v>
+        <v>0.54279</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.733358</v>
+        <v>0.728653</v>
       </c>
       <c r="C96" t="n">
-        <v>0.487339</v>
+        <v>0.653301</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558719</v>
+        <v>0.558127</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.74849</v>
+        <v>0.743373</v>
       </c>
       <c r="C97" t="n">
-        <v>0.497618</v>
+        <v>0.671009</v>
       </c>
       <c r="D97" t="n">
-        <v>0.572195</v>
+        <v>0.569084</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.763362</v>
+        <v>0.758057</v>
       </c>
       <c r="C98" t="n">
-        <v>0.509393</v>
+        <v>0.686703</v>
       </c>
       <c r="D98" t="n">
-        <v>0.584466</v>
+        <v>0.583577</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.779603</v>
+        <v>0.773899</v>
       </c>
       <c r="C99" t="n">
-        <v>0.521087</v>
+        <v>0.7038</v>
       </c>
       <c r="D99" t="n">
-        <v>0.597285</v>
+        <v>0.596505</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.797198</v>
+        <v>0.7914099999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.533673</v>
+        <v>0.721801</v>
       </c>
       <c r="D100" t="n">
-        <v>0.612442</v>
+        <v>0.609876</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8154709999999999</v>
+        <v>0.80898</v>
       </c>
       <c r="C101" t="n">
-        <v>0.546658</v>
+        <v>0.740287</v>
       </c>
       <c r="D101" t="n">
-        <v>0.62646</v>
+        <v>0.623942</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.834931</v>
+        <v>0.82786</v>
       </c>
       <c r="C102" t="n">
-        <v>0.560217</v>
+        <v>0.7615690000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.644072</v>
+        <v>0.639957</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.855399</v>
+        <v>0.847658</v>
       </c>
       <c r="C103" t="n">
-        <v>0.573499</v>
+        <v>0.782631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6590200000000001</v>
+        <v>0.655284</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.876244</v>
+        <v>0.868498</v>
       </c>
       <c r="C104" t="n">
-        <v>0.587854</v>
+        <v>0.8055870000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.674355</v>
+        <v>0.670683</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.79926</v>
+        <v>0.7942709999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.602653</v>
+        <v>0.828151</v>
       </c>
       <c r="D105" t="n">
-        <v>0.69328</v>
+        <v>0.691198</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.807603</v>
+        <v>0.801204</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617289</v>
+        <v>0.851034</v>
       </c>
       <c r="D106" t="n">
-        <v>0.712229</v>
+        <v>0.708885</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.813681</v>
+        <v>0.809335</v>
       </c>
       <c r="C107" t="n">
-        <v>0.556453</v>
+        <v>0.782991</v>
       </c>
       <c r="D107" t="n">
-        <v>0.652798</v>
+        <v>0.650627</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.823036</v>
+        <v>0.818546</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565517</v>
+        <v>0.795656</v>
       </c>
       <c r="D108" t="n">
-        <v>0.663898</v>
+        <v>0.661516</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.833097</v>
+        <v>0.827234</v>
       </c>
       <c r="C109" t="n">
-        <v>0.574699</v>
+        <v>0.806893</v>
       </c>
       <c r="D109" t="n">
-        <v>0.674717</v>
+        <v>0.67236</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.84326</v>
+        <v>0.839066</v>
       </c>
       <c r="C110" t="n">
-        <v>0.584883</v>
+        <v>0.819708</v>
       </c>
       <c r="D110" t="n">
-        <v>0.686304</v>
+        <v>0.6852470000000001</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85511</v>
+        <v>0.849465</v>
       </c>
       <c r="C111" t="n">
-        <v>0.594923</v>
+        <v>0.833967</v>
       </c>
       <c r="D111" t="n">
-        <v>0.698719</v>
+        <v>0.696736</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8699170000000001</v>
+        <v>0.863297</v>
       </c>
       <c r="C112" t="n">
-        <v>0.60551</v>
+        <v>0.848723</v>
       </c>
       <c r="D112" t="n">
-        <v>0.712001</v>
+        <v>0.7099800000000001</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.884423</v>
+        <v>0.877649</v>
       </c>
       <c r="C113" t="n">
-        <v>0.617212</v>
+        <v>0.863442</v>
       </c>
       <c r="D113" t="n">
-        <v>0.724983</v>
+        <v>0.722884</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.899716</v>
+        <v>0.89323</v>
       </c>
       <c r="C114" t="n">
-        <v>0.629279</v>
+        <v>0.879844</v>
       </c>
       <c r="D114" t="n">
-        <v>0.739818</v>
+        <v>0.737618</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.917349</v>
+        <v>0.910211</v>
       </c>
       <c r="C115" t="n">
-        <v>0.641648</v>
+        <v>0.895757</v>
       </c>
       <c r="D115" t="n">
-        <v>0.753583</v>
+        <v>0.7522450000000001</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.935634</v>
+        <v>0.929412</v>
       </c>
       <c r="C116" t="n">
-        <v>0.654323</v>
+        <v>0.915565</v>
       </c>
       <c r="D116" t="n">
-        <v>0.767516</v>
+        <v>0.764356</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9556750000000001</v>
+        <v>0.948867</v>
       </c>
       <c r="C117" t="n">
-        <v>0.667746</v>
+        <v>0.935606</v>
       </c>
       <c r="D117" t="n">
-        <v>0.781898</v>
+        <v>0.77873</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.97693</v>
+        <v>0.969824</v>
       </c>
       <c r="C118" t="n">
-        <v>0.681158</v>
+        <v>0.955502</v>
       </c>
       <c r="D118" t="n">
-        <v>0.79863</v>
+        <v>0.795654</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.863519</v>
+        <v>0.8606819999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6963279999999999</v>
+        <v>0.977141</v>
       </c>
       <c r="D119" t="n">
-        <v>0.812688</v>
+        <v>0.810114</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248359</v>
+        <v>0.249914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164652</v>
+        <v>0.20772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154905</v>
+        <v>0.155135</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218795</v>
+        <v>0.22062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168556</v>
+        <v>0.211689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153106</v>
+        <v>0.153838</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222681</v>
+        <v>0.224715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.172766</v>
+        <v>0.215306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15855</v>
+        <v>0.159547</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228032</v>
+        <v>0.230207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.177841</v>
+        <v>0.222402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161407</v>
+        <v>0.16231</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228637</v>
+        <v>0.231943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183869</v>
+        <v>0.228244</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165587</v>
+        <v>0.166807</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232586</v>
+        <v>0.235799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167319</v>
+        <v>0.211288</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160288</v>
+        <v>0.163681</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234062</v>
+        <v>0.237331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172095</v>
+        <v>0.213366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163385</v>
+        <v>0.165322</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236402</v>
+        <v>0.238196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.175094</v>
+        <v>0.21833</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168436</v>
+        <v>0.169877</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2405</v>
+        <v>0.242655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179783</v>
+        <v>0.223551</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16761</v>
+        <v>0.168496</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241458</v>
+        <v>0.243072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.178662</v>
+        <v>0.218682</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168338</v>
+        <v>0.172572</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252118</v>
+        <v>0.256543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187008</v>
+        <v>0.232787</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17399</v>
+        <v>0.17727</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255044</v>
+        <v>0.257111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184984</v>
+        <v>0.229954</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174526</v>
+        <v>0.178863</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.255741</v>
+        <v>0.25782</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187974</v>
+        <v>0.233144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.176216</v>
+        <v>0.177952</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264229</v>
+        <v>0.265659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.191439</v>
+        <v>0.237487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.18187</v>
+        <v>0.182477</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269976</v>
+        <v>0.272167</v>
       </c>
       <c r="C16" t="n">
-        <v>0.195903</v>
+        <v>0.243806</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178779</v>
+        <v>0.185759</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275946</v>
+        <v>0.278191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201266</v>
+        <v>0.247903</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182349</v>
+        <v>0.185779</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255774</v>
+        <v>0.255246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208127</v>
+        <v>0.252222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.189071</v>
+        <v>0.18889</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260096</v>
+        <v>0.261683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211095</v>
+        <v>0.259034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189502</v>
+        <v>0.192781</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264227</v>
+        <v>0.265569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219764</v>
+        <v>0.266957</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19407</v>
+        <v>0.194864</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.270967</v>
+        <v>0.272011</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199545</v>
+        <v>0.246214</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189387</v>
+        <v>0.192669</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.271751</v>
+        <v>0.274392</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205786</v>
+        <v>0.25278</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190944</v>
+        <v>0.195252</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.276422</v>
+        <v>0.278425</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208414</v>
+        <v>0.255757</v>
       </c>
       <c r="D23" t="n">
-        <v>0.192444</v>
+        <v>0.198054</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.278923</v>
+        <v>0.281903</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217347</v>
+        <v>0.265542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.19749</v>
+        <v>0.202794</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283197</v>
+        <v>0.284297</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225652</v>
+        <v>0.27496</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201874</v>
+        <v>0.203894</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29208</v>
+        <v>0.293465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22629</v>
+        <v>0.277561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.206689</v>
+        <v>0.208517</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.293686</v>
+        <v>0.295811</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235609</v>
+        <v>0.284079</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208656</v>
+        <v>0.21118</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.296506</v>
+        <v>0.299641</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237325</v>
+        <v>0.286515</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209756</v>
+        <v>0.213732</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305347</v>
+        <v>0.308149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242964</v>
+        <v>0.292722</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212099</v>
+        <v>0.215967</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.309854</v>
+        <v>0.312178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253597</v>
+        <v>0.303965</v>
       </c>
       <c r="D30" t="n">
-        <v>0.217211</v>
+        <v>0.220029</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.313248</v>
+        <v>0.315401</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251177</v>
+        <v>0.303102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.219273</v>
+        <v>0.222527</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281051</v>
+        <v>0.281475</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26102</v>
+        <v>0.313412</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222967</v>
+        <v>0.226696</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285876</v>
+        <v>0.286895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.269827</v>
+        <v>0.322152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.227738</v>
+        <v>0.231163</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291263</v>
+        <v>0.292594</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273241</v>
+        <v>0.326316</v>
       </c>
       <c r="D34" t="n">
-        <v>0.231749</v>
+        <v>0.233401</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292682</v>
+        <v>0.293212</v>
       </c>
       <c r="C35" t="n">
-        <v>0.213773</v>
+        <v>0.263976</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210771</v>
+        <v>0.211329</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297225</v>
+        <v>0.298365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221594</v>
+        <v>0.269998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211917</v>
+        <v>0.212802</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.303585</v>
+        <v>0.304239</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226798</v>
+        <v>0.273684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214095</v>
+        <v>0.214524</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306116</v>
+        <v>0.306655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229568</v>
+        <v>0.277611</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216115</v>
+        <v>0.216438</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312678</v>
+        <v>0.312869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235403</v>
+        <v>0.285804</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219662</v>
+        <v>0.219201</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321319</v>
+        <v>0.32092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.238431</v>
+        <v>0.288568</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221247</v>
+        <v>0.22208</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327182</v>
+        <v>0.326525</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24138</v>
+        <v>0.292272</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223258</v>
+        <v>0.223333</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331195</v>
+        <v>0.33108</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24332</v>
+        <v>0.294887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224889</v>
+        <v>0.224084</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337348</v>
+        <v>0.336922</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248268</v>
+        <v>0.300032</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227687</v>
+        <v>0.227803</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340083</v>
+        <v>0.340178</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252386</v>
+        <v>0.304925</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229014</v>
+        <v>0.228392</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348691</v>
+        <v>0.348449</v>
       </c>
       <c r="C45" t="n">
-        <v>0.255007</v>
+        <v>0.308523</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23128</v>
+        <v>0.23149</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349227</v>
+        <v>0.349669</v>
       </c>
       <c r="C46" t="n">
-        <v>0.255691</v>
+        <v>0.310064</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232979</v>
+        <v>0.232663</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289176</v>
+        <v>0.289417</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26119</v>
+        <v>0.316266</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234709</v>
+        <v>0.234119</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.293006</v>
+        <v>0.294047</v>
       </c>
       <c r="C48" t="n">
-        <v>0.266934</v>
+        <v>0.320936</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235656</v>
+        <v>0.236041</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.296694</v>
+        <v>0.297524</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270423</v>
+        <v>0.326185</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238708</v>
+        <v>0.238253</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301434</v>
+        <v>0.301008</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241404</v>
+        <v>0.293957</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223495</v>
+        <v>0.223512</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304039</v>
+        <v>0.304328</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243962</v>
+        <v>0.297574</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225916</v>
+        <v>0.226822</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.305948</v>
+        <v>0.30642</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246843</v>
+        <v>0.300019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227414</v>
+        <v>0.227894</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.31292</v>
+        <v>0.312059</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251007</v>
+        <v>0.305303</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228689</v>
+        <v>0.229528</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320655</v>
+        <v>0.320667</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255666</v>
+        <v>0.31024</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231186</v>
+        <v>0.233007</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320274</v>
+        <v>0.319895</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261251</v>
+        <v>0.316153</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234729</v>
+        <v>0.234129</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325201</v>
+        <v>0.325569</v>
       </c>
       <c r="C56" t="n">
-        <v>0.260295</v>
+        <v>0.316062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234733</v>
+        <v>0.235361</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333405</v>
+        <v>0.332966</v>
       </c>
       <c r="C57" t="n">
-        <v>0.26826</v>
+        <v>0.324304</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23724</v>
+        <v>0.237747</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334929</v>
+        <v>0.334816</v>
       </c>
       <c r="C58" t="n">
-        <v>0.275707</v>
+        <v>0.331662</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240276</v>
+        <v>0.241036</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.342061</v>
+        <v>0.34279</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282099</v>
+        <v>0.338786</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243654</v>
+        <v>0.244962</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347555</v>
+        <v>0.347799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.286054</v>
+        <v>0.343645</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248046</v>
+        <v>0.248111</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.305026</v>
+        <v>0.306656</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291262</v>
+        <v>0.348988</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248242</v>
+        <v>0.249112</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312973</v>
+        <v>0.312237</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296059</v>
+        <v>0.352994</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250239</v>
+        <v>0.250962</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.319481</v>
+        <v>0.32063</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300364</v>
+        <v>0.360013</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25414</v>
+        <v>0.254622</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324797</v>
+        <v>0.328682</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265408</v>
+        <v>0.321341</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243132</v>
+        <v>0.242385</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.328834</v>
+        <v>0.330754</v>
       </c>
       <c r="C65" t="n">
-        <v>0.269495</v>
+        <v>0.325789</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241366</v>
+        <v>0.242983</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335313</v>
+        <v>0.338228</v>
       </c>
       <c r="C66" t="n">
-        <v>0.272454</v>
+        <v>0.329019</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242855</v>
+        <v>0.243718</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34487</v>
+        <v>0.350204</v>
       </c>
       <c r="C67" t="n">
-        <v>0.279375</v>
+        <v>0.3361</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246296</v>
+        <v>0.246683</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349495</v>
+        <v>0.357155</v>
       </c>
       <c r="C68" t="n">
-        <v>0.283413</v>
+        <v>0.341135</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248781</v>
+        <v>0.24892</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358462</v>
+        <v>0.360785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.287445</v>
+        <v>0.34635</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252093</v>
+        <v>0.251555</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.369493</v>
+        <v>0.372446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.295451</v>
+        <v>0.352696</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256353</v>
+        <v>0.256137</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.380595</v>
+        <v>0.384402</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302825</v>
+        <v>0.361085</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258892</v>
+        <v>0.260563</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.388639</v>
+        <v>0.389656</v>
       </c>
       <c r="C72" t="n">
-        <v>0.310501</v>
+        <v>0.369828</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262973</v>
+        <v>0.261925</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.403018</v>
+        <v>0.405688</v>
       </c>
       <c r="C73" t="n">
-        <v>0.31849</v>
+        <v>0.378748</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268529</v>
+        <v>0.266545</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411624</v>
+        <v>0.41685</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324735</v>
+        <v>0.387931</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268841</v>
+        <v>0.26845</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.427085</v>
+        <v>0.431045</v>
       </c>
       <c r="C75" t="n">
-        <v>0.331646</v>
+        <v>0.395649</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272079</v>
+        <v>0.272327</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.439929</v>
+        <v>0.439863</v>
       </c>
       <c r="C76" t="n">
-        <v>0.344998</v>
+        <v>0.405208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.281627</v>
+        <v>0.276002</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.46279</v>
+        <v>0.455312</v>
       </c>
       <c r="C77" t="n">
-        <v>0.356879</v>
+        <v>0.428904</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281563</v>
+        <v>0.284494</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.474125</v>
+        <v>0.473793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311063</v>
+        <v>0.372188</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275522</v>
+        <v>0.274468</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.514391</v>
+        <v>0.503713</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326167</v>
+        <v>0.385679</v>
       </c>
       <c r="D79" t="n">
-        <v>0.279352</v>
+        <v>0.280898</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.538507</v>
+        <v>0.523554</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337792</v>
+        <v>0.404152</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28838</v>
+        <v>0.289567</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565866</v>
+        <v>0.5587299999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.357427</v>
+        <v>0.409434</v>
       </c>
       <c r="D81" t="n">
-        <v>0.297828</v>
+        <v>0.291598</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.605139</v>
+        <v>0.5817639999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370171</v>
+        <v>0.430144</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3047</v>
+        <v>0.305503</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.648993</v>
+        <v>0.617717</v>
       </c>
       <c r="C83" t="n">
-        <v>0.397276</v>
+        <v>0.445783</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312227</v>
+        <v>0.314833</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.690044</v>
+        <v>0.667892</v>
       </c>
       <c r="C84" t="n">
-        <v>0.41835</v>
+        <v>0.473331</v>
       </c>
       <c r="D84" t="n">
-        <v>0.323049</v>
+        <v>0.333442</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.736873</v>
+        <v>0.694396</v>
       </c>
       <c r="C85" t="n">
-        <v>0.453562</v>
+        <v>0.495052</v>
       </c>
       <c r="D85" t="n">
-        <v>0.340592</v>
+        <v>0.338267</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.786152</v>
+        <v>0.740139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.466617</v>
+        <v>0.518784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.357154</v>
+        <v>0.349555</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.825657</v>
+        <v>0.776259</v>
       </c>
       <c r="C87" t="n">
-        <v>0.496769</v>
+        <v>0.547924</v>
       </c>
       <c r="D87" t="n">
-        <v>0.36296</v>
+        <v>0.360129</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.874718</v>
+        <v>0.821747</v>
       </c>
       <c r="C88" t="n">
-        <v>0.526435</v>
+        <v>0.5725479999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.383925</v>
+        <v>0.374051</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.931679</v>
+        <v>0.86961</v>
       </c>
       <c r="C89" t="n">
-        <v>0.563254</v>
+        <v>0.61044</v>
       </c>
       <c r="D89" t="n">
-        <v>0.395485</v>
+        <v>0.391345</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.947695</v>
+        <v>0.868823</v>
       </c>
       <c r="C90" t="n">
-        <v>0.597142</v>
+        <v>0.633362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416229</v>
+        <v>0.410292</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.983693</v>
+        <v>0.902142</v>
       </c>
       <c r="C91" t="n">
-        <v>0.635694</v>
+        <v>0.6784559999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.43736</v>
+        <v>0.41806</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02238</v>
+        <v>0.9366409999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.664623</v>
+        <v>0.697962</v>
       </c>
       <c r="D92" t="n">
-        <v>0.538475</v>
+        <v>0.500313</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05985</v>
+        <v>0.9672539999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.691457</v>
+        <v>0.732005</v>
       </c>
       <c r="D93" t="n">
-        <v>0.560573</v>
+        <v>0.518927</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.09895</v>
+        <v>1.00283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.723565</v>
+        <v>0.765616</v>
       </c>
       <c r="D94" t="n">
-        <v>0.579072</v>
+        <v>0.535911</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.14092</v>
+        <v>1.03871</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7525309999999999</v>
+        <v>0.79817</v>
       </c>
       <c r="D95" t="n">
-        <v>0.600808</v>
+        <v>0.556887</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17932</v>
+        <v>1.07279</v>
       </c>
       <c r="C96" t="n">
-        <v>0.781128</v>
+        <v>0.8343429999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.621382</v>
+        <v>0.577328</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.22182</v>
+        <v>1.11067</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8158879999999999</v>
+        <v>0.871129</v>
       </c>
       <c r="D97" t="n">
-        <v>0.645058</v>
+        <v>0.593249</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.25729</v>
+        <v>1.14529</v>
       </c>
       <c r="C98" t="n">
-        <v>0.846994</v>
+        <v>0.905958</v>
       </c>
       <c r="D98" t="n">
-        <v>0.665404</v>
+        <v>0.615093</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.29764</v>
+        <v>1.17907</v>
       </c>
       <c r="C99" t="n">
-        <v>0.884812</v>
+        <v>0.947496</v>
       </c>
       <c r="D99" t="n">
-        <v>0.687513</v>
+        <v>0.639404</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.34068</v>
+        <v>1.21809</v>
       </c>
       <c r="C100" t="n">
-        <v>0.917547</v>
+        <v>0.988652</v>
       </c>
       <c r="D100" t="n">
-        <v>0.712893</v>
+        <v>0.65448</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.38062</v>
+        <v>1.25321</v>
       </c>
       <c r="C101" t="n">
-        <v>0.946496</v>
+        <v>1.02597</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7368</v>
+        <v>0.675312</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.42282</v>
+        <v>1.28792</v>
       </c>
       <c r="C102" t="n">
-        <v>0.987652</v>
+        <v>1.07037</v>
       </c>
       <c r="D102" t="n">
-        <v>0.76028</v>
+        <v>0.6976329999999999</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.46498</v>
+        <v>1.32522</v>
       </c>
       <c r="C103" t="n">
-        <v>1.01758</v>
+        <v>1.10832</v>
       </c>
       <c r="D103" t="n">
-        <v>0.780128</v>
+        <v>0.716191</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.50745</v>
+        <v>1.36447</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05011</v>
+        <v>1.14829</v>
       </c>
       <c r="D104" t="n">
-        <v>0.805789</v>
+        <v>0.736779</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.38122</v>
+        <v>1.25201</v>
       </c>
       <c r="C105" t="n">
-        <v>1.08825</v>
+        <v>1.1944</v>
       </c>
       <c r="D105" t="n">
-        <v>0.824511</v>
+        <v>0.761201</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4082</v>
+        <v>1.27576</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12504</v>
+        <v>1.23827</v>
       </c>
       <c r="D106" t="n">
-        <v>0.853503</v>
+        <v>0.779596</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.43276</v>
+        <v>1.30021</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00832</v>
+        <v>1.13951</v>
       </c>
       <c r="D107" t="n">
-        <v>0.863252</v>
+        <v>0.787178</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.46276</v>
+        <v>1.31994</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03123</v>
+        <v>1.16511</v>
       </c>
       <c r="D108" t="n">
-        <v>0.87882</v>
+        <v>0.8059770000000001</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.49149</v>
+        <v>1.34734</v>
       </c>
       <c r="C109" t="n">
-        <v>1.06107</v>
+        <v>1.19785</v>
       </c>
       <c r="D109" t="n">
-        <v>0.900281</v>
+        <v>0.817993</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.518</v>
+        <v>1.3679</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08418</v>
+        <v>1.22473</v>
       </c>
       <c r="D110" t="n">
-        <v>0.916534</v>
+        <v>0.83366</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5474</v>
+        <v>1.39647</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10618</v>
+        <v>1.2556</v>
       </c>
       <c r="D111" t="n">
-        <v>0.93523</v>
+        <v>0.847803</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.58018</v>
+        <v>1.42346</v>
       </c>
       <c r="C112" t="n">
-        <v>1.13825</v>
+        <v>1.292</v>
       </c>
       <c r="D112" t="n">
-        <v>0.952974</v>
+        <v>0.86604</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.61544</v>
+        <v>1.45191</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16645</v>
+        <v>1.32764</v>
       </c>
       <c r="D113" t="n">
-        <v>0.968258</v>
+        <v>0.878897</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.64485</v>
+        <v>1.478</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19432</v>
+        <v>1.35336</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9852300000000001</v>
+        <v>0.8915999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.6819</v>
+        <v>1.50936</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2253</v>
+        <v>1.39337</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9987239999999999</v>
+        <v>0.906702</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.71628</v>
+        <v>1.53908</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25602</v>
+        <v>1.42701</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01794</v>
+        <v>0.919772</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.75328</v>
+        <v>1.57141</v>
       </c>
       <c r="C117" t="n">
-        <v>1.28491</v>
+        <v>1.46113</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03778</v>
+        <v>0.934373</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.79097</v>
+        <v>1.60557</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32426</v>
+        <v>1.5026</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05509</v>
+        <v>0.953968</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.59348</v>
+        <v>1.43366</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35962</v>
+        <v>1.53705</v>
       </c>
       <c r="D119" t="n">
-        <v>1.071</v>
+        <v>0.968262</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391224</v>
+        <v>0.392622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.292122</v>
+        <v>0.333497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217774</v>
+        <v>0.21695</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.400601</v>
+        <v>0.402754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295406</v>
+        <v>0.33614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219158</v>
+        <v>0.219971</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412308</v>
+        <v>0.415753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.310307</v>
+        <v>0.348742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228859</v>
+        <v>0.229798</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.418777</v>
+        <v>0.420732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.320093</v>
+        <v>0.368825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233736</v>
+        <v>0.23506</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.435373</v>
+        <v>0.44758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.322223</v>
+        <v>0.372393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239697</v>
+        <v>0.239059</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449891</v>
+        <v>0.45609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.341035</v>
+        <v>0.391073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24789</v>
+        <v>0.247016</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463716</v>
+        <v>0.469338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.364602</v>
+        <v>0.403537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256794</v>
+        <v>0.259155</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.479787</v>
+        <v>0.491814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.370749</v>
+        <v>0.426852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265571</v>
+        <v>0.266571</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492786</v>
+        <v>0.506875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.389446</v>
+        <v>0.447913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.275329</v>
+        <v>0.27756</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.511728</v>
+        <v>0.524969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.294017</v>
+        <v>0.349562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220552</v>
+        <v>0.221392</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382744</v>
+        <v>0.390713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30429</v>
+        <v>0.353725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223776</v>
+        <v>0.224327</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.393997</v>
+        <v>0.402207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307345</v>
+        <v>0.363133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.230976</v>
+        <v>0.232754</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.40249</v>
+        <v>0.413382</v>
       </c>
       <c r="C14" t="n">
-        <v>0.322919</v>
+        <v>0.379809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231765</v>
+        <v>0.235256</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428639</v>
+        <v>0.43466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.338055</v>
+        <v>0.384375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239349</v>
+        <v>0.23906</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435566</v>
+        <v>0.444371</v>
       </c>
       <c r="C16" t="n">
-        <v>0.353793</v>
+        <v>0.410126</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247285</v>
+        <v>0.248285</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.447542</v>
+        <v>0.454156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.365862</v>
+        <v>0.421498</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254367</v>
+        <v>0.254454</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.470819</v>
+        <v>0.47503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.376786</v>
+        <v>0.429736</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255878</v>
+        <v>0.254783</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484306</v>
+        <v>0.487769</v>
       </c>
       <c r="C19" t="n">
-        <v>0.396993</v>
+        <v>0.450256</v>
       </c>
       <c r="D19" t="n">
-        <v>0.265989</v>
+        <v>0.266162</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.504104</v>
+        <v>0.505847</v>
       </c>
       <c r="C20" t="n">
-        <v>0.418974</v>
+        <v>0.479635</v>
       </c>
       <c r="D20" t="n">
-        <v>0.275171</v>
+        <v>0.276107</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520435</v>
+        <v>0.523821</v>
       </c>
       <c r="C21" t="n">
-        <v>0.451437</v>
+        <v>0.492886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.288043</v>
+        <v>0.290813</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.544134</v>
+        <v>0.546222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.46931</v>
+        <v>0.518772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.297281</v>
+        <v>0.29679</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5572780000000001</v>
+        <v>0.561789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.489129</v>
+        <v>0.542892</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310461</v>
+        <v>0.309681</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.593527</v>
+        <v>0.599241</v>
       </c>
       <c r="C24" t="n">
-        <v>0.505063</v>
+        <v>0.561582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.320845</v>
+        <v>0.316092</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.627667</v>
+        <v>0.631436</v>
       </c>
       <c r="C25" t="n">
-        <v>0.532484</v>
+        <v>0.5882230000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.328767</v>
+        <v>0.33313</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.65345</v>
+        <v>0.659153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331601</v>
+        <v>0.389686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23717</v>
+        <v>0.237919</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.43192</v>
+        <v>0.434161</v>
       </c>
       <c r="C27" t="n">
-        <v>0.337664</v>
+        <v>0.394229</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240069</v>
+        <v>0.239583</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.447271</v>
+        <v>0.450732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.358274</v>
+        <v>0.406303</v>
       </c>
       <c r="D28" t="n">
-        <v>0.245725</v>
+        <v>0.249596</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.462515</v>
+        <v>0.466003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.358713</v>
+        <v>0.417724</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253035</v>
+        <v>0.252913</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.481701</v>
+        <v>0.484396</v>
       </c>
       <c r="C30" t="n">
-        <v>0.378749</v>
+        <v>0.435454</v>
       </c>
       <c r="D30" t="n">
-        <v>0.259984</v>
+        <v>0.260797</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498016</v>
+        <v>0.499984</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392953</v>
+        <v>0.450944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2653</v>
+        <v>0.267125</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.513812</v>
+        <v>0.516587</v>
       </c>
       <c r="C32" t="n">
-        <v>0.411539</v>
+        <v>0.467722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.275576</v>
+        <v>0.276117</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.540771</v>
+        <v>0.544088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.428074</v>
+        <v>0.486675</v>
       </c>
       <c r="D33" t="n">
-        <v>0.28521</v>
+        <v>0.282783</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55353</v>
+        <v>0.55765</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446</v>
+        <v>0.507226</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293003</v>
+        <v>0.292726</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.577366</v>
+        <v>0.582139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.469705</v>
+        <v>0.530079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301665</v>
+        <v>0.303685</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.597274</v>
+        <v>0.602334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.491344</v>
+        <v>0.554119</v>
       </c>
       <c r="D36" t="n">
-        <v>0.31614</v>
+        <v>0.313697</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.612753</v>
+        <v>0.617826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.517926</v>
+        <v>0.578263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32646</v>
+        <v>0.323586</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.637933</v>
+        <v>0.64389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.538357</v>
+        <v>0.603617</v>
       </c>
       <c r="D38" t="n">
-        <v>0.335339</v>
+        <v>0.332591</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6715719999999999</v>
+        <v>0.676167</v>
       </c>
       <c r="C39" t="n">
-        <v>0.567559</v>
+        <v>0.631233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347173</v>
+        <v>0.346281</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692255</v>
+        <v>0.698222</v>
       </c>
       <c r="C40" t="n">
-        <v>0.39442</v>
+        <v>0.453218</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281861</v>
+        <v>0.281147</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.50234</v>
+        <v>0.504506</v>
       </c>
       <c r="C41" t="n">
-        <v>0.405011</v>
+        <v>0.465002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.288045</v>
+        <v>0.287342</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.514633</v>
+        <v>0.516302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.423602</v>
+        <v>0.483342</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295842</v>
+        <v>0.294751</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.527735</v>
+        <v>0.52965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.434371</v>
+        <v>0.496806</v>
       </c>
       <c r="D43" t="n">
-        <v>0.300662</v>
+        <v>0.300977</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5442630000000001</v>
+        <v>0.545876</v>
       </c>
       <c r="C44" t="n">
-        <v>0.455951</v>
+        <v>0.519577</v>
       </c>
       <c r="D44" t="n">
-        <v>0.312488</v>
+        <v>0.309762</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.56066</v>
+        <v>0.563659</v>
       </c>
       <c r="C45" t="n">
-        <v>0.46907</v>
+        <v>0.533005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.318794</v>
+        <v>0.315125</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.572917</v>
+        <v>0.574844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.487937</v>
+        <v>0.553513</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322381</v>
+        <v>0.322699</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.595655</v>
+        <v>0.598321</v>
       </c>
       <c r="C47" t="n">
-        <v>0.505599</v>
+        <v>0.570758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332559</v>
+        <v>0.331934</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6111490000000001</v>
+        <v>0.614583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.522002</v>
+        <v>0.585806</v>
       </c>
       <c r="D48" t="n">
-        <v>0.344126</v>
+        <v>0.342559</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.62308</v>
+        <v>0.627284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5465410000000001</v>
+        <v>0.6085120000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351278</v>
+        <v>0.349555</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.652756</v>
+        <v>0.656081</v>
       </c>
       <c r="C50" t="n">
-        <v>0.562765</v>
+        <v>0.6296079999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.362002</v>
+        <v>0.357634</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.676513</v>
+        <v>0.680466</v>
       </c>
       <c r="C51" t="n">
-        <v>0.585889</v>
+        <v>0.654936</v>
       </c>
       <c r="D51" t="n">
-        <v>0.372276</v>
+        <v>0.370639</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.700314</v>
+        <v>0.706804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.609681</v>
+        <v>0.681777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381892</v>
+        <v>0.380627</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.726471</v>
+        <v>0.732352</v>
       </c>
       <c r="C53" t="n">
-        <v>0.637661</v>
+        <v>0.704784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.392759</v>
+        <v>0.394003</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753067</v>
+        <v>0.7589590000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.447119</v>
+        <v>0.511011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.31611</v>
+        <v>0.314725</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.781786</v>
+        <v>0.789897</v>
       </c>
       <c r="C55" t="n">
-        <v>0.455568</v>
+        <v>0.519583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.320489</v>
+        <v>0.320798</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536388</v>
+        <v>0.5385450000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.472709</v>
+        <v>0.536862</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325385</v>
+        <v>0.327337</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.550389</v>
+        <v>0.5530969999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.485852</v>
+        <v>0.550971</v>
       </c>
       <c r="D57" t="n">
-        <v>0.334155</v>
+        <v>0.331995</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565627</v>
+        <v>0.5679959999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.497668</v>
+        <v>0.565372</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337085</v>
+        <v>0.33809</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.580045</v>
+        <v>0.5828989999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.514456</v>
+        <v>0.582784</v>
       </c>
       <c r="D59" t="n">
-        <v>0.34822</v>
+        <v>0.348551</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.58801</v>
+        <v>0.592351</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5293330000000001</v>
+        <v>0.600041</v>
       </c>
       <c r="D60" t="n">
-        <v>0.353717</v>
+        <v>0.352589</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.608743</v>
+        <v>0.612556</v>
       </c>
       <c r="C61" t="n">
-        <v>0.547692</v>
+        <v>0.6165079999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359839</v>
+        <v>0.361537</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.628899</v>
+        <v>0.632038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.563597</v>
+        <v>0.633042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.369051</v>
+        <v>0.367745</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.648435</v>
+        <v>0.652704</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5846789999999999</v>
+        <v>0.657466</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375065</v>
+        <v>0.376825</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668803</v>
+        <v>0.674844</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6018829999999999</v>
+        <v>0.674791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.387742</v>
+        <v>0.388106</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697256</v>
+        <v>0.702952</v>
       </c>
       <c r="C65" t="n">
-        <v>0.630587</v>
+        <v>0.703115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.399089</v>
+        <v>0.397275</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7207480000000001</v>
+        <v>0.727104</v>
       </c>
       <c r="C66" t="n">
-        <v>0.647575</v>
+        <v>0.721487</v>
       </c>
       <c r="D66" t="n">
-        <v>0.407594</v>
+        <v>0.405131</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.75057</v>
+        <v>0.75705</v>
       </c>
       <c r="C67" t="n">
-        <v>0.675199</v>
+        <v>0.750798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.421506</v>
+        <v>0.419992</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.770054</v>
+        <v>0.778533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43794</v>
+        <v>0.5069360000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314607</v>
+        <v>0.315623</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.814289</v>
+        <v>0.8258450000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.45697</v>
+        <v>0.526413</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323547</v>
+        <v>0.320889</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555917</v>
+        <v>0.561799</v>
       </c>
       <c r="C70" t="n">
-        <v>0.476252</v>
+        <v>0.549899</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331662</v>
+        <v>0.331383</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.577908</v>
+        <v>0.583932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.496706</v>
+        <v>0.571984</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338031</v>
+        <v>0.338212</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.606816</v>
+        <v>0.613462</v>
       </c>
       <c r="C72" t="n">
-        <v>0.518001</v>
+        <v>0.594291</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346006</v>
+        <v>0.346815</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6343490000000001</v>
+        <v>0.641075</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5438229999999999</v>
+        <v>0.621352</v>
       </c>
       <c r="D73" t="n">
-        <v>0.357627</v>
+        <v>0.356914</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.658444</v>
+        <v>0.670337</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5649650000000001</v>
+        <v>0.648396</v>
       </c>
       <c r="D74" t="n">
-        <v>0.368907</v>
+        <v>0.366805</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.689052</v>
+        <v>0.702604</v>
       </c>
       <c r="C75" t="n">
-        <v>0.595641</v>
+        <v>0.682653</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375481</v>
+        <v>0.378577</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.724548</v>
+        <v>0.738082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.626887</v>
+        <v>0.715602</v>
       </c>
       <c r="D76" t="n">
-        <v>0.38657</v>
+        <v>0.389226</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.763471</v>
+        <v>0.775473</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6608309999999999</v>
+        <v>0.755684</v>
       </c>
       <c r="D77" t="n">
-        <v>0.400505</v>
+        <v>0.400744</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808188</v>
+        <v>0.821172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.697674</v>
+        <v>0.794324</v>
       </c>
       <c r="D78" t="n">
-        <v>0.414599</v>
+        <v>0.416179</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.856096</v>
+        <v>0.871972</v>
       </c>
       <c r="C79" t="n">
-        <v>0.736402</v>
+        <v>0.836488</v>
       </c>
       <c r="D79" t="n">
-        <v>0.430282</v>
+        <v>0.428267</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.914326</v>
+        <v>0.930231</v>
       </c>
       <c r="C80" t="n">
-        <v>0.790175</v>
+        <v>0.896216</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444864</v>
+        <v>0.443718</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.996386</v>
+        <v>1.0127</v>
       </c>
       <c r="C81" t="n">
-        <v>0.854351</v>
+        <v>0.968197</v>
       </c>
       <c r="D81" t="n">
-        <v>0.466788</v>
+        <v>0.461678</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08133</v>
+        <v>1.07927</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9260969999999999</v>
+        <v>1.03727</v>
       </c>
       <c r="D82" t="n">
-        <v>0.476748</v>
+        <v>0.47661</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.16728</v>
+        <v>1.17271</v>
       </c>
       <c r="C83" t="n">
-        <v>0.654379</v>
+        <v>0.738829</v>
       </c>
       <c r="D83" t="n">
-        <v>0.391022</v>
+        <v>0.384598</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.29206</v>
+        <v>1.27641</v>
       </c>
       <c r="C84" t="n">
-        <v>0.707253</v>
+        <v>0.787305</v>
       </c>
       <c r="D84" t="n">
-        <v>0.402376</v>
+        <v>0.396436</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9171899999999999</v>
+        <v>0.895527</v>
       </c>
       <c r="C85" t="n">
-        <v>0.764159</v>
+        <v>0.846016</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423097</v>
+        <v>0.411134</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.996797</v>
+        <v>0.960356</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8489910000000001</v>
+        <v>0.926397</v>
       </c>
       <c r="D86" t="n">
-        <v>0.444416</v>
+        <v>0.433241</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.07047</v>
+        <v>1.03836</v>
       </c>
       <c r="C87" t="n">
-        <v>0.930296</v>
+        <v>1.00183</v>
       </c>
       <c r="D87" t="n">
-        <v>0.471131</v>
+        <v>0.461524</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.17857</v>
+        <v>1.12405</v>
       </c>
       <c r="C88" t="n">
-        <v>1.03769</v>
+        <v>1.10519</v>
       </c>
       <c r="D88" t="n">
-        <v>0.494535</v>
+        <v>0.489628</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.27271</v>
+        <v>1.21414</v>
       </c>
       <c r="C89" t="n">
-        <v>1.14117</v>
+        <v>1.20356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.525989</v>
+        <v>0.519655</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38695</v>
+        <v>1.31925</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25304</v>
+        <v>1.31176</v>
       </c>
       <c r="D90" t="n">
-        <v>0.56302</v>
+        <v>0.546146</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.51942</v>
+        <v>1.4298</v>
       </c>
       <c r="C91" t="n">
-        <v>1.3794</v>
+        <v>1.43293</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599448</v>
+        <v>0.594548</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.65478</v>
+        <v>1.54459</v>
       </c>
       <c r="C92" t="n">
-        <v>1.51432</v>
+        <v>1.56564</v>
       </c>
       <c r="D92" t="n">
-        <v>0.652922</v>
+        <v>0.626907</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.78995</v>
+        <v>1.67222</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65434</v>
+        <v>1.70049</v>
       </c>
       <c r="D93" t="n">
-        <v>0.700182</v>
+        <v>0.6738</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.94657</v>
+        <v>1.81524</v>
       </c>
       <c r="C94" t="n">
-        <v>1.80456</v>
+        <v>1.85314</v>
       </c>
       <c r="D94" t="n">
-        <v>0.75487</v>
+        <v>0.730669</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.104</v>
+        <v>1.95834</v>
       </c>
       <c r="C95" t="n">
-        <v>1.96614</v>
+        <v>2.01583</v>
       </c>
       <c r="D95" t="n">
-        <v>0.816173</v>
+        <v>0.780029</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.29023</v>
+        <v>2.12018</v>
       </c>
       <c r="C96" t="n">
-        <v>2.16401</v>
+        <v>2.2028</v>
       </c>
       <c r="D96" t="n">
-        <v>0.883415</v>
+        <v>0.852063</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.48062</v>
+        <v>2.2888</v>
       </c>
       <c r="C97" t="n">
-        <v>1.32319</v>
+        <v>1.36546</v>
       </c>
       <c r="D97" t="n">
-        <v>0.670633</v>
+        <v>0.63534</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.66246</v>
+        <v>2.4506</v>
       </c>
       <c r="C98" t="n">
-        <v>1.41382</v>
+        <v>1.45906</v>
       </c>
       <c r="D98" t="n">
-        <v>0.718543</v>
+        <v>0.670332</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.8494</v>
+        <v>1.69165</v>
       </c>
       <c r="C99" t="n">
-        <v>1.50886</v>
+        <v>1.55426</v>
       </c>
       <c r="D99" t="n">
-        <v>0.76524</v>
+        <v>0.714896</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.95238</v>
+        <v>1.78791</v>
       </c>
       <c r="C100" t="n">
-        <v>1.61378</v>
+        <v>1.66373</v>
       </c>
       <c r="D100" t="n">
-        <v>0.801234</v>
+        <v>0.753794</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.06181</v>
+        <v>1.88044</v>
       </c>
       <c r="C101" t="n">
-        <v>1.72153</v>
+        <v>1.77366</v>
       </c>
       <c r="D101" t="n">
-        <v>0.85882</v>
+        <v>0.791907</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.17709</v>
+        <v>1.98859</v>
       </c>
       <c r="C102" t="n">
-        <v>1.83153</v>
+        <v>1.88934</v>
       </c>
       <c r="D102" t="n">
-        <v>0.90167</v>
+        <v>0.836975</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.28771</v>
+        <v>2.08109</v>
       </c>
       <c r="C103" t="n">
-        <v>1.95526</v>
+        <v>2.01176</v>
       </c>
       <c r="D103" t="n">
-        <v>0.951999</v>
+        <v>0.87795</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.41852</v>
+        <v>2.20073</v>
       </c>
       <c r="C104" t="n">
-        <v>2.08304</v>
+        <v>2.14183</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01044</v>
+        <v>0.923769</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.53764</v>
+        <v>2.30641</v>
       </c>
       <c r="C105" t="n">
-        <v>2.21914</v>
+        <v>2.27716</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08359</v>
+        <v>0.997306</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.6751</v>
+        <v>2.43236</v>
       </c>
       <c r="C106" t="n">
-        <v>2.35545</v>
+        <v>2.41018</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12368</v>
+        <v>1.04305</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.81199</v>
+        <v>2.54946</v>
       </c>
       <c r="C107" t="n">
-        <v>2.48836</v>
+        <v>2.54595</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1907</v>
+        <v>1.09569</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.95068</v>
+        <v>2.68913</v>
       </c>
       <c r="C108" t="n">
-        <v>2.64745</v>
+        <v>2.6944</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26051</v>
+        <v>1.15484</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.09085</v>
+        <v>2.82775</v>
       </c>
       <c r="C109" t="n">
-        <v>2.78503</v>
+        <v>2.86751</v>
       </c>
       <c r="D109" t="n">
-        <v>1.32099</v>
+        <v>1.22742</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.23939</v>
+        <v>2.99776</v>
       </c>
       <c r="C110" t="n">
-        <v>2.9644</v>
+        <v>2.99529</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39455</v>
+        <v>1.26479</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.41061</v>
+        <v>3.14</v>
       </c>
       <c r="C111" t="n">
-        <v>1.89377</v>
+        <v>1.99762</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11162</v>
+        <v>1.01868</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.60139</v>
+        <v>3.36105</v>
       </c>
       <c r="C112" t="n">
-        <v>1.9846</v>
+        <v>2.08025</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15782</v>
+        <v>1.04198</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.78866</v>
+        <v>3.5037</v>
       </c>
       <c r="C113" t="n">
-        <v>2.08295</v>
+        <v>2.16886</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18582</v>
+        <v>1.08788</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.56899</v>
+        <v>2.3331</v>
       </c>
       <c r="C114" t="n">
-        <v>2.17595</v>
+        <v>2.26184</v>
       </c>
       <c r="D114" t="n">
-        <v>1.23044</v>
+        <v>1.12357</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.65122</v>
+        <v>2.42242</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26876</v>
+        <v>2.35483</v>
       </c>
       <c r="D115" t="n">
-        <v>1.29471</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.74719</v>
+        <v>2.52537</v>
       </c>
       <c r="C116" t="n">
-        <v>2.37288</v>
+        <v>2.45911</v>
       </c>
       <c r="D116" t="n">
-        <v>1.32374</v>
+        <v>1.21654</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.85532</v>
+        <v>2.63507</v>
       </c>
       <c r="C117" t="n">
-        <v>2.48737</v>
+        <v>2.57794</v>
       </c>
       <c r="D117" t="n">
-        <v>1.38521</v>
+        <v>1.24867</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.9612</v>
+        <v>2.73782</v>
       </c>
       <c r="C118" t="n">
-        <v>2.61544</v>
+        <v>2.70612</v>
       </c>
       <c r="D118" t="n">
-        <v>1.42813</v>
+        <v>1.30546</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.07751</v>
+        <v>2.83437</v>
       </c>
       <c r="C119" t="n">
-        <v>2.74248</v>
+        <v>2.82679</v>
       </c>
       <c r="D119" t="n">
-        <v>1.48873</v>
+        <v>1.35679</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242483</v>
+        <v>0.24908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239792</v>
+        <v>0.24303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19461</v>
+        <v>0.198196</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191268</v>
+        <v>0.196017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243913</v>
+        <v>0.250137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196864</v>
+        <v>0.200552</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197711</v>
+        <v>0.20456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.249355</v>
+        <v>0.25501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202937</v>
+        <v>0.208269</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.204483</v>
+        <v>0.210317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.258514</v>
+        <v>0.26412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.209298</v>
+        <v>0.213992</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21002</v>
+        <v>0.214362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.262638</v>
+        <v>0.268775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214516</v>
+        <v>0.219011</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214327</v>
+        <v>0.219528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218431</v>
+        <v>0.220591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.180856</v>
+        <v>0.182636</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220417</v>
+        <v>0.226179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224719</v>
+        <v>0.225907</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18674</v>
+        <v>0.187099</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22819</v>
+        <v>0.231977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229258</v>
+        <v>0.231363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189955</v>
+        <v>0.191308</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233244</v>
+        <v>0.237449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233612</v>
+        <v>0.235318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193843</v>
+        <v>0.196245</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.237987</v>
+        <v>0.241696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239214</v>
+        <v>0.239832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198981</v>
+        <v>0.202107</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246156</v>
+        <v>0.249013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245749</v>
+        <v>0.246502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203889</v>
+        <v>0.207395</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251029</v>
+        <v>0.253885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250195</v>
+        <v>0.253298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.207984</v>
+        <v>0.211859</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256439</v>
+        <v>0.259547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.255592</v>
+        <v>0.257564</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21221</v>
+        <v>0.214334</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26422</v>
+        <v>0.266858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.262442</v>
+        <v>0.264268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21814</v>
+        <v>0.220227</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.268808</v>
+        <v>0.270389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267862</v>
+        <v>0.269293</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221749</v>
+        <v>0.22439</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275684</v>
+        <v>0.277326</v>
       </c>
       <c r="C17" t="n">
-        <v>0.274656</v>
+        <v>0.275844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22709</v>
+        <v>0.229619</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.22991</v>
+        <v>0.230147</v>
       </c>
       <c r="C18" t="n">
-        <v>0.279972</v>
+        <v>0.278504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230416</v>
+        <v>0.230979</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234266</v>
+        <v>0.234751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.283694</v>
+        <v>0.285119</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234843</v>
+        <v>0.236906</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.238582</v>
+        <v>0.239049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.289248</v>
+        <v>0.290531</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240206</v>
+        <v>0.24262</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243026</v>
+        <v>0.243887</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245456</v>
+        <v>0.245361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204464</v>
+        <v>0.205686</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247549</v>
+        <v>0.247855</v>
       </c>
       <c r="C22" t="n">
-        <v>0.250392</v>
+        <v>0.250145</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208684</v>
+        <v>0.209283</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251822</v>
+        <v>0.251993</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25433</v>
+        <v>0.253889</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21081</v>
+        <v>0.212148</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.256708</v>
+        <v>0.257023</v>
       </c>
       <c r="C24" t="n">
-        <v>0.258055</v>
+        <v>0.257818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216068</v>
+        <v>0.21581</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261658</v>
+        <v>0.261811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.262981</v>
+        <v>0.262839</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219893</v>
+        <v>0.219924</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268074</v>
+        <v>0.268195</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268297</v>
+        <v>0.268131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224553</v>
+        <v>0.224164</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272207</v>
+        <v>0.272393</v>
       </c>
       <c r="C27" t="n">
-        <v>0.272855</v>
+        <v>0.271888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227874</v>
+        <v>0.228452</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2776</v>
+        <v>0.277586</v>
       </c>
       <c r="C28" t="n">
-        <v>0.278731</v>
+        <v>0.2782</v>
       </c>
       <c r="D28" t="n">
-        <v>0.233098</v>
+        <v>0.232618</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282486</v>
+        <v>0.282608</v>
       </c>
       <c r="C29" t="n">
-        <v>0.284493</v>
+        <v>0.283978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237983</v>
+        <v>0.237956</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288741</v>
+        <v>0.288896</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290054</v>
+        <v>0.289119</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241977</v>
+        <v>0.242211</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293673</v>
+        <v>0.293872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295383</v>
+        <v>0.294818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246219</v>
+        <v>0.246222</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242041</v>
+        <v>0.241847</v>
       </c>
       <c r="C32" t="n">
-        <v>0.300169</v>
+        <v>0.299369</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249902</v>
+        <v>0.250205</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245602</v>
+        <v>0.245417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.306581</v>
+        <v>0.306121</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255747</v>
+        <v>0.255288</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248722</v>
+        <v>0.248834</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311781</v>
+        <v>0.310724</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259168</v>
+        <v>0.259158</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252326</v>
+        <v>0.252368</v>
       </c>
       <c r="C35" t="n">
-        <v>0.256327</v>
+        <v>0.256306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210761</v>
+        <v>0.209876</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.25638</v>
+        <v>0.256527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259688</v>
+        <v>0.259618</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213834</v>
+        <v>0.212851</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260382</v>
+        <v>0.260373</v>
       </c>
       <c r="C37" t="n">
-        <v>0.263976</v>
+        <v>0.263552</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217216</v>
+        <v>0.216316</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2645</v>
+        <v>0.264565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268788</v>
+        <v>0.268295</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221331</v>
+        <v>0.221423</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268885</v>
+        <v>0.268856</v>
       </c>
       <c r="C39" t="n">
-        <v>0.272975</v>
+        <v>0.27286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225254</v>
+        <v>0.225446</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273577</v>
+        <v>0.273672</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27813</v>
+        <v>0.277435</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229546</v>
+        <v>0.22959</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.278708</v>
+        <v>0.278814</v>
       </c>
       <c r="C41" t="n">
-        <v>0.282893</v>
+        <v>0.282168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233671</v>
+        <v>0.233649</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283435</v>
+        <v>0.283288</v>
       </c>
       <c r="C42" t="n">
-        <v>0.287657</v>
+        <v>0.286974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237386</v>
+        <v>0.23743</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288413</v>
+        <v>0.288469</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292817</v>
+        <v>0.291988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241678</v>
+        <v>0.241725</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293546</v>
+        <v>0.293668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.298269</v>
+        <v>0.29827</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246535</v>
+        <v>0.246402</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.29854</v>
+        <v>0.298734</v>
       </c>
       <c r="C45" t="n">
-        <v>0.303641</v>
+        <v>0.303742</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250327</v>
+        <v>0.250286</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303239</v>
+        <v>0.303409</v>
       </c>
       <c r="C46" t="n">
-        <v>0.308731</v>
+        <v>0.308788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254825</v>
+        <v>0.254602</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249948</v>
+        <v>0.250056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.315027</v>
+        <v>0.314939</v>
       </c>
       <c r="D47" t="n">
-        <v>0.259271</v>
+        <v>0.259106</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25316</v>
+        <v>0.253108</v>
       </c>
       <c r="C48" t="n">
-        <v>0.320235</v>
+        <v>0.31994</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262995</v>
+        <v>0.262872</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256706</v>
+        <v>0.256674</v>
       </c>
       <c r="C49" t="n">
-        <v>0.325021</v>
+        <v>0.324788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.267151</v>
+        <v>0.266762</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.26026</v>
+        <v>0.26007</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265818</v>
+        <v>0.265533</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216358</v>
+        <v>0.216203</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.263952</v>
+        <v>0.263903</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269244</v>
+        <v>0.269416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218774</v>
+        <v>0.218881</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.26833</v>
+        <v>0.268223</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273325</v>
+        <v>0.273099</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223525</v>
+        <v>0.223345</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272807</v>
+        <v>0.272701</v>
       </c>
       <c r="C53" t="n">
-        <v>0.277787</v>
+        <v>0.277397</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227008</v>
+        <v>0.22689</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277725</v>
+        <v>0.277681</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282294</v>
+        <v>0.28182</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230774</v>
+        <v>0.230483</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282402</v>
+        <v>0.282269</v>
       </c>
       <c r="C55" t="n">
-        <v>0.286735</v>
+        <v>0.286396</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233732</v>
+        <v>0.234302</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.28758</v>
+        <v>0.287898</v>
       </c>
       <c r="C56" t="n">
-        <v>0.291766</v>
+        <v>0.291473</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238769</v>
+        <v>0.238453</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292823</v>
+        <v>0.29324</v>
       </c>
       <c r="C57" t="n">
-        <v>0.296914</v>
+        <v>0.296666</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242995</v>
+        <v>0.2427</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297435</v>
+        <v>0.297611</v>
       </c>
       <c r="C58" t="n">
-        <v>0.302212</v>
+        <v>0.302058</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247277</v>
+        <v>0.246896</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302111</v>
+        <v>0.302427</v>
       </c>
       <c r="C59" t="n">
-        <v>0.308123</v>
+        <v>0.307766</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251501</v>
+        <v>0.251498</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.307982</v>
+        <v>0.308525</v>
       </c>
       <c r="C60" t="n">
-        <v>0.314277</v>
+        <v>0.313717</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255989</v>
+        <v>0.255887</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257732</v>
+        <v>0.256778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.319993</v>
+        <v>0.319933</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260253</v>
+        <v>0.259958</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256903</v>
+        <v>0.257896</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325433</v>
+        <v>0.325541</v>
       </c>
       <c r="D62" t="n">
-        <v>0.26492</v>
+        <v>0.264681</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267292</v>
+        <v>0.266975</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33053</v>
+        <v>0.330491</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268892</v>
+        <v>0.268617</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274425</v>
+        <v>0.275546</v>
       </c>
       <c r="C64" t="n">
-        <v>0.273795</v>
+        <v>0.273455</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224193</v>
+        <v>0.225183</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.274455</v>
+        <v>0.275486</v>
       </c>
       <c r="C65" t="n">
-        <v>0.27797</v>
+        <v>0.279121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227721</v>
+        <v>0.228832</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283317</v>
+        <v>0.283086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.284914</v>
+        <v>0.28616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232917</v>
+        <v>0.233907</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.289688</v>
+        <v>0.289576</v>
       </c>
       <c r="C67" t="n">
-        <v>0.289452</v>
+        <v>0.290788</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238425</v>
+        <v>0.23873</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.296994</v>
+        <v>0.297267</v>
       </c>
       <c r="C68" t="n">
-        <v>0.296121</v>
+        <v>0.299016</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243976</v>
+        <v>0.244607</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30221</v>
+        <v>0.30547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.301941</v>
+        <v>0.302671</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251102</v>
+        <v>0.249102</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.320681</v>
+        <v>0.313047</v>
       </c>
       <c r="C70" t="n">
-        <v>0.312697</v>
+        <v>0.308441</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257264</v>
+        <v>0.254901</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.331926</v>
+        <v>0.32339</v>
       </c>
       <c r="C71" t="n">
-        <v>0.321301</v>
+        <v>0.315013</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264154</v>
+        <v>0.260513</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.346352</v>
+        <v>0.334152</v>
       </c>
       <c r="C72" t="n">
-        <v>0.329046</v>
+        <v>0.324139</v>
       </c>
       <c r="D72" t="n">
-        <v>0.273107</v>
+        <v>0.269242</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.358389</v>
+        <v>0.347389</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335882</v>
+        <v>0.334498</v>
       </c>
       <c r="D73" t="n">
-        <v>0.278039</v>
+        <v>0.276275</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.366679</v>
+        <v>0.361838</v>
       </c>
       <c r="C74" t="n">
-        <v>0.346311</v>
+        <v>0.344822</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284067</v>
+        <v>0.284364</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.37982</v>
+        <v>0.376682</v>
       </c>
       <c r="C75" t="n">
-        <v>0.356442</v>
+        <v>0.356609</v>
       </c>
       <c r="D75" t="n">
-        <v>0.293258</v>
+        <v>0.293035</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.413234</v>
+        <v>0.408437</v>
       </c>
       <c r="C76" t="n">
-        <v>0.368707</v>
+        <v>0.365956</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30169</v>
+        <v>0.302231</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.420061</v>
+        <v>0.415807</v>
       </c>
       <c r="C77" t="n">
-        <v>0.382531</v>
+        <v>0.379165</v>
       </c>
       <c r="D77" t="n">
-        <v>0.312124</v>
+        <v>0.313656</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.42639</v>
+        <v>0.43303</v>
       </c>
       <c r="C78" t="n">
-        <v>0.360256</v>
+        <v>0.358546</v>
       </c>
       <c r="D78" t="n">
-        <v>0.30591</v>
+        <v>0.304225</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.44222</v>
+        <v>0.448362</v>
       </c>
       <c r="C79" t="n">
-        <v>0.369816</v>
+        <v>0.373311</v>
       </c>
       <c r="D79" t="n">
-        <v>0.312418</v>
+        <v>0.319681</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.459196</v>
+        <v>0.465356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.382906</v>
+        <v>0.386525</v>
       </c>
       <c r="D80" t="n">
-        <v>0.326636</v>
+        <v>0.329634</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.476282</v>
+        <v>0.48213</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398571</v>
+        <v>0.397471</v>
       </c>
       <c r="D81" t="n">
-        <v>0.339535</v>
+        <v>0.342401</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.49552</v>
+        <v>0.494365</v>
       </c>
       <c r="C82" t="n">
-        <v>0.417075</v>
+        <v>0.418765</v>
       </c>
       <c r="D82" t="n">
-        <v>0.355054</v>
+        <v>0.353169</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.514361</v>
+        <v>0.517423</v>
       </c>
       <c r="C83" t="n">
-        <v>0.431302</v>
+        <v>0.432783</v>
       </c>
       <c r="D83" t="n">
-        <v>0.369074</v>
+        <v>0.368973</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5339699999999999</v>
+        <v>0.53739</v>
       </c>
       <c r="C84" t="n">
-        <v>0.452547</v>
+        <v>0.448954</v>
       </c>
       <c r="D84" t="n">
-        <v>0.384602</v>
+        <v>0.385703</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.556437</v>
+        <v>0.556078</v>
       </c>
       <c r="C85" t="n">
-        <v>0.472704</v>
+        <v>0.474282</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402888</v>
+        <v>0.402689</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.576597</v>
+        <v>0.5789339999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.49327</v>
+        <v>0.493694</v>
       </c>
       <c r="D86" t="n">
-        <v>0.418884</v>
+        <v>0.422964</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.600955</v>
+        <v>0.599465</v>
       </c>
       <c r="C87" t="n">
-        <v>0.510203</v>
+        <v>0.509405</v>
       </c>
       <c r="D87" t="n">
-        <v>0.433187</v>
+        <v>0.429715</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6222490000000001</v>
+        <v>0.622897</v>
       </c>
       <c r="C88" t="n">
-        <v>0.532844</v>
+        <v>0.5276420000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452493</v>
+        <v>0.44819</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.645414</v>
+        <v>0.645386</v>
       </c>
       <c r="C89" t="n">
-        <v>0.555245</v>
+        <v>0.550704</v>
       </c>
       <c r="D89" t="n">
-        <v>0.469917</v>
+        <v>0.466115</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.671277</v>
+        <v>0.670452</v>
       </c>
       <c r="C90" t="n">
-        <v>0.573056</v>
+        <v>0.574899</v>
       </c>
       <c r="D90" t="n">
-        <v>0.489495</v>
+        <v>0.484931</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.674745</v>
+        <v>0.676223</v>
       </c>
       <c r="C91" t="n">
-        <v>0.599287</v>
+        <v>0.596577</v>
       </c>
       <c r="D91" t="n">
-        <v>0.499166</v>
+        <v>0.496528</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.684867</v>
+        <v>0.686216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599038</v>
+        <v>0.598763</v>
       </c>
       <c r="D92" t="n">
-        <v>0.506736</v>
+        <v>0.506556</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693883</v>
+        <v>0.69413</v>
       </c>
       <c r="C93" t="n">
-        <v>0.612969</v>
+        <v>0.611193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519599</v>
+        <v>0.517872</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.704836</v>
+        <v>0.705161</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6267740000000001</v>
+        <v>0.625617</v>
       </c>
       <c r="D94" t="n">
-        <v>0.528613</v>
+        <v>0.52785</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716572</v>
+        <v>0.717244</v>
       </c>
       <c r="C95" t="n">
-        <v>0.640391</v>
+        <v>0.640896</v>
       </c>
       <c r="D95" t="n">
-        <v>0.54279</v>
+        <v>0.544444</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.728653</v>
+        <v>0.729375</v>
       </c>
       <c r="C96" t="n">
-        <v>0.653301</v>
+        <v>0.656405</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558127</v>
+        <v>0.555293</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.743373</v>
+        <v>0.742433</v>
       </c>
       <c r="C97" t="n">
-        <v>0.671009</v>
+        <v>0.670315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.569084</v>
+        <v>0.569389</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.758057</v>
+        <v>0.759087</v>
       </c>
       <c r="C98" t="n">
-        <v>0.686703</v>
+        <v>0.686267</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583577</v>
+        <v>0.582946</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.773899</v>
+        <v>0.774365</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7038</v>
+        <v>0.703501</v>
       </c>
       <c r="D99" t="n">
-        <v>0.596505</v>
+        <v>0.596206</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7914099999999999</v>
+        <v>0.791909</v>
       </c>
       <c r="C100" t="n">
-        <v>0.721801</v>
+        <v>0.72131</v>
       </c>
       <c r="D100" t="n">
-        <v>0.609876</v>
+        <v>0.6101490000000001</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.80898</v>
+        <v>0.809324</v>
       </c>
       <c r="C101" t="n">
-        <v>0.740287</v>
+        <v>0.740301</v>
       </c>
       <c r="D101" t="n">
-        <v>0.623942</v>
+        <v>0.624194</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.82786</v>
+        <v>0.828491</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7615690000000001</v>
+        <v>0.7615189999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.639957</v>
+        <v>0.641742</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.847658</v>
+        <v>0.848394</v>
       </c>
       <c r="C103" t="n">
-        <v>0.782631</v>
+        <v>0.782481</v>
       </c>
       <c r="D103" t="n">
-        <v>0.655284</v>
+        <v>0.656439</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.868498</v>
+        <v>0.869225</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8055870000000001</v>
+        <v>0.805384</v>
       </c>
       <c r="D104" t="n">
-        <v>0.670683</v>
+        <v>0.672395</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7942709999999999</v>
+        <v>0.795529</v>
       </c>
       <c r="C105" t="n">
-        <v>0.828151</v>
+        <v>0.828498</v>
       </c>
       <c r="D105" t="n">
-        <v>0.691198</v>
+        <v>0.690569</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.801204</v>
+        <v>0.801427</v>
       </c>
       <c r="C106" t="n">
-        <v>0.851034</v>
+        <v>0.853006</v>
       </c>
       <c r="D106" t="n">
-        <v>0.708885</v>
+        <v>0.7105900000000001</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809335</v>
+        <v>0.809541</v>
       </c>
       <c r="C107" t="n">
-        <v>0.782991</v>
+        <v>0.783784</v>
       </c>
       <c r="D107" t="n">
-        <v>0.650627</v>
+        <v>0.651305</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818546</v>
+        <v>0.818253</v>
       </c>
       <c r="C108" t="n">
-        <v>0.795656</v>
+        <v>0.795364</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661516</v>
+        <v>0.661557</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.827234</v>
+        <v>0.82906</v>
       </c>
       <c r="C109" t="n">
-        <v>0.806893</v>
+        <v>0.8075560000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67236</v>
+        <v>0.673465</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839066</v>
+        <v>0.838572</v>
       </c>
       <c r="C110" t="n">
-        <v>0.819708</v>
+        <v>0.820673</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6852470000000001</v>
+        <v>0.684968</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.849465</v>
+        <v>0.84996</v>
       </c>
       <c r="C111" t="n">
-        <v>0.833967</v>
+        <v>0.834506</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696736</v>
+        <v>0.69745</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.863297</v>
+        <v>0.8640409999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.848723</v>
+        <v>0.849142</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7099800000000001</v>
+        <v>0.710979</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.877649</v>
+        <v>0.878241</v>
       </c>
       <c r="C113" t="n">
-        <v>0.863442</v>
+        <v>0.864169</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722884</v>
+        <v>0.723826</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.89323</v>
+        <v>0.893957</v>
       </c>
       <c r="C114" t="n">
-        <v>0.879844</v>
+        <v>0.8790519999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.737618</v>
+        <v>0.738482</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.910211</v>
+        <v>0.910867</v>
       </c>
       <c r="C115" t="n">
-        <v>0.895757</v>
+        <v>0.8965109999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7522450000000001</v>
+        <v>0.752754</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.929412</v>
+        <v>0.929261</v>
       </c>
       <c r="C116" t="n">
-        <v>0.915565</v>
+        <v>0.914238</v>
       </c>
       <c r="D116" t="n">
-        <v>0.764356</v>
+        <v>0.765082</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.948867</v>
+        <v>0.948352</v>
       </c>
       <c r="C117" t="n">
-        <v>0.935606</v>
+        <v>0.9331</v>
       </c>
       <c r="D117" t="n">
-        <v>0.77873</v>
+        <v>0.779271</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.969824</v>
+        <v>0.969614</v>
       </c>
       <c r="C118" t="n">
-        <v>0.955502</v>
+        <v>0.954321</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795654</v>
+        <v>0.796359</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8606819999999999</v>
+        <v>0.860098</v>
       </c>
       <c r="C119" t="n">
-        <v>0.977141</v>
+        <v>0.974917</v>
       </c>
       <c r="D119" t="n">
-        <v>0.810114</v>
+        <v>0.810415</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249914</v>
+        <v>0.248486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20772</v>
+        <v>0.205163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155135</v>
+        <v>0.154255</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22062</v>
+        <v>0.218946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211689</v>
+        <v>0.209223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153838</v>
+        <v>0.153413</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224715</v>
+        <v>0.223461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215306</v>
+        <v>0.214529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159547</v>
+        <v>0.159001</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230207</v>
+        <v>0.228837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222402</v>
+        <v>0.220744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16231</v>
+        <v>0.161847</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231943</v>
+        <v>0.229428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228244</v>
+        <v>0.225749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166807</v>
+        <v>0.166081</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.235799</v>
+        <v>0.233357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211288</v>
+        <v>0.2093</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163681</v>
+        <v>0.161235</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.237331</v>
+        <v>0.235155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213366</v>
+        <v>0.213233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.165322</v>
+        <v>0.166228</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.238196</v>
+        <v>0.237085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21833</v>
+        <v>0.217842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169877</v>
+        <v>0.167352</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242655</v>
+        <v>0.240458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223551</v>
+        <v>0.222263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168496</v>
+        <v>0.16824</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243072</v>
+        <v>0.241233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218682</v>
+        <v>0.219816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.172572</v>
+        <v>0.170874</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256543</v>
+        <v>0.253963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232787</v>
+        <v>0.230224</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17727</v>
+        <v>0.17394</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257111</v>
+        <v>0.256664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229954</v>
+        <v>0.229734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178863</v>
+        <v>0.177347</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25782</v>
+        <v>0.256526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233144</v>
+        <v>0.232179</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177952</v>
+        <v>0.177455</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265659</v>
+        <v>0.264696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237487</v>
+        <v>0.237211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182477</v>
+        <v>0.182481</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272167</v>
+        <v>0.271018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243806</v>
+        <v>0.242349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.185759</v>
+        <v>0.182625</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278191</v>
+        <v>0.275786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247903</v>
+        <v>0.246117</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185779</v>
+        <v>0.185966</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255246</v>
+        <v>0.256645</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252222</v>
+        <v>0.254645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18889</v>
+        <v>0.187516</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.261683</v>
+        <v>0.261413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.259034</v>
+        <v>0.257469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192781</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265569</v>
+        <v>0.264909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.266957</v>
+        <v>0.265673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.194864</v>
+        <v>0.196365</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272011</v>
+        <v>0.272407</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246214</v>
+        <v>0.246137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192669</v>
+        <v>0.193558</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.274392</v>
+        <v>0.272882</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25278</v>
+        <v>0.253782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195252</v>
+        <v>0.196065</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.278425</v>
+        <v>0.277979</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255757</v>
+        <v>0.251192</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198054</v>
+        <v>0.19831</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281903</v>
+        <v>0.280165</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265542</v>
+        <v>0.265889</v>
       </c>
       <c r="D24" t="n">
-        <v>0.202794</v>
+        <v>0.201361</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284297</v>
+        <v>0.284131</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27496</v>
+        <v>0.275627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203894</v>
+        <v>0.205236</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293465</v>
+        <v>0.293576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.277561</v>
+        <v>0.27629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208517</v>
+        <v>0.208381</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295811</v>
+        <v>0.29525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.284079</v>
+        <v>0.284935</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21118</v>
+        <v>0.211733</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.299641</v>
+        <v>0.297908</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286515</v>
+        <v>0.286947</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213732</v>
+        <v>0.213387</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.308149</v>
+        <v>0.306635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292722</v>
+        <v>0.294092</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215967</v>
+        <v>0.215921</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.312178</v>
+        <v>0.310499</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303965</v>
+        <v>0.305184</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220029</v>
+        <v>0.219548</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.315401</v>
+        <v>0.3144</v>
       </c>
       <c r="C31" t="n">
-        <v>0.303102</v>
+        <v>0.303986</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222527</v>
+        <v>0.221947</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281475</v>
+        <v>0.280639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.313412</v>
+        <v>0.311884</v>
       </c>
       <c r="D32" t="n">
-        <v>0.226696</v>
+        <v>0.225058</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286895</v>
+        <v>0.285669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.322152</v>
+        <v>0.323723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.231163</v>
+        <v>0.228997</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.292594</v>
+        <v>0.291487</v>
       </c>
       <c r="C34" t="n">
-        <v>0.326316</v>
+        <v>0.327334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233401</v>
+        <v>0.232727</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293212</v>
+        <v>0.292396</v>
       </c>
       <c r="C35" t="n">
-        <v>0.263976</v>
+        <v>0.264245</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211329</v>
+        <v>0.211324</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.298365</v>
+        <v>0.297134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.269998</v>
+        <v>0.270953</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212802</v>
+        <v>0.212657</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304239</v>
+        <v>0.304328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.273684</v>
+        <v>0.274541</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214524</v>
+        <v>0.215041</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306655</v>
+        <v>0.306163</v>
       </c>
       <c r="C38" t="n">
-        <v>0.277611</v>
+        <v>0.278269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216438</v>
+        <v>0.216743</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312869</v>
+        <v>0.313092</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285804</v>
+        <v>0.28575</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219201</v>
+        <v>0.219691</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.32092</v>
+        <v>0.321338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.288568</v>
+        <v>0.288344</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22208</v>
+        <v>0.221706</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326525</v>
+        <v>0.326984</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292272</v>
+        <v>0.293316</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223333</v>
+        <v>0.222807</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.33108</v>
+        <v>0.331044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294887</v>
+        <v>0.295094</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224084</v>
+        <v>0.224226</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336922</v>
+        <v>0.337234</v>
       </c>
       <c r="C43" t="n">
-        <v>0.300032</v>
+        <v>0.300652</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227803</v>
+        <v>0.227981</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340178</v>
+        <v>0.340377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.304925</v>
+        <v>0.305664</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228392</v>
+        <v>0.229246</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348449</v>
+        <v>0.348688</v>
       </c>
       <c r="C45" t="n">
-        <v>0.308523</v>
+        <v>0.30897</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23149</v>
+        <v>0.232345</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349669</v>
+        <v>0.349522</v>
       </c>
       <c r="C46" t="n">
-        <v>0.310064</v>
+        <v>0.309855</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232663</v>
+        <v>0.232777</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289417</v>
+        <v>0.289073</v>
       </c>
       <c r="C47" t="n">
-        <v>0.316266</v>
+        <v>0.316772</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234119</v>
+        <v>0.234392</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294047</v>
+        <v>0.294039</v>
       </c>
       <c r="C48" t="n">
-        <v>0.320936</v>
+        <v>0.321579</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236041</v>
+        <v>0.236238</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297524</v>
+        <v>0.297362</v>
       </c>
       <c r="C49" t="n">
-        <v>0.326185</v>
+        <v>0.326505</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238253</v>
+        <v>0.238553</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301008</v>
+        <v>0.301042</v>
       </c>
       <c r="C50" t="n">
-        <v>0.293957</v>
+        <v>0.29393</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223512</v>
+        <v>0.22385</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304328</v>
+        <v>0.303726</v>
       </c>
       <c r="C51" t="n">
-        <v>0.297574</v>
+        <v>0.297409</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226822</v>
+        <v>0.226731</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.30642</v>
+        <v>0.306413</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300019</v>
+        <v>0.300772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227894</v>
+        <v>0.227514</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312059</v>
+        <v>0.311966</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305303</v>
+        <v>0.306291</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229528</v>
+        <v>0.229423</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320667</v>
+        <v>0.320704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.31024</v>
+        <v>0.310208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233007</v>
+        <v>0.232505</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319895</v>
+        <v>0.319462</v>
       </c>
       <c r="C55" t="n">
-        <v>0.316153</v>
+        <v>0.316341</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234129</v>
+        <v>0.233424</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325569</v>
+        <v>0.324969</v>
       </c>
       <c r="C56" t="n">
-        <v>0.316062</v>
+        <v>0.315992</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235361</v>
+        <v>0.234922</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332966</v>
+        <v>0.332605</v>
       </c>
       <c r="C57" t="n">
-        <v>0.324304</v>
+        <v>0.32473</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237747</v>
+        <v>0.237584</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334816</v>
+        <v>0.333921</v>
       </c>
       <c r="C58" t="n">
-        <v>0.331662</v>
+        <v>0.332278</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241036</v>
+        <v>0.24114</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.34279</v>
+        <v>0.341776</v>
       </c>
       <c r="C59" t="n">
-        <v>0.338786</v>
+        <v>0.339215</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244962</v>
+        <v>0.245143</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347799</v>
+        <v>0.34692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.343645</v>
+        <v>0.344208</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248111</v>
+        <v>0.247894</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.306656</v>
+        <v>0.304291</v>
       </c>
       <c r="C61" t="n">
-        <v>0.348988</v>
+        <v>0.349593</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249112</v>
+        <v>0.249204</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312237</v>
+        <v>0.312613</v>
       </c>
       <c r="C62" t="n">
-        <v>0.352994</v>
+        <v>0.351683</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250962</v>
+        <v>0.250923</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.32063</v>
+        <v>0.318834</v>
       </c>
       <c r="C63" t="n">
-        <v>0.360013</v>
+        <v>0.360368</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254622</v>
+        <v>0.254734</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.328682</v>
+        <v>0.323849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.321341</v>
+        <v>0.321247</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242385</v>
+        <v>0.242141</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.330754</v>
+        <v>0.328609</v>
       </c>
       <c r="C65" t="n">
-        <v>0.325789</v>
+        <v>0.32495</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242983</v>
+        <v>0.242702</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.338228</v>
+        <v>0.336291</v>
       </c>
       <c r="C66" t="n">
-        <v>0.329019</v>
+        <v>0.329087</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243718</v>
+        <v>0.243841</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350204</v>
+        <v>0.345625</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3361</v>
+        <v>0.336117</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246683</v>
+        <v>0.246936</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.357155</v>
+        <v>0.354812</v>
       </c>
       <c r="C68" t="n">
-        <v>0.341135</v>
+        <v>0.340979</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24892</v>
+        <v>0.248908</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360785</v>
+        <v>0.361876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.34635</v>
+        <v>0.345285</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251555</v>
+        <v>0.251814</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.372446</v>
+        <v>0.370666</v>
       </c>
       <c r="C70" t="n">
-        <v>0.352696</v>
+        <v>0.352702</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256137</v>
+        <v>0.256457</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.384402</v>
+        <v>0.382239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.361085</v>
+        <v>0.359929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260563</v>
+        <v>0.259856</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.389656</v>
+        <v>0.389147</v>
       </c>
       <c r="C72" t="n">
-        <v>0.369828</v>
+        <v>0.368871</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261925</v>
+        <v>0.262184</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.405688</v>
+        <v>0.40158</v>
       </c>
       <c r="C73" t="n">
-        <v>0.378748</v>
+        <v>0.378389</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266545</v>
+        <v>0.26773</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.41685</v>
+        <v>0.41458</v>
       </c>
       <c r="C74" t="n">
-        <v>0.387931</v>
+        <v>0.385413</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26845</v>
+        <v>0.26919</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.431045</v>
+        <v>0.431064</v>
       </c>
       <c r="C75" t="n">
-        <v>0.395649</v>
+        <v>0.393402</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272327</v>
+        <v>0.27254</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.439863</v>
+        <v>0.429516</v>
       </c>
       <c r="C76" t="n">
-        <v>0.405208</v>
+        <v>0.406948</v>
       </c>
       <c r="D76" t="n">
-        <v>0.276002</v>
+        <v>0.276899</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.455312</v>
+        <v>0.452726</v>
       </c>
       <c r="C77" t="n">
-        <v>0.428904</v>
+        <v>0.416437</v>
       </c>
       <c r="D77" t="n">
-        <v>0.284494</v>
+        <v>0.284008</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.473793</v>
+        <v>0.483381</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372188</v>
+        <v>0.363942</v>
       </c>
       <c r="D78" t="n">
-        <v>0.274468</v>
+        <v>0.274463</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.503713</v>
+        <v>0.494137</v>
       </c>
       <c r="C79" t="n">
-        <v>0.385679</v>
+        <v>0.376388</v>
       </c>
       <c r="D79" t="n">
-        <v>0.280898</v>
+        <v>0.280467</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.523554</v>
+        <v>0.531806</v>
       </c>
       <c r="C80" t="n">
-        <v>0.404152</v>
+        <v>0.392441</v>
       </c>
       <c r="D80" t="n">
-        <v>0.289567</v>
+        <v>0.29248</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5587299999999999</v>
+        <v>0.554555</v>
       </c>
       <c r="C81" t="n">
-        <v>0.409434</v>
+        <v>0.411749</v>
       </c>
       <c r="D81" t="n">
-        <v>0.291598</v>
+        <v>0.295164</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5817639999999999</v>
+        <v>0.579448</v>
       </c>
       <c r="C82" t="n">
-        <v>0.430144</v>
+        <v>0.42839</v>
       </c>
       <c r="D82" t="n">
-        <v>0.305503</v>
+        <v>0.307237</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.617717</v>
+        <v>0.62327</v>
       </c>
       <c r="C83" t="n">
-        <v>0.445783</v>
+        <v>0.438089</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314833</v>
+        <v>0.315617</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.667892</v>
+        <v>0.659716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.473331</v>
+        <v>0.467863</v>
       </c>
       <c r="D84" t="n">
-        <v>0.333442</v>
+        <v>0.321728</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.694396</v>
+        <v>0.699038</v>
       </c>
       <c r="C85" t="n">
-        <v>0.495052</v>
+        <v>0.491766</v>
       </c>
       <c r="D85" t="n">
-        <v>0.338267</v>
+        <v>0.332582</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.740139</v>
+        <v>0.733884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.518784</v>
+        <v>0.512584</v>
       </c>
       <c r="D86" t="n">
-        <v>0.349555</v>
+        <v>0.344523</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.776259</v>
+        <v>0.775012</v>
       </c>
       <c r="C87" t="n">
-        <v>0.547924</v>
+        <v>0.543589</v>
       </c>
       <c r="D87" t="n">
-        <v>0.360129</v>
+        <v>0.364483</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.821747</v>
+        <v>0.821224</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5725479999999999</v>
+        <v>0.571118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.374051</v>
+        <v>0.378331</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.86961</v>
+        <v>0.873777</v>
       </c>
       <c r="C89" t="n">
-        <v>0.61044</v>
+        <v>0.606681</v>
       </c>
       <c r="D89" t="n">
-        <v>0.391345</v>
+        <v>0.394939</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.868823</v>
+        <v>0.870283</v>
       </c>
       <c r="C90" t="n">
-        <v>0.633362</v>
+        <v>0.637899</v>
       </c>
       <c r="D90" t="n">
-        <v>0.410292</v>
+        <v>0.415444</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.902142</v>
+        <v>0.90842</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6784559999999999</v>
+        <v>0.680719</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41806</v>
+        <v>0.419222</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9366409999999999</v>
+        <v>0.942088</v>
       </c>
       <c r="C92" t="n">
-        <v>0.697962</v>
+        <v>0.702673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.500313</v>
+        <v>0.50591</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9672539999999999</v>
+        <v>0.973033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.732005</v>
+        <v>0.73486</v>
       </c>
       <c r="D93" t="n">
-        <v>0.518927</v>
+        <v>0.521185</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00283</v>
+        <v>1.00821</v>
       </c>
       <c r="C94" t="n">
-        <v>0.765616</v>
+        <v>0.769244</v>
       </c>
       <c r="D94" t="n">
-        <v>0.535911</v>
+        <v>0.539835</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03871</v>
+        <v>1.04673</v>
       </c>
       <c r="C95" t="n">
-        <v>0.79817</v>
+        <v>0.800728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.556887</v>
+        <v>0.559816</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07279</v>
+        <v>1.07841</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8343429999999999</v>
+        <v>0.837268</v>
       </c>
       <c r="D96" t="n">
-        <v>0.577328</v>
+        <v>0.580159</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11067</v>
+        <v>1.11559</v>
       </c>
       <c r="C97" t="n">
-        <v>0.871129</v>
+        <v>0.873981</v>
       </c>
       <c r="D97" t="n">
-        <v>0.593249</v>
+        <v>0.597778</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.14529</v>
+        <v>1.15084</v>
       </c>
       <c r="C98" t="n">
-        <v>0.905958</v>
+        <v>0.908999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.615093</v>
+        <v>0.618942</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17907</v>
+        <v>1.18475</v>
       </c>
       <c r="C99" t="n">
-        <v>0.947496</v>
+        <v>0.950827</v>
       </c>
       <c r="D99" t="n">
-        <v>0.639404</v>
+        <v>0.640997</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21809</v>
+        <v>1.22408</v>
       </c>
       <c r="C100" t="n">
-        <v>0.988652</v>
+        <v>0.991822</v>
       </c>
       <c r="D100" t="n">
-        <v>0.65448</v>
+        <v>0.65805</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25321</v>
+        <v>1.2607</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02597</v>
+        <v>1.03026</v>
       </c>
       <c r="D101" t="n">
-        <v>0.675312</v>
+        <v>0.679776</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28792</v>
+        <v>1.29549</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07037</v>
+        <v>1.07407</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6976329999999999</v>
+        <v>0.7022350000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.32522</v>
+        <v>1.334</v>
       </c>
       <c r="C103" t="n">
-        <v>1.10832</v>
+        <v>1.11262</v>
       </c>
       <c r="D103" t="n">
-        <v>0.716191</v>
+        <v>0.721874</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.36447</v>
+        <v>1.37183</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14829</v>
+        <v>1.15237</v>
       </c>
       <c r="D104" t="n">
-        <v>0.736779</v>
+        <v>0.741374</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.25201</v>
+        <v>1.26131</v>
       </c>
       <c r="C105" t="n">
-        <v>1.1944</v>
+        <v>1.19944</v>
       </c>
       <c r="D105" t="n">
-        <v>0.761201</v>
+        <v>0.763653</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.27576</v>
+        <v>1.28384</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23827</v>
+        <v>1.2414</v>
       </c>
       <c r="D106" t="n">
-        <v>0.779596</v>
+        <v>0.782787</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.30021</v>
+        <v>1.30646</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13951</v>
+        <v>1.14397</v>
       </c>
       <c r="D107" t="n">
-        <v>0.787178</v>
+        <v>0.791851</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.31994</v>
+        <v>1.32998</v>
       </c>
       <c r="C108" t="n">
-        <v>1.16511</v>
+        <v>1.16905</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8059770000000001</v>
+        <v>0.810038</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.34734</v>
+        <v>1.35555</v>
       </c>
       <c r="C109" t="n">
-        <v>1.19785</v>
+        <v>1.20114</v>
       </c>
       <c r="D109" t="n">
-        <v>0.817993</v>
+        <v>0.8200539999999999</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3679</v>
+        <v>1.37776</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22473</v>
+        <v>1.22934</v>
       </c>
       <c r="D110" t="n">
-        <v>0.83366</v>
+        <v>0.838768</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.39647</v>
+        <v>1.40557</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2556</v>
+        <v>1.25822</v>
       </c>
       <c r="D111" t="n">
-        <v>0.847803</v>
+        <v>0.850485</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42346</v>
+        <v>1.43063</v>
       </c>
       <c r="C112" t="n">
-        <v>1.292</v>
+        <v>1.29452</v>
       </c>
       <c r="D112" t="n">
-        <v>0.86604</v>
+        <v>0.8706199999999999</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45191</v>
+        <v>1.46122</v>
       </c>
       <c r="C113" t="n">
-        <v>1.32764</v>
+        <v>1.32962</v>
       </c>
       <c r="D113" t="n">
-        <v>0.878897</v>
+        <v>0.885093</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.478</v>
+        <v>1.49089</v>
       </c>
       <c r="C114" t="n">
-        <v>1.35336</v>
+        <v>1.35999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8915999999999999</v>
+        <v>0.897587</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.50936</v>
+        <v>1.51855</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39337</v>
+        <v>1.39598</v>
       </c>
       <c r="D115" t="n">
-        <v>0.906702</v>
+        <v>0.912538</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53908</v>
+        <v>1.54925</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42701</v>
+        <v>1.4296</v>
       </c>
       <c r="D116" t="n">
-        <v>0.919772</v>
+        <v>0.925754</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.57141</v>
+        <v>1.58223</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46113</v>
+        <v>1.46405</v>
       </c>
       <c r="D117" t="n">
-        <v>0.934373</v>
+        <v>0.940116</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.60557</v>
+        <v>1.61604</v>
       </c>
       <c r="C118" t="n">
-        <v>1.5026</v>
+        <v>1.50526</v>
       </c>
       <c r="D118" t="n">
-        <v>0.953968</v>
+        <v>0.959931</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.43366</v>
+        <v>1.44298</v>
       </c>
       <c r="C119" t="n">
-        <v>1.53705</v>
+        <v>1.54254</v>
       </c>
       <c r="D119" t="n">
-        <v>0.968262</v>
+        <v>0.9738790000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392622</v>
+        <v>0.392993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.333497</v>
+        <v>0.33491</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21695</v>
+        <v>0.217075</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402754</v>
+        <v>0.401928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.33614</v>
+        <v>0.3371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219971</v>
+        <v>0.21996</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.415753</v>
+        <v>0.414803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.348742</v>
+        <v>0.351107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229798</v>
+        <v>0.229615</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420732</v>
+        <v>0.420434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368825</v>
+        <v>0.364047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23506</v>
+        <v>0.234494</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44758</v>
+        <v>0.439654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.372393</v>
+        <v>0.3698</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239059</v>
+        <v>0.23849</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.45609</v>
+        <v>0.450165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391073</v>
+        <v>0.385378</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247016</v>
+        <v>0.245085</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.469338</v>
+        <v>0.46397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.403537</v>
+        <v>0.397979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.259155</v>
+        <v>0.255998</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.491814</v>
+        <v>0.483821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.426852</v>
+        <v>0.421214</v>
       </c>
       <c r="D9" t="n">
-        <v>0.266571</v>
+        <v>0.263498</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.506875</v>
+        <v>0.500035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.447913</v>
+        <v>0.439103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27756</v>
+        <v>0.274954</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.524969</v>
+        <v>0.5151019999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349562</v>
+        <v>0.341738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221392</v>
+        <v>0.218776</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.390713</v>
+        <v>0.384208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.353725</v>
+        <v>0.345942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.224327</v>
+        <v>0.221738</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.402207</v>
+        <v>0.395298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.363133</v>
+        <v>0.356451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232754</v>
+        <v>0.229956</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413382</v>
+        <v>0.40596</v>
       </c>
       <c r="C14" t="n">
-        <v>0.379809</v>
+        <v>0.371248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235256</v>
+        <v>0.231377</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.43466</v>
+        <v>0.425347</v>
       </c>
       <c r="C15" t="n">
-        <v>0.384375</v>
+        <v>0.383748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23906</v>
+        <v>0.238729</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.444371</v>
+        <v>0.43697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.410126</v>
+        <v>0.40569</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248285</v>
+        <v>0.244466</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454156</v>
+        <v>0.449627</v>
       </c>
       <c r="C17" t="n">
-        <v>0.421498</v>
+        <v>0.412601</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254454</v>
+        <v>0.251995</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.47503</v>
+        <v>0.472371</v>
       </c>
       <c r="C18" t="n">
-        <v>0.429736</v>
+        <v>0.426075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254783</v>
+        <v>0.251726</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.487769</v>
+        <v>0.485822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.450256</v>
+        <v>0.447083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.266162</v>
+        <v>0.265043</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.505847</v>
+        <v>0.503984</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479635</v>
+        <v>0.476883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276107</v>
+        <v>0.274392</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523821</v>
+        <v>0.52246</v>
       </c>
       <c r="C21" t="n">
-        <v>0.492886</v>
+        <v>0.489722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.290813</v>
+        <v>0.290131</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.546222</v>
+        <v>0.543191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.518772</v>
+        <v>0.517736</v>
       </c>
       <c r="D22" t="n">
-        <v>0.29679</v>
+        <v>0.296058</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.561789</v>
+        <v>0.559783</v>
       </c>
       <c r="C23" t="n">
-        <v>0.542892</v>
+        <v>0.540764</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309681</v>
+        <v>0.311079</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.599241</v>
+        <v>0.596702</v>
       </c>
       <c r="C24" t="n">
-        <v>0.561582</v>
+        <v>0.564032</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316092</v>
+        <v>0.317677</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631436</v>
+        <v>0.631639</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5882230000000001</v>
+        <v>0.5887289999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.33313</v>
+        <v>0.330517</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.659153</v>
+        <v>0.657685</v>
       </c>
       <c r="C26" t="n">
-        <v>0.389686</v>
+        <v>0.388671</v>
       </c>
       <c r="D26" t="n">
-        <v>0.237919</v>
+        <v>0.239307</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.434161</v>
+        <v>0.434297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.394229</v>
+        <v>0.394237</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239583</v>
+        <v>0.241392</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.450732</v>
+        <v>0.450595</v>
       </c>
       <c r="C28" t="n">
-        <v>0.406303</v>
+        <v>0.40717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249596</v>
+        <v>0.247134</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.466003</v>
+        <v>0.466326</v>
       </c>
       <c r="C29" t="n">
-        <v>0.417724</v>
+        <v>0.418203</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252913</v>
+        <v>0.252495</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484396</v>
+        <v>0.483125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.435454</v>
+        <v>0.435458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260797</v>
+        <v>0.259139</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.499984</v>
+        <v>0.49911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.450944</v>
+        <v>0.451823</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267125</v>
+        <v>0.267331</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.516587</v>
+        <v>0.516476</v>
       </c>
       <c r="C32" t="n">
-        <v>0.467722</v>
+        <v>0.469483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.276117</v>
+        <v>0.274975</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544088</v>
+        <v>0.544685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.486675</v>
+        <v>0.487569</v>
       </c>
       <c r="D33" t="n">
-        <v>0.282783</v>
+        <v>0.284328</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55765</v>
+        <v>0.558532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.507226</v>
+        <v>0.508922</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292726</v>
+        <v>0.294189</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.582139</v>
+        <v>0.583928</v>
       </c>
       <c r="C35" t="n">
-        <v>0.530079</v>
+        <v>0.531567</v>
       </c>
       <c r="D35" t="n">
-        <v>0.303685</v>
+        <v>0.303928</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.602334</v>
+        <v>0.603387</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554119</v>
+        <v>0.554598</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313697</v>
+        <v>0.314709</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.617826</v>
+        <v>0.618083</v>
       </c>
       <c r="C37" t="n">
-        <v>0.578263</v>
+        <v>0.580952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.323586</v>
+        <v>0.324138</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.64389</v>
+        <v>0.6440940000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.603617</v>
+        <v>0.60572</v>
       </c>
       <c r="D38" t="n">
-        <v>0.332591</v>
+        <v>0.334572</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.676167</v>
+        <v>0.676333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.631233</v>
+        <v>0.633092</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346281</v>
+        <v>0.347268</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.698222</v>
+        <v>0.699055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453218</v>
+        <v>0.453961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281147</v>
+        <v>0.280845</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504506</v>
+        <v>0.505348</v>
       </c>
       <c r="C41" t="n">
-        <v>0.465002</v>
+        <v>0.465531</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287342</v>
+        <v>0.28838</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.516302</v>
+        <v>0.517283</v>
       </c>
       <c r="C42" t="n">
-        <v>0.483342</v>
+        <v>0.484931</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294751</v>
+        <v>0.294814</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.52965</v>
+        <v>0.531016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496806</v>
+        <v>0.497984</v>
       </c>
       <c r="D43" t="n">
-        <v>0.300977</v>
+        <v>0.302417</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545876</v>
+        <v>0.546841</v>
       </c>
       <c r="C44" t="n">
-        <v>0.519577</v>
+        <v>0.520627</v>
       </c>
       <c r="D44" t="n">
-        <v>0.309762</v>
+        <v>0.310058</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.563659</v>
+        <v>0.563156</v>
       </c>
       <c r="C45" t="n">
-        <v>0.533005</v>
+        <v>0.534155</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315125</v>
+        <v>0.315577</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.574844</v>
+        <v>0.575029</v>
       </c>
       <c r="C46" t="n">
-        <v>0.553513</v>
+        <v>0.554582</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322699</v>
+        <v>0.322705</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.598321</v>
+        <v>0.598283</v>
       </c>
       <c r="C47" t="n">
-        <v>0.570758</v>
+        <v>0.572499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331934</v>
+        <v>0.33325</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.614583</v>
+        <v>0.615475</v>
       </c>
       <c r="C48" t="n">
-        <v>0.585806</v>
+        <v>0.587403</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342559</v>
+        <v>0.343182</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.627284</v>
+        <v>0.627225</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6085120000000001</v>
+        <v>0.610646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349555</v>
+        <v>0.348846</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.656081</v>
+        <v>0.656066</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6296079999999999</v>
+        <v>0.631308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357634</v>
+        <v>0.357845</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.680466</v>
+        <v>0.68025</v>
       </c>
       <c r="C51" t="n">
-        <v>0.654936</v>
+        <v>0.656355</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370639</v>
+        <v>0.37099</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.706804</v>
+        <v>0.706265</v>
       </c>
       <c r="C52" t="n">
-        <v>0.681777</v>
+        <v>0.684142</v>
       </c>
       <c r="D52" t="n">
-        <v>0.380627</v>
+        <v>0.381067</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.732352</v>
+        <v>0.732866</v>
       </c>
       <c r="C53" t="n">
-        <v>0.704784</v>
+        <v>0.708073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.394003</v>
+        <v>0.394305</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7589590000000001</v>
+        <v>0.75952</v>
       </c>
       <c r="C54" t="n">
-        <v>0.511011</v>
+        <v>0.51213</v>
       </c>
       <c r="D54" t="n">
-        <v>0.314725</v>
+        <v>0.313935</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.789897</v>
+        <v>0.790707</v>
       </c>
       <c r="C55" t="n">
-        <v>0.519583</v>
+        <v>0.5220359999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.320798</v>
+        <v>0.319881</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5385450000000001</v>
+        <v>0.536975</v>
       </c>
       <c r="C56" t="n">
-        <v>0.536862</v>
+        <v>0.538146</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327337</v>
+        <v>0.326187</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5530969999999999</v>
+        <v>0.5520620000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.550971</v>
+        <v>0.552719</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331995</v>
+        <v>0.330975</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5679959999999999</v>
+        <v>0.567536</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565372</v>
+        <v>0.566979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33809</v>
+        <v>0.337795</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5828989999999999</v>
+        <v>0.582109</v>
       </c>
       <c r="C59" t="n">
-        <v>0.582784</v>
+        <v>0.584597</v>
       </c>
       <c r="D59" t="n">
-        <v>0.348551</v>
+        <v>0.346983</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.592351</v>
+        <v>0.5906670000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.600041</v>
+        <v>0.601987</v>
       </c>
       <c r="D60" t="n">
-        <v>0.352589</v>
+        <v>0.352339</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.612556</v>
+        <v>0.611094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6165079999999999</v>
+        <v>0.61816</v>
       </c>
       <c r="D61" t="n">
-        <v>0.361537</v>
+        <v>0.360374</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.632038</v>
+        <v>0.630881</v>
       </c>
       <c r="C62" t="n">
-        <v>0.633042</v>
+        <v>0.635022</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367745</v>
+        <v>0.365676</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.652704</v>
+        <v>0.651268</v>
       </c>
       <c r="C63" t="n">
-        <v>0.657466</v>
+        <v>0.658994</v>
       </c>
       <c r="D63" t="n">
-        <v>0.376825</v>
+        <v>0.376498</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.674844</v>
+        <v>0.672586</v>
       </c>
       <c r="C64" t="n">
-        <v>0.674791</v>
+        <v>0.676661</v>
       </c>
       <c r="D64" t="n">
-        <v>0.388106</v>
+        <v>0.386185</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.702952</v>
+        <v>0.702331</v>
       </c>
       <c r="C65" t="n">
-        <v>0.703115</v>
+        <v>0.70524</v>
       </c>
       <c r="D65" t="n">
-        <v>0.397275</v>
+        <v>0.396603</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.727104</v>
+        <v>0.725967</v>
       </c>
       <c r="C66" t="n">
-        <v>0.721487</v>
+        <v>0.724567</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405131</v>
+        <v>0.404464</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.75705</v>
+        <v>0.757958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.750798</v>
+        <v>0.753901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419992</v>
+        <v>0.419288</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.778533</v>
+        <v>0.7779199999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5069360000000001</v>
+        <v>0.507626</v>
       </c>
       <c r="D68" t="n">
-        <v>0.315623</v>
+        <v>0.31472</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8258450000000001</v>
+        <v>0.821341</v>
       </c>
       <c r="C69" t="n">
-        <v>0.526413</v>
+        <v>0.5268620000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320889</v>
+        <v>0.320321</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.561799</v>
+        <v>0.558099</v>
       </c>
       <c r="C70" t="n">
-        <v>0.549899</v>
+        <v>0.550084</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331383</v>
+        <v>0.33032</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.583932</v>
+        <v>0.580667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571984</v>
+        <v>0.571253</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338212</v>
+        <v>0.336955</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.613462</v>
+        <v>0.611313</v>
       </c>
       <c r="C72" t="n">
-        <v>0.594291</v>
+        <v>0.594354</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346815</v>
+        <v>0.345868</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.641075</v>
+        <v>0.636693</v>
       </c>
       <c r="C73" t="n">
-        <v>0.621352</v>
+        <v>0.619998</v>
       </c>
       <c r="D73" t="n">
-        <v>0.356914</v>
+        <v>0.355881</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.670337</v>
+        <v>0.661972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.648396</v>
+        <v>0.644221</v>
       </c>
       <c r="D74" t="n">
-        <v>0.366805</v>
+        <v>0.365711</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.702604</v>
+        <v>0.690971</v>
       </c>
       <c r="C75" t="n">
-        <v>0.682653</v>
+        <v>0.676135</v>
       </c>
       <c r="D75" t="n">
-        <v>0.378577</v>
+        <v>0.376471</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.738082</v>
+        <v>0.724935</v>
       </c>
       <c r="C76" t="n">
-        <v>0.715602</v>
+        <v>0.7083</v>
       </c>
       <c r="D76" t="n">
-        <v>0.389226</v>
+        <v>0.387839</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.775473</v>
+        <v>0.759692</v>
       </c>
       <c r="C77" t="n">
-        <v>0.755684</v>
+        <v>0.7436739999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.400744</v>
+        <v>0.399074</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.821172</v>
+        <v>0.809123</v>
       </c>
       <c r="C78" t="n">
-        <v>0.794324</v>
+        <v>0.785953</v>
       </c>
       <c r="D78" t="n">
-        <v>0.416179</v>
+        <v>0.412331</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.871972</v>
+        <v>0.861654</v>
       </c>
       <c r="C79" t="n">
-        <v>0.836488</v>
+        <v>0.829155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428267</v>
+        <v>0.42536</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.930231</v>
+        <v>0.926102</v>
       </c>
       <c r="C80" t="n">
-        <v>0.896216</v>
+        <v>0.890582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.443718</v>
+        <v>0.441076</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0127</v>
+        <v>0.986018</v>
       </c>
       <c r="C81" t="n">
-        <v>0.968197</v>
+        <v>0.952394</v>
       </c>
       <c r="D81" t="n">
-        <v>0.461678</v>
+        <v>0.459299</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07927</v>
+        <v>1.05814</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03727</v>
+        <v>1.01776</v>
       </c>
       <c r="D82" t="n">
-        <v>0.47661</v>
+        <v>0.472865</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17271</v>
+        <v>1.14676</v>
       </c>
       <c r="C83" t="n">
-        <v>0.738829</v>
+        <v>0.7352</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384598</v>
+        <v>0.383693</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.27641</v>
+        <v>1.24997</v>
       </c>
       <c r="C84" t="n">
-        <v>0.787305</v>
+        <v>0.787372</v>
       </c>
       <c r="D84" t="n">
-        <v>0.396436</v>
+        <v>0.395895</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.895527</v>
+        <v>0.885618</v>
       </c>
       <c r="C85" t="n">
-        <v>0.846016</v>
+        <v>0.837428</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411134</v>
+        <v>0.408254</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.960356</v>
+        <v>0.951668</v>
       </c>
       <c r="C86" t="n">
-        <v>0.926397</v>
+        <v>0.9157419999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433241</v>
+        <v>0.431285</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03836</v>
+        <v>1.02536</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00183</v>
+        <v>0.9935079999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.461524</v>
+        <v>0.457039</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.12405</v>
+        <v>1.11461</v>
       </c>
       <c r="C88" t="n">
-        <v>1.10519</v>
+        <v>1.0992</v>
       </c>
       <c r="D88" t="n">
-        <v>0.489628</v>
+        <v>0.484267</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.21414</v>
+        <v>1.20783</v>
       </c>
       <c r="C89" t="n">
-        <v>1.20356</v>
+        <v>1.19602</v>
       </c>
       <c r="D89" t="n">
-        <v>0.519655</v>
+        <v>0.508246</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31925</v>
+        <v>1.31333</v>
       </c>
       <c r="C90" t="n">
-        <v>1.31176</v>
+        <v>1.30203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.546146</v>
+        <v>0.532899</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.4298</v>
+        <v>1.42826</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43293</v>
+        <v>1.42951</v>
       </c>
       <c r="D91" t="n">
-        <v>0.594548</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54459</v>
+        <v>1.54797</v>
       </c>
       <c r="C92" t="n">
-        <v>1.56564</v>
+        <v>1.56388</v>
       </c>
       <c r="D92" t="n">
-        <v>0.626907</v>
+        <v>0.622121</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.67222</v>
+        <v>1.67509</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70049</v>
+        <v>1.70435</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6738</v>
+        <v>0.6657380000000001</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.81524</v>
+        <v>1.81795</v>
       </c>
       <c r="C94" t="n">
-        <v>1.85314</v>
+        <v>1.85998</v>
       </c>
       <c r="D94" t="n">
-        <v>0.730669</v>
+        <v>0.727669</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.95834</v>
+        <v>1.95898</v>
       </c>
       <c r="C95" t="n">
-        <v>2.01583</v>
+        <v>2.01789</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780029</v>
+        <v>0.773719</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.12018</v>
+        <v>2.12576</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2028</v>
+        <v>2.21002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.852063</v>
+        <v>0.845821</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.2888</v>
+        <v>2.29308</v>
       </c>
       <c r="C97" t="n">
-        <v>1.36546</v>
+        <v>1.36892</v>
       </c>
       <c r="D97" t="n">
-        <v>0.63534</v>
+        <v>0.637428</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.4506</v>
+        <v>2.45872</v>
       </c>
       <c r="C98" t="n">
-        <v>1.45906</v>
+        <v>1.46794</v>
       </c>
       <c r="D98" t="n">
-        <v>0.670332</v>
+        <v>0.671412</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.69165</v>
+        <v>1.6989</v>
       </c>
       <c r="C99" t="n">
-        <v>1.55426</v>
+        <v>1.55933</v>
       </c>
       <c r="D99" t="n">
-        <v>0.714896</v>
+        <v>0.714392</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.78791</v>
+        <v>1.79368</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66373</v>
+        <v>1.66799</v>
       </c>
       <c r="D100" t="n">
-        <v>0.753794</v>
+        <v>0.754278</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.88044</v>
+        <v>1.88753</v>
       </c>
       <c r="C101" t="n">
-        <v>1.77366</v>
+        <v>1.77968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.791907</v>
+        <v>0.792978</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.98859</v>
+        <v>1.99389</v>
       </c>
       <c r="C102" t="n">
-        <v>1.88934</v>
+        <v>1.89731</v>
       </c>
       <c r="D102" t="n">
-        <v>0.836975</v>
+        <v>0.839449</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.08109</v>
+        <v>2.08981</v>
       </c>
       <c r="C103" t="n">
-        <v>2.01176</v>
+        <v>2.01933</v>
       </c>
       <c r="D103" t="n">
-        <v>0.87795</v>
+        <v>0.88313</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.20073</v>
+        <v>2.20724</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14183</v>
+        <v>2.15001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.923769</v>
+        <v>0.92622</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.30641</v>
+        <v>2.31626</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27716</v>
+        <v>2.28743</v>
       </c>
       <c r="D105" t="n">
-        <v>0.997306</v>
+        <v>1.00222</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.43236</v>
+        <v>2.44429</v>
       </c>
       <c r="C106" t="n">
-        <v>2.41018</v>
+        <v>2.42001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04305</v>
+        <v>1.04456</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.54946</v>
+        <v>2.56839</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54595</v>
+        <v>2.55781</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09569</v>
+        <v>1.10156</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68913</v>
+        <v>2.70628</v>
       </c>
       <c r="C108" t="n">
-        <v>2.6944</v>
+        <v>2.70573</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15484</v>
+        <v>1.15949</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.82775</v>
+        <v>2.84188</v>
       </c>
       <c r="C109" t="n">
-        <v>2.86751</v>
+        <v>2.86216</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22742</v>
+        <v>1.23017</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.99776</v>
+        <v>3.00238</v>
       </c>
       <c r="C110" t="n">
-        <v>2.99529</v>
+        <v>3.00992</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26479</v>
+        <v>1.2705</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14</v>
+        <v>3.14788</v>
       </c>
       <c r="C111" t="n">
-        <v>1.99762</v>
+        <v>2.00126</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01868</v>
+        <v>1.02155</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.36105</v>
+        <v>3.3308</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08025</v>
+        <v>2.08907</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04198</v>
+        <v>1.04689</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.5037</v>
+        <v>3.48113</v>
       </c>
       <c r="C113" t="n">
-        <v>2.16886</v>
+        <v>2.18097</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08788</v>
+        <v>1.09347</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.3331</v>
+        <v>2.34356</v>
       </c>
       <c r="C114" t="n">
-        <v>2.26184</v>
+        <v>2.27385</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12357</v>
+        <v>1.12855</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.42242</v>
+        <v>2.43653</v>
       </c>
       <c r="C115" t="n">
-        <v>2.35483</v>
+        <v>2.36973</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18</v>
+        <v>1.18619</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.52537</v>
+        <v>2.53463</v>
       </c>
       <c r="C116" t="n">
-        <v>2.45911</v>
+        <v>2.47247</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21654</v>
+        <v>1.22365</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.63507</v>
+        <v>2.64433</v>
       </c>
       <c r="C117" t="n">
-        <v>2.57794</v>
+        <v>2.58943</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24867</v>
+        <v>1.25613</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.73782</v>
+        <v>2.74285</v>
       </c>
       <c r="C118" t="n">
-        <v>2.70612</v>
+        <v>2.72379</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30546</v>
+        <v>1.30925</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.83437</v>
+        <v>2.8478</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82679</v>
+        <v>2.84922</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35679</v>
+        <v>1.36336</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24908</v>
+        <v>0.244992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24303</v>
+        <v>0.226533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198196</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196017</v>
+        <v>0.192048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.250137</v>
+        <v>0.230779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200552</v>
+        <v>0.198316</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20456</v>
+        <v>0.202005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25501</v>
+        <v>0.236882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208269</v>
+        <v>0.204798</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210317</v>
+        <v>0.209958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26412</v>
+        <v>0.24438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213992</v>
+        <v>0.210883</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.214362</v>
+        <v>0.213445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.268775</v>
+        <v>0.248935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.219011</v>
+        <v>0.216382</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219528</v>
+        <v>0.216069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220591</v>
+        <v>0.207274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182636</v>
+        <v>0.181351</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226179</v>
+        <v>0.223639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225907</v>
+        <v>0.213298</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187099</v>
+        <v>0.187525</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.231977</v>
+        <v>0.229784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231363</v>
+        <v>0.217828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191308</v>
+        <v>0.188281</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237449</v>
+        <v>0.235132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235318</v>
+        <v>0.22281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196245</v>
+        <v>0.193194</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241696</v>
+        <v>0.240714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239832</v>
+        <v>0.225459</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202107</v>
+        <v>0.198984</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.249013</v>
+        <v>0.248697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.246502</v>
+        <v>0.232512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207395</v>
+        <v>0.204323</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253885</v>
+        <v>0.252856</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253298</v>
+        <v>0.236787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211859</v>
+        <v>0.208852</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.259547</v>
+        <v>0.257648</v>
       </c>
       <c r="C14" t="n">
-        <v>0.257564</v>
+        <v>0.241335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214334</v>
+        <v>0.212173</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266858</v>
+        <v>0.265236</v>
       </c>
       <c r="C15" t="n">
-        <v>0.264268</v>
+        <v>0.247241</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220227</v>
+        <v>0.217878</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270389</v>
+        <v>0.269451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269293</v>
+        <v>0.251499</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22439</v>
+        <v>0.221722</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277326</v>
+        <v>0.276078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.275844</v>
+        <v>0.2576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229619</v>
+        <v>0.227603</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230147</v>
+        <v>0.230033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.278504</v>
+        <v>0.2613</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230979</v>
+        <v>0.230136</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234751</v>
+        <v>0.234654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.285119</v>
+        <v>0.265943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236906</v>
+        <v>0.234881</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239049</v>
+        <v>0.238935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.290531</v>
+        <v>0.270727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24262</v>
+        <v>0.240519</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243887</v>
+        <v>0.24323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245361</v>
+        <v>0.232768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205686</v>
+        <v>0.205114</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247855</v>
+        <v>0.247567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.250145</v>
+        <v>0.237153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209283</v>
+        <v>0.209076</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251993</v>
+        <v>0.251852</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253889</v>
+        <v>0.241918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212148</v>
+        <v>0.212381</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257023</v>
+        <v>0.256596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.257818</v>
+        <v>0.244704</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21581</v>
+        <v>0.216332</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261811</v>
+        <v>0.26179</v>
       </c>
       <c r="C25" t="n">
-        <v>0.262839</v>
+        <v>0.248842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219924</v>
+        <v>0.21997</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268195</v>
+        <v>0.268292</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268131</v>
+        <v>0.253092</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224164</v>
+        <v>0.22469</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272393</v>
+        <v>0.272368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.271888</v>
+        <v>0.257298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228452</v>
+        <v>0.228224</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277586</v>
+        <v>0.277546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2782</v>
+        <v>0.262722</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232618</v>
+        <v>0.232219</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282608</v>
+        <v>0.282594</v>
       </c>
       <c r="C29" t="n">
-        <v>0.283978</v>
+        <v>0.267873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237956</v>
+        <v>0.237374</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288896</v>
+        <v>0.288841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289119</v>
+        <v>0.272595</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242211</v>
+        <v>0.241702</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293872</v>
+        <v>0.293905</v>
       </c>
       <c r="C31" t="n">
-        <v>0.294818</v>
+        <v>0.277433</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246222</v>
+        <v>0.246551</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.241847</v>
+        <v>0.242188</v>
       </c>
       <c r="C32" t="n">
-        <v>0.299369</v>
+        <v>0.28242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250205</v>
+        <v>0.249634</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245417</v>
+        <v>0.245684</v>
       </c>
       <c r="C33" t="n">
-        <v>0.306121</v>
+        <v>0.287573</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255288</v>
+        <v>0.255081</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248834</v>
+        <v>0.2488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.310724</v>
+        <v>0.291318</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259158</v>
+        <v>0.259028</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252368</v>
+        <v>0.252416</v>
       </c>
       <c r="C35" t="n">
-        <v>0.256306</v>
+        <v>0.244022</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209876</v>
+        <v>0.211032</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256527</v>
+        <v>0.256585</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259618</v>
+        <v>0.246836</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212851</v>
+        <v>0.213023</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260373</v>
+        <v>0.260399</v>
       </c>
       <c r="C37" t="n">
-        <v>0.263552</v>
+        <v>0.250575</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216316</v>
+        <v>0.217609</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.264565</v>
+        <v>0.264528</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268295</v>
+        <v>0.254626</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221423</v>
+        <v>0.221596</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268856</v>
+        <v>0.268833</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27286</v>
+        <v>0.258973</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225446</v>
+        <v>0.225593</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273672</v>
+        <v>0.273598</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277435</v>
+        <v>0.263267</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22959</v>
+        <v>0.229643</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.278814</v>
+        <v>0.27892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.282168</v>
+        <v>0.267221</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233649</v>
+        <v>0.233786</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283288</v>
+        <v>0.283453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.286974</v>
+        <v>0.271207</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23743</v>
+        <v>0.237516</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288469</v>
+        <v>0.288559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.291988</v>
+        <v>0.275828</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241725</v>
+        <v>0.241828</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293668</v>
+        <v>0.293529</v>
       </c>
       <c r="C44" t="n">
-        <v>0.29827</v>
+        <v>0.281259</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246402</v>
+        <v>0.246932</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.298734</v>
+        <v>0.298682</v>
       </c>
       <c r="C45" t="n">
-        <v>0.303742</v>
+        <v>0.285927</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250286</v>
+        <v>0.250811</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303409</v>
+        <v>0.303258</v>
       </c>
       <c r="C46" t="n">
-        <v>0.308788</v>
+        <v>0.290355</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254602</v>
+        <v>0.255073</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250056</v>
+        <v>0.250164</v>
       </c>
       <c r="C47" t="n">
-        <v>0.314939</v>
+        <v>0.29514</v>
       </c>
       <c r="D47" t="n">
-        <v>0.259106</v>
+        <v>0.259338</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253108</v>
+        <v>0.253217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.31994</v>
+        <v>0.299263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262872</v>
+        <v>0.263146</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256674</v>
+        <v>0.256914</v>
       </c>
       <c r="C49" t="n">
-        <v>0.324788</v>
+        <v>0.303061</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266762</v>
+        <v>0.267675</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.26007</v>
+        <v>0.260387</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265533</v>
+        <v>0.253903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216203</v>
+        <v>0.216436</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.263903</v>
+        <v>0.264206</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269416</v>
+        <v>0.255834</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218881</v>
+        <v>0.219781</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268223</v>
+        <v>0.268472</v>
       </c>
       <c r="C52" t="n">
-        <v>0.273099</v>
+        <v>0.259404</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223345</v>
+        <v>0.223313</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272701</v>
+        <v>0.272969</v>
       </c>
       <c r="C53" t="n">
-        <v>0.277397</v>
+        <v>0.263238</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22689</v>
+        <v>0.227149</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277681</v>
+        <v>0.277734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28182</v>
+        <v>0.2673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230483</v>
+        <v>0.230642</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282269</v>
+        <v>0.282523</v>
       </c>
       <c r="C55" t="n">
-        <v>0.286396</v>
+        <v>0.271344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234302</v>
+        <v>0.234496</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287898</v>
+        <v>0.287654</v>
       </c>
       <c r="C56" t="n">
-        <v>0.291473</v>
+        <v>0.275896</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238453</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29324</v>
+        <v>0.293031</v>
       </c>
       <c r="C57" t="n">
-        <v>0.296666</v>
+        <v>0.280526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2427</v>
+        <v>0.243246</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297611</v>
+        <v>0.297438</v>
       </c>
       <c r="C58" t="n">
-        <v>0.302058</v>
+        <v>0.285129</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246896</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302427</v>
+        <v>0.302264</v>
       </c>
       <c r="C59" t="n">
-        <v>0.307766</v>
+        <v>0.289974</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251498</v>
+        <v>0.251502</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308525</v>
+        <v>0.308015</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313717</v>
+        <v>0.295026</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255887</v>
+        <v>0.255902</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256778</v>
+        <v>0.257734</v>
       </c>
       <c r="C61" t="n">
-        <v>0.319933</v>
+        <v>0.299763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259958</v>
+        <v>0.260135</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257896</v>
+        <v>0.257708</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325541</v>
+        <v>0.304227</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264681</v>
+        <v>0.264689</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266975</v>
+        <v>0.266806</v>
       </c>
       <c r="C63" t="n">
-        <v>0.330491</v>
+        <v>0.308475</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268617</v>
+        <v>0.26904</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.275546</v>
+        <v>0.273088</v>
       </c>
       <c r="C64" t="n">
-        <v>0.273455</v>
+        <v>0.261986</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225183</v>
+        <v>0.224532</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.275486</v>
+        <v>0.277793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.279121</v>
+        <v>0.265843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228832</v>
+        <v>0.228934</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283086</v>
+        <v>0.284023</v>
       </c>
       <c r="C66" t="n">
-        <v>0.28616</v>
+        <v>0.271868</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233907</v>
+        <v>0.233297</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.289576</v>
+        <v>0.29029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.290788</v>
+        <v>0.276642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23873</v>
+        <v>0.239438</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.297267</v>
+        <v>0.295406</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299016</v>
+        <v>0.28279</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244607</v>
+        <v>0.244857</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30547</v>
+        <v>0.308376</v>
       </c>
       <c r="C69" t="n">
-        <v>0.302671</v>
+        <v>0.286999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249102</v>
+        <v>0.250341</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.313047</v>
+        <v>0.318195</v>
       </c>
       <c r="C70" t="n">
-        <v>0.308441</v>
+        <v>0.294772</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254901</v>
+        <v>0.257071</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32339</v>
+        <v>0.331472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315013</v>
+        <v>0.300569</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260513</v>
+        <v>0.262118</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.334152</v>
+        <v>0.341587</v>
       </c>
       <c r="C72" t="n">
-        <v>0.324139</v>
+        <v>0.308113</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269242</v>
+        <v>0.269556</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347389</v>
+        <v>0.352951</v>
       </c>
       <c r="C73" t="n">
-        <v>0.334498</v>
+        <v>0.315564</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276275</v>
+        <v>0.277664</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.361838</v>
+        <v>0.366041</v>
       </c>
       <c r="C74" t="n">
-        <v>0.344822</v>
+        <v>0.324572</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284364</v>
+        <v>0.28521</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376682</v>
+        <v>0.378406</v>
       </c>
       <c r="C75" t="n">
-        <v>0.356609</v>
+        <v>0.334617</v>
       </c>
       <c r="D75" t="n">
-        <v>0.293035</v>
+        <v>0.295116</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.408437</v>
+        <v>0.406485</v>
       </c>
       <c r="C76" t="n">
-        <v>0.365956</v>
+        <v>0.34281</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302231</v>
+        <v>0.302261</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.415807</v>
+        <v>0.416754</v>
       </c>
       <c r="C77" t="n">
-        <v>0.379165</v>
+        <v>0.35553</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313656</v>
+        <v>0.31447</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.43303</v>
+        <v>0.439041</v>
       </c>
       <c r="C78" t="n">
-        <v>0.358546</v>
+        <v>0.342344</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304225</v>
+        <v>0.303646</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.448362</v>
+        <v>0.449903</v>
       </c>
       <c r="C79" t="n">
-        <v>0.373311</v>
+        <v>0.351182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.319681</v>
+        <v>0.319938</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465356</v>
+        <v>0.459445</v>
       </c>
       <c r="C80" t="n">
-        <v>0.386525</v>
+        <v>0.363893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.329634</v>
+        <v>0.325228</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.48213</v>
+        <v>0.478671</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397471</v>
+        <v>0.374341</v>
       </c>
       <c r="D81" t="n">
-        <v>0.342401</v>
+        <v>0.343059</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.494365</v>
+        <v>0.49495</v>
       </c>
       <c r="C82" t="n">
-        <v>0.418765</v>
+        <v>0.392818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.353169</v>
+        <v>0.354775</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.517423</v>
+        <v>0.515589</v>
       </c>
       <c r="C83" t="n">
-        <v>0.432783</v>
+        <v>0.403051</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368973</v>
+        <v>0.371656</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.53739</v>
+        <v>0.534488</v>
       </c>
       <c r="C84" t="n">
-        <v>0.448954</v>
+        <v>0.422603</v>
       </c>
       <c r="D84" t="n">
-        <v>0.385703</v>
+        <v>0.382958</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.556078</v>
+        <v>0.553637</v>
       </c>
       <c r="C85" t="n">
-        <v>0.474282</v>
+        <v>0.43704</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402689</v>
+        <v>0.403272</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5789339999999999</v>
+        <v>0.578276</v>
       </c>
       <c r="C86" t="n">
-        <v>0.493694</v>
+        <v>0.454919</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422964</v>
+        <v>0.419772</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.599465</v>
+        <v>0.598367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.509405</v>
+        <v>0.467189</v>
       </c>
       <c r="D87" t="n">
-        <v>0.429715</v>
+        <v>0.434079</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.622897</v>
+        <v>0.621304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5276420000000001</v>
+        <v>0.487044</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44819</v>
+        <v>0.452249</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.645386</v>
+        <v>0.644224</v>
       </c>
       <c r="C89" t="n">
-        <v>0.550704</v>
+        <v>0.503741</v>
       </c>
       <c r="D89" t="n">
-        <v>0.466115</v>
+        <v>0.469865</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.670452</v>
+        <v>0.669838</v>
       </c>
       <c r="C90" t="n">
-        <v>0.574899</v>
+        <v>0.521045</v>
       </c>
       <c r="D90" t="n">
-        <v>0.484931</v>
+        <v>0.490013</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.676223</v>
+        <v>0.67524</v>
       </c>
       <c r="C91" t="n">
-        <v>0.596577</v>
+        <v>0.536243</v>
       </c>
       <c r="D91" t="n">
-        <v>0.496528</v>
+        <v>0.496552</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686216</v>
+        <v>0.684216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.598763</v>
+        <v>0.546547</v>
       </c>
       <c r="D92" t="n">
-        <v>0.506556</v>
+        <v>0.50813</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.69413</v>
+        <v>0.694864</v>
       </c>
       <c r="C93" t="n">
-        <v>0.611193</v>
+        <v>0.559495</v>
       </c>
       <c r="D93" t="n">
-        <v>0.517872</v>
+        <v>0.521525</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.705161</v>
+        <v>0.70451</v>
       </c>
       <c r="C94" t="n">
-        <v>0.625617</v>
+        <v>0.5697950000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.52785</v>
+        <v>0.530217</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.717244</v>
+        <v>0.717616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.640896</v>
+        <v>0.580391</v>
       </c>
       <c r="D95" t="n">
-        <v>0.544444</v>
+        <v>0.543837</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729375</v>
+        <v>0.729595</v>
       </c>
       <c r="C96" t="n">
-        <v>0.656405</v>
+        <v>0.5936360000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.555293</v>
+        <v>0.55737</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.742433</v>
+        <v>0.743316</v>
       </c>
       <c r="C97" t="n">
-        <v>0.670315</v>
+        <v>0.607057</v>
       </c>
       <c r="D97" t="n">
-        <v>0.569389</v>
+        <v>0.570746</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.759087</v>
+        <v>0.758412</v>
       </c>
       <c r="C98" t="n">
-        <v>0.686267</v>
+        <v>0.621269</v>
       </c>
       <c r="D98" t="n">
-        <v>0.582946</v>
+        <v>0.5850379999999999</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774365</v>
+        <v>0.774166</v>
       </c>
       <c r="C99" t="n">
-        <v>0.703501</v>
+        <v>0.634418</v>
       </c>
       <c r="D99" t="n">
-        <v>0.596206</v>
+        <v>0.597922</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.791909</v>
+        <v>0.791709</v>
       </c>
       <c r="C100" t="n">
-        <v>0.72131</v>
+        <v>0.649058</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6101490000000001</v>
+        <v>0.611275</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.809324</v>
+        <v>0.809785</v>
       </c>
       <c r="C101" t="n">
-        <v>0.740301</v>
+        <v>0.6634989999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.624194</v>
+        <v>0.625165</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828491</v>
+        <v>0.828505</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7615189999999999</v>
+        <v>0.679377</v>
       </c>
       <c r="D102" t="n">
-        <v>0.641742</v>
+        <v>0.640724</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848394</v>
+        <v>0.848292</v>
       </c>
       <c r="C103" t="n">
-        <v>0.782481</v>
+        <v>0.695027</v>
       </c>
       <c r="D103" t="n">
-        <v>0.656439</v>
+        <v>0.655993</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.869225</v>
+        <v>0.868988</v>
       </c>
       <c r="C104" t="n">
-        <v>0.805384</v>
+        <v>0.712267</v>
       </c>
       <c r="D104" t="n">
-        <v>0.672395</v>
+        <v>0.671906</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.795529</v>
+        <v>0.796457</v>
       </c>
       <c r="C105" t="n">
-        <v>0.828498</v>
+        <v>0.72861</v>
       </c>
       <c r="D105" t="n">
-        <v>0.690569</v>
+        <v>0.692242</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.801427</v>
+        <v>0.801464</v>
       </c>
       <c r="C106" t="n">
-        <v>0.853006</v>
+        <v>0.746559</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7105900000000001</v>
+        <v>0.7089569999999999</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809541</v>
+        <v>0.809754</v>
       </c>
       <c r="C107" t="n">
-        <v>0.783784</v>
+        <v>0.692512</v>
       </c>
       <c r="D107" t="n">
-        <v>0.651305</v>
+        <v>0.651465</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818253</v>
+        <v>0.818335</v>
       </c>
       <c r="C108" t="n">
-        <v>0.795364</v>
+        <v>0.703674</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661557</v>
+        <v>0.662112</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.82906</v>
+        <v>0.8284010000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8075560000000001</v>
+        <v>0.715008</v>
       </c>
       <c r="D109" t="n">
-        <v>0.673465</v>
+        <v>0.673687</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.838572</v>
+        <v>0.839207</v>
       </c>
       <c r="C110" t="n">
-        <v>0.820673</v>
+        <v>0.7267670000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.684968</v>
+        <v>0.685772</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.84996</v>
+        <v>0.850861</v>
       </c>
       <c r="C111" t="n">
-        <v>0.834506</v>
+        <v>0.739117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.69745</v>
+        <v>0.697962</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8640409999999999</v>
+        <v>0.863482</v>
       </c>
       <c r="C112" t="n">
-        <v>0.849142</v>
+        <v>0.751457</v>
       </c>
       <c r="D112" t="n">
-        <v>0.710979</v>
+        <v>0.710379</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.878241</v>
+        <v>0.877943</v>
       </c>
       <c r="C113" t="n">
-        <v>0.864169</v>
+        <v>0.764452</v>
       </c>
       <c r="D113" t="n">
-        <v>0.723826</v>
+        <v>0.723382</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.893957</v>
+        <v>0.893168</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8790519999999999</v>
+        <v>0.778264</v>
       </c>
       <c r="D114" t="n">
-        <v>0.738482</v>
+        <v>0.738104</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.910867</v>
+        <v>0.9107229999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8965109999999999</v>
+        <v>0.793143</v>
       </c>
       <c r="D115" t="n">
-        <v>0.752754</v>
+        <v>0.753993</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.929261</v>
+        <v>0.930126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.914238</v>
+        <v>0.80899</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765082</v>
+        <v>0.765854</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.948352</v>
+        <v>0.94996</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9331</v>
+        <v>0.825004</v>
       </c>
       <c r="D117" t="n">
-        <v>0.779271</v>
+        <v>0.780381</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.969614</v>
+        <v>0.970577</v>
       </c>
       <c r="C118" t="n">
-        <v>0.954321</v>
+        <v>0.84083</v>
       </c>
       <c r="D118" t="n">
-        <v>0.796359</v>
+        <v>0.796858</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.860098</v>
+        <v>0.859578</v>
       </c>
       <c r="C119" t="n">
-        <v>0.974917</v>
+        <v>0.857639</v>
       </c>
       <c r="D119" t="n">
-        <v>0.810415</v>
+        <v>0.811635</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248486</v>
+        <v>0.24809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205163</v>
+        <v>0.198814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154255</v>
+        <v>0.153655</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218946</v>
+        <v>0.218703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209223</v>
+        <v>0.202485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153413</v>
+        <v>0.153405</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223461</v>
+        <v>0.222663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214529</v>
+        <v>0.20673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159001</v>
+        <v>0.158633</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228837</v>
+        <v>0.22909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220744</v>
+        <v>0.214458</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161847</v>
+        <v>0.161858</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229428</v>
+        <v>0.230327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225749</v>
+        <v>0.220071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166081</v>
+        <v>0.166329</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233357</v>
+        <v>0.234343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2093</v>
+        <v>0.202816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161235</v>
+        <v>0.160088</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235155</v>
+        <v>0.235793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213233</v>
+        <v>0.206769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.166228</v>
+        <v>0.165426</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237085</v>
+        <v>0.237854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217842</v>
+        <v>0.208454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167352</v>
+        <v>0.168626</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240458</v>
+        <v>0.241511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222263</v>
+        <v>0.215639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16824</v>
+        <v>0.168041</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241233</v>
+        <v>0.241041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219816</v>
+        <v>0.211961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170874</v>
+        <v>0.167171</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.253963</v>
+        <v>0.255318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230224</v>
+        <v>0.224526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17394</v>
+        <v>0.174397</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256664</v>
+        <v>0.255999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229734</v>
+        <v>0.223588</v>
       </c>
       <c r="D13" t="n">
-        <v>0.177347</v>
+        <v>0.174774</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256526</v>
+        <v>0.256548</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232179</v>
+        <v>0.225211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177455</v>
+        <v>0.174554</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264696</v>
+        <v>0.264704</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237211</v>
+        <v>0.229377</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182481</v>
+        <v>0.178144</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271018</v>
+        <v>0.271155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242349</v>
+        <v>0.235464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.182625</v>
+        <v>0.18078</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275786</v>
+        <v>0.276648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246117</v>
+        <v>0.239613</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185966</v>
+        <v>0.182517</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256645</v>
+        <v>0.255077</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254645</v>
+        <v>0.242363</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187516</v>
+        <v>0.184495</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.261413</v>
+        <v>0.260595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.257469</v>
+        <v>0.251125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1918</v>
+        <v>0.19024</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264909</v>
+        <v>0.264707</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265673</v>
+        <v>0.25269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.196365</v>
+        <v>0.192074</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272407</v>
+        <v>0.273218</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246137</v>
+        <v>0.234081</v>
       </c>
       <c r="D21" t="n">
-        <v>0.193558</v>
+        <v>0.19236</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.272882</v>
+        <v>0.273026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253782</v>
+        <v>0.248009</v>
       </c>
       <c r="D22" t="n">
-        <v>0.196065</v>
+        <v>0.194531</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277979</v>
+        <v>0.277848</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251192</v>
+        <v>0.244079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19831</v>
+        <v>0.19685</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280165</v>
+        <v>0.280722</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265889</v>
+        <v>0.254265</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201361</v>
+        <v>0.201555</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284131</v>
+        <v>0.283718</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275627</v>
+        <v>0.268876</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205236</v>
+        <v>0.204306</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293576</v>
+        <v>0.293453</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27629</v>
+        <v>0.268977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208381</v>
+        <v>0.207877</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29525</v>
+        <v>0.295053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.284935</v>
+        <v>0.277464</v>
       </c>
       <c r="D27" t="n">
-        <v>0.211733</v>
+        <v>0.21026</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297908</v>
+        <v>0.296664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286947</v>
+        <v>0.279504</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213387</v>
+        <v>0.212575</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306635</v>
+        <v>0.30629</v>
       </c>
       <c r="C29" t="n">
-        <v>0.294092</v>
+        <v>0.285799</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215921</v>
+        <v>0.215102</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310499</v>
+        <v>0.310979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.305184</v>
+        <v>0.297143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219548</v>
+        <v>0.219806</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3144</v>
+        <v>0.314632</v>
       </c>
       <c r="C31" t="n">
-        <v>0.303986</v>
+        <v>0.296639</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221947</v>
+        <v>0.221436</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280639</v>
+        <v>0.281032</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311884</v>
+        <v>0.306565</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225058</v>
+        <v>0.224537</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285669</v>
+        <v>0.285992</v>
       </c>
       <c r="C33" t="n">
-        <v>0.323723</v>
+        <v>0.31383</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228997</v>
+        <v>0.228174</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291487</v>
+        <v>0.291499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327334</v>
+        <v>0.318386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232727</v>
+        <v>0.232334</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292396</v>
+        <v>0.292614</v>
       </c>
       <c r="C35" t="n">
-        <v>0.264245</v>
+        <v>0.257743</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211324</v>
+        <v>0.210317</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297134</v>
+        <v>0.29677</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270953</v>
+        <v>0.263202</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212657</v>
+        <v>0.212091</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.304328</v>
+        <v>0.303718</v>
       </c>
       <c r="C37" t="n">
-        <v>0.274541</v>
+        <v>0.266947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.215041</v>
+        <v>0.214331</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306163</v>
+        <v>0.305642</v>
       </c>
       <c r="C38" t="n">
-        <v>0.278269</v>
+        <v>0.271142</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216743</v>
+        <v>0.216403</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313092</v>
+        <v>0.31277</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28575</v>
+        <v>0.277785</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219691</v>
+        <v>0.219178</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321338</v>
+        <v>0.320733</v>
       </c>
       <c r="C40" t="n">
-        <v>0.288344</v>
+        <v>0.281214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221706</v>
+        <v>0.221192</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326984</v>
+        <v>0.326578</v>
       </c>
       <c r="C41" t="n">
-        <v>0.293316</v>
+        <v>0.285022</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222807</v>
+        <v>0.222401</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331044</v>
+        <v>0.33096</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295094</v>
+        <v>0.287387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224226</v>
+        <v>0.223514</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337234</v>
+        <v>0.336712</v>
       </c>
       <c r="C43" t="n">
-        <v>0.300652</v>
+        <v>0.292693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227981</v>
+        <v>0.22702</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340377</v>
+        <v>0.33983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.305664</v>
+        <v>0.297811</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229246</v>
+        <v>0.228471</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348688</v>
+        <v>0.348114</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30897</v>
+        <v>0.301128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.232345</v>
+        <v>0.231133</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349522</v>
+        <v>0.349348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.309855</v>
+        <v>0.302404</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232777</v>
+        <v>0.232361</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289073</v>
+        <v>0.289318</v>
       </c>
       <c r="C47" t="n">
-        <v>0.316772</v>
+        <v>0.308173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234392</v>
+        <v>0.234083</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294039</v>
+        <v>0.294487</v>
       </c>
       <c r="C48" t="n">
-        <v>0.321579</v>
+        <v>0.313864</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236238</v>
+        <v>0.236504</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297362</v>
+        <v>0.297526</v>
       </c>
       <c r="C49" t="n">
-        <v>0.326505</v>
+        <v>0.318519</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238553</v>
+        <v>0.238591</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301042</v>
+        <v>0.301066</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29393</v>
+        <v>0.286607</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22385</v>
+        <v>0.223975</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.303726</v>
+        <v>0.30426</v>
       </c>
       <c r="C51" t="n">
-        <v>0.297409</v>
+        <v>0.290567</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226731</v>
+        <v>0.226511</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306413</v>
+        <v>0.306338</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300772</v>
+        <v>0.292985</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227514</v>
+        <v>0.22765</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.311966</v>
+        <v>0.312145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.306291</v>
+        <v>0.29853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229423</v>
+        <v>0.229224</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320704</v>
+        <v>0.320628</v>
       </c>
       <c r="C54" t="n">
-        <v>0.310208</v>
+        <v>0.303278</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232505</v>
+        <v>0.232275</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319462</v>
+        <v>0.320061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.316341</v>
+        <v>0.308668</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233424</v>
+        <v>0.233691</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324969</v>
+        <v>0.325537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.315992</v>
+        <v>0.308332</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234922</v>
+        <v>0.234971</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332605</v>
+        <v>0.332631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.32473</v>
+        <v>0.316829</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237584</v>
+        <v>0.237594</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333921</v>
+        <v>0.334279</v>
       </c>
       <c r="C58" t="n">
-        <v>0.332278</v>
+        <v>0.324216</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24114</v>
+        <v>0.240488</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.341776</v>
+        <v>0.341651</v>
       </c>
       <c r="C59" t="n">
-        <v>0.339215</v>
+        <v>0.330555</v>
       </c>
       <c r="D59" t="n">
-        <v>0.245143</v>
+        <v>0.244486</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.34692</v>
+        <v>0.347063</v>
       </c>
       <c r="C60" t="n">
-        <v>0.344208</v>
+        <v>0.335495</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247894</v>
+        <v>0.247477</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.304291</v>
+        <v>0.306038</v>
       </c>
       <c r="C61" t="n">
-        <v>0.349593</v>
+        <v>0.341788</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249204</v>
+        <v>0.248556</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312613</v>
+        <v>0.309378</v>
       </c>
       <c r="C62" t="n">
-        <v>0.351683</v>
+        <v>0.344795</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250923</v>
+        <v>0.250439</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.318834</v>
+        <v>0.31995</v>
       </c>
       <c r="C63" t="n">
-        <v>0.360368</v>
+        <v>0.351358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254734</v>
+        <v>0.254126</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.323849</v>
+        <v>0.324911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.321247</v>
+        <v>0.314314</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242141</v>
+        <v>0.242182</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.328609</v>
+        <v>0.328669</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32495</v>
+        <v>0.3182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242702</v>
+        <v>0.242647</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.336291</v>
+        <v>0.337934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.329087</v>
+        <v>0.321729</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243841</v>
+        <v>0.243316</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345625</v>
+        <v>0.343628</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336117</v>
+        <v>0.329583</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246936</v>
+        <v>0.24634</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.354812</v>
+        <v>0.353816</v>
       </c>
       <c r="C68" t="n">
-        <v>0.340979</v>
+        <v>0.333514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248908</v>
+        <v>0.248931</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.361876</v>
+        <v>0.358659</v>
       </c>
       <c r="C69" t="n">
-        <v>0.345285</v>
+        <v>0.338458</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251814</v>
+        <v>0.251276</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.370666</v>
+        <v>0.368244</v>
       </c>
       <c r="C70" t="n">
-        <v>0.352702</v>
+        <v>0.34488</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256457</v>
+        <v>0.256082</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.382239</v>
+        <v>0.37868</v>
       </c>
       <c r="C71" t="n">
-        <v>0.359929</v>
+        <v>0.352346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259856</v>
+        <v>0.259535</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.389147</v>
+        <v>0.385994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.368871</v>
+        <v>0.360469</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262184</v>
+        <v>0.26193</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.40158</v>
+        <v>0.401179</v>
       </c>
       <c r="C73" t="n">
-        <v>0.378389</v>
+        <v>0.369833</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26773</v>
+        <v>0.266177</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.41458</v>
+        <v>0.408217</v>
       </c>
       <c r="C74" t="n">
-        <v>0.385413</v>
+        <v>0.376642</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26919</v>
+        <v>0.268046</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.431064</v>
+        <v>0.428876</v>
       </c>
       <c r="C75" t="n">
-        <v>0.393402</v>
+        <v>0.383696</v>
       </c>
       <c r="D75" t="n">
-        <v>0.27254</v>
+        <v>0.271781</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.429516</v>
+        <v>0.434368</v>
       </c>
       <c r="C76" t="n">
-        <v>0.406948</v>
+        <v>0.395593</v>
       </c>
       <c r="D76" t="n">
-        <v>0.276899</v>
+        <v>0.276388</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452726</v>
+        <v>0.454215</v>
       </c>
       <c r="C77" t="n">
-        <v>0.416437</v>
+        <v>0.408631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.284008</v>
+        <v>0.284171</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.483381</v>
+        <v>0.480324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.363942</v>
+        <v>0.366541</v>
       </c>
       <c r="D78" t="n">
-        <v>0.274463</v>
+        <v>0.27874</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.494137</v>
+        <v>0.496294</v>
       </c>
       <c r="C79" t="n">
-        <v>0.376388</v>
+        <v>0.374543</v>
       </c>
       <c r="D79" t="n">
-        <v>0.280467</v>
+        <v>0.282201</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.531806</v>
+        <v>0.520282</v>
       </c>
       <c r="C80" t="n">
-        <v>0.392441</v>
+        <v>0.393505</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29248</v>
+        <v>0.291539</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.554555</v>
+        <v>0.548184</v>
       </c>
       <c r="C81" t="n">
-        <v>0.411749</v>
+        <v>0.39944</v>
       </c>
       <c r="D81" t="n">
-        <v>0.295164</v>
+        <v>0.295653</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.579448</v>
+        <v>0.577122</v>
       </c>
       <c r="C82" t="n">
-        <v>0.42839</v>
+        <v>0.416023</v>
       </c>
       <c r="D82" t="n">
-        <v>0.307237</v>
+        <v>0.299128</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.62327</v>
+        <v>0.614885</v>
       </c>
       <c r="C83" t="n">
-        <v>0.438089</v>
+        <v>0.433509</v>
       </c>
       <c r="D83" t="n">
-        <v>0.315617</v>
+        <v>0.308663</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.659716</v>
+        <v>0.6604139999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.467863</v>
+        <v>0.458265</v>
       </c>
       <c r="D84" t="n">
-        <v>0.321728</v>
+        <v>0.323925</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.699038</v>
+        <v>0.694397</v>
       </c>
       <c r="C85" t="n">
-        <v>0.491766</v>
+        <v>0.481968</v>
       </c>
       <c r="D85" t="n">
-        <v>0.332582</v>
+        <v>0.334111</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.733884</v>
+        <v>0.733132</v>
       </c>
       <c r="C86" t="n">
-        <v>0.512584</v>
+        <v>0.500957</v>
       </c>
       <c r="D86" t="n">
-        <v>0.344523</v>
+        <v>0.344188</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.775012</v>
+        <v>0.769339</v>
       </c>
       <c r="C87" t="n">
-        <v>0.543589</v>
+        <v>0.528301</v>
       </c>
       <c r="D87" t="n">
-        <v>0.364483</v>
+        <v>0.356756</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.821224</v>
+        <v>0.815554</v>
       </c>
       <c r="C88" t="n">
-        <v>0.571118</v>
+        <v>0.555633</v>
       </c>
       <c r="D88" t="n">
-        <v>0.378331</v>
+        <v>0.369248</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.873777</v>
+        <v>0.867492</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606681</v>
+        <v>0.59207</v>
       </c>
       <c r="D89" t="n">
-        <v>0.394939</v>
+        <v>0.384165</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.870283</v>
+        <v>0.872883</v>
       </c>
       <c r="C90" t="n">
-        <v>0.637899</v>
+        <v>0.6270289999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.415444</v>
+        <v>0.404951</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.90842</v>
+        <v>0.903919</v>
       </c>
       <c r="C91" t="n">
-        <v>0.680719</v>
+        <v>0.676701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.419222</v>
+        <v>0.436907</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.942088</v>
+        <v>0.93594</v>
       </c>
       <c r="C92" t="n">
-        <v>0.702673</v>
+        <v>0.692257</v>
       </c>
       <c r="D92" t="n">
-        <v>0.50591</v>
+        <v>0.501489</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.973033</v>
+        <v>0.968634</v>
       </c>
       <c r="C93" t="n">
-        <v>0.73486</v>
+        <v>0.722534</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521185</v>
+        <v>0.519244</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00821</v>
+        <v>1.00359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.769244</v>
+        <v>0.759162</v>
       </c>
       <c r="D94" t="n">
-        <v>0.539835</v>
+        <v>0.5396069999999999</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04673</v>
+        <v>1.0399</v>
       </c>
       <c r="C95" t="n">
-        <v>0.800728</v>
+        <v>0.789044</v>
       </c>
       <c r="D95" t="n">
-        <v>0.559816</v>
+        <v>0.558593</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07841</v>
+        <v>1.07391</v>
       </c>
       <c r="C96" t="n">
-        <v>0.837268</v>
+        <v>0.823899</v>
       </c>
       <c r="D96" t="n">
-        <v>0.580159</v>
+        <v>0.577018</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11559</v>
+        <v>1.11114</v>
       </c>
       <c r="C97" t="n">
-        <v>0.873981</v>
+        <v>0.860515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.597778</v>
+        <v>0.596195</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15084</v>
+        <v>1.14634</v>
       </c>
       <c r="C98" t="n">
-        <v>0.908999</v>
+        <v>0.896836</v>
       </c>
       <c r="D98" t="n">
-        <v>0.618942</v>
+        <v>0.616914</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.18475</v>
+        <v>1.17943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.950827</v>
+        <v>0.937712</v>
       </c>
       <c r="D99" t="n">
-        <v>0.640997</v>
+        <v>0.6389629999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.22408</v>
+        <v>1.21777</v>
       </c>
       <c r="C100" t="n">
-        <v>0.991822</v>
+        <v>0.9782110000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.65805</v>
+        <v>0.655057</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2607</v>
+        <v>1.25478</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03026</v>
+        <v>1.0157</v>
       </c>
       <c r="D101" t="n">
-        <v>0.679776</v>
+        <v>0.676988</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.29549</v>
+        <v>1.29132</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07407</v>
+        <v>1.05914</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7022350000000001</v>
+        <v>0.6994860000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.334</v>
+        <v>1.32729</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11262</v>
+        <v>1.09667</v>
       </c>
       <c r="D103" t="n">
-        <v>0.721874</v>
+        <v>0.718542</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.37183</v>
+        <v>1.36724</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15237</v>
+        <v>1.13532</v>
       </c>
       <c r="D104" t="n">
-        <v>0.741374</v>
+        <v>0.738448</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.26131</v>
+        <v>1.25395</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19944</v>
+        <v>1.18122</v>
       </c>
       <c r="D105" t="n">
-        <v>0.763653</v>
+        <v>0.760647</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.28384</v>
+        <v>1.27694</v>
       </c>
       <c r="C106" t="n">
-        <v>1.2414</v>
+        <v>1.22322</v>
       </c>
       <c r="D106" t="n">
-        <v>0.782787</v>
+        <v>0.78011</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.30646</v>
+        <v>1.30238</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14397</v>
+        <v>1.12964</v>
       </c>
       <c r="D107" t="n">
-        <v>0.791851</v>
+        <v>0.788131</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32998</v>
+        <v>1.32496</v>
       </c>
       <c r="C108" t="n">
-        <v>1.16905</v>
+        <v>1.15715</v>
       </c>
       <c r="D108" t="n">
-        <v>0.810038</v>
+        <v>0.807257</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.35555</v>
+        <v>1.34856</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20114</v>
+        <v>1.18835</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8200539999999999</v>
+        <v>0.8175480000000001</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37776</v>
+        <v>1.37187</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22934</v>
+        <v>1.21532</v>
       </c>
       <c r="D110" t="n">
-        <v>0.838768</v>
+        <v>0.835911</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40557</v>
+        <v>1.39743</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25822</v>
+        <v>1.244</v>
       </c>
       <c r="D111" t="n">
-        <v>0.850485</v>
+        <v>0.848101</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43063</v>
+        <v>1.4231</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29452</v>
+        <v>1.27806</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8706199999999999</v>
+        <v>0.865478</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.46122</v>
+        <v>1.45302</v>
       </c>
       <c r="C113" t="n">
-        <v>1.32962</v>
+        <v>1.313</v>
       </c>
       <c r="D113" t="n">
-        <v>0.885093</v>
+        <v>0.882216</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.49089</v>
+        <v>1.48317</v>
       </c>
       <c r="C114" t="n">
-        <v>1.35999</v>
+        <v>1.34405</v>
       </c>
       <c r="D114" t="n">
-        <v>0.897587</v>
+        <v>0.894147</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.51855</v>
+        <v>1.51152</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39598</v>
+        <v>1.37955</v>
       </c>
       <c r="D115" t="n">
-        <v>0.912538</v>
+        <v>0.908156</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54925</v>
+        <v>1.54375</v>
       </c>
       <c r="C116" t="n">
-        <v>1.4296</v>
+        <v>1.41196</v>
       </c>
       <c r="D116" t="n">
-        <v>0.925754</v>
+        <v>0.921139</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.58223</v>
+        <v>1.57528</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46405</v>
+        <v>1.44635</v>
       </c>
       <c r="D117" t="n">
-        <v>0.940116</v>
+        <v>0.935715</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.61604</v>
+        <v>1.60867</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50526</v>
+        <v>1.48658</v>
       </c>
       <c r="D118" t="n">
-        <v>0.959931</v>
+        <v>0.955021</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44298</v>
+        <v>1.43335</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54254</v>
+        <v>1.52201</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9738790000000001</v>
+        <v>0.970018</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392993</v>
+        <v>0.392312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.33491</v>
+        <v>0.326206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217075</v>
+        <v>0.217658</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401928</v>
+        <v>0.402132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3371</v>
+        <v>0.333224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21996</v>
+        <v>0.219784</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414803</v>
+        <v>0.415338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.351107</v>
+        <v>0.346469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229615</v>
+        <v>0.229708</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420434</v>
+        <v>0.420222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364047</v>
+        <v>0.357447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234494</v>
+        <v>0.234829</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.439654</v>
+        <v>0.439854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3698</v>
+        <v>0.360541</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23849</v>
+        <v>0.238506</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.450165</v>
+        <v>0.450981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.385378</v>
+        <v>0.378523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245085</v>
+        <v>0.245109</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.46397</v>
+        <v>0.466126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397979</v>
+        <v>0.390843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.255998</v>
+        <v>0.257152</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.483821</v>
+        <v>0.485091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421214</v>
+        <v>0.410517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.263498</v>
+        <v>0.264464</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500035</v>
+        <v>0.499666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.439103</v>
+        <v>0.428455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274954</v>
+        <v>0.274738</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5151019999999999</v>
+        <v>0.519137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341738</v>
+        <v>0.338828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218776</v>
+        <v>0.22018</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.384208</v>
+        <v>0.38981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345942</v>
+        <v>0.343011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221738</v>
+        <v>0.222339</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.395298</v>
+        <v>0.398383</v>
       </c>
       <c r="C13" t="n">
-        <v>0.356451</v>
+        <v>0.351063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229956</v>
+        <v>0.232208</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.40596</v>
+        <v>0.411584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.371248</v>
+        <v>0.370158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231377</v>
+        <v>0.233787</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.425347</v>
+        <v>0.433385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.383748</v>
+        <v>0.380199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238729</v>
+        <v>0.239489</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.43697</v>
+        <v>0.444901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.40569</v>
+        <v>0.398925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244466</v>
+        <v>0.248434</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.449627</v>
+        <v>0.453656</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412601</v>
+        <v>0.411627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251995</v>
+        <v>0.253298</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472371</v>
+        <v>0.476741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.426075</v>
+        <v>0.419364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251726</v>
+        <v>0.254111</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.485822</v>
+        <v>0.486297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.447083</v>
+        <v>0.442869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.265043</v>
+        <v>0.264919</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.503984</v>
+        <v>0.504653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.476883</v>
+        <v>0.468396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.274392</v>
+        <v>0.275759</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.52246</v>
+        <v>0.523122</v>
       </c>
       <c r="C21" t="n">
-        <v>0.489722</v>
+        <v>0.484511</v>
       </c>
       <c r="D21" t="n">
-        <v>0.290131</v>
+        <v>0.288957</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543191</v>
+        <v>0.54445</v>
       </c>
       <c r="C22" t="n">
-        <v>0.517736</v>
+        <v>0.513137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296058</v>
+        <v>0.295953</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.559783</v>
+        <v>0.562485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.540764</v>
+        <v>0.532929</v>
       </c>
       <c r="D23" t="n">
-        <v>0.311079</v>
+        <v>0.312988</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.596702</v>
+        <v>0.600843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.564032</v>
+        <v>0.554233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.317677</v>
+        <v>0.322847</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631639</v>
+        <v>0.634898</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5887289999999999</v>
+        <v>0.57974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.330517</v>
+        <v>0.333306</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.657685</v>
+        <v>0.661185</v>
       </c>
       <c r="C26" t="n">
-        <v>0.388671</v>
+        <v>0.381288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239307</v>
+        <v>0.239278</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.434297</v>
+        <v>0.434636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.394237</v>
+        <v>0.384927</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241392</v>
+        <v>0.241213</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.450595</v>
+        <v>0.452357</v>
       </c>
       <c r="C28" t="n">
-        <v>0.40717</v>
+        <v>0.397344</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247134</v>
+        <v>0.24977</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.466326</v>
+        <v>0.4658</v>
       </c>
       <c r="C29" t="n">
-        <v>0.418203</v>
+        <v>0.407763</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252495</v>
+        <v>0.254056</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.483125</v>
+        <v>0.484007</v>
       </c>
       <c r="C30" t="n">
-        <v>0.435458</v>
+        <v>0.425957</v>
       </c>
       <c r="D30" t="n">
-        <v>0.259139</v>
+        <v>0.260372</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.49911</v>
+        <v>0.499761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.451823</v>
+        <v>0.441677</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267331</v>
+        <v>0.26938</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.516476</v>
+        <v>0.5170670000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.469483</v>
+        <v>0.459473</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274975</v>
+        <v>0.275788</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544685</v>
+        <v>0.543637</v>
       </c>
       <c r="C33" t="n">
-        <v>0.487569</v>
+        <v>0.476436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284328</v>
+        <v>0.283482</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558532</v>
+        <v>0.558016</v>
       </c>
       <c r="C34" t="n">
-        <v>0.508922</v>
+        <v>0.496375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.294189</v>
+        <v>0.292897</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.583928</v>
+        <v>0.582896</v>
       </c>
       <c r="C35" t="n">
-        <v>0.531567</v>
+        <v>0.518061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.303928</v>
+        <v>0.305484</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.603387</v>
+        <v>0.60176</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554598</v>
+        <v>0.541841</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314709</v>
+        <v>0.313553</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.618083</v>
+        <v>0.617205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.580952</v>
+        <v>0.565298</v>
       </c>
       <c r="D37" t="n">
-        <v>0.324138</v>
+        <v>0.32438</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6440940000000001</v>
+        <v>0.644415</v>
       </c>
       <c r="C38" t="n">
-        <v>0.60572</v>
+        <v>0.5898330000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.334572</v>
+        <v>0.332845</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.676333</v>
+        <v>0.676403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.633092</v>
+        <v>0.617274</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347268</v>
+        <v>0.346554</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.699055</v>
+        <v>0.698148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453961</v>
+        <v>0.443947</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280845</v>
+        <v>0.280801</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.505348</v>
+        <v>0.504441</v>
       </c>
       <c r="C41" t="n">
-        <v>0.465531</v>
+        <v>0.455093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28838</v>
+        <v>0.287379</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.517283</v>
+        <v>0.516775</v>
       </c>
       <c r="C42" t="n">
-        <v>0.484931</v>
+        <v>0.473285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294814</v>
+        <v>0.293832</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.531016</v>
+        <v>0.529823</v>
       </c>
       <c r="C43" t="n">
-        <v>0.497984</v>
+        <v>0.485687</v>
       </c>
       <c r="D43" t="n">
-        <v>0.302417</v>
+        <v>0.301181</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.546841</v>
+        <v>0.545971</v>
       </c>
       <c r="C44" t="n">
-        <v>0.520627</v>
+        <v>0.508057</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310058</v>
+        <v>0.310305</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.563156</v>
+        <v>0.563094</v>
       </c>
       <c r="C45" t="n">
-        <v>0.534155</v>
+        <v>0.521015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315577</v>
+        <v>0.31517</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.575029</v>
+        <v>0.5749919999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.554582</v>
+        <v>0.541951</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322705</v>
+        <v>0.322367</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.598283</v>
+        <v>0.597312</v>
       </c>
       <c r="C47" t="n">
-        <v>0.572499</v>
+        <v>0.5581469999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.33325</v>
+        <v>0.331746</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.615475</v>
+        <v>0.6148749999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.587403</v>
+        <v>0.573341</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343182</v>
+        <v>0.342184</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.627225</v>
+        <v>0.627129</v>
       </c>
       <c r="C49" t="n">
-        <v>0.610646</v>
+        <v>0.595511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348846</v>
+        <v>0.34826</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.656066</v>
+        <v>0.655217</v>
       </c>
       <c r="C50" t="n">
-        <v>0.631308</v>
+        <v>0.616053</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357845</v>
+        <v>0.357136</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.68025</v>
+        <v>0.679924</v>
       </c>
       <c r="C51" t="n">
-        <v>0.656355</v>
+        <v>0.640508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.37099</v>
+        <v>0.370778</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.706265</v>
+        <v>0.706809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684142</v>
+        <v>0.667083</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381067</v>
+        <v>0.380234</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.732866</v>
+        <v>0.732471</v>
       </c>
       <c r="C53" t="n">
-        <v>0.708073</v>
+        <v>0.6902740000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.394305</v>
+        <v>0.393718</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75952</v>
+        <v>0.759287</v>
       </c>
       <c r="C54" t="n">
-        <v>0.51213</v>
+        <v>0.500771</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313935</v>
+        <v>0.313491</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.790707</v>
+        <v>0.790469</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5220359999999999</v>
+        <v>0.509816</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319881</v>
+        <v>0.319366</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536975</v>
+        <v>0.537774</v>
       </c>
       <c r="C56" t="n">
-        <v>0.538146</v>
+        <v>0.525437</v>
       </c>
       <c r="D56" t="n">
-        <v>0.326187</v>
+        <v>0.325578</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5520620000000001</v>
+        <v>0.551691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.552719</v>
+        <v>0.53957</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330975</v>
+        <v>0.33057</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567536</v>
+        <v>0.567766</v>
       </c>
       <c r="C58" t="n">
-        <v>0.566979</v>
+        <v>0.553665</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337795</v>
+        <v>0.337592</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.582109</v>
+        <v>0.581997</v>
       </c>
       <c r="C59" t="n">
-        <v>0.584597</v>
+        <v>0.569425</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346983</v>
+        <v>0.346516</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5906670000000001</v>
+        <v>0.59077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.601987</v>
+        <v>0.586631</v>
       </c>
       <c r="D60" t="n">
-        <v>0.352339</v>
+        <v>0.35154</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.611094</v>
+        <v>0.61066</v>
       </c>
       <c r="C61" t="n">
-        <v>0.61816</v>
+        <v>0.603143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.360374</v>
+        <v>0.359735</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.630881</v>
+        <v>0.631159</v>
       </c>
       <c r="C62" t="n">
-        <v>0.635022</v>
+        <v>0.619798</v>
       </c>
       <c r="D62" t="n">
-        <v>0.365676</v>
+        <v>0.365903</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.651268</v>
+        <v>0.651357</v>
       </c>
       <c r="C63" t="n">
-        <v>0.658994</v>
+        <v>0.643497</v>
       </c>
       <c r="D63" t="n">
-        <v>0.376498</v>
+        <v>0.376321</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.672586</v>
+        <v>0.6734290000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.676661</v>
+        <v>0.65946</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386185</v>
+        <v>0.385837</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.702331</v>
+        <v>0.702283</v>
       </c>
       <c r="C65" t="n">
-        <v>0.70524</v>
+        <v>0.688035</v>
       </c>
       <c r="D65" t="n">
-        <v>0.396603</v>
+        <v>0.396454</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.725967</v>
+        <v>0.72641</v>
       </c>
       <c r="C66" t="n">
-        <v>0.724567</v>
+        <v>0.7062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.404464</v>
+        <v>0.403843</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.757958</v>
+        <v>0.7563530000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.753901</v>
+        <v>0.7349830000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419288</v>
+        <v>0.418388</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7779199999999999</v>
+        <v>0.775796</v>
       </c>
       <c r="C68" t="n">
-        <v>0.507626</v>
+        <v>0.495227</v>
       </c>
       <c r="D68" t="n">
-        <v>0.31472</v>
+        <v>0.314646</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.821341</v>
+        <v>0.82042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5268620000000001</v>
+        <v>0.514346</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320321</v>
+        <v>0.320057</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.558099</v>
+        <v>0.558608</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550084</v>
+        <v>0.536124</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33032</v>
+        <v>0.330407</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.580667</v>
+        <v>0.581109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.571253</v>
+        <v>0.556914</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336955</v>
+        <v>0.337482</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.611313</v>
+        <v>0.609739</v>
       </c>
       <c r="C72" t="n">
-        <v>0.594354</v>
+        <v>0.579475</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345868</v>
+        <v>0.346067</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.636693</v>
+        <v>0.634848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.619998</v>
+        <v>0.604415</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355881</v>
+        <v>0.355435</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.661972</v>
+        <v>0.660318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.644221</v>
+        <v>0.628315</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365711</v>
+        <v>0.365995</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.690971</v>
+        <v>0.690401</v>
       </c>
       <c r="C75" t="n">
-        <v>0.676135</v>
+        <v>0.660408</v>
       </c>
       <c r="D75" t="n">
-        <v>0.376471</v>
+        <v>0.376551</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.724935</v>
+        <v>0.727483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7083</v>
+        <v>0.691551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.387839</v>
+        <v>0.387607</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.759692</v>
+        <v>0.760417</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7436739999999999</v>
+        <v>0.726819</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399074</v>
+        <v>0.398555</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.809123</v>
+        <v>0.803747</v>
       </c>
       <c r="C78" t="n">
-        <v>0.785953</v>
+        <v>0.763256</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412331</v>
+        <v>0.412801</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.861654</v>
+        <v>0.847102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.829155</v>
+        <v>0.802487</v>
       </c>
       <c r="D79" t="n">
-        <v>0.42536</v>
+        <v>0.42474</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.926102</v>
+        <v>0.9096109999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.890582</v>
+        <v>0.8581220000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.441076</v>
+        <v>0.438081</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.986018</v>
+        <v>0.982371</v>
       </c>
       <c r="C81" t="n">
-        <v>0.952394</v>
+        <v>0.923126</v>
       </c>
       <c r="D81" t="n">
-        <v>0.459299</v>
+        <v>0.45956</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05814</v>
+        <v>1.05491</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01776</v>
+        <v>0.990612</v>
       </c>
       <c r="D82" t="n">
-        <v>0.472865</v>
+        <v>0.474358</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14676</v>
+        <v>1.14742</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7352</v>
+        <v>0.716096</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383693</v>
+        <v>0.38357</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.24997</v>
+        <v>1.25238</v>
       </c>
       <c r="C84" t="n">
-        <v>0.787372</v>
+        <v>0.76741</v>
       </c>
       <c r="D84" t="n">
-        <v>0.395895</v>
+        <v>0.396042</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.885618</v>
+        <v>0.886236</v>
       </c>
       <c r="C85" t="n">
-        <v>0.837428</v>
+        <v>0.82059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408254</v>
+        <v>0.407423</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.951668</v>
+        <v>0.9549840000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9157419999999999</v>
+        <v>0.895553</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431285</v>
+        <v>0.430103</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02536</v>
+        <v>1.02718</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9935079999999999</v>
+        <v>0.969278</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457039</v>
+        <v>0.458379</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11461</v>
+        <v>1.10892</v>
       </c>
       <c r="C88" t="n">
-        <v>1.0992</v>
+        <v>1.06611</v>
       </c>
       <c r="D88" t="n">
-        <v>0.484267</v>
+        <v>0.477857</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20783</v>
+        <v>1.20086</v>
       </c>
       <c r="C89" t="n">
-        <v>1.19602</v>
+        <v>1.15922</v>
       </c>
       <c r="D89" t="n">
-        <v>0.508246</v>
+        <v>0.506154</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31333</v>
+        <v>1.30453</v>
       </c>
       <c r="C90" t="n">
-        <v>1.30203</v>
+        <v>1.26365</v>
       </c>
       <c r="D90" t="n">
-        <v>0.532899</v>
+        <v>0.535844</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42826</v>
+        <v>1.42377</v>
       </c>
       <c r="C91" t="n">
-        <v>1.42951</v>
+        <v>1.38765</v>
       </c>
       <c r="D91" t="n">
-        <v>0.588</v>
+        <v>0.589164</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54797</v>
+        <v>1.54121</v>
       </c>
       <c r="C92" t="n">
-        <v>1.56388</v>
+        <v>1.52134</v>
       </c>
       <c r="D92" t="n">
-        <v>0.622121</v>
+        <v>0.613577</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.67509</v>
+        <v>1.67367</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70435</v>
+        <v>1.65354</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6657380000000001</v>
+        <v>0.665093</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.81795</v>
+        <v>1.80839</v>
       </c>
       <c r="C94" t="n">
-        <v>1.85998</v>
+        <v>1.80303</v>
       </c>
       <c r="D94" t="n">
-        <v>0.727669</v>
+        <v>0.728898</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.95898</v>
+        <v>1.95405</v>
       </c>
       <c r="C95" t="n">
-        <v>2.01789</v>
+        <v>1.95634</v>
       </c>
       <c r="D95" t="n">
-        <v>0.773719</v>
+        <v>0.774795</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.12576</v>
+        <v>2.11865</v>
       </c>
       <c r="C96" t="n">
-        <v>2.21002</v>
+        <v>2.14251</v>
       </c>
       <c r="D96" t="n">
-        <v>0.845821</v>
+        <v>0.844693</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.29308</v>
+        <v>2.29055</v>
       </c>
       <c r="C97" t="n">
-        <v>1.36892</v>
+        <v>1.33288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.637428</v>
+        <v>0.631576</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.45872</v>
+        <v>2.457</v>
       </c>
       <c r="C98" t="n">
-        <v>1.46794</v>
+        <v>1.42902</v>
       </c>
       <c r="D98" t="n">
-        <v>0.671412</v>
+        <v>0.669844</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.6989</v>
+        <v>1.69871</v>
       </c>
       <c r="C99" t="n">
-        <v>1.55933</v>
+        <v>1.52086</v>
       </c>
       <c r="D99" t="n">
-        <v>0.714392</v>
+        <v>0.716977</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.79368</v>
+        <v>1.78904</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66799</v>
+        <v>1.62682</v>
       </c>
       <c r="D100" t="n">
-        <v>0.754278</v>
+        <v>0.75379</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.88753</v>
+        <v>1.88533</v>
       </c>
       <c r="C101" t="n">
-        <v>1.77968</v>
+        <v>1.73349</v>
       </c>
       <c r="D101" t="n">
-        <v>0.792978</v>
+        <v>0.793508</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.99389</v>
+        <v>1.99036</v>
       </c>
       <c r="C102" t="n">
-        <v>1.89731</v>
+        <v>1.84403</v>
       </c>
       <c r="D102" t="n">
-        <v>0.839449</v>
+        <v>0.8408600000000001</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.08981</v>
+        <v>2.08948</v>
       </c>
       <c r="C103" t="n">
-        <v>2.01933</v>
+        <v>1.96339</v>
       </c>
       <c r="D103" t="n">
-        <v>0.88313</v>
+        <v>0.879643</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.20724</v>
+        <v>2.20671</v>
       </c>
       <c r="C104" t="n">
-        <v>2.15001</v>
+        <v>2.09101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.92622</v>
+        <v>0.924805</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31626</v>
+        <v>2.31101</v>
       </c>
       <c r="C105" t="n">
-        <v>2.28743</v>
+        <v>2.2247</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00222</v>
+        <v>1.00096</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.44429</v>
+        <v>2.43861</v>
       </c>
       <c r="C106" t="n">
-        <v>2.42001</v>
+        <v>2.35436</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04456</v>
+        <v>1.04354</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.56839</v>
+        <v>2.56241</v>
       </c>
       <c r="C107" t="n">
-        <v>2.55781</v>
+        <v>2.49087</v>
       </c>
       <c r="D107" t="n">
-        <v>1.10156</v>
+        <v>1.09918</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.70628</v>
+        <v>2.70159</v>
       </c>
       <c r="C108" t="n">
-        <v>2.70573</v>
+        <v>2.64378</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15949</v>
+        <v>1.1552</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.84188</v>
+        <v>2.83928</v>
       </c>
       <c r="C109" t="n">
-        <v>2.86216</v>
+        <v>2.79145</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23017</v>
+        <v>1.22516</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.00238</v>
+        <v>2.98588</v>
       </c>
       <c r="C110" t="n">
-        <v>3.00992</v>
+        <v>2.9326</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2705</v>
+        <v>1.26816</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14788</v>
+        <v>3.15145</v>
       </c>
       <c r="C111" t="n">
-        <v>2.00126</v>
+        <v>1.95939</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02155</v>
+        <v>1.01713</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.3308</v>
+        <v>3.32676</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08907</v>
+        <v>2.05428</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04689</v>
+        <v>1.04548</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.48113</v>
+        <v>3.47316</v>
       </c>
       <c r="C113" t="n">
-        <v>2.18097</v>
+        <v>2.1466</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09347</v>
+        <v>1.09267</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.34356</v>
+        <v>2.33481</v>
       </c>
       <c r="C114" t="n">
-        <v>2.27385</v>
+        <v>2.23412</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12855</v>
+        <v>1.12623</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.43653</v>
+        <v>2.42498</v>
       </c>
       <c r="C115" t="n">
-        <v>2.36973</v>
+        <v>2.32203</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18619</v>
+        <v>1.18298</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.53463</v>
+        <v>2.52317</v>
       </c>
       <c r="C116" t="n">
-        <v>2.47247</v>
+        <v>2.41803</v>
       </c>
       <c r="D116" t="n">
-        <v>1.22365</v>
+        <v>1.22022</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.64433</v>
+        <v>2.633</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58943</v>
+        <v>2.52104</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25613</v>
+        <v>1.25198</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.74285</v>
+        <v>2.73234</v>
       </c>
       <c r="C118" t="n">
-        <v>2.72379</v>
+        <v>2.643</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30925</v>
+        <v>1.30638</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.8478</v>
+        <v>2.84274</v>
       </c>
       <c r="C119" t="n">
-        <v>2.84922</v>
+        <v>2.76511</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36336</v>
+        <v>1.35734</v>
       </c>
     </row>
   </sheetData>
